--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -38,157 +38,157 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27017688751221</t>
+    <t xml:space="preserve">4.27017641067505</t>
   </si>
   <si>
     <t xml:space="preserve">ZV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25228023529053</t>
+    <t xml:space="preserve">4.25228071212769</t>
   </si>
   <si>
     <t xml:space="preserve">4.16279602050781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04467630386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9945662021637</t>
+    <t xml:space="preserve">4.04467725753784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99456548690796</t>
   </si>
   <si>
     <t xml:space="preserve">3.91939902305603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96951055526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95519304275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01604175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98382830619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89434432983398</t>
+    <t xml:space="preserve">3.96950960159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95519351959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01604223251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98382782936096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89434409141541</t>
   </si>
   <si>
     <t xml:space="preserve">3.87286806106567</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76548719406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85855031013489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729615211487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91224026679993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86570906639099</t>
+    <t xml:space="preserve">3.7654869556427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85855007171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729543685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91224050521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86570858955383</t>
   </si>
   <si>
     <t xml:space="preserve">3.90150260925293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9587721824646</t>
+    <t xml:space="preserve">3.95877289772034</t>
   </si>
   <si>
     <t xml:space="preserve">3.80128026008606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79412174224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78696298599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69389939308167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65810632705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71537566184998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5793604850769</t>
+    <t xml:space="preserve">3.79412221908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78696274757385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69389963150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65810656547546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71537590026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57936024665833</t>
   </si>
   <si>
     <t xml:space="preserve">3.60083627700806</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70821642875671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75832772254944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76906609535217</t>
+    <t xml:space="preserve">3.70821690559387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75832843780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76906585693359</t>
   </si>
   <si>
     <t xml:space="preserve">3.81559801101685</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77980446815491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74759006500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72611379623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70105814933777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76190805435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78338408470154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80486011505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74401044845581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7726457118988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85139179229736</t>
+    <t xml:space="preserve">3.77980399131775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74758958816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72611403465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70105838775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76190781593323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78338360786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80485963821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74401092529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77264547348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85139131546021</t>
   </si>
   <si>
     <t xml:space="preserve">4.00172472000122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05899477005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08404970169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06973171234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15205812454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15921640396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13774013519287</t>
+    <t xml:space="preserve">4.05899524688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08405017852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06973266601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15205764770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15921688079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13774061203003</t>
   </si>
   <si>
     <t xml:space="preserve">4.12342309951782</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11626434326172</t>
+    <t xml:space="preserve">4.11626482009888</t>
   </si>
   <si>
     <t xml:space="preserve">4.14489889144897</t>
@@ -200,52 +200,52 @@
     <t xml:space="preserve">4.19501066207886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09836769104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07689094543457</t>
+    <t xml:space="preserve">4.09836721420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07689189910889</t>
   </si>
   <si>
     <t xml:space="preserve">4.16637563705444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11984443664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16995477676392</t>
+    <t xml:space="preserve">4.11984300613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16995429992676</t>
   </si>
   <si>
     <t xml:space="preserve">4.18069267272949</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18785190582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1341609954834</t>
+    <t xml:space="preserve">4.18785095214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13416147232056</t>
   </si>
   <si>
     <t xml:space="preserve">4.19858932495117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14131879806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09120845794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10706949234009</t>
+    <t xml:space="preserve">4.14131927490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09120893478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10706901550293</t>
   </si>
   <si>
     <t xml:space="preserve">4.09213495254517</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07719945907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05479764938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08093309402466</t>
+    <t xml:space="preserve">4.07719993591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05479717254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08093404769897</t>
   </si>
   <si>
     <t xml:space="preserve">4.09586811065674</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">4.11453676223755</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12200403213501</t>
+    <t xml:space="preserve">4.12200355529785</t>
   </si>
   <si>
     <t xml:space="preserve">4.11080312728882</t>
@@ -263,10 +263,10 @@
     <t xml:space="preserve">4.16680860519409</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17800998687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18547773361206</t>
+    <t xml:space="preserve">4.17800951004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18547677993774</t>
   </si>
   <si>
     <t xml:space="preserve">4.24148225784302</t>
@@ -275,58 +275,58 @@
     <t xml:space="preserve">4.25268363952637</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31988954544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2862868309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26761817932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21907997131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23401594161987</t>
+    <t xml:space="preserve">4.31989002227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28628635406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26761865615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21908092498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23401546478271</t>
   </si>
   <si>
     <t xml:space="preserve">4.20041179656982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19667863845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01746082305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99505805969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96892237663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96145534515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12573766708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14440631866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17427635192871</t>
+    <t xml:space="preserve">4.19667816162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01746034622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99505877494812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96892213821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96145510673523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1257381439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14440679550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17427539825439</t>
   </si>
   <si>
     <t xml:space="preserve">4.26388454437256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97265648841858</t>
+    <t xml:space="preserve">3.97265672683716</t>
   </si>
   <si>
     <t xml:space="preserve">4.02492809295654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04733037948608</t>
+    <t xml:space="preserve">4.04733085632324</t>
   </si>
   <si>
     <t xml:space="preserve">4.08840084075928</t>
@@ -338,115 +338,112 @@
     <t xml:space="preserve">4.02119445800781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05853176116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06973218917847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.032395362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08466768264771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11827087402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15934085845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12947130203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13693952560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20414543151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2265477180481</t>
+    <t xml:space="preserve">4.05853128433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03239488601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08466720581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11827039718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15934133529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12947177886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13693904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20414590835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22654724121094</t>
   </si>
   <si>
     <t xml:space="preserve">4.24895000457764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18174314498901</t>
+    <t xml:space="preserve">4.18174266815186</t>
   </si>
   <si>
     <t xml:space="preserve">4.06226539611816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02866125106812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98385739326477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98012375831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97639012336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95772123336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93531918525696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98759078979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00252628326416</t>
+    <t xml:space="preserve">4.02866220474243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98385763168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98012351989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97638988494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95772194862366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9353187084198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98759126663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.002525806427</t>
   </si>
   <si>
     <t xml:space="preserve">4.03612947463989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93905282020569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95025396347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.942786693573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94652080535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86064481735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84571051597595</t>
+    <t xml:space="preserve">3.93905329704285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95025372505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94278645515442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94651961326599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86064505577087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84571027755737</t>
   </si>
   <si>
     <t xml:space="preserve">3.86811208724976</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82330799102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81584095954895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077573776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81957387924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85317754745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95398855209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14067316055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21161270141602</t>
+    <t xml:space="preserve">3.82330775260925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81584167480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077549934387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81957411766052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85317778587341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95398783683777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14067268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21161317825317</t>
   </si>
   <si>
     <t xml:space="preserve">4.22281455993652</t>
@@ -455,10 +452,10 @@
     <t xml:space="preserve">4.09960174560547</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10333585739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00999355316162</t>
+    <t xml:space="preserve">4.1033353805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00999307632446</t>
   </si>
   <si>
     <t xml:space="preserve">4.0435962677002</t>
@@ -467,16 +464,16 @@
     <t xml:space="preserve">4.00625944137573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06599903106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92038416862488</t>
+    <t xml:space="preserve">4.06599855422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92038440704346</t>
   </si>
   <si>
     <t xml:space="preserve">4.0734658241272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26015090942383</t>
+    <t xml:space="preserve">4.26015138626099</t>
   </si>
   <si>
     <t xml:space="preserve">4.27135181427002</t>
@@ -485,28 +482,28 @@
     <t xml:space="preserve">4.31615686416626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33109188079834</t>
+    <t xml:space="preserve">4.33109092712402</t>
   </si>
   <si>
     <t xml:space="preserve">4.28255367279053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27882051467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32362413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34229230880737</t>
+    <t xml:space="preserve">4.27881908416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32362461090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34229326248169</t>
   </si>
   <si>
     <t xml:space="preserve">4.30868911743164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30495548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27508640289307</t>
+    <t xml:space="preserve">4.30495500564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27508592605591</t>
   </si>
   <si>
     <t xml:space="preserve">4.29375457763672</t>
@@ -515,64 +512,64 @@
     <t xml:space="preserve">4.33855867385864</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33482456207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3684287071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36096143722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40576505661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42070007324219</t>
+    <t xml:space="preserve">4.33482551574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36842823028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36096096038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40576553344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42070055007935</t>
   </si>
   <si>
     <t xml:space="preserve">4.39456462860107</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48043918609619</t>
+    <t xml:space="preserve">4.48043966293335</t>
   </si>
   <si>
     <t xml:space="preserve">4.45430374145508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51777601242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59245014190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61485195159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59991788864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55511379241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54764652252197</t>
+    <t xml:space="preserve">4.51777648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5924506187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61485147476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5999174118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55511331558228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54764556884766</t>
   </si>
   <si>
     <t xml:space="preserve">4.62978792190552</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76420021057129</t>
+    <t xml:space="preserve">4.76420068740845</t>
   </si>
   <si>
     <t xml:space="preserve">4.99569034576416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18984174728394</t>
+    <t xml:space="preserve">5.18984270095825</t>
   </si>
   <si>
     <t xml:space="preserve">5.22717905044556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48853778839111</t>
+    <t xml:space="preserve">5.48853874206543</t>
   </si>
   <si>
     <t xml:space="preserve">5.51840782165527</t>
@@ -584,31 +581,31 @@
     <t xml:space="preserve">5.522141456604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38026094436646</t>
+    <t xml:space="preserve">5.38026142120361</t>
   </si>
   <si>
     <t xml:space="preserve">5.3615927696228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37279319763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639734268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39519548416138</t>
+    <t xml:space="preserve">5.37279367446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639638900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39519500732422</t>
   </si>
   <si>
     <t xml:space="preserve">5.44373369216919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45120143890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46613597869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48480415344238</t>
+    <t xml:space="preserve">5.45120096206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46613645553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48480463027954</t>
   </si>
   <si>
     <t xml:space="preserve">5.43626642227173</t>
@@ -620,46 +617,46 @@
     <t xml:space="preserve">5.5445442199707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56694602966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91418075561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82457113265991</t>
+    <t xml:space="preserve">5.56694555282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91418027877808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82457160949707</t>
   </si>
   <si>
     <t xml:space="preserve">5.66028833389282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78723382949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67522382736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74989748001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84323930740356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92965793609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97209453582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01067447662354</t>
+    <t xml:space="preserve">5.78723430633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67522287368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74989700317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84323978424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92965745925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97209405899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01067399978638</t>
   </si>
   <si>
     <t xml:space="preserve">5.94123125076294</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93737316131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91422557830811</t>
+    <t xml:space="preserve">5.93737363815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91422510147095</t>
   </si>
   <si>
     <t xml:space="preserve">5.72904491424561</t>
@@ -668,52 +665,52 @@
     <t xml:space="preserve">5.72518682479858</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86792993545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87564563751221</t>
+    <t xml:space="preserve">5.86793041229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87564611434937</t>
   </si>
   <si>
     <t xml:space="preserve">5.81006145477295</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77148151397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87178802490234</t>
+    <t xml:space="preserve">5.77148199081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8717885017395</t>
   </si>
   <si>
     <t xml:space="preserve">5.76376628875732</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67117500305176</t>
+    <t xml:space="preserve">5.67117547988892</t>
   </si>
   <si>
     <t xml:space="preserve">5.6788911819458</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74061870574951</t>
+    <t xml:space="preserve">5.74061822891235</t>
   </si>
   <si>
     <t xml:space="preserve">5.70975494384766</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78691387176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75604963302612</t>
+    <t xml:space="preserve">5.78691291809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75605010986328</t>
   </si>
   <si>
     <t xml:space="preserve">5.790771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80620336532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8602147102356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91808319091797</t>
+    <t xml:space="preserve">5.80620288848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86021423339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91808366775513</t>
   </si>
   <si>
     <t xml:space="preserve">5.71746969223022</t>
@@ -722,22 +719,22 @@
     <t xml:space="preserve">5.82549285888672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86407279968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75990772247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93351554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81777667999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6480278968811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67503261566162</t>
+    <t xml:space="preserve">5.86407232284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7599081993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93351602554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81777763366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64802837371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67503309249878</t>
   </si>
   <si>
     <t xml:space="preserve">5.61330652236938</t>
@@ -749,10 +746,10 @@
     <t xml:space="preserve">5.44741439819336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4165506362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57086801528931</t>
+    <t xml:space="preserve">5.41655111312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57086849212646</t>
   </si>
   <si>
     <t xml:space="preserve">5.62102222442627</t>
@@ -764,16 +761,16 @@
     <t xml:space="preserve">5.71361303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69432353973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68274879455566</t>
+    <t xml:space="preserve">5.69432306289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68274927139282</t>
   </si>
   <si>
     <t xml:space="preserve">5.54000520706177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77919769287109</t>
+    <t xml:space="preserve">5.77919721603394</t>
   </si>
   <si>
     <t xml:space="preserve">5.7213282585144</t>
@@ -788,37 +785,37 @@
     <t xml:space="preserve">5.79462957382202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65574264526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79848718643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81391954421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88722038269043</t>
+    <t xml:space="preserve">5.65574359893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79848766326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81391859054565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88721990585327</t>
   </si>
   <si>
     <t xml:space="preserve">5.89493608474731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87950468063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83320808410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85249853134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97595310211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90265226364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89107847213745</t>
+    <t xml:space="preserve">5.87950372695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8332085609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85249900817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97595262527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9026517868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89107799530029</t>
   </si>
   <si>
     <t xml:space="preserve">5.82163524627686</t>
@@ -827,19 +824,19 @@
     <t xml:space="preserve">5.84478282928467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92194175720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90650939941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08397531509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12255477905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26529884338379</t>
+    <t xml:space="preserve">5.92194128036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90651035308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08397483825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12255525588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26529788970947</t>
   </si>
   <si>
     <t xml:space="preserve">6.28073072433472</t>
@@ -851,25 +848,25 @@
     <t xml:space="preserve">6.27301454544067</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32702541351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16113424301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21900272369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1649923324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29616165161133</t>
+    <t xml:space="preserve">6.32702589035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16113376617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21900320053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16499185562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29616212844849</t>
   </si>
   <si>
     <t xml:space="preserve">6.0955491065979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24600887298584</t>
+    <t xml:space="preserve">6.24600839614868</t>
   </si>
   <si>
     <t xml:space="preserve">6.16884994506836</t>
@@ -884,37 +881,37 @@
     <t xml:space="preserve">6.11098098754883</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18428230285645</t>
+    <t xml:space="preserve">6.18428182601929</t>
   </si>
   <si>
     <t xml:space="preserve">6.0261058807373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15727567672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19585514068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08011770248413</t>
+    <t xml:space="preserve">6.15727615356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19585561752319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08011722564697</t>
   </si>
   <si>
     <t xml:space="preserve">6.05311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00681638717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98752641677856</t>
+    <t xml:space="preserve">6.0068154335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98752689361572</t>
   </si>
   <si>
     <t xml:space="preserve">6.22286081314087</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11483860015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10712242126465</t>
+    <t xml:space="preserve">6.11483907699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10712289810181</t>
   </si>
   <si>
     <t xml:space="preserve">6.06082725524902</t>
@@ -929,49 +926,49 @@
     <t xml:space="preserve">5.84864044189453</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08783340454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94508934020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00295877456665</t>
+    <t xml:space="preserve">6.08783292770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94508981704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00295829772949</t>
   </si>
   <si>
     <t xml:space="preserve">6.06468534469604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09169149398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13798570632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13412809371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15341806411743</t>
+    <t xml:space="preserve">6.09169054031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1379861831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13412761688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15341758728027</t>
   </si>
   <si>
     <t xml:space="preserve">6.21128749847412</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14955997467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2382926940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26144027709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25758218765259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28844594955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36560487747192</t>
+    <t xml:space="preserve">6.14956045150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23829317092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26143980026245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25758266448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28844547271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36560535430908</t>
   </si>
   <si>
     <t xml:space="preserve">6.40418434143066</t>
@@ -980,13 +977,13 @@
     <t xml:space="preserve">6.350172996521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43504810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5816502571106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53535509109497</t>
+    <t xml:space="preserve">6.43504858016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58164978027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53535461425781</t>
   </si>
   <si>
     <t xml:space="preserve">6.37332105636597</t>
@@ -998,10 +995,10 @@
     <t xml:space="preserve">6.38875246047974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60479784011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55850172042847</t>
+    <t xml:space="preserve">6.60479831695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55850219726562</t>
   </si>
   <si>
     <t xml:space="preserve">6.48905849456787</t>
@@ -1013,37 +1010,37 @@
     <t xml:space="preserve">6.12641286849976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04925394058228</t>
+    <t xml:space="preserve">6.04925346374512</t>
   </si>
   <si>
     <t xml:space="preserve">6.30387830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34245777130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22671890258789</t>
+    <t xml:space="preserve">6.34245729446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22671842575073</t>
   </si>
   <si>
     <t xml:space="preserve">6.18042373657227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31159400939941</t>
+    <t xml:space="preserve">6.31159353256226</t>
   </si>
   <si>
     <t xml:space="preserve">6.33474111557007</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46591234207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50449180603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45047903060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3193097114563</t>
+    <t xml:space="preserve">6.46591091156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50449085235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45047950744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31930875778198</t>
   </si>
   <si>
     <t xml:space="preserve">6.23443460464478</t>
@@ -1061,30 +1058,33 @@
     <t xml:space="preserve">6.41961622238159</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42733144760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52763795852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51992273330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59708118438721</t>
+    <t xml:space="preserve">6.42733192443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52763843536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51992225646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59708166122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566112518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74785804748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67573118209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58757638931274</t>
   </si>
   <si>
     <t xml:space="preserve">6.63566064834595</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74785852432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67573070526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5875768661499</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.50743532180786</t>
   </si>
   <si>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">6.61963272094727</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56353378295898</t>
+    <t xml:space="preserve">6.56353330612183</t>
   </si>
   <si>
     <t xml:space="preserve">6.53147745132446</t>
@@ -1106,19 +1106,19 @@
     <t xml:space="preserve">6.37119579315186</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39523792266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61161804199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57956171035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60360431671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65168857574463</t>
+    <t xml:space="preserve">6.39523839950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61161851882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57956218719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60360383987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65168905258179</t>
   </si>
   <si>
     <t xml:space="preserve">6.73182916641235</t>
@@ -1127,13 +1127,13 @@
     <t xml:space="preserve">6.53949117660522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51545000076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55552005767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35516738891602</t>
+    <t xml:space="preserve">6.51544952392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55551958084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35516786575317</t>
   </si>
   <si>
     <t xml:space="preserve">6.38722372055054</t>
@@ -1142,19 +1142,19 @@
     <t xml:space="preserve">6.34715414047241</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32311201095581</t>
+    <t xml:space="preserve">6.32311153411865</t>
   </si>
   <si>
     <t xml:space="preserve">6.46736478805542</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48339319229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4593505859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4353084564209</t>
+    <t xml:space="preserve">6.4833927154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45935106277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43530893325806</t>
   </si>
   <si>
     <t xml:space="preserve">6.29906892776489</t>
@@ -1163,22 +1163,22 @@
     <t xml:space="preserve">6.42729473114014</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49140691757202</t>
+    <t xml:space="preserve">6.49140787124634</t>
   </si>
   <si>
     <t xml:space="preserve">6.45133686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40325260162354</t>
+    <t xml:space="preserve">6.40325212478638</t>
   </si>
   <si>
     <t xml:space="preserve">6.33913946151733</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29105520248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27502632141113</t>
+    <t xml:space="preserve">6.29105472564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27502679824829</t>
   </si>
   <si>
     <t xml:space="preserve">6.4112663269043</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">6.21091461181641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37920999526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36318254470825</t>
+    <t xml:space="preserve">6.37920951843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36318159103394</t>
   </si>
   <si>
     <t xml:space="preserve">6.33112573623657</t>
@@ -1205,19 +1205,19 @@
     <t xml:space="preserve">6.19488620758057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41928005218506</t>
+    <t xml:space="preserve">6.41928052902222</t>
   </si>
   <si>
     <t xml:space="preserve">6.59559011459351</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84402656555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01232290267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82799863815308</t>
+    <t xml:space="preserve">6.84402751922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01232242584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82799911499023</t>
   </si>
   <si>
     <t xml:space="preserve">6.9482102394104</t>
@@ -1226,40 +1226,40 @@
     <t xml:space="preserve">6.9321813583374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98026609420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92416858673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02835035324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90813875198364</t>
+    <t xml:space="preserve">6.98026561737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92416763305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02835130691528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90813970565796</t>
   </si>
   <si>
     <t xml:space="preserve">6.85204076766968</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98828029632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04437875747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.972252368927</t>
+    <t xml:space="preserve">6.98828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04437971115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97225189208984</t>
   </si>
   <si>
     <t xml:space="preserve">6.69977283477783</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75587272644043</t>
+    <t xml:space="preserve">6.75587224960327</t>
   </si>
   <si>
     <t xml:space="preserve">6.77991390228271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78792905807495</t>
+    <t xml:space="preserve">6.78792858123779</t>
   </si>
   <si>
     <t xml:space="preserve">6.90012502670288</t>
@@ -1268,43 +1268,43 @@
     <t xml:space="preserve">6.96423816680908</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91615390777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94019556045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81197071075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70778799057007</t>
+    <t xml:space="preserve">6.91615343093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94019508361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81197118759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70778656005859</t>
   </si>
   <si>
     <t xml:space="preserve">6.5715479850769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77190017700195</t>
+    <t xml:space="preserve">6.77189970016479</t>
   </si>
   <si>
     <t xml:space="preserve">6.68374538421631</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64367437362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06842041015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05239343643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12452030181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253307342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9962944984436</t>
+    <t xml:space="preserve">6.64367485046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06842136383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05239295959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12451982498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253355026245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99629402160645</t>
   </si>
   <si>
     <t xml:space="preserve">6.73984336853027</t>
@@ -1313,22 +1313,22 @@
     <t xml:space="preserve">6.72381591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.836012840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88409757614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66771697998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71580219268799</t>
+    <t xml:space="preserve">6.83601236343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88409662246704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66771745681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71580076217651</t>
   </si>
   <si>
     <t xml:space="preserve">6.54750633239746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76388549804688</t>
+    <t xml:space="preserve">6.76388597488403</t>
   </si>
   <si>
     <t xml:space="preserve">7.10047721862793</t>
@@ -1337,16 +1337,16 @@
     <t xml:space="preserve">7.14054775238037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18863344192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17260360717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11650609970093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23671579360962</t>
+    <t xml:space="preserve">7.18863296508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17260408401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11650562286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23671674728394</t>
   </si>
   <si>
     <t xml:space="preserve">7.25274562835693</t>
@@ -1355,28 +1355,28 @@
     <t xml:space="preserve">7.19664621353149</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22870397567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20466041564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29281616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38898420333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28480100631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33288621902466</t>
+    <t xml:space="preserve">7.22870349884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20465993881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29281520843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38898468017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2848014831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33288478851318</t>
   </si>
   <si>
     <t xml:space="preserve">7.45309686660767</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50919532775879</t>
+    <t xml:space="preserve">7.50919580459595</t>
   </si>
   <si>
     <t xml:space="preserve">7.55728054046631</t>
@@ -1385,28 +1385,28 @@
     <t xml:space="preserve">7.51720952987671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41302585601807</t>
+    <t xml:space="preserve">7.41302680969238</t>
   </si>
   <si>
     <t xml:space="preserve">7.48515367507935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44508266448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49316692352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81373167037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77366018295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75763177871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52522373199463</t>
+    <t xml:space="preserve">7.4450831413269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49316740036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81373119354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77365970611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75763273239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52522420883179</t>
   </si>
   <si>
     <t xml:space="preserve">7.54125213623047</t>
@@ -1421,10 +1421,10 @@
     <t xml:space="preserve">7.63742160797119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61337804794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60536479949951</t>
+    <t xml:space="preserve">7.61337947845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60536432266235</t>
   </si>
   <si>
     <t xml:space="preserve">7.57330799102783</t>
@@ -1433,25 +1433,25 @@
     <t xml:space="preserve">7.79770231246948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85380125045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91791486740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96599864959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97401237487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19039249420166</t>
+    <t xml:space="preserve">7.85380077362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91791439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96599912643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97401189804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19039344787598</t>
   </si>
   <si>
     <t xml:space="preserve">8.23847675323486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07819557189941</t>
+    <t xml:space="preserve">8.07819652557373</t>
   </si>
   <si>
     <t xml:space="preserve">8.12628078460693</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">8.00606918334961</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87784433364868</t>
+    <t xml:space="preserve">7.87784385681152</t>
   </si>
   <si>
     <t xml:space="preserve">7.94195604324341</t>
@@ -1469,40 +1469,40 @@
     <t xml:space="preserve">8.03011131286621</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93394184112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99003982543945</t>
+    <t xml:space="preserve">7.93394231796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99004173278809</t>
   </si>
   <si>
     <t xml:space="preserve">8.01408290863037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98202657699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90188550949097</t>
+    <t xml:space="preserve">7.98202705383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90188455581665</t>
   </si>
   <si>
     <t xml:space="preserve">7.89387178421021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86982917785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14230823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35067462921143</t>
+    <t xml:space="preserve">7.86982870101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14230728149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35067367553711</t>
   </si>
   <si>
     <t xml:space="preserve">8.33464622497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71932220458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10399723052979</t>
+    <t xml:space="preserve">8.71932315826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1039981842041</t>
   </si>
   <si>
     <t xml:space="preserve">8.97577285766602</t>
@@ -1517,19 +1517,19 @@
     <t xml:space="preserve">8.57832145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54520130157471</t>
+    <t xml:space="preserve">8.54520034790039</t>
   </si>
   <si>
     <t xml:space="preserve">8.37959575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49552059173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41271781921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72736644744873</t>
+    <t xml:space="preserve">8.49551963806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41271686553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72736549377441</t>
   </si>
   <si>
     <t xml:space="preserve">8.47895908355713</t>
@@ -1538,28 +1538,28 @@
     <t xml:space="preserve">8.3133544921875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17258930206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28023338317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26367282867432</t>
+    <t xml:space="preserve">8.17259120941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28023433685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26367378234863</t>
   </si>
   <si>
     <t xml:space="preserve">8.36303615570068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42927837371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52864074707031</t>
+    <t xml:space="preserve">8.42927742004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52864170074463</t>
   </si>
   <si>
     <t xml:space="preserve">8.5120792388916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29679489135742</t>
+    <t xml:space="preserve">8.29679393768311</t>
   </si>
   <si>
     <t xml:space="preserve">8.87641143798828</t>
@@ -1568,16 +1568,16 @@
     <t xml:space="preserve">8.94265270233154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10825634002686</t>
+    <t xml:space="preserve">9.10825729370117</t>
   </si>
   <si>
     <t xml:space="preserve">8.7770471572876</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62800407409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8101692199707</t>
+    <t xml:space="preserve">8.62800312042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81016826629639</t>
   </si>
   <si>
     <t xml:space="preserve">8.67768383026123</t>
@@ -1586,19 +1586,19 @@
     <t xml:space="preserve">8.74392700195312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84328937530518</t>
+    <t xml:space="preserve">8.84329032897949</t>
   </si>
   <si>
     <t xml:space="preserve">8.61144256591797</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64456176757812</t>
+    <t xml:space="preserve">8.64456367492676</t>
   </si>
   <si>
     <t xml:space="preserve">8.59488201141357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69424533843994</t>
+    <t xml:space="preserve">8.69424438476562</t>
   </si>
   <si>
     <t xml:space="preserve">8.90953063964844</t>
@@ -1607,13 +1607,13 @@
     <t xml:space="preserve">8.44583797454834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66112422943115</t>
+    <t xml:space="preserve">8.66112518310547</t>
   </si>
   <si>
     <t xml:space="preserve">8.19743061065674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34647560119629</t>
+    <t xml:space="preserve">8.34647464752197</t>
   </si>
   <si>
     <t xml:space="preserve">8.27195358276367</t>
@@ -1643,22 +1643,22 @@
     <t xml:space="preserve">8.18087100982666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46239852905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39615631103516</t>
+    <t xml:space="preserve">8.46239948272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39615821838379</t>
   </si>
   <si>
     <t xml:space="preserve">8.18915176391602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15603065490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5617618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32354259490967</t>
+    <t xml:space="preserve">8.15602970123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56176090240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32354354858398</t>
   </si>
   <si>
     <t xml:space="preserve">9.90315914154053</t>
@@ -1667,16 +1667,16 @@
     <t xml:space="preserve">10.1515665054321</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0190830230713</t>
+    <t xml:space="preserve">10.019082069397</t>
   </si>
   <si>
     <t xml:space="preserve">10.3502922058105</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4993352890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4330940246582</t>
+    <t xml:space="preserve">10.4993362426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4330949783325</t>
   </si>
   <si>
     <t xml:space="preserve">10.565577507019</t>
@@ -1688,76 +1688,76 @@
     <t xml:space="preserve">11.0955123901367</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9630289077759</t>
+    <t xml:space="preserve">10.9630279541016</t>
   </si>
   <si>
     <t xml:space="preserve">11.1451940536499</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7974243164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7477416992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5158977508545</t>
+    <t xml:space="preserve">10.7974233627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7477426528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5158967971802</t>
   </si>
   <si>
     <t xml:space="preserve">10.466215133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4496555328369</t>
+    <t xml:space="preserve">10.4496536254883</t>
   </si>
   <si>
     <t xml:space="preserve">10.4827756881714</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2840490341187</t>
+    <t xml:space="preserve">10.284049987793</t>
   </si>
   <si>
     <t xml:space="preserve">10.3171701431274</t>
   </si>
   <si>
-    <t xml:space="preserve">10.118444442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5324563980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5986986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.078953742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8305463790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5821390151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6980628967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9464683532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8802261352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8967876434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0292711257935</t>
+    <t xml:space="preserve">10.1184453964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5324573516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5986995697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0789527893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8305444717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5821371078491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6980609893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9464693069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8802270889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8967885971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0292720794678</t>
   </si>
   <si>
     <t xml:space="preserve">11.2279968261719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2611169815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2114362716675</t>
+    <t xml:space="preserve">11.261118888855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2114353179932</t>
   </si>
   <si>
     <t xml:space="preserve">11.1948747634888</t>
@@ -1772,28 +1772,28 @@
     <t xml:space="preserve">11.3604803085327</t>
   </si>
   <si>
-    <t xml:space="preserve">11.60888671875</t>
+    <t xml:space="preserve">11.6088876724243</t>
   </si>
   <si>
     <t xml:space="preserve">11.5757656097412</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7579307556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6420078277588</t>
+    <t xml:space="preserve">11.7579298019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6420097351074</t>
   </si>
   <si>
     <t xml:space="preserve">11.873854637146</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7910528182983</t>
+    <t xml:space="preserve">11.791051864624</t>
   </si>
   <si>
     <t xml:space="preserve">11.7248115539551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8076133728027</t>
+    <t xml:space="preserve">11.8076124191284</t>
   </si>
   <si>
     <t xml:space="preserve">11.7413711547852</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">11.4101610183716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6318197250366</t>
+    <t xml:space="preserve">10.6318206787109</t>
   </si>
   <si>
     <t xml:space="preserve">10.6649408340454</t>
@@ -1829,40 +1829,40 @@
     <t xml:space="preserve">9.02545356750488</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73373794555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93246412277222</t>
+    <t xml:space="preserve">7.7337384223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93246364593506</t>
   </si>
   <si>
     <t xml:space="preserve">7.96558523178101</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91590309143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15793895721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92609119415283</t>
+    <t xml:space="preserve">7.91590404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15793800354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92609214782715</t>
   </si>
   <si>
     <t xml:space="preserve">8.85984897613525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00889492034912</t>
+    <t xml:space="preserve">9.0088939666748</t>
   </si>
   <si>
     <t xml:space="preserve">9.52226829528809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98596096038818</t>
+    <t xml:space="preserve">9.9859619140625</t>
   </si>
   <si>
     <t xml:space="preserve">9.62163162231445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43946743011475</t>
+    <t xml:space="preserve">9.43946647644043</t>
   </si>
   <si>
     <t xml:space="preserve">9.91971874237061</t>
@@ -1871,19 +1871,19 @@
     <t xml:space="preserve">9.38978481292725</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37322425842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63819217681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42290496826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67131233215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40634536743164</t>
+    <t xml:space="preserve">9.37322330474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63819122314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42290592193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67131328582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40634441375732</t>
   </si>
   <si>
     <t xml:space="preserve">9.57195091247559</t>
@@ -1898,16 +1898,16 @@
     <t xml:space="preserve">9.47258758544922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82956314086914</t>
+    <t xml:space="preserve">9.82956409454346</t>
   </si>
   <si>
     <t xml:space="preserve">9.64053440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52024173736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17655086517334</t>
+    <t xml:space="preserve">9.52024269104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17655181884766</t>
   </si>
   <si>
     <t xml:space="preserve">8.98752117156982</t>
@@ -1916,25 +1916,25 @@
     <t xml:space="preserve">9.19373512268066</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70927143096924</t>
+    <t xml:space="preserve">9.70927238464355</t>
   </si>
   <si>
     <t xml:space="preserve">9.43431854248047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26247310638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2109203338623</t>
+    <t xml:space="preserve">9.26247406005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21092128753662</t>
   </si>
   <si>
     <t xml:space="preserve">9.48587322235107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86393260955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.018593788147</t>
+    <t xml:space="preserve">9.86393356323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0185947418213</t>
   </si>
   <si>
     <t xml:space="preserve">10.1560707092285</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">10.8950071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7575311660767</t>
+    <t xml:space="preserve">10.7575302124023</t>
   </si>
   <si>
     <t xml:space="preserve">10.7918996810913</t>
@@ -1958,19 +1958,19 @@
     <t xml:space="preserve">10.8606376647949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8090829849243</t>
+    <t xml:space="preserve">10.8090839385986</t>
   </si>
   <si>
     <t xml:space="preserve">10.5169467926025</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4482069015503</t>
+    <t xml:space="preserve">10.4482088088989</t>
   </si>
   <si>
     <t xml:space="preserve">10.2419939041138</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7059755325317</t>
+    <t xml:space="preserve">10.7059764862061</t>
   </si>
   <si>
     <t xml:space="preserve">10.7747144699097</t>
@@ -1979,16 +1979,16 @@
     <t xml:space="preserve">10.9121913909912</t>
   </si>
   <si>
-    <t xml:space="preserve">10.826268196106</t>
+    <t xml:space="preserve">10.8262691497803</t>
   </si>
   <si>
     <t xml:space="preserve">11.152774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4620962142944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4964666366577</t>
+    <t xml:space="preserve">11.4620971679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4964656829834</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449119567871</t>
@@ -1997,25 +1997,25 @@
     <t xml:space="preserve">11.4105424880981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5480184555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2902507781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2386980056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3761739730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5995740890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7542352676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7714185714722</t>
+    <t xml:space="preserve">11.5480194091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2902526855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.238697052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3761730194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.599573135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7542343139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7714195251465</t>
   </si>
   <si>
     <t xml:space="preserve">11.926079750061</t>
@@ -2027,61 +2027,61 @@
     <t xml:space="preserve">12.2010326385498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0807409286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0979251861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1151113510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1322937011719</t>
+    <t xml:space="preserve">12.0807418823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0979261398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1151103973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1322946548462</t>
   </si>
   <si>
     <t xml:space="preserve">11.9776334762573</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8401565551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8573427200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4792814254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1355905532837</t>
+    <t xml:space="preserve">11.8401575088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8573408126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4792804718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1355895996094</t>
   </si>
   <si>
     <t xml:space="preserve">11.1184053421021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3074350357056</t>
+    <t xml:space="preserve">11.3074359893799</t>
   </si>
   <si>
     <t xml:space="preserve">11.4277276992798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.204327583313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3418045043945</t>
+    <t xml:space="preserve">11.2043285369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3418054580688</t>
   </si>
   <si>
     <t xml:space="preserve">11.2215137481689</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3246202468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.101222038269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.18714427948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0496664047241</t>
+    <t xml:space="preserve">11.3246221542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1012201309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1871452331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0496673583984</t>
   </si>
   <si>
     <t xml:space="preserve">10.9637441635132</t>
@@ -2090,10 +2090,10 @@
     <t xml:space="preserve">11.1699590682983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9981145858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.513650894165</t>
+    <t xml:space="preserve">10.9981136322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5136499404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.6854963302612</t>
@@ -2102,19 +2102,19 @@
     <t xml:space="preserve">11.6167583465576</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2730674743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3933591842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5823879241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.565203666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9088945388794</t>
+    <t xml:space="preserve">11.2730665206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3933582305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5823888778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5652046203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9088954925537</t>
   </si>
   <si>
     <t xml:space="preserve">11.8229722976685</t>
@@ -2123,10 +2123,10 @@
     <t xml:space="preserve">12.2354021072388</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0635557174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9432640075684</t>
+    <t xml:space="preserve">12.0635566711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9432649612427</t>
   </si>
   <si>
     <t xml:space="preserve">10.5513153076172</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">11.0324831008911</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3589906692505</t>
+    <t xml:space="preserve">11.3589897155762</t>
   </si>
   <si>
     <t xml:space="preserve">11.7886028289795</t>
@@ -2156,16 +2156,16 @@
     <t xml:space="preserve">11.8917102813721</t>
   </si>
   <si>
-    <t xml:space="preserve">11.994818687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0463714599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9604482650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8057870864868</t>
+    <t xml:space="preserve">11.9948177337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0463724136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.96044921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8057880401611</t>
   </si>
   <si>
     <t xml:space="preserve">11.6339426040649</t>
@@ -2177,13 +2177,13 @@
     <t xml:space="preserve">12.4416160583496</t>
   </si>
   <si>
-    <t xml:space="preserve">12.372878074646</t>
+    <t xml:space="preserve">12.3728771209717</t>
   </si>
   <si>
     <t xml:space="preserve">12.4072465896606</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993846893311</t>
+    <t xml:space="preserve">12.6993837356567</t>
   </si>
   <si>
     <t xml:space="preserve">13.0087070465088</t>
@@ -2201,19 +2201,19 @@
     <t xml:space="preserve">12.6822004318237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4759855270386</t>
+    <t xml:space="preserve">12.4759864807129</t>
   </si>
   <si>
     <t xml:space="preserve">12.5275392532349</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2525863647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6306467056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6650152206421</t>
+    <t xml:space="preserve">12.2525854110718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6306447982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6650142669678</t>
   </si>
   <si>
     <t xml:space="preserve">12.7853078842163</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">12.8024911880493</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9743375778198</t>
+    <t xml:space="preserve">12.9743385314941</t>
   </si>
   <si>
     <t xml:space="preserve">13.1118144989014</t>
@@ -2249,10 +2249,10 @@
     <t xml:space="preserve">13.7132730484009</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5929803848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5242433547974</t>
+    <t xml:space="preserve">13.592981338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.524242401123</t>
   </si>
   <si>
     <t xml:space="preserve">13.3523979187012</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">13.6101665496826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9194889068604</t>
+    <t xml:space="preserve">13.919487953186</t>
   </si>
   <si>
     <t xml:space="preserve">14.0225954055786</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">14.6068706512451</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8474531173706</t>
+    <t xml:space="preserve">14.8474550247192</t>
   </si>
   <si>
     <t xml:space="preserve">15.0364856719971</t>
@@ -2285,10 +2285,10 @@
     <t xml:space="preserve">15.0708541870117</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0192995071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6927938461304</t>
+    <t xml:space="preserve">15.0192985534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6927928924561</t>
   </si>
   <si>
     <t xml:space="preserve">14.3834705352783</t>
@@ -2303,49 +2303,49 @@
     <t xml:space="preserve">14.4178400039673</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6240549087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5725011825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7959003448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7443475723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.156774520874</t>
+    <t xml:space="preserve">14.6240558624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5725002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7958993911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.744345664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1567754745483</t>
   </si>
   <si>
     <t xml:space="preserve">14.9505615234375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0536699295044</t>
+    <t xml:space="preserve">15.0536680221558</t>
   </si>
   <si>
     <t xml:space="preserve">15.2942514419556</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3819494247437</t>
+    <t xml:space="preserve">15.3819484710693</t>
   </si>
   <si>
     <t xml:space="preserve">14.9960842132568</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9610052108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9434661865234</t>
+    <t xml:space="preserve">14.9610061645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9434671401978</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837812423706</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1013193130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1890163421631</t>
+    <t xml:space="preserve">15.101318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1890153884888</t>
   </si>
   <si>
     <t xml:space="preserve">14.9083881378174</t>
@@ -2360,19 +2360,19 @@
     <t xml:space="preserve">15.0136251449585</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7856140136719</t>
+    <t xml:space="preserve">14.7856130599976</t>
   </si>
   <si>
     <t xml:space="preserve">14.592679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1188583374023</t>
+    <t xml:space="preserve">15.1188592910767</t>
   </si>
   <si>
     <t xml:space="preserve">14.855770111084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8031511306763</t>
+    <t xml:space="preserve">14.8031520843506</t>
   </si>
   <si>
     <t xml:space="preserve">14.7680730819702</t>
@@ -2384,10 +2384,10 @@
     <t xml:space="preserve">15.1363983154297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0311622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.153938293457</t>
+    <t xml:space="preserve">15.0311613082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1539392471313</t>
   </si>
   <si>
     <t xml:space="preserve">14.9785442352295</t>
@@ -2396,10 +2396,10 @@
     <t xml:space="preserve">14.7329940795898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8908472061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7505331039429</t>
+    <t xml:space="preserve">14.89084815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7505340576172</t>
   </si>
   <si>
     <t xml:space="preserve">15.1714754104614</t>
@@ -2408,25 +2408,25 @@
     <t xml:space="preserve">15.0662422180176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3293304443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3468685150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8206911087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5398006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6099586486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5222625732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5748796463013</t>
+    <t xml:space="preserve">15.3293294906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3468704223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8206901550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5398015975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6099576950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5222635269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5748805999756</t>
   </si>
   <si>
     <t xml:space="preserve">15.7853517532349</t>
@@ -2435,19 +2435,19 @@
     <t xml:space="preserve">15.9607448577881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1887550354004</t>
+    <t xml:space="preserve">16.1887531280518</t>
   </si>
   <si>
     <t xml:space="preserve">16.0309009552002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7327346801758</t>
+    <t xml:space="preserve">15.7327356338501</t>
   </si>
   <si>
     <t xml:space="preserve">16.2413730621338</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5921573638916</t>
+    <t xml:space="preserve">16.5921592712402</t>
   </si>
   <si>
     <t xml:space="preserve">16.4167652130127</t>
@@ -2459,31 +2459,31 @@
     <t xml:space="preserve">16.1536769866943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1361351013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9256658554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0835189819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9782829284668</t>
+    <t xml:space="preserve">16.136137008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9256649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0835208892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9782819747925</t>
   </si>
   <si>
     <t xml:space="preserve">15.8379688262939</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6976556777954</t>
+    <t xml:space="preserve">15.6976537704468</t>
   </si>
   <si>
     <t xml:space="preserve">15.662576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6274967193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9958229064941</t>
+    <t xml:space="preserve">15.6274976730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9958238601685</t>
   </si>
   <si>
     <t xml:space="preserve">15.8204317092896</t>
@@ -2492,37 +2492,37 @@
     <t xml:space="preserve">15.7151937484741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6450386047363</t>
+    <t xml:space="preserve">15.6450366973877</t>
   </si>
   <si>
     <t xml:space="preserve">14.6452989578247</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4699048995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4874458312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2591724395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.399486541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3644094467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2416334152222</t>
+    <t xml:space="preserve">14.4699058532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4874448776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2591733932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3994874954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.364408493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2416324615479</t>
   </si>
   <si>
     <t xml:space="preserve">15.2240953445435</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2065553665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.346607208252</t>
+    <t xml:space="preserve">15.2065563201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3466091156006</t>
   </si>
   <si>
     <t xml:space="preserve">16.0659809112549</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">14.5576028823853</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4172887802124</t>
+    <t xml:space="preserve">14.4172878265381</t>
   </si>
   <si>
     <t xml:space="preserve">14.5225229263306</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">14.2945117950439</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3295907974243</t>
+    <t xml:space="preserve">14.3295917510986</t>
   </si>
   <si>
     <t xml:space="preserve">14.1717376708984</t>
@@ -2561,22 +2561,22 @@
     <t xml:space="preserve">14.0314235687256</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1191205978394</t>
+    <t xml:space="preserve">14.119119644165</t>
   </si>
   <si>
     <t xml:space="preserve">14.2769746780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3646697998047</t>
+    <t xml:space="preserve">14.3646688461304</t>
   </si>
   <si>
     <t xml:space="preserve">14.3822088241577</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8735704421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.084041595459</t>
+    <t xml:space="preserve">13.8735694885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0840406417847</t>
   </si>
   <si>
     <t xml:space="preserve">14.2594347000122</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">14.066502571106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9437265396118</t>
+    <t xml:space="preserve">13.9437274932861</t>
   </si>
   <si>
     <t xml:space="preserve">13.5227842330933</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">12.9966058731079</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4350872039795</t>
+    <t xml:space="preserve">13.4350881576538</t>
   </si>
   <si>
     <t xml:space="preserve">13.1369199752808</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">13.312313079834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.031683921814</t>
+    <t xml:space="preserve">13.0316848754883</t>
   </si>
   <si>
     <t xml:space="preserve">13.0492238998413</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510557174683</t>
+    <t xml:space="preserve">12.7510566711426</t>
   </si>
   <si>
     <t xml:space="preserve">12.5230445861816</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">12.7685956954956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4879665374756</t>
+    <t xml:space="preserve">12.4879674911499</t>
   </si>
   <si>
     <t xml:space="preserve">12.259955406189</t>
@@ -2639,28 +2639,28 @@
     <t xml:space="preserve">12.4528884887695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1897993087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9617891311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.80393409729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8565530776978</t>
+    <t xml:space="preserve">12.1898002624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9617881774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8039350509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8565540313721</t>
   </si>
   <si>
     <t xml:space="preserve">11.4531497955322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7866563796997</t>
+    <t xml:space="preserve">10.786657333374</t>
   </si>
   <si>
     <t xml:space="preserve">11.277756690979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2251386642456</t>
+    <t xml:space="preserve">11.2251396179199</t>
   </si>
   <si>
     <t xml:space="preserve">10.8392744064331</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">10.5411071777344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0850849151611</t>
+    <t xml:space="preserve">10.0850858688354</t>
   </si>
   <si>
     <t xml:space="preserve">10.1026248931885</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">9.8921537399292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1727828979492</t>
+    <t xml:space="preserve">10.1727819442749</t>
   </si>
   <si>
     <t xml:space="preserve">9.85707569122314</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">10.0675468444824</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5761861801147</t>
+    <t xml:space="preserve">10.5761852264404</t>
   </si>
   <si>
     <t xml:space="preserve">9.92723178863525</t>
@@ -2708,31 +2708,31 @@
     <t xml:space="preserve">11.0848245620728</t>
   </si>
   <si>
-    <t xml:space="preserve">10.751579284668</t>
+    <t xml:space="preserve">10.7515783309937</t>
   </si>
   <si>
     <t xml:space="preserve">10.6814212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7164993286133</t>
+    <t xml:space="preserve">10.7165002822876</t>
   </si>
   <si>
     <t xml:space="preserve">10.6288032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4183320999146</t>
+    <t xml:space="preserve">10.4183330535889</t>
   </si>
   <si>
     <t xml:space="preserve">10.4534111022949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2429399490356</t>
+    <t xml:space="preserve">10.2429389953613</t>
   </si>
   <si>
     <t xml:space="preserve">10.1552429199219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69922161102295</t>
+    <t xml:space="preserve">9.69922256469727</t>
   </si>
   <si>
     <t xml:space="preserve">9.80445766448975</t>
@@ -2759,10 +2759,10 @@
     <t xml:space="preserve">10.1903209686279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5937242507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1374425888062</t>
+    <t xml:space="preserve">10.5937252044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1374416351318</t>
   </si>
   <si>
     <t xml:space="preserve">11.0497465133667</t>
@@ -7546,7 +7546,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G134" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -7572,7 +7572,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -7598,7 +7598,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7676,7 +7676,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -7702,7 +7702,7 @@
         <v>5.57000017166138</v>
       </c>
       <c r="G140" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -7728,7 +7728,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G141" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -7806,7 +7806,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G144" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -7832,7 +7832,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -7884,7 +7884,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -7910,7 +7910,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G148" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -7936,7 +7936,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G149" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -7962,7 +7962,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G150" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -7988,7 +7988,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G151" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8014,7 +8014,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8066,7 +8066,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G154" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8144,7 +8144,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G157" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8170,7 +8170,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G158" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8274,7 +8274,7 @@
         <v>5.33500003814697</v>
       </c>
       <c r="G162" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8300,7 +8300,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G163" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8326,7 +8326,7 @@
         <v>5.32499980926514</v>
       </c>
       <c r="G164" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8352,7 +8352,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G165" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8378,7 +8378,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G166" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8404,7 +8404,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G167" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8430,7 +8430,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G168" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8456,7 +8456,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G169" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8482,7 +8482,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G170" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -8508,7 +8508,7 @@
         <v>5.26999998092651</v>
       </c>
       <c r="G171" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8534,7 +8534,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G172" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8586,7 +8586,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G174" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8638,7 +8638,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G176" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -8664,7 +8664,7 @@
         <v>5.40500020980835</v>
       </c>
       <c r="G177" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -8690,7 +8690,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G178" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -8716,7 +8716,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G179" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -8742,7 +8742,7 @@
         <v>5.27500009536743</v>
       </c>
       <c r="G180" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -8768,7 +8768,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G181" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -8794,7 +8794,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -8846,7 +8846,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G184" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -8872,7 +8872,7 @@
         <v>5.28499984741211</v>
       </c>
       <c r="G185" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -8898,7 +8898,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G186" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -8976,7 +8976,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G189" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9002,7 +9002,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G190" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9028,7 +9028,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G191" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9054,7 +9054,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G192" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9080,7 +9080,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G193" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9106,7 +9106,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G194" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9132,7 +9132,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G195" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9158,7 +9158,7 @@
         <v>5.13000011444092</v>
       </c>
       <c r="G196" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9184,7 +9184,7 @@
         <v>5.11499977111816</v>
       </c>
       <c r="G197" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9210,7 +9210,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G198" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9236,7 +9236,7 @@
         <v>5.29500007629395</v>
       </c>
       <c r="G199" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9288,7 +9288,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G201" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9418,7 +9418,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G206" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9470,7 +9470,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G208" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9496,7 +9496,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G209" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9522,7 +9522,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G210" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9626,7 +9626,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G214" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9652,7 +9652,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G215" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9678,7 +9678,7 @@
         <v>5.49499988555908</v>
       </c>
       <c r="G216" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -9704,7 +9704,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G217" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -9730,7 +9730,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G218" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -9756,7 +9756,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G219" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -9782,7 +9782,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G220" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -9808,7 +9808,7 @@
         <v>5.41499996185303</v>
       </c>
       <c r="G221" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -9834,7 +9834,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G222" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -9886,7 +9886,7 @@
         <v>5.36499977111816</v>
       </c>
       <c r="G224" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -9938,7 +9938,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G226" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -9964,7 +9964,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G227" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -9990,7 +9990,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G228" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10016,7 +10016,7 @@
         <v>5.25</v>
       </c>
       <c r="G229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10068,7 +10068,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G231" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10120,7 +10120,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G233" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10198,7 +10198,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G236" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10224,7 +10224,7 @@
         <v>5.32499980926514</v>
       </c>
       <c r="G237" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10250,7 +10250,7 @@
         <v>5.25</v>
       </c>
       <c r="G238" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10276,7 +10276,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G239" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10328,7 +10328,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G241" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10354,7 +10354,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G242" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10380,7 +10380,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G243" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10510,7 +10510,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G248" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10536,7 +10536,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G249" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -10562,7 +10562,7 @@
         <v>5.45499992370605</v>
       </c>
       <c r="G250" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -10588,7 +10588,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G251" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10666,7 +10666,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G254" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10692,7 +10692,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G255" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -10770,7 +10770,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G258" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -10796,7 +10796,7 @@
         <v>5.70499992370605</v>
       </c>
       <c r="G259" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -10822,7 +10822,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G260" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -10848,7 +10848,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G261" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -10900,7 +10900,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G263" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -10926,7 +10926,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G264" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -10952,7 +10952,7 @@
         <v>5.7350001335144</v>
       </c>
       <c r="G265" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -10978,7 +10978,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G266" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11004,7 +11004,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G267" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11030,7 +11030,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G268" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11056,7 +11056,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G269" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11082,7 +11082,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G270" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11108,7 +11108,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G271" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11134,7 +11134,7 @@
         <v>5.7649998664856</v>
       </c>
       <c r="G272" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11160,7 +11160,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G273" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11186,7 +11186,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G274" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11238,7 +11238,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G276" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11368,7 +11368,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G281" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11420,7 +11420,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G283" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11472,7 +11472,7 @@
         <v>5.72499990463257</v>
       </c>
       <c r="G285" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11498,7 +11498,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G286" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11524,7 +11524,7 @@
         <v>5.75</v>
       </c>
       <c r="G287" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11550,7 +11550,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G288" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11576,7 +11576,7 @@
         <v>5.80499982833862</v>
       </c>
       <c r="G289" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11602,7 +11602,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G290" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11628,7 +11628,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G291" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -11654,7 +11654,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G292" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11680,7 +11680,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G293" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -11706,7 +11706,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G294" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -11732,7 +11732,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G295" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -11758,7 +11758,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G296" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -11784,7 +11784,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G297" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -11810,7 +11810,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G298" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -11836,7 +11836,7 @@
         <v>5.88500022888184</v>
       </c>
       <c r="G299" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -11862,7 +11862,7 @@
         <v>6</v>
       </c>
       <c r="G300" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -11888,7 +11888,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G301" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -11914,7 +11914,7 @@
         <v>6</v>
       </c>
       <c r="G302" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -11940,7 +11940,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G303" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -11966,7 +11966,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G304" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -11992,7 +11992,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G305" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12018,7 +12018,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G306" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12044,7 +12044,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G307" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12070,7 +12070,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G308" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12096,7 +12096,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G309" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12122,7 +12122,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G310" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12148,7 +12148,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G311" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12174,7 +12174,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G312" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12200,7 +12200,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G313" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12226,7 +12226,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G314" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12252,7 +12252,7 @@
         <v>7</v>
       </c>
       <c r="G315" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12278,7 +12278,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G316" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12304,7 +12304,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G317" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12330,7 +12330,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G318" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12356,7 +12356,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G319" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12382,7 +12382,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G320" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12408,7 +12408,7 @@
         <v>7.20499992370605</v>
       </c>
       <c r="G321" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12434,7 +12434,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G322" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12460,7 +12460,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G323" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12486,7 +12486,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G324" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12512,7 +12512,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G325" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12538,7 +12538,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G326" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12564,7 +12564,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G327" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12590,7 +12590,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G328" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12616,7 +12616,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G329" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12642,7 +12642,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G330" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12668,7 +12668,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G331" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -12694,7 +12694,7 @@
         <v>7.34499979019165</v>
       </c>
       <c r="G332" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -12720,7 +12720,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G333" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -12746,7 +12746,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G334" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -12772,7 +12772,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G335" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -12798,7 +12798,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G336" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -12824,7 +12824,7 @@
         <v>7.45499992370605</v>
       </c>
       <c r="G337" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -12850,7 +12850,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G338" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -12876,7 +12876,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G339" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -12902,7 +12902,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G340" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -12928,7 +12928,7 @@
         <v>7.75</v>
       </c>
       <c r="G341" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -12954,7 +12954,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G342" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -12980,7 +12980,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G343" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13006,7 +13006,7 @@
         <v>7.82499980926514</v>
       </c>
       <c r="G344" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13032,7 +13032,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G345" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13058,7 +13058,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G346" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13084,7 +13084,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G347" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13110,7 +13110,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G348" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13136,7 +13136,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G349" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13162,7 +13162,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G350" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13188,7 +13188,7 @@
         <v>7.66499996185303</v>
       </c>
       <c r="G351" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13214,7 +13214,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G352" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13240,7 +13240,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G353" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13266,7 +13266,7 @@
         <v>7.60500001907349</v>
       </c>
       <c r="G354" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13292,7 +13292,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G355" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13318,7 +13318,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G356" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13344,7 +13344,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G357" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13370,7 +13370,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G358" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13396,7 +13396,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G359" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13422,7 +13422,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G360" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13448,7 +13448,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G361" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13474,7 +13474,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G362" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13500,7 +13500,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G363" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13526,7 +13526,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G364" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13552,7 +13552,7 @@
         <v>7.5</v>
       </c>
       <c r="G365" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13578,7 +13578,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G366" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13604,7 +13604,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G367" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13630,7 +13630,7 @@
         <v>7.50500011444092</v>
       </c>
       <c r="G368" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13656,7 +13656,7 @@
         <v>7.52500009536743</v>
       </c>
       <c r="G369" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13682,7 +13682,7 @@
         <v>7.59499979019165</v>
       </c>
       <c r="G370" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -13708,7 +13708,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G371" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13734,7 +13734,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G372" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -13760,7 +13760,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G373" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -13786,7 +13786,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G374" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13812,7 +13812,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G375" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -13838,7 +13838,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G376" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -13864,7 +13864,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G377" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13890,7 +13890,7 @@
         <v>7.46500015258789</v>
       </c>
       <c r="G378" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13916,7 +13916,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G379" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13942,7 +13942,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13968,7 +13968,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G381" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -13994,7 +13994,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G382" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14020,7 +14020,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G383" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14046,7 +14046,7 @@
         <v>7.35500001907349</v>
       </c>
       <c r="G384" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14072,7 +14072,7 @@
         <v>7.27500009536743</v>
       </c>
       <c r="G385" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14098,7 +14098,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G386" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14124,7 +14124,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G387" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14150,7 +14150,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G388" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14176,7 +14176,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G389" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14202,7 +14202,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G390" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14228,7 +14228,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G391" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14254,7 +14254,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G392" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14280,7 +14280,7 @@
         <v>7.40500020980835</v>
       </c>
       <c r="G393" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14306,7 +14306,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G394" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14332,7 +14332,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G395" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14358,7 +14358,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G396" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14384,7 +14384,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G397" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14410,7 +14410,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G398" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14436,7 +14436,7 @@
         <v>7.41499996185303</v>
       </c>
       <c r="G399" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14462,7 +14462,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G400" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14488,7 +14488,7 @@
         <v>7.41499996185303</v>
       </c>
       <c r="G401" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14514,7 +14514,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G402" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14540,7 +14540,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G403" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14566,7 +14566,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G404" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14592,7 +14592,7 @@
         <v>7.5149998664856</v>
       </c>
       <c r="G405" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14618,7 +14618,7 @@
         <v>7.46500015258789</v>
       </c>
       <c r="G406" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14644,7 +14644,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G407" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14670,7 +14670,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G408" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14696,7 +14696,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G409" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14722,7 +14722,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G410" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14748,7 +14748,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G411" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14774,7 +14774,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G412" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -14800,7 +14800,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G413" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14826,7 +14826,7 @@
         <v>7.41499996185303</v>
       </c>
       <c r="G414" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14852,7 +14852,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G415" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14878,7 +14878,7 @@
         <v>7.58500003814697</v>
       </c>
       <c r="G416" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14904,7 +14904,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G417" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14930,7 +14930,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G418" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14956,7 +14956,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G419" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14982,7 +14982,7 @@
         <v>7.74499988555908</v>
       </c>
       <c r="G420" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15008,7 +15008,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G421" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15034,7 +15034,7 @@
         <v>7.63500022888184</v>
       </c>
       <c r="G422" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15060,7 +15060,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G423" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15086,7 +15086,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G424" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15112,7 +15112,7 @@
         <v>7.54500007629395</v>
       </c>
       <c r="G425" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15138,7 +15138,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G426" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15164,7 +15164,7 @@
         <v>7.63500022888184</v>
       </c>
       <c r="G427" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15190,7 +15190,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G428" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15216,7 +15216,7 @@
         <v>7.57499980926514</v>
       </c>
       <c r="G429" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15242,7 +15242,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G430" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15268,7 +15268,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G431" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15294,7 +15294,7 @@
         <v>7.67500019073486</v>
       </c>
       <c r="G432" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15320,7 +15320,7 @@
         <v>7.52500009536743</v>
       </c>
       <c r="G433" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15346,7 +15346,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G434" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15372,7 +15372,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G435" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15398,7 +15398,7 @@
         <v>7.65500020980835</v>
       </c>
       <c r="G436" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15424,7 +15424,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G437" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15450,7 +15450,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G438" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15476,7 +15476,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G439" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15502,7 +15502,7 @@
         <v>7.88500022888184</v>
       </c>
       <c r="G440" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15528,7 +15528,7 @@
         <v>7.93499994277954</v>
       </c>
       <c r="G441" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15554,7 +15554,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G442" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15580,7 +15580,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G443" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15606,7 +15606,7 @@
         <v>8.21500015258789</v>
       </c>
       <c r="G444" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15632,7 +15632,7 @@
         <v>8.21500015258789</v>
       </c>
       <c r="G445" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15658,7 +15658,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G446" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15684,7 +15684,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G447" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15710,7 +15710,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G448" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15736,7 +15736,7 @@
         <v>7.9850001335144</v>
       </c>
       <c r="G449" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15762,7 +15762,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G450" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15788,7 +15788,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G451" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15814,7 +15814,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G452" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15840,7 +15840,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G453" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15866,7 +15866,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G454" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15892,7 +15892,7 @@
         <v>8.09500026702881</v>
       </c>
       <c r="G455" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15918,7 +15918,7 @@
         <v>7.99499988555908</v>
       </c>
       <c r="G456" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15944,7 +15944,7 @@
         <v>8</v>
       </c>
       <c r="G457" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15970,7 +15970,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G458" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15996,7 +15996,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G459" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16022,7 +16022,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G460" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16048,7 +16048,7 @@
         <v>8.01500034332275</v>
       </c>
       <c r="G461" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16074,7 +16074,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G462" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16100,7 +16100,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G463" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16126,7 +16126,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G464" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16152,7 +16152,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G465" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16178,7 +16178,7 @@
         <v>7.84499979019165</v>
       </c>
       <c r="G466" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16204,7 +16204,7 @@
         <v>7.78499984741211</v>
       </c>
       <c r="G467" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16230,7 +16230,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G468" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16256,7 +16256,7 @@
         <v>7.88500022888184</v>
       </c>
       <c r="G469" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16282,7 +16282,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G470" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16308,7 +16308,7 @@
         <v>8.0649995803833</v>
       </c>
       <c r="G471" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16334,7 +16334,7 @@
         <v>7.92500019073486</v>
       </c>
       <c r="G472" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16360,7 +16360,7 @@
         <v>8</v>
       </c>
       <c r="G473" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16386,7 +16386,7 @@
         <v>7.91499996185303</v>
       </c>
       <c r="G474" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16412,7 +16412,7 @@
         <v>7.85500001907349</v>
       </c>
       <c r="G475" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16438,7 +16438,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G476" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16464,7 +16464,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G477" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16490,7 +16490,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G478" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16516,7 +16516,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G479" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16542,7 +16542,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G480" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16568,7 +16568,7 @@
         <v>7.70499992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16594,7 +16594,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G482" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16620,7 +16620,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G483" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16646,7 +16646,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G484" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16672,7 +16672,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G485" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16698,7 +16698,7 @@
         <v>7.89499998092651</v>
       </c>
       <c r="G486" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16724,7 +16724,7 @@
         <v>7.95499992370605</v>
       </c>
       <c r="G487" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16750,7 +16750,7 @@
         <v>8</v>
       </c>
       <c r="G488" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16776,7 +16776,7 @@
         <v>7.9850001335144</v>
       </c>
       <c r="G489" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16802,7 +16802,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G490" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16828,7 +16828,7 @@
         <v>7.95499992370605</v>
       </c>
       <c r="G491" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16854,7 +16854,7 @@
         <v>7.97499990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16880,7 +16880,7 @@
         <v>7.92500019073486</v>
       </c>
       <c r="G493" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16906,7 +16906,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G494" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16932,7 +16932,7 @@
         <v>8</v>
       </c>
       <c r="G495" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16958,7 +16958,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G496" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16984,7 +16984,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G497" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17010,7 +17010,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G498" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17036,7 +17036,7 @@
         <v>8.08500003814697</v>
       </c>
       <c r="G499" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17062,7 +17062,7 @@
         <v>8.11499977111816</v>
       </c>
       <c r="G500" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17088,7 +17088,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G501" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17114,7 +17114,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G502" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17140,7 +17140,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G503" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17166,7 +17166,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G504" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17192,7 +17192,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G505" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17218,7 +17218,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G506" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17244,7 +17244,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G507" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17270,7 +17270,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G508" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17296,7 +17296,7 @@
         <v>8.25</v>
       </c>
       <c r="G509" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17322,7 +17322,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G510" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17348,7 +17348,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G511" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17374,7 +17374,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G512" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17400,7 +17400,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G513" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17426,7 +17426,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G514" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17452,7 +17452,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G515" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17478,7 +17478,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G516" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17504,7 +17504,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G517" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17530,7 +17530,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G518" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17556,7 +17556,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G519" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17582,7 +17582,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G520" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17608,7 +17608,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G521" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17634,7 +17634,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G522" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17660,7 +17660,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G523" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17686,7 +17686,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G524" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17712,7 +17712,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G525" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17738,7 +17738,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G526" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17764,7 +17764,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G527" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17790,7 +17790,7 @@
         <v>8.5</v>
       </c>
       <c r="G528" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -17816,7 +17816,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G529" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17842,7 +17842,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G530" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17868,7 +17868,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G531" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17894,7 +17894,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G532" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17920,7 +17920,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G533" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17946,7 +17946,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G534" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17972,7 +17972,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G535" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17998,7 +17998,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G536" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18024,7 +18024,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G537" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18050,7 +18050,7 @@
         <v>8</v>
       </c>
       <c r="G538" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18076,7 +18076,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G539" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18102,7 +18102,7 @@
         <v>8</v>
       </c>
       <c r="G540" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18128,7 +18128,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G541" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18154,7 +18154,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G542" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18180,7 +18180,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G543" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18206,7 +18206,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G544" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18232,7 +18232,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G545" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18258,7 +18258,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G546" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18284,7 +18284,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G547" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18310,7 +18310,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G548" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18336,7 +18336,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G549" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18362,7 +18362,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G550" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18388,7 +18388,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G551" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18414,7 +18414,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G552" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18440,7 +18440,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G553" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18466,7 +18466,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G554" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18492,7 +18492,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G555" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18518,7 +18518,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G556" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18544,7 +18544,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G557" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18570,7 +18570,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G558" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18596,7 +18596,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G559" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18622,7 +18622,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G560" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18648,7 +18648,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G561" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18674,7 +18674,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G562" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18700,7 +18700,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G563" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18726,7 +18726,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G564" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18752,7 +18752,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G565" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18778,7 +18778,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G566" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18804,7 +18804,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G567" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18830,7 +18830,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G568" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18856,7 +18856,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G569" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18882,7 +18882,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G570" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18908,7 +18908,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G571" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18934,7 +18934,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18960,7 +18960,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G573" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18986,7 +18986,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G574" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19012,7 +19012,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G575" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19038,7 +19038,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G576" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19064,7 +19064,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G577" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19090,7 +19090,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G578" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19116,7 +19116,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G579" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19142,7 +19142,7 @@
         <v>8.25</v>
       </c>
       <c r="G580" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19168,7 +19168,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G581" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19194,7 +19194,7 @@
         <v>8.25</v>
       </c>
       <c r="G582" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19220,7 +19220,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G583" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19246,7 +19246,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G584" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19272,7 +19272,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G585" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19298,7 +19298,7 @@
         <v>8.25</v>
       </c>
       <c r="G586" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19324,7 +19324,7 @@
         <v>8.25</v>
       </c>
       <c r="G587" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19350,7 +19350,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G588" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19376,7 +19376,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G589" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19402,7 +19402,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G590" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19428,7 +19428,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G591" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19454,7 +19454,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G592" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19480,7 +19480,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G593" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19506,7 +19506,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19532,7 +19532,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G595" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19558,7 +19558,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19584,7 +19584,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G597" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19610,7 +19610,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G598" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19636,7 +19636,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G599" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19662,7 +19662,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G600" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19688,7 +19688,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G601" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19714,7 +19714,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G602" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19740,7 +19740,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G603" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19766,7 +19766,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G604" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19792,7 +19792,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G605" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19818,7 +19818,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G606" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20260,7 +20260,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20312,7 +20312,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G625" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20364,7 +20364,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G627" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -22860,7 +22860,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G723" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23380,7 +23380,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G743" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23848,7 +23848,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G761" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -38,82 +38,82 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27017688751221</t>
+    <t xml:space="preserve">4.27017736434937</t>
   </si>
   <si>
     <t xml:space="preserve">ZV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25228118896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16279649734497</t>
+    <t xml:space="preserve">4.25227975845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16279602050781</t>
   </si>
   <si>
     <t xml:space="preserve">4.04467725753784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99456572532654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91939878463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96951031684875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95519304275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01604175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98382759094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89434337615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87286734580994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7654869556427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85855054855347</t>
+    <t xml:space="preserve">3.99456548690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91939973831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96951055526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95519375801086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01604223251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98382711410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89434409141541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87286782264709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76548767089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85855007171631</t>
   </si>
   <si>
     <t xml:space="preserve">3.93729662895203</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91224026679993</t>
+    <t xml:space="preserve">3.91224050521851</t>
   </si>
   <si>
     <t xml:space="preserve">3.86570882797241</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90150260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9587721824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8012809753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79412198066711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78696298599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69389939308167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65810656547546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7153754234314</t>
+    <t xml:space="preserve">3.90150284767151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95877194404602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80128049850464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79412174224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78696274757385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69389986991882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65810561180115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71537590026855</t>
   </si>
   <si>
     <t xml:space="preserve">3.57936024665833</t>
@@ -122,85 +122,85 @@
     <t xml:space="preserve">3.60083627700806</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70821666717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75832772254944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76906585693359</t>
+    <t xml:space="preserve">3.70821714401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75832796096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76906609535217</t>
   </si>
   <si>
     <t xml:space="preserve">3.81559777259827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77980494499207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74758982658386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72611403465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70105838775635</t>
+    <t xml:space="preserve">3.77980422973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74759006500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72611379623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70105814933777</t>
   </si>
   <si>
     <t xml:space="preserve">3.76190757751465</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78338313102722</t>
+    <t xml:space="preserve">3.78338384628296</t>
   </si>
   <si>
     <t xml:space="preserve">3.80485939979553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74401044845581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77264523506165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85139060020447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00172472000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05899429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08405017852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06973314285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15205764770508</t>
+    <t xml:space="preserve">3.74401068687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7726457118988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85139155387878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00172424316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05899477005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08404970169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06973266601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15205812454224</t>
   </si>
   <si>
     <t xml:space="preserve">4.15921640396118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13774061203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12342262268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11626434326172</t>
+    <t xml:space="preserve">4.13774013519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12342309951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11626386642456</t>
   </si>
   <si>
     <t xml:space="preserve">4.14489936828613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13058185577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19501066207886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09836721420288</t>
+    <t xml:space="preserve">4.13058137893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1950101852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09836673736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.07689142227173</t>
@@ -209,61 +209,61 @@
     <t xml:space="preserve">4.16637516021729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11984348297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16995429992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18069219589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18785095214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1341609954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19858884811401</t>
+    <t xml:space="preserve">4.11984395980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16995477676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18069314956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1878514289856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13416147232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19858932495117</t>
   </si>
   <si>
     <t xml:space="preserve">4.14131927490234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09120798110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10706949234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09213399887085</t>
+    <t xml:space="preserve">4.09120893478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10706996917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09213447570801</t>
   </si>
   <si>
     <t xml:space="preserve">4.07719993591309</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0547981262207</t>
+    <t xml:space="preserve">4.05479764938354</t>
   </si>
   <si>
     <t xml:space="preserve">4.08093357086182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09586811065674</t>
+    <t xml:space="preserve">4.0958685874939</t>
   </si>
   <si>
     <t xml:space="preserve">4.11453723907471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12200403213501</t>
+    <t xml:space="preserve">4.12200355529785</t>
   </si>
   <si>
     <t xml:space="preserve">4.11080265045166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16680908203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17800903320312</t>
+    <t xml:space="preserve">4.16680860519409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17800951004028</t>
   </si>
   <si>
     <t xml:space="preserve">4.1854772567749</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">4.2862868309021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26761817932129</t>
+    <t xml:space="preserve">4.26761865615845</t>
   </si>
   <si>
     <t xml:space="preserve">4.21908044815063</t>
@@ -290,58 +290,55 @@
     <t xml:space="preserve">4.23401546478271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20041131973267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19667816162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01746034622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99505877494812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96892309188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96145439147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1257381439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14440631866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17427539825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26388502120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02492761611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04733037948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08840084075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03986215591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02119445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05853176116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06973266601562</t>
+    <t xml:space="preserve">4.20041227340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19667863845825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01746082305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99505805969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96892237663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96145510673523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12573862075806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14440727233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17427587509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26388454437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97265601158142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02492809295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04732990264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08840131759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03986310958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02119398117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05853128433228</t>
   </si>
   <si>
     <t xml:space="preserve">4.032395362854</t>
@@ -353,7 +350,7 @@
     <t xml:space="preserve">4.11827039718628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15934181213379</t>
+    <t xml:space="preserve">4.15934085845947</t>
   </si>
   <si>
     <t xml:space="preserve">4.12947130203247</t>
@@ -362,16 +359,16 @@
     <t xml:space="preserve">4.13693904876709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20414590835571</t>
+    <t xml:space="preserve">4.20414543151855</t>
   </si>
   <si>
     <t xml:space="preserve">4.2265477180481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24895048141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18174266815186</t>
+    <t xml:space="preserve">4.24895000457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18174314498901</t>
   </si>
   <si>
     <t xml:space="preserve">4.06226539611816</t>
@@ -380,25 +377,25 @@
     <t xml:space="preserve">4.02866172790527</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98385787010193</t>
+    <t xml:space="preserve">3.98385739326477</t>
   </si>
   <si>
     <t xml:space="preserve">3.98012375831604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97639012336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95772123336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9353187084198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98759150505066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.002525806427</t>
+    <t xml:space="preserve">3.97638988494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95772171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93531942367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98759078979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00252628326416</t>
   </si>
   <si>
     <t xml:space="preserve">4.03612899780273</t>
@@ -413,91 +410,91 @@
     <t xml:space="preserve">3.94278693199158</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94651961326599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86064529418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84571027755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8681116104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82330799102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81584119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077573776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8195743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85317802429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95398759841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14067316055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21161270141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22281360626221</t>
+    <t xml:space="preserve">3.94652032852173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86064481735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84571051597595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86811280250549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82330846786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81584048271179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077645301819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81957459449768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85317778587341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95398807525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14067268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21161222457886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22281408309937</t>
   </si>
   <si>
     <t xml:space="preserve">4.09960174560547</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1033353805542</t>
+    <t xml:space="preserve">4.10333585739136</t>
   </si>
   <si>
     <t xml:space="preserve">4.00999307632446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0435962677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00625896453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06599950790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92038440704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07346630096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26015138626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27135181427002</t>
+    <t xml:space="preserve">4.04359722137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00625944137573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06599903106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92038416862488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0734658241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26015090942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27135229110718</t>
   </si>
   <si>
     <t xml:space="preserve">4.31615686416626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33109140396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28255367279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27881908416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32362461090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34229326248169</t>
+    <t xml:space="preserve">4.33109188079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28255319595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27881956100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32362365722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34229278564453</t>
   </si>
   <si>
     <t xml:space="preserve">4.30868911743164</t>
@@ -506,7 +503,7 @@
     <t xml:space="preserve">4.30495500564575</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27508592605591</t>
+    <t xml:space="preserve">4.27508544921875</t>
   </si>
   <si>
     <t xml:space="preserve">4.29375410079956</t>
@@ -515,19 +512,19 @@
     <t xml:space="preserve">4.33855867385864</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33482551574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36842775344849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36096000671387</t>
+    <t xml:space="preserve">4.33482456207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3684287071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36096143722534</t>
   </si>
   <si>
     <t xml:space="preserve">4.40576553344727</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42070055007935</t>
+    <t xml:space="preserve">4.42070007324219</t>
   </si>
   <si>
     <t xml:space="preserve">4.39456462860107</t>
@@ -536,22 +533,22 @@
     <t xml:space="preserve">4.48043966293335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45430374145508</t>
+    <t xml:space="preserve">4.45430421829224</t>
   </si>
   <si>
     <t xml:space="preserve">4.51777648925781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5924506187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61485242843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5999174118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55511283874512</t>
+    <t xml:space="preserve">4.59245014190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61485290527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59991836547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55511379241943</t>
   </si>
   <si>
     <t xml:space="preserve">4.54764556884766</t>
@@ -566,13 +563,13 @@
     <t xml:space="preserve">4.995689868927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18984222412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22717905044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48853826522827</t>
+    <t xml:space="preserve">5.18984270095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22717952728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48853778839111</t>
   </si>
   <si>
     <t xml:space="preserve">5.51840734481812</t>
@@ -584,67 +581,67 @@
     <t xml:space="preserve">5.522141456604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38026094436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3615927696228</t>
+    <t xml:space="preserve">5.3802604675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36159229278564</t>
   </si>
   <si>
     <t xml:space="preserve">5.37279367446899</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40639686584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39519596099854</t>
+    <t xml:space="preserve">5.40639638900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39519548416138</t>
   </si>
   <si>
     <t xml:space="preserve">5.44373369216919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45120143890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46613645553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4848051071167</t>
+    <t xml:space="preserve">5.45120191574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46613550186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48480463027954</t>
   </si>
   <si>
     <t xml:space="preserve">5.43626642227173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42133092880249</t>
+    <t xml:space="preserve">5.42133188247681</t>
   </si>
   <si>
     <t xml:space="preserve">5.5445442199707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56694555282593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91418027877808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82457208633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66028833389282</t>
+    <t xml:space="preserve">5.56694602966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91417980194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82457113265991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66028785705566</t>
   </si>
   <si>
     <t xml:space="preserve">5.78723382949829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67522287368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74989700317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84323978424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92965745925903</t>
+    <t xml:space="preserve">5.6752233505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74989748001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84323930740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92965698242188</t>
   </si>
   <si>
     <t xml:space="preserve">5.97209453582764</t>
@@ -656,7 +653,7 @@
     <t xml:space="preserve">5.94123125076294</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93737363815308</t>
+    <t xml:space="preserve">5.93737316131592</t>
   </si>
   <si>
     <t xml:space="preserve">5.91422605514526</t>
@@ -665,16 +662,16 @@
     <t xml:space="preserve">5.72904491424561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72518587112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86793041229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87564563751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81006145477295</t>
+    <t xml:space="preserve">5.72518682479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86792993545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87564611434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81006097793579</t>
   </si>
   <si>
     <t xml:space="preserve">5.77148151397705</t>
@@ -686,19 +683,19 @@
     <t xml:space="preserve">5.76376581192017</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67117547988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6788911819458</t>
+    <t xml:space="preserve">5.67117500305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67889165878296</t>
   </si>
   <si>
     <t xml:space="preserve">5.74061822891235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70975494384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78691291809082</t>
+    <t xml:space="preserve">5.7097544670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78691339492798</t>
   </si>
   <si>
     <t xml:space="preserve">5.75604963302612</t>
@@ -716,7 +713,7 @@
     <t xml:space="preserve">5.91808366775513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71747016906738</t>
+    <t xml:space="preserve">5.71747064590454</t>
   </si>
   <si>
     <t xml:space="preserve">5.82549333572388</t>
@@ -725,16 +722,16 @@
     <t xml:space="preserve">5.86407232284546</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75990867614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93351554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81777667999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6480278968811</t>
+    <t xml:space="preserve">5.7599081993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9335150718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81777715682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64802694320679</t>
   </si>
   <si>
     <t xml:space="preserve">5.67503309249878</t>
@@ -746,22 +743,22 @@
     <t xml:space="preserve">5.58630037307739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44741439819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4165506362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57086801528931</t>
+    <t xml:space="preserve">5.44741487503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41655111312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57086849212646</t>
   </si>
   <si>
     <t xml:space="preserve">5.62102222442627</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43198299407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71361303329468</t>
+    <t xml:space="preserve">5.43198251724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71361255645752</t>
   </si>
   <si>
     <t xml:space="preserve">5.69432258605957</t>
@@ -773,25 +770,25 @@
     <t xml:space="preserve">5.54000520706177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77919721603394</t>
+    <t xml:space="preserve">5.77919816970825</t>
   </si>
   <si>
     <t xml:space="preserve">5.7213282585144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73290205001831</t>
+    <t xml:space="preserve">5.73290252685547</t>
   </si>
   <si>
     <t xml:space="preserve">5.74833393096924</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79462957382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65574359893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79848718643188</t>
+    <t xml:space="preserve">5.79463005065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65574264526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79848766326904</t>
   </si>
   <si>
     <t xml:space="preserve">5.81391906738281</t>
@@ -806,25 +803,25 @@
     <t xml:space="preserve">5.87950372695923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83320903778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85249853134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97595262527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9026517868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89107799530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82163524627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84478235244751</t>
+    <t xml:space="preserve">5.8332085609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85249900817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97595167160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90265274047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89107894897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8216347694397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84478330612183</t>
   </si>
   <si>
     <t xml:space="preserve">5.92194175720215</t>
@@ -842,28 +839,28 @@
     <t xml:space="preserve">6.26529836654663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28073072433472</t>
+    <t xml:space="preserve">6.28073120117188</t>
   </si>
   <si>
     <t xml:space="preserve">6.33859920501709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27301359176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32702589035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16113376617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21900320053101</t>
+    <t xml:space="preserve">6.27301502227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32702541351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16113424301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21900367736816</t>
   </si>
   <si>
     <t xml:space="preserve">6.16499185562134</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29616260528564</t>
+    <t xml:space="preserve">6.29616165161133</t>
   </si>
   <si>
     <t xml:space="preserve">6.0955491065979</t>
@@ -875,25 +872,25 @@
     <t xml:space="preserve">6.16884994506836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17270851135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20357179641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11098098754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18428230285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02610635757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15727567672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19585514068604</t>
+    <t xml:space="preserve">6.17270803451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20357084274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11098051071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18428134918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02610492706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15727615356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19585561752319</t>
   </si>
   <si>
     <t xml:space="preserve">6.08011722564697</t>
@@ -902,22 +899,22 @@
     <t xml:space="preserve">6.05311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00681638717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98752737045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22286081314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11483812332153</t>
+    <t xml:space="preserve">6.00681591033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98752641677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22286128997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11483907699585</t>
   </si>
   <si>
     <t xml:space="preserve">6.10712289810181</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06082725524902</t>
+    <t xml:space="preserve">6.06082773208618</t>
   </si>
   <si>
     <t xml:space="preserve">5.92579936981201</t>
@@ -929,22 +926,22 @@
     <t xml:space="preserve">5.84864044189453</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08783292770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94508981704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00295829772949</t>
+    <t xml:space="preserve">6.0878324508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9450888633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00295925140381</t>
   </si>
   <si>
     <t xml:space="preserve">6.06468534469604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09169101715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1379861831665</t>
+    <t xml:space="preserve">6.09169054031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13798570632935</t>
   </si>
   <si>
     <t xml:space="preserve">6.13412809371948</t>
@@ -953,16 +950,16 @@
     <t xml:space="preserve">6.15341758728027</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21128702163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14955997467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2382926940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26144027709961</t>
+    <t xml:space="preserve">6.21128749847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14956045150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23829221725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26144075393677</t>
   </si>
   <si>
     <t xml:space="preserve">6.25758218765259</t>
@@ -971,25 +968,25 @@
     <t xml:space="preserve">6.28844594955444</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36560487747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40418481826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.350172996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43504858016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58164930343628</t>
+    <t xml:space="preserve">6.36560440063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40418434143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35017204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43504810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58164978027344</t>
   </si>
   <si>
     <t xml:space="preserve">6.53535461425781</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37332057952881</t>
+    <t xml:space="preserve">6.37332105636597</t>
   </si>
   <si>
     <t xml:space="preserve">6.38103723526001</t>
@@ -998,103 +995,106 @@
     <t xml:space="preserve">6.38875246047974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60479784011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55850219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48905849456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47362804412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12641286849976</t>
+    <t xml:space="preserve">6.60479879379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55850172042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48905897140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4736270904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1264123916626</t>
   </si>
   <si>
     <t xml:space="preserve">6.04925394058228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30387735366821</t>
+    <t xml:space="preserve">6.30387783050537</t>
   </si>
   <si>
     <t xml:space="preserve">6.34245729446411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22671794891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18042373657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31159353256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33474111557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46591091156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50449132919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45047903060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31930923461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23443460464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49677467346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44276428222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39646863937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41961622238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42733192443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52763795852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51992273330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59708213806152</t>
+    <t xml:space="preserve">6.22671937942505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18042421340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31159400939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33474159240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46591138839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50449085235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45047950744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3193097114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23443508148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49677515029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4427638053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39646768569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41961574554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42733240127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52763891220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51992177963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59708166122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566112518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74785804748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67573165893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58757591247559</t>
   </si>
   <si>
     <t xml:space="preserve">6.63566064834595</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74785804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67573165893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58757638931274</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.50743532180786</t>
   </si>
   <si>
     <t xml:space="preserve">6.62764739990234</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61963272094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56353330612183</t>
+    <t xml:space="preserve">6.61963319778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56353378295898</t>
   </si>
   <si>
     <t xml:space="preserve">6.53147745132446</t>
@@ -1106,31 +1106,31 @@
     <t xml:space="preserve">6.3711953163147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39523792266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61161804199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57956218719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60360431671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65168952941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7318286895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53949165344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51544904708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55551958084106</t>
+    <t xml:space="preserve">6.39523887634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61161851882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57956266403198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60360383987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65168905258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73182964324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53949117660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51544952392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55552005767822</t>
   </si>
   <si>
     <t xml:space="preserve">6.35516786575317</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">6.38722372055054</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34715366363525</t>
+    <t xml:space="preserve">6.34715414047241</t>
   </si>
   <si>
     <t xml:space="preserve">6.32311105728149</t>
@@ -1148,16 +1148,16 @@
     <t xml:space="preserve">6.46736431121826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48339319229126</t>
+    <t xml:space="preserve">6.48339223861694</t>
   </si>
   <si>
     <t xml:space="preserve">6.45935153961182</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4353084564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29906845092773</t>
+    <t xml:space="preserve">6.43530797958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29906988143921</t>
   </si>
   <si>
     <t xml:space="preserve">6.42729473114014</t>
@@ -1166,37 +1166,37 @@
     <t xml:space="preserve">6.49140691757202</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4513373374939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40325164794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33913993835449</t>
+    <t xml:space="preserve">6.45133686065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40325212478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33913946151733</t>
   </si>
   <si>
     <t xml:space="preserve">6.29105520248413</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27502679824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4112663269043</t>
+    <t xml:space="preserve">6.27502727508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41126680374146</t>
   </si>
   <si>
     <t xml:space="preserve">6.25098466873169</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28304100036621</t>
+    <t xml:space="preserve">6.28304147720337</t>
   </si>
   <si>
     <t xml:space="preserve">6.21091413497925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37921047210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36318206787109</t>
+    <t xml:space="preserve">6.37920999526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36318159103394</t>
   </si>
   <si>
     <t xml:space="preserve">6.33112573623657</t>
@@ -1208,97 +1208,97 @@
     <t xml:space="preserve">6.41928100585938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59559011459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84402704238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01232290267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82799911499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94820976257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9321813583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98026657104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92416763305664</t>
+    <t xml:space="preserve">6.59558963775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84402751922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01232194900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82799863815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94821071624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93218088150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98026561737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9241681098938</t>
   </si>
   <si>
     <t xml:space="preserve">7.02835130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90813875198364</t>
+    <t xml:space="preserve">6.9081392288208</t>
   </si>
   <si>
     <t xml:space="preserve">6.85204124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98828077316284</t>
+    <t xml:space="preserve">6.98827981948853</t>
   </si>
   <si>
     <t xml:space="preserve">7.04437923431396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97225189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69977235794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75587177276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77991342544556</t>
+    <t xml:space="preserve">6.972252368927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69977283477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75587224960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77991437911987</t>
   </si>
   <si>
     <t xml:space="preserve">6.78792858123779</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90012550354004</t>
+    <t xml:space="preserve">6.90012502670288</t>
   </si>
   <si>
     <t xml:space="preserve">6.96423768997192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91615343093872</t>
+    <t xml:space="preserve">6.91615390777588</t>
   </si>
   <si>
     <t xml:space="preserve">6.94019603729248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81197071075439</t>
+    <t xml:space="preserve">6.81197023391724</t>
   </si>
   <si>
     <t xml:space="preserve">6.70778703689575</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57154750823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77190017700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68374586105347</t>
+    <t xml:space="preserve">6.5715479850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77189970016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68374538421631</t>
   </si>
   <si>
     <t xml:space="preserve">6.64367485046387</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06842184066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05239295959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12451982498169</t>
+    <t xml:space="preserve">7.06842136383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05239343643188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12452030181885</t>
   </si>
   <si>
     <t xml:space="preserve">7.13253355026245</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">6.99629402160645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73984289169312</t>
+    <t xml:space="preserve">6.73984384536743</t>
   </si>
   <si>
     <t xml:space="preserve">6.72381591796875</t>
@@ -1316,148 +1316,148 @@
     <t xml:space="preserve">6.836012840271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88409614562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66771697998047</t>
+    <t xml:space="preserve">6.88409757614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66771650314331</t>
   </si>
   <si>
     <t xml:space="preserve">6.71580123901367</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54750633239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76388549804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10047674179077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14054775238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18863296508789</t>
+    <t xml:space="preserve">6.5475058555603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76388502120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10047721862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14054727554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18863248825073</t>
   </si>
   <si>
     <t xml:space="preserve">7.17260456085205</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11650562286377</t>
+    <t xml:space="preserve">7.11650514602661</t>
   </si>
   <si>
     <t xml:space="preserve">7.23671627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25274610519409</t>
+    <t xml:space="preserve">7.25274562835693</t>
   </si>
   <si>
     <t xml:space="preserve">7.19664573669434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22870397567749</t>
+    <t xml:space="preserve">7.22870302200317</t>
   </si>
   <si>
     <t xml:space="preserve">7.20466089248657</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29281616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38898468017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28480100631714</t>
+    <t xml:space="preserve">7.29281520843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38898515701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2848014831543</t>
   </si>
   <si>
     <t xml:space="preserve">7.33288621902466</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45309734344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50919532775879</t>
+    <t xml:space="preserve">7.45309686660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50919485092163</t>
   </si>
   <si>
     <t xml:space="preserve">7.55728054046631</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51720905303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41302728652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48515272140503</t>
+    <t xml:space="preserve">7.51721000671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41302680969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48515319824219</t>
   </si>
   <si>
     <t xml:space="preserve">7.44508361816406</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49316835403442</t>
+    <t xml:space="preserve">7.49316787719727</t>
   </si>
   <si>
     <t xml:space="preserve">7.81373071670532</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77365970611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7576322555542</t>
+    <t xml:space="preserve">7.77366018295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75763320922852</t>
   </si>
   <si>
     <t xml:space="preserve">7.52522420883179</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54125165939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53323793411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66146373748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63742113113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61337852478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60536432266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57330942153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79770278930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85380077362061</t>
+    <t xml:space="preserve">7.54125213623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53323745727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66146326065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63742017745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61337900161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60536479949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57330799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79770135879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85380220413208</t>
   </si>
   <si>
     <t xml:space="preserve">7.91791391372681</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96599912643433</t>
+    <t xml:space="preserve">7.96599769592285</t>
   </si>
   <si>
     <t xml:space="preserve">7.97401189804077</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19039344787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23847675323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07819557189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12628078460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00606822967529</t>
+    <t xml:space="preserve">8.19039249420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23847770690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0781946182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12627983093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00606918334961</t>
   </si>
   <si>
     <t xml:space="preserve">7.87784290313721</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">7.94195699691772</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03011131286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93394184112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99004220962524</t>
+    <t xml:space="preserve">8.03011035919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93394231796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99004125595093</t>
   </si>
   <si>
     <t xml:space="preserve">8.01408290863037</t>
@@ -1481,16 +1481,16 @@
     <t xml:space="preserve">7.98202705383301</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90188598632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89387178421021</t>
+    <t xml:space="preserve">7.90188550949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89387226104736</t>
   </si>
   <si>
     <t xml:space="preserve">7.86982870101929</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14230823516846</t>
+    <t xml:space="preserve">8.14230918884277</t>
   </si>
   <si>
     <t xml:space="preserve">8.35067462921143</t>
@@ -1499,67 +1499,67 @@
     <t xml:space="preserve">8.3346471786499</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71932315826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10399723052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97577095031738</t>
+    <t xml:space="preserve">8.71932220458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1039981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9757719039917</t>
   </si>
   <si>
     <t xml:space="preserve">8.63918113708496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89563179016113</t>
+    <t xml:space="preserve">8.89563274383545</t>
   </si>
   <si>
     <t xml:space="preserve">8.57832145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54520130157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37959575653076</t>
+    <t xml:space="preserve">8.54520034790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37959671020508</t>
   </si>
   <si>
     <t xml:space="preserve">8.49551963806152</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41271686553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7273645401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47895812988281</t>
+    <t xml:space="preserve">8.41271781921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72736644744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47895908355713</t>
   </si>
   <si>
     <t xml:space="preserve">8.3133544921875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17259120941162</t>
+    <t xml:space="preserve">8.1725902557373</t>
   </si>
   <si>
     <t xml:space="preserve">8.28023338317871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.263671875</t>
+    <t xml:space="preserve">8.26367282867432</t>
   </si>
   <si>
     <t xml:space="preserve">8.36303615570068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42927837371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52864170074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5120792388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29679489135742</t>
+    <t xml:space="preserve">8.42927742004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52864074707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51208019256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29679393768311</t>
   </si>
   <si>
     <t xml:space="preserve">8.87641048431396</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">8.77704811096191</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62800407409668</t>
+    <t xml:space="preserve">8.62800312042236</t>
   </si>
   <si>
     <t xml:space="preserve">8.81016826629639</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">8.67768478393555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74392604827881</t>
+    <t xml:space="preserve">8.74392700195312</t>
   </si>
   <si>
     <t xml:space="preserve">8.84328937530518</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">8.61144256591797</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64456367492676</t>
+    <t xml:space="preserve">8.64456272125244</t>
   </si>
   <si>
     <t xml:space="preserve">8.59488296508789</t>
@@ -1601,37 +1601,37 @@
     <t xml:space="preserve">8.69424533843994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90953254699707</t>
+    <t xml:space="preserve">8.90953063964844</t>
   </si>
   <si>
     <t xml:space="preserve">8.44583797454834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66112422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19743061065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34647560119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27195167541504</t>
+    <t xml:space="preserve">8.66112518310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19743156433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34647464752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27195358276367</t>
   </si>
   <si>
     <t xml:space="preserve">8.32991504669189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25539207458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11462879180908</t>
+    <t xml:space="preserve">8.25539302825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1146297454834</t>
   </si>
   <si>
     <t xml:space="preserve">8.23883152008057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89297008514404</t>
+    <t xml:space="preserve">8.89297103881836</t>
   </si>
   <si>
     <t xml:space="preserve">8.24711227416992</t>
@@ -1640,16 +1640,16 @@
     <t xml:space="preserve">8.12290954589844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18087196350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46239948272705</t>
+    <t xml:space="preserve">8.18087100982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46239757537842</t>
   </si>
   <si>
     <t xml:space="preserve">8.39615631103516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18915176391602</t>
+    <t xml:space="preserve">8.1891508102417</t>
   </si>
   <si>
     <t xml:space="preserve">8.15603065490723</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">9.90315914154053</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1515674591064</t>
+    <t xml:space="preserve">10.1515665054321</t>
   </si>
   <si>
     <t xml:space="preserve">10.0190830230713</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">10.3502922058105</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4993362426758</t>
+    <t xml:space="preserve">10.4993371963501</t>
   </si>
   <si>
     <t xml:space="preserve">10.4330940246582</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">10.5655784606934</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7311820983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.095513343811</t>
+    <t xml:space="preserve">10.731183052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0955123901367</t>
   </si>
   <si>
     <t xml:space="preserve">10.9630289077759</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">11.1451950073242</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7974233627319</t>
+    <t xml:space="preserve">10.7974252700806</t>
   </si>
   <si>
     <t xml:space="preserve">10.7477416992188</t>
@@ -1718,13 +1718,13 @@
     <t xml:space="preserve">10.3171710968018</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1184463500977</t>
+    <t xml:space="preserve">10.1184453964233</t>
   </si>
   <si>
     <t xml:space="preserve">10.5324573516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5987005233765</t>
+    <t xml:space="preserve">10.5986986160278</t>
   </si>
   <si>
     <t xml:space="preserve">11.0789527893066</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">10.830545425415</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5821380615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6980619430542</t>
+    <t xml:space="preserve">10.5821390151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6980628967285</t>
   </si>
   <si>
     <t xml:space="preserve">10.9464683532715</t>
@@ -1748,16 +1748,16 @@
     <t xml:space="preserve">10.8967866897583</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0292701721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2279968261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2611169815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2114353179932</t>
+    <t xml:space="preserve">11.0292711257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2279958724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2611179351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2114362716675</t>
   </si>
   <si>
     <t xml:space="preserve">11.1948757171631</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">11.178316116333</t>
   </si>
   <si>
-    <t xml:space="preserve">11.244556427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3604793548584</t>
+    <t xml:space="preserve">11.2445573806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3604803085327</t>
   </si>
   <si>
     <t xml:space="preserve">11.6088876724243</t>
@@ -1787,100 +1787,100 @@
     <t xml:space="preserve">11.873854637146</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7910528182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7248106002808</t>
+    <t xml:space="preserve">11.791051864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7248115539551</t>
   </si>
   <si>
     <t xml:space="preserve">11.8076133728027</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7413702011108</t>
+    <t xml:space="preserve">11.7413711547852</t>
   </si>
   <si>
     <t xml:space="preserve">11.7082500457764</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5923271179199</t>
+    <t xml:space="preserve">11.5923261642456</t>
   </si>
   <si>
     <t xml:space="preserve">11.4101610183716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6318206787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6649398803711</t>
+    <t xml:space="preserve">10.6318187713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6649417877197</t>
   </si>
   <si>
     <t xml:space="preserve">10.2343683242798</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82035541534424</t>
+    <t xml:space="preserve">9.82035636901855</t>
   </si>
   <si>
     <t xml:space="preserve">10.0853242874146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48914813995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0254545211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73373746871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93246412277222</t>
+    <t xml:space="preserve">9.4891471862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02545356750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73373794555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9324631690979</t>
   </si>
   <si>
     <t xml:space="preserve">7.96558475494385</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91590404510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15793991088867</t>
+    <t xml:space="preserve">7.91590309143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15793800354004</t>
   </si>
   <si>
     <t xml:space="preserve">8.92609119415283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85984897613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0088939666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5222692489624</t>
+    <t xml:space="preserve">8.85984992980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00889492034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52226829528809</t>
   </si>
   <si>
     <t xml:space="preserve">9.98596286773682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62163257598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43946552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91971874237061</t>
+    <t xml:space="preserve">9.62163066864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43946647644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91971969604492</t>
   </si>
   <si>
     <t xml:space="preserve">9.38978481292725</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37322521209717</t>
+    <t xml:space="preserve">9.37322425842285</t>
   </si>
   <si>
     <t xml:space="preserve">9.63819217681885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42290496826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67131233215332</t>
+    <t xml:space="preserve">9.42290592193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67131328582764</t>
   </si>
   <si>
     <t xml:space="preserve">9.40634536743164</t>
@@ -1895,16 +1895,16 @@
     <t xml:space="preserve">9.7375545501709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4725866317749</t>
+    <t xml:space="preserve">9.47258758544922</t>
   </si>
   <si>
     <t xml:space="preserve">9.82956409454346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64053440093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52024269104004</t>
+    <t xml:space="preserve">9.64053535461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52024173736572</t>
   </si>
   <si>
     <t xml:space="preserve">9.17655181884766</t>
@@ -1913,52 +1913,52 @@
     <t xml:space="preserve">8.98752117156982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19373512268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70927143096924</t>
+    <t xml:space="preserve">9.19373607635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70927238464355</t>
   </si>
   <si>
     <t xml:space="preserve">9.43431949615479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26247406005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2109203338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48587417602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86393356323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0185947418213</t>
+    <t xml:space="preserve">9.26247310638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21092128753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48587226867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86393260955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.018593788147</t>
   </si>
   <si>
     <t xml:space="preserve">10.1560707092285</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8434524536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6372385025024</t>
+    <t xml:space="preserve">10.8434534072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6372375488281</t>
   </si>
   <si>
     <t xml:space="preserve">10.8950071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7575311660767</t>
+    <t xml:space="preserve">10.7575302124023</t>
   </si>
   <si>
     <t xml:space="preserve">10.7918996810913</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8606386184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8090829849243</t>
+    <t xml:space="preserve">10.8606376647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8090839385986</t>
   </si>
   <si>
     <t xml:space="preserve">10.5169467926025</t>
@@ -1967,25 +1967,25 @@
     <t xml:space="preserve">10.4482088088989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2419939041138</t>
+    <t xml:space="preserve">10.2419929504395</t>
   </si>
   <si>
     <t xml:space="preserve">10.7059764862061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7747144699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9121904373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.826268196106</t>
+    <t xml:space="preserve">10.774715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9121913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8262691497803</t>
   </si>
   <si>
     <t xml:space="preserve">11.1527738571167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4620962142944</t>
+    <t xml:space="preserve">11.4620971679688</t>
   </si>
   <si>
     <t xml:space="preserve">11.4964666366577</t>
@@ -1994,16 +1994,16 @@
     <t xml:space="preserve">11.4449119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4105434417725</t>
+    <t xml:space="preserve">11.4105424880981</t>
   </si>
   <si>
     <t xml:space="preserve">11.5480194091797</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2902517318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2386980056763</t>
+    <t xml:space="preserve">11.2902526855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2386989593506</t>
   </si>
   <si>
     <t xml:space="preserve">11.3761739730835</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">11.7714185714722</t>
   </si>
   <si>
-    <t xml:space="preserve">11.926079750061</t>
+    <t xml:space="preserve">11.9260787963867</t>
   </si>
   <si>
     <t xml:space="preserve">12.0291872024536</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">12.2010326385498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0807409286499</t>
+    <t xml:space="preserve">12.0807418823242</t>
   </si>
   <si>
     <t xml:space="preserve">12.0979251861572</t>
@@ -2036,10 +2036,10 @@
     <t xml:space="preserve">12.1151103973389</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1322956085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9776334762573</t>
+    <t xml:space="preserve">12.1322946548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.977632522583</t>
   </si>
   <si>
     <t xml:space="preserve">11.8401565551758</t>
@@ -2048,22 +2048,22 @@
     <t xml:space="preserve">11.8573417663574</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4792823791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1355895996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1184053421021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3074350357056</t>
+    <t xml:space="preserve">11.4792804718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1355905532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1184043884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3074359893799</t>
   </si>
   <si>
     <t xml:space="preserve">11.4277276992798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.204327583313</t>
+    <t xml:space="preserve">11.2043294906616</t>
   </si>
   <si>
     <t xml:space="preserve">11.3418045043945</t>
@@ -2075,13 +2075,13 @@
     <t xml:space="preserve">11.3246212005615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.101222038269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.18714427948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0496673583984</t>
+    <t xml:space="preserve">11.1012210845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1871452331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0496664047241</t>
   </si>
   <si>
     <t xml:space="preserve">10.9637451171875</t>
@@ -2090,40 +2090,40 @@
     <t xml:space="preserve">11.1699590682983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9981155395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.513650894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6854953765869</t>
+    <t xml:space="preserve">10.9981136322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5136499404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6854972839355</t>
   </si>
   <si>
     <t xml:space="preserve">11.6167583465576</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2730665206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3933582305908</t>
+    <t xml:space="preserve">11.2730674743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3933591842651</t>
   </si>
   <si>
     <t xml:space="preserve">11.5823888778687</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5652046203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9088954925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8229722976685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2354021072388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0635566711426</t>
+    <t xml:space="preserve">11.565203666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9088945388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8229732513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2354011535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0635557174683</t>
   </si>
   <si>
     <t xml:space="preserve">11.9432640075684</t>
@@ -2132,22 +2132,22 @@
     <t xml:space="preserve">10.5513153076172</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6544218063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0324840545654</t>
+    <t xml:space="preserve">10.6544227600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0324831008911</t>
   </si>
   <si>
     <t xml:space="preserve">11.3589897155762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7886028289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7370500564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6511268615723</t>
+    <t xml:space="preserve">11.7886037826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7370491027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6511278152466</t>
   </si>
   <si>
     <t xml:space="preserve">11.5308351516724</t>
@@ -2162,31 +2162,31 @@
     <t xml:space="preserve">12.0463724136353</t>
   </si>
   <si>
-    <t xml:space="preserve">11.96044921875</t>
+    <t xml:space="preserve">11.9604482650757</t>
   </si>
   <si>
     <t xml:space="preserve">11.8057880401611</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6339416503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1838474273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4416160583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.372878074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4072465896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6993837356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0087080001831</t>
+    <t xml:space="preserve">11.6339426040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1838483810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4416170120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3728771209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.407247543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6993846893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0087070465088</t>
   </si>
   <si>
     <t xml:space="preserve">13.3008432388306</t>
@@ -2195,46 +2195,46 @@
     <t xml:space="preserve">12.8884143829346</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5447244644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6822004318237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4759855270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5275402069092</t>
+    <t xml:space="preserve">12.5447235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6821994781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4759864807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5275392532349</t>
   </si>
   <si>
     <t xml:space="preserve">12.2525863647461</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6306467056274</t>
+    <t xml:space="preserve">12.6306457519531</t>
   </si>
   <si>
     <t xml:space="preserve">12.6650152206421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7853078842163</t>
+    <t xml:space="preserve">12.785306930542</t>
   </si>
   <si>
     <t xml:space="preserve">12.8712301254272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8024911880493</t>
+    <t xml:space="preserve">12.8024921417236</t>
   </si>
   <si>
     <t xml:space="preserve">12.9743375778198</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1118154525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2149200439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1633682250977</t>
+    <t xml:space="preserve">13.1118135452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2149219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.163366317749</t>
   </si>
   <si>
     <t xml:space="preserve">13.197735786438</t>
@@ -2243,16 +2243,16 @@
     <t xml:space="preserve">13.6273508071899</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7476425170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7132720947266</t>
+    <t xml:space="preserve">13.7476434707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7132740020752</t>
   </si>
   <si>
     <t xml:space="preserve">13.592981338501</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5242433547974</t>
+    <t xml:space="preserve">13.524242401123</t>
   </si>
   <si>
     <t xml:space="preserve">13.3523979187012</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">13.6101665496826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9194889068604</t>
+    <t xml:space="preserve">13.919487953186</t>
   </si>
   <si>
     <t xml:space="preserve">14.0225954055786</t>
@@ -2279,16 +2279,16 @@
     <t xml:space="preserve">14.8474550247192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0364847183228</t>
+    <t xml:space="preserve">15.0364828109741</t>
   </si>
   <si>
     <t xml:space="preserve">15.0708532333374</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0192995071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6927938461304</t>
+    <t xml:space="preserve">15.0192985534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6927919387817</t>
   </si>
   <si>
     <t xml:space="preserve">14.3834705352783</t>
@@ -2297,19 +2297,19 @@
     <t xml:space="preserve">14.5896844863892</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6756086349487</t>
+    <t xml:space="preserve">14.6756076812744</t>
   </si>
   <si>
     <t xml:space="preserve">14.4178400039673</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6240558624268</t>
+    <t xml:space="preserve">14.6240549087524</t>
   </si>
   <si>
     <t xml:space="preserve">14.5725002288818</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7958984375</t>
+    <t xml:space="preserve">14.7958993911743</t>
   </si>
   <si>
     <t xml:space="preserve">14.744345664978</t>
@@ -2321,28 +2321,28 @@
     <t xml:space="preserve">14.9505605697632</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0536680221558</t>
+    <t xml:space="preserve">15.0536699295044</t>
   </si>
   <si>
     <t xml:space="preserve">15.2942514419556</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3819494247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960851669312</t>
+    <t xml:space="preserve">15.3819484710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960832595825</t>
   </si>
   <si>
     <t xml:space="preserve">14.9610061645508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9434680938721</t>
+    <t xml:space="preserve">14.9434661865234</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837812423706</t>
   </si>
   <si>
-    <t xml:space="preserve">15.101318359375</t>
+    <t xml:space="preserve">15.1013193130493</t>
   </si>
   <si>
     <t xml:space="preserve">15.1890153884888</t>
@@ -2354,28 +2354,28 @@
     <t xml:space="preserve">15.0487012863159</t>
   </si>
   <si>
-    <t xml:space="preserve">14.873309135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0136241912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7856130599976</t>
+    <t xml:space="preserve">14.8733081817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0136251449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7856140136719</t>
   </si>
   <si>
     <t xml:space="preserve">14.592679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1188583374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.855770111084</t>
+    <t xml:space="preserve">15.118857383728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8557710647583</t>
   </si>
   <si>
     <t xml:space="preserve">14.8031511306763</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7680740356445</t>
+    <t xml:space="preserve">14.7680730819702</t>
   </si>
   <si>
     <t xml:space="preserve">14.838231086731</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">15.1363983154297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0311613082886</t>
+    <t xml:space="preserve">15.0311622619629</t>
   </si>
   <si>
     <t xml:space="preserve">15.153938293457</t>
@@ -2396,52 +2396,52 @@
     <t xml:space="preserve">14.7329940795898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.89084815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7505331039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1714754104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0662412643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3293304443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3468704223633</t>
+    <t xml:space="preserve">14.8908472061157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7505340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1714763641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0662422180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3293294906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3468685150146</t>
   </si>
   <si>
     <t xml:space="preserve">14.8206911087036</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5398006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6099586486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5222625732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5748796463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7853517532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9607448577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1887550354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0309009552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327346801758</t>
+    <t xml:space="preserve">15.5398015975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6099576950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5222616195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5748805999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7853507995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9607458114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1887531280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0309028625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327337265015</t>
   </si>
   <si>
     <t xml:space="preserve">16.2413730621338</t>
@@ -2453,10 +2453,10 @@
     <t xml:space="preserve">16.4167652130127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2589130401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.153678894043</t>
+    <t xml:space="preserve">16.2589111328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1536769866943</t>
   </si>
   <si>
     <t xml:space="preserve">16.136137008667</t>
@@ -2465,22 +2465,22 @@
     <t xml:space="preserve">15.9256658554077</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0835208892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9782829284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8379688262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6976537704468</t>
+    <t xml:space="preserve">16.0835189819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9782810211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8379697799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6976566314697</t>
   </si>
   <si>
     <t xml:space="preserve">15.662576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6274967193604</t>
+    <t xml:space="preserve">15.6274976730347</t>
   </si>
   <si>
     <t xml:space="preserve">15.9958229064941</t>
@@ -2492,13 +2492,13 @@
     <t xml:space="preserve">15.7151937484741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6450366973877</t>
+    <t xml:space="preserve">15.645037651062</t>
   </si>
   <si>
     <t xml:space="preserve">14.6452989578247</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4699058532715</t>
+    <t xml:space="preserve">14.4699048995972</t>
   </si>
   <si>
     <t xml:space="preserve">14.4874458312988</t>
@@ -2507,25 +2507,25 @@
     <t xml:space="preserve">15.2591724395752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3994874954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.364408493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2416324615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2240962982178</t>
+    <t xml:space="preserve">15.399486541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3644104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2416343688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2240953445435</t>
   </si>
   <si>
     <t xml:space="preserve">15.2065553665161</t>
   </si>
   <si>
-    <t xml:space="preserve">16.346607208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0659809112549</t>
+    <t xml:space="preserve">16.3466091156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0659790039062</t>
   </si>
   <si>
     <t xml:space="preserve">15.8730487823486</t>
@@ -2537,16 +2537,16 @@
     <t xml:space="preserve">14.6102199554443</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5576019287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4172887802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5225219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2945117950439</t>
+    <t xml:space="preserve">14.5576028823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4172878265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5225229263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2945127487183</t>
   </si>
   <si>
     <t xml:space="preserve">14.3295917510986</t>
@@ -2558,16 +2558,16 @@
     <t xml:space="preserve">13.8560314178467</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0314235687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.119119644165</t>
+    <t xml:space="preserve">14.0314245223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1191205978394</t>
   </si>
   <si>
     <t xml:space="preserve">14.2769746780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3646697998047</t>
+    <t xml:space="preserve">14.3646688461304</t>
   </si>
   <si>
     <t xml:space="preserve">14.3822088241577</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">13.8735704421997</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0840406417847</t>
+    <t xml:space="preserve">14.084041595459</t>
   </si>
   <si>
     <t xml:space="preserve">14.2594347000122</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8209524154663</t>
+    <t xml:space="preserve">13.8209533691406</t>
   </si>
   <si>
     <t xml:space="preserve">14.066502571106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9437274932861</t>
+    <t xml:space="preserve">13.9437265396118</t>
   </si>
   <si>
     <t xml:space="preserve">13.5227842330933</t>
@@ -2597,25 +2597,25 @@
     <t xml:space="preserve">13.1544589996338</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9966049194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4350881576538</t>
+    <t xml:space="preserve">12.9966058731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4350872039795</t>
   </si>
   <si>
     <t xml:space="preserve">13.1369199752808</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3123140335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.031683921814</t>
+    <t xml:space="preserve">13.312313079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0316848754883</t>
   </si>
   <si>
     <t xml:space="preserve">13.0492238998413</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510566711426</t>
+    <t xml:space="preserve">12.7510557174683</t>
   </si>
   <si>
     <t xml:space="preserve">12.5230445861816</t>
@@ -2624,13 +2624,13 @@
     <t xml:space="preserve">12.330114364624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7685956954956</t>
+    <t xml:space="preserve">12.7685966491699</t>
   </si>
   <si>
     <t xml:space="preserve">12.4879665374756</t>
   </si>
   <si>
-    <t xml:space="preserve">12.259955406189</t>
+    <t xml:space="preserve">12.2599563598633</t>
   </si>
   <si>
     <t xml:space="preserve">12.3651924133301</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">12.1897993087769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9617881774902</t>
+    <t xml:space="preserve">11.9617891311646</t>
   </si>
   <si>
     <t xml:space="preserve">11.8039350509644</t>
@@ -2657,13 +2657,13 @@
     <t xml:space="preserve">10.786657333374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.277756690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2251396179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8392734527588</t>
+    <t xml:space="preserve">11.2777557373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2251386642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8392753601074</t>
   </si>
   <si>
     <t xml:space="preserve">10.7691173553467</t>
@@ -2672,10 +2672,10 @@
     <t xml:space="preserve">10.5411071777344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0850858688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1026248931885</t>
+    <t xml:space="preserve">10.0850849151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1026258468628</t>
   </si>
   <si>
     <t xml:space="preserve">9.8921537399292</t>
@@ -2687,10 +2687,10 @@
     <t xml:space="preserve">9.85707473754883</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0675468444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5761861801147</t>
+    <t xml:space="preserve">10.0675458908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5761871337891</t>
   </si>
   <si>
     <t xml:space="preserve">9.92723178863525</t>
@@ -2699,31 +2699,31 @@
     <t xml:space="preserve">10.9795894622803</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2075996398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8918924331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0848255157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.751579284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6814222335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7165002822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6288042068481</t>
+    <t xml:space="preserve">11.2076005935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8918933868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0848245620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7515783309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6814212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7164993286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6288032531738</t>
   </si>
   <si>
     <t xml:space="preserve">10.4183320999146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4534111022949</t>
+    <t xml:space="preserve">10.4534101486206</t>
   </si>
   <si>
     <t xml:space="preserve">10.2429399490356</t>
@@ -2732,16 +2732,16 @@
     <t xml:space="preserve">10.1552429199219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69922256469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80445671081543</t>
+    <t xml:space="preserve">9.69922161102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80445766448975</t>
   </si>
   <si>
     <t xml:space="preserve">9.90969276428223</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71676158905029</t>
+    <t xml:space="preserve">9.71676063537598</t>
   </si>
   <si>
     <t xml:space="preserve">9.82199573516846</t>
@@ -2750,16 +2750,16 @@
     <t xml:space="preserve">9.64660358428955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96231079101562</t>
+    <t xml:space="preserve">9.96230983734131</t>
   </si>
   <si>
     <t xml:space="preserve">10.3306350708008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1903219223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5937252044678</t>
+    <t xml:space="preserve">10.1903209686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5937242507935</t>
   </si>
   <si>
     <t xml:space="preserve">11.1374425888062</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">11.0497465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6463432312012</t>
+    <t xml:space="preserve">10.6463422775269</t>
   </si>
   <si>
     <t xml:space="preserve">10.488489151001</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">10.2707347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6336584091187</t>
+    <t xml:space="preserve">10.633659362793</t>
   </si>
   <si>
     <t xml:space="preserve">10.6699514389038</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">10.8332662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4159049987793</t>
+    <t xml:space="preserve">10.415904045105</t>
   </si>
   <si>
     <t xml:space="preserve">10.6518049240112</t>
@@ -2816,10 +2816,10 @@
     <t xml:space="preserve">11.7950134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6861362457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8131608963013</t>
+    <t xml:space="preserve">11.6861371994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.813159942627</t>
   </si>
   <si>
     <t xml:space="preserve">11.7224292755127</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">11.5954055786133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6135530471802</t>
+    <t xml:space="preserve">11.6135520935059</t>
   </si>
   <si>
     <t xml:space="preserve">10.5973663330078</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">11.0147285461426</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0328750610352</t>
+    <t xml:space="preserve">11.0328741073608</t>
   </si>
   <si>
     <t xml:space="preserve">11.3232126235962</t>
@@ -2900,25 +2900,25 @@
     <t xml:space="preserve">11.2869205474854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0873136520386</t>
+    <t xml:space="preserve">11.0873126983643</t>
   </si>
   <si>
     <t xml:space="preserve">10.6880970001221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3070278167725</t>
+    <t xml:space="preserve">10.3070268630981</t>
   </si>
   <si>
     <t xml:space="preserve">10.1618576049805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90781116485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0529813766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.180004119873</t>
+    <t xml:space="preserve">9.90781211853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0529804229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1800050735474</t>
   </si>
   <si>
     <t xml:space="preserve">10.3614664077759</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">10.4703435897827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4521970748901</t>
+    <t xml:space="preserve">10.4521980285645</t>
   </si>
   <si>
     <t xml:space="preserve">10.0348358154297</t>
@@ -2936,28 +2936,28 @@
     <t xml:space="preserve">9.92595767974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7444953918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85337257385254</t>
+    <t xml:space="preserve">9.74449634552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85337352752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.78078842163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99854373931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59932613372803</t>
+    <t xml:space="preserve">9.99854278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59932708740234</t>
   </si>
   <si>
     <t xml:space="preserve">10.0892734527588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1074190139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1255655288696</t>
+    <t xml:space="preserve">10.1074199676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1255664825439</t>
   </si>
   <si>
     <t xml:space="preserve">10.1981506347656</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">10.3796119689941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9239978790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1961908340454</t>
+    <t xml:space="preserve">10.923996925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1961898803711</t>
   </si>
   <si>
     <t xml:space="preserve">11.4683828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1034984588623</t>
+    <t xml:space="preserve">12.1034994125366</t>
   </si>
   <si>
     <t xml:space="preserve">11.9038906097412</t>
@@ -2993,25 +2993,25 @@
     <t xml:space="preserve">11.4320907592773</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4139432907104</t>
+    <t xml:space="preserve">11.4139442443848</t>
   </si>
   <si>
     <t xml:space="preserve">12.012767791748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.085352897644</t>
+    <t xml:space="preserve">12.0853519439697</t>
   </si>
   <si>
     <t xml:space="preserve">12.7567615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1741237640381</t>
+    <t xml:space="preserve">13.1741228103638</t>
   </si>
   <si>
     <t xml:space="preserve">13.2104158401489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9926605224609</t>
+    <t xml:space="preserve">12.9926614761353</t>
   </si>
   <si>
     <t xml:space="preserve">12.7386150360107</t>
@@ -3020,13 +3020,13 @@
     <t xml:space="preserve">12.4119834899902</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3756914138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478834152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6115922927856</t>
+    <t xml:space="preserve">12.3756923675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478843688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6115913391113</t>
   </si>
   <si>
     <t xml:space="preserve">12.684175491333</t>
@@ -3038,22 +3038,22 @@
     <t xml:space="preserve">12.4845685958862</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9200773239136</t>
+    <t xml:space="preserve">12.9200763702393</t>
   </si>
   <si>
     <t xml:space="preserve">13.0652456283569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1378297805786</t>
+    <t xml:space="preserve">13.1378307342529</t>
   </si>
   <si>
     <t xml:space="preserve">13.1015377044678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0108079910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2285623550415</t>
+    <t xml:space="preserve">13.0108070373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2285614013672</t>
   </si>
   <si>
     <t xml:space="preserve">13.1922693252563</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">12.8656387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8474922180176</t>
+    <t xml:space="preserve">12.8474912643433</t>
   </si>
   <si>
     <t xml:space="preserve">12.7930536270142</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">13.645923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8092403411865</t>
+    <t xml:space="preserve">13.8092393875122</t>
   </si>
   <si>
     <t xml:space="preserve">13.8455324172974</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">13.9362621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4443550109863</t>
+    <t xml:space="preserve">14.4443559646606</t>
   </si>
   <si>
     <t xml:space="preserve">14.0995779037476</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">14.3717708587646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3173322677612</t>
+    <t xml:space="preserve">14.3173313140869</t>
   </si>
   <si>
     <t xml:space="preserve">14.3354787826538</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">14.226601600647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1540174484253</t>
+    <t xml:space="preserve">14.154016494751</t>
   </si>
   <si>
     <t xml:space="preserve">14.2810401916504</t>
@@ -3134,13 +3134,13 @@
     <t xml:space="preserve">14.3899164199829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8798627853394</t>
+    <t xml:space="preserve">14.8798637390137</t>
   </si>
   <si>
     <t xml:space="preserve">14.4625015258789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4806480407715</t>
+    <t xml:space="preserve">14.4806470870972</t>
   </si>
   <si>
     <t xml:space="preserve">14.4987936019897</t>
@@ -3149,16 +3149,16 @@
     <t xml:space="preserve">14.662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4423952102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5694179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4786882400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6420030593872</t>
+    <t xml:space="preserve">15.4423942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5694189071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.478687286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6420021057129</t>
   </si>
   <si>
     <t xml:space="preserve">15.5149803161621</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">15.8597564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9141960144043</t>
+    <t xml:space="preserve">15.9141969680786</t>
   </si>
   <si>
     <t xml:space="preserve">16.2589721679688</t>
@@ -3185,22 +3185,22 @@
     <t xml:space="preserve">16.1138038635254</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0412178039551</t>
+    <t xml:space="preserve">16.0412197113037</t>
   </si>
   <si>
     <t xml:space="preserve">16.0775108337402</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8234643936157</t>
+    <t xml:space="preserve">15.82346534729</t>
   </si>
   <si>
     <t xml:space="preserve">15.769024848938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2427864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2064952850342</t>
+    <t xml:space="preserve">15.242787361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2064943313599</t>
   </si>
   <si>
     <t xml:space="preserve">15.8053188323975</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">15.9686336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9867811203003</t>
+    <t xml:space="preserve">15.986780166626</t>
   </si>
   <si>
     <t xml:space="preserve">15.841609954834</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">16.131950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2952651977539</t>
+    <t xml:space="preserve">16.2952632904053</t>
   </si>
   <si>
     <t xml:space="preserve">16.8033580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8396511077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0574054718018</t>
+    <t xml:space="preserve">16.8396492004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0574035644531</t>
   </si>
   <si>
     <t xml:space="preserve">16.7489185333252</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">15.2790794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1157646179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.097617149353</t>
+    <t xml:space="preserve">15.1157627105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0976161956787</t>
   </si>
   <si>
     <t xml:space="preserve">15.333517074585</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">15.460542678833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.533127784729</t>
+    <t xml:space="preserve">15.5331258773804</t>
   </si>
   <si>
     <t xml:space="preserve">15.406102180481</t>
@@ -7555,7 +7555,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G134" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -7581,7 +7581,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -7607,7 +7607,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7685,7 +7685,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -7711,7 +7711,7 @@
         <v>5.57000017166138</v>
       </c>
       <c r="G140" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -7737,7 +7737,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G141" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -7815,7 +7815,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G144" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -7841,7 +7841,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -7893,7 +7893,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -7919,7 +7919,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G148" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -7945,7 +7945,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G149" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -7971,7 +7971,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G150" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -7997,7 +7997,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G151" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8023,7 +8023,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8075,7 +8075,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G154" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8153,7 +8153,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G157" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8179,7 +8179,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G158" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8283,7 +8283,7 @@
         <v>5.33500003814697</v>
       </c>
       <c r="G162" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8309,7 +8309,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G163" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8335,7 +8335,7 @@
         <v>5.32499980926514</v>
       </c>
       <c r="G164" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8361,7 +8361,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G165" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8387,7 +8387,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G166" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8413,7 +8413,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G167" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8439,7 +8439,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G168" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8465,7 +8465,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G169" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8491,7 +8491,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G170" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -8517,7 +8517,7 @@
         <v>5.26999998092651</v>
       </c>
       <c r="G171" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8543,7 +8543,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G172" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8595,7 +8595,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G174" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8647,7 +8647,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G176" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -8673,7 +8673,7 @@
         <v>5.40500020980835</v>
       </c>
       <c r="G177" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -8699,7 +8699,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G178" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -8725,7 +8725,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G179" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -8751,7 +8751,7 @@
         <v>5.27500009536743</v>
       </c>
       <c r="G180" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -8777,7 +8777,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G181" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -8803,7 +8803,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -8855,7 +8855,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G184" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -8881,7 +8881,7 @@
         <v>5.28499984741211</v>
       </c>
       <c r="G185" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -8907,7 +8907,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G186" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -8985,7 +8985,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G189" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9011,7 +9011,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G190" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9037,7 +9037,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G191" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9063,7 +9063,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G192" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9089,7 +9089,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G193" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9115,7 +9115,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G194" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9141,7 +9141,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G195" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9167,7 +9167,7 @@
         <v>5.13000011444092</v>
       </c>
       <c r="G196" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9193,7 +9193,7 @@
         <v>5.11499977111816</v>
       </c>
       <c r="G197" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9219,7 +9219,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G198" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9245,7 +9245,7 @@
         <v>5.29500007629395</v>
       </c>
       <c r="G199" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9297,7 +9297,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G201" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9427,7 +9427,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G206" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9479,7 +9479,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G208" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9505,7 +9505,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G209" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9531,7 +9531,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G210" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9635,7 +9635,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G214" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9661,7 +9661,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G215" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9687,7 +9687,7 @@
         <v>5.49499988555908</v>
       </c>
       <c r="G216" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -9713,7 +9713,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G217" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -9739,7 +9739,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G218" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -9765,7 +9765,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G219" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -9791,7 +9791,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G220" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -9817,7 +9817,7 @@
         <v>5.41499996185303</v>
       </c>
       <c r="G221" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -9843,7 +9843,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G222" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -9895,7 +9895,7 @@
         <v>5.36499977111816</v>
       </c>
       <c r="G224" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -9947,7 +9947,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G226" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -9973,7 +9973,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G227" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -9999,7 +9999,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G228" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10025,7 +10025,7 @@
         <v>5.25</v>
       </c>
       <c r="G229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10077,7 +10077,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G231" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10129,7 +10129,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G233" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10207,7 +10207,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G236" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10233,7 +10233,7 @@
         <v>5.32499980926514</v>
       </c>
       <c r="G237" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10259,7 +10259,7 @@
         <v>5.25</v>
       </c>
       <c r="G238" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10285,7 +10285,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G239" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10337,7 +10337,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G241" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10363,7 +10363,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G242" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10389,7 +10389,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G243" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10519,7 +10519,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G248" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10545,7 +10545,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G249" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -10571,7 +10571,7 @@
         <v>5.45499992370605</v>
       </c>
       <c r="G250" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -10597,7 +10597,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G251" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10675,7 +10675,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G254" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10701,7 +10701,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G255" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -10779,7 +10779,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G258" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -10805,7 +10805,7 @@
         <v>5.70499992370605</v>
       </c>
       <c r="G259" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -10831,7 +10831,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G260" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -10857,7 +10857,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G261" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -10909,7 +10909,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G263" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -10935,7 +10935,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G264" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -10961,7 +10961,7 @@
         <v>5.7350001335144</v>
       </c>
       <c r="G265" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -10987,7 +10987,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G266" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11013,7 +11013,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G267" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11039,7 +11039,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G268" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11065,7 +11065,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G269" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11091,7 +11091,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G270" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11117,7 +11117,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G271" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11143,7 +11143,7 @@
         <v>5.7649998664856</v>
       </c>
       <c r="G272" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11169,7 +11169,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G273" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11195,7 +11195,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G274" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11247,7 +11247,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G276" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11377,7 +11377,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G281" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11429,7 +11429,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G283" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11481,7 +11481,7 @@
         <v>5.72499990463257</v>
       </c>
       <c r="G285" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11507,7 +11507,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G286" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11533,7 +11533,7 @@
         <v>5.75</v>
       </c>
       <c r="G287" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11559,7 +11559,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G288" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11585,7 +11585,7 @@
         <v>5.80499982833862</v>
       </c>
       <c r="G289" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11611,7 +11611,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G290" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11637,7 +11637,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G291" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -11663,7 +11663,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G292" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11689,7 +11689,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G293" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -11715,7 +11715,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G294" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -11741,7 +11741,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G295" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -11767,7 +11767,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G296" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -11793,7 +11793,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G297" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -11819,7 +11819,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G298" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -11845,7 +11845,7 @@
         <v>5.88500022888184</v>
       </c>
       <c r="G299" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -11871,7 +11871,7 @@
         <v>6</v>
       </c>
       <c r="G300" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -11897,7 +11897,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G301" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -11923,7 +11923,7 @@
         <v>6</v>
       </c>
       <c r="G302" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -11949,7 +11949,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G303" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -11975,7 +11975,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G304" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12001,7 +12001,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G305" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12027,7 +12027,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G306" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12053,7 +12053,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G307" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12079,7 +12079,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G308" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12105,7 +12105,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G309" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12131,7 +12131,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G310" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12157,7 +12157,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G311" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12183,7 +12183,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G312" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12209,7 +12209,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G313" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12235,7 +12235,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G314" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12261,7 +12261,7 @@
         <v>7</v>
       </c>
       <c r="G315" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12287,7 +12287,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G316" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12313,7 +12313,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G317" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12339,7 +12339,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G318" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12365,7 +12365,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G319" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12391,7 +12391,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G320" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12417,7 +12417,7 @@
         <v>7.20499992370605</v>
       </c>
       <c r="G321" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12443,7 +12443,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G322" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12469,7 +12469,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G323" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12495,7 +12495,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G324" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12521,7 +12521,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G325" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12547,7 +12547,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G326" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12573,7 +12573,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G327" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12599,7 +12599,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G328" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12625,7 +12625,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G329" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12651,7 +12651,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G330" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12677,7 +12677,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G331" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -12703,7 +12703,7 @@
         <v>7.34499979019165</v>
       </c>
       <c r="G332" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -12729,7 +12729,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G333" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -12755,7 +12755,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G334" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -12781,7 +12781,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G335" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -12807,7 +12807,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G336" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -12833,7 +12833,7 @@
         <v>7.45499992370605</v>
       </c>
       <c r="G337" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -12859,7 +12859,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G338" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -12885,7 +12885,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G339" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -12911,7 +12911,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G340" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -12937,7 +12937,7 @@
         <v>7.75</v>
       </c>
       <c r="G341" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -12963,7 +12963,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G342" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -12989,7 +12989,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G343" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13015,7 +13015,7 @@
         <v>7.82499980926514</v>
       </c>
       <c r="G344" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13041,7 +13041,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G345" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13067,7 +13067,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G346" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13093,7 +13093,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G347" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13119,7 +13119,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G348" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13145,7 +13145,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G349" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13171,7 +13171,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G350" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13197,7 +13197,7 @@
         <v>7.66499996185303</v>
       </c>
       <c r="G351" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13223,7 +13223,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G352" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13249,7 +13249,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G353" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13275,7 +13275,7 @@
         <v>7.60500001907349</v>
       </c>
       <c r="G354" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13301,7 +13301,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G355" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13327,7 +13327,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G356" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13353,7 +13353,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G357" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13379,7 +13379,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G358" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13405,7 +13405,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G359" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13431,7 +13431,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G360" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13457,7 +13457,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G361" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13483,7 +13483,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G362" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13509,7 +13509,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G363" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13535,7 +13535,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G364" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13561,7 +13561,7 @@
         <v>7.5</v>
       </c>
       <c r="G365" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13587,7 +13587,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G366" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13613,7 +13613,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G367" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13639,7 +13639,7 @@
         <v>7.50500011444092</v>
       </c>
       <c r="G368" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13665,7 +13665,7 @@
         <v>7.52500009536743</v>
       </c>
       <c r="G369" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13691,7 +13691,7 @@
         <v>7.59499979019165</v>
       </c>
       <c r="G370" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -13717,7 +13717,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G371" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13743,7 +13743,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G372" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -13769,7 +13769,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G373" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -13795,7 +13795,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G374" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13821,7 +13821,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G375" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -13847,7 +13847,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G376" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -13873,7 +13873,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G377" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13899,7 +13899,7 @@
         <v>7.46500015258789</v>
       </c>
       <c r="G378" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13925,7 +13925,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G379" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13951,7 +13951,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13977,7 +13977,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G381" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14003,7 +14003,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G382" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14029,7 +14029,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G383" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14055,7 +14055,7 @@
         <v>7.35500001907349</v>
       </c>
       <c r="G384" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14081,7 +14081,7 @@
         <v>7.27500009536743</v>
       </c>
       <c r="G385" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14107,7 +14107,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G386" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14133,7 +14133,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G387" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14159,7 +14159,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G388" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14185,7 +14185,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G389" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14211,7 +14211,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G390" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14237,7 +14237,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G391" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14263,7 +14263,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G392" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14289,7 +14289,7 @@
         <v>7.40500020980835</v>
       </c>
       <c r="G393" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14315,7 +14315,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G394" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14341,7 +14341,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G395" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14367,7 +14367,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G396" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14393,7 +14393,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G397" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14419,7 +14419,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G398" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14445,7 +14445,7 @@
         <v>7.41499996185303</v>
       </c>
       <c r="G399" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14471,7 +14471,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G400" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14497,7 +14497,7 @@
         <v>7.41499996185303</v>
       </c>
       <c r="G401" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14523,7 +14523,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G402" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14549,7 +14549,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G403" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14575,7 +14575,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G404" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14601,7 +14601,7 @@
         <v>7.5149998664856</v>
       </c>
       <c r="G405" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14627,7 +14627,7 @@
         <v>7.46500015258789</v>
       </c>
       <c r="G406" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14653,7 +14653,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G407" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14679,7 +14679,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G408" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14705,7 +14705,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G409" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14731,7 +14731,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G410" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14757,7 +14757,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G411" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14783,7 +14783,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G412" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -14809,7 +14809,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G413" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14835,7 +14835,7 @@
         <v>7.41499996185303</v>
       </c>
       <c r="G414" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14861,7 +14861,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G415" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14887,7 +14887,7 @@
         <v>7.58500003814697</v>
       </c>
       <c r="G416" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14913,7 +14913,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G417" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14939,7 +14939,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G418" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14965,7 +14965,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G419" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14991,7 +14991,7 @@
         <v>7.74499988555908</v>
       </c>
       <c r="G420" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15017,7 +15017,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G421" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15043,7 +15043,7 @@
         <v>7.63500022888184</v>
       </c>
       <c r="G422" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15069,7 +15069,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G423" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15095,7 +15095,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G424" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15121,7 +15121,7 @@
         <v>7.54500007629395</v>
       </c>
       <c r="G425" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15147,7 +15147,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G426" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15173,7 +15173,7 @@
         <v>7.63500022888184</v>
       </c>
       <c r="G427" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15199,7 +15199,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G428" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15225,7 +15225,7 @@
         <v>7.57499980926514</v>
       </c>
       <c r="G429" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15251,7 +15251,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G430" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15277,7 +15277,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G431" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15303,7 +15303,7 @@
         <v>7.67500019073486</v>
       </c>
       <c r="G432" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15329,7 +15329,7 @@
         <v>7.52500009536743</v>
       </c>
       <c r="G433" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15355,7 +15355,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G434" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15381,7 +15381,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G435" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15407,7 +15407,7 @@
         <v>7.65500020980835</v>
       </c>
       <c r="G436" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15433,7 +15433,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G437" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15459,7 +15459,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G438" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15485,7 +15485,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G439" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15511,7 +15511,7 @@
         <v>7.88500022888184</v>
       </c>
       <c r="G440" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15537,7 +15537,7 @@
         <v>7.93499994277954</v>
       </c>
       <c r="G441" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15563,7 +15563,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G442" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15589,7 +15589,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G443" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15615,7 +15615,7 @@
         <v>8.21500015258789</v>
       </c>
       <c r="G444" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15641,7 +15641,7 @@
         <v>8.21500015258789</v>
       </c>
       <c r="G445" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15667,7 +15667,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G446" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15693,7 +15693,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G447" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15719,7 +15719,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G448" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15745,7 +15745,7 @@
         <v>7.9850001335144</v>
       </c>
       <c r="G449" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15771,7 +15771,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G450" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15797,7 +15797,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G451" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15823,7 +15823,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G452" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15849,7 +15849,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G453" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15875,7 +15875,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G454" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15901,7 +15901,7 @@
         <v>8.09500026702881</v>
       </c>
       <c r="G455" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15927,7 +15927,7 @@
         <v>7.99499988555908</v>
       </c>
       <c r="G456" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15953,7 +15953,7 @@
         <v>8</v>
       </c>
       <c r="G457" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15979,7 +15979,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G458" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16005,7 +16005,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G459" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16031,7 +16031,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G460" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16057,7 +16057,7 @@
         <v>8.01500034332275</v>
       </c>
       <c r="G461" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16083,7 +16083,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G462" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16109,7 +16109,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G463" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16135,7 +16135,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G464" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16161,7 +16161,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G465" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16187,7 +16187,7 @@
         <v>7.84499979019165</v>
       </c>
       <c r="G466" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16213,7 +16213,7 @@
         <v>7.78499984741211</v>
       </c>
       <c r="G467" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16239,7 +16239,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G468" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16265,7 +16265,7 @@
         <v>7.88500022888184</v>
       </c>
       <c r="G469" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16291,7 +16291,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G470" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16317,7 +16317,7 @@
         <v>8.0649995803833</v>
       </c>
       <c r="G471" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16343,7 +16343,7 @@
         <v>7.92500019073486</v>
       </c>
       <c r="G472" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16369,7 +16369,7 @@
         <v>8</v>
       </c>
       <c r="G473" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16395,7 +16395,7 @@
         <v>7.91499996185303</v>
       </c>
       <c r="G474" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16421,7 +16421,7 @@
         <v>7.85500001907349</v>
       </c>
       <c r="G475" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16447,7 +16447,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G476" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16473,7 +16473,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G477" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16499,7 +16499,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G478" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16525,7 +16525,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G479" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16551,7 +16551,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G480" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16577,7 +16577,7 @@
         <v>7.70499992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16603,7 +16603,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G482" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16629,7 +16629,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G483" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16655,7 +16655,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G484" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16681,7 +16681,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G485" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16707,7 +16707,7 @@
         <v>7.89499998092651</v>
       </c>
       <c r="G486" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16733,7 +16733,7 @@
         <v>7.95499992370605</v>
       </c>
       <c r="G487" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16759,7 +16759,7 @@
         <v>8</v>
       </c>
       <c r="G488" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16785,7 +16785,7 @@
         <v>7.9850001335144</v>
       </c>
       <c r="G489" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16811,7 +16811,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G490" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16837,7 +16837,7 @@
         <v>7.95499992370605</v>
       </c>
       <c r="G491" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16863,7 +16863,7 @@
         <v>7.97499990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16889,7 +16889,7 @@
         <v>7.92500019073486</v>
       </c>
       <c r="G493" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16915,7 +16915,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G494" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16941,7 +16941,7 @@
         <v>8</v>
       </c>
       <c r="G495" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16967,7 +16967,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G496" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16993,7 +16993,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G497" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17019,7 +17019,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G498" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17045,7 +17045,7 @@
         <v>8.08500003814697</v>
       </c>
       <c r="G499" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17071,7 +17071,7 @@
         <v>8.11499977111816</v>
       </c>
       <c r="G500" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17097,7 +17097,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G501" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17123,7 +17123,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G502" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17149,7 +17149,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G503" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17175,7 +17175,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G504" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17201,7 +17201,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G505" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17227,7 +17227,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G506" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17253,7 +17253,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G507" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17279,7 +17279,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G508" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17305,7 +17305,7 @@
         <v>8.25</v>
       </c>
       <c r="G509" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17331,7 +17331,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G510" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17357,7 +17357,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G511" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17383,7 +17383,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G512" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17409,7 +17409,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G513" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17435,7 +17435,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G514" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17461,7 +17461,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G515" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17487,7 +17487,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G516" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17513,7 +17513,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G517" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17539,7 +17539,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G518" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17565,7 +17565,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G519" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17591,7 +17591,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G520" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17617,7 +17617,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G521" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17643,7 +17643,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G522" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17669,7 +17669,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G523" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17695,7 +17695,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G524" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17721,7 +17721,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G525" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17747,7 +17747,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G526" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17773,7 +17773,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G527" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17799,7 +17799,7 @@
         <v>8.5</v>
       </c>
       <c r="G528" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -17825,7 +17825,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G529" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17851,7 +17851,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G530" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17877,7 +17877,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G531" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17903,7 +17903,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G532" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17929,7 +17929,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G533" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17955,7 +17955,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G534" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17981,7 +17981,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G535" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18007,7 +18007,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G536" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18033,7 +18033,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G537" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18059,7 +18059,7 @@
         <v>8</v>
       </c>
       <c r="G538" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18085,7 +18085,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G539" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18111,7 +18111,7 @@
         <v>8</v>
       </c>
       <c r="G540" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18137,7 +18137,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G541" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18163,7 +18163,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G542" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18189,7 +18189,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G543" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18215,7 +18215,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G544" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18241,7 +18241,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G545" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18267,7 +18267,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G546" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18293,7 +18293,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G547" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18319,7 +18319,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G548" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18345,7 +18345,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G549" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18371,7 +18371,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G550" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18397,7 +18397,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G551" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18423,7 +18423,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G552" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18449,7 +18449,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G553" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18475,7 +18475,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G554" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18501,7 +18501,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G555" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18527,7 +18527,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G556" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18553,7 +18553,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G557" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18579,7 +18579,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G558" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18605,7 +18605,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G559" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18631,7 +18631,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G560" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18657,7 +18657,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G561" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18683,7 +18683,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G562" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18709,7 +18709,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G563" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18735,7 +18735,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G564" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18761,7 +18761,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G565" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18787,7 +18787,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G566" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18813,7 +18813,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G567" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18839,7 +18839,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G568" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18865,7 +18865,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G569" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18891,7 +18891,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G570" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18917,7 +18917,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G571" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18943,7 +18943,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18969,7 +18969,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G573" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18995,7 +18995,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G574" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19021,7 +19021,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G575" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19047,7 +19047,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G576" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19073,7 +19073,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G577" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19099,7 +19099,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G578" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19125,7 +19125,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G579" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19151,7 +19151,7 @@
         <v>8.25</v>
       </c>
       <c r="G580" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19177,7 +19177,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G581" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19203,7 +19203,7 @@
         <v>8.25</v>
       </c>
       <c r="G582" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19229,7 +19229,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G583" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19255,7 +19255,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G584" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19281,7 +19281,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G585" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19307,7 +19307,7 @@
         <v>8.25</v>
       </c>
       <c r="G586" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19333,7 +19333,7 @@
         <v>8.25</v>
       </c>
       <c r="G587" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19359,7 +19359,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G588" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19385,7 +19385,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G589" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19411,7 +19411,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G590" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19437,7 +19437,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G591" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19463,7 +19463,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G592" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19489,7 +19489,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G593" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19515,7 +19515,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19541,7 +19541,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G595" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19567,7 +19567,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19593,7 +19593,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G597" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19619,7 +19619,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G598" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19645,7 +19645,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G599" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19671,7 +19671,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G600" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19697,7 +19697,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G601" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19723,7 +19723,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G602" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19749,7 +19749,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G603" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19775,7 +19775,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G604" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19801,7 +19801,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G605" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19827,7 +19827,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G606" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20269,7 +20269,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20321,7 +20321,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G625" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20373,7 +20373,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G627" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -22869,7 +22869,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G723" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23389,7 +23389,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G743" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23857,7 +23857,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G761" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1244">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,85 +38,85 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27017736434937</t>
+    <t xml:space="preserve">4.27017688751221</t>
   </si>
   <si>
     <t xml:space="preserve">ZV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25227975845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16279602050781</t>
+    <t xml:space="preserve">4.25228023529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16279554367065</t>
   </si>
   <si>
     <t xml:space="preserve">4.04467725753784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99456548690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91939973831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96951055526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95519375801086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01604223251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98382711410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89434409141541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87286782264709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76548767089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85855007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729662895203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91224050521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86570882797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90150284767151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95877194404602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80128049850464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79412174224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78696274757385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69389986991882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65810561180115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71537590026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57936024665833</t>
+    <t xml:space="preserve">3.99456572532654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91939949989319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96951079368591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95519351959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01604175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98382782936096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89434385299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87286758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76548719406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85855078697205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729615211487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91224122047424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86570906639099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90150260925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95877265930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8012809753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79412198066711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78696322441101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69389939308167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65810608863831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71537661552429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57936000823975</t>
   </si>
   <si>
     <t xml:space="preserve">3.60083627700806</t>
@@ -125,40 +125,40 @@
     <t xml:space="preserve">3.70821714401245</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75832796096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76906609535217</t>
+    <t xml:space="preserve">3.75832843780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76906633377075</t>
   </si>
   <si>
     <t xml:space="preserve">3.81559777259827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77980422973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74759006500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72611379623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70105814933777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76190757751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78338384628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80485939979553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74401068687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7726457118988</t>
+    <t xml:space="preserve">3.77980518341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74759030342102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72611403465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70105838775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76190781593323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78338289260864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80485987663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74401044845581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77264547348022</t>
   </si>
   <si>
     <t xml:space="preserve">3.85139155387878</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">4.00172424316406</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05899477005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08404970169067</t>
+    <t xml:space="preserve">4.05899429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08405017852783</t>
   </si>
   <si>
     <t xml:space="preserve">4.06973266601562</t>
@@ -179,46 +179,46 @@
     <t xml:space="preserve">4.15205812454224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15921640396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13774013519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12342309951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11626386642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14489936828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13058137893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1950101852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09836673736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07689142227173</t>
+    <t xml:space="preserve">4.15921545028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13773965835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12342262268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11626434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14489841461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13058185577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19501066207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09836721420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07689046859741</t>
   </si>
   <si>
     <t xml:space="preserve">4.16637516021729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11984395980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16995477676392</t>
+    <t xml:space="preserve">4.11984348297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16995429992676</t>
   </si>
   <si>
     <t xml:space="preserve">4.18069314956665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1878514289856</t>
+    <t xml:space="preserve">4.18785095214844</t>
   </si>
   <si>
     <t xml:space="preserve">4.13416147232056</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">4.19858932495117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14131927490234</t>
+    <t xml:space="preserve">4.14132022857666</t>
   </si>
   <si>
     <t xml:space="preserve">4.09120893478394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10706996917725</t>
+    <t xml:space="preserve">4.10706901550293</t>
   </si>
   <si>
     <t xml:space="preserve">4.09213447570801</t>
@@ -245,37 +245,37 @@
     <t xml:space="preserve">4.05479764938354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08093357086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0958685874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11453723907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12200355529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11080265045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16680860519409</t>
+    <t xml:space="preserve">4.08093404769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09586811065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11453628540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12200403213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11080312728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16680812835693</t>
   </si>
   <si>
     <t xml:space="preserve">4.17800951004028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1854772567749</t>
+    <t xml:space="preserve">4.18547677993774</t>
   </si>
   <si>
     <t xml:space="preserve">4.24148225784302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25268411636353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31989002227783</t>
+    <t xml:space="preserve">4.25268363952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31989049911499</t>
   </si>
   <si>
     <t xml:space="preserve">4.2862868309021</t>
@@ -290,34 +290,34 @@
     <t xml:space="preserve">4.23401546478271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20041227340698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19667863845825</t>
+    <t xml:space="preserve">4.20041131973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19667816162109</t>
   </si>
   <si>
     <t xml:space="preserve">4.01746082305908</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99505805969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96892237663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96145510673523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12573862075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14440727233887</t>
+    <t xml:space="preserve">3.99505853652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96892285346985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96145439147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1257381439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14440584182739</t>
   </si>
   <si>
     <t xml:space="preserve">4.17427587509155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26388454437256</t>
+    <t xml:space="preserve">4.26388549804688</t>
   </si>
   <si>
     <t xml:space="preserve">3.97265601158142</t>
@@ -329,19 +329,19 @@
     <t xml:space="preserve">4.04732990264893</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08840131759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03986310958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02119398117065</t>
+    <t xml:space="preserve">4.08840084075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03986263275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02119493484497</t>
   </si>
   <si>
     <t xml:space="preserve">4.05853128433228</t>
   </si>
   <si>
-    <t xml:space="preserve">4.032395362854</t>
+    <t xml:space="preserve">4.03239488601685</t>
   </si>
   <si>
     <t xml:space="preserve">4.08466672897339</t>
@@ -353,22 +353,22 @@
     <t xml:space="preserve">4.15934085845947</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12947130203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13693904876709</t>
+    <t xml:space="preserve">4.12947177886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13693857192993</t>
   </si>
   <si>
     <t xml:space="preserve">4.20414543151855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2265477180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24895000457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18174314498901</t>
+    <t xml:space="preserve">4.22654724121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24894952774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18174362182617</t>
   </si>
   <si>
     <t xml:space="preserve">4.06226539611816</t>
@@ -383,85 +383,85 @@
     <t xml:space="preserve">3.98012375831604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97638988494873</t>
+    <t xml:space="preserve">3.97639012336731</t>
   </si>
   <si>
     <t xml:space="preserve">3.95772171020508</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93531942367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98759078979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00252628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03612899780273</t>
+    <t xml:space="preserve">3.93531918525696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98759126663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00252532958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03612947463989</t>
   </si>
   <si>
     <t xml:space="preserve">3.93905282020569</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95025372505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94278693199158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94652032852173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86064481735229</t>
+    <t xml:space="preserve">3.95025396347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94278717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94651985168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86064529418945</t>
   </si>
   <si>
     <t xml:space="preserve">3.84571051597595</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86811280250549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82330846786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81584048271179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077645301819</t>
+    <t xml:space="preserve">3.86811256408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82330799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81584143638611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077597618103</t>
   </si>
   <si>
     <t xml:space="preserve">3.81957459449768</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85317778587341</t>
+    <t xml:space="preserve">3.85317754745483</t>
   </si>
   <si>
     <t xml:space="preserve">3.95398807525635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14067268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21161222457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22281408309937</t>
+    <t xml:space="preserve">4.14067316055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21161270141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22281503677368</t>
   </si>
   <si>
     <t xml:space="preserve">4.09960174560547</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10333585739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00999307632446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04359722137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00625944137573</t>
+    <t xml:space="preserve">4.1033353805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00999355316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0435962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00625896453857</t>
   </si>
   <si>
     <t xml:space="preserve">4.06599903106689</t>
@@ -470,13 +470,13 @@
     <t xml:space="preserve">3.92038416862488</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0734658241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26015090942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27135229110718</t>
+    <t xml:space="preserve">4.07346534729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26015138626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27135181427002</t>
   </si>
   <si>
     <t xml:space="preserve">4.31615686416626</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">4.33109188079834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28255319595337</t>
+    <t xml:space="preserve">4.28255367279053</t>
   </si>
   <si>
     <t xml:space="preserve">4.27881956100464</t>
@@ -494,91 +494,91 @@
     <t xml:space="preserve">4.32362365722656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34229278564453</t>
+    <t xml:space="preserve">4.34229230880737</t>
   </si>
   <si>
     <t xml:space="preserve">4.30868911743164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30495500564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27508544921875</t>
+    <t xml:space="preserve">4.30495548248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27508640289307</t>
   </si>
   <si>
     <t xml:space="preserve">4.29375410079956</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33855867385864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33482456207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3684287071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36096143722534</t>
+    <t xml:space="preserve">4.33855772018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33482503890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36842823028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36096096038818</t>
   </si>
   <si>
     <t xml:space="preserve">4.40576553344727</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42070007324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39456462860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48043966293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45430421829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51777648925781</t>
+    <t xml:space="preserve">4.42070055007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39456415176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48043918609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45430374145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51777601242065</t>
   </si>
   <si>
     <t xml:space="preserve">4.59245014190674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61485290527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59991836547852</t>
+    <t xml:space="preserve">4.61485195159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59991788864136</t>
   </si>
   <si>
     <t xml:space="preserve">4.55511379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54764556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62978744506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76420116424561</t>
+    <t xml:space="preserve">4.54764604568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6297869682312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76420068740845</t>
   </si>
   <si>
     <t xml:space="preserve">4.995689868927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18984270095825</t>
+    <t xml:space="preserve">5.18984127044678</t>
   </si>
   <si>
     <t xml:space="preserve">5.22717952728271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48853778839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51840734481812</t>
+    <t xml:space="preserve">5.48853826522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51840782165527</t>
   </si>
   <si>
     <t xml:space="preserve">5.52587509155273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.522141456604</t>
+    <t xml:space="preserve">5.52214097976685</t>
   </si>
   <si>
     <t xml:space="preserve">5.3802604675293</t>
@@ -587,10 +587,10 @@
     <t xml:space="preserve">5.36159229278564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37279367446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639638900757</t>
+    <t xml:space="preserve">5.37279319763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639686584473</t>
   </si>
   <si>
     <t xml:space="preserve">5.39519548416138</t>
@@ -599,13 +599,13 @@
     <t xml:space="preserve">5.44373369216919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45120191574097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46613550186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48480463027954</t>
+    <t xml:space="preserve">5.45120143890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46613597869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48480367660522</t>
   </si>
   <si>
     <t xml:space="preserve">5.43626642227173</t>
@@ -614,16 +614,16 @@
     <t xml:space="preserve">5.42133188247681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5445442199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56694602966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91417980194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82457113265991</t>
+    <t xml:space="preserve">5.54454374313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56694507598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91418027877808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82457160949707</t>
   </si>
   <si>
     <t xml:space="preserve">5.66028785705566</t>
@@ -635,55 +635,55 @@
     <t xml:space="preserve">5.6752233505249</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74989748001099</t>
+    <t xml:space="preserve">5.74989700317383</t>
   </si>
   <si>
     <t xml:space="preserve">5.84323930740356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92965698242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97209453582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01067447662354</t>
+    <t xml:space="preserve">5.92965745925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97209501266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01067399978638</t>
   </si>
   <si>
     <t xml:space="preserve">5.94123125076294</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93737316131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91422605514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72904491424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72518682479858</t>
+    <t xml:space="preserve">5.93737363815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91422557830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72904443740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72518634796143</t>
   </si>
   <si>
     <t xml:space="preserve">5.86792993545532</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87564611434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81006097793579</t>
+    <t xml:space="preserve">5.87564563751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81006193161011</t>
   </si>
   <si>
     <t xml:space="preserve">5.77148151397705</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8717885017395</t>
+    <t xml:space="preserve">5.87178802490234</t>
   </si>
   <si>
     <t xml:space="preserve">5.76376581192017</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67117500305176</t>
+    <t xml:space="preserve">5.67117547988892</t>
   </si>
   <si>
     <t xml:space="preserve">5.67889165878296</t>
@@ -692,22 +692,22 @@
     <t xml:space="preserve">5.74061822891235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7097544670105</t>
+    <t xml:space="preserve">5.70975494384766</t>
   </si>
   <si>
     <t xml:space="preserve">5.78691339492798</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75604963302612</t>
+    <t xml:space="preserve">5.75605010986328</t>
   </si>
   <si>
     <t xml:space="preserve">5.79077196121216</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80620336532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86021423339844</t>
+    <t xml:space="preserve">5.80620288848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8602147102356</t>
   </si>
   <si>
     <t xml:space="preserve">5.91808366775513</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">5.71747064590454</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82549333572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86407232284546</t>
+    <t xml:space="preserve">5.82549285888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86407279968262</t>
   </si>
   <si>
     <t xml:space="preserve">5.7599081993103</t>
@@ -728,22 +728,22 @@
     <t xml:space="preserve">5.9335150718689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81777715682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64802694320679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67503309249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61330652236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58630037307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44741487503052</t>
+    <t xml:space="preserve">5.81777667999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64802837371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67503261566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61330604553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58629989624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4474139213562</t>
   </si>
   <si>
     <t xml:space="preserve">5.41655111312866</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">5.57086849212646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62102222442627</t>
+    <t xml:space="preserve">5.62102127075195</t>
   </si>
   <si>
     <t xml:space="preserve">5.43198251724243</t>
@@ -761,16 +761,16 @@
     <t xml:space="preserve">5.71361255645752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69432258605957</t>
+    <t xml:space="preserve">5.69432306289673</t>
   </si>
   <si>
     <t xml:space="preserve">5.68274879455566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54000520706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77919816970825</t>
+    <t xml:space="preserve">5.54000473022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77919769287109</t>
   </si>
   <si>
     <t xml:space="preserve">5.7213282585144</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">5.73290252685547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74833393096924</t>
+    <t xml:space="preserve">5.74833345413208</t>
   </si>
   <si>
     <t xml:space="preserve">5.79463005065918</t>
@@ -788,10 +788,10 @@
     <t xml:space="preserve">5.65574264526367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79848766326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81391906738281</t>
+    <t xml:space="preserve">5.79848670959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81391954421997</t>
   </si>
   <si>
     <t xml:space="preserve">5.88721990585327</t>
@@ -800,28 +800,28 @@
     <t xml:space="preserve">5.89493608474731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87950372695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8332085609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85249900817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97595167160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90265274047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89107894897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8216347694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84478330612183</t>
+    <t xml:space="preserve">5.87950420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83320903778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85249805450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97595262527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9026517868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89107799530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82163429260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84478282928467</t>
   </si>
   <si>
     <t xml:space="preserve">5.92194175720215</t>
@@ -833,13 +833,13 @@
     <t xml:space="preserve">6.08397531509399</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12255477905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26529836654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28073120117188</t>
+    <t xml:space="preserve">6.12255382537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26529884338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28073072433472</t>
   </si>
   <si>
     <t xml:space="preserve">6.33859920501709</t>
@@ -854,13 +854,13 @@
     <t xml:space="preserve">6.16113424301147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21900367736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16499185562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29616165161133</t>
+    <t xml:space="preserve">6.21900415420532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1649923324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29616260528564</t>
   </si>
   <si>
     <t xml:space="preserve">6.0955491065979</t>
@@ -869,28 +869,28 @@
     <t xml:space="preserve">6.246009349823</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16884994506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17270803451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20357084274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11098051071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18428134918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02610492706299</t>
+    <t xml:space="preserve">6.1688494682312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17270755767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20357131958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11098098754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18428230285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0261058807373</t>
   </si>
   <si>
     <t xml:space="preserve">6.15727615356445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19585561752319</t>
+    <t xml:space="preserve">6.19585514068604</t>
   </si>
   <si>
     <t xml:space="preserve">6.08011722564697</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">6.00681591033936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98752641677856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22286128997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11483907699585</t>
+    <t xml:space="preserve">5.98752689361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22286033630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11483860015869</t>
   </si>
   <si>
     <t xml:space="preserve">6.10712289810181</t>
@@ -920,31 +920,31 @@
     <t xml:space="preserve">5.92579936981201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94894695281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84864044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0878324508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9450888633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00295925140381</t>
+    <t xml:space="preserve">5.94894742965698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84864091873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08783340454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94508934020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00295877456665</t>
   </si>
   <si>
     <t xml:space="preserve">6.06468534469604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09169054031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13798570632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13412809371948</t>
+    <t xml:space="preserve">6.09169101715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1379861831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13412857055664</t>
   </si>
   <si>
     <t xml:space="preserve">6.15341758728027</t>
@@ -956,37 +956,37 @@
     <t xml:space="preserve">6.14956045150757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23829221725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26144075393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25758218765259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28844594955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36560440063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40418434143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35017204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43504810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58164978027344</t>
+    <t xml:space="preserve">6.23829317092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26144027709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25758171081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28844547271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36560535430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40418481826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.350172996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43504762649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58164930343628</t>
   </si>
   <si>
     <t xml:space="preserve">6.53535461425781</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37332105636597</t>
+    <t xml:space="preserve">6.37332057952881</t>
   </si>
   <si>
     <t xml:space="preserve">6.38103723526001</t>
@@ -995,10 +995,10 @@
     <t xml:space="preserve">6.38875246047974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60479879379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55850172042847</t>
+    <t xml:space="preserve">6.60479831695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55850219726562</t>
   </si>
   <si>
     <t xml:space="preserve">6.48905897140503</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">6.34245729446411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22671937942505</t>
+    <t xml:space="preserve">6.22671842575073</t>
   </si>
   <si>
     <t xml:space="preserve">6.18042421340942</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">6.33474159240723</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46591138839722</t>
+    <t xml:space="preserve">6.46591234207153</t>
   </si>
   <si>
     <t xml:space="preserve">6.50449085235596</t>
@@ -1043,43 +1043,43 @@
     <t xml:space="preserve">6.3193097114563</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23443508148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49677515029907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4427638053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39646768569946</t>
+    <t xml:space="preserve">6.23443460464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49677562713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44276428222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39646863937378</t>
   </si>
   <si>
     <t xml:space="preserve">6.41961574554443</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42733240127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52763891220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51992177963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59708166122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63566112518311</t>
+    <t xml:space="preserve">6.42733192443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52763795852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51992225646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59708213806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566160202026</t>
   </si>
   <si>
     <t xml:space="preserve">6.74785804748535</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67573165893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58757591247559</t>
+    <t xml:space="preserve">6.67573118209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58757638931274</t>
   </si>
   <si>
     <t xml:space="preserve">6.63566064834595</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">6.62764739990234</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61963319778442</t>
+    <t xml:space="preserve">6.61963272094727</t>
   </si>
   <si>
     <t xml:space="preserve">6.56353378295898</t>
@@ -1100,34 +1100,34 @@
     <t xml:space="preserve">6.53147745132446</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49942111968994</t>
+    <t xml:space="preserve">6.49942064285278</t>
   </si>
   <si>
     <t xml:space="preserve">6.3711953163147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39523887634277</t>
+    <t xml:space="preserve">6.39523792266846</t>
   </si>
   <si>
     <t xml:space="preserve">6.61161851882935</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57956266403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60360383987427</t>
+    <t xml:space="preserve">6.57956218719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60360336303711</t>
   </si>
   <si>
     <t xml:space="preserve">6.65168905258179</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73182964324951</t>
+    <t xml:space="preserve">6.73182916641235</t>
   </si>
   <si>
     <t xml:space="preserve">6.53949117660522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51544952392578</t>
+    <t xml:space="preserve">6.51545000076294</t>
   </si>
   <si>
     <t xml:space="preserve">6.55552005767822</t>
@@ -1139,31 +1139,31 @@
     <t xml:space="preserve">6.38722372055054</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34715414047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32311105728149</t>
+    <t xml:space="preserve">6.34715366363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32311153411865</t>
   </si>
   <si>
     <t xml:space="preserve">6.46736431121826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48339223861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45935153961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43530797958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29906988143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42729473114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49140691757202</t>
+    <t xml:space="preserve">6.48339366912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45935106277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4353084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29906940460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42729520797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49140739440918</t>
   </si>
   <si>
     <t xml:space="preserve">6.45133686065674</t>
@@ -1178,25 +1178,25 @@
     <t xml:space="preserve">6.29105520248413</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27502727508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41126680374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25098466873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28304147720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21091413497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37920999526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36318159103394</t>
+    <t xml:space="preserve">6.27502632141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4112663269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25098562240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28304100036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21091461181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37920951843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36318254470825</t>
   </si>
   <si>
     <t xml:space="preserve">6.33112573623657</t>
@@ -1205,31 +1205,31 @@
     <t xml:space="preserve">6.19488620758057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41928100585938</t>
+    <t xml:space="preserve">6.41928052902222</t>
   </si>
   <si>
     <t xml:space="preserve">6.59558963775635</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84402751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01232194900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82799863815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94821071624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93218088150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98026561737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9241681098938</t>
+    <t xml:space="preserve">6.84402704238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01232290267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82799911499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94820976257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9321813583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98026609420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92416763305664</t>
   </si>
   <si>
     <t xml:space="preserve">7.02835130691528</t>
@@ -1238,22 +1238,22 @@
     <t xml:space="preserve">6.9081392288208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85204124450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98827981948853</t>
+    <t xml:space="preserve">6.85204172134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98828077316284</t>
   </si>
   <si>
     <t xml:space="preserve">7.04437923431396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.972252368927</t>
+    <t xml:space="preserve">6.97225189208984</t>
   </si>
   <si>
     <t xml:space="preserve">6.69977283477783</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75587224960327</t>
+    <t xml:space="preserve">6.75587177276611</t>
   </si>
   <si>
     <t xml:space="preserve">6.77991437911987</t>
@@ -1265,148 +1265,148 @@
     <t xml:space="preserve">6.90012502670288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96423768997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91615390777588</t>
+    <t xml:space="preserve">6.96423721313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91615343093872</t>
   </si>
   <si>
     <t xml:space="preserve">6.94019603729248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81197023391724</t>
+    <t xml:space="preserve">6.81197118759155</t>
   </si>
   <si>
     <t xml:space="preserve">6.70778703689575</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5715479850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77189970016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68374538421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64367485046387</t>
+    <t xml:space="preserve">6.57154750823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77190017700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68374586105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64367437362671</t>
   </si>
   <si>
     <t xml:space="preserve">7.06842136383057</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05239343643188</t>
+    <t xml:space="preserve">7.05239391326904</t>
   </si>
   <si>
     <t xml:space="preserve">7.12452030181885</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13253355026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99629402160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984384536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72381591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.836012840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88409757614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66771650314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71580123901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5475058555603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76388502120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10047721862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14054727554321</t>
+    <t xml:space="preserve">7.13253259658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9962944984436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984289169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72381544113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83601236343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8840970993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66771745681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71580171585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54750633239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76388549804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10047626495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14054775238037</t>
   </si>
   <si>
     <t xml:space="preserve">7.18863248825073</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17260456085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11650514602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23671627044678</t>
+    <t xml:space="preserve">7.17260408401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11650562286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23671674728394</t>
   </si>
   <si>
     <t xml:space="preserve">7.25274562835693</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19664573669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22870302200317</t>
+    <t xml:space="preserve">7.19664621353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22870349884033</t>
   </si>
   <si>
     <t xml:space="preserve">7.20466089248657</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29281520843506</t>
+    <t xml:space="preserve">7.29281568527222</t>
   </si>
   <si>
     <t xml:space="preserve">7.38898515701294</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2848014831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33288621902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45309686660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50919485092163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55728054046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51721000671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41302680969238</t>
+    <t xml:space="preserve">7.28480052947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3328857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45309734344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50919532775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55728006362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51720952987671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4130277633667</t>
   </si>
   <si>
     <t xml:space="preserve">7.48515319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44508361816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49316787719727</t>
+    <t xml:space="preserve">7.4450831413269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49316740036011</t>
   </si>
   <si>
     <t xml:space="preserve">7.81373071670532</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77366018295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75763320922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52522420883179</t>
+    <t xml:space="preserve">7.7736611366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75763273239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5252251625061</t>
   </si>
   <si>
     <t xml:space="preserve">7.54125213623047</t>
@@ -1415,25 +1415,25 @@
     <t xml:space="preserve">7.53323745727539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66146326065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63742017745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61337900161743</t>
+    <t xml:space="preserve">7.66146373748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63742160797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61337804794312</t>
   </si>
   <si>
     <t xml:space="preserve">7.60536479949951</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57330799102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79770135879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85380220413208</t>
+    <t xml:space="preserve">7.57330846786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79770231246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85380029678345</t>
   </si>
   <si>
     <t xml:space="preserve">7.91791391372681</t>
@@ -1442,16 +1442,16 @@
     <t xml:space="preserve">7.96599769592285</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97401189804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19039249420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23847770690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0781946182251</t>
+    <t xml:space="preserve">7.97401237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19039344787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23847675323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07819557189941</t>
   </si>
   <si>
     <t xml:space="preserve">8.12627983093262</t>
@@ -1460,43 +1460,43 @@
     <t xml:space="preserve">8.00606918334961</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87784290313721</t>
+    <t xml:space="preserve">7.87784337997437</t>
   </si>
   <si>
     <t xml:space="preserve">7.94195699691772</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03011035919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93394231796265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99004125595093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01408290863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98202705383301</t>
+    <t xml:space="preserve">8.03011131286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93394184112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99004077911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01408386230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98202753067017</t>
   </si>
   <si>
     <t xml:space="preserve">7.90188550949097</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89387226104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86982870101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14230918884277</t>
+    <t xml:space="preserve">7.89387083053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86982917785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14230823516846</t>
   </si>
   <si>
     <t xml:space="preserve">8.35067462921143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3346471786499</t>
+    <t xml:space="preserve">8.33464527130127</t>
   </si>
   <si>
     <t xml:space="preserve">8.71932220458984</t>
@@ -1508,10 +1508,10 @@
     <t xml:space="preserve">8.9757719039917</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63918113708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89563274383545</t>
+    <t xml:space="preserve">8.63918018341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89563369750977</t>
   </si>
   <si>
     <t xml:space="preserve">8.57832145690918</t>
@@ -1520,19 +1520,19 @@
     <t xml:space="preserve">8.54520034790039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37959671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49551963806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41271781921387</t>
+    <t xml:space="preserve">8.37959575653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49552059173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41271686553955</t>
   </si>
   <si>
     <t xml:space="preserve">8.72736644744873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47895908355713</t>
+    <t xml:space="preserve">8.47895812988281</t>
   </si>
   <si>
     <t xml:space="preserve">8.3133544921875</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">8.36303615570068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42927742004395</t>
+    <t xml:space="preserve">8.42927837371826</t>
   </si>
   <si>
     <t xml:space="preserve">8.52864074707031</t>
@@ -1559,61 +1559,61 @@
     <t xml:space="preserve">8.51208019256592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29679393768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87641048431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94265174865723</t>
+    <t xml:space="preserve">8.29679489135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87641143798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94265270233154</t>
   </si>
   <si>
     <t xml:space="preserve">9.10825634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77704811096191</t>
+    <t xml:space="preserve">8.7770471572876</t>
   </si>
   <si>
     <t xml:space="preserve">8.62800312042236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81016826629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67768478393555</t>
+    <t xml:space="preserve">8.8101692199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67768383026123</t>
   </si>
   <si>
     <t xml:space="preserve">8.74392700195312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84328937530518</t>
+    <t xml:space="preserve">8.84328842163086</t>
   </si>
   <si>
     <t xml:space="preserve">8.61144256591797</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64456272125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59488296508789</t>
+    <t xml:space="preserve">8.64456367492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59488201141357</t>
   </si>
   <si>
     <t xml:space="preserve">8.69424533843994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90953063964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44583797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66112518310547</t>
+    <t xml:space="preserve">8.90953159332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44583892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66112422943115</t>
   </si>
   <si>
     <t xml:space="preserve">8.19743156433105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34647464752197</t>
+    <t xml:space="preserve">8.34647560119629</t>
   </si>
   <si>
     <t xml:space="preserve">8.27195358276367</t>
@@ -1622,16 +1622,16 @@
     <t xml:space="preserve">8.32991504669189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25539302825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1146297454834</t>
+    <t xml:space="preserve">8.25539207458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11462879180908</t>
   </si>
   <si>
     <t xml:space="preserve">8.23883152008057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89297103881836</t>
+    <t xml:space="preserve">8.89297008514404</t>
   </si>
   <si>
     <t xml:space="preserve">8.24711227416992</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">8.12290954589844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18087100982666</t>
+    <t xml:space="preserve">8.18087005615234</t>
   </si>
   <si>
     <t xml:space="preserve">8.46239757537842</t>
@@ -1655,16 +1655,16 @@
     <t xml:space="preserve">8.15603065490723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5617618560791</t>
+    <t xml:space="preserve">8.56176090240479</t>
   </si>
   <si>
     <t xml:space="preserve">9.32354259490967</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90315914154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1515665054321</t>
+    <t xml:space="preserve">9.90316009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1515674591064</t>
   </si>
   <si>
     <t xml:space="preserve">10.0190830230713</t>
@@ -1673,37 +1673,37 @@
     <t xml:space="preserve">10.3502922058105</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4993371963501</t>
+    <t xml:space="preserve">10.4993362426758</t>
   </si>
   <si>
     <t xml:space="preserve">10.4330940246582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5655784606934</t>
+    <t xml:space="preserve">10.565577507019</t>
   </si>
   <si>
     <t xml:space="preserve">10.731183052063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0955123901367</t>
+    <t xml:space="preserve">11.095513343811</t>
   </si>
   <si>
     <t xml:space="preserve">10.9630289077759</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1451950073242</t>
+    <t xml:space="preserve">11.1451930999756</t>
   </si>
   <si>
     <t xml:space="preserve">10.7974252700806</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7477416992188</t>
+    <t xml:space="preserve">10.7477426528931</t>
   </si>
   <si>
     <t xml:space="preserve">10.5158958435059</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4662160873413</t>
+    <t xml:space="preserve">10.4662141799927</t>
   </si>
   <si>
     <t xml:space="preserve">10.4496545791626</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">10.284049987793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3171710968018</t>
+    <t xml:space="preserve">10.3171701431274</t>
   </si>
   <si>
     <t xml:space="preserve">10.1184453964233</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">10.5821390151978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6980628967285</t>
+    <t xml:space="preserve">10.6980619430542</t>
   </si>
   <si>
     <t xml:space="preserve">10.9464683532715</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">11.0292711257935</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2279958724976</t>
+    <t xml:space="preserve">11.2279977798462</t>
   </si>
   <si>
     <t xml:space="preserve">11.2611179351807</t>
@@ -1763,10 +1763,10 @@
     <t xml:space="preserve">11.1948757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">11.178316116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2445573806763</t>
+    <t xml:space="preserve">11.1783151626587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.244556427002</t>
   </si>
   <si>
     <t xml:space="preserve">11.3604803085327</t>
@@ -1775,19 +1775,19 @@
     <t xml:space="preserve">11.6088876724243</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5757656097412</t>
+    <t xml:space="preserve">11.5757665634155</t>
   </si>
   <si>
     <t xml:space="preserve">11.7579317092896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6420087814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.873854637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.791051864624</t>
+    <t xml:space="preserve">11.6420078277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8738555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7910528182983</t>
   </si>
   <si>
     <t xml:space="preserve">11.7248115539551</t>
@@ -1799,19 +1799,19 @@
     <t xml:space="preserve">11.7413711547852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7082500457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5923261642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4101610183716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6318187713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6649417877197</t>
+    <t xml:space="preserve">11.7082490921021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5923271179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4101619720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6318197250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6649408340454</t>
   </si>
   <si>
     <t xml:space="preserve">10.2343683242798</t>
@@ -1826,58 +1826,58 @@
     <t xml:space="preserve">9.4891471862793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02545356750488</t>
+    <t xml:space="preserve">9.0254545211792</t>
   </si>
   <si>
     <t xml:space="preserve">7.73373794555664</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9324631690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96558475494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91590309143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15793800354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92609119415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85984992980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00889492034912</t>
+    <t xml:space="preserve">7.93246412277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96558427810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91590404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15793895721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92609024047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85984897613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00889587402344</t>
   </si>
   <si>
     <t xml:space="preserve">9.52226829528809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98596286773682</t>
+    <t xml:space="preserve">9.9859619140625</t>
   </si>
   <si>
     <t xml:space="preserve">9.62163066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43946647644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91971969604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38978481292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37322425842285</t>
+    <t xml:space="preserve">9.43946552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91971874237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38978576660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37322521209717</t>
   </si>
   <si>
     <t xml:space="preserve">9.63819217681885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42290592193604</t>
+    <t xml:space="preserve">9.42290496826172</t>
   </si>
   <si>
     <t xml:space="preserve">9.67131328582764</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">9.55538940429688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7375545501709</t>
+    <t xml:space="preserve">9.73755359649658</t>
   </si>
   <si>
     <t xml:space="preserve">9.47258758544922</t>
@@ -1904,34 +1904,34 @@
     <t xml:space="preserve">9.64053535461426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52024173736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17655181884766</t>
+    <t xml:space="preserve">9.52024269104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17655086517334</t>
   </si>
   <si>
     <t xml:space="preserve">8.98752117156982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19373607635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70927238464355</t>
+    <t xml:space="preserve">9.19373512268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70927143096924</t>
   </si>
   <si>
     <t xml:space="preserve">9.43431949615479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26247310638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21092128753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48587226867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86393260955811</t>
+    <t xml:space="preserve">9.26247406005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2109203338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48587322235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86393356323242</t>
   </si>
   <si>
     <t xml:space="preserve">10.018593788147</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">10.8434534072876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6372375488281</t>
+    <t xml:space="preserve">10.6372385025024</t>
   </si>
   <si>
     <t xml:space="preserve">10.8950071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7575302124023</t>
+    <t xml:space="preserve">10.7575311660767</t>
   </si>
   <si>
     <t xml:space="preserve">10.7918996810913</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">10.8606376647949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8090839385986</t>
+    <t xml:space="preserve">10.8090829849243</t>
   </si>
   <si>
     <t xml:space="preserve">10.5169467926025</t>
@@ -1967,25 +1967,25 @@
     <t xml:space="preserve">10.4482088088989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2419929504395</t>
+    <t xml:space="preserve">10.2419939041138</t>
   </si>
   <si>
     <t xml:space="preserve">10.7059764862061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.774715423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9121913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8262691497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1527738571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4620971679688</t>
+    <t xml:space="preserve">10.7747144699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9121904373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.826268196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.152774810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4620962142944</t>
   </si>
   <si>
     <t xml:space="preserve">11.4964666366577</t>
@@ -1994,13 +1994,13 @@
     <t xml:space="preserve">11.4449119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4105424880981</t>
+    <t xml:space="preserve">11.4105434417725</t>
   </si>
   <si>
     <t xml:space="preserve">11.5480194091797</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2902526855469</t>
+    <t xml:space="preserve">11.2902517318726</t>
   </si>
   <si>
     <t xml:space="preserve">11.2386989593506</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">11.7714185714722</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9260787963867</t>
+    <t xml:space="preserve">11.926079750061</t>
   </si>
   <si>
     <t xml:space="preserve">12.0291872024536</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">12.2010326385498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0807418823242</t>
+    <t xml:space="preserve">12.0807409286499</t>
   </si>
   <si>
     <t xml:space="preserve">12.0979251861572</t>
@@ -2036,10 +2036,10 @@
     <t xml:space="preserve">12.1151103973389</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1322946548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.977632522583</t>
+    <t xml:space="preserve">12.1322956085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9776334762573</t>
   </si>
   <si>
     <t xml:space="preserve">11.8401565551758</t>
@@ -2048,22 +2048,22 @@
     <t xml:space="preserve">11.8573417663574</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4792804718018</t>
+    <t xml:space="preserve">11.4792814254761</t>
   </si>
   <si>
     <t xml:space="preserve">11.1355905532837</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1184043884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3074359893799</t>
+    <t xml:space="preserve">11.1184053421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3074350357056</t>
   </si>
   <si>
     <t xml:space="preserve">11.4277276992798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2043294906616</t>
+    <t xml:space="preserve">11.2043285369873</t>
   </si>
   <si>
     <t xml:space="preserve">11.3418045043945</t>
@@ -2075,52 +2075,52 @@
     <t xml:space="preserve">11.3246212005615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1012210845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1871452331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0496664047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9637451171875</t>
+    <t xml:space="preserve">11.101222038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.18714427948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0496673583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9637441635132</t>
   </si>
   <si>
     <t xml:space="preserve">11.1699590682983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9981136322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5136499404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6854972839355</t>
+    <t xml:space="preserve">10.9981145858765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.513650894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6854963302612</t>
   </si>
   <si>
     <t xml:space="preserve">11.6167583465576</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2730674743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3933591842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5823888778687</t>
+    <t xml:space="preserve">11.2730665206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3933582305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5823879241943</t>
   </si>
   <si>
     <t xml:space="preserve">11.565203666687</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9088945388794</t>
+    <t xml:space="preserve">11.9088954925537</t>
   </si>
   <si>
     <t xml:space="preserve">11.8229732513428</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2354011535645</t>
+    <t xml:space="preserve">12.2354021072388</t>
   </si>
   <si>
     <t xml:space="preserve">12.0635557174683</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">11.3589897155762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7886037826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7370491027832</t>
+    <t xml:space="preserve">11.7886028289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7370500564575</t>
   </si>
   <si>
     <t xml:space="preserve">11.6511278152466</t>
@@ -2171,22 +2171,22 @@
     <t xml:space="preserve">11.6339426040649</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1838483810425</t>
+    <t xml:space="preserve">12.1838474273682</t>
   </si>
   <si>
     <t xml:space="preserve">12.4416170120239</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3728771209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.407247543335</t>
+    <t xml:space="preserve">12.372878074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4072465896606</t>
   </si>
   <si>
     <t xml:space="preserve">12.6993846893311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0087070465088</t>
+    <t xml:space="preserve">13.0087080001831</t>
   </si>
   <si>
     <t xml:space="preserve">13.3008432388306</t>
@@ -2195,46 +2195,46 @@
     <t xml:space="preserve">12.8884143829346</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5447235107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6821994781494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4759864807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5275392532349</t>
+    <t xml:space="preserve">12.5447244644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6822004318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4759855270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5275402069092</t>
   </si>
   <si>
     <t xml:space="preserve">12.2525863647461</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6306457519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6650152206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.785306930542</t>
+    <t xml:space="preserve">12.6306467056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6650142669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7853078842163</t>
   </si>
   <si>
     <t xml:space="preserve">12.8712301254272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8024921417236</t>
+    <t xml:space="preserve">12.8024911880493</t>
   </si>
   <si>
     <t xml:space="preserve">12.9743375778198</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1118135452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2149219512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.163366317749</t>
+    <t xml:space="preserve">13.1118144989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2149209976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1633672714233</t>
   </si>
   <si>
     <t xml:space="preserve">13.197735786438</t>
@@ -2243,16 +2243,16 @@
     <t xml:space="preserve">13.6273508071899</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7476434707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7132740020752</t>
+    <t xml:space="preserve">13.7476425170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7132730484009</t>
   </si>
   <si>
     <t xml:space="preserve">13.592981338501</t>
   </si>
   <si>
-    <t xml:space="preserve">13.524242401123</t>
+    <t xml:space="preserve">13.5242433547974</t>
   </si>
   <si>
     <t xml:space="preserve">13.3523979187012</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">13.6101665496826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.919487953186</t>
+    <t xml:space="preserve">13.9194889068604</t>
   </si>
   <si>
     <t xml:space="preserve">14.0225954055786</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">14.6068706512451</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8474550247192</t>
+    <t xml:space="preserve">14.8474540710449</t>
   </si>
   <si>
     <t xml:space="preserve">15.0364828109741</t>
@@ -2285,28 +2285,28 @@
     <t xml:space="preserve">15.0708532333374</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0192985534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6927919387817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3834705352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5896844863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6756076812744</t>
+    <t xml:space="preserve">15.0192995071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6927928924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3834714889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5896835327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6756086349487</t>
   </si>
   <si>
     <t xml:space="preserve">14.4178400039673</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6240549087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5725002288818</t>
+    <t xml:space="preserve">14.6240558624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5724992752075</t>
   </si>
   <si>
     <t xml:space="preserve">14.7958993911743</t>
@@ -2315,25 +2315,25 @@
     <t xml:space="preserve">14.744345664978</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1567754745483</t>
+    <t xml:space="preserve">15.156777381897</t>
   </si>
   <si>
     <t xml:space="preserve">14.9505605697632</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0536699295044</t>
+    <t xml:space="preserve">15.0536689758301</t>
   </si>
   <si>
     <t xml:space="preserve">15.2942514419556</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3819484710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960832595825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9610061645508</t>
+    <t xml:space="preserve">15.3819494247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960842132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9610052108765</t>
   </si>
   <si>
     <t xml:space="preserve">14.9434661865234</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">15.1013193130493</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1890153884888</t>
+    <t xml:space="preserve">15.1890163421631</t>
   </si>
   <si>
     <t xml:space="preserve">14.9083881378174</t>
@@ -2366,10 +2366,10 @@
     <t xml:space="preserve">14.592679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">15.118857383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8557710647583</t>
+    <t xml:space="preserve">15.1188583374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.855770111084</t>
   </si>
   <si>
     <t xml:space="preserve">14.8031511306763</t>
@@ -2399,16 +2399,16 @@
     <t xml:space="preserve">14.8908472061157</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7505340576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1714763641357</t>
+    <t xml:space="preserve">14.7505331039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1714754104614</t>
   </si>
   <si>
     <t xml:space="preserve">15.0662422180176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3293294906616</t>
+    <t xml:space="preserve">15.3293304443359</t>
   </si>
   <si>
     <t xml:space="preserve">15.3468685150146</t>
@@ -2417,31 +2417,31 @@
     <t xml:space="preserve">14.8206911087036</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5398015975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6099576950073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5222616195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5748805999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7853507995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9607458114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1887531280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0309028625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327337265015</t>
+    <t xml:space="preserve">15.5398006439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6099586486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5222625732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5748796463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7853517532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9607448577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1887550354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0309009552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327346801758</t>
   </si>
   <si>
     <t xml:space="preserve">16.2413730621338</t>
@@ -2453,13 +2453,13 @@
     <t xml:space="preserve">16.4167652130127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2589111328125</t>
+    <t xml:space="preserve">16.2589130401611</t>
   </si>
   <si>
     <t xml:space="preserve">16.1536769866943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.136137008667</t>
+    <t xml:space="preserve">16.1361351013184</t>
   </si>
   <si>
     <t xml:space="preserve">15.9256658554077</t>
@@ -2468,19 +2468,19 @@
     <t xml:space="preserve">16.0835189819336</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9782810211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8379697799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6976566314697</t>
+    <t xml:space="preserve">15.9782829284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8379688262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6976556777954</t>
   </si>
   <si>
     <t xml:space="preserve">15.662576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6274976730347</t>
+    <t xml:space="preserve">15.6274967193604</t>
   </si>
   <si>
     <t xml:space="preserve">15.9958229064941</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">15.7151937484741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.645037651062</t>
+    <t xml:space="preserve">15.6450386047363</t>
   </si>
   <si>
     <t xml:space="preserve">14.6452989578247</t>
@@ -2510,10 +2510,10 @@
     <t xml:space="preserve">15.399486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3644104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2416343688965</t>
+    <t xml:space="preserve">15.3644094467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2416334152222</t>
   </si>
   <si>
     <t xml:space="preserve">15.2240953445435</t>
@@ -2522,34 +2522,34 @@
     <t xml:space="preserve">15.2065553665161</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3466091156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0659790039062</t>
+    <t xml:space="preserve">16.346607208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0659809112549</t>
   </si>
   <si>
     <t xml:space="preserve">15.8730487823486</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3117895126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6102199554443</t>
+    <t xml:space="preserve">15.3117904663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6102209091187</t>
   </si>
   <si>
     <t xml:space="preserve">14.5576028823853</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4172878265381</t>
+    <t xml:space="preserve">14.4172887802124</t>
   </si>
   <si>
     <t xml:space="preserve">14.5225229263306</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2945127487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3295917510986</t>
+    <t xml:space="preserve">14.2945117950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3295907974243</t>
   </si>
   <si>
     <t xml:space="preserve">14.1717376708984</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">13.8560314178467</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0314245223999</t>
+    <t xml:space="preserve">14.0314235687256</t>
   </si>
   <si>
     <t xml:space="preserve">14.1191205978394</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">14.2769746780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3646688461304</t>
+    <t xml:space="preserve">14.3646697998047</t>
   </si>
   <si>
     <t xml:space="preserve">14.3822088241577</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">14.2594347000122</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8209533691406</t>
+    <t xml:space="preserve">13.8209524154663</t>
   </si>
   <si>
     <t xml:space="preserve">14.066502571106</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">13.312313079834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0316848754883</t>
+    <t xml:space="preserve">13.031683921814</t>
   </si>
   <si>
     <t xml:space="preserve">13.0492238998413</t>
@@ -2624,13 +2624,13 @@
     <t xml:space="preserve">12.330114364624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7685966491699</t>
+    <t xml:space="preserve">12.7685956954956</t>
   </si>
   <si>
     <t xml:space="preserve">12.4879665374756</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2599563598633</t>
+    <t xml:space="preserve">12.259955406189</t>
   </si>
   <si>
     <t xml:space="preserve">12.3651924133301</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">11.9617891311646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8039350509644</t>
+    <t xml:space="preserve">11.80393409729</t>
   </si>
   <si>
     <t xml:space="preserve">11.8565530776978</t>
@@ -2654,16 +2654,16 @@
     <t xml:space="preserve">11.4531497955322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.786657333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2777557373047</t>
+    <t xml:space="preserve">10.7866563796997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.277756690979</t>
   </si>
   <si>
     <t xml:space="preserve">11.2251386642456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8392753601074</t>
+    <t xml:space="preserve">10.8392744064331</t>
   </si>
   <si>
     <t xml:space="preserve">10.7691173553467</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">10.0850849151611</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1026258468628</t>
+    <t xml:space="preserve">10.1026248931885</t>
   </si>
   <si>
     <t xml:space="preserve">9.8921537399292</t>
@@ -2684,13 +2684,13 @@
     <t xml:space="preserve">10.1727828979492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85707473754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0675458908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5761871337891</t>
+    <t xml:space="preserve">9.85707569122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0675468444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5761861801147</t>
   </si>
   <si>
     <t xml:space="preserve">9.92723178863525</t>
@@ -2699,16 +2699,16 @@
     <t xml:space="preserve">10.9795894622803</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2076005935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8918933868408</t>
+    <t xml:space="preserve">11.2075996398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8918924331665</t>
   </si>
   <si>
     <t xml:space="preserve">11.0848245620728</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7515783309937</t>
+    <t xml:space="preserve">10.751579284668</t>
   </si>
   <si>
     <t xml:space="preserve">10.6814212799072</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">10.4183320999146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4534101486206</t>
+    <t xml:space="preserve">10.4534111022949</t>
   </si>
   <si>
     <t xml:space="preserve">10.2429399490356</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">9.90969276428223</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71676063537598</t>
+    <t xml:space="preserve">9.71676158905029</t>
   </si>
   <si>
     <t xml:space="preserve">9.82199573516846</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">9.64660358428955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96230983734131</t>
+    <t xml:space="preserve">9.96231079101562</t>
   </si>
   <si>
     <t xml:space="preserve">10.3306350708008</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">11.0497465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6463422775269</t>
+    <t xml:space="preserve">10.6463432312012</t>
   </si>
   <si>
     <t xml:space="preserve">10.488489151001</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">10.2707347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.633659362793</t>
+    <t xml:space="preserve">10.6336584091187</t>
   </si>
   <si>
     <t xml:space="preserve">10.6699514389038</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">10.8332662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.415904045105</t>
+    <t xml:space="preserve">10.4159049987793</t>
   </si>
   <si>
     <t xml:space="preserve">10.6518049240112</t>
@@ -2816,10 +2816,10 @@
     <t xml:space="preserve">11.7950134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6861371994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.813159942627</t>
+    <t xml:space="preserve">11.6861362457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8131608963013</t>
   </si>
   <si>
     <t xml:space="preserve">11.7224292755127</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">11.5954055786133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6135520935059</t>
+    <t xml:space="preserve">11.6135530471802</t>
   </si>
   <si>
     <t xml:space="preserve">10.5973663330078</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">11.0147285461426</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0328741073608</t>
+    <t xml:space="preserve">11.0328750610352</t>
   </si>
   <si>
     <t xml:space="preserve">11.3232126235962</t>
@@ -2900,25 +2900,25 @@
     <t xml:space="preserve">11.2869205474854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0873126983643</t>
+    <t xml:space="preserve">11.0873136520386</t>
   </si>
   <si>
     <t xml:space="preserve">10.6880970001221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3070268630981</t>
+    <t xml:space="preserve">10.3070278167725</t>
   </si>
   <si>
     <t xml:space="preserve">10.1618576049805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90781211853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0529804229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1800050735474</t>
+    <t xml:space="preserve">9.90781116485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0529813766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.180004119873</t>
   </si>
   <si>
     <t xml:space="preserve">10.3614664077759</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">10.4703435897827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4521980285645</t>
+    <t xml:space="preserve">10.4521970748901</t>
   </si>
   <si>
     <t xml:space="preserve">10.0348358154297</t>
@@ -2936,28 +2936,28 @@
     <t xml:space="preserve">9.92595767974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74449634552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85337352752686</t>
+    <t xml:space="preserve">9.7444953918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85337257385254</t>
   </si>
   <si>
     <t xml:space="preserve">9.78078842163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99854278564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59932708740234</t>
+    <t xml:space="preserve">9.99854373931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59932613372803</t>
   </si>
   <si>
     <t xml:space="preserve">10.0892734527588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1074199676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1255664825439</t>
+    <t xml:space="preserve">10.1074190139771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1255655288696</t>
   </si>
   <si>
     <t xml:space="preserve">10.1981506347656</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">10.3796119689941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.923996925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1961898803711</t>
+    <t xml:space="preserve">10.9239978790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1961908340454</t>
   </si>
   <si>
     <t xml:space="preserve">11.4683828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1034994125366</t>
+    <t xml:space="preserve">12.1034984588623</t>
   </si>
   <si>
     <t xml:space="preserve">11.9038906097412</t>
@@ -2993,25 +2993,25 @@
     <t xml:space="preserve">11.4320907592773</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4139442443848</t>
+    <t xml:space="preserve">11.4139432907104</t>
   </si>
   <si>
     <t xml:space="preserve">12.012767791748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0853519439697</t>
+    <t xml:space="preserve">12.085352897644</t>
   </si>
   <si>
     <t xml:space="preserve">12.7567615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1741228103638</t>
+    <t xml:space="preserve">13.1741237640381</t>
   </si>
   <si>
     <t xml:space="preserve">13.2104158401489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9926614761353</t>
+    <t xml:space="preserve">12.9926605224609</t>
   </si>
   <si>
     <t xml:space="preserve">12.7386150360107</t>
@@ -3020,13 +3020,13 @@
     <t xml:space="preserve">12.4119834899902</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3756923675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478843688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6115913391113</t>
+    <t xml:space="preserve">12.3756914138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478834152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6115922927856</t>
   </si>
   <si>
     <t xml:space="preserve">12.684175491333</t>
@@ -3038,22 +3038,22 @@
     <t xml:space="preserve">12.4845685958862</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9200763702393</t>
+    <t xml:space="preserve">12.9200773239136</t>
   </si>
   <si>
     <t xml:space="preserve">13.0652456283569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1378307342529</t>
+    <t xml:space="preserve">13.1378297805786</t>
   </si>
   <si>
     <t xml:space="preserve">13.1015377044678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0108070373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2285614013672</t>
+    <t xml:space="preserve">13.0108079910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2285623550415</t>
   </si>
   <si>
     <t xml:space="preserve">13.1922693252563</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">12.8656387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8474912643433</t>
+    <t xml:space="preserve">12.8474922180176</t>
   </si>
   <si>
     <t xml:space="preserve">12.7930536270142</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">13.645923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8092393875122</t>
+    <t xml:space="preserve">13.8092403411865</t>
   </si>
   <si>
     <t xml:space="preserve">13.8455324172974</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">13.9362621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4443559646606</t>
+    <t xml:space="preserve">14.4443550109863</t>
   </si>
   <si>
     <t xml:space="preserve">14.0995779037476</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">14.3717708587646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3173313140869</t>
+    <t xml:space="preserve">14.3173322677612</t>
   </si>
   <si>
     <t xml:space="preserve">14.3354787826538</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">14.226601600647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.154016494751</t>
+    <t xml:space="preserve">14.1540174484253</t>
   </si>
   <si>
     <t xml:space="preserve">14.2810401916504</t>
@@ -3134,13 +3134,13 @@
     <t xml:space="preserve">14.3899164199829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8798637390137</t>
+    <t xml:space="preserve">14.8798627853394</t>
   </si>
   <si>
     <t xml:space="preserve">14.4625015258789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4806470870972</t>
+    <t xml:space="preserve">14.4806480407715</t>
   </si>
   <si>
     <t xml:space="preserve">14.4987936019897</t>
@@ -3149,16 +3149,16 @@
     <t xml:space="preserve">14.662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4423942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5694189071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.478687286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6420021057129</t>
+    <t xml:space="preserve">15.4423952102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5694179534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4786882400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6420030593872</t>
   </si>
   <si>
     <t xml:space="preserve">15.5149803161621</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">15.8597564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9141969680786</t>
+    <t xml:space="preserve">15.9141960144043</t>
   </si>
   <si>
     <t xml:space="preserve">16.2589721679688</t>
@@ -3185,22 +3185,22 @@
     <t xml:space="preserve">16.1138038635254</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0412197113037</t>
+    <t xml:space="preserve">16.0412178039551</t>
   </si>
   <si>
     <t xml:space="preserve">16.0775108337402</t>
   </si>
   <si>
-    <t xml:space="preserve">15.82346534729</t>
+    <t xml:space="preserve">15.8234643936157</t>
   </si>
   <si>
     <t xml:space="preserve">15.769024848938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.242787361145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2064943313599</t>
+    <t xml:space="preserve">15.2427864074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2064952850342</t>
   </si>
   <si>
     <t xml:space="preserve">15.8053188323975</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">15.9686336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.986780166626</t>
+    <t xml:space="preserve">15.9867811203003</t>
   </si>
   <si>
     <t xml:space="preserve">15.841609954834</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">16.131950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2952632904053</t>
+    <t xml:space="preserve">16.2952651977539</t>
   </si>
   <si>
     <t xml:space="preserve">16.8033580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8396492004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0574035644531</t>
+    <t xml:space="preserve">16.8396511077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0574054718018</t>
   </si>
   <si>
     <t xml:space="preserve">16.7489185333252</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">15.2790794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1157627105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0976161956787</t>
+    <t xml:space="preserve">15.1157646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.097617149353</t>
   </si>
   <si>
     <t xml:space="preserve">15.333517074585</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">15.460542678833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5331258773804</t>
+    <t xml:space="preserve">15.533127784729</t>
   </si>
   <si>
     <t xml:space="preserve">15.406102180481</t>
@@ -3738,6 +3738,12 @@
   </si>
   <si>
     <t xml:space="preserve">12.1000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8800001144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7200002670288</t>
   </si>
 </sst>
 </file>
@@ -59927,27 +59933,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6496180556</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
+        <v>58556</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>12.1599998474121</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>11.8400001525879</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>12.039999961853</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>11.8800001144409</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
         <v>68058</v>
       </c>
-      <c r="C2149" t="n">
-        <v>12.1199998855591</v>
-      </c>
-      <c r="D2149" t="n">
+      <c r="C2150" t="n">
+        <v>12.1400003433228</v>
+      </c>
+      <c r="D2150" t="n">
         <v>11.8199996948242</v>
       </c>
-      <c r="E2149" t="n">
+      <c r="E2150" t="n">
         <v>11.8999996185303</v>
       </c>
-      <c r="F2149" t="n">
+      <c r="F2150" t="n">
         <v>12.1400003433228</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="G2150" t="s">
         <v>1239</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6494560185</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>69868</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>12.2399997711182</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>11.7399997711182</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>12.2399997711182</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>11.7200002670288</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="1245">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27017688751221</t>
+    <t xml:space="preserve">4.27017736434937</t>
   </si>
   <si>
     <t xml:space="preserve">ZV.MI</t>
@@ -47,73 +47,73 @@
     <t xml:space="preserve">4.25228023529053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16279554367065</t>
+    <t xml:space="preserve">4.1627950668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.04467725753784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99456572532654</t>
+    <t xml:space="preserve">3.99456596374512</t>
   </si>
   <si>
     <t xml:space="preserve">3.91939949989319</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96951079368591</t>
+    <t xml:space="preserve">3.9695098400116</t>
   </si>
   <si>
     <t xml:space="preserve">3.95519351959229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01604175567627</t>
+    <t xml:space="preserve">4.01604270935059</t>
   </si>
   <si>
     <t xml:space="preserve">3.98382782936096</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89434385299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87286758422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76548719406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85855078697205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729615211487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91224122047424</t>
+    <t xml:space="preserve">3.89434432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87286710739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76548671722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85854983329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729591369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91224098205566</t>
   </si>
   <si>
     <t xml:space="preserve">3.86570906639099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90150260925293</t>
+    <t xml:space="preserve">3.90150284767151</t>
   </si>
   <si>
     <t xml:space="preserve">3.95877265930176</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8012809753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79412198066711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78696322441101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69389939308167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65810608863831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71537661552429</t>
+    <t xml:space="preserve">3.80128073692322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79412174224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78696274757385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69389891624451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65810656547546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71537590026855</t>
   </si>
   <si>
     <t xml:space="preserve">3.57936000823975</t>
@@ -125,52 +125,52 @@
     <t xml:space="preserve">3.70821714401245</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75832843780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76906633377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81559777259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77980518341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74759030342102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72611403465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70105838775635</t>
+    <t xml:space="preserve">3.75832796096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76906609535217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81559801101685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77980470657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74759006500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72611355781555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70105862617493</t>
   </si>
   <si>
     <t xml:space="preserve">3.76190781593323</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78338289260864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80485987663269</t>
+    <t xml:space="preserve">3.78338360786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80486011505127</t>
   </si>
   <si>
     <t xml:space="preserve">3.74401044845581</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77264547348022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85139155387878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00172424316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05899429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08405017852783</t>
+    <t xml:space="preserve">3.7726457118988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85139179229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00172472000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05899477005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08404970169067</t>
   </si>
   <si>
     <t xml:space="preserve">4.06973266601562</t>
@@ -179,46 +179,46 @@
     <t xml:space="preserve">4.15205812454224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15921545028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13773965835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12342262268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11626434326172</t>
+    <t xml:space="preserve">4.15921640396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13774061203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12342309951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1162633895874</t>
   </si>
   <si>
     <t xml:space="preserve">4.14489841461182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13058185577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19501066207886</t>
+    <t xml:space="preserve">4.13058137893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1950101852417</t>
   </si>
   <si>
     <t xml:space="preserve">4.09836721420288</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07689046859741</t>
+    <t xml:space="preserve">4.07689189910889</t>
   </si>
   <si>
     <t xml:space="preserve">4.16637516021729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11984348297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16995429992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18069314956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18785095214844</t>
+    <t xml:space="preserve">4.11984395980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16995477676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18069219589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1878514289856</t>
   </si>
   <si>
     <t xml:space="preserve">4.13416147232056</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">4.19858932495117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14132022857666</t>
+    <t xml:space="preserve">4.14131927490234</t>
   </si>
   <si>
     <t xml:space="preserve">4.09120893478394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10706901550293</t>
+    <t xml:space="preserve">4.10706949234009</t>
   </si>
   <si>
     <t xml:space="preserve">4.09213447570801</t>
@@ -242,13 +242,13 @@
     <t xml:space="preserve">4.07719993591309</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05479764938354</t>
+    <t xml:space="preserve">4.05479717254639</t>
   </si>
   <si>
     <t xml:space="preserve">4.08093404769897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09586811065674</t>
+    <t xml:space="preserve">4.0958685874939</t>
   </si>
   <si>
     <t xml:space="preserve">4.11453628540039</t>
@@ -257,31 +257,31 @@
     <t xml:space="preserve">4.12200403213501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11080312728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16680812835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17800951004028</t>
+    <t xml:space="preserve">4.11080360412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16680908203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17800998687744</t>
   </si>
   <si>
     <t xml:space="preserve">4.18547677993774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24148225784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25268363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31989049911499</t>
+    <t xml:space="preserve">4.24148273468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25268411636353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31988954544067</t>
   </si>
   <si>
     <t xml:space="preserve">4.2862868309021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26761865615845</t>
+    <t xml:space="preserve">4.26761913299561</t>
   </si>
   <si>
     <t xml:space="preserve">4.21908044815063</t>
@@ -296,22 +296,22 @@
     <t xml:space="preserve">4.19667816162109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01746082305908</t>
+    <t xml:space="preserve">4.01746034622192</t>
   </si>
   <si>
     <t xml:space="preserve">3.99505853652954</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96892285346985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96145439147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1257381439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14440584182739</t>
+    <t xml:space="preserve">3.96892237663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96145486831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12573766708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14440679550171</t>
   </si>
   <si>
     <t xml:space="preserve">4.17427587509155</t>
@@ -320,31 +320,31 @@
     <t xml:space="preserve">4.26388549804688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97265601158142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02492809295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04732990264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08840084075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03986263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02119493484497</t>
+    <t xml:space="preserve">3.97265672683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02492713928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04733037948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08840131759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03986215591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02119445800781</t>
   </si>
   <si>
     <t xml:space="preserve">4.05853128433228</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03239488601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08466672897339</t>
+    <t xml:space="preserve">4.032395362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08466720581055</t>
   </si>
   <si>
     <t xml:space="preserve">4.11827039718628</t>
@@ -353,19 +353,19 @@
     <t xml:space="preserve">4.15934085845947</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12947177886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13693857192993</t>
+    <t xml:space="preserve">4.12947225570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13693904876709</t>
   </si>
   <si>
     <t xml:space="preserve">4.20414543151855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22654724121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24894952774048</t>
+    <t xml:space="preserve">4.2265477180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24895000457764</t>
   </si>
   <si>
     <t xml:space="preserve">4.18174362182617</t>
@@ -377,16 +377,16 @@
     <t xml:space="preserve">4.02866172790527</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98385739326477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98012375831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97639012336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95772171020508</t>
+    <t xml:space="preserve">3.98385787010193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98012351989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97638964653015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95772194862366</t>
   </si>
   <si>
     <t xml:space="preserve">3.93531918525696</t>
@@ -395,40 +395,40 @@
     <t xml:space="preserve">3.98759126663208</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00252532958984</t>
+    <t xml:space="preserve">4.002525806427</t>
   </si>
   <si>
     <t xml:space="preserve">4.03612947463989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93905282020569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95025396347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94278717041016</t>
+    <t xml:space="preserve">3.93905258178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95025420188904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94278693199158</t>
   </si>
   <si>
     <t xml:space="preserve">3.94651985168457</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86064529418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84571051597595</t>
+    <t xml:space="preserve">3.86064553260803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84571003913879</t>
   </si>
   <si>
     <t xml:space="preserve">3.86811256408691</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82330799102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81584143638611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077597618103</t>
+    <t xml:space="preserve">3.82330751419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81584095954895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077549934387</t>
   </si>
   <si>
     <t xml:space="preserve">3.81957459449768</t>
@@ -437,61 +437,61 @@
     <t xml:space="preserve">3.85317754745483</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95398807525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14067316055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21161270141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22281503677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09960174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1033353805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00999355316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0435962677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00625896453857</t>
+    <t xml:space="preserve">3.95398759841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14067268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21161317825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22281408309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09960126876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10333585739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0099925994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04359722137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00625944137573</t>
   </si>
   <si>
     <t xml:space="preserve">4.06599903106689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92038416862488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07346534729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26015138626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27135181427002</t>
+    <t xml:space="preserve">3.92038440704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0734658241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26015043258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27135229110718</t>
   </si>
   <si>
     <t xml:space="preserve">4.31615686416626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33109188079834</t>
+    <t xml:space="preserve">4.33109140396118</t>
   </si>
   <si>
     <t xml:space="preserve">4.28255367279053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27881956100464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32362365722656</t>
+    <t xml:space="preserve">4.2788200378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32362413406372</t>
   </si>
   <si>
     <t xml:space="preserve">4.34229230880737</t>
@@ -500,16 +500,16 @@
     <t xml:space="preserve">4.30868911743164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30495548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27508640289307</t>
+    <t xml:space="preserve">4.30495500564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27508592605591</t>
   </si>
   <si>
     <t xml:space="preserve">4.29375410079956</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33855772018433</t>
+    <t xml:space="preserve">4.33855867385864</t>
   </si>
   <si>
     <t xml:space="preserve">4.33482503890991</t>
@@ -518,13 +518,13 @@
     <t xml:space="preserve">4.36842823028564</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36096096038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40576553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42070055007935</t>
+    <t xml:space="preserve">4.36096048355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40576457977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42069959640503</t>
   </si>
   <si>
     <t xml:space="preserve">4.39456415176392</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">4.45430374145508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51777601242065</t>
+    <t xml:space="preserve">4.51777648925781</t>
   </si>
   <si>
     <t xml:space="preserve">4.59245014190674</t>
@@ -548,94 +548,94 @@
     <t xml:space="preserve">4.59991788864136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55511379241943</t>
+    <t xml:space="preserve">4.55511283874512</t>
   </si>
   <si>
     <t xml:space="preserve">4.54764604568481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6297869682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76420068740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.995689868927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18984127044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22717952728271</t>
+    <t xml:space="preserve">4.62978744506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76420021057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99569034576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18984174728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22717905044556</t>
   </si>
   <si>
     <t xml:space="preserve">5.48853826522827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51840782165527</t>
+    <t xml:space="preserve">5.51840734481812</t>
   </si>
   <si>
     <t xml:space="preserve">5.52587509155273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52214097976685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3802604675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36159229278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37279319763184</t>
+    <t xml:space="preserve">5.522141456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38026094436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36159181594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37279415130615</t>
   </si>
   <si>
     <t xml:space="preserve">5.40639686584473</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39519548416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44373369216919</t>
+    <t xml:space="preserve">5.39519596099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44373321533203</t>
   </si>
   <si>
     <t xml:space="preserve">5.45120143890381</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46613597869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48480367660522</t>
+    <t xml:space="preserve">5.46613645553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48480463027954</t>
   </si>
   <si>
     <t xml:space="preserve">5.43626642227173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42133188247681</t>
+    <t xml:space="preserve">5.42133140563965</t>
   </si>
   <si>
     <t xml:space="preserve">5.54454374313354</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56694507598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91418027877808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82457160949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66028785705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78723382949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6752233505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74989700317383</t>
+    <t xml:space="preserve">5.56694555282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91418075561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82457113265991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66028881072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78723430633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67522287368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74989652633667</t>
   </si>
   <si>
     <t xml:space="preserve">5.84323930740356</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">6.01067399978638</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94123125076294</t>
+    <t xml:space="preserve">5.94123077392578</t>
   </si>
   <si>
     <t xml:space="preserve">5.93737363815308</t>
@@ -668,16 +668,16 @@
     <t xml:space="preserve">5.86792993545532</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87564563751221</t>
+    <t xml:space="preserve">5.87564659118652</t>
   </si>
   <si>
     <t xml:space="preserve">5.81006193161011</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77148151397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87178802490234</t>
+    <t xml:space="preserve">5.77148199081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87178897857666</t>
   </si>
   <si>
     <t xml:space="preserve">5.76376581192017</t>
@@ -686,22 +686,22 @@
     <t xml:space="preserve">5.67117547988892</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67889165878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74061822891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70975494384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78691339492798</t>
+    <t xml:space="preserve">5.6788911819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74061870574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7097544670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78691387176514</t>
   </si>
   <si>
     <t xml:space="preserve">5.75605010986328</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79077196121216</t>
+    <t xml:space="preserve">5.790771484375</t>
   </si>
   <si>
     <t xml:space="preserve">5.80620288848877</t>
@@ -710,16 +710,16 @@
     <t xml:space="preserve">5.8602147102356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91808366775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71747064590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82549285888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86407279968262</t>
+    <t xml:space="preserve">5.91808319091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71747016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82549333572388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86407232284546</t>
   </si>
   <si>
     <t xml:space="preserve">5.7599081993103</t>
@@ -731,19 +731,19 @@
     <t xml:space="preserve">5.81777667999268</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64802837371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67503261566162</t>
+    <t xml:space="preserve">5.6480278968811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67503356933594</t>
   </si>
   <si>
     <t xml:space="preserve">5.61330604553223</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58629989624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4474139213562</t>
+    <t xml:space="preserve">5.58630037307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44741487503052</t>
   </si>
   <si>
     <t xml:space="preserve">5.41655111312866</t>
@@ -752,64 +752,64 @@
     <t xml:space="preserve">5.57086849212646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62102127075195</t>
+    <t xml:space="preserve">5.62102222442627</t>
   </si>
   <si>
     <t xml:space="preserve">5.43198251724243</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71361255645752</t>
+    <t xml:space="preserve">5.71361303329468</t>
   </si>
   <si>
     <t xml:space="preserve">5.69432306289673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68274879455566</t>
+    <t xml:space="preserve">5.68274974822998</t>
   </si>
   <si>
     <t xml:space="preserve">5.54000473022461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77919769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7213282585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73290252685547</t>
+    <t xml:space="preserve">5.77919721603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72132873535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73290205001831</t>
   </si>
   <si>
     <t xml:space="preserve">5.74833345413208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79463005065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65574264526367</t>
+    <t xml:space="preserve">5.79462909698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65574359893799</t>
   </si>
   <si>
     <t xml:space="preserve">5.79848670959473</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81391954421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88721990585327</t>
+    <t xml:space="preserve">5.81391859054565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88722038269043</t>
   </si>
   <si>
     <t xml:space="preserve">5.89493608474731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87950420379639</t>
+    <t xml:space="preserve">5.87950468063354</t>
   </si>
   <si>
     <t xml:space="preserve">5.83320903778076</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85249805450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97595262527466</t>
+    <t xml:space="preserve">5.85249853134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97595310211182</t>
   </si>
   <si>
     <t xml:space="preserve">5.9026517868042</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">5.89107799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82163429260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84478282928467</t>
+    <t xml:space="preserve">5.8216347694397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84478235244751</t>
   </si>
   <si>
     <t xml:space="preserve">5.92194175720215</t>
@@ -830,61 +830,61 @@
     <t xml:space="preserve">5.90650987625122</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08397531509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12255382537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26529884338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28073072433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33859920501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27301502227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32702541351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16113424301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21900415420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1649923324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29616260528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0955491065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.246009349823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1688494682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17270755767822</t>
+    <t xml:space="preserve">6.08397483825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12255430221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26529836654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2807297706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33860015869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27301406860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32702493667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16113376617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21900320053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16499185562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29616117477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09554862976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24600887298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16884994506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17270803451538</t>
   </si>
   <si>
     <t xml:space="preserve">6.20357131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11098098754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18428230285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0261058807373</t>
+    <t xml:space="preserve">6.11098146438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18428134918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02610540390015</t>
   </si>
   <si>
     <t xml:space="preserve">6.15727615356445</t>
@@ -893,28 +893,28 @@
     <t xml:space="preserve">6.19585514068604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08011722564697</t>
+    <t xml:space="preserve">6.08011770248413</t>
   </si>
   <si>
     <t xml:space="preserve">6.05311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00681591033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98752689361572</t>
+    <t xml:space="preserve">6.0068154335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98752641677856</t>
   </si>
   <si>
     <t xml:space="preserve">6.22286033630371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11483860015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10712289810181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06082773208618</t>
+    <t xml:space="preserve">6.11483812332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10712242126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06082820892334</t>
   </si>
   <si>
     <t xml:space="preserve">5.92579936981201</t>
@@ -926,31 +926,31 @@
     <t xml:space="preserve">5.84864091873169</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08783340454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94508934020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00295877456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06468534469604</t>
+    <t xml:space="preserve">6.08783292770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9450888633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00295829772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06468629837036</t>
   </si>
   <si>
     <t xml:space="preserve">6.09169101715088</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1379861831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13412857055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15341758728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21128749847412</t>
+    <t xml:space="preserve">6.13798666000366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13412809371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15341854095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21128702163696</t>
   </si>
   <si>
     <t xml:space="preserve">6.14956045150757</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">6.23829317092896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26144027709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25758171081543</t>
+    <t xml:space="preserve">6.26143980026245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25758266448975</t>
   </si>
   <si>
     <t xml:space="preserve">6.28844547271729</t>
@@ -971,43 +971,43 @@
     <t xml:space="preserve">6.36560535430908</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40418481826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.350172996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43504762649536</t>
+    <t xml:space="preserve">6.40418434143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35017251968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4350471496582</t>
   </si>
   <si>
     <t xml:space="preserve">6.58164930343628</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53535461425781</t>
+    <t xml:space="preserve">6.53535509109497</t>
   </si>
   <si>
     <t xml:space="preserve">6.37332057952881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38103723526001</t>
+    <t xml:space="preserve">6.38103675842285</t>
   </si>
   <si>
     <t xml:space="preserve">6.38875246047974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60479831695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55850219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48905897140503</t>
+    <t xml:space="preserve">6.60479784011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55850267410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48905849456787</t>
   </si>
   <si>
     <t xml:space="preserve">6.4736270904541</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1264123916626</t>
+    <t xml:space="preserve">6.12641286849976</t>
   </si>
   <si>
     <t xml:space="preserve">6.04925394058228</t>
@@ -1016,43 +1016,43 @@
     <t xml:space="preserve">6.30387783050537</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34245729446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22671842575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18042421340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31159400939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33474159240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46591234207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50449085235596</t>
+    <t xml:space="preserve">6.34245777130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22671890258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18042373657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31159353256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33474111557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46591186523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50449132919312</t>
   </si>
   <si>
     <t xml:space="preserve">6.45047950744629</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3193097114563</t>
+    <t xml:space="preserve">6.31930923461914</t>
   </si>
   <si>
     <t xml:space="preserve">6.23443460464478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49677562713623</t>
+    <t xml:space="preserve">6.49677467346191</t>
   </si>
   <si>
     <t xml:space="preserve">6.44276428222656</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39646863937378</t>
+    <t xml:space="preserve">6.39646816253662</t>
   </si>
   <si>
     <t xml:space="preserve">6.41961574554443</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">6.42733192443848</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52763795852661</t>
+    <t xml:space="preserve">6.52763843536377</t>
   </si>
   <si>
     <t xml:space="preserve">6.51992225646973</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">6.59708213806152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63566160202026</t>
+    <t xml:space="preserve">6.63566112518311</t>
   </si>
   <si>
     <t xml:space="preserve">6.74785804748535</t>
@@ -1079,19 +1079,19 @@
     <t xml:space="preserve">6.67573118209839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58757638931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63566064834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50743532180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62764739990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61963272094727</t>
+    <t xml:space="preserve">6.58757591247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566017150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5074348449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62764644622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61963224411011</t>
   </si>
   <si>
     <t xml:space="preserve">6.56353378295898</t>
@@ -1103,37 +1103,37 @@
     <t xml:space="preserve">6.49942064285278</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3711953163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39523792266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61161851882935</t>
+    <t xml:space="preserve">6.37119579315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39523839950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61161804199219</t>
   </si>
   <si>
     <t xml:space="preserve">6.57956218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60360336303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65168905258179</t>
+    <t xml:space="preserve">6.60360431671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65168952941895</t>
   </si>
   <si>
     <t xml:space="preserve">6.73182916641235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53949117660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51545000076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55552005767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35516786575317</t>
+    <t xml:space="preserve">6.53949165344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51544952392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55552053451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35516738891602</t>
   </si>
   <si>
     <t xml:space="preserve">6.38722372055054</t>
@@ -1160,13 +1160,13 @@
     <t xml:space="preserve">6.29906940460205</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42729520797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49140739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45133686065674</t>
+    <t xml:space="preserve">6.42729473114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49140787124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4513373374939</t>
   </si>
   <si>
     <t xml:space="preserve">6.40325212478638</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">6.33913946151733</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29105520248413</t>
+    <t xml:space="preserve">6.29105472564697</t>
   </si>
   <si>
     <t xml:space="preserve">6.27502632141113</t>
@@ -1184,100 +1184,100 @@
     <t xml:space="preserve">6.4112663269043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25098562240601</t>
+    <t xml:space="preserve">6.25098514556885</t>
   </si>
   <si>
     <t xml:space="preserve">6.28304100036621</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21091461181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37920951843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36318254470825</t>
+    <t xml:space="preserve">6.21091413497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37920999526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36318206787109</t>
   </si>
   <si>
     <t xml:space="preserve">6.33112573623657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19488620758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41928052902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59558963775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84402704238892</t>
+    <t xml:space="preserve">6.19488668441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41928100585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59559011459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84402656555176</t>
   </si>
   <si>
     <t xml:space="preserve">7.01232290267944</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82799911499023</t>
+    <t xml:space="preserve">6.82799863815308</t>
   </si>
   <si>
     <t xml:space="preserve">6.94820976257324</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9321813583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98026609420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92416763305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02835130691528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9081392288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85204172134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98828077316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04437923431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97225189208984</t>
+    <t xml:space="preserve">6.93218088150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98026561737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92416715621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02835178375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90813970565796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85204124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98828029632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04437780380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97225141525269</t>
   </si>
   <si>
     <t xml:space="preserve">6.69977283477783</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75587177276611</t>
+    <t xml:space="preserve">6.75587224960327</t>
   </si>
   <si>
     <t xml:space="preserve">6.77991437911987</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78792858123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90012502670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96423721313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91615343093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94019603729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81197118759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70778703689575</t>
+    <t xml:space="preserve">6.78792905807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90012550354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96423816680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91615438461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94019556045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81197023391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70778751373291</t>
   </si>
   <si>
     <t xml:space="preserve">6.57154750823975</t>
@@ -1286,28 +1286,28 @@
     <t xml:space="preserve">6.77190017700195</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68374586105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64367437362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06842136383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05239391326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12452030181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253259658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9962944984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984289169312</t>
+    <t xml:space="preserve">6.68374538421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64367485046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06842088699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05239248275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12451982498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253355026245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99629402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984336853027</t>
   </si>
   <si>
     <t xml:space="preserve">6.72381544113159</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">6.83601236343384</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8840970993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66771745681763</t>
+    <t xml:space="preserve">6.88409805297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66771697998047</t>
   </si>
   <si>
     <t xml:space="preserve">6.71580171585083</t>
@@ -1328,76 +1328,76 @@
     <t xml:space="preserve">6.54750633239746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76388549804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10047626495361</t>
+    <t xml:space="preserve">6.76388597488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10047769546509</t>
   </si>
   <si>
     <t xml:space="preserve">7.14054775238037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18863248825073</t>
+    <t xml:space="preserve">7.18863296508789</t>
   </si>
   <si>
     <t xml:space="preserve">7.17260408401489</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11650562286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23671674728394</t>
+    <t xml:space="preserve">7.11650657653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23671722412109</t>
   </si>
   <si>
     <t xml:space="preserve">7.25274562835693</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19664621353149</t>
+    <t xml:space="preserve">7.19664525985718</t>
   </si>
   <si>
     <t xml:space="preserve">7.22870349884033</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20466089248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29281568527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38898515701294</t>
+    <t xml:space="preserve">7.20466041564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29281616210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38898372650146</t>
   </si>
   <si>
     <t xml:space="preserve">7.28480052947998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3328857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45309734344482</t>
+    <t xml:space="preserve">7.33288621902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45309686660767</t>
   </si>
   <si>
     <t xml:space="preserve">7.50919532775879</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55728006362915</t>
+    <t xml:space="preserve">7.55728054046631</t>
   </si>
   <si>
     <t xml:space="preserve">7.51720952987671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4130277633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48515319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4450831413269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49316740036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81373071670532</t>
+    <t xml:space="preserve">7.41302728652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48515367507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44508266448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49316787719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81373119354248</t>
   </si>
   <si>
     <t xml:space="preserve">7.7736611366272</t>
@@ -1406,55 +1406,55 @@
     <t xml:space="preserve">7.75763273239136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5252251625061</t>
+    <t xml:space="preserve">7.52522420883179</t>
   </si>
   <si>
     <t xml:space="preserve">7.54125213623047</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53323745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66146373748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63742160797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61337804794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60536479949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57330846786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79770231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85380029678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91791391372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96599769592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97401237487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19039344787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23847675323486</t>
+    <t xml:space="preserve">7.53323793411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66146421432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63742113113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61337900161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6053638458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57330799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79770278930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85380125045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91791439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96599817276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97401189804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19039249420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23847770690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.07819557189941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12627983093262</t>
+    <t xml:space="preserve">8.12628078460693</t>
   </si>
   <si>
     <t xml:space="preserve">8.00606918334961</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">7.87784337997437</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94195699691772</t>
+    <t xml:space="preserve">7.94195604324341</t>
   </si>
   <si>
     <t xml:space="preserve">8.03011131286621</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93394184112549</t>
+    <t xml:space="preserve">7.93394136428833</t>
   </si>
   <si>
     <t xml:space="preserve">7.99004077911377</t>
@@ -1478,40 +1478,40 @@
     <t xml:space="preserve">8.01408386230469</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98202753067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90188550949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89387083053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86982917785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14230823516846</t>
+    <t xml:space="preserve">7.98202657699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90188598632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89387130737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86983060836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14230918884277</t>
   </si>
   <si>
     <t xml:space="preserve">8.35067462921143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33464527130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71932220458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1039981842041</t>
+    <t xml:space="preserve">8.33464622497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71932125091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10399723052979</t>
   </si>
   <si>
     <t xml:space="preserve">8.9757719039917</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63918018341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89563369750977</t>
+    <t xml:space="preserve">8.63918113708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89563274383545</t>
   </si>
   <si>
     <t xml:space="preserve">8.57832145690918</t>
@@ -1523,34 +1523,34 @@
     <t xml:space="preserve">8.37959575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49552059173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41271686553955</t>
+    <t xml:space="preserve">8.49551963806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41271781921387</t>
   </si>
   <si>
     <t xml:space="preserve">8.72736644744873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47895812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3133544921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1725902557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28023338317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26367282867432</t>
+    <t xml:space="preserve">8.47895908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31335353851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17259120941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28023433685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26367378234863</t>
   </si>
   <si>
     <t xml:space="preserve">8.36303615570068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42927837371826</t>
+    <t xml:space="preserve">8.42927742004395</t>
   </si>
   <si>
     <t xml:space="preserve">8.52864074707031</t>
@@ -1559,16 +1559,16 @@
     <t xml:space="preserve">8.51208019256592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29679489135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87641143798828</t>
+    <t xml:space="preserve">8.29679393768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87641048431396</t>
   </si>
   <si>
     <t xml:space="preserve">8.94265270233154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10825634002686</t>
+    <t xml:space="preserve">9.10825729370117</t>
   </si>
   <si>
     <t xml:space="preserve">8.7770471572876</t>
@@ -1577,16 +1577,16 @@
     <t xml:space="preserve">8.62800312042236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8101692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67768383026123</t>
+    <t xml:space="preserve">8.81016826629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67768478393555</t>
   </si>
   <si>
     <t xml:space="preserve">8.74392700195312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84328842163086</t>
+    <t xml:space="preserve">8.84328937530518</t>
   </si>
   <si>
     <t xml:space="preserve">8.61144256591797</t>
@@ -1595,22 +1595,22 @@
     <t xml:space="preserve">8.64456367492676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59488201141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69424533843994</t>
+    <t xml:space="preserve">8.59488296508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69424438476562</t>
   </si>
   <si>
     <t xml:space="preserve">8.90953159332275</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44583892822266</t>
+    <t xml:space="preserve">8.44583702087402</t>
   </si>
   <si>
     <t xml:space="preserve">8.66112422943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19743156433105</t>
+    <t xml:space="preserve">8.19743061065674</t>
   </si>
   <si>
     <t xml:space="preserve">8.34647560119629</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">8.27195358276367</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32991504669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25539207458496</t>
+    <t xml:space="preserve">8.32991409301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25539302825928</t>
   </si>
   <si>
     <t xml:space="preserve">8.11462879180908</t>
@@ -1637,28 +1637,28 @@
     <t xml:space="preserve">8.24711227416992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12290954589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18087005615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46239757537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39615631103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1891508102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15603065490723</t>
+    <t xml:space="preserve">8.12290859222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18087100982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46239852905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39615726470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18915176391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15602970123291</t>
   </si>
   <si>
     <t xml:space="preserve">8.56176090240479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32354259490967</t>
+    <t xml:space="preserve">9.32354354858398</t>
   </si>
   <si>
     <t xml:space="preserve">9.90316009521484</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">10.1515674591064</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0190830230713</t>
+    <t xml:space="preserve">10.019082069397</t>
   </si>
   <si>
     <t xml:space="preserve">10.3502922058105</t>
@@ -1685,25 +1685,25 @@
     <t xml:space="preserve">10.731183052063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.095513343811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9630289077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1451930999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7974252700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7477426528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5158958435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4662141799927</t>
+    <t xml:space="preserve">11.0955123901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9630279541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1451950073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7974243164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7477436065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5158977508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.466215133667</t>
   </si>
   <si>
     <t xml:space="preserve">10.4496545791626</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">10.4827756881714</t>
   </si>
   <si>
-    <t xml:space="preserve">10.284049987793</t>
+    <t xml:space="preserve">10.2840509414673</t>
   </si>
   <si>
     <t xml:space="preserve">10.3171701431274</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">10.5324573516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5986986160278</t>
+    <t xml:space="preserve">10.5986995697021</t>
   </si>
   <si>
     <t xml:space="preserve">11.0789527893066</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">10.830545425415</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5821390151978</t>
+    <t xml:space="preserve">10.5821380615234</t>
   </si>
   <si>
     <t xml:space="preserve">10.6980619430542</t>
@@ -1745,13 +1745,13 @@
     <t xml:space="preserve">10.8802270889282</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8967866897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0292711257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2279977798462</t>
+    <t xml:space="preserve">10.8967876434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0292701721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2279968261719</t>
   </si>
   <si>
     <t xml:space="preserve">11.2611179351807</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">11.1783151626587</t>
   </si>
   <si>
-    <t xml:space="preserve">11.244556427002</t>
+    <t xml:space="preserve">11.2445573806763</t>
   </si>
   <si>
     <t xml:space="preserve">11.3604803085327</t>
@@ -1775,40 +1775,40 @@
     <t xml:space="preserve">11.6088876724243</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5757665634155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7579317092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6420078277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8738555908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7910528182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7248115539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8076133728027</t>
+    <t xml:space="preserve">11.5757656097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7579307556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6420087814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.873854637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.791051864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7248106002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8076124191284</t>
   </si>
   <si>
     <t xml:space="preserve">11.7413711547852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7082490921021</t>
+    <t xml:space="preserve">11.7082509994507</t>
   </si>
   <si>
     <t xml:space="preserve">11.5923271179199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4101619720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6318197250366</t>
+    <t xml:space="preserve">11.4101610183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6318206787109</t>
   </si>
   <si>
     <t xml:space="preserve">10.6649408340454</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">10.2343683242798</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82035636901855</t>
+    <t xml:space="preserve">9.82035732269287</t>
   </si>
   <si>
     <t xml:space="preserve">10.0853242874146</t>
@@ -1826,13 +1826,13 @@
     <t xml:space="preserve">9.4891471862793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0254545211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73373794555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93246412277222</t>
+    <t xml:space="preserve">9.02545356750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7337384223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93246364593506</t>
   </si>
   <si>
     <t xml:space="preserve">7.96558427810669</t>
@@ -1841,16 +1841,16 @@
     <t xml:space="preserve">7.91590404510498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15793895721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92609024047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85984897613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00889587402344</t>
+    <t xml:space="preserve">9.15793704986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92609119415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85984992980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00889301300049</t>
   </si>
   <si>
     <t xml:space="preserve">9.52226829528809</t>
@@ -1862,82 +1862,82 @@
     <t xml:space="preserve">9.62163066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43946552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91971874237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38978576660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37322521209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63819217681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42290496826172</t>
+    <t xml:space="preserve">9.43946647644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91971969604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38978385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37322425842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63819122314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42290592193604</t>
   </si>
   <si>
     <t xml:space="preserve">9.67131328582764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40634536743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57194995880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55538940429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73755359649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47258758544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82956409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64053535461426</t>
+    <t xml:space="preserve">9.40634441375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57195091247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55539035797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7375545501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4725866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82956314086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64053440093994</t>
   </si>
   <si>
     <t xml:space="preserve">9.52024269104004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17655086517334</t>
+    <t xml:space="preserve">9.17655181884766</t>
   </si>
   <si>
     <t xml:space="preserve">8.98752117156982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19373512268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70927143096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43431949615479</t>
+    <t xml:space="preserve">9.19373607635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70927238464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43431854248047</t>
   </si>
   <si>
     <t xml:space="preserve">9.26247406005859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2109203338623</t>
+    <t xml:space="preserve">9.21092128753662</t>
   </si>
   <si>
     <t xml:space="preserve">9.48587322235107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86393356323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.018593788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1560707092285</t>
+    <t xml:space="preserve">9.86393260955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0185947418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1560697555542</t>
   </si>
   <si>
     <t xml:space="preserve">10.8434534072876</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">10.8950071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7575311660767</t>
+    <t xml:space="preserve">10.7575302124023</t>
   </si>
   <si>
     <t xml:space="preserve">10.7918996810913</t>
@@ -1958,10 +1958,10 @@
     <t xml:space="preserve">10.8606376647949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8090829849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5169467926025</t>
+    <t xml:space="preserve">10.8090839385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5169477462769</t>
   </si>
   <si>
     <t xml:space="preserve">10.4482088088989</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">10.7059764862061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7747144699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9121904373169</t>
+    <t xml:space="preserve">10.774715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9121923446655</t>
   </si>
   <si>
     <t xml:space="preserve">10.826268196106</t>
@@ -1985,25 +1985,25 @@
     <t xml:space="preserve">11.152774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4620962142944</t>
+    <t xml:space="preserve">11.4620971679688</t>
   </si>
   <si>
     <t xml:space="preserve">11.4964666366577</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4449119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4105434417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5480194091797</t>
+    <t xml:space="preserve">11.4449110031128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4105424880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5480184555054</t>
   </si>
   <si>
     <t xml:space="preserve">11.2902517318726</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2386989593506</t>
+    <t xml:space="preserve">11.2386980056763</t>
   </si>
   <si>
     <t xml:space="preserve">11.3761739730835</t>
@@ -2012,10 +2012,10 @@
     <t xml:space="preserve">11.5995740890503</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7542343139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7714185714722</t>
+    <t xml:space="preserve">11.7542352676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7714195251465</t>
   </si>
   <si>
     <t xml:space="preserve">11.926079750061</t>
@@ -2027,16 +2027,16 @@
     <t xml:space="preserve">12.2010326385498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0807409286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0979251861572</t>
+    <t xml:space="preserve">12.0807418823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0979261398315</t>
   </si>
   <si>
     <t xml:space="preserve">12.1151103973389</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1322956085205</t>
+    <t xml:space="preserve">12.1322946548462</t>
   </si>
   <si>
     <t xml:space="preserve">11.9776334762573</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">11.8573417663574</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4792814254761</t>
+    <t xml:space="preserve">11.4792804718018</t>
   </si>
   <si>
     <t xml:space="preserve">11.1355905532837</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">11.1184053421021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3074350357056</t>
+    <t xml:space="preserve">11.3074359893799</t>
   </si>
   <si>
     <t xml:space="preserve">11.4277276992798</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">11.2043285369873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3418045043945</t>
+    <t xml:space="preserve">11.3418054580688</t>
   </si>
   <si>
     <t xml:space="preserve">11.2215137481689</t>
@@ -2075,13 +2075,13 @@
     <t xml:space="preserve">11.3246212005615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.101222038269</t>
+    <t xml:space="preserve">11.1012210845947</t>
   </si>
   <si>
     <t xml:space="preserve">11.18714427948</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0496673583984</t>
+    <t xml:space="preserve">11.0496664047241</t>
   </si>
   <si>
     <t xml:space="preserve">10.9637441635132</t>
@@ -2090,10 +2090,10 @@
     <t xml:space="preserve">11.1699590682983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9981145858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.513650894165</t>
+    <t xml:space="preserve">10.9981136322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5136499404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.6854963302612</t>
@@ -2102,28 +2102,28 @@
     <t xml:space="preserve">11.6167583465576</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2730665206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3933582305908</t>
+    <t xml:space="preserve">11.2730674743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3933591842651</t>
   </si>
   <si>
     <t xml:space="preserve">11.5823879241943</t>
   </si>
   <si>
-    <t xml:space="preserve">11.565203666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9088954925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8229732513428</t>
+    <t xml:space="preserve">11.5652046203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9088945388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8229722976685</t>
   </si>
   <si>
     <t xml:space="preserve">12.2354021072388</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0635557174683</t>
+    <t xml:space="preserve">12.0635566711426</t>
   </si>
   <si>
     <t xml:space="preserve">11.9432640075684</t>
@@ -2144,16 +2144,16 @@
     <t xml:space="preserve">11.7886028289795</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7370500564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6511278152466</t>
+    <t xml:space="preserve">11.7370510101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6511268615723</t>
   </si>
   <si>
     <t xml:space="preserve">11.5308351516724</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8917112350464</t>
+    <t xml:space="preserve">11.8917102813721</t>
   </si>
   <si>
     <t xml:space="preserve">11.994818687439</t>
@@ -2162,37 +2162,37 @@
     <t xml:space="preserve">12.0463724136353</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9604482650757</t>
+    <t xml:space="preserve">11.96044921875</t>
   </si>
   <si>
     <t xml:space="preserve">11.8057880401611</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6339426040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1838474273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4416170120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.372878074646</t>
+    <t xml:space="preserve">11.6339435577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1838483810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4416160583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3728771209717</t>
   </si>
   <si>
     <t xml:space="preserve">12.4072465896606</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993846893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0087080001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3008432388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8884143829346</t>
+    <t xml:space="preserve">12.6993837356567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0087070465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3008441925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8884153366089</t>
   </si>
   <si>
     <t xml:space="preserve">12.5447244644165</t>
@@ -2201,25 +2201,25 @@
     <t xml:space="preserve">12.6822004318237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4759855270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5275402069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2525863647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6306467056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6650142669678</t>
+    <t xml:space="preserve">12.4759864807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5275392532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2525854110718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6306457519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6650152206421</t>
   </si>
   <si>
     <t xml:space="preserve">12.7853078842163</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8712301254272</t>
+    <t xml:space="preserve">12.8712291717529</t>
   </si>
   <si>
     <t xml:space="preserve">12.8024911880493</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">12.9743375778198</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1118144989014</t>
+    <t xml:space="preserve">13.1118135452271</t>
   </si>
   <si>
     <t xml:space="preserve">13.2149209976196</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">13.1633672714233</t>
   </si>
   <si>
-    <t xml:space="preserve">13.197735786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6273508071899</t>
+    <t xml:space="preserve">13.1977367401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6273498535156</t>
   </si>
   <si>
     <t xml:space="preserve">13.7476425170898</t>
@@ -2249,10 +2249,10 @@
     <t xml:space="preserve">13.7132730484009</t>
   </si>
   <si>
-    <t xml:space="preserve">13.592981338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5242433547974</t>
+    <t xml:space="preserve">13.5929803848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.524242401123</t>
   </si>
   <si>
     <t xml:space="preserve">13.3523979187012</t>
@@ -2261,91 +2261,91 @@
     <t xml:space="preserve">13.6101665496826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9194889068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0225954055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1085186004639</t>
+    <t xml:space="preserve">13.919487953186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0225944519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1085195541382</t>
   </si>
   <si>
     <t xml:space="preserve">14.5037622451782</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6068706512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8474540710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0364828109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0708532333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0192995071411</t>
+    <t xml:space="preserve">14.6068696975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8474531173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0364856719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0708541870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0193004608154</t>
   </si>
   <si>
     <t xml:space="preserve">14.6927928924561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3834714889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5896835327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6756086349487</t>
+    <t xml:space="preserve">14.3834705352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5896863937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6756076812744</t>
   </si>
   <si>
     <t xml:space="preserve">14.4178400039673</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6240558624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5724992752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7958993911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.744345664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.156777381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9505605697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0536689758301</t>
+    <t xml:space="preserve">14.6240549087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5725011825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7959003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7443466186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1567754745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9505615234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0536699295044</t>
   </si>
   <si>
     <t xml:space="preserve">15.2942514419556</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3819494247437</t>
+    <t xml:space="preserve">15.3819484710693</t>
   </si>
   <si>
     <t xml:space="preserve">14.9960842132568</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9610052108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9434661865234</t>
+    <t xml:space="preserve">14.9610061645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9434671401978</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837812423706</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1013193130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1890163421631</t>
+    <t xml:space="preserve">15.101318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1890153884888</t>
   </si>
   <si>
     <t xml:space="preserve">14.9083881378174</t>
@@ -2360,19 +2360,19 @@
     <t xml:space="preserve">15.0136251449585</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7856140136719</t>
+    <t xml:space="preserve">14.7856130599976</t>
   </si>
   <si>
     <t xml:space="preserve">14.592679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1188583374023</t>
+    <t xml:space="preserve">15.1188592910767</t>
   </si>
   <si>
     <t xml:space="preserve">14.855770111084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8031511306763</t>
+    <t xml:space="preserve">14.8031520843506</t>
   </si>
   <si>
     <t xml:space="preserve">14.7680730819702</t>
@@ -2384,10 +2384,10 @@
     <t xml:space="preserve">15.1363983154297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0311622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.153938293457</t>
+    <t xml:space="preserve">15.0311613082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1539392471313</t>
   </si>
   <si>
     <t xml:space="preserve">14.9785442352295</t>
@@ -2396,10 +2396,10 @@
     <t xml:space="preserve">14.7329940795898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8908472061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7505331039429</t>
+    <t xml:space="preserve">14.89084815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7505340576172</t>
   </si>
   <si>
     <t xml:space="preserve">15.1714754104614</t>
@@ -2408,25 +2408,25 @@
     <t xml:space="preserve">15.0662422180176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3293304443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3468685150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8206911087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5398006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6099586486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5222625732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5748796463013</t>
+    <t xml:space="preserve">15.3293294906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3468704223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8206901550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5398015975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6099576950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5222635269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5748805999756</t>
   </si>
   <si>
     <t xml:space="preserve">15.7853517532349</t>
@@ -2435,19 +2435,19 @@
     <t xml:space="preserve">15.9607448577881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1887550354004</t>
+    <t xml:space="preserve">16.1887531280518</t>
   </si>
   <si>
     <t xml:space="preserve">16.0309009552002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7327346801758</t>
+    <t xml:space="preserve">15.7327356338501</t>
   </si>
   <si>
     <t xml:space="preserve">16.2413730621338</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5921573638916</t>
+    <t xml:space="preserve">16.5921592712402</t>
   </si>
   <si>
     <t xml:space="preserve">16.4167652130127</t>
@@ -2459,31 +2459,31 @@
     <t xml:space="preserve">16.1536769866943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1361351013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9256658554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0835189819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9782829284668</t>
+    <t xml:space="preserve">16.136137008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9256649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0835208892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9782819747925</t>
   </si>
   <si>
     <t xml:space="preserve">15.8379688262939</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6976556777954</t>
+    <t xml:space="preserve">15.6976537704468</t>
   </si>
   <si>
     <t xml:space="preserve">15.662576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6274967193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9958229064941</t>
+    <t xml:space="preserve">15.6274976730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9958238601685</t>
   </si>
   <si>
     <t xml:space="preserve">15.8204317092896</t>
@@ -2492,37 +2492,37 @@
     <t xml:space="preserve">15.7151937484741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6450386047363</t>
+    <t xml:space="preserve">15.6450366973877</t>
   </si>
   <si>
     <t xml:space="preserve">14.6452989578247</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4699048995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4874458312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2591724395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.399486541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3644094467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2416334152222</t>
+    <t xml:space="preserve">14.4699058532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4874448776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2591733932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3994874954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.364408493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2416324615479</t>
   </si>
   <si>
     <t xml:space="preserve">15.2240953445435</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2065553665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.346607208252</t>
+    <t xml:space="preserve">15.2065563201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3466091156006</t>
   </si>
   <si>
     <t xml:space="preserve">16.0659809112549</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">14.5576028823853</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4172887802124</t>
+    <t xml:space="preserve">14.4172878265381</t>
   </si>
   <si>
     <t xml:space="preserve">14.5225229263306</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">14.2945117950439</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3295907974243</t>
+    <t xml:space="preserve">14.3295917510986</t>
   </si>
   <si>
     <t xml:space="preserve">14.1717376708984</t>
@@ -2561,22 +2561,22 @@
     <t xml:space="preserve">14.0314235687256</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1191205978394</t>
+    <t xml:space="preserve">14.119119644165</t>
   </si>
   <si>
     <t xml:space="preserve">14.2769746780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3646697998047</t>
+    <t xml:space="preserve">14.3646688461304</t>
   </si>
   <si>
     <t xml:space="preserve">14.3822088241577</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8735704421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.084041595459</t>
+    <t xml:space="preserve">13.8735694885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0840406417847</t>
   </si>
   <si>
     <t xml:space="preserve">14.2594347000122</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">14.066502571106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9437265396118</t>
+    <t xml:space="preserve">13.9437274932861</t>
   </si>
   <si>
     <t xml:space="preserve">13.5227842330933</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">12.9966058731079</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4350872039795</t>
+    <t xml:space="preserve">13.4350881576538</t>
   </si>
   <si>
     <t xml:space="preserve">13.1369199752808</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">13.312313079834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.031683921814</t>
+    <t xml:space="preserve">13.0316848754883</t>
   </si>
   <si>
     <t xml:space="preserve">13.0492238998413</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510557174683</t>
+    <t xml:space="preserve">12.7510566711426</t>
   </si>
   <si>
     <t xml:space="preserve">12.5230445861816</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">12.7685956954956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4879665374756</t>
+    <t xml:space="preserve">12.4879674911499</t>
   </si>
   <si>
     <t xml:space="preserve">12.259955406189</t>
@@ -2639,28 +2639,28 @@
     <t xml:space="preserve">12.4528884887695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1897993087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9617891311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.80393409729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8565530776978</t>
+    <t xml:space="preserve">12.1898002624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9617881774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8039350509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8565540313721</t>
   </si>
   <si>
     <t xml:space="preserve">11.4531497955322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7866563796997</t>
+    <t xml:space="preserve">10.786657333374</t>
   </si>
   <si>
     <t xml:space="preserve">11.277756690979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2251386642456</t>
+    <t xml:space="preserve">11.2251396179199</t>
   </si>
   <si>
     <t xml:space="preserve">10.8392744064331</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">10.5411071777344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0850849151611</t>
+    <t xml:space="preserve">10.0850858688354</t>
   </si>
   <si>
     <t xml:space="preserve">10.1026248931885</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">9.8921537399292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1727828979492</t>
+    <t xml:space="preserve">10.1727819442749</t>
   </si>
   <si>
     <t xml:space="preserve">9.85707569122314</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">10.0675468444824</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5761861801147</t>
+    <t xml:space="preserve">10.5761852264404</t>
   </si>
   <si>
     <t xml:space="preserve">9.92723178863525</t>
@@ -2708,31 +2708,31 @@
     <t xml:space="preserve">11.0848245620728</t>
   </si>
   <si>
-    <t xml:space="preserve">10.751579284668</t>
+    <t xml:space="preserve">10.7515783309937</t>
   </si>
   <si>
     <t xml:space="preserve">10.6814212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7164993286133</t>
+    <t xml:space="preserve">10.7165002822876</t>
   </si>
   <si>
     <t xml:space="preserve">10.6288032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4183320999146</t>
+    <t xml:space="preserve">10.4183330535889</t>
   </si>
   <si>
     <t xml:space="preserve">10.4534111022949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2429399490356</t>
+    <t xml:space="preserve">10.2429389953613</t>
   </si>
   <si>
     <t xml:space="preserve">10.1552429199219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69922161102295</t>
+    <t xml:space="preserve">9.69922256469727</t>
   </si>
   <si>
     <t xml:space="preserve">9.80445766448975</t>
@@ -2759,10 +2759,10 @@
     <t xml:space="preserve">10.1903209686279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5937242507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1374425888062</t>
+    <t xml:space="preserve">10.5937252044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1374416351318</t>
   </si>
   <si>
     <t xml:space="preserve">11.0497465133667</t>
@@ -3744,6 +3744,9 @@
   </si>
   <si>
     <t xml:space="preserve">11.7200002670288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6400003433228</t>
   </si>
 </sst>
 </file>
@@ -59985,7 +59988,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6494560185</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>69868</v>
@@ -59994,7 +59997,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="D2151" t="n">
-        <v>11.7399997711182</v>
+        <v>11.7200002670288</v>
       </c>
       <c r="E2151" t="n">
         <v>12.2399997711182</v>
@@ -60006,6 +60009,32 @@
         <v>1243</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6495833333</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>121809</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>11.9399995803833</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>11.539999961853</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>11.8800001144409</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>11.6400003433228</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="1247">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27017688751221</t>
+    <t xml:space="preserve">4.27017641067505</t>
   </si>
   <si>
     <t xml:space="preserve">ZV.MI</t>
@@ -47,19 +47,19 @@
     <t xml:space="preserve">4.25227975845337</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16279554367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04467725753784</t>
+    <t xml:space="preserve">4.16279602050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04467678070068</t>
   </si>
   <si>
     <t xml:space="preserve">3.99456596374512</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91939997673035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96951079368591</t>
+    <t xml:space="preserve">3.91939973831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96951055526733</t>
   </si>
   <si>
     <t xml:space="preserve">3.95519304275513</t>
@@ -68,61 +68,61 @@
     <t xml:space="preserve">4.01604175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98382830619812</t>
+    <t xml:space="preserve">3.98382782936096</t>
   </si>
   <si>
     <t xml:space="preserve">3.89434385299683</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286806106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76548743247986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85854983329773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729591369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91224026679993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86570882797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90150237083435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9587721824646</t>
+    <t xml:space="preserve">3.87286758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76548671722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85855007171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729615211487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91224074363708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86570930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90150189399719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95877242088318</t>
   </si>
   <si>
     <t xml:space="preserve">3.80128026008606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79412198066711</t>
+    <t xml:space="preserve">3.79412174224854</t>
   </si>
   <si>
     <t xml:space="preserve">3.78696274757385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69389939308167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65810632705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71537566184998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57936000823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60083627700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70821666717529</t>
+    <t xml:space="preserve">3.69389986991882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65810656547546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71537590026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57936024665833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60083675384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70821714401245</t>
   </si>
   <si>
     <t xml:space="preserve">3.75832796096802</t>
@@ -131,43 +131,43 @@
     <t xml:space="preserve">3.76906609535217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.815598487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77980446815491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74759101867676</t>
+    <t xml:space="preserve">3.81559824943542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77980399131775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7475905418396</t>
   </si>
   <si>
     <t xml:space="preserve">3.72611379623413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70105838775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76190733909607</t>
+    <t xml:space="preserve">3.70105814933777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76190781593323</t>
   </si>
   <si>
     <t xml:space="preserve">3.78338384628296</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80486035346985</t>
+    <t xml:space="preserve">3.80485987663269</t>
   </si>
   <si>
     <t xml:space="preserve">3.74401092529297</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7726457118988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85139203071594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00172472000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05899477005005</t>
+    <t xml:space="preserve">3.77264547348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85139179229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00172424316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05899429321289</t>
   </si>
   <si>
     <t xml:space="preserve">4.08404970169067</t>
@@ -176,52 +176,52 @@
     <t xml:space="preserve">4.06973218917847</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15205812454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15921592712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13774013519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12342357635498</t>
+    <t xml:space="preserve">4.15205860137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15921640396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13774061203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12342309951782</t>
   </si>
   <si>
     <t xml:space="preserve">4.11626386642456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14489889144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13058137893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19500970840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09836769104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07689142227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16637563705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11984443664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16995429992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18069267272949</t>
+    <t xml:space="preserve">4.14489936828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13058185577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19501066207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09836721420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07689094543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1663761138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11984348297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16995477676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18069314956665</t>
   </si>
   <si>
     <t xml:space="preserve">4.1878514289856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13416051864624</t>
+    <t xml:space="preserve">4.1341609954834</t>
   </si>
   <si>
     <t xml:space="preserve">4.19858932495117</t>
@@ -230,19 +230,19 @@
     <t xml:space="preserve">4.1413197517395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09120845794678</t>
+    <t xml:space="preserve">4.09120798110962</t>
   </si>
   <si>
     <t xml:space="preserve">4.10706949234009</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09213399887085</t>
+    <t xml:space="preserve">4.09213495254517</t>
   </si>
   <si>
     <t xml:space="preserve">4.07720041275024</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05479764938354</t>
+    <t xml:space="preserve">4.05479717254639</t>
   </si>
   <si>
     <t xml:space="preserve">4.08093404769897</t>
@@ -251,16 +251,16 @@
     <t xml:space="preserve">4.0958685874939</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11453676223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12200355529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11080360412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16680860519409</t>
+    <t xml:space="preserve">4.11453723907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12200450897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11080312728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16680908203125</t>
   </si>
   <si>
     <t xml:space="preserve">4.17800998687744</t>
@@ -269,16 +269,16 @@
     <t xml:space="preserve">4.1854772567749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24148178100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25268363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31989049911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28628730773926</t>
+    <t xml:space="preserve">4.24148273468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25268459320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31989002227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28628635406494</t>
   </si>
   <si>
     <t xml:space="preserve">4.26761865615845</t>
@@ -287,31 +287,31 @@
     <t xml:space="preserve">4.21907997131348</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23401594161987</t>
+    <t xml:space="preserve">4.23401546478271</t>
   </si>
   <si>
     <t xml:space="preserve">4.20041179656982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19667816162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01746034622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99505853652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96892237663269</t>
+    <t xml:space="preserve">4.19667863845825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01746082305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9950578212738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96892309188843</t>
   </si>
   <si>
     <t xml:space="preserve">3.96145486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12573766708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14440679550171</t>
+    <t xml:space="preserve">4.1257381439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14440631866455</t>
   </si>
   <si>
     <t xml:space="preserve">4.17427635192871</t>
@@ -320,10 +320,10 @@
     <t xml:space="preserve">4.26388502120972</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02492761611938</t>
+    <t xml:space="preserve">3.97265648841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02492713928223</t>
   </si>
   <si>
     <t xml:space="preserve">4.04733037948608</t>
@@ -332,37 +332,37 @@
     <t xml:space="preserve">4.08840084075928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03986263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02119445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05853080749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03239583969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08466672897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11827039718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15934133529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12947225570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13693904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20414590835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22654724121094</t>
+    <t xml:space="preserve">4.03986167907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02119398117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05853128433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.032395362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08466720581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11827087402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15934085845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12947177886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13693952560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20414543151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22654819488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.24895000457764</t>
@@ -371,31 +371,31 @@
     <t xml:space="preserve">4.18174314498901</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06226491928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02866172790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98385691642761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98012399673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97639012336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95772194862366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93531847000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98759078979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00252628326416</t>
+    <t xml:space="preserve">4.06226539611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02866125106812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98385739326477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98012280464172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97638940811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95772171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93531894683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98759150505066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.002525806427</t>
   </si>
   <si>
     <t xml:space="preserve">4.03612899780273</t>
@@ -404,97 +404,97 @@
     <t xml:space="preserve">3.93905258178711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95025372505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94278740882874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94652080535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86064553260803</t>
+    <t xml:space="preserve">3.95025396347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.942786693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94651985168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86064505577087</t>
   </si>
   <si>
     <t xml:space="preserve">3.84571051597595</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86811232566833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82330846786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81584095954895</t>
+    <t xml:space="preserve">3.86811256408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82330822944641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81584072113037</t>
   </si>
   <si>
     <t xml:space="preserve">3.83077573776245</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81957483291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85317754745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95398807525635</t>
+    <t xml:space="preserve">3.8195743560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85317802429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95398759841919</t>
   </si>
   <si>
     <t xml:space="preserve">4.14067268371582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21161317825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22281455993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09960222244263</t>
+    <t xml:space="preserve">4.21161365509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22281503677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09960174560547</t>
   </si>
   <si>
     <t xml:space="preserve">4.10333585739136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00999355316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04359674453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00625944137573</t>
+    <t xml:space="preserve">4.00999212265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0435962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00625896453857</t>
   </si>
   <si>
     <t xml:space="preserve">4.06599903106689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92038440704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0734658241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26015090942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27135276794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31615686416626</t>
+    <t xml:space="preserve">3.92038416862488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07346630096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26015186309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27135229110718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31615734100342</t>
   </si>
   <si>
     <t xml:space="preserve">4.33109188079834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28255319595337</t>
+    <t xml:space="preserve">4.28255367279053</t>
   </si>
   <si>
     <t xml:space="preserve">4.27881908416748</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32362413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34229230880737</t>
+    <t xml:space="preserve">4.3236231803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34229326248169</t>
   </si>
   <si>
     <t xml:space="preserve">4.30868911743164</t>
@@ -503,19 +503,19 @@
     <t xml:space="preserve">4.30495500564575</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27508497238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2937536239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33855867385864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33482551574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36842823028564</t>
+    <t xml:space="preserve">4.27508544921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29375410079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33855819702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33482503890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36842775344849</t>
   </si>
   <si>
     <t xml:space="preserve">4.36096096038818</t>
@@ -527,40 +527,40 @@
     <t xml:space="preserve">4.42070007324219</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39456510543823</t>
+    <t xml:space="preserve">4.39456462860107</t>
   </si>
   <si>
     <t xml:space="preserve">4.48043918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45430326461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51777601242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59245014190674</t>
+    <t xml:space="preserve">4.45430278778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51777648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5924506187439</t>
   </si>
   <si>
     <t xml:space="preserve">4.61485242843628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59991788864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55511331558228</t>
+    <t xml:space="preserve">4.5999174118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55511283874512</t>
   </si>
   <si>
     <t xml:space="preserve">4.54764556884766</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62978744506836</t>
+    <t xml:space="preserve">4.6297869682312</t>
   </si>
   <si>
     <t xml:space="preserve">4.76420021057129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99569034576416</t>
+    <t xml:space="preserve">4.995689868927</t>
   </si>
   <si>
     <t xml:space="preserve">5.18984222412109</t>
@@ -572,10 +572,10 @@
     <t xml:space="preserve">5.48853826522827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51840829849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52587556838989</t>
+    <t xml:space="preserve">5.51840782165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52587509155273</t>
   </si>
   <si>
     <t xml:space="preserve">5.522141456604</t>
@@ -587,34 +587,34 @@
     <t xml:space="preserve">5.36159229278564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37279415130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639686584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39519548416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44373321533203</t>
+    <t xml:space="preserve">5.37279367446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639734268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39519596099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44373369216919</t>
   </si>
   <si>
     <t xml:space="preserve">5.45120143890381</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46613693237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48480415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43626737594604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42133140563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5445442199707</t>
+    <t xml:space="preserve">5.46613645553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48480463027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43626689910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42133235931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54454326629639</t>
   </si>
   <si>
     <t xml:space="preserve">5.56694602966309</t>
@@ -629,16 +629,16 @@
     <t xml:space="preserve">5.66028833389282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78723430633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6752233505249</t>
+    <t xml:space="preserve">5.78723335266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67522287368774</t>
   </si>
   <si>
     <t xml:space="preserve">5.74989700317383</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84323930740356</t>
+    <t xml:space="preserve">5.84323883056641</t>
   </si>
   <si>
     <t xml:space="preserve">5.92965745925903</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">5.97209501266479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01067447662354</t>
+    <t xml:space="preserve">6.01067399978638</t>
   </si>
   <si>
     <t xml:space="preserve">5.94123125076294</t>
@@ -656,109 +656,109 @@
     <t xml:space="preserve">5.93737363815308</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91422605514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72904491424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72518682479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86793041229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87564563751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81006145477295</t>
+    <t xml:space="preserve">5.91422557830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72904443740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72518587112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86792993545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87564611434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81006193161011</t>
   </si>
   <si>
     <t xml:space="preserve">5.77148151397705</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87178802490234</t>
+    <t xml:space="preserve">5.8717885017395</t>
   </si>
   <si>
     <t xml:space="preserve">5.76376581192017</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67117547988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67889165878296</t>
+    <t xml:space="preserve">5.67117500305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67889070510864</t>
   </si>
   <si>
     <t xml:space="preserve">5.74061822891235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70975494384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78691291809082</t>
+    <t xml:space="preserve">5.7097544670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78691339492798</t>
   </si>
   <si>
     <t xml:space="preserve">5.75604963302612</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79077196121216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80620336532593</t>
+    <t xml:space="preserve">5.79077100753784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80620288848877</t>
   </si>
   <si>
     <t xml:space="preserve">5.8602147102356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91808366775513</t>
+    <t xml:space="preserve">5.91808319091797</t>
   </si>
   <si>
     <t xml:space="preserve">5.71747064590454</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82549285888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86407279968262</t>
+    <t xml:space="preserve">5.82549333572388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86407232284546</t>
   </si>
   <si>
     <t xml:space="preserve">5.7599081993103</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93351554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81777667999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64802837371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67503309249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61330652236938</t>
+    <t xml:space="preserve">5.9335150718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81777715682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64802742004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67503356933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61330604553223</t>
   </si>
   <si>
     <t xml:space="preserve">5.58630037307739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44741439819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41655111312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57086849212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62102127075195</t>
+    <t xml:space="preserve">5.44741487503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41655158996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57086896896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62102222442627</t>
   </si>
   <si>
     <t xml:space="preserve">5.43198251724243</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71361351013184</t>
+    <t xml:space="preserve">5.71361255645752</t>
   </si>
   <si>
     <t xml:space="preserve">5.69432306289673</t>
@@ -767,49 +767,49 @@
     <t xml:space="preserve">5.68274927139282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54000520706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77919816970825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72132778167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73290205001831</t>
+    <t xml:space="preserve">5.54000473022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77919769287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72132921218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73290252685547</t>
   </si>
   <si>
     <t xml:space="preserve">5.74833393096924</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79463005065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65574264526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79848670959473</t>
+    <t xml:space="preserve">5.79462957382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65574359893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79848766326904</t>
   </si>
   <si>
     <t xml:space="preserve">5.81391954421997</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88721942901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89493608474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87950468063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8332085609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85249805450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9759521484375</t>
+    <t xml:space="preserve">5.88721990585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89493560791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87950420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83320951461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85249853134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97595310211182</t>
   </si>
   <si>
     <t xml:space="preserve">5.9026517868042</t>
@@ -818,58 +818,58 @@
     <t xml:space="preserve">5.89107847213745</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82163429260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84478330612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92194175720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90650987625122</t>
+    <t xml:space="preserve">5.8216347694397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84478235244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92194223403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90651035308838</t>
   </si>
   <si>
     <t xml:space="preserve">6.08397531509399</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12255430221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26529884338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28073072433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33859920501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27301454544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32702541351318</t>
+    <t xml:space="preserve">6.12255382537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26529836654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28073024749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33860015869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27301502227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32702589035034</t>
   </si>
   <si>
     <t xml:space="preserve">6.16113424301147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21900415420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1649923324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29616260528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0955491065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.246009349823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16884994506836</t>
+    <t xml:space="preserve">6.21900320053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16499185562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29616212844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09554862976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24600887298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1688494682312</t>
   </si>
   <si>
     <t xml:space="preserve">6.17270755767822</t>
@@ -881,13 +881,13 @@
     <t xml:space="preserve">6.11098098754883</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18428230285645</t>
+    <t xml:space="preserve">6.18428182601929</t>
   </si>
   <si>
     <t xml:space="preserve">6.0261058807373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15727615356445</t>
+    <t xml:space="preserve">6.15727567672729</t>
   </si>
   <si>
     <t xml:space="preserve">6.19585561752319</t>
@@ -899,43 +899,43 @@
     <t xml:space="preserve">6.0531120300293</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00681638717651</t>
+    <t xml:space="preserve">6.00681591033936</t>
   </si>
   <si>
     <t xml:space="preserve">5.98752689361572</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22286033630371</t>
+    <t xml:space="preserve">6.22286081314087</t>
   </si>
   <si>
     <t xml:space="preserve">6.11483860015869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10712289810181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06082773208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92579889297485</t>
+    <t xml:space="preserve">6.10712242126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06082725524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92579984664917</t>
   </si>
   <si>
     <t xml:space="preserve">5.94894695281982</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84864044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08783292770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94508981704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00295925140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06468534469604</t>
+    <t xml:space="preserve">5.84864091873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08783340454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94508934020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00295829772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0646858215332</t>
   </si>
   <si>
     <t xml:space="preserve">6.09169101715088</t>
@@ -944,16 +944,16 @@
     <t xml:space="preserve">6.1379861831665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13412857055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15341758728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21128749847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14955997467041</t>
+    <t xml:space="preserve">6.13412809371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15341806411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21128702163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14956045150757</t>
   </si>
   <si>
     <t xml:space="preserve">6.23829317092896</t>
@@ -962,25 +962,25 @@
     <t xml:space="preserve">6.26144027709961</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25758171081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28844547271729</t>
+    <t xml:space="preserve">6.25758218765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28844594955444</t>
   </si>
   <si>
     <t xml:space="preserve">6.36560487747192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40418434143066</t>
+    <t xml:space="preserve">6.40418529510498</t>
   </si>
   <si>
     <t xml:space="preserve">6.350172996521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43504762649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58164978027344</t>
+    <t xml:space="preserve">6.43504810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58164930343628</t>
   </si>
   <si>
     <t xml:space="preserve">6.53535461425781</t>
@@ -989,37 +989,37 @@
     <t xml:space="preserve">6.37332057952881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38103675842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38875198364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60479831695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55850219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48905897140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4736270904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12641191482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04925346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30387783050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34245729446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22671794891357</t>
+    <t xml:space="preserve">6.38103723526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38875293731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60479784011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55850267410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48905849456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47362661361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1264123916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04925394058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30387830734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34245777130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22671937942505</t>
   </si>
   <si>
     <t xml:space="preserve">6.18042421340942</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">6.31159400939941</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33474159240723</t>
+    <t xml:space="preserve">6.33474111557007</t>
   </si>
   <si>
     <t xml:space="preserve">6.46591186523438</t>
@@ -1037,13 +1037,13 @@
     <t xml:space="preserve">6.50449085235596</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45047998428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3193097114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23443508148193</t>
+    <t xml:space="preserve">6.45047903060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31930923461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23443412780762</t>
   </si>
   <si>
     <t xml:space="preserve">6.49677515029907</t>
@@ -1052,58 +1052,58 @@
     <t xml:space="preserve">6.4427638053894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39646863937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41961526870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42733240127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52763891220093</t>
+    <t xml:space="preserve">6.39646768569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41961622238159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42733097076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52763843536377</t>
   </si>
   <si>
     <t xml:space="preserve">6.51992225646973</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59708166122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63566160202026</t>
+    <t xml:space="preserve">6.59708213806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566064834595</t>
   </si>
   <si>
     <t xml:space="preserve">6.74785804748535</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67573118209839</t>
+    <t xml:space="preserve">6.67573165893555</t>
   </si>
   <si>
     <t xml:space="preserve">6.58757638931274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63566064834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5074348449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62764692306519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61963272094727</t>
+    <t xml:space="preserve">6.63566017150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50743532180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62764644622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61963224411011</t>
   </si>
   <si>
     <t xml:space="preserve">6.56353378295898</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53147745132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49942111968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3711953163147</t>
+    <t xml:space="preserve">6.5314769744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4994215965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37119579315186</t>
   </si>
   <si>
     <t xml:space="preserve">6.39523839950562</t>
@@ -1115,22 +1115,22 @@
     <t xml:space="preserve">6.57956218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60360383987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65168905258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73182916641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53949117660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51545000076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55552005767822</t>
+    <t xml:space="preserve">6.60360431671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65168952941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73182964324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53949165344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51544904708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55552053451538</t>
   </si>
   <si>
     <t xml:space="preserve">6.35516786575317</t>
@@ -1142,61 +1142,61 @@
     <t xml:space="preserve">6.34715366363525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32311153411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46736431121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48339366912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45935106277466</t>
+    <t xml:space="preserve">6.32311105728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46736478805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48339319229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45935153961182</t>
   </si>
   <si>
     <t xml:space="preserve">6.4353084564209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29906892776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42729520797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49140739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45133686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40325164794922</t>
+    <t xml:space="preserve">6.29906940460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42729473114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49140787124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4513373374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40325212478638</t>
   </si>
   <si>
     <t xml:space="preserve">6.33913993835449</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29105567932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27502679824829</t>
+    <t xml:space="preserve">6.29105520248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27502727508545</t>
   </si>
   <si>
     <t xml:space="preserve">6.4112663269043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25098562240601</t>
+    <t xml:space="preserve">6.25098466873169</t>
   </si>
   <si>
     <t xml:space="preserve">6.28304100036621</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21091461181641</t>
+    <t xml:space="preserve">6.21091413497925</t>
   </si>
   <si>
     <t xml:space="preserve">6.37920999526978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36318206787109</t>
+    <t xml:space="preserve">6.36318159103394</t>
   </si>
   <si>
     <t xml:space="preserve">6.33112573623657</t>
@@ -1211,19 +1211,19 @@
     <t xml:space="preserve">6.59558963775635</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84402704238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01232194900513</t>
+    <t xml:space="preserve">6.84402656555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01232242584229</t>
   </si>
   <si>
     <t xml:space="preserve">6.82799863815308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94820976257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9321813583374</t>
+    <t xml:space="preserve">6.9482102394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93218183517456</t>
   </si>
   <si>
     <t xml:space="preserve">6.98026609420776</t>
@@ -1232,16 +1232,16 @@
     <t xml:space="preserve">6.9241681098938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02835130691528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9081392288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85204124450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98827981948853</t>
+    <t xml:space="preserve">7.02835083007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90813875198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85204029083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98828029632568</t>
   </si>
   <si>
     <t xml:space="preserve">7.04437923431396</t>
@@ -1259,16 +1259,16 @@
     <t xml:space="preserve">6.77991485595703</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78792858123779</t>
+    <t xml:space="preserve">6.78792810440063</t>
   </si>
   <si>
     <t xml:space="preserve">6.90012502670288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96423816680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91615343093872</t>
+    <t xml:space="preserve">6.96423864364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91615390777588</t>
   </si>
   <si>
     <t xml:space="preserve">6.94019603729248</t>
@@ -1277,31 +1277,31 @@
     <t xml:space="preserve">6.81197118759155</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70778751373291</t>
+    <t xml:space="preserve">6.70778799057007</t>
   </si>
   <si>
     <t xml:space="preserve">6.57154750823975</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77189970016479</t>
+    <t xml:space="preserve">6.77189922332764</t>
   </si>
   <si>
     <t xml:space="preserve">6.68374538421631</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64367437362671</t>
+    <t xml:space="preserve">6.64367485046387</t>
   </si>
   <si>
     <t xml:space="preserve">7.06842136383057</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05239295959473</t>
+    <t xml:space="preserve">7.05239343643188</t>
   </si>
   <si>
     <t xml:space="preserve">7.12452030181885</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13253355026245</t>
+    <t xml:space="preserve">7.13253307342529</t>
   </si>
   <si>
     <t xml:space="preserve">6.9962944984436</t>
@@ -1319,34 +1319,34 @@
     <t xml:space="preserve">6.88409757614136</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66771650314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71580171585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54750633239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76388549804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10047721862793</t>
+    <t xml:space="preserve">6.66771602630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71580123901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54750537872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76388597488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10047769546509</t>
   </si>
   <si>
     <t xml:space="preserve">7.14054775238037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18863248825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17260456085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11650562286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23671674728394</t>
+    <t xml:space="preserve">7.18863201141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17260408401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11650514602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23671627044678</t>
   </si>
   <si>
     <t xml:space="preserve">7.25274562835693</t>
@@ -1361,13 +1361,13 @@
     <t xml:space="preserve">7.20466089248657</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29281568527222</t>
+    <t xml:space="preserve">7.29281616210938</t>
   </si>
   <si>
     <t xml:space="preserve">7.38898515701294</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2848014831543</t>
+    <t xml:space="preserve">7.28480100631714</t>
   </si>
   <si>
     <t xml:space="preserve">7.3328857421875</t>
@@ -1376,16 +1376,16 @@
     <t xml:space="preserve">7.45309734344482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50919437408447</t>
+    <t xml:space="preserve">7.50919580459595</t>
   </si>
   <si>
     <t xml:space="preserve">7.55728006362915</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51721000671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4130277633667</t>
+    <t xml:space="preserve">7.51721048355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41302680969238</t>
   </si>
   <si>
     <t xml:space="preserve">7.48515319824219</t>
@@ -1394,10 +1394,10 @@
     <t xml:space="preserve">7.4450831413269</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49316835403442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81373071670532</t>
+    <t xml:space="preserve">7.49316787719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81373119354248</t>
   </si>
   <si>
     <t xml:space="preserve">7.77366018295288</t>
@@ -1406,49 +1406,49 @@
     <t xml:space="preserve">7.75763273239136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5252251625061</t>
+    <t xml:space="preserve">7.52522373199463</t>
   </si>
   <si>
     <t xml:space="preserve">7.54125213623047</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53323745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66146373748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63742065429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61337757110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60536479949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57330846786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79770231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85380125045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91791391372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96599769592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97401237487793</t>
+    <t xml:space="preserve">7.53323698043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66146326065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63742017745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61337900161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60536432266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57330894470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79770183563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85380220413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91791439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96599817276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97401189804077</t>
   </si>
   <si>
     <t xml:space="preserve">8.19039249420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23847675323486</t>
+    <t xml:space="preserve">8.23847770690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.07819557189941</t>
@@ -1457,49 +1457,49 @@
     <t xml:space="preserve">8.12627983093262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00606918334961</t>
+    <t xml:space="preserve">8.00606822967529</t>
   </si>
   <si>
     <t xml:space="preserve">7.87784337997437</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94195699691772</t>
+    <t xml:space="preserve">7.94195604324341</t>
   </si>
   <si>
     <t xml:space="preserve">8.03011131286621</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93394231796265</t>
+    <t xml:space="preserve">7.93394136428833</t>
   </si>
   <si>
     <t xml:space="preserve">7.99004077911377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01408386230469</t>
+    <t xml:space="preserve">8.01408290863037</t>
   </si>
   <si>
     <t xml:space="preserve">7.98202657699585</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90188550949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89387083053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86982917785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14230823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35067367553711</t>
+    <t xml:space="preserve">7.90188503265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89387130737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86982870101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14230918884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35067462921143</t>
   </si>
   <si>
     <t xml:space="preserve">8.33464527130127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71932220458984</t>
+    <t xml:space="preserve">8.71932315826416</t>
   </si>
   <si>
     <t xml:space="preserve">9.1039981842041</t>
@@ -1520,22 +1520,22 @@
     <t xml:space="preserve">8.54520034790039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37959575653076</t>
+    <t xml:space="preserve">8.37959671020508</t>
   </si>
   <si>
     <t xml:space="preserve">8.49552059173584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41271686553955</t>
+    <t xml:space="preserve">8.41271781921387</t>
   </si>
   <si>
     <t xml:space="preserve">8.72736644744873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47895812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3133544921875</t>
+    <t xml:space="preserve">8.47895908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31335544586182</t>
   </si>
   <si>
     <t xml:space="preserve">8.1725902557373</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">8.28023338317871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26367282867432</t>
+    <t xml:space="preserve">8.263671875</t>
   </si>
   <si>
     <t xml:space="preserve">8.36303615570068</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">8.51208019256592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29679489135742</t>
+    <t xml:space="preserve">8.29679393768311</t>
   </si>
   <si>
     <t xml:space="preserve">8.87641143798828</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">9.10825634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7770471572876</t>
+    <t xml:space="preserve">8.77704811096191</t>
   </si>
   <si>
     <t xml:space="preserve">8.62800312042236</t>
@@ -1586,19 +1586,19 @@
     <t xml:space="preserve">8.74392700195312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84328842163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61144256591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456367492676</t>
+    <t xml:space="preserve">8.84328937530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61144161224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64456176757812</t>
   </si>
   <si>
     <t xml:space="preserve">8.59488201141357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69424533843994</t>
+    <t xml:space="preserve">8.69424629211426</t>
   </si>
   <si>
     <t xml:space="preserve">8.90953159332275</t>
@@ -1610,22 +1610,22 @@
     <t xml:space="preserve">8.66112422943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19743156433105</t>
+    <t xml:space="preserve">8.19743061065674</t>
   </si>
   <si>
     <t xml:space="preserve">8.34647560119629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27195358276367</t>
+    <t xml:space="preserve">8.27195262908936</t>
   </si>
   <si>
     <t xml:space="preserve">8.32991504669189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25539207458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11462879180908</t>
+    <t xml:space="preserve">8.25539302825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1146297454834</t>
   </si>
   <si>
     <t xml:space="preserve">8.23883152008057</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">8.12290954589844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18087005615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46239757537842</t>
+    <t xml:space="preserve">8.18087100982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46239852905273</t>
   </si>
   <si>
     <t xml:space="preserve">8.39615631103516</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">8.1891508102417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15603065490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56176090240479</t>
+    <t xml:space="preserve">8.15602970123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5617618560791</t>
   </si>
   <si>
     <t xml:space="preserve">9.32354259490967</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">9.90316009521484</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1515674591064</t>
+    <t xml:space="preserve">10.1515665054321</t>
   </si>
   <si>
     <t xml:space="preserve">10.0190830230713</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">10.9630289077759</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1451930999756</t>
+    <t xml:space="preserve">11.1451940536499</t>
   </si>
   <si>
     <t xml:space="preserve">10.7974252700806</t>
@@ -1700,13 +1700,13 @@
     <t xml:space="preserve">10.7477426528931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5158958435059</t>
+    <t xml:space="preserve">10.5158967971802</t>
   </si>
   <si>
     <t xml:space="preserve">10.4662141799927</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4496545791626</t>
+    <t xml:space="preserve">10.4496555328369</t>
   </si>
   <si>
     <t xml:space="preserve">10.4827756881714</t>
@@ -1715,28 +1715,28 @@
     <t xml:space="preserve">10.284049987793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3171701431274</t>
+    <t xml:space="preserve">10.3171710968018</t>
   </si>
   <si>
     <t xml:space="preserve">10.1184453964233</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5324573516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5986986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0789527893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.830545425415</t>
+    <t xml:space="preserve">10.5324563980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5986976623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.078953742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8305463790894</t>
   </si>
   <si>
     <t xml:space="preserve">10.5821390151978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6980619430542</t>
+    <t xml:space="preserve">10.6980628967285</t>
   </si>
   <si>
     <t xml:space="preserve">10.9464683532715</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">11.0292711257935</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2279977798462</t>
+    <t xml:space="preserve">11.2279968261719</t>
   </si>
   <si>
     <t xml:space="preserve">11.2611179351807</t>
@@ -1772,13 +1772,13 @@
     <t xml:space="preserve">11.3604803085327</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6088876724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5757665634155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7579317092896</t>
+    <t xml:space="preserve">11.60888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5757656097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7579307556152</t>
   </si>
   <si>
     <t xml:space="preserve">11.6420078277588</t>
@@ -1790,16 +1790,16 @@
     <t xml:space="preserve">11.7910528182983</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7248115539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8076133728027</t>
+    <t xml:space="preserve">11.7248106002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8076143264771</t>
   </si>
   <si>
     <t xml:space="preserve">11.7413711547852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7082490921021</t>
+    <t xml:space="preserve">11.7082500457764</t>
   </si>
   <si>
     <t xml:space="preserve">11.5923271179199</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">10.2343683242798</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82035636901855</t>
+    <t xml:space="preserve">9.82035541534424</t>
   </si>
   <si>
     <t xml:space="preserve">10.0853242874146</t>
@@ -1826,7 +1826,7 @@
     <t xml:space="preserve">9.4891471862793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0254545211792</t>
+    <t xml:space="preserve">9.02545356750488</t>
   </si>
   <si>
     <t xml:space="preserve">7.73373794555664</t>
@@ -1835,10 +1835,10 @@
     <t xml:space="preserve">7.93246412277222</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96558427810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91590404510498</t>
+    <t xml:space="preserve">7.96558523178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91590309143066</t>
   </si>
   <si>
     <t xml:space="preserve">9.15793895721436</t>
@@ -1850,13 +1850,13 @@
     <t xml:space="preserve">8.85984897613525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00889587402344</t>
+    <t xml:space="preserve">9.00889492034912</t>
   </si>
   <si>
     <t xml:space="preserve">9.52226829528809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9859619140625</t>
+    <t xml:space="preserve">9.98596286773682</t>
   </si>
   <si>
     <t xml:space="preserve">9.62163066864014</t>
@@ -1865,13 +1865,13 @@
     <t xml:space="preserve">9.43946552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91971874237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38978576660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37322521209717</t>
+    <t xml:space="preserve">9.91971969604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38978481292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37322425842285</t>
   </si>
   <si>
     <t xml:space="preserve">9.63819217681885</t>
@@ -1892,16 +1892,16 @@
     <t xml:space="preserve">9.55538940429688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73755359649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47258758544922</t>
+    <t xml:space="preserve">9.7375545501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47258853912354</t>
   </si>
   <si>
     <t xml:space="preserve">9.82956409454346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64053535461426</t>
+    <t xml:space="preserve">9.64053440093994</t>
   </si>
   <si>
     <t xml:space="preserve">9.52024269104004</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">9.43431949615479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26247406005859</t>
+    <t xml:space="preserve">9.26247310638428</t>
   </si>
   <si>
     <t xml:space="preserve">9.2109203338623</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">10.018593788147</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1560707092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434534072876</t>
+    <t xml:space="preserve">10.1560697555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434524536133</t>
   </si>
   <si>
     <t xml:space="preserve">10.6372385025024</t>
@@ -1961,10 +1961,10 @@
     <t xml:space="preserve">10.8090829849243</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5169467926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4482088088989</t>
+    <t xml:space="preserve">10.5169458389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4482078552246</t>
   </si>
   <si>
     <t xml:space="preserve">10.2419939041138</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">11.152774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4620962142944</t>
+    <t xml:space="preserve">11.4620971679688</t>
   </si>
   <si>
     <t xml:space="preserve">11.4964666366577</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">11.4449119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4105434417725</t>
+    <t xml:space="preserve">11.4105424880981</t>
   </si>
   <si>
     <t xml:space="preserve">11.5480194091797</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">11.2902517318726</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2386989593506</t>
+    <t xml:space="preserve">11.2386980056763</t>
   </si>
   <si>
     <t xml:space="preserve">11.3761739730835</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">12.0291872024536</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2010326385498</t>
+    <t xml:space="preserve">12.2010316848755</t>
   </si>
   <si>
     <t xml:space="preserve">12.0807409286499</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">12.1151103973389</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1322956085205</t>
+    <t xml:space="preserve">12.1322946548462</t>
   </si>
   <si>
     <t xml:space="preserve">11.9776334762573</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">11.8401565551758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8573417663574</t>
+    <t xml:space="preserve">11.8573427200317</t>
   </si>
   <si>
     <t xml:space="preserve">11.4792814254761</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">11.2215137481689</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3246212005615</t>
+    <t xml:space="preserve">11.3246202468872</t>
   </si>
   <si>
     <t xml:space="preserve">11.101222038269</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">11.1699590682983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9981145858765</t>
+    <t xml:space="preserve">10.9981136322021</t>
   </si>
   <si>
     <t xml:space="preserve">11.513650894165</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">11.9088954925537</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8229732513428</t>
+    <t xml:space="preserve">11.8229722976685</t>
   </si>
   <si>
     <t xml:space="preserve">12.2354021072388</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">11.9432640075684</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5513153076172</t>
+    <t xml:space="preserve">10.5513143539429</t>
   </si>
   <si>
     <t xml:space="preserve">10.6544227600098</t>
@@ -2144,10 +2144,10 @@
     <t xml:space="preserve">11.7886028289795</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7370500564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6511278152466</t>
+    <t xml:space="preserve">11.7370491027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6511268615723</t>
   </si>
   <si>
     <t xml:space="preserve">11.5308351516724</t>
@@ -2159,13 +2159,13 @@
     <t xml:space="preserve">11.994818687439</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0463724136353</t>
+    <t xml:space="preserve">12.0463714599609</t>
   </si>
   <si>
     <t xml:space="preserve">11.9604482650757</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8057880401611</t>
+    <t xml:space="preserve">11.8057870864868</t>
   </si>
   <si>
     <t xml:space="preserve">11.6339426040649</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">12.1838474273682</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4416170120239</t>
+    <t xml:space="preserve">12.4416160583496</t>
   </si>
   <si>
     <t xml:space="preserve">12.372878074646</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">12.6993846893311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0087080001831</t>
+    <t xml:space="preserve">13.0087070465088</t>
   </si>
   <si>
     <t xml:space="preserve">13.3008432388306</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">12.8884143829346</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5447244644165</t>
+    <t xml:space="preserve">12.5447235107422</t>
   </si>
   <si>
     <t xml:space="preserve">12.6822004318237</t>
@@ -2204,16 +2204,16 @@
     <t xml:space="preserve">12.4759855270386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5275402069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2525863647461</t>
+    <t xml:space="preserve">12.5275392532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2525873184204</t>
   </si>
   <si>
     <t xml:space="preserve">12.6306467056274</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6650142669678</t>
+    <t xml:space="preserve">12.6650152206421</t>
   </si>
   <si>
     <t xml:space="preserve">12.7853078842163</t>
@@ -2276,19 +2276,19 @@
     <t xml:space="preserve">14.6068706512451</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8474540710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0364828109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0708532333374</t>
+    <t xml:space="preserve">14.8474550247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0364837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0708541870117</t>
   </si>
   <si>
     <t xml:space="preserve">15.0192995071411</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6927928924561</t>
+    <t xml:space="preserve">14.6927919387817</t>
   </si>
   <si>
     <t xml:space="preserve">14.3834714889526</t>
@@ -2297,31 +2297,31 @@
     <t xml:space="preserve">14.5896835327148</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6756086349487</t>
+    <t xml:space="preserve">14.6756076812744</t>
   </si>
   <si>
     <t xml:space="preserve">14.4178400039673</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6240558624268</t>
+    <t xml:space="preserve">14.6240549087524</t>
   </si>
   <si>
     <t xml:space="preserve">14.5724992752075</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7958993911743</t>
+    <t xml:space="preserve">14.7958984375</t>
   </si>
   <si>
     <t xml:space="preserve">14.744345664978</t>
   </si>
   <si>
-    <t xml:space="preserve">15.156777381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9505605697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0536689758301</t>
+    <t xml:space="preserve">15.1567764282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9505615234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0536699295044</t>
   </si>
   <si>
     <t xml:space="preserve">15.2942514419556</t>
@@ -3750,6 +3750,9 @@
   </si>
   <si>
     <t xml:space="preserve">11.7799997329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6000003814697</t>
   </si>
 </sst>
 </file>
@@ -60069,7 +60072,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6493634259</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>49772</v>
@@ -60090,6 +60093,32 @@
         <v>1245</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6496296296</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>60292</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>11.8000001907349</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>11.5799999237061</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>11.7799997329712</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>11.6000003814697</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="1248">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27017641067505</t>
+    <t xml:space="preserve">4.27017736434937</t>
   </si>
   <si>
     <t xml:space="preserve">ZV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25227975845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16279602050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04467678070068</t>
+    <t xml:space="preserve">4.25228023529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16279554367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04467725753784</t>
   </si>
   <si>
     <t xml:space="preserve">3.99456596374512</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91939973831177</t>
+    <t xml:space="preserve">3.91939902305603</t>
   </si>
   <si>
     <t xml:space="preserve">3.96951055526733</t>
@@ -65,55 +65,55 @@
     <t xml:space="preserve">3.95519304275513</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01604175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98382782936096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89434385299683</t>
+    <t xml:space="preserve">4.01604318618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9838285446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89434361457825</t>
   </si>
   <si>
     <t xml:space="preserve">3.87286758422852</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76548671722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85855007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729615211487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91224074363708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86570930480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90150189399719</t>
+    <t xml:space="preserve">3.7654869556427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85854959487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729639053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91224098205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86570882797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90150308609009</t>
   </si>
   <si>
     <t xml:space="preserve">3.95877242088318</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80128026008606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79412174224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78696274757385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69389986991882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65810656547546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71537590026855</t>
+    <t xml:space="preserve">3.8012809753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79412198066711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78696322441101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6939001083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65810680389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71537566184998</t>
   </si>
   <si>
     <t xml:space="preserve">3.57936024665833</t>
@@ -122,58 +122,58 @@
     <t xml:space="preserve">3.60083675384521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70821714401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75832796096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76906609535217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81559824943542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77980399131775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7475905418396</t>
+    <t xml:space="preserve">3.70821666717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7583281993866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76906561851501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81559777259827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77980470657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74759006500244</t>
   </si>
   <si>
     <t xml:space="preserve">3.72611379623413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70105814933777</t>
+    <t xml:space="preserve">3.70105862617493</t>
   </si>
   <si>
     <t xml:space="preserve">3.76190781593323</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78338384628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80485987663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74401092529297</t>
+    <t xml:space="preserve">3.7833833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80485963821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74401044845581</t>
   </si>
   <si>
     <t xml:space="preserve">3.77264547348022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85139179229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00172424316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05899429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08404970169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06973218917847</t>
+    <t xml:space="preserve">3.85139203071594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00172472000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05899477005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08405017852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06973266601562</t>
   </si>
   <si>
     <t xml:space="preserve">4.15205860137939</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">4.15921640396118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13774061203003</t>
+    <t xml:space="preserve">4.13774013519287</t>
   </si>
   <si>
     <t xml:space="preserve">4.12342309951782</t>
@@ -194,25 +194,25 @@
     <t xml:space="preserve">4.14489936828613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13058185577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19501066207886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09836721420288</t>
+    <t xml:space="preserve">4.13058137893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1950101852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09836769104004</t>
   </si>
   <si>
     <t xml:space="preserve">4.07689094543457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1663761138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11984348297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16995477676392</t>
+    <t xml:space="preserve">4.16637516021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11984300613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16995429992676</t>
   </si>
   <si>
     <t xml:space="preserve">4.18069314956665</t>
@@ -227,10 +227,10 @@
     <t xml:space="preserve">4.19858932495117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1413197517395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09120798110962</t>
+    <t xml:space="preserve">4.14131927490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09120845794678</t>
   </si>
   <si>
     <t xml:space="preserve">4.10706949234009</t>
@@ -239,16 +239,16 @@
     <t xml:space="preserve">4.09213495254517</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07720041275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05479717254639</t>
+    <t xml:space="preserve">4.07719993591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05479764938354</t>
   </si>
   <si>
     <t xml:space="preserve">4.08093404769897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0958685874939</t>
+    <t xml:space="preserve">4.09586811065674</t>
   </si>
   <si>
     <t xml:space="preserve">4.11453723907471</t>
@@ -257,22 +257,22 @@
     <t xml:space="preserve">4.12200450897217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11080312728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16680908203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17800998687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1854772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24148273468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25268459320068</t>
+    <t xml:space="preserve">4.11080360412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16680860519409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17800951004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18547677993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24148225784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25268363952637</t>
   </si>
   <si>
     <t xml:space="preserve">4.31989002227783</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">4.26761865615845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21907997131348</t>
+    <t xml:space="preserve">4.21908044815063</t>
   </si>
   <si>
     <t xml:space="preserve">4.23401546478271</t>
@@ -296,34 +296,34 @@
     <t xml:space="preserve">4.19667863845825</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01746082305908</t>
+    <t xml:space="preserve">4.01746129989624</t>
   </si>
   <si>
     <t xml:space="preserve">3.9950578212738</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96892309188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96145486831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1257381439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14440631866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17427635192871</t>
+    <t xml:space="preserve">3.96892261505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96145439147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12573766708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14440679550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17427587509155</t>
   </si>
   <si>
     <t xml:space="preserve">4.26388502120972</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97265648841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02492713928223</t>
+    <t xml:space="preserve">3.97265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02492761611938</t>
   </si>
   <si>
     <t xml:space="preserve">4.04733037948608</t>
@@ -332,13 +332,13 @@
     <t xml:space="preserve">4.08840084075928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03986167907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02119398117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05853128433228</t>
+    <t xml:space="preserve">4.03986263275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02119445800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05853176116943</t>
   </si>
   <si>
     <t xml:space="preserve">4.032395362854</t>
@@ -347,181 +347,181 @@
     <t xml:space="preserve">4.08466720581055</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11827087402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15934085845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12947177886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13693952560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20414543151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22654819488525</t>
+    <t xml:space="preserve">4.11826992034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15934133529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12947130203247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13693904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20414638519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2265477180481</t>
   </si>
   <si>
     <t xml:space="preserve">4.24895000457764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18174314498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06226539611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02866125106812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98385739326477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98012280464172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97638940811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95772171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93531894683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98759150505066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.002525806427</t>
+    <t xml:space="preserve">4.18174266815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06226491928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02866172790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98385667800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98012351989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97638988494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9577214717865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93531918525696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98759126663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00252532958984</t>
   </si>
   <si>
     <t xml:space="preserve">4.03612899780273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93905258178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95025396347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.942786693573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94651985168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86064505577087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84571051597595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86811256408691</t>
+    <t xml:space="preserve">3.93905329704285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95025420188904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94278693199158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94652009010315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86064553260803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84571027755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86811208724976</t>
   </si>
   <si>
     <t xml:space="preserve">3.82330822944641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81584072113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077573776245</t>
+    <t xml:space="preserve">3.81584167480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077597618103</t>
   </si>
   <si>
     <t xml:space="preserve">3.8195743560791</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85317802429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95398759841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14067268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21161365509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22281503677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09960174560547</t>
+    <t xml:space="preserve">3.85317826271057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95398736000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14067316055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21161270141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22281408309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09960222244263</t>
   </si>
   <si>
     <t xml:space="preserve">4.10333585739136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00999212265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0435962677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00625896453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06599903106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92038416862488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07346630096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26015186309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27135229110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31615734100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33109188079834</t>
+    <t xml:space="preserve">4.00999307632446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04359674453735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00625944137573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06599855422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92038440704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07346677780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26015138626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27135181427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31615686416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3310923576355</t>
   </si>
   <si>
     <t xml:space="preserve">4.28255367279053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27881908416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3236231803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34229326248169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30868911743164</t>
+    <t xml:space="preserve">4.27881956100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32362461090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34229230880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30868864059448</t>
   </si>
   <si>
     <t xml:space="preserve">4.30495500564575</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27508544921875</t>
+    <t xml:space="preserve">4.27508592605591</t>
   </si>
   <si>
     <t xml:space="preserve">4.29375410079956</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33855819702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33482503890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36842775344849</t>
+    <t xml:space="preserve">4.33855867385864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33482456207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36842823028564</t>
   </si>
   <si>
     <t xml:space="preserve">4.36096096038818</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40576553344727</t>
+    <t xml:space="preserve">4.40576505661011</t>
   </si>
   <si>
     <t xml:space="preserve">4.42070007324219</t>
@@ -530,37 +530,37 @@
     <t xml:space="preserve">4.39456462860107</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48043918609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45430278778076</t>
+    <t xml:space="preserve">4.48043966293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45430421829224</t>
   </si>
   <si>
     <t xml:space="preserve">4.51777648925781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5924506187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61485242843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5999174118042</t>
+    <t xml:space="preserve">4.59245014190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61485195159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59991836547852</t>
   </si>
   <si>
     <t xml:space="preserve">4.55511283874512</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54764556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6297869682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76420021057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.995689868927</t>
+    <t xml:space="preserve">4.54764604568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62978744506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76420068740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99569034576416</t>
   </si>
   <si>
     <t xml:space="preserve">5.18984222412109</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">5.22717952728271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48853826522827</t>
+    <t xml:space="preserve">5.48853778839111</t>
   </si>
   <si>
     <t xml:space="preserve">5.51840782165527</t>
@@ -581,46 +581,46 @@
     <t xml:space="preserve">5.522141456604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3802604675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36159229278564</t>
+    <t xml:space="preserve">5.38026094436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3615927696228</t>
   </si>
   <si>
     <t xml:space="preserve">5.37279367446899</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40639734268188</t>
+    <t xml:space="preserve">5.40639591217041</t>
   </si>
   <si>
     <t xml:space="preserve">5.39519596099854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44373369216919</t>
+    <t xml:space="preserve">5.44373416900635</t>
   </si>
   <si>
     <t xml:space="preserve">5.45120143890381</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46613645553589</t>
+    <t xml:space="preserve">5.46613597869873</t>
   </si>
   <si>
     <t xml:space="preserve">5.48480463027954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43626689910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42133235931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54454326629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56694602966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91418027877808</t>
+    <t xml:space="preserve">5.43626642227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42133140563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54454374313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56694555282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91417980194092</t>
   </si>
   <si>
     <t xml:space="preserve">5.82457113265991</t>
@@ -629,22 +629,22 @@
     <t xml:space="preserve">5.66028833389282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78723335266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67522287368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74989700317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84323883056641</t>
+    <t xml:space="preserve">5.78723478317261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6752233505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74989748001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84323930740356</t>
   </si>
   <si>
     <t xml:space="preserve">5.92965745925903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97209501266479</t>
+    <t xml:space="preserve">5.97209453582764</t>
   </si>
   <si>
     <t xml:space="preserve">6.01067399978638</t>
@@ -656,52 +656,52 @@
     <t xml:space="preserve">5.93737363815308</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91422557830811</t>
+    <t xml:space="preserve">5.91422510147095</t>
   </si>
   <si>
     <t xml:space="preserve">5.72904443740845</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72518587112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86792993545532</t>
+    <t xml:space="preserve">5.72518634796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86793041229248</t>
   </si>
   <si>
     <t xml:space="preserve">5.87564611434937</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81006193161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77148151397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8717885017395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76376581192017</t>
+    <t xml:space="preserve">5.81006145477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77148246765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87178802490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76376628875732</t>
   </si>
   <si>
     <t xml:space="preserve">5.67117500305176</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67889070510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74061822891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7097544670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78691339492798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75604963302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79077100753784</t>
+    <t xml:space="preserve">5.67889213562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7406177520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70975494384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78691387176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75605010986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79077196121216</t>
   </si>
   <si>
     <t xml:space="preserve">5.80620288848877</t>
@@ -710,13 +710,13 @@
     <t xml:space="preserve">5.8602147102356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91808319091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71747064590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82549333572388</t>
+    <t xml:space="preserve">5.91808366775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71747016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82549285888672</t>
   </si>
   <si>
     <t xml:space="preserve">5.86407232284546</t>
@@ -725,13 +725,13 @@
     <t xml:space="preserve">5.7599081993103</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9335150718689</t>
+    <t xml:space="preserve">5.93351554870605</t>
   </si>
   <si>
     <t xml:space="preserve">5.81777715682983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64802742004395</t>
+    <t xml:space="preserve">5.6480278968811</t>
   </si>
   <si>
     <t xml:space="preserve">5.67503356933594</t>
@@ -746,70 +746,70 @@
     <t xml:space="preserve">5.44741487503052</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41655158996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57086896896362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62102222442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43198251724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71361255645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69432306289673</t>
+    <t xml:space="preserve">5.41655111312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57086849212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62102174758911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43198299407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71361303329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69432353973389</t>
   </si>
   <si>
     <t xml:space="preserve">5.68274927139282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54000473022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77919769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72132921218872</t>
+    <t xml:space="preserve">5.54000568389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77919816970825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72132873535156</t>
   </si>
   <si>
     <t xml:space="preserve">5.73290252685547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74833393096924</t>
+    <t xml:space="preserve">5.7483344078064</t>
   </si>
   <si>
     <t xml:space="preserve">5.79462957382202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65574359893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79848766326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81391954421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88721990585327</t>
+    <t xml:space="preserve">5.65574312210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79848718643188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81391906738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88722038269043</t>
   </si>
   <si>
     <t xml:space="preserve">5.89493560791016</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87950420379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83320951461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85249853134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97595310211182</t>
+    <t xml:space="preserve">5.87950372695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83320903778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85249900817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97595262527466</t>
   </si>
   <si>
     <t xml:space="preserve">5.9026517868042</t>
@@ -818,43 +818,43 @@
     <t xml:space="preserve">5.89107847213745</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8216347694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84478235244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92194223403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90651035308838</t>
+    <t xml:space="preserve">5.82163524627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84478282928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92194128036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90650987625122</t>
   </si>
   <si>
     <t xml:space="preserve">6.08397531509399</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12255382537842</t>
+    <t xml:space="preserve">6.12255477905273</t>
   </si>
   <si>
     <t xml:space="preserve">6.26529836654663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28073024749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33860015869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27301502227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32702589035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16113424301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21900320053101</t>
+    <t xml:space="preserve">6.28073072433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33859968185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27301454544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32702541351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16113328933716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21900367736816</t>
   </si>
   <si>
     <t xml:space="preserve">6.16499185562134</t>
@@ -869,25 +869,25 @@
     <t xml:space="preserve">6.24600887298584</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1688494682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17270755767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20357131958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11098098754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18428182601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0261058807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15727567672729</t>
+    <t xml:space="preserve">6.16884994506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17270708084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20357084274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11098051071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18428134918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02610635757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15727615356445</t>
   </si>
   <si>
     <t xml:space="preserve">6.19585561752319</t>
@@ -896,28 +896,28 @@
     <t xml:space="preserve">6.08011722564697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0531120300293</t>
+    <t xml:space="preserve">6.05311107635498</t>
   </si>
   <si>
     <t xml:space="preserve">6.00681591033936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98752689361572</t>
+    <t xml:space="preserve">5.98752641677856</t>
   </si>
   <si>
     <t xml:space="preserve">6.22286081314087</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11483860015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10712242126465</t>
+    <t xml:space="preserve">6.11483907699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10712289810181</t>
   </si>
   <si>
     <t xml:space="preserve">6.06082725524902</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92579984664917</t>
+    <t xml:space="preserve">5.92579889297485</t>
   </si>
   <si>
     <t xml:space="preserve">5.94894695281982</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">5.84864091873169</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08783340454102</t>
+    <t xml:space="preserve">6.08783292770386</t>
   </si>
   <si>
     <t xml:space="preserve">5.94508934020996</t>
@@ -935,13 +935,13 @@
     <t xml:space="preserve">6.00295829772949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0646858215332</t>
+    <t xml:space="preserve">6.06468486785889</t>
   </si>
   <si>
     <t xml:space="preserve">6.09169101715088</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1379861831665</t>
+    <t xml:space="preserve">6.13798666000366</t>
   </si>
   <si>
     <t xml:space="preserve">6.13412809371948</t>
@@ -950,10 +950,10 @@
     <t xml:space="preserve">6.15341806411743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21128702163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14956045150757</t>
+    <t xml:space="preserve">6.21128749847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14955997467041</t>
   </si>
   <si>
     <t xml:space="preserve">6.23829317092896</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">6.26144027709961</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25758218765259</t>
+    <t xml:space="preserve">6.25758171081543</t>
   </si>
   <si>
     <t xml:space="preserve">6.28844594955444</t>
@@ -971,40 +971,40 @@
     <t xml:space="preserve">6.36560487747192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40418529510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.350172996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43504810333252</t>
+    <t xml:space="preserve">6.40418481826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35017251968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43504858016968</t>
   </si>
   <si>
     <t xml:space="preserve">6.58164930343628</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53535461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37332057952881</t>
+    <t xml:space="preserve">6.53535509109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37332105636597</t>
   </si>
   <si>
     <t xml:space="preserve">6.38103723526001</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38875293731689</t>
+    <t xml:space="preserve">6.38875198364258</t>
   </si>
   <si>
     <t xml:space="preserve">6.60479784011841</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55850267410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48905849456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47362661361694</t>
+    <t xml:space="preserve">6.55850124359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48905897140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4736270904541</t>
   </si>
   <si>
     <t xml:space="preserve">6.1264123916626</t>
@@ -1016,13 +1016,13 @@
     <t xml:space="preserve">6.30387830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34245777130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22671937942505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18042421340942</t>
+    <t xml:space="preserve">6.34245681762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22671842575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18042325973511</t>
   </si>
   <si>
     <t xml:space="preserve">6.31159400939941</t>
@@ -1037,70 +1037,70 @@
     <t xml:space="preserve">6.50449085235596</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45047903060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31930923461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23443412780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49677515029907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4427638053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39646768569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41961622238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42733097076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52763843536377</t>
+    <t xml:space="preserve">6.45047950744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31930875778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23443460464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49677467346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44276428222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39646863937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41961526870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42733144760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52763891220093</t>
   </si>
   <si>
     <t xml:space="preserve">6.51992225646973</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59708213806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63566064834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74785804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67573165893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58757638931274</t>
+    <t xml:space="preserve">6.59708118438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566112518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74785757064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67573070526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58757591247559</t>
   </si>
   <si>
     <t xml:space="preserve">6.63566017150879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50743532180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62764644622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61963224411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56353378295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5314769744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4994215965271</t>
+    <t xml:space="preserve">6.50743579864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62764692306519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61963272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56353330612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53147745132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49942064285278</t>
   </si>
   <si>
     <t xml:space="preserve">6.37119579315186</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">6.39523839950562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61161851882935</t>
+    <t xml:space="preserve">6.61161804199219</t>
   </si>
   <si>
     <t xml:space="preserve">6.57956218719482</t>
@@ -1121,31 +1121,31 @@
     <t xml:space="preserve">6.65168952941895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73182964324951</t>
+    <t xml:space="preserve">6.73182916641235</t>
   </si>
   <si>
     <t xml:space="preserve">6.53949165344238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51544904708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55552053451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35516786575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38722372055054</t>
+    <t xml:space="preserve">6.51544952392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55552005767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35516738891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3872241973877</t>
   </si>
   <si>
     <t xml:space="preserve">6.34715366363525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32311105728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46736478805542</t>
+    <t xml:space="preserve">6.32311153411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46736431121826</t>
   </si>
   <si>
     <t xml:space="preserve">6.48339319229126</t>
@@ -1154,46 +1154,46 @@
     <t xml:space="preserve">6.45935153961182</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4353084564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29906940460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42729473114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49140787124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4513373374939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40325212478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33913993835449</t>
+    <t xml:space="preserve">6.43530893325806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29906892776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42729520797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49140739440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45133686065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40325260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33913898468018</t>
   </si>
   <si>
     <t xml:space="preserve">6.29105520248413</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27502727508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4112663269043</t>
+    <t xml:space="preserve">6.27502679824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41126585006714</t>
   </si>
   <si>
     <t xml:space="preserve">6.25098466873169</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28304100036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21091413497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37920999526978</t>
+    <t xml:space="preserve">6.28304147720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21091461181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37921047210693</t>
   </si>
   <si>
     <t xml:space="preserve">6.36318159103394</t>
@@ -1208,106 +1208,106 @@
     <t xml:space="preserve">6.41928052902222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59558963775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84402656555176</t>
+    <t xml:space="preserve">6.59559011459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84402751922607</t>
   </si>
   <si>
     <t xml:space="preserve">7.01232242584229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82799863815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9482102394104</t>
+    <t xml:space="preserve">6.82799959182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94820928573608</t>
   </si>
   <si>
     <t xml:space="preserve">6.93218183517456</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98026609420776</t>
+    <t xml:space="preserve">6.98026657104492</t>
   </si>
   <si>
     <t xml:space="preserve">6.9241681098938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02835083007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90813875198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85204029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98828029632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04437923431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97225189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69977331161499</t>
+    <t xml:space="preserve">7.02835178375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9081392288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85204076766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98828077316284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04437875747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97225284576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69977283477783</t>
   </si>
   <si>
     <t xml:space="preserve">6.75587224960327</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77991485595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78792810440063</t>
+    <t xml:space="preserve">6.77991437911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78792858123779</t>
   </si>
   <si>
     <t xml:space="preserve">6.90012502670288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96423864364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91615390777588</t>
+    <t xml:space="preserve">6.96423721313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91615343093872</t>
   </si>
   <si>
     <t xml:space="preserve">6.94019603729248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81197118759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70778799057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57154750823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77189922332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68374538421631</t>
+    <t xml:space="preserve">6.81196975708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70778703689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5715479850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77189970016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68374586105347</t>
   </si>
   <si>
     <t xml:space="preserve">6.64367485046387</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06842136383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05239343643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12452030181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253307342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9962944984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984336853027</t>
+    <t xml:space="preserve">7.06842041015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05239248275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12451934814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253402709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99629402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984384536743</t>
   </si>
   <si>
     <t xml:space="preserve">6.72381544113159</t>
@@ -1319,19 +1319,19 @@
     <t xml:space="preserve">6.88409757614136</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66771602630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71580123901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54750537872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76388597488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10047769546509</t>
+    <t xml:space="preserve">6.66771650314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71580171585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54750633239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76388502120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10047674179077</t>
   </si>
   <si>
     <t xml:space="preserve">7.14054775238037</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">7.17260408401489</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11650514602661</t>
+    <t xml:space="preserve">7.11650657653809</t>
   </si>
   <si>
     <t xml:space="preserve">7.23671627044678</t>
@@ -1352,115 +1352,115 @@
     <t xml:space="preserve">7.25274562835693</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19664525985718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22870349884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20466089248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29281616210938</t>
+    <t xml:space="preserve">7.19664621353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22870302200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20465993881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29281520843506</t>
   </si>
   <si>
     <t xml:space="preserve">7.38898515701294</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28480100631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3328857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45309734344482</t>
+    <t xml:space="preserve">7.28480195999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33288526535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45309782028198</t>
   </si>
   <si>
     <t xml:space="preserve">7.50919580459595</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55728006362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51721048355103</t>
+    <t xml:space="preserve">7.55728054046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51720952987671</t>
   </si>
   <si>
     <t xml:space="preserve">7.41302680969238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48515319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4450831413269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49316787719727</t>
+    <t xml:space="preserve">7.48515367507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44508218765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49316692352295</t>
   </si>
   <si>
     <t xml:space="preserve">7.81373119354248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77366018295288</t>
+    <t xml:space="preserve">7.77366065979004</t>
   </si>
   <si>
     <t xml:space="preserve">7.75763273239136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52522373199463</t>
+    <t xml:space="preserve">7.52522420883179</t>
   </si>
   <si>
     <t xml:space="preserve">7.54125213623047</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53323698043823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66146326065063</t>
+    <t xml:space="preserve">7.53323745727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66146421432495</t>
   </si>
   <si>
     <t xml:space="preserve">7.63742017745972</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61337900161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60536432266235</t>
+    <t xml:space="preserve">7.61337852478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60536479949951</t>
   </si>
   <si>
     <t xml:space="preserve">7.57330894470215</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79770183563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85380220413208</t>
+    <t xml:space="preserve">7.7977032661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85380077362061</t>
   </si>
   <si>
     <t xml:space="preserve">7.91791439056396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96599817276001</t>
+    <t xml:space="preserve">7.96599721908569</t>
   </si>
   <si>
     <t xml:space="preserve">7.97401189804077</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19039249420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23847770690918</t>
+    <t xml:space="preserve">8.19039440155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23847675323486</t>
   </si>
   <si>
     <t xml:space="preserve">8.07819557189941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12627983093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00606822967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87784337997437</t>
+    <t xml:space="preserve">8.12628078460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00606918334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87784290313721</t>
   </si>
   <si>
     <t xml:space="preserve">7.94195604324341</t>
@@ -1469,40 +1469,40 @@
     <t xml:space="preserve">8.03011131286621</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93394136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99004077911377</t>
+    <t xml:space="preserve">7.93394231796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99003982543945</t>
   </si>
   <si>
     <t xml:space="preserve">8.01408290863037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98202657699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90188503265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89387130737305</t>
+    <t xml:space="preserve">7.98202800750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90188550949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89387273788452</t>
   </si>
   <si>
     <t xml:space="preserve">7.86982870101929</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14230918884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35067462921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33464527130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71932315826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1039981842041</t>
+    <t xml:space="preserve">8.14230728149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35067367553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3346471786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71932220458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10399723052979</t>
   </si>
   <si>
     <t xml:space="preserve">8.9757719039917</t>
@@ -1517,25 +1517,25 @@
     <t xml:space="preserve">8.57832145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54520034790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37959671020508</t>
+    <t xml:space="preserve">8.54520130157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37959575653076</t>
   </si>
   <si>
     <t xml:space="preserve">8.49552059173584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41271781921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72736644744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47895908355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31335544586182</t>
+    <t xml:space="preserve">8.41271686553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72736549377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47896003723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31335353851318</t>
   </si>
   <si>
     <t xml:space="preserve">8.1725902557373</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">8.28023338317871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.263671875</t>
+    <t xml:space="preserve">8.26367282867432</t>
   </si>
   <si>
     <t xml:space="preserve">8.36303615570068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42927837371826</t>
+    <t xml:space="preserve">8.42927742004395</t>
   </si>
   <si>
     <t xml:space="preserve">8.52864074707031</t>
@@ -1559,16 +1559,16 @@
     <t xml:space="preserve">8.51208019256592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29679393768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87641143798828</t>
+    <t xml:space="preserve">8.29679489135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87641048431396</t>
   </si>
   <si>
     <t xml:space="preserve">8.94265270233154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10825634002686</t>
+    <t xml:space="preserve">9.10825729370117</t>
   </si>
   <si>
     <t xml:space="preserve">8.77704811096191</t>
@@ -1580,37 +1580,37 @@
     <t xml:space="preserve">8.8101692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67768383026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74392700195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84328937530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61144161224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456176757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59488201141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69424629211426</t>
+    <t xml:space="preserve">8.67768287658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74392795562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84329032897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61144256591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64456367492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59488296508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69424438476562</t>
   </si>
   <si>
     <t xml:space="preserve">8.90953159332275</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44583892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66112422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19743061065674</t>
+    <t xml:space="preserve">8.44583797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66112327575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19743156433105</t>
   </si>
   <si>
     <t xml:space="preserve">8.34647560119629</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">8.27195262908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32991504669189</t>
+    <t xml:space="preserve">8.32991409301758</t>
   </si>
   <si>
     <t xml:space="preserve">8.25539302825928</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">8.23883152008057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89297008514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24711227416992</t>
+    <t xml:space="preserve">8.89297103881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24711322784424</t>
   </si>
   <si>
     <t xml:space="preserve">8.12290954589844</t>
@@ -1643,10 +1643,10 @@
     <t xml:space="preserve">8.18087100982666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46239852905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39615631103516</t>
+    <t xml:space="preserve">8.46239948272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39615726470947</t>
   </si>
   <si>
     <t xml:space="preserve">8.1891508102417</t>
@@ -1658,13 +1658,13 @@
     <t xml:space="preserve">8.5617618560791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32354259490967</t>
+    <t xml:space="preserve">9.32354354858398</t>
   </si>
   <si>
     <t xml:space="preserve">9.90316009521484</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1515665054321</t>
+    <t xml:space="preserve">10.1515674591064</t>
   </si>
   <si>
     <t xml:space="preserve">10.0190830230713</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">10.565577507019</t>
   </si>
   <si>
-    <t xml:space="preserve">10.731183052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.095513343811</t>
+    <t xml:space="preserve">10.7311820983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0955123901367</t>
   </si>
   <si>
     <t xml:space="preserve">10.9630289077759</t>
@@ -1694,22 +1694,22 @@
     <t xml:space="preserve">11.1451940536499</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7974252700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7477426528931</t>
+    <t xml:space="preserve">10.7974243164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7477436065674</t>
   </si>
   <si>
     <t xml:space="preserve">10.5158967971802</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4662141799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4496555328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4827756881714</t>
+    <t xml:space="preserve">10.466215133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4496545791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4827747344971</t>
   </si>
   <si>
     <t xml:space="preserve">10.284049987793</t>
@@ -1721,19 +1721,19 @@
     <t xml:space="preserve">10.1184453964233</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5324563980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5986976623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.078953742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8305463790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5821390151978</t>
+    <t xml:space="preserve">10.5324573516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5986986160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0789518356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8305444717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5821371078491</t>
   </si>
   <si>
     <t xml:space="preserve">10.6980628967285</t>
@@ -1757,22 +1757,22 @@
     <t xml:space="preserve">11.2611179351807</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2114362716675</t>
+    <t xml:space="preserve">11.2114353179932</t>
   </si>
   <si>
     <t xml:space="preserve">11.1948757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1783151626587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.244556427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3604803085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.60888671875</t>
+    <t xml:space="preserve">11.1783142089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2445573806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.360481262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6088876724243</t>
   </si>
   <si>
     <t xml:space="preserve">11.5757656097412</t>
@@ -1781,10 +1781,10 @@
     <t xml:space="preserve">11.7579307556152</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6420078277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8738555908203</t>
+    <t xml:space="preserve">11.6420087814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.873854637146</t>
   </si>
   <si>
     <t xml:space="preserve">11.7910528182983</t>
@@ -1793,19 +1793,19 @@
     <t xml:space="preserve">11.7248106002808</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8076143264771</t>
+    <t xml:space="preserve">11.8076133728027</t>
   </si>
   <si>
     <t xml:space="preserve">11.7413711547852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7082500457764</t>
+    <t xml:space="preserve">11.7082509994507</t>
   </si>
   <si>
     <t xml:space="preserve">11.5923271179199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4101619720459</t>
+    <t xml:space="preserve">11.4101610183716</t>
   </si>
   <si>
     <t xml:space="preserve">10.6318197250366</t>
@@ -1814,55 +1814,55 @@
     <t xml:space="preserve">10.6649408340454</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2343683242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82035541534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0853242874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4891471862793</t>
+    <t xml:space="preserve">10.2343673706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82035636901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0853233337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48914813995361</t>
   </si>
   <si>
     <t xml:space="preserve">9.02545356750488</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73373794555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93246412277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96558523178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91590309143066</t>
+    <t xml:space="preserve">7.7337384223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93246364593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96558427810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91590404510498</t>
   </si>
   <si>
     <t xml:space="preserve">9.15793895721436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92609024047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85984897613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00889492034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52226829528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98596286773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62163066864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43946552276611</t>
+    <t xml:space="preserve">8.92609119415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85984992980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00889301300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52226734161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9859619140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62163162231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43946647644043</t>
   </si>
   <si>
     <t xml:space="preserve">9.91971969604492</t>
@@ -1871,22 +1871,22 @@
     <t xml:space="preserve">9.38978481292725</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37322425842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63819217681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42290496826172</t>
+    <t xml:space="preserve">9.37322330474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63819313049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42290592193604</t>
   </si>
   <si>
     <t xml:space="preserve">9.67131328582764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40634536743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57194995880127</t>
+    <t xml:space="preserve">9.40634441375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57195091247559</t>
   </si>
   <si>
     <t xml:space="preserve">9.55538940429688</t>
@@ -1895,19 +1895,19 @@
     <t xml:space="preserve">9.7375545501709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47258853912354</t>
+    <t xml:space="preserve">9.4725866317749</t>
   </si>
   <si>
     <t xml:space="preserve">9.82956409454346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64053440093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52024269104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17655086517334</t>
+    <t xml:space="preserve">9.64053535461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52024173736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17655181884766</t>
   </si>
   <si>
     <t xml:space="preserve">8.98752117156982</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">9.19373512268066</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70927143096924</t>
+    <t xml:space="preserve">9.70927238464355</t>
   </si>
   <si>
     <t xml:space="preserve">9.43431949615479</t>
@@ -1928,19 +1928,19 @@
     <t xml:space="preserve">9.2109203338623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48587322235107</t>
+    <t xml:space="preserve">9.48587417602539</t>
   </si>
   <si>
     <t xml:space="preserve">9.86393356323242</t>
   </si>
   <si>
-    <t xml:space="preserve">10.018593788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1560697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434524536133</t>
+    <t xml:space="preserve">10.0185947418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1560707092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434534072876</t>
   </si>
   <si>
     <t xml:space="preserve">10.6372385025024</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">10.8950071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7575311660767</t>
+    <t xml:space="preserve">10.757529258728</t>
   </si>
   <si>
     <t xml:space="preserve">10.7918996810913</t>
@@ -1958,10 +1958,10 @@
     <t xml:space="preserve">10.8606376647949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8090829849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5169458389282</t>
+    <t xml:space="preserve">10.8090839385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5169467926025</t>
   </si>
   <si>
     <t xml:space="preserve">10.4482078552246</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">10.7059764862061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7747144699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9121904373169</t>
+    <t xml:space="preserve">10.7747135162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9121913909912</t>
   </si>
   <si>
     <t xml:space="preserve">10.826268196106</t>
@@ -1988,34 +1988,34 @@
     <t xml:space="preserve">11.4620971679688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4964666366577</t>
+    <t xml:space="preserve">11.4964656829834</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4105424880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5480194091797</t>
+    <t xml:space="preserve">11.4105434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5480184555054</t>
   </si>
   <si>
     <t xml:space="preserve">11.2902517318726</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2386980056763</t>
+    <t xml:space="preserve">11.238697052002</t>
   </si>
   <si>
     <t xml:space="preserve">11.3761739730835</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5995740890503</t>
+    <t xml:space="preserve">11.599573135376</t>
   </si>
   <si>
     <t xml:space="preserve">11.7542343139648</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7714185714722</t>
+    <t xml:space="preserve">11.7714195251465</t>
   </si>
   <si>
     <t xml:space="preserve">11.926079750061</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">12.2010316848755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0807409286499</t>
+    <t xml:space="preserve">12.0807418823242</t>
   </si>
   <si>
     <t xml:space="preserve">12.0979251861572</t>
@@ -2039,19 +2039,19 @@
     <t xml:space="preserve">12.1322946548462</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9776334762573</t>
+    <t xml:space="preserve">11.9776344299316</t>
   </si>
   <si>
     <t xml:space="preserve">11.8401565551758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8573427200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4792814254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1355905532837</t>
+    <t xml:space="preserve">11.8573408126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4792804718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1355895996094</t>
   </si>
   <si>
     <t xml:space="preserve">11.1184053421021</t>
@@ -2060,13 +2060,13 @@
     <t xml:space="preserve">11.3074350357056</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4277276992798</t>
+    <t xml:space="preserve">11.4277286529541</t>
   </si>
   <si>
     <t xml:space="preserve">11.2043285369873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3418045043945</t>
+    <t xml:space="preserve">11.3418035507202</t>
   </si>
   <si>
     <t xml:space="preserve">11.2215137481689</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">10.9981136322021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.513650894165</t>
+    <t xml:space="preserve">11.5136499404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.6854963302612</t>
@@ -2105,16 +2105,16 @@
     <t xml:space="preserve">11.2730665206909</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3933582305908</t>
+    <t xml:space="preserve">11.3933591842651</t>
   </si>
   <si>
     <t xml:space="preserve">11.5823879241943</t>
   </si>
   <si>
-    <t xml:space="preserve">11.565203666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9088954925537</t>
+    <t xml:space="preserve">11.5652046203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9088945388794</t>
   </si>
   <si>
     <t xml:space="preserve">11.8229722976685</t>
@@ -2126,25 +2126,25 @@
     <t xml:space="preserve">12.0635557174683</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9432640075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5513143539429</t>
+    <t xml:space="preserve">11.9432649612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5513162612915</t>
   </si>
   <si>
     <t xml:space="preserve">10.6544227600098</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0324831008911</t>
+    <t xml:space="preserve">11.0324821472168</t>
   </si>
   <si>
     <t xml:space="preserve">11.3589897155762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7886028289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7370491027832</t>
+    <t xml:space="preserve">11.7886037826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7370500564575</t>
   </si>
   <si>
     <t xml:space="preserve">11.6511268615723</t>
@@ -2153,31 +2153,31 @@
     <t xml:space="preserve">11.5308351516724</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8917112350464</t>
+    <t xml:space="preserve">11.8917102813721</t>
   </si>
   <si>
     <t xml:space="preserve">11.994818687439</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0463714599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9604482650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8057870864868</t>
+    <t xml:space="preserve">12.0463724136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.96044921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8057880401611</t>
   </si>
   <si>
     <t xml:space="preserve">11.6339426040649</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1838474273682</t>
+    <t xml:space="preserve">12.1838483810425</t>
   </si>
   <si>
     <t xml:space="preserve">12.4416160583496</t>
   </si>
   <si>
-    <t xml:space="preserve">12.372878074646</t>
+    <t xml:space="preserve">12.3728771209717</t>
   </si>
   <si>
     <t xml:space="preserve">12.4072465896606</t>
@@ -2192,10 +2192,10 @@
     <t xml:space="preserve">13.3008432388306</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8884143829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5447235107422</t>
+    <t xml:space="preserve">12.8884153366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5447244644165</t>
   </si>
   <si>
     <t xml:space="preserve">12.6822004318237</t>
@@ -2207,22 +2207,22 @@
     <t xml:space="preserve">12.5275392532349</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2525873184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6306467056274</t>
+    <t xml:space="preserve">12.2525863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6306457519531</t>
   </si>
   <si>
     <t xml:space="preserve">12.6650152206421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7853078842163</t>
+    <t xml:space="preserve">12.785306930542</t>
   </si>
   <si>
     <t xml:space="preserve">12.8712301254272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8024911880493</t>
+    <t xml:space="preserve">12.8024921417236</t>
   </si>
   <si>
     <t xml:space="preserve">12.9743375778198</t>
@@ -2231,16 +2231,16 @@
     <t xml:space="preserve">13.1118144989014</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2149209976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1633672714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.197735786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6273508071899</t>
+    <t xml:space="preserve">13.2149219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1633682250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1977367401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6273498535156</t>
   </si>
   <si>
     <t xml:space="preserve">13.7476425170898</t>
@@ -2255,25 +2255,25 @@
     <t xml:space="preserve">13.5242433547974</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3523979187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6101665496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9194889068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0225954055786</t>
+    <t xml:space="preserve">13.3523969650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6101655960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.919487953186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0225944519043</t>
   </si>
   <si>
     <t xml:space="preserve">14.1085186004639</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5037622451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6068706512451</t>
+    <t xml:space="preserve">14.5037612915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6068687438965</t>
   </si>
   <si>
     <t xml:space="preserve">14.8474550247192</t>
@@ -2285,19 +2285,19 @@
     <t xml:space="preserve">15.0708541870117</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0192995071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6927919387817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3834714889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5896835327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6756076812744</t>
+    <t xml:space="preserve">15.0192985534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6927928924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3834705352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5896854400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6756086349487</t>
   </si>
   <si>
     <t xml:space="preserve">14.4178400039673</t>
@@ -2309,22 +2309,22 @@
     <t xml:space="preserve">14.5724992752075</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7958984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.744345664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1567764282227</t>
+    <t xml:space="preserve">14.7958993911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7443475723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1567754745483</t>
   </si>
   <si>
     <t xml:space="preserve">14.9505615234375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0536699295044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2942514419556</t>
+    <t xml:space="preserve">15.0536689758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2942523956299</t>
   </si>
   <si>
     <t xml:space="preserve">15.3819494247437</t>
@@ -2336,34 +2336,34 @@
     <t xml:space="preserve">14.9610052108765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9434661865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837812423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1013193130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1890163421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9083881378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0487012863159</t>
+    <t xml:space="preserve">14.9434671401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837802886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.101318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1890153884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9083871841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0487022399902</t>
   </si>
   <si>
     <t xml:space="preserve">14.8733081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0136251449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7856140136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.592679977417</t>
+    <t xml:space="preserve">15.0136232376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7856130599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5926790237427</t>
   </si>
   <si>
     <t xml:space="preserve">15.1188583374023</t>
@@ -2381,52 +2381,52 @@
     <t xml:space="preserve">14.838231086731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1363983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0311622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.153938293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9785442352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7329940795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8908472061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7505331039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1714754104614</t>
+    <t xml:space="preserve">15.1363973617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0311613082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1539392471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9785451889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7329950332642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.89084815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7505340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1714763641357</t>
   </si>
   <si>
     <t xml:space="preserve">15.0662422180176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3293304443359</t>
+    <t xml:space="preserve">15.3293294906616</t>
   </si>
   <si>
     <t xml:space="preserve">15.3468685150146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8206911087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5398006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6099586486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5222625732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5748796463013</t>
+    <t xml:space="preserve">14.8206901550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5398015975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6099576950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5222635269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5748805999756</t>
   </si>
   <si>
     <t xml:space="preserve">15.7853517532349</t>
@@ -2435,13 +2435,13 @@
     <t xml:space="preserve">15.9607448577881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1887550354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0309009552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327346801758</t>
+    <t xml:space="preserve">16.1887531280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0309028625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327337265015</t>
   </si>
   <si>
     <t xml:space="preserve">16.2413730621338</t>
@@ -2459,16 +2459,16 @@
     <t xml:space="preserve">16.1536769866943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1361351013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9256658554077</t>
+    <t xml:space="preserve">16.136137008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9256649017334</t>
   </si>
   <si>
     <t xml:space="preserve">16.0835189819336</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9782829284668</t>
+    <t xml:space="preserve">15.9782819747925</t>
   </si>
   <si>
     <t xml:space="preserve">15.8379688262939</t>
@@ -2480,10 +2480,10 @@
     <t xml:space="preserve">15.662576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6274967193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9958229064941</t>
+    <t xml:space="preserve">15.6274976730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9958238601685</t>
   </si>
   <si>
     <t xml:space="preserve">15.8204317092896</t>
@@ -2492,40 +2492,40 @@
     <t xml:space="preserve">15.7151937484741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6450386047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6452989578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4699048995972</t>
+    <t xml:space="preserve">15.6450366973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.645299911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4699058532715</t>
   </si>
   <si>
     <t xml:space="preserve">14.4874458312988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2591724395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.399486541748</t>
+    <t xml:space="preserve">15.2591733932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3994874954224</t>
   </si>
   <si>
     <t xml:space="preserve">15.3644094467163</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2416334152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2240953445435</t>
+    <t xml:space="preserve">15.2416324615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2240943908691</t>
   </si>
   <si>
     <t xml:space="preserve">15.2065553665161</t>
   </si>
   <si>
-    <t xml:space="preserve">16.346607208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0659809112549</t>
+    <t xml:space="preserve">16.3466091156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0659790039062</t>
   </si>
   <si>
     <t xml:space="preserve">15.8730487823486</t>
@@ -2534,13 +2534,13 @@
     <t xml:space="preserve">15.3117904663086</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6102209091187</t>
+    <t xml:space="preserve">14.61021900177</t>
   </si>
   <si>
     <t xml:space="preserve">14.5576028823853</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4172887802124</t>
+    <t xml:space="preserve">14.4172878265381</t>
   </si>
   <si>
     <t xml:space="preserve">14.5225229263306</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">14.2945117950439</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3295907974243</t>
+    <t xml:space="preserve">14.3295917510986</t>
   </si>
   <si>
     <t xml:space="preserve">14.1717376708984</t>
@@ -2567,25 +2567,25 @@
     <t xml:space="preserve">14.2769746780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3646697998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3822088241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8735704421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.084041595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2594347000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8209524154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.066502571106</t>
+    <t xml:space="preserve">14.3646688461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.382209777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8735694885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0840406417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2594337463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8209533691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0665035247803</t>
   </si>
   <si>
     <t xml:space="preserve">13.9437265396118</t>
@@ -2597,10 +2597,10 @@
     <t xml:space="preserve">13.1544589996338</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9966058731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4350872039795</t>
+    <t xml:space="preserve">12.9966049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4350881576538</t>
   </si>
   <si>
     <t xml:space="preserve">13.1369199752808</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">13.312313079834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.031683921814</t>
+    <t xml:space="preserve">13.0316848754883</t>
   </si>
   <si>
     <t xml:space="preserve">13.0492238998413</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510557174683</t>
+    <t xml:space="preserve">12.7510566711426</t>
   </si>
   <si>
     <t xml:space="preserve">12.5230445861816</t>
@@ -2645,16 +2645,16 @@
     <t xml:space="preserve">11.9617891311646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.80393409729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8565530776978</t>
+    <t xml:space="preserve">11.8039360046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8565540313721</t>
   </si>
   <si>
     <t xml:space="preserve">11.4531497955322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7866563796997</t>
+    <t xml:space="preserve">10.786657333374</t>
   </si>
   <si>
     <t xml:space="preserve">11.277756690979</t>
@@ -2669,13 +2669,13 @@
     <t xml:space="preserve">10.7691173553467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5411071777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0850849151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1026248931885</t>
+    <t xml:space="preserve">10.5411081314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0850858688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1026258468628</t>
   </si>
   <si>
     <t xml:space="preserve">9.8921537399292</t>
@@ -2687,10 +2687,10 @@
     <t xml:space="preserve">9.85707569122314</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0675468444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5761861801147</t>
+    <t xml:space="preserve">10.0675458908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5761852264404</t>
   </si>
   <si>
     <t xml:space="preserve">9.92723178863525</t>
@@ -2702,13 +2702,13 @@
     <t xml:space="preserve">11.2075996398926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8918924331665</t>
+    <t xml:space="preserve">10.8918914794922</t>
   </si>
   <si>
     <t xml:space="preserve">11.0848245620728</t>
   </si>
   <si>
-    <t xml:space="preserve">10.751579284668</t>
+    <t xml:space="preserve">10.7515783309937</t>
   </si>
   <si>
     <t xml:space="preserve">10.6814212799072</t>
@@ -2720,19 +2720,19 @@
     <t xml:space="preserve">10.6288032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4183320999146</t>
+    <t xml:space="preserve">10.4183330535889</t>
   </si>
   <si>
     <t xml:space="preserve">10.4534111022949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2429399490356</t>
+    <t xml:space="preserve">10.2429389953613</t>
   </si>
   <si>
     <t xml:space="preserve">10.1552429199219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69922161102295</t>
+    <t xml:space="preserve">9.69922256469727</t>
   </si>
   <si>
     <t xml:space="preserve">9.80445766448975</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">9.90969276428223</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71676158905029</t>
+    <t xml:space="preserve">9.71676063537598</t>
   </si>
   <si>
     <t xml:space="preserve">9.82199573516846</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">9.64660358428955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96231079101562</t>
+    <t xml:space="preserve">9.96230983734131</t>
   </si>
   <si>
     <t xml:space="preserve">10.3306350708008</t>
@@ -2759,10 +2759,10 @@
     <t xml:space="preserve">10.1903209686279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5937242507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1374425888062</t>
+    <t xml:space="preserve">10.5937252044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1374416351318</t>
   </si>
   <si>
     <t xml:space="preserve">11.0497465133667</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">10.2707347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6336584091187</t>
+    <t xml:space="preserve">10.633659362793</t>
   </si>
   <si>
     <t xml:space="preserve">10.6699514389038</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">10.8332662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4159049987793</t>
+    <t xml:space="preserve">10.415904045105</t>
   </si>
   <si>
     <t xml:space="preserve">10.6518049240112</t>
@@ -2816,10 +2816,10 @@
     <t xml:space="preserve">11.7950134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6861362457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8131608963013</t>
+    <t xml:space="preserve">11.6861371994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.813159942627</t>
   </si>
   <si>
     <t xml:space="preserve">11.7224292755127</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">11.5954055786133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6135530471802</t>
+    <t xml:space="preserve">11.6135520935059</t>
   </si>
   <si>
     <t xml:space="preserve">10.5973663330078</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">11.0147285461426</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0328750610352</t>
+    <t xml:space="preserve">11.0328741073608</t>
   </si>
   <si>
     <t xml:space="preserve">11.3232126235962</t>
@@ -2900,25 +2900,25 @@
     <t xml:space="preserve">11.2869205474854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0873136520386</t>
+    <t xml:space="preserve">11.0873126983643</t>
   </si>
   <si>
     <t xml:space="preserve">10.6880970001221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3070278167725</t>
+    <t xml:space="preserve">10.3070268630981</t>
   </si>
   <si>
     <t xml:space="preserve">10.1618576049805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90781116485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0529813766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.180004119873</t>
+    <t xml:space="preserve">9.90781211853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0529804229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1800050735474</t>
   </si>
   <si>
     <t xml:space="preserve">10.3614664077759</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">10.4703435897827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4521970748901</t>
+    <t xml:space="preserve">10.4521980285645</t>
   </si>
   <si>
     <t xml:space="preserve">10.0348358154297</t>
@@ -2936,28 +2936,28 @@
     <t xml:space="preserve">9.92595767974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7444953918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85337257385254</t>
+    <t xml:space="preserve">9.74449634552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85337352752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.78078842163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99854373931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59932613372803</t>
+    <t xml:space="preserve">9.99854278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59932708740234</t>
   </si>
   <si>
     <t xml:space="preserve">10.0892734527588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1074190139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1255655288696</t>
+    <t xml:space="preserve">10.1074199676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1255664825439</t>
   </si>
   <si>
     <t xml:space="preserve">10.1981506347656</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">10.3796119689941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9239978790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1961908340454</t>
+    <t xml:space="preserve">10.923996925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1961898803711</t>
   </si>
   <si>
     <t xml:space="preserve">11.4683828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1034984588623</t>
+    <t xml:space="preserve">12.1034994125366</t>
   </si>
   <si>
     <t xml:space="preserve">11.9038906097412</t>
@@ -2993,25 +2993,25 @@
     <t xml:space="preserve">11.4320907592773</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4139432907104</t>
+    <t xml:space="preserve">11.4139442443848</t>
   </si>
   <si>
     <t xml:space="preserve">12.012767791748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.085352897644</t>
+    <t xml:space="preserve">12.0853519439697</t>
   </si>
   <si>
     <t xml:space="preserve">12.7567615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1741237640381</t>
+    <t xml:space="preserve">13.1741228103638</t>
   </si>
   <si>
     <t xml:space="preserve">13.2104158401489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9926605224609</t>
+    <t xml:space="preserve">12.9926614761353</t>
   </si>
   <si>
     <t xml:space="preserve">12.7386150360107</t>
@@ -3020,13 +3020,13 @@
     <t xml:space="preserve">12.4119834899902</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3756914138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478834152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6115922927856</t>
+    <t xml:space="preserve">12.3756923675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478843688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6115913391113</t>
   </si>
   <si>
     <t xml:space="preserve">12.684175491333</t>
@@ -3038,22 +3038,22 @@
     <t xml:space="preserve">12.4845685958862</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9200773239136</t>
+    <t xml:space="preserve">12.9200763702393</t>
   </si>
   <si>
     <t xml:space="preserve">13.0652456283569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1378297805786</t>
+    <t xml:space="preserve">13.1378307342529</t>
   </si>
   <si>
     <t xml:space="preserve">13.1015377044678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0108079910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2285623550415</t>
+    <t xml:space="preserve">13.0108070373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2285614013672</t>
   </si>
   <si>
     <t xml:space="preserve">13.1922693252563</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">12.8656387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8474922180176</t>
+    <t xml:space="preserve">12.8474912643433</t>
   </si>
   <si>
     <t xml:space="preserve">12.7930536270142</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">13.645923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8092403411865</t>
+    <t xml:space="preserve">13.8092393875122</t>
   </si>
   <si>
     <t xml:space="preserve">13.8455324172974</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">13.9362621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4443550109863</t>
+    <t xml:space="preserve">14.4443559646606</t>
   </si>
   <si>
     <t xml:space="preserve">14.0995779037476</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">14.3717708587646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3173322677612</t>
+    <t xml:space="preserve">14.3173313140869</t>
   </si>
   <si>
     <t xml:space="preserve">14.3354787826538</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">14.226601600647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1540174484253</t>
+    <t xml:space="preserve">14.154016494751</t>
   </si>
   <si>
     <t xml:space="preserve">14.2810401916504</t>
@@ -3134,13 +3134,13 @@
     <t xml:space="preserve">14.3899164199829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8798627853394</t>
+    <t xml:space="preserve">14.8798637390137</t>
   </si>
   <si>
     <t xml:space="preserve">14.4625015258789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4806480407715</t>
+    <t xml:space="preserve">14.4806470870972</t>
   </si>
   <si>
     <t xml:space="preserve">14.4987936019897</t>
@@ -3149,16 +3149,16 @@
     <t xml:space="preserve">14.662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4423952102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5694179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4786882400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6420030593872</t>
+    <t xml:space="preserve">15.4423942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5694189071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.478687286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6420021057129</t>
   </si>
   <si>
     <t xml:space="preserve">15.5149803161621</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">15.8597564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9141960144043</t>
+    <t xml:space="preserve">15.9141969680786</t>
   </si>
   <si>
     <t xml:space="preserve">16.2589721679688</t>
@@ -3185,22 +3185,22 @@
     <t xml:space="preserve">16.1138038635254</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0412178039551</t>
+    <t xml:space="preserve">16.0412197113037</t>
   </si>
   <si>
     <t xml:space="preserve">16.0775108337402</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8234643936157</t>
+    <t xml:space="preserve">15.82346534729</t>
   </si>
   <si>
     <t xml:space="preserve">15.769024848938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2427864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2064952850342</t>
+    <t xml:space="preserve">15.242787361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2064943313599</t>
   </si>
   <si>
     <t xml:space="preserve">15.8053188323975</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">15.9686336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9867811203003</t>
+    <t xml:space="preserve">15.986780166626</t>
   </si>
   <si>
     <t xml:space="preserve">15.841609954834</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">16.131950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2952651977539</t>
+    <t xml:space="preserve">16.2952632904053</t>
   </si>
   <si>
     <t xml:space="preserve">16.8033580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8396511077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0574054718018</t>
+    <t xml:space="preserve">16.8396492004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0574035644531</t>
   </si>
   <si>
     <t xml:space="preserve">16.7489185333252</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">15.2790794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1157646179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.097617149353</t>
+    <t xml:space="preserve">15.1157627105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0976161956787</t>
   </si>
   <si>
     <t xml:space="preserve">15.333517074585</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">15.460542678833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.533127784729</t>
+    <t xml:space="preserve">15.5331258773804</t>
   </si>
   <si>
     <t xml:space="preserve">15.406102180481</t>
@@ -3753,6 +3753,9 @@
   </si>
   <si>
     <t xml:space="preserve">11.6000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1199998855591</t>
   </si>
 </sst>
 </file>
@@ -60098,7 +60101,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6496296296</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>60292</v>
@@ -60119,6 +60122,32 @@
         <v>1246</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6493865741</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>130729</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>12.1800003051758</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>11.6400003433228</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>11.6800003051758</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>12.1199998855591</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -44,79 +44,79 @@
     <t xml:space="preserve">ZV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25228023529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16279649734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04467725753784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9945662021637</t>
+    <t xml:space="preserve">4.25227928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1627950668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04467678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99456644058228</t>
   </si>
   <si>
     <t xml:space="preserve">3.91939926147461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96951079368591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95519304275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01604223251343</t>
+    <t xml:space="preserve">3.96951055526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95519375801086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01604270935059</t>
   </si>
   <si>
     <t xml:space="preserve">3.98382806777954</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89434385299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87286782264709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76548719406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85855007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729615211487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91224122047424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86570882797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90150237083435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95877265930176</t>
+    <t xml:space="preserve">3.89434480667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87286806106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76548671722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85855031013489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729591369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91224074363708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86570906639099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90150284767151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9587721824646</t>
   </si>
   <si>
     <t xml:space="preserve">3.80128026008606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79412174224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78696250915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69389986991882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65810656547546</t>
+    <t xml:space="preserve">3.79412150382996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78696298599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69389963150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65810680389404</t>
   </si>
   <si>
     <t xml:space="preserve">3.71537613868713</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57936000823975</t>
+    <t xml:space="preserve">3.57935976982117</t>
   </si>
   <si>
     <t xml:space="preserve">3.60083603858948</t>
@@ -125,43 +125,43 @@
     <t xml:space="preserve">3.70821690559387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7583281993866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76906657218933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81559801101685</t>
+    <t xml:space="preserve">3.75832796096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76906609535217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81559777259827</t>
   </si>
   <si>
     <t xml:space="preserve">3.77980446815491</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74758958816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72611355781555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70105886459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76190781593323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78338384628296</t>
+    <t xml:space="preserve">3.74758982658386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72611331939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70105934143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76190829277039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78338408470154</t>
   </si>
   <si>
     <t xml:space="preserve">3.80485987663269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74401092529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77264523506165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85139203071594</t>
+    <t xml:space="preserve">3.74401044845581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7726457118988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85139226913452</t>
   </si>
   <si>
     <t xml:space="preserve">4.00172472000122</t>
@@ -173,271 +173,271 @@
     <t xml:space="preserve">4.08404970169067</t>
   </si>
   <si>
+    <t xml:space="preserve">4.06973171234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15205764770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15921688079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13774061203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12342309951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11626434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14489936828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13058090209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1950101852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0983681678772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07689142227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16637516021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11984300613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16995525360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18069314956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1878514289856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13416147232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19858884811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14131927490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09120845794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10706996917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09213447570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07720041275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05479717254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08093357086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0958685874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11453723907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12200450897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11080265045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16680860519409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17800951004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1854772567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24148273468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25268411636353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31989002227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28628730773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26761865615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21908044815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23401498794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20041179656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19667816162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01746129989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99505853652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96892285346985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96145510673523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1257381439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14440679550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17427635192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26388549804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97265696525574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02492761611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04733037948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08840084075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03986310958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0211935043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05853176116943</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.06973218917847</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15205764770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15921688079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13774061203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12342262268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11626434326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14489889144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13058185577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19500970840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09836721420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07689142227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16637516021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11984395980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1699538230896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18069267272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1878514289856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1341609954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19858932495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1413197517395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09120798110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10706901550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09213447570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07720041275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05479764938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08093404769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0958685874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11453676223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12200450897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11080265045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16680908203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17800903320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1854772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24148273468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25268411636353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31989002227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28628730773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26761817932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21908044815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23401546478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20041179656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19667816162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01746129989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99505877494812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96892261505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96145486831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1257381439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14440727233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17427587509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26388502120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97265672683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02492809295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04732990264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08840084075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03986263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02119445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05853176116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06973266601562</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.032395362854</t>
   </si>
   <si>
     <t xml:space="preserve">4.08466720581055</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11826992034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15934085845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12947130203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13693857192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2041449546814</t>
+    <t xml:space="preserve">4.11827039718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15934133529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12947177886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13693904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20414590835571</t>
   </si>
   <si>
     <t xml:space="preserve">4.22654724121094</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24895000457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18174266815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06226539611816</t>
+    <t xml:space="preserve">4.24895048141479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18174314498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06226587295532</t>
   </si>
   <si>
     <t xml:space="preserve">4.02866220474243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98385691642761</t>
+    <t xml:space="preserve">3.98385763168335</t>
   </si>
   <si>
     <t xml:space="preserve">3.98012328147888</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97638940811157</t>
+    <t xml:space="preserve">3.97638916969299</t>
   </si>
   <si>
     <t xml:space="preserve">3.95772123336792</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9353187084198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9875910282135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00252628326416</t>
+    <t xml:space="preserve">3.93531942367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98759150505066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.002525806427</t>
   </si>
   <si>
     <t xml:space="preserve">4.03612899780273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93905282020569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95025372505188</t>
+    <t xml:space="preserve">3.93905305862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95025420188904</t>
   </si>
   <si>
     <t xml:space="preserve">3.94278693199158</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94652056694031</t>
+    <t xml:space="preserve">3.94652032852173</t>
   </si>
   <si>
     <t xml:space="preserve">3.86064577102661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84571075439453</t>
+    <t xml:space="preserve">3.84571051597595</t>
   </si>
   <si>
     <t xml:space="preserve">3.86811256408691</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82330799102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81584119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077597618103</t>
+    <t xml:space="preserve">3.82330775260925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81584143638611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077526092529</t>
   </si>
   <si>
     <t xml:space="preserve">3.81957387924194</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85317802429199</t>
+    <t xml:space="preserve">3.85317778587341</t>
   </si>
   <si>
     <t xml:space="preserve">3.95398759841919</t>
@@ -446,13 +446,13 @@
     <t xml:space="preserve">4.14067268371582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21161365509033</t>
+    <t xml:space="preserve">4.21161317825317</t>
   </si>
   <si>
     <t xml:space="preserve">4.22281408309937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09960222244263</t>
+    <t xml:space="preserve">4.09960174560547</t>
   </si>
   <si>
     <t xml:space="preserve">4.10333585739136</t>
@@ -467,28 +467,28 @@
     <t xml:space="preserve">4.00625944137573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06599903106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92038440704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07346677780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26015090942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27135229110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3161563873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33109092712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28255319595337</t>
+    <t xml:space="preserve">4.06599855422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92038416862488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07346630096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26015138626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27135181427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31615686416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33109140396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28255367279053</t>
   </si>
   <si>
     <t xml:space="preserve">4.27881956100464</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">4.32362365722656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34229278564453</t>
+    <t xml:space="preserve">4.34229230880737</t>
   </si>
   <si>
     <t xml:space="preserve">4.3086895942688</t>
@@ -506,19 +506,19 @@
     <t xml:space="preserve">4.30495548248291</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27508592605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29375505447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33855867385864</t>
+    <t xml:space="preserve">4.27508640289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29375457763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3385591506958</t>
   </si>
   <si>
     <t xml:space="preserve">4.33482503890991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36842823028564</t>
+    <t xml:space="preserve">4.3684287071228</t>
   </si>
   <si>
     <t xml:space="preserve">4.36096096038818</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">4.40576505661011</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42070055007935</t>
+    <t xml:space="preserve">4.42070007324219</t>
   </si>
   <si>
     <t xml:space="preserve">4.39456462860107</t>
@@ -536,46 +536,46 @@
     <t xml:space="preserve">4.48043918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45430374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51777648925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5924506187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61485242843628</t>
+    <t xml:space="preserve">4.45430326461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51777744293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59245014190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61485195159912</t>
   </si>
   <si>
     <t xml:space="preserve">4.5999174118042</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55511283874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54764556884766</t>
+    <t xml:space="preserve">4.55511331558228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54764604568481</t>
   </si>
   <si>
     <t xml:space="preserve">4.6297869682312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76420068740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.995689868927</t>
+    <t xml:space="preserve">4.76420116424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99569034576416</t>
   </si>
   <si>
     <t xml:space="preserve">5.18984222412109</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22717905044556</t>
+    <t xml:space="preserve">5.22717952728271</t>
   </si>
   <si>
     <t xml:space="preserve">5.48853826522827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51840734481812</t>
+    <t xml:space="preserve">5.51840829849243</t>
   </si>
   <si>
     <t xml:space="preserve">5.52587509155273</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">5.522141456604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3802604675293</t>
+    <t xml:space="preserve">5.38026142120361</t>
   </si>
   <si>
     <t xml:space="preserve">5.36159229278564</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">5.40639638900757</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39519548416138</t>
+    <t xml:space="preserve">5.39519500732422</t>
   </si>
   <si>
     <t xml:space="preserve">5.44373416900635</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">5.45120143890381</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46613645553589</t>
+    <t xml:space="preserve">5.46613597869873</t>
   </si>
   <si>
     <t xml:space="preserve">5.48480463027954</t>
@@ -617,28 +617,28 @@
     <t xml:space="preserve">5.42133188247681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5445442199707</t>
+    <t xml:space="preserve">5.54454469680786</t>
   </si>
   <si>
     <t xml:space="preserve">5.56694602966309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91418027877808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82457113265991</t>
+    <t xml:space="preserve">5.91417980194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82457160949707</t>
   </si>
   <si>
     <t xml:space="preserve">5.66028833389282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78723382949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67522287368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74989748001099</t>
+    <t xml:space="preserve">5.78723430633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6752233505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74989700317383</t>
   </si>
   <si>
     <t xml:space="preserve">5.84323930740356</t>
@@ -650,13 +650,13 @@
     <t xml:space="preserve">5.97209453582764</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01067447662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9412317276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93737316131592</t>
+    <t xml:space="preserve">6.01067399978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94123077392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93737363815308</t>
   </si>
   <si>
     <t xml:space="preserve">5.91422557830811</t>
@@ -668,22 +668,22 @@
     <t xml:space="preserve">5.72518682479858</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86793088912964</t>
+    <t xml:space="preserve">5.86793041229248</t>
   </si>
   <si>
     <t xml:space="preserve">5.87564611434937</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81006145477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77148103713989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87178897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76376485824585</t>
+    <t xml:space="preserve">5.81006097793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77148199081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8717885017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76376533508301</t>
   </si>
   <si>
     <t xml:space="preserve">5.67117500305176</t>
@@ -698,28 +698,28 @@
     <t xml:space="preserve">5.70975494384766</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78691291809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75605058670044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.790771484375</t>
+    <t xml:space="preserve">5.78691339492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75605010986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79077100753784</t>
   </si>
   <si>
     <t xml:space="preserve">5.80620336532593</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86021423339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91808366775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71747064590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82549381256104</t>
+    <t xml:space="preserve">5.8602147102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91808414459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71747016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82549333572388</t>
   </si>
   <si>
     <t xml:space="preserve">5.86407232284546</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">5.75990772247314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93351554870605</t>
+    <t xml:space="preserve">5.9335150718689</t>
   </si>
   <si>
     <t xml:space="preserve">5.81777715682983</t>
@@ -737,58 +737,58 @@
     <t xml:space="preserve">5.6480278968811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67503309249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61330556869507</t>
+    <t xml:space="preserve">5.67503356933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61330604553223</t>
   </si>
   <si>
     <t xml:space="preserve">5.58630037307739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44741487503052</t>
+    <t xml:space="preserve">5.44741439819336</t>
   </si>
   <si>
     <t xml:space="preserve">5.41655111312866</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57086896896362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62102222442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43198299407959</t>
+    <t xml:space="preserve">5.57086849212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62102174758911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43198251724243</t>
   </si>
   <si>
     <t xml:space="preserve">5.71361255645752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69432306289673</t>
+    <t xml:space="preserve">5.69432258605957</t>
   </si>
   <si>
     <t xml:space="preserve">5.68274927139282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54000425338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77919769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7213282585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73290252685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74833393096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79462957382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65574312210083</t>
+    <t xml:space="preserve">5.54000568389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77919721603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72132873535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73290205001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7483344078064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79463005065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65574359893799</t>
   </si>
   <si>
     <t xml:space="preserve">5.79848766326904</t>
@@ -797,40 +797,40 @@
     <t xml:space="preserve">5.81391906738281</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88721990585327</t>
+    <t xml:space="preserve">5.88722038269043</t>
   </si>
   <si>
     <t xml:space="preserve">5.89493608474731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87950372695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8332085609436</t>
+    <t xml:space="preserve">5.87950420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83320808410645</t>
   </si>
   <si>
     <t xml:space="preserve">5.85249853134155</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97595262527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90265130996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89107799530029</t>
+    <t xml:space="preserve">5.97595310211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9026517868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89107751846313</t>
   </si>
   <si>
     <t xml:space="preserve">5.82163524627686</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84478187561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92194128036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90650987625122</t>
+    <t xml:space="preserve">5.84478282928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92194223403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90650939941406</t>
   </si>
   <si>
     <t xml:space="preserve">6.08397531509399</t>
@@ -839,46 +839,46 @@
     <t xml:space="preserve">6.12255477905273</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26529884338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28073120117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33860015869141</t>
+    <t xml:space="preserve">6.26529836654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28073072433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33859968185425</t>
   </si>
   <si>
     <t xml:space="preserve">6.27301406860352</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32702541351318</t>
+    <t xml:space="preserve">6.32702493667603</t>
   </si>
   <si>
     <t xml:space="preserve">6.16113376617432</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21900320053101</t>
+    <t xml:space="preserve">6.21900367736816</t>
   </si>
   <si>
     <t xml:space="preserve">6.1649923324585</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29616165161133</t>
+    <t xml:space="preserve">6.29616212844849</t>
   </si>
   <si>
     <t xml:space="preserve">6.0955491065979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.246009349823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16884994506836</t>
+    <t xml:space="preserve">6.24600887298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16885042190552</t>
   </si>
   <si>
     <t xml:space="preserve">6.17270803451538</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20357131958008</t>
+    <t xml:space="preserve">6.20357036590576</t>
   </si>
   <si>
     <t xml:space="preserve">6.11098051071167</t>
@@ -887,22 +887,22 @@
     <t xml:space="preserve">6.18428182601929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0261058807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15727567672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19585466384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08011722564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05311155319214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00681638717651</t>
+    <t xml:space="preserve">6.02610635757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15727615356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19585514068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08011674880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05311107635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00681591033936</t>
   </si>
   <si>
     <t xml:space="preserve">5.98752689361572</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">6.10712289810181</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06082773208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92579889297485</t>
+    <t xml:space="preserve">6.06082725524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92579984664917</t>
   </si>
   <si>
     <t xml:space="preserve">5.94894695281982</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">5.84864044189453</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08783292770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9450888633728</t>
+    <t xml:space="preserve">6.0878324508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94508934020996</t>
   </si>
   <si>
     <t xml:space="preserve">6.00295829772949</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">6.14955997467041</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23829317092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26144075393677</t>
+    <t xml:space="preserve">6.2382926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26144027709961</t>
   </si>
   <si>
     <t xml:space="preserve">6.25758218765259</t>
@@ -977,25 +977,25 @@
     <t xml:space="preserve">6.40418481826782</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35017251968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43504810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58164930343628</t>
+    <t xml:space="preserve">6.350172996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43504858016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58164978027344</t>
   </si>
   <si>
     <t xml:space="preserve">6.53535461425781</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37332057952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38103675842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38875198364258</t>
+    <t xml:space="preserve">6.37332105636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38103723526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38875246047974</t>
   </si>
   <si>
     <t xml:space="preserve">6.60479736328125</t>
@@ -1010,28 +1010,28 @@
     <t xml:space="preserve">6.47362756729126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12641286849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04925394058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30387783050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34245681762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22671794891357</t>
+    <t xml:space="preserve">6.1264123916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04925489425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30387830734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34245729446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22671842575073</t>
   </si>
   <si>
     <t xml:space="preserve">6.18042373657227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31159353256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33474159240723</t>
+    <t xml:space="preserve">6.31159400939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33474111557007</t>
   </si>
   <si>
     <t xml:space="preserve">6.46591138839722</t>
@@ -1043,55 +1043,55 @@
     <t xml:space="preserve">6.45047903060913</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31930923461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23443460464478</t>
+    <t xml:space="preserve">6.31930875778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23443508148193</t>
   </si>
   <si>
     <t xml:space="preserve">6.49677515029907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44276428222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39646911621094</t>
+    <t xml:space="preserve">6.4427638053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39646863937378</t>
   </si>
   <si>
     <t xml:space="preserve">6.41961574554443</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42733192443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52763843536377</t>
+    <t xml:space="preserve">6.42733144760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52763891220093</t>
   </si>
   <si>
     <t xml:space="preserve">6.51992225646973</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59708118438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63566207885742</t>
+    <t xml:space="preserve">6.59708166122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566112518311</t>
   </si>
   <si>
     <t xml:space="preserve">6.74785804748535</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67573118209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58757591247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63566017150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50743579864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62764692306519</t>
+    <t xml:space="preserve">6.67573022842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58757638931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566064834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50743532180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62764739990234</t>
   </si>
   <si>
     <t xml:space="preserve">6.61963272094727</t>
@@ -1100,13 +1100,13 @@
     <t xml:space="preserve">6.56353330612183</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53147745132446</t>
+    <t xml:space="preserve">6.5314769744873</t>
   </si>
   <si>
     <t xml:space="preserve">6.49942111968994</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37119579315186</t>
+    <t xml:space="preserve">6.3711953163147</t>
   </si>
   <si>
     <t xml:space="preserve">6.39523792266846</t>
@@ -1118,22 +1118,22 @@
     <t xml:space="preserve">6.57956218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60360383987427</t>
+    <t xml:space="preserve">6.60360431671143</t>
   </si>
   <si>
     <t xml:space="preserve">6.65168905258179</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73182916641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53949117660522</t>
+    <t xml:space="preserve">6.73182964324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53949165344238</t>
   </si>
   <si>
     <t xml:space="preserve">6.51544904708862</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55551958084106</t>
+    <t xml:space="preserve">6.55552005767822</t>
   </si>
   <si>
     <t xml:space="preserve">6.35516786575317</t>
@@ -1148,40 +1148,40 @@
     <t xml:space="preserve">6.32311105728149</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46736431121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48339319229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45935106277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43530797958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29906845092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42729520797729</t>
+    <t xml:space="preserve">6.46736478805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48339366912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45935201644897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4353084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29906892776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42729473114014</t>
   </si>
   <si>
     <t xml:space="preserve">6.49140739440918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45133686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40325212478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33913993835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29105567932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27502632141113</t>
+    <t xml:space="preserve">6.4513373374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40325260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33913946151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29105520248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27502727508545</t>
   </si>
   <si>
     <t xml:space="preserve">6.4112663269043</t>
@@ -1190,19 +1190,19 @@
     <t xml:space="preserve">6.25098466873169</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28304100036621</t>
+    <t xml:space="preserve">6.28304195404053</t>
   </si>
   <si>
     <t xml:space="preserve">6.21091413497925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37920999526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36318206787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33112573623657</t>
+    <t xml:space="preserve">6.37921047210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36318159103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33112621307373</t>
   </si>
   <si>
     <t xml:space="preserve">6.19488620758057</t>
@@ -1214,31 +1214,31 @@
     <t xml:space="preserve">6.59559011459351</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84402656555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01232290267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82799911499023</t>
+    <t xml:space="preserve">6.84402704238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01232242584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82799959182739</t>
   </si>
   <si>
     <t xml:space="preserve">6.94820976257324</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93218040466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98026657104492</t>
+    <t xml:space="preserve">6.9321813583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98026609420776</t>
   </si>
   <si>
     <t xml:space="preserve">6.92416858673096</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02835083007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90813875198364</t>
+    <t xml:space="preserve">7.02835130691528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90813970565796</t>
   </si>
   <si>
     <t xml:space="preserve">6.85204076766968</t>
@@ -1247,37 +1247,37 @@
     <t xml:space="preserve">6.98828029632568</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04437923431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97225189208984</t>
+    <t xml:space="preserve">7.04437828063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.972252368927</t>
   </si>
   <si>
     <t xml:space="preserve">6.69977283477783</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75587177276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77991390228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78792858123779</t>
+    <t xml:space="preserve">6.75587224960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77991437911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78792810440063</t>
   </si>
   <si>
     <t xml:space="preserve">6.90012550354004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96423768997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91615390777588</t>
+    <t xml:space="preserve">6.96423721313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91615343093872</t>
   </si>
   <si>
     <t xml:space="preserve">6.94019556045532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81197071075439</t>
+    <t xml:space="preserve">6.81197023391724</t>
   </si>
   <si>
     <t xml:space="preserve">6.70778703689575</t>
@@ -1295,19 +1295,19 @@
     <t xml:space="preserve">6.64367485046387</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06842088699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05239343643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12451982498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253402709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99629402160645</t>
+    <t xml:space="preserve">7.06842184066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05239295959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12452030181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253307342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99629354476929</t>
   </si>
   <si>
     <t xml:space="preserve">6.73984384536743</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">6.836012840271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8840970993042</t>
+    <t xml:space="preserve">6.88409757614136</t>
   </si>
   <si>
     <t xml:space="preserve">6.66771650314331</t>
@@ -1331,34 +1331,34 @@
     <t xml:space="preserve">6.5475058555603</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76388597488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10047721862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14054775238037</t>
+    <t xml:space="preserve">6.76388549804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10047674179077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14054727554321</t>
   </si>
   <si>
     <t xml:space="preserve">7.18863248825073</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17260313034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11650562286377</t>
+    <t xml:space="preserve">7.17260503768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11650609970093</t>
   </si>
   <si>
     <t xml:space="preserve">7.23671627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25274515151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19664669036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22870445251465</t>
+    <t xml:space="preserve">7.25274467468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19664573669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22870254516602</t>
   </si>
   <si>
     <t xml:space="preserve">7.20465993881226</t>
@@ -1370,85 +1370,85 @@
     <t xml:space="preserve">7.38898420333862</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28480195999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33288621902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45309638977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50919532775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55728054046631</t>
+    <t xml:space="preserve">7.28480100631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33288526535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45309734344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50919580459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55728101730347</t>
   </si>
   <si>
     <t xml:space="preserve">7.51721000671387</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41302585601807</t>
+    <t xml:space="preserve">7.41302680969238</t>
   </si>
   <si>
     <t xml:space="preserve">7.48515367507935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44508171081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49316835403442</t>
+    <t xml:space="preserve">7.44508266448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49316740036011</t>
   </si>
   <si>
     <t xml:space="preserve">7.81373071670532</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77365970611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7576322555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5252251625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54125165939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53323793411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66146373748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63742113113403</t>
+    <t xml:space="preserve">7.77366018295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75763273239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52522373199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54125070571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53323745727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66146421432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63742017745972</t>
   </si>
   <si>
     <t xml:space="preserve">7.61337852478027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60536336898804</t>
+    <t xml:space="preserve">7.60536527633667</t>
   </si>
   <si>
     <t xml:space="preserve">7.57330846786499</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7977032661438</t>
+    <t xml:space="preserve">7.79770278930664</t>
   </si>
   <si>
     <t xml:space="preserve">7.85380172729492</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91791296005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96599817276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97401189804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19039344787598</t>
+    <t xml:space="preserve">7.91791439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96599769592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97401237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19039249420166</t>
   </si>
   <si>
     <t xml:space="preserve">8.23847675323486</t>
@@ -1463,46 +1463,46 @@
     <t xml:space="preserve">8.00606822967529</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87784290313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94195699691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03011131286621</t>
+    <t xml:space="preserve">7.87784242630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94195652008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03011226654053</t>
   </si>
   <si>
     <t xml:space="preserve">7.93394184112549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99004125595093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01408290863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98202705383301</t>
+    <t xml:space="preserve">7.99003982543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01408386230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98202657699585</t>
   </si>
   <si>
     <t xml:space="preserve">7.90188598632812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89387273788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86982774734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14230823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35067462921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3346471786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71932220458984</t>
+    <t xml:space="preserve">7.89387178421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86982917785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14230728149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35067367553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33464527130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71932315826416</t>
   </si>
   <si>
     <t xml:space="preserve">9.1039981842041</t>
@@ -1514,10 +1514,10 @@
     <t xml:space="preserve">8.63918113708496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89563369750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5783224105835</t>
+    <t xml:space="preserve">8.89563274383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57832050323486</t>
   </si>
   <si>
     <t xml:space="preserve">8.54520130157471</t>
@@ -1526,25 +1526,25 @@
     <t xml:space="preserve">8.37959575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49551963806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41271686553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7273645401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47895812988281</t>
+    <t xml:space="preserve">8.49552059173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41271591186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72736549377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47895908355713</t>
   </si>
   <si>
     <t xml:space="preserve">8.3133544921875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1725902557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28023433685303</t>
+    <t xml:space="preserve">8.17259120941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28023338317871</t>
   </si>
   <si>
     <t xml:space="preserve">8.26367282867432</t>
@@ -1553,10 +1553,10 @@
     <t xml:space="preserve">8.36303520202637</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42927837371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52864170074463</t>
+    <t xml:space="preserve">8.42927742004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52864074707031</t>
   </si>
   <si>
     <t xml:space="preserve">8.5120792388916</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">8.29679489135742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87641048431396</t>
+    <t xml:space="preserve">8.87640953063965</t>
   </si>
   <si>
     <t xml:space="preserve">8.94265174865723</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">9.10825634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77704811096191</t>
+    <t xml:space="preserve">8.7770471572876</t>
   </si>
   <si>
     <t xml:space="preserve">8.62800312042236</t>
@@ -1583,37 +1583,37 @@
     <t xml:space="preserve">8.8101692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67768478393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74392700195312</t>
+    <t xml:space="preserve">8.67768383026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74392795562744</t>
   </si>
   <si>
     <t xml:space="preserve">8.84328937530518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61144161224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456367492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59488201141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69424533843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90953254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44583797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66112422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19743061065674</t>
+    <t xml:space="preserve">8.61144256591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64456462860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59488296508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69424629211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90953159332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44583892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66112518310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19743156433105</t>
   </si>
   <si>
     <t xml:space="preserve">8.34647560119629</t>
@@ -1622,19 +1622,19 @@
     <t xml:space="preserve">8.27195262908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32991600036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25539302825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11462879180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23883247375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89297103881836</t>
+    <t xml:space="preserve">8.32991504669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25539207458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1146297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23883152008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89297008514404</t>
   </si>
   <si>
     <t xml:space="preserve">8.24711227416992</t>
@@ -1643,34 +1643,34 @@
     <t xml:space="preserve">8.12290954589844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18087196350098</t>
+    <t xml:space="preserve">8.18087100982666</t>
   </si>
   <si>
     <t xml:space="preserve">8.46239852905273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39615631103516</t>
+    <t xml:space="preserve">8.39615726470947</t>
   </si>
   <si>
     <t xml:space="preserve">8.18915176391602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15602970123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5617618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32354354858398</t>
+    <t xml:space="preserve">8.15603065490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56176090240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32354259490967</t>
   </si>
   <si>
     <t xml:space="preserve">9.90316009521484</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1515674591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0190830230713</t>
+    <t xml:space="preserve">10.1515665054321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.019082069397</t>
   </si>
   <si>
     <t xml:space="preserve">10.3502922058105</t>
@@ -1682,28 +1682,28 @@
     <t xml:space="preserve">10.4330949783325</t>
   </si>
   <si>
-    <t xml:space="preserve">10.565577507019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.731183052063</t>
+    <t xml:space="preserve">10.5655784606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7311820983887</t>
   </si>
   <si>
     <t xml:space="preserve">11.095513343811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9630289077759</t>
+    <t xml:space="preserve">10.9630279541016</t>
   </si>
   <si>
     <t xml:space="preserve">11.1451940536499</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7974243164062</t>
+    <t xml:space="preserve">10.7974252700806</t>
   </si>
   <si>
     <t xml:space="preserve">10.7477426528931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5158958435059</t>
+    <t xml:space="preserve">10.5158967971802</t>
   </si>
   <si>
     <t xml:space="preserve">10.4662160873413</t>
@@ -1715,25 +1715,25 @@
     <t xml:space="preserve">10.4827756881714</t>
   </si>
   <si>
-    <t xml:space="preserve">10.284049987793</t>
+    <t xml:space="preserve">10.2840490341187</t>
   </si>
   <si>
     <t xml:space="preserve">10.3171710968018</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1184463500977</t>
+    <t xml:space="preserve">10.1184453964233</t>
   </si>
   <si>
     <t xml:space="preserve">10.5324573516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5986995697021</t>
+    <t xml:space="preserve">10.5986986160278</t>
   </si>
   <si>
     <t xml:space="preserve">11.0789518356323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8305444717407</t>
+    <t xml:space="preserve">10.830545425415</t>
   </si>
   <si>
     <t xml:space="preserve">10.5821380615234</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">10.6980609893799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9464683532715</t>
+    <t xml:space="preserve">10.9464693069458</t>
   </si>
   <si>
     <t xml:space="preserve">10.8802270889282</t>
@@ -1760,25 +1760,25 @@
     <t xml:space="preserve">11.2611179351807</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2114362716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1948757171631</t>
+    <t xml:space="preserve">11.2114372253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1948766708374</t>
   </si>
   <si>
     <t xml:space="preserve">11.1783151626587</t>
   </si>
   <si>
-    <t xml:space="preserve">11.244556427002</t>
+    <t xml:space="preserve">11.2445573806763</t>
   </si>
   <si>
     <t xml:space="preserve">11.3604803085327</t>
   </si>
   <si>
-    <t xml:space="preserve">11.60888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5757656097412</t>
+    <t xml:space="preserve">11.6088876724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5757665634155</t>
   </si>
   <si>
     <t xml:space="preserve">11.7579317092896</t>
@@ -1790,52 +1790,52 @@
     <t xml:space="preserve">11.873854637146</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7910537719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7248115539551</t>
+    <t xml:space="preserve">11.7910528182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7248106002808</t>
   </si>
   <si>
     <t xml:space="preserve">11.8076133728027</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7413711547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7082500457764</t>
+    <t xml:space="preserve">11.7413721084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7082509994507</t>
   </si>
   <si>
     <t xml:space="preserve">11.5923271179199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4101619720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6318206787109</t>
+    <t xml:space="preserve">11.4101610183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6318197250366</t>
   </si>
   <si>
     <t xml:space="preserve">10.6649398803711</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2343683242798</t>
+    <t xml:space="preserve">10.2343664169312</t>
   </si>
   <si>
     <t xml:space="preserve">9.82035636901855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0853233337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48914813995361</t>
+    <t xml:space="preserve">10.0853242874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4891471862793</t>
   </si>
   <si>
     <t xml:space="preserve">9.0254545211792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73373746871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93246412277222</t>
+    <t xml:space="preserve">7.7337384223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93246364593506</t>
   </si>
   <si>
     <t xml:space="preserve">7.96558475494385</t>
@@ -1844,37 +1844,37 @@
     <t xml:space="preserve">7.91590404510498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15793991088867</t>
+    <t xml:space="preserve">9.15793895721436</t>
   </si>
   <si>
     <t xml:space="preserve">8.92609119415283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85984897613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0088939666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5222692489624</t>
+    <t xml:space="preserve">8.85984992980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00889492034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52226829528809</t>
   </si>
   <si>
     <t xml:space="preserve">9.9859619140625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62163162231445</t>
+    <t xml:space="preserve">9.62163066864014</t>
   </si>
   <si>
     <t xml:space="preserve">9.43946647644043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91971874237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38978481292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37322521209717</t>
+    <t xml:space="preserve">9.91971969604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38978576660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37322425842285</t>
   </si>
   <si>
     <t xml:space="preserve">9.63819217681885</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">9.40634536743164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57194900512695</t>
+    <t xml:space="preserve">9.57194995880127</t>
   </si>
   <si>
     <t xml:space="preserve">9.55538940429688</t>
@@ -1898,16 +1898,16 @@
     <t xml:space="preserve">9.73755550384521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4725866317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82956409454346</t>
+    <t xml:space="preserve">9.47258567810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82956314086914</t>
   </si>
   <si>
     <t xml:space="preserve">9.64053440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52024269104004</t>
+    <t xml:space="preserve">9.52024173736572</t>
   </si>
   <si>
     <t xml:space="preserve">9.17655181884766</t>
@@ -1916,13 +1916,13 @@
     <t xml:space="preserve">8.98752117156982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19373512268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70927143096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43431854248047</t>
+    <t xml:space="preserve">9.19373607635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70927238464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43431949615479</t>
   </si>
   <si>
     <t xml:space="preserve">9.26247406005859</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">10.0185947418213</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1560716629028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434524536133</t>
+    <t xml:space="preserve">10.1560707092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434534072876</t>
   </si>
   <si>
     <t xml:space="preserve">10.6372385025024</t>
@@ -1952,16 +1952,16 @@
     <t xml:space="preserve">10.8950071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7575311660767</t>
+    <t xml:space="preserve">10.7575302124023</t>
   </si>
   <si>
     <t xml:space="preserve">10.7918996810913</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8606386184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8090839385986</t>
+    <t xml:space="preserve">10.8606376647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8090829849243</t>
   </si>
   <si>
     <t xml:space="preserve">10.5169458389282</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">10.4482078552246</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2419939041138</t>
+    <t xml:space="preserve">10.2419929504395</t>
   </si>
   <si>
     <t xml:space="preserve">10.7059764862061</t>
@@ -1979,10 +1979,10 @@
     <t xml:space="preserve">10.7747144699097</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9121904373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8262691497803</t>
+    <t xml:space="preserve">10.9121913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.826268196106</t>
   </si>
   <si>
     <t xml:space="preserve">11.152774810791</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">11.4449119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4105434417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5480194091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2902517318726</t>
+    <t xml:space="preserve">11.4105424880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5480184555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2902507781982</t>
   </si>
   <si>
     <t xml:space="preserve">11.238697052002</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">11.7542343139648</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7714185714722</t>
+    <t xml:space="preserve">11.7714195251465</t>
   </si>
   <si>
     <t xml:space="preserve">11.926079750061</t>
@@ -2030,34 +2030,34 @@
     <t xml:space="preserve">12.2010326385498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0807409286499</t>
+    <t xml:space="preserve">12.0807418823242</t>
   </si>
   <si>
     <t xml:space="preserve">12.0979251861572</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1151103973389</t>
+    <t xml:space="preserve">12.1151094436646</t>
   </si>
   <si>
     <t xml:space="preserve">12.1322946548462</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9776334762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8401575088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8573417663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4792814254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1355905532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1184053421021</t>
+    <t xml:space="preserve">11.977632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8401565551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8573408126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4792804718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1355895996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1184062957764</t>
   </si>
   <si>
     <t xml:space="preserve">11.3074359893799</t>
@@ -2069,31 +2069,31 @@
     <t xml:space="preserve">11.2043285369873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3418045043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2215137481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3246212005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1012210845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.18714427948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0496673583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9637441635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1699590682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9981145858765</t>
+    <t xml:space="preserve">11.3418035507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2215127944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3246202468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.101222038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1871452331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0496683120728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9637451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1699600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9981136322021</t>
   </si>
   <si>
     <t xml:space="preserve">11.513650894165</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">11.6167583465576</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2730665206909</t>
+    <t xml:space="preserve">11.2730655670166</t>
   </si>
   <si>
     <t xml:space="preserve">11.3933582305908</t>
@@ -2114,19 +2114,19 @@
     <t xml:space="preserve">11.5823888778687</t>
   </si>
   <si>
-    <t xml:space="preserve">11.565203666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9088954925537</t>
+    <t xml:space="preserve">11.5652046203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9088945388794</t>
   </si>
   <si>
     <t xml:space="preserve">11.8229722976685</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2354030609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0635566711426</t>
+    <t xml:space="preserve">12.2354021072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0635557174683</t>
   </si>
   <si>
     <t xml:space="preserve">11.9432640075684</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">10.6544227600098</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0324840545654</t>
+    <t xml:space="preserve">11.0324831008911</t>
   </si>
   <si>
     <t xml:space="preserve">11.3589897155762</t>
@@ -2165,10 +2165,10 @@
     <t xml:space="preserve">12.0463714599609</t>
   </si>
   <si>
-    <t xml:space="preserve">11.96044921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8057880401611</t>
+    <t xml:space="preserve">11.9604482650757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8057870864868</t>
   </si>
   <si>
     <t xml:space="preserve">11.6339426040649</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">12.1838483810425</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4416160583496</t>
+    <t xml:space="preserve">12.4416151046753</t>
   </si>
   <si>
     <t xml:space="preserve">12.3728771209717</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">12.4072465896606</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993837356567</t>
+    <t xml:space="preserve">12.6993846893311</t>
   </si>
   <si>
     <t xml:space="preserve">13.0087070465088</t>
@@ -2195,10 +2195,10 @@
     <t xml:space="preserve">13.3008432388306</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8884143829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5447235107422</t>
+    <t xml:space="preserve">12.8884153366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5447244644165</t>
   </si>
   <si>
     <t xml:space="preserve">12.6822004318237</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">12.4759855270386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5275392532349</t>
+    <t xml:space="preserve">12.5275382995605</t>
   </si>
   <si>
     <t xml:space="preserve">12.2525863647461</t>
@@ -2219,34 +2219,34 @@
     <t xml:space="preserve">12.6650152206421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7853078842163</t>
+    <t xml:space="preserve">12.785306930542</t>
   </si>
   <si>
     <t xml:space="preserve">12.8712301254272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8024911880493</t>
+    <t xml:space="preserve">12.8024921417236</t>
   </si>
   <si>
     <t xml:space="preserve">12.9743375778198</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1118154525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2149209976196</t>
+    <t xml:space="preserve">13.1118144989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2149219512939</t>
   </si>
   <si>
     <t xml:space="preserve">13.1633672714233</t>
   </si>
   <si>
-    <t xml:space="preserve">13.197735786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6273508071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7476434707642</t>
+    <t xml:space="preserve">13.1977367401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6273498535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7476425170898</t>
   </si>
   <si>
     <t xml:space="preserve">13.7132730484009</t>
@@ -2255,37 +2255,37 @@
     <t xml:space="preserve">13.592981338501</t>
   </si>
   <si>
-    <t xml:space="preserve">13.524242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3523979187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6101665496826</t>
+    <t xml:space="preserve">13.5242433547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3523969650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6101655960083</t>
   </si>
   <si>
     <t xml:space="preserve">13.9194889068604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0225963592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1085186004639</t>
+    <t xml:space="preserve">14.0225954055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1085176467896</t>
   </si>
   <si>
     <t xml:space="preserve">14.5037622451782</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6068706512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8474550247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0364847183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0708541870117</t>
+    <t xml:space="preserve">14.6068696975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8474540710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0364837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.070855140686</t>
   </si>
   <si>
     <t xml:space="preserve">15.0192985534668</t>
@@ -2306,10 +2306,10 @@
     <t xml:space="preserve">14.4178400039673</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6240558624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5725002288818</t>
+    <t xml:space="preserve">14.6240549087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5725011825562</t>
   </si>
   <si>
     <t xml:space="preserve">14.7958993911743</t>
@@ -2318,43 +2318,43 @@
     <t xml:space="preserve">14.7443466186523</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1567754745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9505615234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0536680221558</t>
+    <t xml:space="preserve">15.1567764282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9505624771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0536699295044</t>
   </si>
   <si>
     <t xml:space="preserve">15.2942514419556</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3819494247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960851669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9610061645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9434680938721</t>
+    <t xml:space="preserve">15.381950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960842132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9610052108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9434671401978</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837812423706</t>
   </si>
   <si>
-    <t xml:space="preserve">15.101318359375</t>
+    <t xml:space="preserve">15.1013193130493</t>
   </si>
   <si>
     <t xml:space="preserve">15.1890153884888</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9083881378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0487012863159</t>
+    <t xml:space="preserve">14.9083871841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0487022399902</t>
   </si>
   <si>
     <t xml:space="preserve">14.873309135437</t>
@@ -2369,22 +2369,22 @@
     <t xml:space="preserve">14.592679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1188583374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.855770111084</t>
+    <t xml:space="preserve">15.1188592910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8557710647583</t>
   </si>
   <si>
     <t xml:space="preserve">14.8031511306763</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7680740356445</t>
+    <t xml:space="preserve">14.7680730819702</t>
   </si>
   <si>
     <t xml:space="preserve">14.838231086731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1363983154297</t>
+    <t xml:space="preserve">15.1363973617554</t>
   </si>
   <si>
     <t xml:space="preserve">15.0311613082886</t>
@@ -2396,58 +2396,58 @@
     <t xml:space="preserve">14.9785442352295</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7329940795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.89084815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7505331039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1714754104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0662412643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3293304443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3468704223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8206911087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5398006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6099586486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5222625732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5748796463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7853517532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9607448577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1887550354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0309009552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327346801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2413730621338</t>
+    <t xml:space="preserve">14.7329950332642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8908472061157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7505340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1714763641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0662422180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3293294906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3468685150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8206901550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5398015975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6099576950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5222635269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5748805999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7853527069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9607458114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1887531280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0309028625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327337265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2413749694824</t>
   </si>
   <si>
     <t xml:space="preserve">16.5921573638916</t>
@@ -2456,10 +2456,10 @@
     <t xml:space="preserve">16.4167652130127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2589130401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.153678894043</t>
+    <t xml:space="preserve">16.2589111328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1536769866943</t>
   </si>
   <si>
     <t xml:space="preserve">16.136137008667</t>
@@ -2468,22 +2468,22 @@
     <t xml:space="preserve">15.9256658554077</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0835208892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9782829284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8379688262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6976537704468</t>
+    <t xml:space="preserve">16.0835189819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9782810211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8379678726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6976547241211</t>
   </si>
   <si>
     <t xml:space="preserve">15.662576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6274967193604</t>
+    <t xml:space="preserve">15.6274976730347</t>
   </si>
   <si>
     <t xml:space="preserve">15.9958229064941</t>
@@ -2495,103 +2495,103 @@
     <t xml:space="preserve">15.7151937484741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6450366973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6452989578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4699058532715</t>
+    <t xml:space="preserve">15.645037651062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.645299911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4699048995972</t>
   </si>
   <si>
     <t xml:space="preserve">14.4874458312988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2591724395752</t>
+    <t xml:space="preserve">15.2591743469238</t>
   </si>
   <si>
     <t xml:space="preserve">15.3994874954224</t>
   </si>
   <si>
-    <t xml:space="preserve">15.364408493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2416324615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2240962982178</t>
+    <t xml:space="preserve">15.3644104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2416334152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2240953445435</t>
   </si>
   <si>
     <t xml:space="preserve">15.2065553665161</t>
   </si>
   <si>
-    <t xml:space="preserve">16.346607208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0659809112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8730487823486</t>
+    <t xml:space="preserve">16.3466091156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0659790039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.873046875</t>
   </si>
   <si>
     <t xml:space="preserve">15.3117895126343</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6102199554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5576019287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4172887802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5225219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2945117950439</t>
+    <t xml:space="preserve">14.61021900177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5576028823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4172878265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5225229263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2945127487183</t>
   </si>
   <si>
     <t xml:space="preserve">14.3295917510986</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1717376708984</t>
+    <t xml:space="preserve">14.1717386245728</t>
   </si>
   <si>
     <t xml:space="preserve">13.8560314178467</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0314235687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.119119644165</t>
+    <t xml:space="preserve">14.0314245223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1191205978394</t>
   </si>
   <si>
     <t xml:space="preserve">14.2769746780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3646697998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3822088241577</t>
+    <t xml:space="preserve">14.3646688461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.382209777832</t>
   </si>
   <si>
     <t xml:space="preserve">13.8735704421997</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0840406417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2594347000122</t>
+    <t xml:space="preserve">14.084041595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2594337463379</t>
   </si>
   <si>
     <t xml:space="preserve">13.8209524154663</t>
   </si>
   <si>
-    <t xml:space="preserve">14.066502571106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9437274932861</t>
+    <t xml:space="preserve">14.0665035247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9437265396118</t>
   </si>
   <si>
     <t xml:space="preserve">13.5227842330933</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">13.1369199752808</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3123140335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.031683921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0492238998413</t>
+    <t xml:space="preserve">13.312313079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0316848754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.049222946167</t>
   </si>
   <si>
     <t xml:space="preserve">12.7510566711426</t>
@@ -2633,10 +2633,10 @@
     <t xml:space="preserve">12.4879665374756</t>
   </si>
   <si>
-    <t xml:space="preserve">12.259955406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3651924133301</t>
+    <t xml:space="preserve">12.2599563598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3651914596558</t>
   </si>
   <si>
     <t xml:space="preserve">12.4528884887695</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">12.1897993087769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9617881774902</t>
+    <t xml:space="preserve">11.9617891311646</t>
   </si>
   <si>
     <t xml:space="preserve">11.8039350509644</t>
@@ -2663,10 +2663,10 @@
     <t xml:space="preserve">11.277756690979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2251396179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8392734527588</t>
+    <t xml:space="preserve">11.2251386642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8392744064331</t>
   </si>
   <si>
     <t xml:space="preserve">10.7691173553467</t>
@@ -2678,19 +2678,19 @@
     <t xml:space="preserve">10.0850858688354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1026248931885</t>
+    <t xml:space="preserve">10.1026258468628</t>
   </si>
   <si>
     <t xml:space="preserve">9.8921537399292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1727828979492</t>
+    <t xml:space="preserve">10.1727819442749</t>
   </si>
   <si>
     <t xml:space="preserve">9.85707473754883</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0675468444824</t>
+    <t xml:space="preserve">10.0675458908081</t>
   </si>
   <si>
     <t xml:space="preserve">10.5761861801147</t>
@@ -2708,43 +2708,43 @@
     <t xml:space="preserve">10.8918924331665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0848255157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.751579284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6814222335815</t>
+    <t xml:space="preserve">11.0848245620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7515783309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6814212799072</t>
   </si>
   <si>
     <t xml:space="preserve">10.7165002822876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6288042068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4183320999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4534111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2429399490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1552429199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69922256469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80445671081543</t>
+    <t xml:space="preserve">10.6288032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4183330535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4534101486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2429389953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1552438735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69922161102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80445766448975</t>
   </si>
   <si>
     <t xml:space="preserve">9.90969276428223</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71676158905029</t>
+    <t xml:space="preserve">9.71676063537598</t>
   </si>
   <si>
     <t xml:space="preserve">9.82199573516846</t>
@@ -2753,16 +2753,16 @@
     <t xml:space="preserve">9.64660358428955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96231079101562</t>
+    <t xml:space="preserve">9.96230983734131</t>
   </si>
   <si>
     <t xml:space="preserve">10.3306350708008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1903219223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5937252044678</t>
+    <t xml:space="preserve">10.1903209686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5937242507935</t>
   </si>
   <si>
     <t xml:space="preserve">11.1374425888062</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">10.2707347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6336584091187</t>
+    <t xml:space="preserve">10.633659362793</t>
   </si>
   <si>
     <t xml:space="preserve">10.6699514389038</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">10.8332662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4159049987793</t>
+    <t xml:space="preserve">10.415904045105</t>
   </si>
   <si>
     <t xml:space="preserve">10.6518049240112</t>
@@ -2819,10 +2819,10 @@
     <t xml:space="preserve">11.7950134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6861362457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8131608963013</t>
+    <t xml:space="preserve">11.6861371994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.813159942627</t>
   </si>
   <si>
     <t xml:space="preserve">11.7224292755127</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">11.5954055786133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6135530471802</t>
+    <t xml:space="preserve">11.6135520935059</t>
   </si>
   <si>
     <t xml:space="preserve">10.5973663330078</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">11.0147285461426</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0328750610352</t>
+    <t xml:space="preserve">11.0328741073608</t>
   </si>
   <si>
     <t xml:space="preserve">11.3232126235962</t>
@@ -2903,25 +2903,25 @@
     <t xml:space="preserve">11.2869205474854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0873136520386</t>
+    <t xml:space="preserve">11.0873126983643</t>
   </si>
   <si>
     <t xml:space="preserve">10.6880970001221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3070278167725</t>
+    <t xml:space="preserve">10.3070268630981</t>
   </si>
   <si>
     <t xml:space="preserve">10.1618576049805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90781116485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0529813766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.180004119873</t>
+    <t xml:space="preserve">9.90781211853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0529804229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1800050735474</t>
   </si>
   <si>
     <t xml:space="preserve">10.3614664077759</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">10.4703435897827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4521970748901</t>
+    <t xml:space="preserve">10.4521980285645</t>
   </si>
   <si>
     <t xml:space="preserve">10.0348358154297</t>
@@ -2939,28 +2939,28 @@
     <t xml:space="preserve">9.92595767974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7444953918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85337257385254</t>
+    <t xml:space="preserve">9.74449634552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85337352752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.78078842163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99854373931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59932613372803</t>
+    <t xml:space="preserve">9.99854278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59932708740234</t>
   </si>
   <si>
     <t xml:space="preserve">10.0892734527588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1074190139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1255655288696</t>
+    <t xml:space="preserve">10.1074199676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1255664825439</t>
   </si>
   <si>
     <t xml:space="preserve">10.1981506347656</t>
@@ -2969,16 +2969,16 @@
     <t xml:space="preserve">10.3796119689941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9239978790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1961908340454</t>
+    <t xml:space="preserve">10.923996925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1961898803711</t>
   </si>
   <si>
     <t xml:space="preserve">11.4683828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1034984588623</t>
+    <t xml:space="preserve">12.1034994125366</t>
   </si>
   <si>
     <t xml:space="preserve">11.9038906097412</t>
@@ -2996,25 +2996,25 @@
     <t xml:space="preserve">11.4320907592773</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4139432907104</t>
+    <t xml:space="preserve">11.4139442443848</t>
   </si>
   <si>
     <t xml:space="preserve">12.012767791748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.085352897644</t>
+    <t xml:space="preserve">12.0853519439697</t>
   </si>
   <si>
     <t xml:space="preserve">12.7567615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1741237640381</t>
+    <t xml:space="preserve">13.1741228103638</t>
   </si>
   <si>
     <t xml:space="preserve">13.2104158401489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9926605224609</t>
+    <t xml:space="preserve">12.9926614761353</t>
   </si>
   <si>
     <t xml:space="preserve">12.7386150360107</t>
@@ -3023,13 +3023,13 @@
     <t xml:space="preserve">12.4119834899902</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3756914138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478834152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6115922927856</t>
+    <t xml:space="preserve">12.3756923675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478843688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6115913391113</t>
   </si>
   <si>
     <t xml:space="preserve">12.684175491333</t>
@@ -3041,22 +3041,22 @@
     <t xml:space="preserve">12.4845685958862</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9200773239136</t>
+    <t xml:space="preserve">12.9200763702393</t>
   </si>
   <si>
     <t xml:space="preserve">13.0652456283569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1378297805786</t>
+    <t xml:space="preserve">13.1378307342529</t>
   </si>
   <si>
     <t xml:space="preserve">13.1015377044678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0108079910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2285623550415</t>
+    <t xml:space="preserve">13.0108070373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2285614013672</t>
   </si>
   <si>
     <t xml:space="preserve">13.1922693252563</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">12.8656387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8474922180176</t>
+    <t xml:space="preserve">12.8474912643433</t>
   </si>
   <si>
     <t xml:space="preserve">12.7930536270142</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">13.645923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8092403411865</t>
+    <t xml:space="preserve">13.8092393875122</t>
   </si>
   <si>
     <t xml:space="preserve">13.8455324172974</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">13.9362621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4443550109863</t>
+    <t xml:space="preserve">14.4443559646606</t>
   </si>
   <si>
     <t xml:space="preserve">14.0995779037476</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">14.3717708587646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3173322677612</t>
+    <t xml:space="preserve">14.3173313140869</t>
   </si>
   <si>
     <t xml:space="preserve">14.3354787826538</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">14.226601600647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1540174484253</t>
+    <t xml:space="preserve">14.154016494751</t>
   </si>
   <si>
     <t xml:space="preserve">14.2810401916504</t>
@@ -3137,13 +3137,13 @@
     <t xml:space="preserve">14.3899164199829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8798627853394</t>
+    <t xml:space="preserve">14.8798637390137</t>
   </si>
   <si>
     <t xml:space="preserve">14.4625015258789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4806480407715</t>
+    <t xml:space="preserve">14.4806470870972</t>
   </si>
   <si>
     <t xml:space="preserve">14.4987936019897</t>
@@ -3152,16 +3152,16 @@
     <t xml:space="preserve">14.662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4423952102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5694179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4786882400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6420030593872</t>
+    <t xml:space="preserve">15.4423942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5694189071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.478687286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6420021057129</t>
   </si>
   <si>
     <t xml:space="preserve">15.5149803161621</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">15.8597564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9141960144043</t>
+    <t xml:space="preserve">15.9141969680786</t>
   </si>
   <si>
     <t xml:space="preserve">16.2589721679688</t>
@@ -3188,22 +3188,22 @@
     <t xml:space="preserve">16.1138038635254</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0412178039551</t>
+    <t xml:space="preserve">16.0412197113037</t>
   </si>
   <si>
     <t xml:space="preserve">16.0775108337402</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8234643936157</t>
+    <t xml:space="preserve">15.82346534729</t>
   </si>
   <si>
     <t xml:space="preserve">15.769024848938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2427864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2064952850342</t>
+    <t xml:space="preserve">15.242787361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2064943313599</t>
   </si>
   <si>
     <t xml:space="preserve">15.8053188323975</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">15.9686336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9867811203003</t>
+    <t xml:space="preserve">15.986780166626</t>
   </si>
   <si>
     <t xml:space="preserve">15.841609954834</t>
@@ -3224,16 +3224,16 @@
     <t xml:space="preserve">16.131950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2952651977539</t>
+    <t xml:space="preserve">16.2952632904053</t>
   </si>
   <si>
     <t xml:space="preserve">16.8033580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8396511077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0574054718018</t>
+    <t xml:space="preserve">16.8396492004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0574035644531</t>
   </si>
   <si>
     <t xml:space="preserve">16.7489185333252</t>
@@ -3260,10 +3260,10 @@
     <t xml:space="preserve">15.2790794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1157646179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.097617149353</t>
+    <t xml:space="preserve">15.1157627105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0976161956787</t>
   </si>
   <si>
     <t xml:space="preserve">15.333517074585</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">15.460542678833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.533127784729</t>
+    <t xml:space="preserve">15.5331258773804</t>
   </si>
   <si>
     <t xml:space="preserve">15.406102180481</t>
@@ -60156,7 +60156,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6494212963</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>463163</v>
@@ -60165,7 +60165,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="D2157" t="n">
-        <v>11.8199996948242</v>
+        <v>11.8000001907349</v>
       </c>
       <c r="E2157" t="n">
         <v>12.1400003433228</v>
@@ -60177,6 +60177,32 @@
         <v>1238</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6493981481</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>51355</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>12.0600004196167</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>11.8999996185303</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>12.1400003433228</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>12.039999961853</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -44,49 +44,49 @@
     <t xml:space="preserve">ZV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25228071212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16279554367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04467725753784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9945662021637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91939949989319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96951007843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95519280433655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01604223251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98382830619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89434385299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87286758422852</t>
+    <t xml:space="preserve">4.25228023529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16279602050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04467678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99456644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91939902305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96951103210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95519328117371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01604175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9838273525238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89434337615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87286710739136</t>
   </si>
   <si>
     <t xml:space="preserve">3.76548743247986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85855031013489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729639053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91224074363708</t>
+    <t xml:space="preserve">3.85855054855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729591369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91224002838135</t>
   </si>
   <si>
     <t xml:space="preserve">3.86570882797241</t>
@@ -95,64 +95,64 @@
     <t xml:space="preserve">3.90150260925293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95877242088318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80128026008606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79412174224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78696298599243</t>
+    <t xml:space="preserve">3.95877194404602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80128049850464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79412198066711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78696346282959</t>
   </si>
   <si>
     <t xml:space="preserve">3.69389963150024</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65810632705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71537566184998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57936072349548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60083651542664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70821666717529</t>
+    <t xml:space="preserve">3.65810585021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71537613868713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57936024665833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60083675384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70821714401245</t>
   </si>
   <si>
     <t xml:space="preserve">3.75832748413086</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76906633377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81559777259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77980470657349</t>
+    <t xml:space="preserve">3.76906561851501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81559705734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77980494499207</t>
   </si>
   <si>
     <t xml:space="preserve">3.7475905418396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72611355781555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70105814933777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76190733909607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78338384628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80485987663269</t>
+    <t xml:space="preserve">3.72611451148987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70105862617493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76190757751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78338313102722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80486011505127</t>
   </si>
   <si>
     <t xml:space="preserve">3.74401044845581</t>
@@ -161,19 +161,19 @@
     <t xml:space="preserve">3.77264595031738</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85139203071594</t>
+    <t xml:space="preserve">3.85139155387878</t>
   </si>
   <si>
     <t xml:space="preserve">4.00172472000122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05899429321289</t>
+    <t xml:space="preserve">4.05899477005005</t>
   </si>
   <si>
     <t xml:space="preserve">4.08404970169067</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06973266601562</t>
+    <t xml:space="preserve">4.06973218917847</t>
   </si>
   <si>
     <t xml:space="preserve">4.15205764770508</t>
@@ -182,25 +182,25 @@
     <t xml:space="preserve">4.15921640396118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13774013519287</t>
+    <t xml:space="preserve">4.13774061203003</t>
   </si>
   <si>
     <t xml:space="preserve">4.12342309951782</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11626386642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14489936828613</t>
+    <t xml:space="preserve">4.11626434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14489889144897</t>
   </si>
   <si>
     <t xml:space="preserve">4.13058137893677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19500970840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09836721420288</t>
+    <t xml:space="preserve">4.1950101852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09836769104004</t>
   </si>
   <si>
     <t xml:space="preserve">4.07689142227173</t>
@@ -209,25 +209,25 @@
     <t xml:space="preserve">4.16637516021729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11984300613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16995429992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18069219589233</t>
+    <t xml:space="preserve">4.11984395980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16995477676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18069267272949</t>
   </si>
   <si>
     <t xml:space="preserve">4.18785190582275</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1341609954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19858884811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14132022857666</t>
+    <t xml:space="preserve">4.13416051864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19858837127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1413197517395</t>
   </si>
   <si>
     <t xml:space="preserve">4.09120893478394</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.10706949234009</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09213447570801</t>
+    <t xml:space="preserve">4.09213399887085</t>
   </si>
   <si>
     <t xml:space="preserve">4.07719993591309</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05479764938354</t>
+    <t xml:space="preserve">4.0547981262207</t>
   </si>
   <si>
     <t xml:space="preserve">4.08093357086182</t>
@@ -251,13 +251,13 @@
     <t xml:space="preserve">4.0958685874939</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11453723907471</t>
+    <t xml:space="preserve">4.11453676223755</t>
   </si>
   <si>
     <t xml:space="preserve">4.12200450897217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11080312728882</t>
+    <t xml:space="preserve">4.11080360412598</t>
   </si>
   <si>
     <t xml:space="preserve">4.16680860519409</t>
@@ -272,25 +272,25 @@
     <t xml:space="preserve">4.24148273468018</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25268363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31989097595215</t>
+    <t xml:space="preserve">4.25268411636353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31989002227783</t>
   </si>
   <si>
     <t xml:space="preserve">4.2862868309021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26761913299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21908092498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23401546478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20041227340698</t>
+    <t xml:space="preserve">4.26761865615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21908044815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23401498794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20041179656982</t>
   </si>
   <si>
     <t xml:space="preserve">4.19667768478394</t>
@@ -302,22 +302,22 @@
     <t xml:space="preserve">3.99505829811096</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96892237663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96145486831665</t>
+    <t xml:space="preserve">3.96892189979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96145534515381</t>
   </si>
   <si>
     <t xml:space="preserve">4.12573766708374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14440631866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17427635192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26388502120972</t>
+    <t xml:space="preserve">4.14440679550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17427587509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26388454437256</t>
   </si>
   <si>
     <t xml:space="preserve">3.97265625</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">4.03986263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02119398117065</t>
+    <t xml:space="preserve">4.02119445800781</t>
   </si>
   <si>
     <t xml:space="preserve">4.05853128433228</t>
@@ -344,28 +344,28 @@
     <t xml:space="preserve">4.032395362854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08466720581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11827039718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15934133529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12947130203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13693857192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20414590835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22654724121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24894952774048</t>
+    <t xml:space="preserve">4.08466768264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11826992034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15934038162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12947225570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13693952560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20414543151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2265477180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24895000457764</t>
   </si>
   <si>
     <t xml:space="preserve">4.18174314498901</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">4.06226491928101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02866172790527</t>
+    <t xml:space="preserve">4.02866220474243</t>
   </si>
   <si>
     <t xml:space="preserve">3.98385763168335</t>
@@ -383,25 +383,25 @@
     <t xml:space="preserve">3.98012351989746</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97638916969299</t>
+    <t xml:space="preserve">3.97638964653015</t>
   </si>
   <si>
     <t xml:space="preserve">3.9577214717865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93531942367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98759198188782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.002525806427</t>
+    <t xml:space="preserve">3.93531847000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98759150505066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00252532958984</t>
   </si>
   <si>
     <t xml:space="preserve">4.03612947463989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93905282020569</t>
+    <t xml:space="preserve">3.93905329704285</t>
   </si>
   <si>
     <t xml:space="preserve">3.95025396347046</t>
@@ -410,10 +410,10 @@
     <t xml:space="preserve">3.94278717041016</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94652056694031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86064505577087</t>
+    <t xml:space="preserve">3.94652009010315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86064553260803</t>
   </si>
   <si>
     <t xml:space="preserve">3.84571051597595</t>
@@ -422,31 +422,31 @@
     <t xml:space="preserve">3.86811232566833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82330822944641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81584119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077645301819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81957507133484</t>
+    <t xml:space="preserve">3.82330799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81584072113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077573776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81957411766052</t>
   </si>
   <si>
     <t xml:space="preserve">3.85317778587341</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95398807525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14067220687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21161270141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22281408309937</t>
+    <t xml:space="preserve">3.95398759841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14067268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21161317825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22281455993652</t>
   </si>
   <si>
     <t xml:space="preserve">4.09960222244263</t>
@@ -461,34 +461,34 @@
     <t xml:space="preserve">4.0435962677002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00625944137573</t>
+    <t xml:space="preserve">4.00625896453857</t>
   </si>
   <si>
     <t xml:space="preserve">4.06599903106689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92038369178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07346630096436</t>
+    <t xml:space="preserve">3.92038416862488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0734658241272</t>
   </si>
   <si>
     <t xml:space="preserve">4.26015090942383</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27135229110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31615686416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33109092712402</t>
+    <t xml:space="preserve">4.27135181427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3161563873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33109188079834</t>
   </si>
   <si>
     <t xml:space="preserve">4.28255367279053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27881956100464</t>
+    <t xml:space="preserve">4.27882051467896</t>
   </si>
   <si>
     <t xml:space="preserve">4.32362413406372</t>
@@ -497,16 +497,16 @@
     <t xml:space="preserve">4.34229230880737</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30868911743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30495452880859</t>
+    <t xml:space="preserve">4.3086895942688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30495500564575</t>
   </si>
   <si>
     <t xml:space="preserve">4.27508544921875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2937536239624</t>
+    <t xml:space="preserve">4.29375410079956</t>
   </si>
   <si>
     <t xml:space="preserve">4.3385591506958</t>
@@ -518,25 +518,25 @@
     <t xml:space="preserve">4.3684287071228</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36096048355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40576553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42070007324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39456415176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48043966293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45430374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51777648925781</t>
+    <t xml:space="preserve">4.36096143722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40576505661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42069959640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39456462860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48044013977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45430326461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51777601242065</t>
   </si>
   <si>
     <t xml:space="preserve">4.5924506187439</t>
@@ -548,16 +548,16 @@
     <t xml:space="preserve">4.5999174118042</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55511283874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54764604568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6297869682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76420116424561</t>
+    <t xml:space="preserve">4.55511331558228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54764652252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62978649139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76420068740845</t>
   </si>
   <si>
     <t xml:space="preserve">4.995689868927</t>
@@ -566,40 +566,40 @@
     <t xml:space="preserve">5.18984222412109</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22717905044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48853826522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51840734481812</t>
+    <t xml:space="preserve">5.22717952728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48853874206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51840686798096</t>
   </si>
   <si>
     <t xml:space="preserve">5.52587604522705</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52214193344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38026094436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3615927696228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37279367446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639686584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39519548416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44373416900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45120096206665</t>
+    <t xml:space="preserve">5.522141456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38026142120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36159181594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37279415130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639638900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39519500732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44373321533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45120143890381</t>
   </si>
   <si>
     <t xml:space="preserve">5.46613645553589</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">5.48480463027954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43626642227173</t>
+    <t xml:space="preserve">5.43626689910889</t>
   </si>
   <si>
     <t xml:space="preserve">5.42133188247681</t>
@@ -617,28 +617,28 @@
     <t xml:space="preserve">5.54454374313354</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56694602966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91417980194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82457113265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66028833389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78723335266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6752233505249</t>
+    <t xml:space="preserve">5.56694555282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91418027877808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82457208633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66028881072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78723430633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67522287368774</t>
   </si>
   <si>
     <t xml:space="preserve">5.74989748001099</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84323930740356</t>
+    <t xml:space="preserve">5.84323883056641</t>
   </si>
   <si>
     <t xml:space="preserve">5.92965745925903</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">5.97209453582764</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01067447662354</t>
+    <t xml:space="preserve">6.01067399978638</t>
   </si>
   <si>
     <t xml:space="preserve">5.94123125076294</t>
@@ -659,13 +659,13 @@
     <t xml:space="preserve">5.91422510147095</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72904443740845</t>
+    <t xml:space="preserve">5.72904396057129</t>
   </si>
   <si>
     <t xml:space="preserve">5.72518682479858</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86792993545532</t>
+    <t xml:space="preserve">5.86793041229248</t>
   </si>
   <si>
     <t xml:space="preserve">5.87564611434937</t>
@@ -677,10 +677,10 @@
     <t xml:space="preserve">5.77148199081421</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87178897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76376485824585</t>
+    <t xml:space="preserve">5.8717885017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76376581192017</t>
   </si>
   <si>
     <t xml:space="preserve">5.67117547988892</t>
@@ -689,16 +689,16 @@
     <t xml:space="preserve">5.67889165878296</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74061822891235</t>
+    <t xml:space="preserve">5.74061870574951</t>
   </si>
   <si>
     <t xml:space="preserve">5.7097544670105</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78691339492798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75605058670044</t>
+    <t xml:space="preserve">5.78691291809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75604963302612</t>
   </si>
   <si>
     <t xml:space="preserve">5.790771484375</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">5.91808366775513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71747064590454</t>
+    <t xml:space="preserve">5.71747016906738</t>
   </si>
   <si>
     <t xml:space="preserve">5.82549333572388</t>
@@ -725,22 +725,22 @@
     <t xml:space="preserve">5.7599081993103</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93351554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81777620315552</t>
+    <t xml:space="preserve">5.93351459503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81777715682983</t>
   </si>
   <si>
     <t xml:space="preserve">5.6480278968811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67503309249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61330556869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58629989624023</t>
+    <t xml:space="preserve">5.6750340461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61330652236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58630037307739</t>
   </si>
   <si>
     <t xml:space="preserve">5.44741487503052</t>
@@ -749,10 +749,10 @@
     <t xml:space="preserve">5.41655111312866</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57086896896362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62102222442627</t>
+    <t xml:space="preserve">5.57086849212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62102174758911</t>
   </si>
   <si>
     <t xml:space="preserve">5.43198299407959</t>
@@ -761,16 +761,16 @@
     <t xml:space="preserve">5.71361255645752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69432306289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68274879455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54000520706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77919769287109</t>
+    <t xml:space="preserve">5.69432258605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68274927139282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54000473022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77919721603394</t>
   </si>
   <si>
     <t xml:space="preserve">5.7213282585144</t>
@@ -785,25 +785,25 @@
     <t xml:space="preserve">5.79462909698486</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65574312210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79848766326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81391859054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88721990585327</t>
+    <t xml:space="preserve">5.65574359893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79848718643188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81391906738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88722085952759</t>
   </si>
   <si>
     <t xml:space="preserve">5.89493608474731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87950372695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8332085609436</t>
+    <t xml:space="preserve">5.87950420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83320903778076</t>
   </si>
   <si>
     <t xml:space="preserve">5.85249900817871</t>
@@ -818,16 +818,16 @@
     <t xml:space="preserve">5.89107799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82163572311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84478235244751</t>
+    <t xml:space="preserve">5.82163524627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84478282928467</t>
   </si>
   <si>
     <t xml:space="preserve">5.92194128036499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90651035308838</t>
+    <t xml:space="preserve">5.90650987625122</t>
   </si>
   <si>
     <t xml:space="preserve">6.08397531509399</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">6.12255430221558</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26529884338379</t>
+    <t xml:space="preserve">6.26529836654663</t>
   </si>
   <si>
     <t xml:space="preserve">6.28073024749756</t>
@@ -854,31 +854,31 @@
     <t xml:space="preserve">6.16113376617432</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21900320053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1649923324585</t>
+    <t xml:space="preserve">6.21900367736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16499185562134</t>
   </si>
   <si>
     <t xml:space="preserve">6.29616212844849</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09554862976074</t>
+    <t xml:space="preserve">6.0955491065979</t>
   </si>
   <si>
     <t xml:space="preserve">6.24600839614868</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1688494682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17270708084106</t>
+    <t xml:space="preserve">6.16884899139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17270755767822</t>
   </si>
   <si>
     <t xml:space="preserve">6.20357131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11098098754883</t>
+    <t xml:space="preserve">6.11098003387451</t>
   </si>
   <si>
     <t xml:space="preserve">6.18428182601929</t>
@@ -890,10 +890,10 @@
     <t xml:space="preserve">6.15727567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19585514068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08011770248413</t>
+    <t xml:space="preserve">6.19585466384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08011722564697</t>
   </si>
   <si>
     <t xml:space="preserve">6.05311155319214</t>
@@ -902,43 +902,43 @@
     <t xml:space="preserve">6.00681591033936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98752641677856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22286081314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11483907699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10712194442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06082773208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92579936981201</t>
+    <t xml:space="preserve">5.98752689361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22286128997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11483955383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10712289810181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06082725524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92579889297485</t>
   </si>
   <si>
     <t xml:space="preserve">5.94894695281982</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84864044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08783292770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9450888633728</t>
+    <t xml:space="preserve">5.84864091873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08783340454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94508934020996</t>
   </si>
   <si>
     <t xml:space="preserve">6.00295877456665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06468534469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09169101715088</t>
+    <t xml:space="preserve">6.0646858215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09169149398804</t>
   </si>
   <si>
     <t xml:space="preserve">6.1379861831665</t>
@@ -947,16 +947,16 @@
     <t xml:space="preserve">6.13412857055664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15341806411743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21128749847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14955997467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23829317092896</t>
+    <t xml:space="preserve">6.15341758728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21128702163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14956045150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2382926940918</t>
   </si>
   <si>
     <t xml:space="preserve">6.26144075393677</t>
@@ -971,22 +971,22 @@
     <t xml:space="preserve">6.36560487747192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40418434143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.350172996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43504810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58164930343628</t>
+    <t xml:space="preserve">6.40418386459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35017251968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43504762649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58164978027344</t>
   </si>
   <si>
     <t xml:space="preserve">6.53535461425781</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37332105636597</t>
+    <t xml:space="preserve">6.37332057952881</t>
   </si>
   <si>
     <t xml:space="preserve">6.38103723526001</t>
@@ -998,16 +998,16 @@
     <t xml:space="preserve">6.60479784011841</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55850219726562</t>
+    <t xml:space="preserve">6.55850267410278</t>
   </si>
   <si>
     <t xml:space="preserve">6.48905897140503</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4736270904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1264123916626</t>
+    <t xml:space="preserve">6.47362756729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12641286849976</t>
   </si>
   <si>
     <t xml:space="preserve">6.04925346374512</t>
@@ -1016,28 +1016,28 @@
     <t xml:space="preserve">6.30387830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34245681762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22671794891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18042373657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31159353256226</t>
+    <t xml:space="preserve">6.34245729446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22671842575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18042325973511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31159400939941</t>
   </si>
   <si>
     <t xml:space="preserve">6.33474159240723</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46591186523438</t>
+    <t xml:space="preserve">6.46591138839722</t>
   </si>
   <si>
     <t xml:space="preserve">6.50449132919312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45047855377197</t>
+    <t xml:space="preserve">6.45047903060913</t>
   </si>
   <si>
     <t xml:space="preserve">6.31930923461914</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">6.49677515029907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44276428222656</t>
+    <t xml:space="preserve">6.4427638053894</t>
   </si>
   <si>
     <t xml:space="preserve">6.39646863937378</t>
@@ -1067,10 +1067,10 @@
     <t xml:space="preserve">6.51992225646973</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59708166122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63566112518311</t>
+    <t xml:space="preserve">6.59708213806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566160202026</t>
   </si>
   <si>
     <t xml:space="preserve">6.74785804748535</t>
@@ -1079,22 +1079,22 @@
     <t xml:space="preserve">6.67573118209839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58757591247559</t>
+    <t xml:space="preserve">6.58757638931274</t>
   </si>
   <si>
     <t xml:space="preserve">6.63566064834595</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50743579864502</t>
+    <t xml:space="preserve">6.50743532180786</t>
   </si>
   <si>
     <t xml:space="preserve">6.62764692306519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61963272094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56353330612183</t>
+    <t xml:space="preserve">6.61963224411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56353378295898</t>
   </si>
   <si>
     <t xml:space="preserve">6.5314769744873</t>
@@ -1115,10 +1115,10 @@
     <t xml:space="preserve">6.57956218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60360383987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65168905258179</t>
+    <t xml:space="preserve">6.60360431671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65168857574463</t>
   </si>
   <si>
     <t xml:space="preserve">6.73182916641235</t>
@@ -1130,61 +1130,61 @@
     <t xml:space="preserve">6.51544952392578</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55551958084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35516738891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38722372055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34715414047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32311153411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4673638343811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4833927154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45935106277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4353084564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29906892776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42729520797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49140787124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45133686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40325260162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33913993835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29105520248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27502679824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41126585006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25098466873169</t>
+    <t xml:space="preserve">6.55552005767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35516786575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3872241973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3471531867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32311201095581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46736431121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48339319229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45935153961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43530797958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29906940460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42729473114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49140739440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45133638381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40325212478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33913946151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29105567932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27502632141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4112663269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25098514556885</t>
   </si>
   <si>
     <t xml:space="preserve">6.28304100036621</t>
@@ -1196,37 +1196,37 @@
     <t xml:space="preserve">6.37920999526978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36318159103394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33112525939941</t>
+    <t xml:space="preserve">6.36318206787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33112573623657</t>
   </si>
   <si>
     <t xml:space="preserve">6.19488573074341</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41928052902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59559011459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84402704238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01232242584229</t>
+    <t xml:space="preserve">6.41928005218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59558963775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84402656555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01232290267944</t>
   </si>
   <si>
     <t xml:space="preserve">6.82799959182739</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9482102394104</t>
+    <t xml:space="preserve">6.94820976257324</t>
   </si>
   <si>
     <t xml:space="preserve">6.93218088150024</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98026609420776</t>
+    <t xml:space="preserve">6.98026657104492</t>
   </si>
   <si>
     <t xml:space="preserve">6.92416858673096</t>
@@ -1235,22 +1235,22 @@
     <t xml:space="preserve">7.02835130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90813875198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85204124450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98828029632568</t>
+    <t xml:space="preserve">6.9081392288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85204172134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98827981948853</t>
   </si>
   <si>
     <t xml:space="preserve">7.04437923431396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.972252368927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69977235794067</t>
+    <t xml:space="preserve">6.97225189208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69977283477783</t>
   </si>
   <si>
     <t xml:space="preserve">6.75587224960327</t>
@@ -1262,22 +1262,22 @@
     <t xml:space="preserve">6.78792858123779</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90012502670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96423721313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91615438461304</t>
+    <t xml:space="preserve">6.90012454986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96423768997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91615343093872</t>
   </si>
   <si>
     <t xml:space="preserve">6.94019556045532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81197071075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70778751373291</t>
+    <t xml:space="preserve">6.81197118759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70778703689575</t>
   </si>
   <si>
     <t xml:space="preserve">6.5715479850769</t>
@@ -1286,34 +1286,34 @@
     <t xml:space="preserve">6.77189970016479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68374538421631</t>
+    <t xml:space="preserve">6.68374490737915</t>
   </si>
   <si>
     <t xml:space="preserve">6.64367485046387</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06842041015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05239343643188</t>
+    <t xml:space="preserve">7.06842088699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05239200592041</t>
   </si>
   <si>
     <t xml:space="preserve">7.12451982498169</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13253402709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99629402160645</t>
+    <t xml:space="preserve">7.13253355026245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9962944984436</t>
   </si>
   <si>
     <t xml:space="preserve">6.73984384536743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72381544113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83601236343384</t>
+    <t xml:space="preserve">6.72381591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.836012840271</t>
   </si>
   <si>
     <t xml:space="preserve">6.88409757614136</t>
@@ -1322,19 +1322,19 @@
     <t xml:space="preserve">6.66771650314331</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71580219268799</t>
+    <t xml:space="preserve">6.71580171585083</t>
   </si>
   <si>
     <t xml:space="preserve">6.54750633239746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76388597488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10047769546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14054727554321</t>
+    <t xml:space="preserve">6.76388549804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10047721862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14054679870605</t>
   </si>
   <si>
     <t xml:space="preserve">7.18863296508789</t>
@@ -1343,115 +1343,115 @@
     <t xml:space="preserve">7.17260360717773</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11650562286377</t>
+    <t xml:space="preserve">7.11650514602661</t>
   </si>
   <si>
     <t xml:space="preserve">7.23671627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25274515151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19664669036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22870397567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2046594619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29281568527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38898420333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2848014831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33288621902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45309686660767</t>
+    <t xml:space="preserve">7.25274562835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19664621353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22870349884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20465993881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29281520843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38898468017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28480195999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3328857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45309782028198</t>
   </si>
   <si>
     <t xml:space="preserve">7.50919580459595</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55728054046631</t>
+    <t xml:space="preserve">7.55728006362915</t>
   </si>
   <si>
     <t xml:space="preserve">7.51720952987671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41302633285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48515367507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44508171081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49316787719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81373023986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77366065979004</t>
+    <t xml:space="preserve">7.41302680969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48515319824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4450831413269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49316740036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81373167037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77366018295288</t>
   </si>
   <si>
     <t xml:space="preserve">7.75763273239136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5252251625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54125213623047</t>
+    <t xml:space="preserve">7.52522468566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54125118255615</t>
   </si>
   <si>
     <t xml:space="preserve">7.53323745727539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66146326065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63742017745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61337947845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6053638458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57330799102783</t>
+    <t xml:space="preserve">7.66146373748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63742065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61337900161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60536432266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57330751419067</t>
   </si>
   <si>
     <t xml:space="preserve">7.7977032661438</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85380172729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91791343688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96599817276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97401189804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19039344787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23847675323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07819557189941</t>
+    <t xml:space="preserve">7.85380125045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91791486740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96599769592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97401237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19039249420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23847770690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07819652557373</t>
   </si>
   <si>
     <t xml:space="preserve">8.12627983093262</t>
@@ -1460,25 +1460,25 @@
     <t xml:space="preserve">8.00606918334961</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87784290313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94195604324341</t>
+    <t xml:space="preserve">7.87784433364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94195699691772</t>
   </si>
   <si>
     <t xml:space="preserve">8.03011131286621</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93394136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99004077911377</t>
+    <t xml:space="preserve">7.93394231796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99003982543945</t>
   </si>
   <si>
     <t xml:space="preserve">8.01408290863037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98202705383301</t>
+    <t xml:space="preserve">7.98202657699585</t>
   </si>
   <si>
     <t xml:space="preserve">7.90188550949097</t>
@@ -1487,28 +1487,28 @@
     <t xml:space="preserve">7.89387273788452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86982774734497</t>
+    <t xml:space="preserve">7.86982917785645</t>
   </si>
   <si>
     <t xml:space="preserve">8.14230728149414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35067367553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3346471786499</t>
+    <t xml:space="preserve">8.35067462921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33464622497559</t>
   </si>
   <si>
     <t xml:space="preserve">8.71932220458984</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10399723052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9757719039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63918113708496</t>
+    <t xml:space="preserve">9.1039981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97577285766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63918018341064</t>
   </si>
   <si>
     <t xml:space="preserve">8.89563369750977</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">8.57832145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54520130157471</t>
+    <t xml:space="preserve">8.54520034790039</t>
   </si>
   <si>
     <t xml:space="preserve">8.37959575653076</t>
@@ -1526,13 +1526,13 @@
     <t xml:space="preserve">8.49552059173584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41271686553955</t>
+    <t xml:space="preserve">8.41271591186523</t>
   </si>
   <si>
     <t xml:space="preserve">8.72736549377441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47895908355713</t>
+    <t xml:space="preserve">8.47895812988281</t>
   </si>
   <si>
     <t xml:space="preserve">8.3133544921875</t>
@@ -1553,13 +1553,13 @@
     <t xml:space="preserve">8.42927837371826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52864170074463</t>
+    <t xml:space="preserve">8.52864074707031</t>
   </si>
   <si>
     <t xml:space="preserve">8.51208019256592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29679393768311</t>
+    <t xml:space="preserve">8.29679489135742</t>
   </si>
   <si>
     <t xml:space="preserve">8.87641143798828</t>
@@ -1571,46 +1571,46 @@
     <t xml:space="preserve">9.10825634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77704811096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62800312042236</t>
+    <t xml:space="preserve">8.7770471572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62800407409668</t>
   </si>
   <si>
     <t xml:space="preserve">8.8101692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67768383026123</t>
+    <t xml:space="preserve">8.67768478393555</t>
   </si>
   <si>
     <t xml:space="preserve">8.74392700195312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84329032897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61144161224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456272125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59488201141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69424438476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90953254699707</t>
+    <t xml:space="preserve">8.84328937530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61144256591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64456367492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59488296508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69424533843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90953159332275</t>
   </si>
   <si>
     <t xml:space="preserve">8.44583797454834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66112327575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19743061065674</t>
+    <t xml:space="preserve">8.66112422943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19743156433105</t>
   </si>
   <si>
     <t xml:space="preserve">8.34647560119629</t>
@@ -1622,49 +1622,49 @@
     <t xml:space="preserve">8.32991504669189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25539302825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1146297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23883247375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89297103881836</t>
+    <t xml:space="preserve">8.25539112091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11462879180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23883152008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89297008514404</t>
   </si>
   <si>
     <t xml:space="preserve">8.24711227416992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12290954589844</t>
+    <t xml:space="preserve">8.12291049957275</t>
   </si>
   <si>
     <t xml:space="preserve">8.18087100982666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46239948272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39615726470947</t>
+    <t xml:space="preserve">8.46239852905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39615631103516</t>
   </si>
   <si>
     <t xml:space="preserve">8.18915176391602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15602970123291</t>
+    <t xml:space="preserve">8.15603160858154</t>
   </si>
   <si>
     <t xml:space="preserve">8.5617618560791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32354354858398</t>
+    <t xml:space="preserve">9.32354259490967</t>
   </si>
   <si>
     <t xml:space="preserve">9.90316009521484</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1515665054321</t>
+    <t xml:space="preserve">10.1515674591064</t>
   </si>
   <si>
     <t xml:space="preserve">10.0190830230713</t>
@@ -1676,19 +1676,19 @@
     <t xml:space="preserve">10.4993362426758</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4330949783325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.565577507019</t>
+    <t xml:space="preserve">10.4330940246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5655784606934</t>
   </si>
   <si>
     <t xml:space="preserve">10.7311820983887</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0955123901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9630279541016</t>
+    <t xml:space="preserve">11.095513343811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9630289077759</t>
   </si>
   <si>
     <t xml:space="preserve">11.1451940536499</t>
@@ -1697,10 +1697,10 @@
     <t xml:space="preserve">10.7974243164062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7477436065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5158967971802</t>
+    <t xml:space="preserve">10.7477416992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5158958435059</t>
   </si>
   <si>
     <t xml:space="preserve">10.466215133667</t>
@@ -1709,43 +1709,43 @@
     <t xml:space="preserve">10.4496536254883</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4827747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2840509414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3171710968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1184453964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5324583053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5986986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0789518356323</t>
+    <t xml:space="preserve">10.4827756881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.284049987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3171701431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1184463500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5324573516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5986995697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0789527893066</t>
   </si>
   <si>
     <t xml:space="preserve">10.8305444717407</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5821371078491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6980609893799</t>
+    <t xml:space="preserve">10.5821390151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6980619430542</t>
   </si>
   <si>
     <t xml:space="preserve">10.9464683532715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8802280426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8967876434326</t>
+    <t xml:space="preserve">10.8802270889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8967866897583</t>
   </si>
   <si>
     <t xml:space="preserve">11.0292711257935</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">11.2279968261719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2611179351807</t>
+    <t xml:space="preserve">11.2611169815063</t>
   </si>
   <si>
     <t xml:space="preserve">11.2114353179932</t>
@@ -1763,10 +1763,10 @@
     <t xml:space="preserve">11.1948757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1783142089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2445573806763</t>
+    <t xml:space="preserve">11.1783151626587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.244556427002</t>
   </si>
   <si>
     <t xml:space="preserve">11.3604803085327</t>
@@ -1775,16 +1775,16 @@
     <t xml:space="preserve">11.6088876724243</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5757656097412</t>
+    <t xml:space="preserve">11.5757665634155</t>
   </si>
   <si>
     <t xml:space="preserve">11.7579317092896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6420087814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.873854637146</t>
+    <t xml:space="preserve">11.6420078277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8738555908203</t>
   </si>
   <si>
     <t xml:space="preserve">11.7910528182983</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">11.7248115539551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8076124191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7413721084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7082509994507</t>
+    <t xml:space="preserve">11.8076133728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7413711547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7082490921021</t>
   </si>
   <si>
     <t xml:space="preserve">11.5923271179199</t>
@@ -1820,40 +1820,40 @@
     <t xml:space="preserve">9.82035636901855</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0853242874146</t>
+    <t xml:space="preserve">10.0853252410889</t>
   </si>
   <si>
     <t xml:space="preserve">9.4891471862793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02545356750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7337384223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93246364593506</t>
+    <t xml:space="preserve">9.0254545211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73373794555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93246412277222</t>
   </si>
   <si>
     <t xml:space="preserve">7.96558427810669</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91590309143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15793895721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92609214782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85984992980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00889301300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52226829528809</t>
+    <t xml:space="preserve">7.91590404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15793991088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92609024047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85984897613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00889492034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5222692489624</t>
   </si>
   <si>
     <t xml:space="preserve">9.9859619140625</t>
@@ -1865,37 +1865,37 @@
     <t xml:space="preserve">9.43946647644043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91971969604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38978385925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37322330474854</t>
+    <t xml:space="preserve">9.91971874237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38978481292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37322521209717</t>
   </si>
   <si>
     <t xml:space="preserve">9.63819217681885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42290592193604</t>
+    <t xml:space="preserve">9.42290496826172</t>
   </si>
   <si>
     <t xml:space="preserve">9.67131328582764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40634441375732</t>
+    <t xml:space="preserve">9.40634536743164</t>
   </si>
   <si>
     <t xml:space="preserve">9.57194995880127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55539035797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7375545501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4725866317749</t>
+    <t xml:space="preserve">9.55538940429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73755359649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47258758544922</t>
   </si>
   <si>
     <t xml:space="preserve">9.82956409454346</t>
@@ -1916,19 +1916,19 @@
     <t xml:space="preserve">9.19373512268066</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70927238464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43431854248047</t>
+    <t xml:space="preserve">9.70927143096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43431949615479</t>
   </si>
   <si>
     <t xml:space="preserve">9.26247406005859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21092128753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48587322235107</t>
+    <t xml:space="preserve">9.2109203338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48587417602539</t>
   </si>
   <si>
     <t xml:space="preserve">9.86393356323242</t>
@@ -1949,16 +1949,16 @@
     <t xml:space="preserve">10.8950071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7575302124023</t>
+    <t xml:space="preserve">10.7575311660767</t>
   </si>
   <si>
     <t xml:space="preserve">10.7918996810913</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8606376647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8090839385986</t>
+    <t xml:space="preserve">10.8606386184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8090829849243</t>
   </si>
   <si>
     <t xml:space="preserve">10.5169467926025</t>
@@ -1976,46 +1976,46 @@
     <t xml:space="preserve">10.7747144699097</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9121913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8262691497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.152774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4620971679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4964656829834</t>
+    <t xml:space="preserve">10.9121904373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.826268196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1527738571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4620962142944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4964666366577</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4105424880981</t>
+    <t xml:space="preserve">11.4105434417725</t>
   </si>
   <si>
     <t xml:space="preserve">11.5480194091797</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2902526855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.238697052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3761730194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.599573135376</t>
+    <t xml:space="preserve">11.2902517318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2386980056763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3761739730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5995740890503</t>
   </si>
   <si>
     <t xml:space="preserve">11.7542343139648</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7714195251465</t>
+    <t xml:space="preserve">11.7714185714722</t>
   </si>
   <si>
     <t xml:space="preserve">11.926079750061</t>
@@ -2027,28 +2027,28 @@
     <t xml:space="preserve">12.2010326385498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0807418823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0979261398315</t>
+    <t xml:space="preserve">12.0807409286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0979251861572</t>
   </si>
   <si>
     <t xml:space="preserve">12.1151103973389</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1322946548462</t>
+    <t xml:space="preserve">12.1322956085205</t>
   </si>
   <si>
     <t xml:space="preserve">11.9776334762573</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8401575088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8573408126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4792804718018</t>
+    <t xml:space="preserve">11.8401565551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8573417663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4792823791504</t>
   </si>
   <si>
     <t xml:space="preserve">11.1355895996094</t>
@@ -2057,46 +2057,46 @@
     <t xml:space="preserve">11.1184053421021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3074359893799</t>
+    <t xml:space="preserve">11.3074350357056</t>
   </si>
   <si>
     <t xml:space="preserve">11.4277276992798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2043285369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3418054580688</t>
+    <t xml:space="preserve">11.204327583313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3418045043945</t>
   </si>
   <si>
     <t xml:space="preserve">11.2215137481689</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3246221542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1012201309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1871452331543</t>
+    <t xml:space="preserve">11.3246212005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.101222038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.18714427948</t>
   </si>
   <si>
     <t xml:space="preserve">11.0496673583984</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9637441635132</t>
+    <t xml:space="preserve">10.9637451171875</t>
   </si>
   <si>
     <t xml:space="preserve">11.1699590682983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9981136322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5136499404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6854963302612</t>
+    <t xml:space="preserve">10.9981155395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.513650894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6854953765869</t>
   </si>
   <si>
     <t xml:space="preserve">11.6167583465576</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">12.0635566711426</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9432649612427</t>
+    <t xml:space="preserve">11.9432640075684</t>
   </si>
   <si>
     <t xml:space="preserve">10.5513153076172</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6544227600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0324831008911</t>
+    <t xml:space="preserve">10.6544218063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0324840545654</t>
   </si>
   <si>
     <t xml:space="preserve">11.3589897155762</t>
@@ -2153,10 +2153,10 @@
     <t xml:space="preserve">11.5308351516724</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8917102813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9948177337646</t>
+    <t xml:space="preserve">11.8917112350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.994818687439</t>
   </si>
   <si>
     <t xml:space="preserve">12.0463724136353</t>
@@ -2168,16 +2168,16 @@
     <t xml:space="preserve">11.8057880401611</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6339426040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1838483810425</t>
+    <t xml:space="preserve">11.6339416503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1838474273682</t>
   </si>
   <si>
     <t xml:space="preserve">12.4416160583496</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3728771209717</t>
+    <t xml:space="preserve">12.372878074646</t>
   </si>
   <si>
     <t xml:space="preserve">12.4072465896606</t>
@@ -2186,10 +2186,10 @@
     <t xml:space="preserve">12.6993837356567</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0087070465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3008441925049</t>
+    <t xml:space="preserve">13.0087080001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3008432388306</t>
   </si>
   <si>
     <t xml:space="preserve">12.8884143829346</t>
@@ -2201,19 +2201,19 @@
     <t xml:space="preserve">12.6822004318237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4759864807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5275392532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2525854110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6306447982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6650142669678</t>
+    <t xml:space="preserve">12.4759855270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5275402069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2525863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6306467056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6650152206421</t>
   </si>
   <si>
     <t xml:space="preserve">12.7853078842163</t>
@@ -2225,19 +2225,19 @@
     <t xml:space="preserve">12.8024911880493</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9743385314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1118144989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2149209976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1633672714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1977367401123</t>
+    <t xml:space="preserve">12.9743375778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1118154525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2149200439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1633682250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.197735786438</t>
   </si>
   <si>
     <t xml:space="preserve">13.6273508071899</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">13.7476425170898</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7132730484009</t>
+    <t xml:space="preserve">13.7132720947266</t>
   </si>
   <si>
     <t xml:space="preserve">13.592981338501</t>
   </si>
   <si>
-    <t xml:space="preserve">13.524242401123</t>
+    <t xml:space="preserve">13.5242433547974</t>
   </si>
   <si>
     <t xml:space="preserve">13.3523979187012</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">13.6101665496826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.919487953186</t>
+    <t xml:space="preserve">13.9194889068604</t>
   </si>
   <si>
     <t xml:space="preserve">14.0225954055786</t>
@@ -2279,25 +2279,25 @@
     <t xml:space="preserve">14.8474550247192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0364856719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0708541870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0192985534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6927928924561</t>
+    <t xml:space="preserve">15.0364847183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0708532333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0192995071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6927938461304</t>
   </si>
   <si>
     <t xml:space="preserve">14.3834705352783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5896854400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6756076812744</t>
+    <t xml:space="preserve">14.5896844863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6756086349487</t>
   </si>
   <si>
     <t xml:space="preserve">14.4178400039673</t>
@@ -2309,7 +2309,7 @@
     <t xml:space="preserve">14.5725002288818</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7958993911743</t>
+    <t xml:space="preserve">14.7958984375</t>
   </si>
   <si>
     <t xml:space="preserve">14.744345664978</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">15.1567754745483</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9505615234375</t>
+    <t xml:space="preserve">14.9505605697632</t>
   </si>
   <si>
     <t xml:space="preserve">15.0536680221558</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">15.2942514419556</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3819484710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960842132568</t>
+    <t xml:space="preserve">15.3819494247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960851669312</t>
   </si>
   <si>
     <t xml:space="preserve">14.9610061645508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9434671401978</t>
+    <t xml:space="preserve">14.9434680938721</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837812423706</t>
@@ -2354,10 +2354,10 @@
     <t xml:space="preserve">15.0487012863159</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8733081817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0136251449585</t>
+    <t xml:space="preserve">14.873309135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0136241912842</t>
   </si>
   <si>
     <t xml:space="preserve">14.7856130599976</t>
@@ -2366,16 +2366,16 @@
     <t xml:space="preserve">14.592679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1188592910767</t>
+    <t xml:space="preserve">15.1188583374023</t>
   </si>
   <si>
     <t xml:space="preserve">14.855770111084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8031520843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7680730819702</t>
+    <t xml:space="preserve">14.8031511306763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7680740356445</t>
   </si>
   <si>
     <t xml:space="preserve">14.838231086731</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">15.0311613082886</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1539392471313</t>
+    <t xml:space="preserve">15.153938293457</t>
   </si>
   <si>
     <t xml:space="preserve">14.9785442352295</t>
@@ -2399,34 +2399,34 @@
     <t xml:space="preserve">14.89084815979</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7505340576172</t>
+    <t xml:space="preserve">14.7505331039429</t>
   </si>
   <si>
     <t xml:space="preserve">15.1714754104614</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0662422180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3293294906616</t>
+    <t xml:space="preserve">15.0662412643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3293304443359</t>
   </si>
   <si>
     <t xml:space="preserve">15.3468704223633</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8206901550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5398015975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6099576950073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5222635269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5748805999756</t>
+    <t xml:space="preserve">14.8206911087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5398006439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6099586486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5222625732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5748796463013</t>
   </si>
   <si>
     <t xml:space="preserve">15.7853517532349</t>
@@ -2435,19 +2435,19 @@
     <t xml:space="preserve">15.9607448577881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1887531280518</t>
+    <t xml:space="preserve">16.1887550354004</t>
   </si>
   <si>
     <t xml:space="preserve">16.0309009552002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7327356338501</t>
+    <t xml:space="preserve">15.7327346801758</t>
   </si>
   <si>
     <t xml:space="preserve">16.2413730621338</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5921592712402</t>
+    <t xml:space="preserve">16.5921573638916</t>
   </si>
   <si>
     <t xml:space="preserve">16.4167652130127</t>
@@ -2456,19 +2456,19 @@
     <t xml:space="preserve">16.2589130401611</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1536769866943</t>
+    <t xml:space="preserve">16.153678894043</t>
   </si>
   <si>
     <t xml:space="preserve">16.136137008667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9256649017334</t>
+    <t xml:space="preserve">15.9256658554077</t>
   </si>
   <si>
     <t xml:space="preserve">16.0835208892822</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9782819747925</t>
+    <t xml:space="preserve">15.9782829284668</t>
   </si>
   <si>
     <t xml:space="preserve">15.8379688262939</t>
@@ -2480,10 +2480,10 @@
     <t xml:space="preserve">15.662576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6274976730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9958238601685</t>
+    <t xml:space="preserve">15.6274967193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9958229064941</t>
   </si>
   <si>
     <t xml:space="preserve">15.8204317092896</t>
@@ -2501,10 +2501,10 @@
     <t xml:space="preserve">14.4699058532715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4874448776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2591733932495</t>
+    <t xml:space="preserve">14.4874458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2591724395752</t>
   </si>
   <si>
     <t xml:space="preserve">15.3994874954224</t>
@@ -2516,13 +2516,13 @@
     <t xml:space="preserve">15.2416324615479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2240953445435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2065563201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3466091156006</t>
+    <t xml:space="preserve">15.2240962982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2065553665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.346607208252</t>
   </si>
   <si>
     <t xml:space="preserve">16.0659809112549</t>
@@ -2531,19 +2531,19 @@
     <t xml:space="preserve">15.8730487823486</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3117904663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6102209091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5576028823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4172878265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5225229263306</t>
+    <t xml:space="preserve">15.3117895126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6102199554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5576019287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4172887802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5225219726562</t>
   </si>
   <si>
     <t xml:space="preserve">14.2945117950439</t>
@@ -2567,13 +2567,13 @@
     <t xml:space="preserve">14.2769746780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3646688461304</t>
+    <t xml:space="preserve">14.3646697998047</t>
   </si>
   <si>
     <t xml:space="preserve">14.3822088241577</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8735694885254</t>
+    <t xml:space="preserve">13.8735704421997</t>
   </si>
   <si>
     <t xml:space="preserve">14.0840406417847</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">13.1544589996338</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9966058731079</t>
+    <t xml:space="preserve">12.9966049194336</t>
   </si>
   <si>
     <t xml:space="preserve">13.4350881576538</t>
@@ -2606,10 +2606,10 @@
     <t xml:space="preserve">13.1369199752808</t>
   </si>
   <si>
-    <t xml:space="preserve">13.312313079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0316848754883</t>
+    <t xml:space="preserve">13.3123140335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.031683921814</t>
   </si>
   <si>
     <t xml:space="preserve">13.0492238998413</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">12.7685956954956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4879674911499</t>
+    <t xml:space="preserve">12.4879665374756</t>
   </si>
   <si>
     <t xml:space="preserve">12.259955406189</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">12.4528884887695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1898002624512</t>
+    <t xml:space="preserve">12.1897993087769</t>
   </si>
   <si>
     <t xml:space="preserve">11.9617881774902</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">11.8039350509644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8565540313721</t>
+    <t xml:space="preserve">11.8565530776978</t>
   </si>
   <si>
     <t xml:space="preserve">11.4531497955322</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">11.2251396179199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8392744064331</t>
+    <t xml:space="preserve">10.8392734527588</t>
   </si>
   <si>
     <t xml:space="preserve">10.7691173553467</t>
@@ -2681,16 +2681,16 @@
     <t xml:space="preserve">9.8921537399292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1727819442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85707569122314</t>
+    <t xml:space="preserve">10.1727828979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85707473754883</t>
   </si>
   <si>
     <t xml:space="preserve">10.0675468444824</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5761852264404</t>
+    <t xml:space="preserve">10.5761861801147</t>
   </si>
   <si>
     <t xml:space="preserve">9.92723178863525</t>
@@ -2705,28 +2705,28 @@
     <t xml:space="preserve">10.8918924331665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0848245620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7515783309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6814212799072</t>
+    <t xml:space="preserve">11.0848255157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.751579284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6814222335815</t>
   </si>
   <si>
     <t xml:space="preserve">10.7165002822876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6288032531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4183330535889</t>
+    <t xml:space="preserve">10.6288042068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4183320999146</t>
   </si>
   <si>
     <t xml:space="preserve">10.4534111022949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2429389953613</t>
+    <t xml:space="preserve">10.2429399490356</t>
   </si>
   <si>
     <t xml:space="preserve">10.1552429199219</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">9.69922256469727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80445766448975</t>
+    <t xml:space="preserve">9.80445671081543</t>
   </si>
   <si>
     <t xml:space="preserve">9.90969276428223</t>
@@ -2756,13 +2756,13 @@
     <t xml:space="preserve">10.3306350708008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1903209686279</t>
+    <t xml:space="preserve">10.1903219223022</t>
   </si>
   <si>
     <t xml:space="preserve">10.5937252044678</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1374416351318</t>
+    <t xml:space="preserve">11.1374425888062</t>
   </si>
   <si>
     <t xml:space="preserve">11.0497465133667</t>
@@ -60260,7 +60260,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.649375</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>107680</v>
@@ -60281,6 +60281,32 @@
         <v>1236</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6494791667</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>91982</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>12.1199998855591</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>11.8000001907349</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>12.1199998855591</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>11.8000001907349</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -38,166 +38,166 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27017641067505</t>
+    <t xml:space="preserve">4.27017688751221</t>
   </si>
   <si>
     <t xml:space="preserve">ZV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25228071212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16279649734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.044677734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99456548690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91939926147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96951007843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95519328117371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01604223251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98382759094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89434337615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87286710739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76548767089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85855031013489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729591369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91224122047424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86570835113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90150284767151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95877265930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8012797832489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79412221908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78696250915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69389986991882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65810585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71537566184998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57936000823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60083675384521</t>
+    <t xml:space="preserve">4.25227975845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16279602050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04467678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99456596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91939902305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96951127052307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95519351959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01604175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98382782936096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89434385299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87286758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7654869556427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85855007171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729615211487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91224050521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86570882797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90150237083435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9587721824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80128002166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79412174224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78696322441101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69389963150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65810608863831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71537590026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5793604850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60083603858948</t>
   </si>
   <si>
     <t xml:space="preserve">3.70821714401245</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75832748413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76906609535217</t>
+    <t xml:space="preserve">3.75832772254944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76906633377075</t>
   </si>
   <si>
     <t xml:space="preserve">3.81559777259827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77980446815491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74759006500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72611355781555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70105791091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76190757751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78338432312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80486035346985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74401068687439</t>
+    <t xml:space="preserve">3.77980470657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7475905418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72611427307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70105862617493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76190829277039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78338360786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80485987663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74401116371155</t>
   </si>
   <si>
     <t xml:space="preserve">3.7726457118988</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85139131546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00172519683838</t>
+    <t xml:space="preserve">3.85139107704163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00172567367554</t>
   </si>
   <si>
     <t xml:space="preserve">4.05899477005005</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08404970169067</t>
+    <t xml:space="preserve">4.08405017852783</t>
   </si>
   <si>
     <t xml:space="preserve">4.06973266601562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15205764770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15921640396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13774061203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12342309951782</t>
+    <t xml:space="preserve">4.15205860137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15921688079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13774108886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12342262268066</t>
   </si>
   <si>
     <t xml:space="preserve">4.11626386642456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14489841461182</t>
+    <t xml:space="preserve">4.14489889144897</t>
   </si>
   <si>
     <t xml:space="preserve">4.13058137893677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19501066207886</t>
+    <t xml:space="preserve">4.1950101852417</t>
   </si>
   <si>
     <t xml:space="preserve">4.09836721420288</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">4.07689094543457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16637563705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11984395980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16995429992676</t>
+    <t xml:space="preserve">4.16637516021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11984348297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16995477676392</t>
   </si>
   <si>
     <t xml:space="preserve">4.18069267272949</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">4.1878514289856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1341609954834</t>
+    <t xml:space="preserve">4.13416147232056</t>
   </si>
   <si>
     <t xml:space="preserve">4.19858932495117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14131879806519</t>
+    <t xml:space="preserve">4.1413197517395</t>
   </si>
   <si>
     <t xml:space="preserve">4.09120893478394</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">4.10706949234009</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09213399887085</t>
+    <t xml:space="preserve">4.09213447570801</t>
   </si>
   <si>
     <t xml:space="preserve">4.07720041275024</t>
@@ -245,49 +245,49 @@
     <t xml:space="preserve">4.05479764938354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08093357086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09586811065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11453771591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12200355529785</t>
+    <t xml:space="preserve">4.08093309402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0958685874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11453723907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12200450897217</t>
   </si>
   <si>
     <t xml:space="preserve">4.11080312728882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16680860519409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17800998687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1854772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24148225784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25268411636353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31988954544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28628730773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26761865615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21908044815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23401498794556</t>
+    <t xml:space="preserve">4.16680765151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17800951004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18547677993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24148273468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25268316268921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31989002227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28628635406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26761817932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21907997131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23401546478271</t>
   </si>
   <si>
     <t xml:space="preserve">4.20041179656982</t>
@@ -299,22 +299,22 @@
     <t xml:space="preserve">4.01746034622192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99505805969238</t>
+    <t xml:space="preserve">3.99505853652954</t>
   </si>
   <si>
     <t xml:space="preserve">3.96892285346985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96145510673523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12573862075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14440631866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17427682876587</t>
+    <t xml:space="preserve">3.96145486831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12573766708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14440679550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17427635192871</t>
   </si>
   <si>
     <t xml:space="preserve">4.26388502120972</t>
@@ -332,10 +332,10 @@
     <t xml:space="preserve">4.08840131759644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03986263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02119398117065</t>
+    <t xml:space="preserve">4.03986215591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02119445800781</t>
   </si>
   <si>
     <t xml:space="preserve">4.05853128433228</t>
@@ -353,10 +353,10 @@
     <t xml:space="preserve">4.11827087402344</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15934085845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12947177886963</t>
+    <t xml:space="preserve">4.15934133529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12947225570679</t>
   </si>
   <si>
     <t xml:space="preserve">4.13693952560425</t>
@@ -365,103 +365,103 @@
     <t xml:space="preserve">4.20414590835571</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2265477180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24895048141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18174314498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06226491928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02866220474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98385763168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98012328147888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97638988494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95772171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93531942367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98759150505066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.002525806427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03612995147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93905305862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95025372505188</t>
+    <t xml:space="preserve">4.22654724121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24894952774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18174362182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06226587295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02866172790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98385739326477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98012351989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97638964653015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95772099494934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93531918525696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98759126663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00252628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03612947463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93905258178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95025420188904</t>
   </si>
   <si>
     <t xml:space="preserve">3.94278645515442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94652032852173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86064529418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84571003913879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86811256408691</t>
+    <t xml:space="preserve">3.94652080535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86064481735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84571099281311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86811232566833</t>
   </si>
   <si>
     <t xml:space="preserve">3.82330846786499</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81584095954895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077573776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8195743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85317826271057</t>
+    <t xml:space="preserve">3.81584119796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077597618103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81957411766052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85317778587341</t>
   </si>
   <si>
     <t xml:space="preserve">3.95398759841919</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14067220687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21161317825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22281408309937</t>
+    <t xml:space="preserve">4.14067316055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21161270141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22281455993652</t>
   </si>
   <si>
     <t xml:space="preserve">4.09960174560547</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1033353805542</t>
+    <t xml:space="preserve">4.10333585739136</t>
   </si>
   <si>
     <t xml:space="preserve">4.00999355316162</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0435962677002</t>
+    <t xml:space="preserve">4.04359674453735</t>
   </si>
   <si>
     <t xml:space="preserve">4.00625944137573</t>
@@ -470,37 +470,37 @@
     <t xml:space="preserve">4.06599903106689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92038369178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0734658241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26015138626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27135181427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31615734100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33109140396118</t>
+    <t xml:space="preserve">3.9203839302063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07346630096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26015090942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27135229110718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3161563873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33109188079834</t>
   </si>
   <si>
     <t xml:space="preserve">4.28255319595337</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27881956100464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32362365722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34229230880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3086895942688</t>
+    <t xml:space="preserve">4.2788200378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32362413406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34229278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30868864059448</t>
   </si>
   <si>
     <t xml:space="preserve">4.30495548248291</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">4.3385591506958</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33482503890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36842775344849</t>
+    <t xml:space="preserve">4.33482456207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36842823028564</t>
   </si>
   <si>
     <t xml:space="preserve">4.36096096038818</t>
@@ -530,211 +530,211 @@
     <t xml:space="preserve">4.42070007324219</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39456462860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48043918609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45430374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51777696609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59245014190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61485242843628</t>
+    <t xml:space="preserve">4.39456415176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48043966293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45430326461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51777648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5924506187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61485195159912</t>
   </si>
   <si>
     <t xml:space="preserve">4.5999174118042</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55511331558228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54764604568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62978649139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76420068740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99569034576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18984222412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22718000411987</t>
+    <t xml:space="preserve">4.55511283874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54764556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6297869682312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76420021057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.995689868927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18984270095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22717905044556</t>
   </si>
   <si>
     <t xml:space="preserve">5.48853826522827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51840734481812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52587556838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52214193344116</t>
+    <t xml:space="preserve">5.51840829849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52587509155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.522141456604</t>
   </si>
   <si>
     <t xml:space="preserve">5.3802604675293</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3615927696228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37279319763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639638900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39519596099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44373416900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45120096206665</t>
+    <t xml:space="preserve">5.36159181594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37279367446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639686584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39519548416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44373321533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45120143890381</t>
   </si>
   <si>
     <t xml:space="preserve">5.46613645553589</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48480463027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43626689910889</t>
+    <t xml:space="preserve">5.48480415344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43626642227173</t>
   </si>
   <si>
     <t xml:space="preserve">5.42133188247681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54454374313354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56694650650024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91417980194092</t>
+    <t xml:space="preserve">5.5445442199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56694602966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91418027877808</t>
   </si>
   <si>
     <t xml:space="preserve">5.82457113265991</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66028833389282</t>
+    <t xml:space="preserve">5.66028881072998</t>
   </si>
   <si>
     <t xml:space="preserve">5.78723430633545</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6752233505249</t>
+    <t xml:space="preserve">5.67522287368774</t>
   </si>
   <si>
     <t xml:space="preserve">5.74989700317383</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84323978424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92965745925903</t>
+    <t xml:space="preserve">5.84323930740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92965698242188</t>
   </si>
   <si>
     <t xml:space="preserve">5.97209453582764</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01067447662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94123077392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93737316131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91422557830811</t>
+    <t xml:space="preserve">6.01067399978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94123125076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93737363815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91422605514526</t>
   </si>
   <si>
     <t xml:space="preserve">5.72904491424561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72518634796143</t>
+    <t xml:space="preserve">5.72518682479858</t>
   </si>
   <si>
     <t xml:space="preserve">5.86793041229248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87564611434937</t>
+    <t xml:space="preserve">5.87564659118652</t>
   </si>
   <si>
     <t xml:space="preserve">5.81006145477295</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77148151397705</t>
+    <t xml:space="preserve">5.77148199081421</t>
   </si>
   <si>
     <t xml:space="preserve">5.8717885017395</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76376533508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67117500305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67889165878296</t>
+    <t xml:space="preserve">5.76376581192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67117547988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6788911819458</t>
   </si>
   <si>
     <t xml:space="preserve">5.74061822891235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70975542068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78691339492798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75605010986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.790771484375</t>
+    <t xml:space="preserve">5.7097544670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78691387176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75604963302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79077243804932</t>
   </si>
   <si>
     <t xml:space="preserve">5.80620336532593</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8602147102356</t>
+    <t xml:space="preserve">5.86021423339844</t>
   </si>
   <si>
     <t xml:space="preserve">5.91808366775513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71746969223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82549285888672</t>
+    <t xml:space="preserve">5.71747016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82549333572388</t>
   </si>
   <si>
     <t xml:space="preserve">5.86407232284546</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75990867614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9335150718689</t>
+    <t xml:space="preserve">5.7599081993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93351554870605</t>
   </si>
   <si>
     <t xml:space="preserve">5.81777715682983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64802742004395</t>
+    <t xml:space="preserve">5.6480278968811</t>
   </si>
   <si>
     <t xml:space="preserve">5.67503309249878</t>
@@ -746,13 +746,13 @@
     <t xml:space="preserve">5.58630037307739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44741439819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4165506362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57086849212646</t>
+    <t xml:space="preserve">5.44741535186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41655111312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57086896896362</t>
   </si>
   <si>
     <t xml:space="preserve">5.62102174758911</t>
@@ -767,31 +767,31 @@
     <t xml:space="preserve">5.69432306289673</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68274927139282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54000520706177</t>
+    <t xml:space="preserve">5.68274879455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54000473022461</t>
   </si>
   <si>
     <t xml:space="preserve">5.77919721603394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7213282585144</t>
+    <t xml:space="preserve">5.72132873535156</t>
   </si>
   <si>
     <t xml:space="preserve">5.73290205001831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74833393096924</t>
+    <t xml:space="preserve">5.7483344078064</t>
   </si>
   <si>
     <t xml:space="preserve">5.79462957382202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65574359893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79848766326904</t>
+    <t xml:space="preserve">5.65574312210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79848670959473</t>
   </si>
   <si>
     <t xml:space="preserve">5.81391954421997</t>
@@ -800,58 +800,58 @@
     <t xml:space="preserve">5.88721990585327</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89493560791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87950372695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8332085609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85249805450439</t>
+    <t xml:space="preserve">5.89493608474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87950420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83320903778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85249900817871</t>
   </si>
   <si>
     <t xml:space="preserve">5.97595262527466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9026517868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89107799530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8216347694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84478282928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92194223403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90650987625122</t>
+    <t xml:space="preserve">5.90265226364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89107847213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82163524627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84478330612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92194175720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90651035308838</t>
   </si>
   <si>
     <t xml:space="preserve">6.08397531509399</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12255477905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26529788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28073072433472</t>
+    <t xml:space="preserve">6.12255525588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26529884338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28073120117188</t>
   </si>
   <si>
     <t xml:space="preserve">6.33859920501709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27301406860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32702541351318</t>
+    <t xml:space="preserve">6.27301454544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32702589035034</t>
   </si>
   <si>
     <t xml:space="preserve">6.16113376617432</t>
@@ -860,22 +860,22 @@
     <t xml:space="preserve">6.21900367736816</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16499137878418</t>
+    <t xml:space="preserve">6.16499185562134</t>
   </si>
   <si>
     <t xml:space="preserve">6.29616165161133</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09554862976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24600887298584</t>
+    <t xml:space="preserve">6.0955491065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.246009349823</t>
   </si>
   <si>
     <t xml:space="preserve">6.16884994506836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17270851135254</t>
+    <t xml:space="preserve">6.17270755767822</t>
   </si>
   <si>
     <t xml:space="preserve">6.20357131958008</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">6.11098098754883</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18428182601929</t>
+    <t xml:space="preserve">6.18428230285645</t>
   </si>
   <si>
     <t xml:space="preserve">6.0261058807373</t>
@@ -899,25 +899,25 @@
     <t xml:space="preserve">6.08011722564697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05311107635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00681591033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98752689361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22286081314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11483860015869</t>
+    <t xml:space="preserve">6.05311059951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00681638717651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98752593994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22286128997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11483812332153</t>
   </si>
   <si>
     <t xml:space="preserve">6.10712289810181</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06082773208618</t>
+    <t xml:space="preserve">6.06082725524902</t>
   </si>
   <si>
     <t xml:space="preserve">5.92579936981201</t>
@@ -926,22 +926,22 @@
     <t xml:space="preserve">5.94894695281982</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84863996505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08783340454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94508934020996</t>
+    <t xml:space="preserve">5.84864091873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0878324508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9450888633728</t>
   </si>
   <si>
     <t xml:space="preserve">6.00295877456665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06468534469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09169054031372</t>
+    <t xml:space="preserve">6.0646858215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09169149398804</t>
   </si>
   <si>
     <t xml:space="preserve">6.1379861831665</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">6.15341806411743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21128702163696</t>
+    <t xml:space="preserve">6.21128749847412</t>
   </si>
   <si>
     <t xml:space="preserve">6.14955997467041</t>
@@ -962,25 +962,25 @@
     <t xml:space="preserve">6.23829317092896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26143980026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25758218765259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2884464263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36560440063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40418481826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35017251968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43504858016968</t>
+    <t xml:space="preserve">6.26144027709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25758266448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28844594955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36560487747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40418434143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35017204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43504762649536</t>
   </si>
   <si>
     <t xml:space="preserve">6.58164978027344</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">6.53535509109497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37332105636597</t>
+    <t xml:space="preserve">6.37332057952881</t>
   </si>
   <si>
     <t xml:space="preserve">6.38103675842285</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">6.60479736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55850124359131</t>
+    <t xml:space="preserve">6.55850219726562</t>
   </si>
   <si>
     <t xml:space="preserve">6.48905897140503</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">6.04925394058228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30387878417969</t>
+    <t xml:space="preserve">6.30387830734253</t>
   </si>
   <si>
     <t xml:space="preserve">6.34245729446411</t>
@@ -1028,46 +1028,46 @@
     <t xml:space="preserve">6.18042373657227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31159400939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33474159240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46591138839722</t>
+    <t xml:space="preserve">6.31159448623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33474111557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46591186523438</t>
   </si>
   <si>
     <t xml:space="preserve">6.50449085235596</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45047903060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3193097114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23443508148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49677467346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4427638053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39646863937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41961622238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42733192443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52763891220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51992273330688</t>
+    <t xml:space="preserve">6.45047855377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31930923461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23443460464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49677515029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44276428222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39646816253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41961526870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42733240127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52763843536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51992225646973</t>
   </si>
   <si>
     <t xml:space="preserve">6.59708166122437</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">6.63566112518311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74785757064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67573070526123</t>
+    <t xml:space="preserve">6.74785804748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67573118209839</t>
   </si>
   <si>
     <t xml:space="preserve">6.58757591247559</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">6.63566064834595</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5074348449707</t>
+    <t xml:space="preserve">6.50743579864502</t>
   </si>
   <si>
     <t xml:space="preserve">6.62764692306519</t>
@@ -1097,25 +1097,25 @@
     <t xml:space="preserve">6.61963272094727</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56353378295898</t>
+    <t xml:space="preserve">6.56353330612183</t>
   </si>
   <si>
     <t xml:space="preserve">6.53147745132446</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49942111968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37119579315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39523792266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61161804199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57956266403198</t>
+    <t xml:space="preserve">6.4994215965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3711953163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39523887634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6116189956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57956218719482</t>
   </si>
   <si>
     <t xml:space="preserve">6.60360383987427</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">6.53949117660522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51544904708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55552005767822</t>
+    <t xml:space="preserve">6.51544952392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55552053451538</t>
   </si>
   <si>
     <t xml:space="preserve">6.35516738891602</t>
@@ -1145,19 +1145,19 @@
     <t xml:space="preserve">6.34715366363525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32311201095581</t>
+    <t xml:space="preserve">6.32311105728149</t>
   </si>
   <si>
     <t xml:space="preserve">6.46736478805542</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48339366912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45935153961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4353084564209</t>
+    <t xml:space="preserve">6.48339319229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45935106277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43530797958374</t>
   </si>
   <si>
     <t xml:space="preserve">6.29906940460205</t>
@@ -1172,22 +1172,22 @@
     <t xml:space="preserve">6.45133686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40325164794922</t>
+    <t xml:space="preserve">6.40325212478638</t>
   </si>
   <si>
     <t xml:space="preserve">6.33913993835449</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29105567932129</t>
+    <t xml:space="preserve">6.29105520248413</t>
   </si>
   <si>
     <t xml:space="preserve">6.27502679824829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41126680374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25098514556885</t>
+    <t xml:space="preserve">6.4112663269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25098466873169</t>
   </si>
   <si>
     <t xml:space="preserve">6.28304100036621</t>
@@ -1196,13 +1196,13 @@
     <t xml:space="preserve">6.21091413497925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37920999526978</t>
+    <t xml:space="preserve">6.37920951843262</t>
   </si>
   <si>
     <t xml:space="preserve">6.36318206787109</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33112525939941</t>
+    <t xml:space="preserve">6.33112573623657</t>
   </si>
   <si>
     <t xml:space="preserve">6.19488620758057</t>
@@ -1214,37 +1214,37 @@
     <t xml:space="preserve">6.59558963775635</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84402656555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01232290267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82799911499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94820928573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9321813583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98026561737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9241681098938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02835178375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90813970565796</t>
+    <t xml:space="preserve">6.84402751922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01232242584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82799863815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9482102394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93218183517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98026609420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92416763305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02835083007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90813875198364</t>
   </si>
   <si>
     <t xml:space="preserve">6.85204124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98828077316284</t>
+    <t xml:space="preserve">6.98828029632568</t>
   </si>
   <si>
     <t xml:space="preserve">7.04437875747681</t>
@@ -1259,28 +1259,28 @@
     <t xml:space="preserve">6.75587224960327</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77991437911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78792858123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9001259803772</t>
+    <t xml:space="preserve">6.77991390228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78792905807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90012502670288</t>
   </si>
   <si>
     <t xml:space="preserve">6.96423768997192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91615438461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94019603729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81196975708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70778703689575</t>
+    <t xml:space="preserve">6.91615390777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94019556045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81197023391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70778751373291</t>
   </si>
   <si>
     <t xml:space="preserve">6.5715479850769</t>
@@ -1289,13 +1289,13 @@
     <t xml:space="preserve">6.77190017700195</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68374586105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64367437362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06842088699341</t>
+    <t xml:space="preserve">6.68374538421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64367485046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06842041015625</t>
   </si>
   <si>
     <t xml:space="preserve">7.05239295959473</t>
@@ -1307,13 +1307,13 @@
     <t xml:space="preserve">7.13253355026245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99629402160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984336853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72381544113159</t>
+    <t xml:space="preserve">6.9962944984436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984384536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72381591796875</t>
   </si>
   <si>
     <t xml:space="preserve">6.836012840271</t>
@@ -1322,28 +1322,28 @@
     <t xml:space="preserve">6.88409757614136</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66771697998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71580123901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54750633239746</t>
+    <t xml:space="preserve">6.66771650314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71580219268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5475058555603</t>
   </si>
   <si>
     <t xml:space="preserve">6.76388549804688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10047721862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14054870605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18863201141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17260456085205</t>
+    <t xml:space="preserve">7.10047674179077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14054727554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18863248825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17260408401489</t>
   </si>
   <si>
     <t xml:space="preserve">7.11650562286377</t>
@@ -1352,10 +1352,10 @@
     <t xml:space="preserve">7.23671674728394</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25274467468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19664573669434</t>
+    <t xml:space="preserve">7.25274562835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19664621353149</t>
   </si>
   <si>
     <t xml:space="preserve">7.22870254516602</t>
@@ -1364,160 +1364,160 @@
     <t xml:space="preserve">7.20466089248657</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29281520843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38898420333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28480100631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33288526535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45309829711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50919580459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55728006362915</t>
+    <t xml:space="preserve">7.29281663894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38898515701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2848014831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3328857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45309686660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50919628143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55728054046631</t>
   </si>
   <si>
     <t xml:space="preserve">7.51720952987671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41302728652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4851541519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44508409500122</t>
+    <t xml:space="preserve">7.41302680969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48515319824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4450831413269</t>
   </si>
   <si>
     <t xml:space="preserve">7.49316740036011</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81373167037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7736611366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75763273239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52522373199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54125165939331</t>
+    <t xml:space="preserve">7.81373071670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77365970611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75763368606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52522420883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54125261306763</t>
   </si>
   <si>
     <t xml:space="preserve">7.53323745727539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66146326065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63742017745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61337757110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60536336898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57330751419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79770278930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85380172729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91791439056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96599817276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97401237487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19039249420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23847770690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07819557189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12627983093262</t>
+    <t xml:space="preserve">7.66146278381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63742065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61337852478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6053638458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57330846786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79770183563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85380125045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91791486740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96599864959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97401189804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19039344787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23847675323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0781946182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12628173828125</t>
   </si>
   <si>
     <t xml:space="preserve">8.00606918334961</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87784337997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94195508956909</t>
+    <t xml:space="preserve">7.87784481048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94195604324341</t>
   </si>
   <si>
     <t xml:space="preserve">8.03011131286621</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93394184112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99004077911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01408386230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98202657699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90188694000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89387273788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86983013153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14230918884277</t>
+    <t xml:space="preserve">7.93394136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99004030227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01408290863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98202610015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90188455581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89387226104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8698296546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14230823516846</t>
   </si>
   <si>
     <t xml:space="preserve">8.35067462921143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33464527130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71932125091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10399913787842</t>
+    <t xml:space="preserve">8.33464622497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71932315826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1039981842041</t>
   </si>
   <si>
     <t xml:space="preserve">8.97577285766602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63918018341064</t>
+    <t xml:space="preserve">8.63918209075928</t>
   </si>
   <si>
     <t xml:space="preserve">8.89563274383545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57832145690918</t>
+    <t xml:space="preserve">8.5783224105835</t>
   </si>
   <si>
     <t xml:space="preserve">8.54520034790039</t>
@@ -1529,16 +1529,16 @@
     <t xml:space="preserve">8.49551963806152</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41271781921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72736644744873</t>
+    <t xml:space="preserve">8.41271686553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72736549377441</t>
   </si>
   <si>
     <t xml:space="preserve">8.47895908355713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31335353851318</t>
+    <t xml:space="preserve">8.3133544921875</t>
   </si>
   <si>
     <t xml:space="preserve">8.1725902557373</t>
@@ -1547,19 +1547,19 @@
     <t xml:space="preserve">8.28023338317871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26367282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36303520202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42927646636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52864074707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51208019256592</t>
+    <t xml:space="preserve">8.26367378234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36303615570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42927742004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52864170074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5120792388916</t>
   </si>
   <si>
     <t xml:space="preserve">8.29679393768311</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">8.87641143798828</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94265270233154</t>
+    <t xml:space="preserve">8.94265174865723</t>
   </si>
   <si>
     <t xml:space="preserve">9.10825729370117</t>
@@ -1583,31 +1583,31 @@
     <t xml:space="preserve">8.81016826629639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67768383026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74392795562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84329032897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61144256591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456367492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59488296508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69424533843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90953159332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44583797454834</t>
+    <t xml:space="preserve">8.67768478393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74392700195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84328937530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61144161224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64456272125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59488201141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69424438476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90953063964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44583892822266</t>
   </si>
   <si>
     <t xml:space="preserve">8.66112422943115</t>
@@ -1616,46 +1616,46 @@
     <t xml:space="preserve">8.19743156433105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34647560119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27195262908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32991409301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25539302825928</t>
+    <t xml:space="preserve">8.34647464752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27195358276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32991600036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25539207458496</t>
   </si>
   <si>
     <t xml:space="preserve">8.11462879180908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23883152008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89296913146973</t>
+    <t xml:space="preserve">8.23883247375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89297103881836</t>
   </si>
   <si>
     <t xml:space="preserve">8.24711227416992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12291049957275</t>
+    <t xml:space="preserve">8.12290859222412</t>
   </si>
   <si>
     <t xml:space="preserve">8.18087100982666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46239757537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39615631103516</t>
+    <t xml:space="preserve">8.46239852905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39615821838379</t>
   </si>
   <si>
     <t xml:space="preserve">8.18915176391602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15603160858154</t>
+    <t xml:space="preserve">8.15603065490723</t>
   </si>
   <si>
     <t xml:space="preserve">8.56176090240479</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">9.32354354858398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90316009521484</t>
+    <t xml:space="preserve">9.90315818786621</t>
   </si>
   <si>
     <t xml:space="preserve">10.1515665054321</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">10.3502912521362</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4993371963501</t>
+    <t xml:space="preserve">10.4993362426758</t>
   </si>
   <si>
     <t xml:space="preserve">10.4330949783325</t>
@@ -1697,10 +1697,10 @@
     <t xml:space="preserve">11.1451950073242</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7974243164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7477426528931</t>
+    <t xml:space="preserve">10.7974233627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7477416992188</t>
   </si>
   <si>
     <t xml:space="preserve">10.5158977508545</t>
@@ -1721,40 +1721,40 @@
     <t xml:space="preserve">10.3171701431274</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1184453964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5324573516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5986995697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.078953742981</t>
+    <t xml:space="preserve">10.118444442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5324563980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5986986160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0789527893066</t>
   </si>
   <si>
     <t xml:space="preserve">10.830545425415</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5821390151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6980609893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9464683532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8802261352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8967866897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0292701721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2279968261719</t>
+    <t xml:space="preserve">10.5821380615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6980619430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9464693069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8802270889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8967876434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0292711257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2279958724976</t>
   </si>
   <si>
     <t xml:space="preserve">11.2611179351807</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">11.1948757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">11.178316116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2445573806763</t>
+    <t xml:space="preserve">11.1783151626587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2445583343506</t>
   </si>
   <si>
     <t xml:space="preserve">11.3604803085327</t>
@@ -1778,25 +1778,25 @@
     <t xml:space="preserve">11.6088876724243</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5757665634155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7579326629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6420087814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.873854637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7910537719727</t>
+    <t xml:space="preserve">11.5757656097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7579307556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6420097351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8738555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.791051864624</t>
   </si>
   <si>
     <t xml:space="preserve">11.7248106002808</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8076124191284</t>
+    <t xml:space="preserve">11.8076133728027</t>
   </si>
   <si>
     <t xml:space="preserve">11.7413711547852</t>
@@ -1808,55 +1808,55 @@
     <t xml:space="preserve">11.5923261642456</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4101610183716</t>
+    <t xml:space="preserve">11.4101600646973</t>
   </si>
   <si>
     <t xml:space="preserve">10.6318197250366</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6649398803711</t>
+    <t xml:space="preserve">10.6649408340454</t>
   </si>
   <si>
     <t xml:space="preserve">10.2343683242798</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82035732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0853242874146</t>
+    <t xml:space="preserve">9.82035636901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0853252410889</t>
   </si>
   <si>
     <t xml:space="preserve">9.4891471862793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02545356750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7337384223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93246364593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96558380126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91590404510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15793895721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92609024047852</t>
+    <t xml:space="preserve">9.0254545211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73373699188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9324631690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96558475494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91590309143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15793800354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92609214782715</t>
   </si>
   <si>
     <t xml:space="preserve">8.85984897613525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0088939666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52226829528809</t>
+    <t xml:space="preserve">9.00889492034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5222692489624</t>
   </si>
   <si>
     <t xml:space="preserve">9.9859619140625</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">9.43946552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91971969604492</t>
+    <t xml:space="preserve">9.91971874237061</t>
   </si>
   <si>
     <t xml:space="preserve">9.38978481292725</t>
@@ -1880,10 +1880,10 @@
     <t xml:space="preserve">9.63819122314453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42290592193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67131233215332</t>
+    <t xml:space="preserve">9.42290496826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67131328582764</t>
   </si>
   <si>
     <t xml:space="preserve">9.40634536743164</t>
@@ -1892,13 +1892,13 @@
     <t xml:space="preserve">9.57194995880127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55539035797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7375545501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47258567810059</t>
+    <t xml:space="preserve">9.55538940429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73755550384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4725866317749</t>
   </si>
   <si>
     <t xml:space="preserve">9.82956409454346</t>
@@ -1907,13 +1907,13 @@
     <t xml:space="preserve">9.64053440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52024173736572</t>
+    <t xml:space="preserve">9.52024269104004</t>
   </si>
   <si>
     <t xml:space="preserve">9.17655181884766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98752117156982</t>
+    <t xml:space="preserve">8.98752021789551</t>
   </si>
   <si>
     <t xml:space="preserve">9.19373607635498</t>
@@ -1922,28 +1922,28 @@
     <t xml:space="preserve">9.70927238464355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4343204498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26247310638428</t>
+    <t xml:space="preserve">9.43431949615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26247406005859</t>
   </si>
   <si>
     <t xml:space="preserve">9.21092128753662</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48587322235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86393260955811</t>
+    <t xml:space="preserve">9.48587226867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86393356323242</t>
   </si>
   <si>
     <t xml:space="preserve">10.0185947418213</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1560707092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434524536133</t>
+    <t xml:space="preserve">10.1560716629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434534072876</t>
   </si>
   <si>
     <t xml:space="preserve">10.6372385025024</t>
@@ -1952,10 +1952,10 @@
     <t xml:space="preserve">10.8950071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7575311660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7918996810913</t>
+    <t xml:space="preserve">10.7575302124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7919006347656</t>
   </si>
   <si>
     <t xml:space="preserve">10.8606376647949</t>
@@ -1964,34 +1964,34 @@
     <t xml:space="preserve">10.8090829849243</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5169467926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4482078552246</t>
+    <t xml:space="preserve">10.5169458389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4482088088989</t>
   </si>
   <si>
     <t xml:space="preserve">10.2419939041138</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7059755325317</t>
+    <t xml:space="preserve">10.7059774398804</t>
   </si>
   <si>
     <t xml:space="preserve">10.7747144699097</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9121913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.826268196106</t>
+    <t xml:space="preserve">10.9121904373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8262691497803</t>
   </si>
   <si>
     <t xml:space="preserve">11.152774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4620971679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4964666366577</t>
+    <t xml:space="preserve">11.4620962142944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4964656829834</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449119567871</t>
@@ -2000,10 +2000,10 @@
     <t xml:space="preserve">11.4105424880981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5480184555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2902507781982</t>
+    <t xml:space="preserve">11.5480194091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2902526855469</t>
   </si>
   <si>
     <t xml:space="preserve">11.2386980056763</t>
@@ -2012,10 +2012,10 @@
     <t xml:space="preserve">11.3761739730835</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5995740890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7542352676392</t>
+    <t xml:space="preserve">11.599573135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7542343139648</t>
   </si>
   <si>
     <t xml:space="preserve">11.7714185714722</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">11.926079750061</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0291862487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2010335922241</t>
+    <t xml:space="preserve">12.0291881561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2010326385498</t>
   </si>
   <si>
     <t xml:space="preserve">12.0807418823242</t>
@@ -2042,25 +2042,25 @@
     <t xml:space="preserve">12.1322946548462</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9776334762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8401565551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8573417663574</t>
+    <t xml:space="preserve">11.977632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8401575088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8573408126831</t>
   </si>
   <si>
     <t xml:space="preserve">11.4792814254761</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1355905532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1184062957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3074350357056</t>
+    <t xml:space="preserve">11.1355895996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1184053421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3074359893799</t>
   </si>
   <si>
     <t xml:space="preserve">11.4277276992798</t>
@@ -2069,19 +2069,19 @@
     <t xml:space="preserve">11.2043285369873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3418045043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2215127944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3246202468872</t>
+    <t xml:space="preserve">11.3418054580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2215137481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3246212005615</t>
   </si>
   <si>
     <t xml:space="preserve">11.1012210845947</t>
   </si>
   <si>
-    <t xml:space="preserve">11.18714427948</t>
+    <t xml:space="preserve">11.1871452331543</t>
   </si>
   <si>
     <t xml:space="preserve">11.0496673583984</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">10.9637451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1699600219727</t>
+    <t xml:space="preserve">11.1699590682983</t>
   </si>
   <si>
     <t xml:space="preserve">10.9981145858765</t>
@@ -2099,10 +2099,10 @@
     <t xml:space="preserve">11.5136499404907</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6854972839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6167583465576</t>
+    <t xml:space="preserve">11.6854963302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6167593002319</t>
   </si>
   <si>
     <t xml:space="preserve">11.2730665206909</t>
@@ -2111,10 +2111,10 @@
     <t xml:space="preserve">11.3933591842651</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5823879241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5652046203613</t>
+    <t xml:space="preserve">11.5823888778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.565203666687</t>
   </si>
   <si>
     <t xml:space="preserve">11.9088945388794</t>
@@ -2126,13 +2126,13 @@
     <t xml:space="preserve">12.2354021072388</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0635557174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9432640075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5513162612915</t>
+    <t xml:space="preserve">12.0635566711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9432649612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5513153076172</t>
   </si>
   <si>
     <t xml:space="preserve">10.6544227600098</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">11.0324831008911</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3589897155762</t>
+    <t xml:space="preserve">11.3589887619019</t>
   </si>
   <si>
     <t xml:space="preserve">11.7886037826538</t>
@@ -2150,25 +2150,25 @@
     <t xml:space="preserve">11.7370500564575</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6511278152466</t>
+    <t xml:space="preserve">11.6511268615723</t>
   </si>
   <si>
     <t xml:space="preserve">11.5308351516724</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8917102813721</t>
+    <t xml:space="preserve">11.8917112350464</t>
   </si>
   <si>
     <t xml:space="preserve">11.9948177337646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0463724136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.96044921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8057870864868</t>
+    <t xml:space="preserve">12.0463714599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9604482650757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8057880401611</t>
   </si>
   <si>
     <t xml:space="preserve">11.6339426040649</t>
@@ -2180,13 +2180,13 @@
     <t xml:space="preserve">12.4416160583496</t>
   </si>
   <si>
-    <t xml:space="preserve">12.372878074646</t>
+    <t xml:space="preserve">12.3728771209717</t>
   </si>
   <si>
     <t xml:space="preserve">12.4072465896606</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993846893311</t>
+    <t xml:space="preserve">12.6993837356567</t>
   </si>
   <si>
     <t xml:space="preserve">13.0087070465088</t>
@@ -2195,31 +2195,31 @@
     <t xml:space="preserve">13.3008441925049</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8884153366089</t>
+    <t xml:space="preserve">12.8884143829346</t>
   </si>
   <si>
     <t xml:space="preserve">12.5447235107422</t>
   </si>
   <si>
-    <t xml:space="preserve">12.682201385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4759855270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5275392532349</t>
+    <t xml:space="preserve">12.6822004318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4759864807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5275402069092</t>
   </si>
   <si>
     <t xml:space="preserve">12.2525863647461</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6306457519531</t>
+    <t xml:space="preserve">12.6306467056274</t>
   </si>
   <si>
     <t xml:space="preserve">12.6650152206421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7853078842163</t>
+    <t xml:space="preserve">12.785306930542</t>
   </si>
   <si>
     <t xml:space="preserve">12.8712301254272</t>
@@ -2228,28 +2228,28 @@
     <t xml:space="preserve">12.8024921417236</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9743375778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1118135452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2149209976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1633682250977</t>
+    <t xml:space="preserve">12.9743385314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1118144989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2149219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1633672714233</t>
   </si>
   <si>
     <t xml:space="preserve">13.1977367401123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6273498535156</t>
+    <t xml:space="preserve">13.6273508071899</t>
   </si>
   <si>
     <t xml:space="preserve">13.7476425170898</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7132730484009</t>
+    <t xml:space="preserve">13.7132740020752</t>
   </si>
   <si>
     <t xml:space="preserve">13.5929803848267</t>
@@ -2273,28 +2273,28 @@
     <t xml:space="preserve">14.1085186004639</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5037622451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6068687438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8474531173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0364837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.070855140686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0193004608154</t>
+    <t xml:space="preserve">14.5037631988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6068706512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8474559783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0364847183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0708532333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0192985534668</t>
   </si>
   <si>
     <t xml:space="preserve">14.6927928924561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3834705352783</t>
+    <t xml:space="preserve">14.383469581604</t>
   </si>
   <si>
     <t xml:space="preserve">14.5896854400635</t>
@@ -2303,40 +2303,40 @@
     <t xml:space="preserve">14.6756076812744</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4178409576416</t>
+    <t xml:space="preserve">14.4178400039673</t>
   </si>
   <si>
     <t xml:space="preserve">14.6240549087524</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5725021362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7959003448486</t>
+    <t xml:space="preserve">14.5725002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7958984375</t>
   </si>
   <si>
     <t xml:space="preserve">14.744345664978</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1567764282227</t>
+    <t xml:space="preserve">15.1567754745483</t>
   </si>
   <si>
     <t xml:space="preserve">14.9505615234375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0536699295044</t>
+    <t xml:space="preserve">15.0536680221558</t>
   </si>
   <si>
     <t xml:space="preserve">15.2942514419556</t>
   </si>
   <si>
-    <t xml:space="preserve">15.381950378418</t>
+    <t xml:space="preserve">15.3819484710693</t>
   </si>
   <si>
     <t xml:space="preserve">14.9960842132568</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9610052108765</t>
+    <t xml:space="preserve">14.9610061645508</t>
   </si>
   <si>
     <t xml:space="preserve">14.9434671401978</t>
@@ -2345,22 +2345,22 @@
     <t xml:space="preserve">15.0837812423706</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1013193130493</t>
+    <t xml:space="preserve">15.101318359375</t>
   </si>
   <si>
     <t xml:space="preserve">15.1890153884888</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9083871841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0487022399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.873309135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0136241912842</t>
+    <t xml:space="preserve">14.9083881378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0487012863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8733081817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0136251449585</t>
   </si>
   <si>
     <t xml:space="preserve">14.7856130599976</t>
@@ -2372,10 +2372,10 @@
     <t xml:space="preserve">15.1188592910767</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8557710647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8031511306763</t>
+    <t xml:space="preserve">14.855770111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8031520843506</t>
   </si>
   <si>
     <t xml:space="preserve">14.7680730819702</t>
@@ -2384,28 +2384,28 @@
     <t xml:space="preserve">14.838231086731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1363973617554</t>
+    <t xml:space="preserve">15.1363983154297</t>
   </si>
   <si>
     <t xml:space="preserve">15.0311613082886</t>
   </si>
   <si>
-    <t xml:space="preserve">15.153938293457</t>
+    <t xml:space="preserve">15.1539392471313</t>
   </si>
   <si>
     <t xml:space="preserve">14.9785442352295</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7329950332642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8908472061157</t>
+    <t xml:space="preserve">14.7329940795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.89084815979</t>
   </si>
   <si>
     <t xml:space="preserve">14.7505340576172</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1714763641357</t>
+    <t xml:space="preserve">15.1714754104614</t>
   </si>
   <si>
     <t xml:space="preserve">15.0662422180176</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">15.3293294906616</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3468685150146</t>
+    <t xml:space="preserve">15.3468704223633</t>
   </si>
   <si>
     <t xml:space="preserve">14.8206901550293</t>
@@ -2432,31 +2432,31 @@
     <t xml:space="preserve">15.5748805999756</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7853527069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9607458114624</t>
+    <t xml:space="preserve">15.7853517532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9607448577881</t>
   </si>
   <si>
     <t xml:space="preserve">16.1887531280518</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0309028625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327337265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2413749694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5921573638916</t>
+    <t xml:space="preserve">16.0309009552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327356338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2413730621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5921592712402</t>
   </si>
   <si>
     <t xml:space="preserve">16.4167652130127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2589111328125</t>
+    <t xml:space="preserve">16.2589130401611</t>
   </si>
   <si>
     <t xml:space="preserve">16.1536769866943</t>
@@ -2465,19 +2465,19 @@
     <t xml:space="preserve">16.136137008667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9256658554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0835189819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9782810211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8379678726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6976547241211</t>
+    <t xml:space="preserve">15.9256649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0835208892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9782819747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8379688262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6976537704468</t>
   </si>
   <si>
     <t xml:space="preserve">15.662576675415</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">15.6274976730347</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9958229064941</t>
+    <t xml:space="preserve">15.9958238601685</t>
   </si>
   <si>
     <t xml:space="preserve">15.8204317092896</t>
@@ -2495,49 +2495,49 @@
     <t xml:space="preserve">15.7151937484741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.645037651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.645299911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4699048995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4874458312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2591743469238</t>
+    <t xml:space="preserve">15.6450366973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6452989578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4699058532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4874448776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2591733932495</t>
   </si>
   <si>
     <t xml:space="preserve">15.3994874954224</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3644104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2416334152222</t>
+    <t xml:space="preserve">15.364408493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2416324615479</t>
   </si>
   <si>
     <t xml:space="preserve">15.2240953445435</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2065553665161</t>
+    <t xml:space="preserve">15.2065563201904</t>
   </si>
   <si>
     <t xml:space="preserve">16.3466091156006</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0659790039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.873046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3117895126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.61021900177</t>
+    <t xml:space="preserve">16.0659809112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8730487823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3117904663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6102209091187</t>
   </si>
   <si>
     <t xml:space="preserve">14.5576028823853</t>
@@ -2549,22 +2549,22 @@
     <t xml:space="preserve">14.5225229263306</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2945127487183</t>
+    <t xml:space="preserve">14.2945117950439</t>
   </si>
   <si>
     <t xml:space="preserve">14.3295917510986</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1717386245728</t>
+    <t xml:space="preserve">14.1717376708984</t>
   </si>
   <si>
     <t xml:space="preserve">13.8560314178467</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0314245223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1191205978394</t>
+    <t xml:space="preserve">14.0314235687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.119119644165</t>
   </si>
   <si>
     <t xml:space="preserve">14.2769746780396</t>
@@ -2573,25 +2573,25 @@
     <t xml:space="preserve">14.3646688461304</t>
   </si>
   <si>
-    <t xml:space="preserve">14.382209777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8735704421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.084041595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2594337463379</t>
+    <t xml:space="preserve">14.3822088241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8735694885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0840406417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2594347000122</t>
   </si>
   <si>
     <t xml:space="preserve">13.8209524154663</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0665035247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9437265396118</t>
+    <t xml:space="preserve">14.066502571106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9437274932861</t>
   </si>
   <si>
     <t xml:space="preserve">13.5227842330933</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">13.1544589996338</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9966049194336</t>
+    <t xml:space="preserve">12.9966058731079</t>
   </si>
   <si>
     <t xml:space="preserve">13.4350881576538</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">13.0316848754883</t>
   </si>
   <si>
-    <t xml:space="preserve">13.049222946167</t>
+    <t xml:space="preserve">13.0492238998413</t>
   </si>
   <si>
     <t xml:space="preserve">12.7510566711426</t>
@@ -2630,28 +2630,28 @@
     <t xml:space="preserve">12.7685956954956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4879665374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2599563598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3651914596558</t>
+    <t xml:space="preserve">12.4879674911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.259955406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3651924133301</t>
   </si>
   <si>
     <t xml:space="preserve">12.4528884887695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1897993087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9617891311646</t>
+    <t xml:space="preserve">12.1898002624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9617881774902</t>
   </si>
   <si>
     <t xml:space="preserve">11.8039350509644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8565530776978</t>
+    <t xml:space="preserve">11.8565540313721</t>
   </si>
   <si>
     <t xml:space="preserve">11.4531497955322</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">11.277756690979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2251386642456</t>
+    <t xml:space="preserve">11.2251396179199</t>
   </si>
   <si>
     <t xml:space="preserve">10.8392744064331</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">10.0850858688354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1026258468628</t>
+    <t xml:space="preserve">10.1026248931885</t>
   </si>
   <si>
     <t xml:space="preserve">9.8921537399292</t>
@@ -2687,13 +2687,13 @@
     <t xml:space="preserve">10.1727819442749</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85707473754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0675458908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5761861801147</t>
+    <t xml:space="preserve">9.85707569122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0675468444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5761852264404</t>
   </si>
   <si>
     <t xml:space="preserve">9.92723178863525</t>
@@ -2726,16 +2726,16 @@
     <t xml:space="preserve">10.4183330535889</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4534101486206</t>
+    <t xml:space="preserve">10.4534111022949</t>
   </si>
   <si>
     <t xml:space="preserve">10.2429389953613</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1552438735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69922161102295</t>
+    <t xml:space="preserve">10.1552429199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69922256469727</t>
   </si>
   <si>
     <t xml:space="preserve">9.80445766448975</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">9.90969276428223</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71676063537598</t>
+    <t xml:space="preserve">9.71676158905029</t>
   </si>
   <si>
     <t xml:space="preserve">9.82199573516846</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">9.64660358428955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96230983734131</t>
+    <t xml:space="preserve">9.96231079101562</t>
   </si>
   <si>
     <t xml:space="preserve">10.3306350708008</t>
@@ -2762,10 +2762,10 @@
     <t xml:space="preserve">10.1903209686279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5937242507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1374425888062</t>
+    <t xml:space="preserve">10.5937252044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1374416351318</t>
   </si>
   <si>
     <t xml:space="preserve">11.0497465133667</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">10.2707347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.633659362793</t>
+    <t xml:space="preserve">10.6336584091187</t>
   </si>
   <si>
     <t xml:space="preserve">10.6699514389038</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">10.8332662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.415904045105</t>
+    <t xml:space="preserve">10.4159049987793</t>
   </si>
   <si>
     <t xml:space="preserve">10.6518049240112</t>
@@ -2819,10 +2819,10 @@
     <t xml:space="preserve">11.7950134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6861371994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.813159942627</t>
+    <t xml:space="preserve">11.6861362457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8131608963013</t>
   </si>
   <si>
     <t xml:space="preserve">11.7224292755127</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">11.5954055786133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6135520935059</t>
+    <t xml:space="preserve">11.6135530471802</t>
   </si>
   <si>
     <t xml:space="preserve">10.5973663330078</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">11.0147285461426</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0328741073608</t>
+    <t xml:space="preserve">11.0328750610352</t>
   </si>
   <si>
     <t xml:space="preserve">11.3232126235962</t>
@@ -2903,25 +2903,25 @@
     <t xml:space="preserve">11.2869205474854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0873126983643</t>
+    <t xml:space="preserve">11.0873136520386</t>
   </si>
   <si>
     <t xml:space="preserve">10.6880970001221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3070268630981</t>
+    <t xml:space="preserve">10.3070278167725</t>
   </si>
   <si>
     <t xml:space="preserve">10.1618576049805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90781211853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0529804229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1800050735474</t>
+    <t xml:space="preserve">9.90781116485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0529813766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.180004119873</t>
   </si>
   <si>
     <t xml:space="preserve">10.3614664077759</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">10.4703435897827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4521980285645</t>
+    <t xml:space="preserve">10.4521970748901</t>
   </si>
   <si>
     <t xml:space="preserve">10.0348358154297</t>
@@ -2939,28 +2939,28 @@
     <t xml:space="preserve">9.92595767974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74449634552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85337352752686</t>
+    <t xml:space="preserve">9.7444953918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85337257385254</t>
   </si>
   <si>
     <t xml:space="preserve">9.78078842163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99854278564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59932708740234</t>
+    <t xml:space="preserve">9.99854373931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59932613372803</t>
   </si>
   <si>
     <t xml:space="preserve">10.0892734527588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1074199676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1255664825439</t>
+    <t xml:space="preserve">10.1074190139771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1255655288696</t>
   </si>
   <si>
     <t xml:space="preserve">10.1981506347656</t>
@@ -2969,16 +2969,16 @@
     <t xml:space="preserve">10.3796119689941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.923996925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1961898803711</t>
+    <t xml:space="preserve">10.9239978790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1961908340454</t>
   </si>
   <si>
     <t xml:space="preserve">11.4683828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1034994125366</t>
+    <t xml:space="preserve">12.1034984588623</t>
   </si>
   <si>
     <t xml:space="preserve">11.9038906097412</t>
@@ -2996,25 +2996,25 @@
     <t xml:space="preserve">11.4320907592773</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4139442443848</t>
+    <t xml:space="preserve">11.4139432907104</t>
   </si>
   <si>
     <t xml:space="preserve">12.012767791748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0853519439697</t>
+    <t xml:space="preserve">12.085352897644</t>
   </si>
   <si>
     <t xml:space="preserve">12.7567615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1741228103638</t>
+    <t xml:space="preserve">13.1741237640381</t>
   </si>
   <si>
     <t xml:space="preserve">13.2104158401489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9926614761353</t>
+    <t xml:space="preserve">12.9926605224609</t>
   </si>
   <si>
     <t xml:space="preserve">12.7386150360107</t>
@@ -3023,13 +3023,13 @@
     <t xml:space="preserve">12.4119834899902</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3756923675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478843688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6115913391113</t>
+    <t xml:space="preserve">12.3756914138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478834152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6115922927856</t>
   </si>
   <si>
     <t xml:space="preserve">12.684175491333</t>
@@ -3041,22 +3041,22 @@
     <t xml:space="preserve">12.4845685958862</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9200763702393</t>
+    <t xml:space="preserve">12.9200773239136</t>
   </si>
   <si>
     <t xml:space="preserve">13.0652456283569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1378307342529</t>
+    <t xml:space="preserve">13.1378297805786</t>
   </si>
   <si>
     <t xml:space="preserve">13.1015377044678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0108070373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2285614013672</t>
+    <t xml:space="preserve">13.0108079910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2285623550415</t>
   </si>
   <si>
     <t xml:space="preserve">13.1922693252563</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">12.8656387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8474912643433</t>
+    <t xml:space="preserve">12.8474922180176</t>
   </si>
   <si>
     <t xml:space="preserve">12.7930536270142</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">13.645923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8092393875122</t>
+    <t xml:space="preserve">13.8092403411865</t>
   </si>
   <si>
     <t xml:space="preserve">13.8455324172974</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">13.9362621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4443559646606</t>
+    <t xml:space="preserve">14.4443550109863</t>
   </si>
   <si>
     <t xml:space="preserve">14.0995779037476</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">14.3717708587646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3173313140869</t>
+    <t xml:space="preserve">14.3173322677612</t>
   </si>
   <si>
     <t xml:space="preserve">14.3354787826538</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">14.226601600647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.154016494751</t>
+    <t xml:space="preserve">14.1540174484253</t>
   </si>
   <si>
     <t xml:space="preserve">14.2810401916504</t>
@@ -3137,13 +3137,13 @@
     <t xml:space="preserve">14.3899164199829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8798637390137</t>
+    <t xml:space="preserve">14.8798627853394</t>
   </si>
   <si>
     <t xml:space="preserve">14.4625015258789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4806470870972</t>
+    <t xml:space="preserve">14.4806480407715</t>
   </si>
   <si>
     <t xml:space="preserve">14.4987936019897</t>
@@ -3152,16 +3152,16 @@
     <t xml:space="preserve">14.662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4423942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5694189071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.478687286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6420021057129</t>
+    <t xml:space="preserve">15.4423952102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5694179534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4786882400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6420030593872</t>
   </si>
   <si>
     <t xml:space="preserve">15.5149803161621</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">15.8597564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9141969680786</t>
+    <t xml:space="preserve">15.9141960144043</t>
   </si>
   <si>
     <t xml:space="preserve">16.2589721679688</t>
@@ -3188,22 +3188,22 @@
     <t xml:space="preserve">16.1138038635254</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0412197113037</t>
+    <t xml:space="preserve">16.0412178039551</t>
   </si>
   <si>
     <t xml:space="preserve">16.0775108337402</t>
   </si>
   <si>
-    <t xml:space="preserve">15.82346534729</t>
+    <t xml:space="preserve">15.8234643936157</t>
   </si>
   <si>
     <t xml:space="preserve">15.769024848938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.242787361145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2064943313599</t>
+    <t xml:space="preserve">15.2427864074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2064952850342</t>
   </si>
   <si>
     <t xml:space="preserve">15.8053188323975</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">15.9686336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.986780166626</t>
+    <t xml:space="preserve">15.9867811203003</t>
   </si>
   <si>
     <t xml:space="preserve">15.841609954834</t>
@@ -3224,16 +3224,16 @@
     <t xml:space="preserve">16.131950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2952632904053</t>
+    <t xml:space="preserve">16.2952651977539</t>
   </si>
   <si>
     <t xml:space="preserve">16.8033580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8396492004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0574035644531</t>
+    <t xml:space="preserve">16.8396511077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0574054718018</t>
   </si>
   <si>
     <t xml:space="preserve">16.7489185333252</t>
@@ -3260,10 +3260,10 @@
     <t xml:space="preserve">15.2790794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1157627105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0976161956787</t>
+    <t xml:space="preserve">15.1157646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.097617149353</t>
   </si>
   <si>
     <t xml:space="preserve">15.333517074585</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">15.460542678833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5331258773804</t>
+    <t xml:space="preserve">15.533127784729</t>
   </si>
   <si>
     <t xml:space="preserve">15.406102180481</t>
@@ -60341,7 +60341,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6495949074</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>88691</v>
@@ -60362,6 +60362,32 @@
         <v>1245</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6494328704</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>117314</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>12.1000003814697</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>11.7600002288818</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>11.7799997329712</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>12.0600004196167</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27017688751221</t>
+    <t xml:space="preserve">4.27017641067505</t>
   </si>
   <si>
     <t xml:space="preserve">ZV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25227975845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16279602050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04467678070068</t>
+    <t xml:space="preserve">4.25228023529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16279554367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.044677734375</t>
   </si>
   <si>
     <t xml:space="preserve">3.99456596374512</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91939902305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96951127052307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95519351959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01604175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98382782936096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89434385299683</t>
+    <t xml:space="preserve">3.91939830780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96951055526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95519304275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01604223251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98382878303528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89434432983398</t>
   </si>
   <si>
     <t xml:space="preserve">3.87286758422852</t>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">3.7654869556427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85855007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729615211487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91224050521851</t>
+    <t xml:space="preserve">3.85855054855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729567527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91224074363708</t>
   </si>
   <si>
     <t xml:space="preserve">3.86570882797241</t>
@@ -95,175 +95,175 @@
     <t xml:space="preserve">3.90150237083435</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9587721824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80128002166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79412174224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78696322441101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69389963150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65810608863831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71537590026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5793604850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60083603858948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70821714401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75832772254944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76906633377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81559777259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77980470657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7475905418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72611427307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70105862617493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76190829277039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78338360786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80485987663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74401116371155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7726457118988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85139107704163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00172567367554</t>
+    <t xml:space="preserve">3.95877242088318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8012809753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7941210269928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78696346282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69389986991882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65810632705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71537566184998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57936024665833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60083651542664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70821666717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75832796096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76906609535217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81559801101685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77980446815491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74758982658386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72611379623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70105886459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76190757751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7833833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80485963821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74401092529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77264595031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85139060020447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00172519683838</t>
   </si>
   <si>
     <t xml:space="preserve">4.05899477005005</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08405017852783</t>
+    <t xml:space="preserve">4.08404970169067</t>
   </si>
   <si>
     <t xml:space="preserve">4.06973266601562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15205860137939</t>
+    <t xml:space="preserve">4.15205764770508</t>
   </si>
   <si>
     <t xml:space="preserve">4.15921688079834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13774108886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12342262268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11626386642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14489889144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13058137893677</t>
+    <t xml:space="preserve">4.13774061203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12342309951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11626434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14489936828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13058185577393</t>
   </si>
   <si>
     <t xml:space="preserve">4.1950101852417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09836721420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07689094543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16637516021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11984348297119</t>
+    <t xml:space="preserve">4.09836769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07689142227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16637563705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11984395980835</t>
   </si>
   <si>
     <t xml:space="preserve">4.16995477676392</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18069267272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1878514289856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13416147232056</t>
+    <t xml:space="preserve">4.18069314956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18785190582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1341609954834</t>
   </si>
   <si>
     <t xml:space="preserve">4.19858932495117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1413197517395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09120893478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10706949234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09213447570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07720041275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05479764938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08093309402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0958685874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11453723907471</t>
+    <t xml:space="preserve">4.14131927490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09120845794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10706901550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09213399887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07719945907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05479717254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08093357086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09586811065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11453628540039</t>
   </si>
   <si>
     <t xml:space="preserve">4.12200450897217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11080312728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16680765151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17800951004028</t>
+    <t xml:space="preserve">4.11080265045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16680908203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17800998687744</t>
   </si>
   <si>
     <t xml:space="preserve">4.18547677993774</t>
@@ -272,22 +272,22 @@
     <t xml:space="preserve">4.24148273468018</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25268316268921</t>
+    <t xml:space="preserve">4.25268459320068</t>
   </si>
   <si>
     <t xml:space="preserve">4.31989002227783</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28628635406494</t>
+    <t xml:space="preserve">4.2862868309021</t>
   </si>
   <si>
     <t xml:space="preserve">4.26761817932129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21907997131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23401546478271</t>
+    <t xml:space="preserve">4.21908092498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23401498794556</t>
   </si>
   <si>
     <t xml:space="preserve">4.20041179656982</t>
@@ -296,19 +296,19 @@
     <t xml:space="preserve">4.19667768478394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01746034622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99505853652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96892285346985</t>
+    <t xml:space="preserve">4.01745986938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9950578212738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96892261505127</t>
   </si>
   <si>
     <t xml:space="preserve">3.96145486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12573766708374</t>
+    <t xml:space="preserve">4.1257381439209</t>
   </si>
   <si>
     <t xml:space="preserve">4.14440679550171</t>
@@ -320,16 +320,16 @@
     <t xml:space="preserve">4.26388502120972</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97265625</t>
+    <t xml:space="preserve">3.97265648841858</t>
   </si>
   <si>
     <t xml:space="preserve">4.02492809295654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04733037948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08840131759644</t>
+    <t xml:space="preserve">4.04732990264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08840084075928</t>
   </si>
   <si>
     <t xml:space="preserve">4.03986215591431</t>
@@ -344,106 +344,106 @@
     <t xml:space="preserve">4.06973218917847</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03239583969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08466720581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11827087402344</t>
+    <t xml:space="preserve">4.032395362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08466768264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11826992034912</t>
   </si>
   <si>
     <t xml:space="preserve">4.15934133529663</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12947225570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13693952560425</t>
+    <t xml:space="preserve">4.12947177886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13693857192993</t>
   </si>
   <si>
     <t xml:space="preserve">4.20414590835571</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22654724121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24894952774048</t>
+    <t xml:space="preserve">4.22654819488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24895000457764</t>
   </si>
   <si>
     <t xml:space="preserve">4.18174362182617</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06226587295532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02866172790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98385739326477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98012351989746</t>
+    <t xml:space="preserve">4.06226539611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02866125106812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98385787010193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98012375831604</t>
   </si>
   <si>
     <t xml:space="preserve">3.97638964653015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95772099494934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93531918525696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98759126663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00252628326416</t>
+    <t xml:space="preserve">3.95772075653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93531942367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9875910282135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00252532958984</t>
   </si>
   <si>
     <t xml:space="preserve">4.03612947463989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93905258178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95025420188904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94278645515442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94652080535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86064481735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84571099281311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86811232566833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82330846786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81584119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077597618103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81957411766052</t>
+    <t xml:space="preserve">3.93905305862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95025396347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.942786693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94651985168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86064529418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84571051597595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86811256408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82330822944641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81584072113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077645301819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8195743560791</t>
   </si>
   <si>
     <t xml:space="preserve">3.85317778587341</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95398759841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14067316055298</t>
+    <t xml:space="preserve">3.95398807525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14067268371582</t>
   </si>
   <si>
     <t xml:space="preserve">4.21161270141602</t>
@@ -452,13 +452,13 @@
     <t xml:space="preserve">4.22281455993652</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09960174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10333585739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00999355316162</t>
+    <t xml:space="preserve">4.09960126876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1033353805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00999307632446</t>
   </si>
   <si>
     <t xml:space="preserve">4.04359674453735</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">4.06599903106689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9203839302063</t>
+    <t xml:space="preserve">3.92038416862488</t>
   </si>
   <si>
     <t xml:space="preserve">4.07346630096436</t>
@@ -479,13 +479,13 @@
     <t xml:space="preserve">4.26015090942383</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27135229110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3161563873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33109188079834</t>
+    <t xml:space="preserve">4.27135181427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31615686416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33109140396118</t>
   </si>
   <si>
     <t xml:space="preserve">4.28255319595337</t>
@@ -497,16 +497,16 @@
     <t xml:space="preserve">4.32362413406372</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34229278564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30868864059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30495548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27508544921875</t>
+    <t xml:space="preserve">4.34229230880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30868911743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30495500564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27508592605591</t>
   </si>
   <si>
     <t xml:space="preserve">4.29375410079956</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">4.3385591506958</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33482456207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36842823028564</t>
+    <t xml:space="preserve">4.33482503890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3684287071228</t>
   </si>
   <si>
     <t xml:space="preserve">4.36096096038818</t>
@@ -530,31 +530,31 @@
     <t xml:space="preserve">4.42070007324219</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39456415176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48043966293335</t>
+    <t xml:space="preserve">4.39456462860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48043918609619</t>
   </si>
   <si>
     <t xml:space="preserve">4.45430326461792</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51777648925781</t>
+    <t xml:space="preserve">4.51777696609497</t>
   </si>
   <si>
     <t xml:space="preserve">4.5924506187439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61485195159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5999174118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55511283874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54764556884766</t>
+    <t xml:space="preserve">4.61485290527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59991788864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55511331558228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54764604568481</t>
   </si>
   <si>
     <t xml:space="preserve">4.6297869682312</t>
@@ -566,28 +566,28 @@
     <t xml:space="preserve">4.995689868927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18984270095825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22717905044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48853826522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51840829849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52587509155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.522141456604</t>
+    <t xml:space="preserve">5.18984222412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22717952728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48853874206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51840877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52587556838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52214193344116</t>
   </si>
   <si>
     <t xml:space="preserve">5.3802604675293</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36159181594849</t>
+    <t xml:space="preserve">5.36159229278564</t>
   </si>
   <si>
     <t xml:space="preserve">5.37279367446899</t>
@@ -596,46 +596,46 @@
     <t xml:space="preserve">5.40639686584473</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39519548416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44373321533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45120143890381</t>
+    <t xml:space="preserve">5.39519500732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44373369216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45120096206665</t>
   </si>
   <si>
     <t xml:space="preserve">5.46613645553589</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48480415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43626642227173</t>
+    <t xml:space="preserve">5.48480463027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43626594543457</t>
   </si>
   <si>
     <t xml:space="preserve">5.42133188247681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5445442199707</t>
+    <t xml:space="preserve">5.54454326629639</t>
   </si>
   <si>
     <t xml:space="preserve">5.56694602966309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91418027877808</t>
+    <t xml:space="preserve">5.91418075561523</t>
   </si>
   <si>
     <t xml:space="preserve">5.82457113265991</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66028881072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78723430633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67522287368774</t>
+    <t xml:space="preserve">5.66028833389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78723382949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67522382736206</t>
   </si>
   <si>
     <t xml:space="preserve">5.74989700317383</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">5.84323930740356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92965698242188</t>
+    <t xml:space="preserve">5.92965745925903</t>
   </si>
   <si>
     <t xml:space="preserve">5.97209453582764</t>
@@ -653,16 +653,16 @@
     <t xml:space="preserve">6.01067399978638</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94123125076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93737363815308</t>
+    <t xml:space="preserve">5.94123077392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93737316131592</t>
   </si>
   <si>
     <t xml:space="preserve">5.91422605514526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72904491424561</t>
+    <t xml:space="preserve">5.72904443740845</t>
   </si>
   <si>
     <t xml:space="preserve">5.72518682479858</t>
@@ -671,10 +671,10 @@
     <t xml:space="preserve">5.86793041229248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87564659118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81006145477295</t>
+    <t xml:space="preserve">5.87564563751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81006097793579</t>
   </si>
   <si>
     <t xml:space="preserve">5.77148199081421</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">5.8717885017395</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76376581192017</t>
+    <t xml:space="preserve">5.76376628875732</t>
   </si>
   <si>
     <t xml:space="preserve">5.67117547988892</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">5.74061822891235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7097544670105</t>
+    <t xml:space="preserve">5.70975494384766</t>
   </si>
   <si>
     <t xml:space="preserve">5.78691387176514</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">5.75604963302612</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79077243804932</t>
+    <t xml:space="preserve">5.79077100753784</t>
   </si>
   <si>
     <t xml:space="preserve">5.80620336532593</t>
@@ -713,16 +713,16 @@
     <t xml:space="preserve">5.86021423339844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91808366775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71747016906738</t>
+    <t xml:space="preserve">5.91808319091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71746969223022</t>
   </si>
   <si>
     <t xml:space="preserve">5.82549333572388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86407232284546</t>
+    <t xml:space="preserve">5.86407279968262</t>
   </si>
   <si>
     <t xml:space="preserve">5.7599081993103</t>
@@ -731,58 +731,58 @@
     <t xml:space="preserve">5.93351554870605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81777715682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6480278968811</t>
+    <t xml:space="preserve">5.81777667999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64802837371826</t>
   </si>
   <si>
     <t xml:space="preserve">5.67503309249878</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61330652236938</t>
+    <t xml:space="preserve">5.61330604553223</t>
   </si>
   <si>
     <t xml:space="preserve">5.58630037307739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44741535186768</t>
+    <t xml:space="preserve">5.44741439819336</t>
   </si>
   <si>
     <t xml:space="preserve">5.41655111312866</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57086896896362</t>
+    <t xml:space="preserve">5.57086801528931</t>
   </si>
   <si>
     <t xml:space="preserve">5.62102174758911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43198251724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71361255645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69432306289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68274879455566</t>
+    <t xml:space="preserve">5.43198299407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71361351013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69432353973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68274974822998</t>
   </si>
   <si>
     <t xml:space="preserve">5.54000473022461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77919721603394</t>
+    <t xml:space="preserve">5.77919673919678</t>
   </si>
   <si>
     <t xml:space="preserve">5.72132873535156</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73290205001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7483344078064</t>
+    <t xml:space="preserve">5.73290252685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74833393096924</t>
   </si>
   <si>
     <t xml:space="preserve">5.79462957382202</t>
@@ -791,73 +791,73 @@
     <t xml:space="preserve">5.65574312210083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79848670959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81391954421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88721990585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89493608474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87950420379639</t>
+    <t xml:space="preserve">5.79848766326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81391906738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88722038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89493560791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87950372695923</t>
   </si>
   <si>
     <t xml:space="preserve">5.83320903778076</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85249900817871</t>
+    <t xml:space="preserve">5.85249853134155</t>
   </si>
   <si>
     <t xml:space="preserve">5.97595262527466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90265226364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89107847213745</t>
+    <t xml:space="preserve">5.9026517868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89107799530029</t>
   </si>
   <si>
     <t xml:space="preserve">5.82163524627686</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84478330612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92194175720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90651035308838</t>
+    <t xml:space="preserve">5.84478235244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92194223403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90650939941406</t>
   </si>
   <si>
     <t xml:space="preserve">6.08397531509399</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12255525588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26529884338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28073120117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33859920501709</t>
+    <t xml:space="preserve">6.12255477905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26529836654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2807297706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33859968185425</t>
   </si>
   <si>
     <t xml:space="preserve">6.27301454544067</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32702589035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16113376617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21900367736816</t>
+    <t xml:space="preserve">6.32702541351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16113424301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21900320053101</t>
   </si>
   <si>
     <t xml:space="preserve">6.16499185562134</t>
@@ -866,31 +866,31 @@
     <t xml:space="preserve">6.29616165161133</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0955491065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.246009349823</t>
+    <t xml:space="preserve">6.09554862976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24600887298584</t>
   </si>
   <si>
     <t xml:space="preserve">6.16884994506836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17270755767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20357131958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11098098754883</t>
+    <t xml:space="preserve">6.17270803451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20357179641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11098146438599</t>
   </si>
   <si>
     <t xml:space="preserve">6.18428230285645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0261058807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15727615356445</t>
+    <t xml:space="preserve">6.02610635757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15727567672729</t>
   </si>
   <si>
     <t xml:space="preserve">6.19585514068604</t>
@@ -899,19 +899,19 @@
     <t xml:space="preserve">6.08011722564697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05311059951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00681638717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98752593994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22286128997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11483812332153</t>
+    <t xml:space="preserve">6.05311107635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00681591033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98752689361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22286081314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11483907699585</t>
   </si>
   <si>
     <t xml:space="preserve">6.10712289810181</t>
@@ -923,31 +923,31 @@
     <t xml:space="preserve">5.92579936981201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94894695281982</t>
+    <t xml:space="preserve">5.94894742965698</t>
   </si>
   <si>
     <t xml:space="preserve">5.84864091873169</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0878324508667</t>
+    <t xml:space="preserve">6.08783388137817</t>
   </si>
   <si>
     <t xml:space="preserve">5.9450888633728</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00295877456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0646858215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09169149398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1379861831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13412857055664</t>
+    <t xml:space="preserve">6.00295829772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06468534469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09169101715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13798666000366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13412809371948</t>
   </si>
   <si>
     <t xml:space="preserve">6.15341806411743</t>
@@ -956,16 +956,16 @@
     <t xml:space="preserve">6.21128749847412</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14955997467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23829317092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26144027709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25758266448975</t>
+    <t xml:space="preserve">6.14956092834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2382926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26143980026245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25758218765259</t>
   </si>
   <si>
     <t xml:space="preserve">6.28844594955444</t>
@@ -977,19 +977,19 @@
     <t xml:space="preserve">6.40418434143066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35017204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43504762649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58164978027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53535509109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37332057952881</t>
+    <t xml:space="preserve">6.350172996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43504810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5816502571106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53535461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37332105636597</t>
   </si>
   <si>
     <t xml:space="preserve">6.38103675842285</t>
@@ -998,22 +998,22 @@
     <t xml:space="preserve">6.38875246047974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60479736328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55850219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48905897140503</t>
+    <t xml:space="preserve">6.60479831695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55850267410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48905849456787</t>
   </si>
   <si>
     <t xml:space="preserve">6.47362756729126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12641286849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04925394058228</t>
+    <t xml:space="preserve">6.1264123916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04925441741943</t>
   </si>
   <si>
     <t xml:space="preserve">6.30387830734253</t>
@@ -1028,46 +1028,46 @@
     <t xml:space="preserve">6.18042373657227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31159448623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33474111557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46591186523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50449085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45047855377197</t>
+    <t xml:space="preserve">6.31159353256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33474159240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46591138839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50449132919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45047903060913</t>
   </si>
   <si>
     <t xml:space="preserve">6.31930923461914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23443460464478</t>
+    <t xml:space="preserve">6.23443508148193</t>
   </si>
   <si>
     <t xml:space="preserve">6.49677515029907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44276428222656</t>
+    <t xml:space="preserve">6.4427638053894</t>
   </si>
   <si>
     <t xml:space="preserve">6.39646816253662</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41961526870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42733240127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52763843536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51992225646973</t>
+    <t xml:space="preserve">6.41961622238159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42733192443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52763891220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51992273330688</t>
   </si>
   <si>
     <t xml:space="preserve">6.59708166122437</t>
@@ -1079,37 +1079,37 @@
     <t xml:space="preserve">6.74785804748535</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67573118209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58757591247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63566064834595</t>
+    <t xml:space="preserve">6.67573070526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58757638931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566017150879</t>
   </si>
   <si>
     <t xml:space="preserve">6.50743579864502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62764692306519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61963272094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56353330612183</t>
+    <t xml:space="preserve">6.62764644622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61963224411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56353378295898</t>
   </si>
   <si>
     <t xml:space="preserve">6.53147745132446</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4994215965271</t>
+    <t xml:space="preserve">6.49942111968994</t>
   </si>
   <si>
     <t xml:space="preserve">6.3711953163147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39523887634277</t>
+    <t xml:space="preserve">6.39523792266846</t>
   </si>
   <si>
     <t xml:space="preserve">6.6116189956665</t>
@@ -1118,34 +1118,34 @@
     <t xml:space="preserve">6.57956218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60360383987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65168905258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73182916641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53949117660522</t>
+    <t xml:space="preserve">6.60360431671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65168857574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7318286895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53949165344238</t>
   </si>
   <si>
     <t xml:space="preserve">6.51544952392578</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55552053451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35516738891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38722372055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34715366363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32311105728149</t>
+    <t xml:space="preserve">6.55552005767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35516786575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3872241973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34715414047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32311153411865</t>
   </si>
   <si>
     <t xml:space="preserve">6.46736478805542</t>
@@ -1157,52 +1157,52 @@
     <t xml:space="preserve">6.45935106277466</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43530797958374</t>
+    <t xml:space="preserve">6.4353084564209</t>
   </si>
   <si>
     <t xml:space="preserve">6.29906940460205</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42729520797729</t>
+    <t xml:space="preserve">6.42729473114014</t>
   </si>
   <si>
     <t xml:space="preserve">6.49140739440918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45133686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40325212478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33913993835449</t>
+    <t xml:space="preserve">6.4513373374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40325260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33913946151733</t>
   </si>
   <si>
     <t xml:space="preserve">6.29105520248413</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27502679824829</t>
+    <t xml:space="preserve">6.27502632141113</t>
   </si>
   <si>
     <t xml:space="preserve">6.4112663269043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25098466873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28304100036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21091413497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37920951843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36318206787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33112573623657</t>
+    <t xml:space="preserve">6.25098514556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28304147720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21091365814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37920999526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36318159103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33112525939941</t>
   </si>
   <si>
     <t xml:space="preserve">6.19488620758057</t>
@@ -1211,34 +1211,34 @@
     <t xml:space="preserve">6.41928052902222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59558963775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84402751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01232242584229</t>
+    <t xml:space="preserve">6.59559011459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84402704238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01232290267944</t>
   </si>
   <si>
     <t xml:space="preserve">6.82799863815308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9482102394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93218183517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98026609420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92416763305664</t>
+    <t xml:space="preserve">6.94820976257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93218088150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98026561737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9241681098938</t>
   </si>
   <si>
     <t xml:space="preserve">7.02835083007812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90813875198364</t>
+    <t xml:space="preserve">6.9081392288208</t>
   </si>
   <si>
     <t xml:space="preserve">6.85204124450684</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">6.98828029632568</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04437875747681</t>
+    <t xml:space="preserve">7.04437923431396</t>
   </si>
   <si>
     <t xml:space="preserve">6.972252368927</t>
@@ -1259,16 +1259,16 @@
     <t xml:space="preserve">6.75587224960327</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77991390228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78792905807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90012502670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96423768997192</t>
+    <t xml:space="preserve">6.77991437911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78792858123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90012550354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96423816680908</t>
   </si>
   <si>
     <t xml:space="preserve">6.91615390777588</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">6.94019556045532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81197023391724</t>
+    <t xml:space="preserve">6.81197118759155</t>
   </si>
   <si>
     <t xml:space="preserve">6.70778751373291</t>
@@ -1286,58 +1286,58 @@
     <t xml:space="preserve">6.5715479850769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77190017700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68374538421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64367485046387</t>
+    <t xml:space="preserve">6.77189970016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68374490737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64367437362671</t>
   </si>
   <si>
     <t xml:space="preserve">7.06842041015625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05239295959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12452030181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253355026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9962944984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984384536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72381591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.836012840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88409757614136</t>
+    <t xml:space="preserve">7.05239391326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12451934814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253307342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99629402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984289169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72381544113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83601331710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88409805297852</t>
   </si>
   <si>
     <t xml:space="preserve">6.66771650314331</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71580219268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5475058555603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76388549804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10047674179077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14054727554321</t>
+    <t xml:space="preserve">6.71580123901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54750633239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76388597488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10047769546509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14054775238037</t>
   </si>
   <si>
     <t xml:space="preserve">7.18863248825073</t>
@@ -1346,19 +1346,19 @@
     <t xml:space="preserve">7.17260408401489</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11650562286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23671674728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25274562835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19664621353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22870254516602</t>
+    <t xml:space="preserve">7.11650609970093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23671627044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25274515151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19664573669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22870302200317</t>
   </si>
   <si>
     <t xml:space="preserve">7.20466089248657</t>
@@ -1367,61 +1367,61 @@
     <t xml:space="preserve">7.29281663894653</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38898515701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2848014831543</t>
+    <t xml:space="preserve">7.38898420333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28480100631714</t>
   </si>
   <si>
     <t xml:space="preserve">7.3328857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45309686660767</t>
+    <t xml:space="preserve">7.45309638977051</t>
   </si>
   <si>
     <t xml:space="preserve">7.50919628143311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55728054046631</t>
+    <t xml:space="preserve">7.55728101730347</t>
   </si>
   <si>
     <t xml:space="preserve">7.51720952987671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41302680969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48515319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4450831413269</t>
+    <t xml:space="preserve">7.41302633285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48515367507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44508361816406</t>
   </si>
   <si>
     <t xml:space="preserve">7.49316740036011</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81373071670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77365970611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75763368606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52522420883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54125261306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53323745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66146278381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63742065429688</t>
+    <t xml:space="preserve">7.81373119354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77366018295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75763273239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52522373199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54125165939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53323698043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66146326065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63742113113403</t>
   </si>
   <si>
     <t xml:space="preserve">7.61337852478027</t>
@@ -1439,70 +1439,70 @@
     <t xml:space="preserve">7.85380125045776</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91791486740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96599864959717</t>
+    <t xml:space="preserve">7.91791439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96599912643433</t>
   </si>
   <si>
     <t xml:space="preserve">7.97401189804077</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19039344787598</t>
+    <t xml:space="preserve">8.19039249420166</t>
   </si>
   <si>
     <t xml:space="preserve">8.23847675323486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0781946182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12628173828125</t>
+    <t xml:space="preserve">8.07819557189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12628078460693</t>
   </si>
   <si>
     <t xml:space="preserve">8.00606918334961</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87784481048584</t>
+    <t xml:space="preserve">7.87784433364868</t>
   </si>
   <si>
     <t xml:space="preserve">7.94195604324341</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03011131286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93394136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99004030227661</t>
+    <t xml:space="preserve">8.03011226654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93394231796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99004077911377</t>
   </si>
   <si>
     <t xml:space="preserve">8.01408290863037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98202610015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90188455581665</t>
+    <t xml:space="preserve">7.98202657699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90188598632812</t>
   </si>
   <si>
     <t xml:space="preserve">7.89387226104736</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8698296546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14230823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35067462921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33464622497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71932315826416</t>
+    <t xml:space="preserve">7.86982870101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14230918884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35067558288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3346471786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71932220458984</t>
   </si>
   <si>
     <t xml:space="preserve">9.1039981842041</t>
@@ -1511,28 +1511,28 @@
     <t xml:space="preserve">8.97577285766602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63918209075928</t>
+    <t xml:space="preserve">8.63918113708496</t>
   </si>
   <si>
     <t xml:space="preserve">8.89563274383545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5783224105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54520034790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37959671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49551963806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41271686553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72736549377441</t>
+    <t xml:space="preserve">8.57832145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54520130157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37959575653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49552059173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41271781921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72736644744873</t>
   </si>
   <si>
     <t xml:space="preserve">8.47895908355713</t>
@@ -1547,34 +1547,34 @@
     <t xml:space="preserve">8.28023338317871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26367378234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36303615570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42927742004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52864170074463</t>
+    <t xml:space="preserve">8.26367282867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.363037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42927837371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52864074707031</t>
   </si>
   <si>
     <t xml:space="preserve">8.5120792388916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29679393768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87641143798828</t>
+    <t xml:space="preserve">8.29679489135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87641048431396</t>
   </si>
   <si>
     <t xml:space="preserve">8.94265174865723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10825729370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77704811096191</t>
+    <t xml:space="preserve">9.10825634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7770471572876</t>
   </si>
   <si>
     <t xml:space="preserve">8.62800407409668</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">8.67768478393555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74392700195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84328937530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61144161224365</t>
+    <t xml:space="preserve">8.74392795562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84328842163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61144351959229</t>
   </si>
   <si>
     <t xml:space="preserve">8.64456272125244</t>
@@ -1601,13 +1601,13 @@
     <t xml:space="preserve">8.59488201141357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69424438476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90953063964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44583892822266</t>
+    <t xml:space="preserve">8.69424533843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90952968597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44583797454834</t>
   </si>
   <si>
     <t xml:space="preserve">8.66112422943115</t>
@@ -1616,25 +1616,25 @@
     <t xml:space="preserve">8.19743156433105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34647464752197</t>
+    <t xml:space="preserve">8.34647560119629</t>
   </si>
   <si>
     <t xml:space="preserve">8.27195358276367</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32991600036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25539207458496</t>
+    <t xml:space="preserve">8.32991504669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25539302825928</t>
   </si>
   <si>
     <t xml:space="preserve">8.11462879180908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23883247375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89297103881836</t>
+    <t xml:space="preserve">8.23883152008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89297008514404</t>
   </si>
   <si>
     <t xml:space="preserve">8.24711227416992</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">8.46239852905273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39615821838379</t>
+    <t xml:space="preserve">8.39615726470947</t>
   </si>
   <si>
     <t xml:space="preserve">8.18915176391602</t>
@@ -1658,13 +1658,13 @@
     <t xml:space="preserve">8.15603065490723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56176090240479</t>
+    <t xml:space="preserve">8.5617618560791</t>
   </si>
   <si>
     <t xml:space="preserve">9.32354354858398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90315818786621</t>
+    <t xml:space="preserve">9.90315914154053</t>
   </si>
   <si>
     <t xml:space="preserve">10.1515665054321</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">10.0190830230713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3502912521362</t>
+    <t xml:space="preserve">10.3502922058105</t>
   </si>
   <si>
     <t xml:space="preserve">10.4993362426758</t>
@@ -1685,10 +1685,10 @@
     <t xml:space="preserve">10.5655784606934</t>
   </si>
   <si>
-    <t xml:space="preserve">10.731183052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0955123901367</t>
+    <t xml:space="preserve">10.7311820983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.095513343811</t>
   </si>
   <si>
     <t xml:space="preserve">10.9630289077759</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">10.4662160873413</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4496536254883</t>
+    <t xml:space="preserve">10.4496555328369</t>
   </si>
   <si>
     <t xml:space="preserve">10.4827756881714</t>
@@ -1718,16 +1718,16 @@
     <t xml:space="preserve">10.284049987793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3171701431274</t>
+    <t xml:space="preserve">10.3171710968018</t>
   </si>
   <si>
     <t xml:space="preserve">10.118444442749</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5324563980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5986986160278</t>
+    <t xml:space="preserve">10.5324573516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5986995697021</t>
   </si>
   <si>
     <t xml:space="preserve">11.0789527893066</t>
@@ -1736,16 +1736,16 @@
     <t xml:space="preserve">10.830545425415</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5821380615234</t>
+    <t xml:space="preserve">10.5821390151978</t>
   </si>
   <si>
     <t xml:space="preserve">10.6980619430542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9464693069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8802270889282</t>
+    <t xml:space="preserve">10.9464683532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8802261352539</t>
   </si>
   <si>
     <t xml:space="preserve">10.8967876434326</t>
@@ -1754,10 +1754,10 @@
     <t xml:space="preserve">11.0292711257935</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2279958724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2611179351807</t>
+    <t xml:space="preserve">11.2279968261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2611169815063</t>
   </si>
   <si>
     <t xml:space="preserve">11.2114372253418</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">11.1948757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1783151626587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2445583343506</t>
+    <t xml:space="preserve">11.178316116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2445573806763</t>
   </si>
   <si>
     <t xml:space="preserve">11.3604803085327</t>
@@ -1784,16 +1784,16 @@
     <t xml:space="preserve">11.7579307556152</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6420097351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8738555908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.791051864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7248106002808</t>
+    <t xml:space="preserve">11.6420087814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.873854637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7910528182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7248115539551</t>
   </si>
   <si>
     <t xml:space="preserve">11.8076133728027</t>
@@ -1805,37 +1805,37 @@
     <t xml:space="preserve">11.7082500457764</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5923261642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4101600646973</t>
+    <t xml:space="preserve">11.5923271179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4101610183716</t>
   </si>
   <si>
     <t xml:space="preserve">10.6318197250366</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6649408340454</t>
+    <t xml:space="preserve">10.6649398803711</t>
   </si>
   <si>
     <t xml:space="preserve">10.2343683242798</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82035636901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0853252410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4891471862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0254545211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73373699188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9324631690979</t>
+    <t xml:space="preserve">9.82035732269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0853242874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48914813995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02545356750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7337384223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93246364593506</t>
   </si>
   <si>
     <t xml:space="preserve">7.96558475494385</t>
@@ -1847,55 +1847,55 @@
     <t xml:space="preserve">9.15793800354004</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92609214782715</t>
+    <t xml:space="preserve">8.92609119415283</t>
   </si>
   <si>
     <t xml:space="preserve">8.85984897613525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00889492034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5222692489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9859619140625</t>
+    <t xml:space="preserve">9.0088939666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52226829528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98596096038818</t>
   </si>
   <si>
     <t xml:space="preserve">9.62163162231445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43946552276611</t>
+    <t xml:space="preserve">9.43946647644043</t>
   </si>
   <si>
     <t xml:space="preserve">9.91971874237061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38978481292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37322425842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63819122314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42290496826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67131328582764</t>
+    <t xml:space="preserve">9.38978576660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37322521209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63819217681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42290592193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67131233215332</t>
   </si>
   <si>
     <t xml:space="preserve">9.40634536743164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57194995880127</t>
+    <t xml:space="preserve">9.57195091247559</t>
   </si>
   <si>
     <t xml:space="preserve">9.55538940429688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73755550384521</t>
+    <t xml:space="preserve">9.7375545501709</t>
   </si>
   <si>
     <t xml:space="preserve">9.4725866317749</t>
@@ -1907,13 +1907,13 @@
     <t xml:space="preserve">9.64053440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52024269104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17655181884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98752021789551</t>
+    <t xml:space="preserve">9.52024173736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17655086517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98752117156982</t>
   </si>
   <si>
     <t xml:space="preserve">9.19373607635498</t>
@@ -1925,22 +1925,22 @@
     <t xml:space="preserve">9.43431949615479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26247406005859</t>
+    <t xml:space="preserve">9.26247310638428</t>
   </si>
   <si>
     <t xml:space="preserve">9.21092128753662</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48587226867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86393356323242</t>
+    <t xml:space="preserve">9.48587322235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86393260955811</t>
   </si>
   <si>
     <t xml:space="preserve">10.0185947418213</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1560716629028</t>
+    <t xml:space="preserve">10.1560707092285</t>
   </si>
   <si>
     <t xml:space="preserve">10.8434534072876</t>
@@ -1952,10 +1952,10 @@
     <t xml:space="preserve">10.8950071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7575302124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7919006347656</t>
+    <t xml:space="preserve">10.7575311660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7918996810913</t>
   </si>
   <si>
     <t xml:space="preserve">10.8606376647949</t>
@@ -1964,34 +1964,34 @@
     <t xml:space="preserve">10.8090829849243</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5169458389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4482088088989</t>
+    <t xml:space="preserve">10.5169467926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4482078552246</t>
   </si>
   <si>
     <t xml:space="preserve">10.2419939041138</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7059774398804</t>
+    <t xml:space="preserve">10.7059755325317</t>
   </si>
   <si>
     <t xml:space="preserve">10.7747144699097</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9121904373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8262691497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.152774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4620962142944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4964656829834</t>
+    <t xml:space="preserve">10.9121913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.826268196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1527757644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4620971679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4964666366577</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449119567871</t>
@@ -2000,67 +2000,67 @@
     <t xml:space="preserve">11.4105424880981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5480194091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2902526855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2386980056763</t>
+    <t xml:space="preserve">11.5480184555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2902507781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.238697052002</t>
   </si>
   <si>
     <t xml:space="preserve">11.3761739730835</t>
   </si>
   <si>
-    <t xml:space="preserve">11.599573135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7542343139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7714185714722</t>
+    <t xml:space="preserve">11.5995740890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7542352676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7714195251465</t>
   </si>
   <si>
     <t xml:space="preserve">11.926079750061</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0291881561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2010326385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0807418823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0979251861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1151103973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1322946548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.977632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8401575088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8573408126831</t>
+    <t xml:space="preserve">12.0291872024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2010335922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0807409286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0979261398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1151113510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1322937011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9776334762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8401565551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8573417663574</t>
   </si>
   <si>
     <t xml:space="preserve">11.4792814254761</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1355895996094</t>
+    <t xml:space="preserve">11.1355905532837</t>
   </si>
   <si>
     <t xml:space="preserve">11.1184053421021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3074359893799</t>
+    <t xml:space="preserve">11.3074350357056</t>
   </si>
   <si>
     <t xml:space="preserve">11.4277276992798</t>
@@ -2069,16 +2069,16 @@
     <t xml:space="preserve">11.2043285369873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3418054580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2215137481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3246212005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1012210845947</t>
+    <t xml:space="preserve">11.3418045043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2215127944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3246202468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.101222038269</t>
   </si>
   <si>
     <t xml:space="preserve">11.1871452331543</t>
@@ -2090,22 +2090,22 @@
     <t xml:space="preserve">10.9637451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1699590682983</t>
+    <t xml:space="preserve">11.1699600219727</t>
   </si>
   <si>
     <t xml:space="preserve">10.9981145858765</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5136499404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6854963302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6167593002319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2730665206909</t>
+    <t xml:space="preserve">11.513650894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6854972839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6167583465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2730674743652</t>
   </si>
   <si>
     <t xml:space="preserve">11.3933591842651</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">11.5823888778687</t>
   </si>
   <si>
-    <t xml:space="preserve">11.565203666687</t>
+    <t xml:space="preserve">11.5652046203613</t>
   </si>
   <si>
     <t xml:space="preserve">11.9088945388794</t>
@@ -2126,13 +2126,13 @@
     <t xml:space="preserve">12.2354021072388</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0635566711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9432649612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5513153076172</t>
+    <t xml:space="preserve">12.0635557174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9432640075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5513162612915</t>
   </si>
   <si>
     <t xml:space="preserve">10.6544227600098</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">11.0324831008911</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3589887619019</t>
+    <t xml:space="preserve">11.3589897155762</t>
   </si>
   <si>
     <t xml:space="preserve">11.7886037826538</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">11.5308351516724</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8917112350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9948177337646</t>
+    <t xml:space="preserve">11.8917102813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.994818687439</t>
   </si>
   <si>
     <t xml:space="preserve">12.0463714599609</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">11.9604482650757</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8057880401611</t>
+    <t xml:space="preserve">11.8057870864868</t>
   </si>
   <si>
     <t xml:space="preserve">11.6339426040649</t>
@@ -2180,16 +2180,16 @@
     <t xml:space="preserve">12.4416160583496</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3728771209717</t>
+    <t xml:space="preserve">12.372878074646</t>
   </si>
   <si>
     <t xml:space="preserve">12.4072465896606</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993837356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0087070465088</t>
+    <t xml:space="preserve">12.6993846893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0087060928345</t>
   </si>
   <si>
     <t xml:space="preserve">13.3008441925049</t>
@@ -2198,16 +2198,16 @@
     <t xml:space="preserve">12.8884143829346</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5447235107422</t>
+    <t xml:space="preserve">12.5447244644165</t>
   </si>
   <si>
     <t xml:space="preserve">12.6822004318237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4759864807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5275402069092</t>
+    <t xml:space="preserve">12.4759855270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5275392532349</t>
   </si>
   <si>
     <t xml:space="preserve">12.2525863647461</t>
@@ -2219,22 +2219,22 @@
     <t xml:space="preserve">12.6650152206421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.785306930542</t>
+    <t xml:space="preserve">12.7853078842163</t>
   </si>
   <si>
     <t xml:space="preserve">12.8712301254272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8024921417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9743385314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1118144989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2149219512939</t>
+    <t xml:space="preserve">12.8024911880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9743366241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1118135452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2149209976196</t>
   </si>
   <si>
     <t xml:space="preserve">13.1633672714233</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">13.1977367401123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6273508071899</t>
+    <t xml:space="preserve">13.6273498535156</t>
   </si>
   <si>
     <t xml:space="preserve">13.7476425170898</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7132740020752</t>
+    <t xml:space="preserve">13.7132730484009</t>
   </si>
   <si>
     <t xml:space="preserve">13.5929803848267</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">13.3523979187012</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6101665496826</t>
+    <t xml:space="preserve">13.6101655960083</t>
   </si>
   <si>
     <t xml:space="preserve">13.9194889068604</t>
@@ -2273,31 +2273,31 @@
     <t xml:space="preserve">14.1085186004639</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5037631988525</t>
+    <t xml:space="preserve">14.5037622451782</t>
   </si>
   <si>
     <t xml:space="preserve">14.6068706512451</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8474559783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0364847183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0708532333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0192985534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6927928924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.383469581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5896854400635</t>
+    <t xml:space="preserve">14.8474531173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0364856719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.070855140686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0192995071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6927938461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3834705352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5896863937378</t>
   </si>
   <si>
     <t xml:space="preserve">14.6756076812744</t>
@@ -2309,22 +2309,22 @@
     <t xml:space="preserve">14.6240549087524</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5725002288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7958984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.744345664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1567754745483</t>
+    <t xml:space="preserve">14.5725011825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7959003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7443466186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.156774520874</t>
   </si>
   <si>
     <t xml:space="preserve">14.9505615234375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0536680221558</t>
+    <t xml:space="preserve">15.0536699295044</t>
   </si>
   <si>
     <t xml:space="preserve">15.2942514419556</t>
@@ -2333,19 +2333,19 @@
     <t xml:space="preserve">15.3819484710693</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9960842132568</t>
+    <t xml:space="preserve">14.9960832595825</t>
   </si>
   <si>
     <t xml:space="preserve">14.9610061645508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9434671401978</t>
+    <t xml:space="preserve">14.9434661865234</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837812423706</t>
   </si>
   <si>
-    <t xml:space="preserve">15.101318359375</t>
+    <t xml:space="preserve">15.1013193130493</t>
   </si>
   <si>
     <t xml:space="preserve">15.1890153884888</t>
@@ -2363,19 +2363,19 @@
     <t xml:space="preserve">15.0136251449585</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7856130599976</t>
+    <t xml:space="preserve">14.7856140136719</t>
   </si>
   <si>
     <t xml:space="preserve">14.592679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1188592910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.855770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8031520843506</t>
+    <t xml:space="preserve">15.118857383728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8557710647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8031511306763</t>
   </si>
   <si>
     <t xml:space="preserve">14.7680730819702</t>
@@ -2387,10 +2387,10 @@
     <t xml:space="preserve">15.1363983154297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0311613082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1539392471313</t>
+    <t xml:space="preserve">15.0311622619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.153938293457</t>
   </si>
   <si>
     <t xml:space="preserve">14.9785442352295</t>
@@ -2399,13 +2399,13 @@
     <t xml:space="preserve">14.7329940795898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.89084815979</t>
+    <t xml:space="preserve">14.8908472061157</t>
   </si>
   <si>
     <t xml:space="preserve">14.7505340576172</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1714754104614</t>
+    <t xml:space="preserve">15.1714763641357</t>
   </si>
   <si>
     <t xml:space="preserve">15.0662422180176</t>
@@ -2414,10 +2414,10 @@
     <t xml:space="preserve">15.3293294906616</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3468704223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8206901550293</t>
+    <t xml:space="preserve">15.3468685150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8206911087036</t>
   </si>
   <si>
     <t xml:space="preserve">15.5398015975952</t>
@@ -2426,37 +2426,37 @@
     <t xml:space="preserve">15.6099576950073</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5222635269165</t>
+    <t xml:space="preserve">15.5222616195679</t>
   </si>
   <si>
     <t xml:space="preserve">15.5748805999756</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7853517532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9607448577881</t>
+    <t xml:space="preserve">15.7853507995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9607458114624</t>
   </si>
   <si>
     <t xml:space="preserve">16.1887531280518</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0309009552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327356338501</t>
+    <t xml:space="preserve">16.0309028625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327337265015</t>
   </si>
   <si>
     <t xml:space="preserve">16.2413730621338</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5921592712402</t>
+    <t xml:space="preserve">16.5921573638916</t>
   </si>
   <si>
     <t xml:space="preserve">16.4167652130127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2589130401611</t>
+    <t xml:space="preserve">16.2589111328125</t>
   </si>
   <si>
     <t xml:space="preserve">16.1536769866943</t>
@@ -2465,19 +2465,19 @@
     <t xml:space="preserve">16.136137008667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9256649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0835208892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9782819747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8379688262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6976537704468</t>
+    <t xml:space="preserve">15.9256658554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0835189819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9782810211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8379697799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6976566314697</t>
   </si>
   <si>
     <t xml:space="preserve">15.662576675415</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">15.6274976730347</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9958238601685</t>
+    <t xml:space="preserve">15.9958229064941</t>
   </si>
   <si>
     <t xml:space="preserve">15.8204317092896</t>
@@ -2495,49 +2495,49 @@
     <t xml:space="preserve">15.7151937484741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6450366973877</t>
+    <t xml:space="preserve">15.645037651062</t>
   </si>
   <si>
     <t xml:space="preserve">14.6452989578247</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4699058532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4874448776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2591733932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3994874954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.364408493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2416324615479</t>
+    <t xml:space="preserve">14.4699048995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4874458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2591724395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.399486541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3644104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2416343688965</t>
   </si>
   <si>
     <t xml:space="preserve">15.2240953445435</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2065563201904</t>
+    <t xml:space="preserve">15.2065553665161</t>
   </si>
   <si>
     <t xml:space="preserve">16.3466091156006</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0659809112549</t>
+    <t xml:space="preserve">16.0659790039062</t>
   </si>
   <si>
     <t xml:space="preserve">15.8730487823486</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3117904663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6102209091187</t>
+    <t xml:space="preserve">15.3117895126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6102199554443</t>
   </si>
   <si>
     <t xml:space="preserve">14.5576028823853</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">14.5225229263306</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2945117950439</t>
+    <t xml:space="preserve">14.2945127487183</t>
   </si>
   <si>
     <t xml:space="preserve">14.3295917510986</t>
@@ -2561,10 +2561,10 @@
     <t xml:space="preserve">13.8560314178467</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0314235687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.119119644165</t>
+    <t xml:space="preserve">14.0314245223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1191205978394</t>
   </si>
   <si>
     <t xml:space="preserve">14.2769746780396</t>
@@ -2576,22 +2576,22 @@
     <t xml:space="preserve">14.3822088241577</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8735694885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0840406417847</t>
+    <t xml:space="preserve">13.8735704421997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.084041595459</t>
   </si>
   <si>
     <t xml:space="preserve">14.2594347000122</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8209524154663</t>
+    <t xml:space="preserve">13.8209533691406</t>
   </si>
   <si>
     <t xml:space="preserve">14.066502571106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9437274932861</t>
+    <t xml:space="preserve">13.9437265396118</t>
   </si>
   <si>
     <t xml:space="preserve">13.5227842330933</t>
@@ -2603,7 +2603,7 @@
     <t xml:space="preserve">12.9966058731079</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4350881576538</t>
+    <t xml:space="preserve">13.4350872039795</t>
   </si>
   <si>
     <t xml:space="preserve">13.1369199752808</t>
@@ -2618,7 +2618,7 @@
     <t xml:space="preserve">13.0492238998413</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510566711426</t>
+    <t xml:space="preserve">12.7510557174683</t>
   </si>
   <si>
     <t xml:space="preserve">12.5230445861816</t>
@@ -2627,13 +2627,13 @@
     <t xml:space="preserve">12.330114364624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7685956954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4879674911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.259955406189</t>
+    <t xml:space="preserve">12.7685966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4879665374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2599563598633</t>
   </si>
   <si>
     <t xml:space="preserve">12.3651924133301</t>
@@ -2642,16 +2642,16 @@
     <t xml:space="preserve">12.4528884887695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1898002624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9617881774902</t>
+    <t xml:space="preserve">12.1897993087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9617891311646</t>
   </si>
   <si>
     <t xml:space="preserve">11.8039350509644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8565540313721</t>
+    <t xml:space="preserve">11.8565530776978</t>
   </si>
   <si>
     <t xml:space="preserve">11.4531497955322</t>
@@ -2660,13 +2660,13 @@
     <t xml:space="preserve">10.786657333374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.277756690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2251396179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8392744064331</t>
+    <t xml:space="preserve">11.2777557373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2251386642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8392753601074</t>
   </si>
   <si>
     <t xml:space="preserve">10.7691173553467</t>
@@ -2675,25 +2675,25 @@
     <t xml:space="preserve">10.5411071777344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0850858688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1026248931885</t>
+    <t xml:space="preserve">10.0850849151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1026258468628</t>
   </si>
   <si>
     <t xml:space="preserve">9.8921537399292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1727819442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85707569122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0675468444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5761852264404</t>
+    <t xml:space="preserve">10.1727828979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85707473754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0675458908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5761871337891</t>
   </si>
   <si>
     <t xml:space="preserve">9.92723178863525</t>
@@ -2702,10 +2702,10 @@
     <t xml:space="preserve">10.9795894622803</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2075996398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8918924331665</t>
+    <t xml:space="preserve">11.2076005935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8918933868408</t>
   </si>
   <si>
     <t xml:space="preserve">11.0848245620728</t>
@@ -2717,25 +2717,25 @@
     <t xml:space="preserve">10.6814212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7165002822876</t>
+    <t xml:space="preserve">10.7164993286133</t>
   </si>
   <si>
     <t xml:space="preserve">10.6288032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4183330535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4534111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2429389953613</t>
+    <t xml:space="preserve">10.4183320999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4534101486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2429399490356</t>
   </si>
   <si>
     <t xml:space="preserve">10.1552429199219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69922256469727</t>
+    <t xml:space="preserve">9.69922161102295</t>
   </si>
   <si>
     <t xml:space="preserve">9.80445766448975</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">9.90969276428223</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71676158905029</t>
+    <t xml:space="preserve">9.71676063537598</t>
   </si>
   <si>
     <t xml:space="preserve">9.82199573516846</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">9.64660358428955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96231079101562</t>
+    <t xml:space="preserve">9.96230983734131</t>
   </si>
   <si>
     <t xml:space="preserve">10.3306350708008</t>
@@ -2762,16 +2762,16 @@
     <t xml:space="preserve">10.1903209686279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5937252044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1374416351318</t>
+    <t xml:space="preserve">10.5937242507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1374425888062</t>
   </si>
   <si>
     <t xml:space="preserve">11.0497465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6463432312012</t>
+    <t xml:space="preserve">10.6463422775269</t>
   </si>
   <si>
     <t xml:space="preserve">10.488489151001</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">10.2707347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6336584091187</t>
+    <t xml:space="preserve">10.633659362793</t>
   </si>
   <si>
     <t xml:space="preserve">10.6699514389038</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">10.8332662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4159049987793</t>
+    <t xml:space="preserve">10.415904045105</t>
   </si>
   <si>
     <t xml:space="preserve">10.6518049240112</t>
@@ -2819,10 +2819,10 @@
     <t xml:space="preserve">11.7950134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6861362457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8131608963013</t>
+    <t xml:space="preserve">11.6861371994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.813159942627</t>
   </si>
   <si>
     <t xml:space="preserve">11.7224292755127</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">11.5954055786133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6135530471802</t>
+    <t xml:space="preserve">11.6135520935059</t>
   </si>
   <si>
     <t xml:space="preserve">10.5973663330078</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">11.0147285461426</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0328750610352</t>
+    <t xml:space="preserve">11.0328741073608</t>
   </si>
   <si>
     <t xml:space="preserve">11.3232126235962</t>
@@ -2903,25 +2903,25 @@
     <t xml:space="preserve">11.2869205474854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0873136520386</t>
+    <t xml:space="preserve">11.0873126983643</t>
   </si>
   <si>
     <t xml:space="preserve">10.6880970001221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3070278167725</t>
+    <t xml:space="preserve">10.3070268630981</t>
   </si>
   <si>
     <t xml:space="preserve">10.1618576049805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90781116485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0529813766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.180004119873</t>
+    <t xml:space="preserve">9.90781211853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0529804229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1800050735474</t>
   </si>
   <si>
     <t xml:space="preserve">10.3614664077759</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">10.4703435897827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4521970748901</t>
+    <t xml:space="preserve">10.4521980285645</t>
   </si>
   <si>
     <t xml:space="preserve">10.0348358154297</t>
@@ -2939,28 +2939,28 @@
     <t xml:space="preserve">9.92595767974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7444953918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85337257385254</t>
+    <t xml:space="preserve">9.74449634552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85337352752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.78078842163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99854373931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59932613372803</t>
+    <t xml:space="preserve">9.99854278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59932708740234</t>
   </si>
   <si>
     <t xml:space="preserve">10.0892734527588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1074190139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1255655288696</t>
+    <t xml:space="preserve">10.1074199676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1255664825439</t>
   </si>
   <si>
     <t xml:space="preserve">10.1981506347656</t>
@@ -2969,16 +2969,16 @@
     <t xml:space="preserve">10.3796119689941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9239978790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1961908340454</t>
+    <t xml:space="preserve">10.923996925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1961898803711</t>
   </si>
   <si>
     <t xml:space="preserve">11.4683828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1034984588623</t>
+    <t xml:space="preserve">12.1034994125366</t>
   </si>
   <si>
     <t xml:space="preserve">11.9038906097412</t>
@@ -2996,25 +2996,25 @@
     <t xml:space="preserve">11.4320907592773</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4139432907104</t>
+    <t xml:space="preserve">11.4139442443848</t>
   </si>
   <si>
     <t xml:space="preserve">12.012767791748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.085352897644</t>
+    <t xml:space="preserve">12.0853519439697</t>
   </si>
   <si>
     <t xml:space="preserve">12.7567615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1741237640381</t>
+    <t xml:space="preserve">13.1741228103638</t>
   </si>
   <si>
     <t xml:space="preserve">13.2104158401489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9926605224609</t>
+    <t xml:space="preserve">12.9926614761353</t>
   </si>
   <si>
     <t xml:space="preserve">12.7386150360107</t>
@@ -3023,13 +3023,13 @@
     <t xml:space="preserve">12.4119834899902</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3756914138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478834152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6115922927856</t>
+    <t xml:space="preserve">12.3756923675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478843688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6115913391113</t>
   </si>
   <si>
     <t xml:space="preserve">12.684175491333</t>
@@ -3041,22 +3041,22 @@
     <t xml:space="preserve">12.4845685958862</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9200773239136</t>
+    <t xml:space="preserve">12.9200763702393</t>
   </si>
   <si>
     <t xml:space="preserve">13.0652456283569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1378297805786</t>
+    <t xml:space="preserve">13.1378307342529</t>
   </si>
   <si>
     <t xml:space="preserve">13.1015377044678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0108079910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2285623550415</t>
+    <t xml:space="preserve">13.0108070373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2285614013672</t>
   </si>
   <si>
     <t xml:space="preserve">13.1922693252563</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">12.8656387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8474922180176</t>
+    <t xml:space="preserve">12.8474912643433</t>
   </si>
   <si>
     <t xml:space="preserve">12.7930536270142</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">13.645923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8092403411865</t>
+    <t xml:space="preserve">13.8092393875122</t>
   </si>
   <si>
     <t xml:space="preserve">13.8455324172974</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">13.9362621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4443550109863</t>
+    <t xml:space="preserve">14.4443559646606</t>
   </si>
   <si>
     <t xml:space="preserve">14.0995779037476</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">14.3717708587646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3173322677612</t>
+    <t xml:space="preserve">14.3173313140869</t>
   </si>
   <si>
     <t xml:space="preserve">14.3354787826538</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">14.226601600647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1540174484253</t>
+    <t xml:space="preserve">14.154016494751</t>
   </si>
   <si>
     <t xml:space="preserve">14.2810401916504</t>
@@ -3137,13 +3137,13 @@
     <t xml:space="preserve">14.3899164199829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8798627853394</t>
+    <t xml:space="preserve">14.8798637390137</t>
   </si>
   <si>
     <t xml:space="preserve">14.4625015258789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4806480407715</t>
+    <t xml:space="preserve">14.4806470870972</t>
   </si>
   <si>
     <t xml:space="preserve">14.4987936019897</t>
@@ -3152,16 +3152,16 @@
     <t xml:space="preserve">14.662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4423952102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5694179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4786882400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6420030593872</t>
+    <t xml:space="preserve">15.4423942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5694189071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.478687286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6420021057129</t>
   </si>
   <si>
     <t xml:space="preserve">15.5149803161621</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">15.8597564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9141960144043</t>
+    <t xml:space="preserve">15.9141969680786</t>
   </si>
   <si>
     <t xml:space="preserve">16.2589721679688</t>
@@ -3188,22 +3188,22 @@
     <t xml:space="preserve">16.1138038635254</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0412178039551</t>
+    <t xml:space="preserve">16.0412197113037</t>
   </si>
   <si>
     <t xml:space="preserve">16.0775108337402</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8234643936157</t>
+    <t xml:space="preserve">15.82346534729</t>
   </si>
   <si>
     <t xml:space="preserve">15.769024848938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2427864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2064952850342</t>
+    <t xml:space="preserve">15.242787361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2064943313599</t>
   </si>
   <si>
     <t xml:space="preserve">15.8053188323975</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">15.9686336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9867811203003</t>
+    <t xml:space="preserve">15.986780166626</t>
   </si>
   <si>
     <t xml:space="preserve">15.841609954834</t>
@@ -3224,16 +3224,16 @@
     <t xml:space="preserve">16.131950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2952651977539</t>
+    <t xml:space="preserve">16.2952632904053</t>
   </si>
   <si>
     <t xml:space="preserve">16.8033580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8396511077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0574054718018</t>
+    <t xml:space="preserve">16.8396492004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0574035644531</t>
   </si>
   <si>
     <t xml:space="preserve">16.7489185333252</t>
@@ -3260,10 +3260,10 @@
     <t xml:space="preserve">15.2790794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1157646179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.097617149353</t>
+    <t xml:space="preserve">15.1157627105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0976161956787</t>
   </si>
   <si>
     <t xml:space="preserve">15.333517074585</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">15.460542678833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.533127784729</t>
+    <t xml:space="preserve">15.5331258773804</t>
   </si>
   <si>
     <t xml:space="preserve">15.406102180481</t>
@@ -60367,7 +60367,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6494328704</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>117314</v>
@@ -60388,6 +60388,32 @@
         <v>1237</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.649375</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>69736</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>12.1800003051758</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>12.1000003814697</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1251">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27017736434937</t>
+    <t xml:space="preserve">4.27017688751221</t>
   </si>
   <si>
     <t xml:space="preserve">ZV.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">4.25228023529053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16279554367065</t>
+    <t xml:space="preserve">4.16279602050781</t>
   </si>
   <si>
     <t xml:space="preserve">4.04467725753784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99456596374512</t>
+    <t xml:space="preserve">3.99456548690796</t>
   </si>
   <si>
     <t xml:space="preserve">3.91939949989319</t>
@@ -62,91 +62,91 @@
     <t xml:space="preserve">3.96951055526733</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95519351959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01604270935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98382806777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89434456825256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87286758422852</t>
+    <t xml:space="preserve">3.95519304275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01604223251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98382782936096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89434337615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87286710739136</t>
   </si>
   <si>
     <t xml:space="preserve">3.76548719406128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85855054855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729639053345</t>
+    <t xml:space="preserve">3.85855007171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729591369629</t>
   </si>
   <si>
     <t xml:space="preserve">3.91224050521851</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86570858955383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90150237083435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95877242088318</t>
+    <t xml:space="preserve">3.86570882797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90150260925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95877194404602</t>
   </si>
   <si>
     <t xml:space="preserve">3.80128073692322</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79412221908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78696298599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69389915466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65810632705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71537566184998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57936000823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60083651542664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70821690559387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75832796096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76906681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81559801101685</t>
+    <t xml:space="preserve">3.79412150382996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78696322441101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69389963150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65810561180115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71537661552429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57936024665833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60083699226379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70821714401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75832748413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76906609535217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81559753417969</t>
   </si>
   <si>
     <t xml:space="preserve">3.77980446815491</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74759030342102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72611474990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70105814933777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76190710067749</t>
+    <t xml:space="preserve">3.7475905418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72611403465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70105862617493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76190805435181</t>
   </si>
   <si>
     <t xml:space="preserve">3.78338360786438</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">3.74401068687439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77264523506165</t>
+    <t xml:space="preserve">3.77264547348022</t>
   </si>
   <si>
     <t xml:space="preserve">3.85139131546021</t>
@@ -167,61 +167,61 @@
     <t xml:space="preserve">4.00172472000122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05899524688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08405017852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06973266601562</t>
+    <t xml:space="preserve">4.05899477005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08405065536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06973171234131</t>
   </si>
   <si>
     <t xml:space="preserve">4.15205764770508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15921640396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13774013519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12342262268066</t>
+    <t xml:space="preserve">4.15921688079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13774061203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12342309951782</t>
   </si>
   <si>
     <t xml:space="preserve">4.11626434326172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14489936828613</t>
+    <t xml:space="preserve">4.14489889144897</t>
   </si>
   <si>
     <t xml:space="preserve">4.13058137893677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1950101852417</t>
+    <t xml:space="preserve">4.19501066207886</t>
   </si>
   <si>
     <t xml:space="preserve">4.09836769104004</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07689142227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16637516021729</t>
+    <t xml:space="preserve">4.07689189910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16637563705444</t>
   </si>
   <si>
     <t xml:space="preserve">4.11984395980835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16995525360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18069267272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18785190582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1341609954834</t>
+    <t xml:space="preserve">4.16995477676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18069362640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18785095214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13416051864624</t>
   </si>
   <si>
     <t xml:space="preserve">4.19858932495117</t>
@@ -230,19 +230,19 @@
     <t xml:space="preserve">4.1413197517395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09120893478394</t>
+    <t xml:space="preserve">4.09120845794678</t>
   </si>
   <si>
     <t xml:space="preserve">4.10706949234009</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09213495254517</t>
+    <t xml:space="preserve">4.09213542938232</t>
   </si>
   <si>
     <t xml:space="preserve">4.07720041275024</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05479717254639</t>
+    <t xml:space="preserve">4.05479764938354</t>
   </si>
   <si>
     <t xml:space="preserve">4.08093357086182</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">4.16680860519409</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17800951004028</t>
+    <t xml:space="preserve">4.17800903320312</t>
   </si>
   <si>
     <t xml:space="preserve">4.18547677993774</t>
@@ -275,130 +275,130 @@
     <t xml:space="preserve">4.25268363952637</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31989002227783</t>
+    <t xml:space="preserve">4.31989049911499</t>
   </si>
   <si>
     <t xml:space="preserve">4.2862868309021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26761817932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21908092498779</t>
+    <t xml:space="preserve">4.26761865615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21908044815063</t>
   </si>
   <si>
     <t xml:space="preserve">4.23401594161987</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20041179656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19667863845825</t>
+    <t xml:space="preserve">4.20041227340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19667816162109</t>
   </si>
   <si>
     <t xml:space="preserve">4.01746034622192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99505734443665</t>
+    <t xml:space="preserve">3.99505877494812</t>
   </si>
   <si>
     <t xml:space="preserve">3.96892261505127</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96145510673523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12573766708374</t>
+    <t xml:space="preserve">3.96145486831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1257381439209</t>
   </si>
   <si>
     <t xml:space="preserve">4.14440679550171</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17427587509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26388502120972</t>
+    <t xml:space="preserve">4.17427635192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26388454437256</t>
   </si>
   <si>
     <t xml:space="preserve">3.97265625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02492809295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04733037948608</t>
+    <t xml:space="preserve">4.0249285697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04732990264893</t>
   </si>
   <si>
     <t xml:space="preserve">4.08840131759644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03986263275146</t>
+    <t xml:space="preserve">4.03986310958862</t>
   </si>
   <si>
     <t xml:space="preserve">4.02119445800781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05853128433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.032395362854</t>
+    <t xml:space="preserve">4.05853080749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03239583969116</t>
   </si>
   <si>
     <t xml:space="preserve">4.08466672897339</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11827087402344</t>
+    <t xml:space="preserve">4.11827039718628</t>
   </si>
   <si>
     <t xml:space="preserve">4.15934133529663</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12947130203247</t>
+    <t xml:space="preserve">4.12947177886963</t>
   </si>
   <si>
     <t xml:space="preserve">4.13693904876709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20414638519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22654724121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24895000457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18174314498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06226539611816</t>
+    <t xml:space="preserve">4.20414590835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2265477180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24894952774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18174266815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06226491928101</t>
   </si>
   <si>
     <t xml:space="preserve">4.02866220474243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98385763168335</t>
+    <t xml:space="preserve">3.98385667800903</t>
   </si>
   <si>
     <t xml:space="preserve">3.98012351989746</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97638940811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95772099494934</t>
+    <t xml:space="preserve">3.97639036178589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9577214717865</t>
   </si>
   <si>
     <t xml:space="preserve">3.93531918525696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98759078979492</t>
+    <t xml:space="preserve">3.98759126663208</t>
   </si>
   <si>
     <t xml:space="preserve">4.002525806427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03612899780273</t>
+    <t xml:space="preserve">4.03612947463989</t>
   </si>
   <si>
     <t xml:space="preserve">3.93905329704285</t>
@@ -416,31 +416,31 @@
     <t xml:space="preserve">3.86064505577087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84571099281311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86811304092407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82330822944641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81584072113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077549934387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8195743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85317730903625</t>
+    <t xml:space="preserve">3.84571075439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86811208724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82330799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81584095954895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077645301819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81957411766052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85317826271057</t>
   </si>
   <si>
     <t xml:space="preserve">3.95398736000061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14067316055298</t>
+    <t xml:space="preserve">4.14067268371582</t>
   </si>
   <si>
     <t xml:space="preserve">4.21161270141602</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">4.22281408309937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09960174560547</t>
+    <t xml:space="preserve">4.09960222244263</t>
   </si>
   <si>
     <t xml:space="preserve">4.10333633422852</t>
@@ -458,28 +458,28 @@
     <t xml:space="preserve">4.00999355316162</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04359674453735</t>
+    <t xml:space="preserve">4.0435962677002</t>
   </si>
   <si>
     <t xml:space="preserve">4.00625896453857</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06599903106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9203839302063</t>
+    <t xml:space="preserve">4.06599855422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92038440704346</t>
   </si>
   <si>
     <t xml:space="preserve">4.07346630096436</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26015090942383</t>
+    <t xml:space="preserve">4.26015138626099</t>
   </si>
   <si>
     <t xml:space="preserve">4.27135229110718</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3161563873291</t>
+    <t xml:space="preserve">4.31615686416626</t>
   </si>
   <si>
     <t xml:space="preserve">4.33109188079834</t>
@@ -488,37 +488,37 @@
     <t xml:space="preserve">4.28255367279053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27881956100464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32362413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34229183197021</t>
+    <t xml:space="preserve">4.27881908416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32362461090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34229230880737</t>
   </si>
   <si>
     <t xml:space="preserve">4.30868911743164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30495452880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27508592605591</t>
+    <t xml:space="preserve">4.30495548248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27508497238159</t>
   </si>
   <si>
     <t xml:space="preserve">4.29375457763672</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33855867385864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33482551574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36842823028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36096048355103</t>
+    <t xml:space="preserve">4.33855819702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33482503890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3684287071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36096096038818</t>
   </si>
   <si>
     <t xml:space="preserve">4.40576505661011</t>
@@ -527,13 +527,13 @@
     <t xml:space="preserve">4.42070007324219</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39456415176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48043870925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45430421829224</t>
+    <t xml:space="preserve">4.39456510543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48043918609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45430326461792</t>
   </si>
   <si>
     <t xml:space="preserve">4.51777648925781</t>
@@ -542,34 +542,34 @@
     <t xml:space="preserve">4.5924506187439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61485195159912</t>
+    <t xml:space="preserve">4.61485242843628</t>
   </si>
   <si>
     <t xml:space="preserve">4.5999174118042</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55511331558228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54764604568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62978744506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76420068740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99569034576416</t>
+    <t xml:space="preserve">4.55511283874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54764556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62978792190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76420021057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.995689868927</t>
   </si>
   <si>
     <t xml:space="preserve">5.18984222412109</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22717905044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48853778839111</t>
+    <t xml:space="preserve">5.22717952728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48853826522827</t>
   </si>
   <si>
     <t xml:space="preserve">5.51840782165527</t>
@@ -578,52 +578,52 @@
     <t xml:space="preserve">5.52587509155273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52214193344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38026094436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36159229278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37279367446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639638900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39519548416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44373416900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45120096206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46613597869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4848051071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43626642227173</t>
+    <t xml:space="preserve">5.522141456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38026142120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3615927696228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37279415130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639686584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39519596099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44373369216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45120143890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46613550186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48480463027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43626689910889</t>
   </si>
   <si>
     <t xml:space="preserve">5.42133235931396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5445442199707</t>
+    <t xml:space="preserve">5.54454374313354</t>
   </si>
   <si>
     <t xml:space="preserve">5.56694602966309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91418027877808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82457160949707</t>
+    <t xml:space="preserve">5.91417980194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82457113265991</t>
   </si>
   <si>
     <t xml:space="preserve">5.66028833389282</t>
@@ -632,10 +632,10 @@
     <t xml:space="preserve">5.78723430633545</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67522287368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74989748001099</t>
+    <t xml:space="preserve">5.6752233505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74989700317383</t>
   </si>
   <si>
     <t xml:space="preserve">5.84323930740356</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">6.01067352294922</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94123125076294</t>
+    <t xml:space="preserve">5.9412317276001</t>
   </si>
   <si>
     <t xml:space="preserve">5.93737363815308</t>
@@ -659,28 +659,28 @@
     <t xml:space="preserve">5.91422557830811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72904491424561</t>
+    <t xml:space="preserve">5.72904396057129</t>
   </si>
   <si>
     <t xml:space="preserve">5.72518682479858</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86793088912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87564563751221</t>
+    <t xml:space="preserve">5.86793041229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87564659118652</t>
   </si>
   <si>
     <t xml:space="preserve">5.81006145477295</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77148246765137</t>
+    <t xml:space="preserve">5.77148199081421</t>
   </si>
   <si>
     <t xml:space="preserve">5.8717885017395</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76376628875732</t>
+    <t xml:space="preserve">5.76376581192017</t>
   </si>
   <si>
     <t xml:space="preserve">5.67117500305176</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">5.78691387176514</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75604963302612</t>
+    <t xml:space="preserve">5.75605010986328</t>
   </si>
   <si>
     <t xml:space="preserve">5.79077196121216</t>
@@ -707,37 +707,37 @@
     <t xml:space="preserve">5.80620336532593</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86021375656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91808366775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71747064590454</t>
+    <t xml:space="preserve">5.8602147102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91808319091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71747016906738</t>
   </si>
   <si>
     <t xml:space="preserve">5.82549333572388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86407232284546</t>
+    <t xml:space="preserve">5.86407279968262</t>
   </si>
   <si>
     <t xml:space="preserve">5.7599081993103</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93351554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81777667999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6480278968811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67503309249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61330604553223</t>
+    <t xml:space="preserve">5.9335150718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81777715682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64802742004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6750340461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61330652236938</t>
   </si>
   <si>
     <t xml:space="preserve">5.58630037307739</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">5.62102174758911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43198299407959</t>
+    <t xml:space="preserve">5.43198251724243</t>
   </si>
   <si>
     <t xml:space="preserve">5.71361255645752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69432306289673</t>
+    <t xml:space="preserve">5.69432258605957</t>
   </si>
   <si>
     <t xml:space="preserve">5.68274927139282</t>
@@ -770,19 +770,19 @@
     <t xml:space="preserve">5.54000520706177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77919769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72132873535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73290252685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7483344078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79463005065918</t>
+    <t xml:space="preserve">5.77919721603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7213282585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73290157318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74833393096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79462957382202</t>
   </si>
   <si>
     <t xml:space="preserve">5.65574359893799</t>
@@ -794,55 +794,55 @@
     <t xml:space="preserve">5.81391906738281</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88721990585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89493560791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87950372695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8332085609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85249900817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97595262527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90265130996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89107799530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82163524627686</t>
+    <t xml:space="preserve">5.88722038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89493608474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87950420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83320808410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85249853134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97595310211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9026517868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89107847213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8216347694397</t>
   </si>
   <si>
     <t xml:space="preserve">5.84478282928467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92194175720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90650987625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08397579193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12255477905273</t>
+    <t xml:space="preserve">5.92194128036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90651035308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08397531509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12255430221558</t>
   </si>
   <si>
     <t xml:space="preserve">6.26529836654663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28073072433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33859968185425</t>
+    <t xml:space="preserve">6.28073120117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33859872817993</t>
   </si>
   <si>
     <t xml:space="preserve">6.27301454544067</t>
@@ -851,58 +851,58 @@
     <t xml:space="preserve">6.32702541351318</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16113424301147</t>
+    <t xml:space="preserve">6.16113376617432</t>
   </si>
   <si>
     <t xml:space="preserve">6.21900320053101</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16499137878418</t>
+    <t xml:space="preserve">6.16499185562134</t>
   </si>
   <si>
     <t xml:space="preserve">6.29616212844849</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09554862976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.246009349823</t>
+    <t xml:space="preserve">6.0955491065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24600887298584</t>
   </si>
   <si>
     <t xml:space="preserve">6.16884994506836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17270755767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20357179641724</t>
+    <t xml:space="preserve">6.17270803451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20357131958008</t>
   </si>
   <si>
     <t xml:space="preserve">6.11098098754883</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18428182601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0261058807373</t>
+    <t xml:space="preserve">6.18428134918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02610683441162</t>
   </si>
   <si>
     <t xml:space="preserve">6.15727567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19585466384888</t>
+    <t xml:space="preserve">6.19585561752319</t>
   </si>
   <si>
     <t xml:space="preserve">6.08011722564697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05311155319214</t>
+    <t xml:space="preserve">6.05311107635498</t>
   </si>
   <si>
     <t xml:space="preserve">6.00681591033936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98752689361572</t>
+    <t xml:space="preserve">5.98752641677856</t>
   </si>
   <si>
     <t xml:space="preserve">6.22286081314087</t>
@@ -911,10 +911,10 @@
     <t xml:space="preserve">6.11483860015869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10712337493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06082725524902</t>
+    <t xml:space="preserve">6.10712289810181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06082773208618</t>
   </si>
   <si>
     <t xml:space="preserve">5.92579889297485</t>
@@ -923,37 +923,37 @@
     <t xml:space="preserve">5.94894695281982</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84864091873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08783292770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94508981704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00295877456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0646858215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09169054031372</t>
+    <t xml:space="preserve">5.84864044189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0878324508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94508934020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00295829772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06468534469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09169149398804</t>
   </si>
   <si>
     <t xml:space="preserve">6.1379861831665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13412809371948</t>
+    <t xml:space="preserve">6.13412761688232</t>
   </si>
   <si>
     <t xml:space="preserve">6.15341806411743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21128702163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14955997467041</t>
+    <t xml:space="preserve">6.21128749847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14955949783325</t>
   </si>
   <si>
     <t xml:space="preserve">6.2382926940918</t>
@@ -962,67 +962,67 @@
     <t xml:space="preserve">6.26143980026245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25758171081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28844547271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36560487747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40418386459351</t>
+    <t xml:space="preserve">6.25758218765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28844594955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36560535430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40418434143066</t>
   </si>
   <si>
     <t xml:space="preserve">6.35017251968384</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43504762649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58164978027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53535509109497</t>
+    <t xml:space="preserve">6.43504810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5816502571106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53535461425781</t>
   </si>
   <si>
     <t xml:space="preserve">6.37332153320312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38103628158569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38875246047974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60479736328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55850219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48905849456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47362756729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12641286849976</t>
+    <t xml:space="preserve">6.38103771209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38875198364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60479688644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55850172042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48905897140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4736270904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1264123916626</t>
   </si>
   <si>
     <t xml:space="preserve">6.04925346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30387783050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34245681762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22671890258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18042325973511</t>
+    <t xml:space="preserve">6.30387830734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34245729446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22671842575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18042421340942</t>
   </si>
   <si>
     <t xml:space="preserve">6.31159400939941</t>
@@ -1031,19 +1031,19 @@
     <t xml:space="preserve">6.33474111557007</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46591186523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50449132919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45047903060913</t>
+    <t xml:space="preserve">6.46591091156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50449085235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45047950744629</t>
   </si>
   <si>
     <t xml:space="preserve">6.31930875778198</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23443508148193</t>
+    <t xml:space="preserve">6.23443460464478</t>
   </si>
   <si>
     <t xml:space="preserve">6.49677562713623</t>
@@ -1052,31 +1052,31 @@
     <t xml:space="preserve">6.44276428222656</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39646816253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41961622238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42733192443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52763795852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51992273330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59708118438721</t>
+    <t xml:space="preserve">6.39646863937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41961574554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42733144760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52763891220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51992177963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59708166122437</t>
   </si>
   <si>
     <t xml:space="preserve">6.63566112518311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74785852432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67573118209839</t>
+    <t xml:space="preserve">6.74785804748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67573070526123</t>
   </si>
   <si>
     <t xml:space="preserve">6.58757591247559</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">6.50743579864502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62764596939087</t>
+    <t xml:space="preserve">6.62764739990234</t>
   </si>
   <si>
     <t xml:space="preserve">6.61963319778442</t>
@@ -1097,31 +1097,31 @@
     <t xml:space="preserve">6.56353330612183</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5314769744873</t>
+    <t xml:space="preserve">6.53147745132446</t>
   </si>
   <si>
     <t xml:space="preserve">6.49942064285278</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37119579315186</t>
+    <t xml:space="preserve">6.3711953163147</t>
   </si>
   <si>
     <t xml:space="preserve">6.39523792266846</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61161804199219</t>
+    <t xml:space="preserve">6.61161851882935</t>
   </si>
   <si>
     <t xml:space="preserve">6.57956218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60360383987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65168857574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73182916641235</t>
+    <t xml:space="preserve">6.60360431671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65168905258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73182964324951</t>
   </si>
   <si>
     <t xml:space="preserve">6.53949165344238</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">6.35516738891602</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3872241973877</t>
+    <t xml:space="preserve">6.38722372055054</t>
   </si>
   <si>
     <t xml:space="preserve">6.34715414047241</t>
@@ -1145,31 +1145,31 @@
     <t xml:space="preserve">6.32311153411865</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46736478805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4833927154541</t>
+    <t xml:space="preserve">6.46736431121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48339319229126</t>
   </si>
   <si>
     <t xml:space="preserve">6.45935106277466</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43530797958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29906988143921</t>
+    <t xml:space="preserve">6.43530893325806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29906892776489</t>
   </si>
   <si>
     <t xml:space="preserve">6.42729520797729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49140787124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45133638381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40325212478638</t>
+    <t xml:space="preserve">6.49140739440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45133686065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40325260162354</t>
   </si>
   <si>
     <t xml:space="preserve">6.33913946151733</t>
@@ -1184,112 +1184,112 @@
     <t xml:space="preserve">6.4112663269043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25098514556885</t>
+    <t xml:space="preserve">6.25098466873169</t>
   </si>
   <si>
     <t xml:space="preserve">6.28304100036621</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21091413497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37920951843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36318206787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33112573623657</t>
+    <t xml:space="preserve">6.21091461181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37920999526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36318159103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33112621307373</t>
   </si>
   <si>
     <t xml:space="preserve">6.19488620758057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41928052902222</t>
+    <t xml:space="preserve">6.41928100585938</t>
   </si>
   <si>
     <t xml:space="preserve">6.59559011459351</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84402751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01232242584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82799863815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94820976257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9321813583374</t>
+    <t xml:space="preserve">6.84402704238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01232194900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82799959182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94820928573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93218183517456</t>
   </si>
   <si>
     <t xml:space="preserve">6.98026609420776</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9241681098938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02835083007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90813875198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85204076766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98828029632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04437971115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97225189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69977235794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75587272644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77991342544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78792858123779</t>
+    <t xml:space="preserve">6.92416858673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02835130691528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90813970565796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85204124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98828077316284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04437875747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97225284576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69977283477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75587224960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77991437911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78792810440063</t>
   </si>
   <si>
     <t xml:space="preserve">6.90012550354004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96423768997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9161548614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94019556045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81197071075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70778751373291</t>
+    <t xml:space="preserve">6.96423721313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91615390777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94019603729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81197023391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70778703689575</t>
   </si>
   <si>
     <t xml:space="preserve">6.5715479850769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77190017700195</t>
+    <t xml:space="preserve">6.77189970016479</t>
   </si>
   <si>
     <t xml:space="preserve">6.68374538421631</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64367437362671</t>
+    <t xml:space="preserve">6.64367485046387</t>
   </si>
   <si>
     <t xml:space="preserve">7.06842041015625</t>
@@ -1304,13 +1304,13 @@
     <t xml:space="preserve">7.13253402709961</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99629497528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984336853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72381591796875</t>
+    <t xml:space="preserve">6.99629402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984384536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72381544113159</t>
   </si>
   <si>
     <t xml:space="preserve">6.836012840271</t>
@@ -1319,142 +1319,142 @@
     <t xml:space="preserve">6.88409805297852</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66771745681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71580171585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5475058555603</t>
+    <t xml:space="preserve">6.66771650314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71580123901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54750633239746</t>
   </si>
   <si>
     <t xml:space="preserve">6.76388549804688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10047674179077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14054727554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18863248825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17260456085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11650514602661</t>
+    <t xml:space="preserve">7.10047769546509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14054775238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18863296508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17260408401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11650657653809</t>
   </si>
   <si>
     <t xml:space="preserve">7.23671627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25274610519409</t>
+    <t xml:space="preserve">7.25274515151978</t>
   </si>
   <si>
     <t xml:space="preserve">7.19664573669434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22870254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20466136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29281616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38898515701294</t>
+    <t xml:space="preserve">7.22870302200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20465993881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29281520843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38898468017578</t>
   </si>
   <si>
     <t xml:space="preserve">7.28480100631714</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33288621902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45309734344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50919628143311</t>
+    <t xml:space="preserve">7.33288526535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45309782028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50919580459595</t>
   </si>
   <si>
     <t xml:space="preserve">7.55728149414062</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51720952987671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41302537918091</t>
+    <t xml:space="preserve">7.51721048355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41302728652954</t>
   </si>
   <si>
     <t xml:space="preserve">7.48515319824219</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44508266448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49316692352295</t>
+    <t xml:space="preserve">7.44508218765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49316787719727</t>
   </si>
   <si>
     <t xml:space="preserve">7.81373023986816</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77365970611572</t>
+    <t xml:space="preserve">7.77366065979004</t>
   </si>
   <si>
     <t xml:space="preserve">7.75763273239136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52522373199463</t>
+    <t xml:space="preserve">7.5252251625061</t>
   </si>
   <si>
     <t xml:space="preserve">7.54125213623047</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53323698043823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66146326065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63742113113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61337900161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60536432266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57330703735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79770231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85380172729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91791439056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96599721908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97401189804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19039249420166</t>
+    <t xml:space="preserve">7.53323745727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66146421432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63742017745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61337852478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6053638458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57330799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7977032661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85380077362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91791343688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96599817276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97401285171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19039344787598</t>
   </si>
   <si>
     <t xml:space="preserve">8.23847675323486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07819557189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12628078460693</t>
+    <t xml:space="preserve">8.07819652557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12627983093262</t>
   </si>
   <si>
     <t xml:space="preserve">8.00606918334961</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">7.87784290313721</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94195604324341</t>
+    <t xml:space="preserve">7.94195699691772</t>
   </si>
   <si>
     <t xml:space="preserve">8.03011131286621</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93394136428833</t>
+    <t xml:space="preserve">7.93394231796265</t>
   </si>
   <si>
     <t xml:space="preserve">7.99004077911377</t>
@@ -1478,34 +1478,34 @@
     <t xml:space="preserve">8.01408290863037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98202705383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90188550949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89387273788452</t>
+    <t xml:space="preserve">7.98202800750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90188455581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89387178421021</t>
   </si>
   <si>
     <t xml:space="preserve">7.86982870101929</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14230823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35067462921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3346471786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71932315826416</t>
+    <t xml:space="preserve">8.14230728149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35067367553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33464527130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71932220458984</t>
   </si>
   <si>
     <t xml:space="preserve">9.10399723052979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97577285766602</t>
+    <t xml:space="preserve">8.9757719039917</t>
   </si>
   <si>
     <t xml:space="preserve">8.63918113708496</t>
@@ -1517,25 +1517,25 @@
     <t xml:space="preserve">8.57832145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54520034790039</t>
+    <t xml:space="preserve">8.54520130157471</t>
   </si>
   <si>
     <t xml:space="preserve">8.37959575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49551963806152</t>
+    <t xml:space="preserve">8.49552059173584</t>
   </si>
   <si>
     <t xml:space="preserve">8.41271686553955</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72736549377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47895812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3133544921875</t>
+    <t xml:space="preserve">8.72736644744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47895908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31335353851318</t>
   </si>
   <si>
     <t xml:space="preserve">8.1725902557373</t>
@@ -1544,10 +1544,10 @@
     <t xml:space="preserve">8.28023338317871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26367378234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36303615570068</t>
+    <t xml:space="preserve">8.26367282867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.363037109375</t>
   </si>
   <si>
     <t xml:space="preserve">8.42927742004395</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">8.52864074707031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5120792388916</t>
+    <t xml:space="preserve">8.51208019256592</t>
   </si>
   <si>
     <t xml:space="preserve">8.29679393768311</t>
@@ -1568,28 +1568,28 @@
     <t xml:space="preserve">8.94265270233154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10825729370117</t>
+    <t xml:space="preserve">9.10825634002686</t>
   </si>
   <si>
     <t xml:space="preserve">8.7770471572876</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62800407409668</t>
+    <t xml:space="preserve">8.62800312042236</t>
   </si>
   <si>
     <t xml:space="preserve">8.81016826629639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67768287658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74392700195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84329032897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61144351959229</t>
+    <t xml:space="preserve">8.67768383026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74392795562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84329128265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61144161224365</t>
   </si>
   <si>
     <t xml:space="preserve">8.64456367492676</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">8.69424438476562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90953063964844</t>
+    <t xml:space="preserve">8.90953159332275</t>
   </si>
   <si>
     <t xml:space="preserve">8.44583892822266</t>
@@ -1610,10 +1610,10 @@
     <t xml:space="preserve">8.66112422943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19743061065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34647560119629</t>
+    <t xml:space="preserve">8.19743156433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34647655487061</t>
   </si>
   <si>
     <t xml:space="preserve">8.27195262908936</t>
@@ -1625,61 +1625,61 @@
     <t xml:space="preserve">8.25539302825928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11462879180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23883247375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89297008514404</t>
+    <t xml:space="preserve">8.1146297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23883152008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89297103881836</t>
   </si>
   <si>
     <t xml:space="preserve">8.24711322784424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12290859222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18087005615234</t>
+    <t xml:space="preserve">8.12290954589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18087100982666</t>
   </si>
   <si>
     <t xml:space="preserve">8.46239948272705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39615821838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18915176391602</t>
+    <t xml:space="preserve">8.39615726470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1891508102417</t>
   </si>
   <si>
     <t xml:space="preserve">8.15602970123291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56176090240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32354354858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90315914154053</t>
+    <t xml:space="preserve">8.5617618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32354259490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90316009521484</t>
   </si>
   <si>
     <t xml:space="preserve">10.1515665054321</t>
   </si>
   <si>
-    <t xml:space="preserve">10.019082069397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3502912521362</t>
+    <t xml:space="preserve">10.0190830230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3502922058105</t>
   </si>
   <si>
     <t xml:space="preserve">10.4993362426758</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4330949783325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.565577507019</t>
+    <t xml:space="preserve">10.4330940246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5655784606934</t>
   </si>
   <si>
     <t xml:space="preserve">10.7311820983887</t>
@@ -1688,31 +1688,31 @@
     <t xml:space="preserve">11.0955123901367</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9630279541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1451940536499</t>
+    <t xml:space="preserve">10.9630289077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1451950073242</t>
   </si>
   <si>
     <t xml:space="preserve">10.7974243164062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7477426528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5158967971802</t>
+    <t xml:space="preserve">10.7477436065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5158958435059</t>
   </si>
   <si>
     <t xml:space="preserve">10.466215133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4496545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4827756881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2840509414673</t>
+    <t xml:space="preserve">10.4496536254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4827747344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.284049987793</t>
   </si>
   <si>
     <t xml:space="preserve">10.3171710968018</t>
@@ -1721,13 +1721,13 @@
     <t xml:space="preserve">10.118444442749</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5324573516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5986995697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0789527893066</t>
+    <t xml:space="preserve">10.5324563980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5986986160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0789518356323</t>
   </si>
   <si>
     <t xml:space="preserve">10.8305444717407</t>
@@ -1748,22 +1748,22 @@
     <t xml:space="preserve">10.8967876434326</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0292711257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2279977798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.261118888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2114362716675</t>
+    <t xml:space="preserve">11.0292701721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2279958724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2611179351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2114353179932</t>
   </si>
   <si>
     <t xml:space="preserve">11.1948757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1783151626587</t>
+    <t xml:space="preserve">11.1783142089844</t>
   </si>
   <si>
     <t xml:space="preserve">11.2445573806763</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">11.360481262207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6088886260986</t>
+    <t xml:space="preserve">11.6088876724243</t>
   </si>
   <si>
     <t xml:space="preserve">11.5757656097412</t>
@@ -1781,10 +1781,10 @@
     <t xml:space="preserve">11.7579317092896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6420078277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.873854637146</t>
+    <t xml:space="preserve">11.6420087814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8738536834717</t>
   </si>
   <si>
     <t xml:space="preserve">11.791051864624</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">11.7248106002808</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8076133728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7413711547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7082509994507</t>
+    <t xml:space="preserve">11.8076124191284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7413721084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7082500457764</t>
   </si>
   <si>
     <t xml:space="preserve">11.5923271179199</t>
@@ -1811,31 +1811,31 @@
     <t xml:space="preserve">10.6318197250366</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6649408340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2343683242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82035732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0853252410889</t>
+    <t xml:space="preserve">10.6649417877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2343673706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82035636901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0853242874146</t>
   </si>
   <si>
     <t xml:space="preserve">9.4891471862793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0254545211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73373746871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93246364593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96558427810669</t>
+    <t xml:space="preserve">9.02545356750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7337384223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93246269226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96558523178101</t>
   </si>
   <si>
     <t xml:space="preserve">7.91590309143066</t>
@@ -1844,73 +1844,73 @@
     <t xml:space="preserve">9.15793895721436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92609119415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85984897613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00889492034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5222692489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98596096038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62163066864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43946552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91972064971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38978576660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37322425842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63819122314453</t>
+    <t xml:space="preserve">8.92609214782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85984992980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00889301300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52226829528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9859619140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62163162231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43946647644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91971969604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38978481292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37322330474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63819217681885</t>
   </si>
   <si>
     <t xml:space="preserve">9.42290592193604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67131328582764</t>
+    <t xml:space="preserve">9.67131233215332</t>
   </si>
   <si>
     <t xml:space="preserve">9.40634441375732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57195091247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55538940429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73755550384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47258758544922</t>
+    <t xml:space="preserve">9.57194995880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55539035797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7375545501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4725866317749</t>
   </si>
   <si>
     <t xml:space="preserve">9.82956409454346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64053535461426</t>
+    <t xml:space="preserve">9.64053440093994</t>
   </si>
   <si>
     <t xml:space="preserve">9.52024173736572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17655181884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98752117156982</t>
+    <t xml:space="preserve">9.17655277252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98752212524414</t>
   </si>
   <si>
     <t xml:space="preserve">9.19373512268066</t>
@@ -1919,10 +1919,10 @@
     <t xml:space="preserve">9.70927238464355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43431949615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26247310638428</t>
+    <t xml:space="preserve">9.43431854248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26247406005859</t>
   </si>
   <si>
     <t xml:space="preserve">9.2109203338623</t>
@@ -1934,13 +1934,13 @@
     <t xml:space="preserve">9.86393356323242</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0185947418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1560707092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434534072876</t>
+    <t xml:space="preserve">10.018593788147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1560716629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434524536133</t>
   </si>
   <si>
     <t xml:space="preserve">10.6372385025024</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">10.8950071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.757529258728</t>
+    <t xml:space="preserve">10.7575302124023</t>
   </si>
   <si>
     <t xml:space="preserve">10.7918996810913</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">10.8090839385986</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5169467926025</t>
+    <t xml:space="preserve">10.5169458389282</t>
   </si>
   <si>
     <t xml:space="preserve">10.4482078552246</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">10.7059764862061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7747135162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9121913909912</t>
+    <t xml:space="preserve">10.7747144699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9121904373169</t>
   </si>
   <si>
     <t xml:space="preserve">10.826268196106</t>
@@ -1985,16 +1985,16 @@
     <t xml:space="preserve">11.152774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4620971679688</t>
+    <t xml:space="preserve">11.4620981216431</t>
   </si>
   <si>
     <t xml:space="preserve">11.4964656829834</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4449119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4105434417725</t>
+    <t xml:space="preserve">11.4449110031128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4105424880981</t>
   </si>
   <si>
     <t xml:space="preserve">11.5480184555054</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">12.0291872024536</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2010316848755</t>
+    <t xml:space="preserve">12.2010326385498</t>
   </si>
   <si>
     <t xml:space="preserve">12.0807418823242</t>
@@ -2045,10 +2045,10 @@
     <t xml:space="preserve">11.8401565551758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8573408126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4792804718018</t>
+    <t xml:space="preserve">11.8573417663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4792814254761</t>
   </si>
   <si>
     <t xml:space="preserve">11.1355895996094</t>
@@ -2057,10 +2057,10 @@
     <t xml:space="preserve">11.1184053421021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3074350357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4277286529541</t>
+    <t xml:space="preserve">11.3074359893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4277276992798</t>
   </si>
   <si>
     <t xml:space="preserve">11.2043285369873</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">11.3246202468872</t>
   </si>
   <si>
-    <t xml:space="preserve">11.101222038269</t>
+    <t xml:space="preserve">11.1012210845947</t>
   </si>
   <si>
     <t xml:space="preserve">11.18714427948</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">11.0496673583984</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9637441635132</t>
+    <t xml:space="preserve">10.9637451171875</t>
   </si>
   <si>
     <t xml:space="preserve">11.1699590682983</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">11.5823879241943</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5652046203613</t>
+    <t xml:space="preserve">11.5652055740356</t>
   </si>
   <si>
     <t xml:space="preserve">11.9088945388794</t>
@@ -2120,16 +2120,16 @@
     <t xml:space="preserve">11.8229722976685</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2354021072388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0635557174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9432649612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5513162612915</t>
+    <t xml:space="preserve">12.2354011535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0635566711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9432640075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5513153076172</t>
   </si>
   <si>
     <t xml:space="preserve">10.6544227600098</t>
@@ -2138,25 +2138,25 @@
     <t xml:space="preserve">11.0324821472168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3589897155762</t>
+    <t xml:space="preserve">11.3589906692505</t>
   </si>
   <si>
     <t xml:space="preserve">11.7886037826538</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7370500564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6511268615723</t>
+    <t xml:space="preserve">11.7370491027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6511259078979</t>
   </si>
   <si>
     <t xml:space="preserve">11.5308351516724</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8917102813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.994818687439</t>
+    <t xml:space="preserve">11.8917112350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9948177337646</t>
   </si>
   <si>
     <t xml:space="preserve">12.0463724136353</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">12.4416160583496</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3728771209717</t>
+    <t xml:space="preserve">12.372878074646</t>
   </si>
   <si>
     <t xml:space="preserve">12.4072465896606</t>
@@ -2189,10 +2189,10 @@
     <t xml:space="preserve">13.0087070465088</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3008432388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8884153366089</t>
+    <t xml:space="preserve">13.3008441925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8884143829346</t>
   </si>
   <si>
     <t xml:space="preserve">12.5447244644165</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">12.4759855270386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5275392532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2525863647461</t>
+    <t xml:space="preserve">12.5275382995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2525854110718</t>
   </si>
   <si>
     <t xml:space="preserve">12.6306457519531</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">12.6650152206421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.785306930542</t>
+    <t xml:space="preserve">12.7853078842163</t>
   </si>
   <si>
     <t xml:space="preserve">12.8712301254272</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">13.1118144989014</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2149219512939</t>
+    <t xml:space="preserve">13.2149209976196</t>
   </si>
   <si>
     <t xml:space="preserve">13.1633682250977</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">13.6273498535156</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7476425170898</t>
+    <t xml:space="preserve">13.7476415634155</t>
   </si>
   <si>
     <t xml:space="preserve">13.7132730484009</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">13.3523969650269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6101655960083</t>
+    <t xml:space="preserve">13.6101665496826</t>
   </si>
   <si>
     <t xml:space="preserve">13.919487953186</t>
@@ -2273,13 +2273,13 @@
     <t xml:space="preserve">14.5037612915039</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6068687438965</t>
+    <t xml:space="preserve">14.6068696975708</t>
   </si>
   <si>
     <t xml:space="preserve">14.8474550247192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0364837646484</t>
+    <t xml:space="preserve">15.0364828109741</t>
   </si>
   <si>
     <t xml:space="preserve">15.0708541870117</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">15.0192985534668</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6927928924561</t>
+    <t xml:space="preserve">14.6927938461304</t>
   </si>
   <si>
     <t xml:space="preserve">14.3834705352783</t>
@@ -2303,208 +2303,211 @@
     <t xml:space="preserve">14.4178400039673</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6240549087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5724992752075</t>
+    <t xml:space="preserve">14.6240539550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5725002288818</t>
   </si>
   <si>
     <t xml:space="preserve">14.7958993911743</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7443475723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1567754745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9505615234375</t>
+    <t xml:space="preserve">14.7443466186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1567764282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9505605697632</t>
   </si>
   <si>
     <t xml:space="preserve">15.0536689758301</t>
   </si>
   <si>
+    <t xml:space="preserve">15.2942514419556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3819494247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960842132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9610052108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9434671401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837802886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.101318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1890153884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9083871841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0487022399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8733081817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0136232376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7856130599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5926790237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1188583374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.855770111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8031511306763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7680730819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.838231086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1363973617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0311613082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1539392471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9785451889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7329950332642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.89084815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7505340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1714763641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0662422180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3293294906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3468685150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8206901550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5398015975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6099576950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5222635269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5748805999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7853517532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9607448577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1887531280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0309028625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327337265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2413730621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5921573638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4167652130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2589130401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1536769866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.136137008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9256649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0835189819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9782819747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8379688262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6976556777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.662576675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6274976730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9958238601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8204317092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7151937484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6450366973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.645299911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4699058532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4874458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2591733932495</t>
+  </si>
+  <si>
     <t xml:space="preserve">15.2942523956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3819494247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960842132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9610052108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9434671401978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837802886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.101318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1890153884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9083871841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0487022399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8733081817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0136232376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7856130599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5926790237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1188583374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.855770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8031511306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7680730819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.838231086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1363973617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0311613082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1539392471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9785451889038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7329950332642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.89084815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7505340576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1714763641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0662422180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3293294906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3468685150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8206901550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5398015975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6099576950073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5222635269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5748805999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7853517532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9607448577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1887531280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0309028625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327337265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2413730621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5921573638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4167652130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2589130401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1536769866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.136137008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9256649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0835189819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9782819747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8379688262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6976556777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.662576675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6274976730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9958238601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8204317092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7151937484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6450366973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.645299911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4699058532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4874458312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2591733932495</t>
   </si>
   <si>
     <t xml:space="preserve">15.3994874954224</t>
@@ -42471,7 +42474,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1476" t="s">
-        <v>770</v>
+        <v>831</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -42497,7 +42500,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G1477" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -42523,7 +42526,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1478" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -42549,7 +42552,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1479" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -42575,7 +42578,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1480" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -42601,7 +42604,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1481" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -42627,7 +42630,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1482" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -42653,7 +42656,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1483" t="s">
-        <v>770</v>
+        <v>831</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -42705,7 +42708,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1485" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -42731,7 +42734,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1486" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -42757,7 +42760,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G1487" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -42809,7 +42812,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1489" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -42861,7 +42864,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G1491" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -42913,7 +42916,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1493" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -42991,7 +42994,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1496" t="s">
-        <v>770</v>
+        <v>831</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -43017,7 +43020,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1497" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -43043,7 +43046,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1498" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -43225,7 +43228,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1505" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -43277,7 +43280,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1507" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -43303,7 +43306,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G1508" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -43329,7 +43332,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1509" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -43459,7 +43462,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1514" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -43485,7 +43488,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -43511,7 +43514,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1516" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -43563,7 +43566,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1518" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -43589,7 +43592,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1519" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -43615,7 +43618,7 @@
         <v>16</v>
       </c>
       <c r="G1520" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -43641,7 +43644,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1521" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -43667,7 +43670,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1522" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -43875,7 +43878,7 @@
         <v>16.3799991607666</v>
       </c>
       <c r="G1530" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43901,7 +43904,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1531" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43927,7 +43930,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1532" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -43953,7 +43956,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1533" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43979,7 +43982,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1534" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -44005,7 +44008,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1535" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -44031,7 +44034,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1536" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -44057,7 +44060,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G1537" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -44083,7 +44086,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1538" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -44109,7 +44112,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G1539" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -44135,7 +44138,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1540" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -44161,7 +44164,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1541" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -44187,7 +44190,7 @@
         <v>15</v>
       </c>
       <c r="G1542" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -44213,7 +44216,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1543" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -44239,7 +44242,7 @@
         <v>15.3199996948242</v>
       </c>
       <c r="G1544" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -44265,7 +44268,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G1545" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -44291,7 +44294,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G1546" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -44317,7 +44320,7 @@
         <v>15.3199996948242</v>
       </c>
       <c r="G1547" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -44343,7 +44346,7 @@
         <v>14.8599996566772</v>
       </c>
       <c r="G1548" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -44369,7 +44372,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G1549" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -44395,7 +44398,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1550" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -44421,7 +44424,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1551" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -44447,7 +44450,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1552" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -44473,7 +44476,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1553" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -44499,7 +44502,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1554" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -44525,7 +44528,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G1555" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -44551,7 +44554,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1556" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -44577,7 +44580,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1557" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -44603,7 +44606,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1558" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -44629,7 +44632,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1559" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -44655,7 +44658,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1560" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -44681,7 +44684,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1561" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -44707,7 +44710,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1562" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -44733,7 +44736,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1563" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -44759,7 +44762,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1564" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -44785,7 +44788,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1565" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44811,7 +44814,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1566" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -44837,7 +44840,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1567" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -44863,7 +44866,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G1568" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -44889,7 +44892,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G1569" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -44915,7 +44918,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1570" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -44941,7 +44944,7 @@
         <v>11.5</v>
       </c>
       <c r="G1571" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -44967,7 +44970,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1572" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -44993,7 +44996,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1573" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -45019,7 +45022,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1574" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -45045,7 +45048,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1575" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -45071,7 +45074,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1576" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -45097,7 +45100,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1577" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -45123,7 +45126,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1578" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -45149,7 +45152,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G1579" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -45175,7 +45178,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1580" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -45201,7 +45204,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1581" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -45227,7 +45230,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G1582" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -45253,7 +45256,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G1583" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -45279,7 +45282,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1584" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -45305,7 +45308,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G1585" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -45331,7 +45334,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G1586" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -45357,7 +45360,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1587" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -45383,7 +45386,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G1588" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -45409,7 +45412,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1589" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -45435,7 +45438,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1590" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -45461,7 +45464,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1591" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -45487,7 +45490,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G1592" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -45513,7 +45516,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1593" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -45539,7 +45542,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1594" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -45565,7 +45568,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G1595" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -45591,7 +45594,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1596" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -45617,7 +45620,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1597" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -45643,7 +45646,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1598" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -45669,7 +45672,7 @@
         <v>11</v>
       </c>
       <c r="G1599" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -45695,7 +45698,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1600" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -45721,7 +45724,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G1601" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -45747,7 +45750,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G1602" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -45773,7 +45776,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1603" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -45799,7 +45802,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G1604" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -45825,7 +45828,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1605" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -45851,7 +45854,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1606" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -45877,7 +45880,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G1607" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -45903,7 +45906,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1608" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -45929,7 +45932,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G1609" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -45955,7 +45958,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1610" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -45981,7 +45984,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1611" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -46007,7 +46010,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1612" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -46033,7 +46036,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1613" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -46059,7 +46062,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G1614" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -46085,7 +46088,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G1615" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -46111,7 +46114,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1616" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -46137,7 +46140,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1617" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -46163,7 +46166,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1618" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -46189,7 +46192,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G1619" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -46215,7 +46218,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1620" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46241,7 +46244,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G1621" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46267,7 +46270,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1622" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46293,7 +46296,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G1623" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46319,7 +46322,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1624" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46345,7 +46348,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1625" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46371,7 +46374,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G1626" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46397,7 +46400,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1627" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46423,7 +46426,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G1628" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46449,7 +46452,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1629" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46475,7 +46478,7 @@
         <v>13</v>
       </c>
       <c r="G1630" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -46501,7 +46504,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G1631" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46527,7 +46530,7 @@
         <v>13</v>
       </c>
       <c r="G1632" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46553,7 +46556,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1633" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46579,7 +46582,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1634" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -46605,7 +46608,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1635" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -46631,7 +46634,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G1636" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -46657,7 +46660,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1637" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -46683,7 +46686,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1638" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46709,7 +46712,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1639" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46735,7 +46738,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G1640" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46761,7 +46764,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1641" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46787,7 +46790,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1642" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46813,7 +46816,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G1643" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46839,7 +46842,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1644" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46865,7 +46868,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G1645" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46891,7 +46894,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1646" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46917,7 +46920,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1647" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46943,7 +46946,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G1648" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46969,7 +46972,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G1649" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46995,7 +46998,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1650" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -47021,7 +47024,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1651" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -47047,7 +47050,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G1652" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -47073,7 +47076,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1653" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47099,7 +47102,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G1654" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47125,7 +47128,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G1655" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47151,7 +47154,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1656" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47177,7 +47180,7 @@
         <v>11.5</v>
       </c>
       <c r="G1657" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47203,7 +47206,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1658" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47229,7 +47232,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1659" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47255,7 +47258,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1660" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47281,7 +47284,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1661" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47307,7 +47310,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G1662" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47333,7 +47336,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G1663" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47359,7 +47362,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1664" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47385,7 +47388,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G1665" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47411,7 +47414,7 @@
         <v>12</v>
       </c>
       <c r="G1666" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47437,7 +47440,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G1667" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47463,7 +47466,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1668" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47489,7 +47492,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1669" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47515,7 +47518,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G1670" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47541,7 +47544,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1671" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47567,7 +47570,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47593,7 +47596,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1673" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47619,7 +47622,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G1674" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47645,7 +47648,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1675" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47671,7 +47674,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G1676" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47697,7 +47700,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1677" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47723,7 +47726,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1678" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47749,7 +47752,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1679" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47775,7 +47778,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G1680" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47801,7 +47804,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1681" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47827,7 +47830,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G1682" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47853,7 +47856,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1683" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47879,7 +47882,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1684" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47905,7 +47908,7 @@
         <v>12.4399995803833</v>
       </c>
       <c r="G1685" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47931,7 +47934,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G1686" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47957,7 +47960,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G1687" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47983,7 +47986,7 @@
         <v>12</v>
       </c>
       <c r="G1688" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -48009,7 +48012,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G1689" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -48035,7 +48038,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G1690" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -48061,7 +48064,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1691" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48087,7 +48090,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G1692" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48113,7 +48116,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1693" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48139,7 +48142,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1694" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48165,7 +48168,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G1695" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48191,7 +48194,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G1696" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48217,7 +48220,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1697" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48243,7 +48246,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G1698" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48269,7 +48272,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G1699" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48295,7 +48298,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1700" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48321,7 +48324,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G1701" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48347,7 +48350,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1702" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48373,7 +48376,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1703" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48399,7 +48402,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1704" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48425,7 +48428,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1705" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48451,7 +48454,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1706" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48477,7 +48480,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1707" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48503,7 +48506,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1708" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48529,7 +48532,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1709" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48555,7 +48558,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1710" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48581,7 +48584,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1711" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48607,7 +48610,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1712" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48633,7 +48636,7 @@
         <v>10.7399997711182</v>
       </c>
       <c r="G1713" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48659,7 +48662,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1714" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48685,7 +48688,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G1715" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48711,7 +48714,7 @@
         <v>11.0200004577637</v>
       </c>
       <c r="G1716" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48737,7 +48740,7 @@
         <v>10.5799999237061</v>
       </c>
       <c r="G1717" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48763,7 +48766,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1718" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48789,7 +48792,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1719" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48815,7 +48818,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1720" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48841,7 +48844,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1721" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48867,7 +48870,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1722" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48893,7 +48896,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1723" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48919,7 +48922,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1724" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48945,7 +48948,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1725" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48971,7 +48974,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1726" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48997,7 +49000,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1727" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49023,7 +49026,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1728" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -49049,7 +49052,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1729" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49075,7 +49078,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1730" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49101,7 +49104,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1731" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49127,7 +49130,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G1732" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49153,7 +49156,7 @@
         <v>12.3400001525879</v>
       </c>
       <c r="G1733" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49179,7 +49182,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G1734" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49205,7 +49208,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1735" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49231,7 +49234,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1736" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49257,7 +49260,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1737" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49283,7 +49286,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1738" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49309,7 +49312,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G1739" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49335,7 +49338,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1740" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49361,7 +49364,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1741" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49387,7 +49390,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G1742" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49413,7 +49416,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1743" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49439,7 +49442,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1744" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49465,7 +49468,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1745" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49491,7 +49494,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1746" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49517,7 +49520,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1747" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49543,7 +49546,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="G1748" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49569,7 +49572,7 @@
         <v>14.3199996948242</v>
       </c>
       <c r="G1749" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49595,7 +49598,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G1750" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49621,7 +49624,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1751" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49647,7 +49650,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1752" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49673,7 +49676,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1753" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49699,7 +49702,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1754" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49725,7 +49728,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1755" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49751,7 +49754,7 @@
         <v>14</v>
       </c>
       <c r="G1756" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49777,7 +49780,7 @@
         <v>14</v>
       </c>
       <c r="G1757" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49803,7 +49806,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1758" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49829,7 +49832,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1759" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49855,7 +49858,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1760" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49881,7 +49884,7 @@
         <v>14</v>
       </c>
       <c r="G1761" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49907,7 +49910,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1762" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49933,7 +49936,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49959,7 +49962,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1764" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49985,7 +49988,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1765" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -50011,7 +50014,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1766" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -50037,7 +50040,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1767" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -50063,7 +50066,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1768" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50089,7 +50092,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1769" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50115,7 +50118,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1770" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50141,7 +50144,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1771" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50167,7 +50170,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1772" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50193,7 +50196,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1773" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50219,7 +50222,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1774" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50245,7 +50248,7 @@
         <v>14</v>
       </c>
       <c r="G1775" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50271,7 +50274,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1776" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50297,7 +50300,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1777" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50323,7 +50326,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1778" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50349,7 +50352,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1779" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50375,7 +50378,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1780" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50401,7 +50404,7 @@
         <v>14.1599998474121</v>
       </c>
       <c r="G1781" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50427,7 +50430,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1782" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50453,7 +50456,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50479,7 +50482,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1784" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50505,7 +50508,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1785" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50531,7 +50534,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1786" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50557,7 +50560,7 @@
         <v>15.039999961853</v>
       </c>
       <c r="G1787" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50583,7 +50586,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G1788" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50609,7 +50612,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1789" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50635,7 +50638,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G1790" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50661,7 +50664,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G1791" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50687,7 +50690,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1792" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50713,7 +50716,7 @@
         <v>15.3599996566772</v>
       </c>
       <c r="G1793" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50739,7 +50742,7 @@
         <v>15.3599996566772</v>
       </c>
       <c r="G1794" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50765,7 +50768,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G1795" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50791,7 +50794,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G1796" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50817,7 +50820,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1797" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50843,7 +50846,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1798" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50869,7 +50872,7 @@
         <v>15.8400001525879</v>
       </c>
       <c r="G1799" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50895,7 +50898,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1800" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50921,7 +50924,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G1801" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50947,7 +50950,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1802" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50973,7 +50976,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G1803" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50999,7 +51002,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G1804" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -51025,7 +51028,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1805" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -51051,7 +51054,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1806" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -51077,7 +51080,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1807" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51103,7 +51106,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51129,7 +51132,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1809" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51155,7 +51158,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G1810" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51181,7 +51184,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G1811" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51207,7 +51210,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1812" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51233,7 +51236,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1813" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51259,7 +51262,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1814" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51285,7 +51288,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G1815" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51311,7 +51314,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1816" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51337,7 +51340,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1817" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51363,7 +51366,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1818" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51389,7 +51392,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G1819" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51415,7 +51418,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G1820" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51441,7 +51444,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1821" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51467,7 +51470,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1822" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51493,7 +51496,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1823" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51519,7 +51522,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1824" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51545,7 +51548,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1825" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51571,7 +51574,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G1826" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51597,7 +51600,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1827" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51623,7 +51626,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1828" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51649,7 +51652,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1829" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51675,7 +51678,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1830" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51701,7 +51704,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1831" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51727,7 +51730,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1832" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51753,7 +51756,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1833" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51779,7 +51782,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1834" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51805,7 +51808,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1835" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51831,7 +51834,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1836" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51857,7 +51860,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1837" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51883,7 +51886,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1838" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51909,7 +51912,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1839" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51935,7 +51938,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51961,7 +51964,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1841" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51987,7 +51990,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G1842" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -52013,7 +52016,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1843" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -52039,7 +52042,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1844" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -52065,7 +52068,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1845" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52091,7 +52094,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1846" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52117,7 +52120,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1847" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52143,7 +52146,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G1848" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52169,7 +52172,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1849" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52195,7 +52198,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1850" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52221,7 +52224,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G1851" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52247,7 +52250,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1852" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52273,7 +52276,7 @@
         <v>18.4599990844727</v>
       </c>
       <c r="G1853" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52299,7 +52302,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G1854" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52325,7 +52328,7 @@
         <v>18.3799991607666</v>
       </c>
       <c r="G1855" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52351,7 +52354,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1856" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52377,7 +52380,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1857" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52403,7 +52406,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G1858" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52429,7 +52432,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1859" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52455,7 +52458,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G1860" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52481,7 +52484,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G1861" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52507,7 +52510,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1862" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52533,7 +52536,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1863" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52559,7 +52562,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1864" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52585,7 +52588,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1865" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52611,7 +52614,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G1866" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52637,7 +52640,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1867" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52663,7 +52666,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1868" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52689,7 +52692,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1869" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52715,7 +52718,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1870" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52741,7 +52744,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G1871" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52767,7 +52770,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1872" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52793,7 +52796,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1873" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52819,7 +52822,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G1874" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52845,7 +52848,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1875" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52871,7 +52874,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1876" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52897,7 +52900,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1877" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52923,7 +52926,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1878" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52949,7 +52952,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1879" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52975,7 +52978,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G1880" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -53001,7 +53004,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1881" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -53027,7 +53030,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G1882" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -53053,7 +53056,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1883" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -53079,7 +53082,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G1884" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53105,7 +53108,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1885" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53131,7 +53134,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1886" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53157,7 +53160,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1887" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53183,7 +53186,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1888" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53209,7 +53212,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G1889" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53235,7 +53238,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G1890" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53261,7 +53264,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1891" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53287,7 +53290,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1892" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53313,7 +53316,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1893" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53339,7 +53342,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G1894" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53365,7 +53368,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G1895" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53391,7 +53394,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G1896" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53417,7 +53420,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1897" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53443,7 +53446,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1898" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53469,7 +53472,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G1899" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53495,7 +53498,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G1900" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53521,7 +53524,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1901" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53547,7 +53550,7 @@
         <v>15.3599996566772</v>
       </c>
       <c r="G1902" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53573,7 +53576,7 @@
         <v>15.3199996948242</v>
       </c>
       <c r="G1903" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53599,7 +53602,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1904" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53625,7 +53628,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1905" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53651,7 +53654,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G1906" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53677,7 +53680,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G1907" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53703,7 +53706,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="G1908" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53729,7 +53732,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G1909" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53755,7 +53758,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G1910" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53781,7 +53784,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="G1911" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53807,7 +53810,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1912" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53833,7 +53836,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1913" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53859,7 +53862,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1914" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53885,7 +53888,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G1915" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53911,7 +53914,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1916" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53937,7 +53940,7 @@
         <v>15.5</v>
       </c>
       <c r="G1917" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53963,7 +53966,7 @@
         <v>15.7200002670288</v>
       </c>
       <c r="G1918" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53989,7 +53992,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1919" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -54015,7 +54018,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G1920" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -54041,7 +54044,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1921" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -54067,7 +54070,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="G1922" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54093,7 +54096,7 @@
         <v>15.4200000762939</v>
       </c>
       <c r="G1923" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54119,7 +54122,7 @@
         <v>15.3599996566772</v>
       </c>
       <c r="G1924" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54145,7 +54148,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G1925" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54171,7 +54174,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1926" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54197,7 +54200,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1927" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54223,7 +54226,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1928" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54249,7 +54252,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1929" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54275,7 +54278,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1930" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54301,7 +54304,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1931" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54327,7 +54330,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G1932" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54353,7 +54356,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1933" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54379,7 +54382,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G1934" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54405,7 +54408,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G1935" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54431,7 +54434,7 @@
         <v>16.3199996948242</v>
       </c>
       <c r="G1936" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54457,7 +54460,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G1937" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54483,7 +54486,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1938" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54509,7 +54512,7 @@
         <v>16</v>
       </c>
       <c r="G1939" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54535,7 +54538,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1940" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54561,7 +54564,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="G1941" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54587,7 +54590,7 @@
         <v>15.6999998092651</v>
       </c>
       <c r="G1942" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54613,7 +54616,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G1943" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54639,7 +54642,7 @@
         <v>15</v>
       </c>
       <c r="G1944" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54665,7 +54668,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G1945" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54691,7 +54694,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1946" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54717,7 +54720,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G1947" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54743,7 +54746,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1948" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54769,7 +54772,7 @@
         <v>15.6599998474121</v>
       </c>
       <c r="G1949" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54795,7 +54798,7 @@
         <v>16</v>
       </c>
       <c r="G1950" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54821,7 +54824,7 @@
         <v>16</v>
       </c>
       <c r="G1951" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54847,7 +54850,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1952" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54873,7 +54876,7 @@
         <v>16.0400009155273</v>
       </c>
       <c r="G1953" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54899,7 +54902,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G1954" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54925,7 +54928,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G1955" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54951,7 +54954,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G1956" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54977,7 +54980,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1957" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -55003,7 +55006,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G1958" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -55029,7 +55032,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G1959" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -55055,7 +55058,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1960" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55081,7 +55084,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1961" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55107,7 +55110,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55133,7 +55136,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1963" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55159,7 +55162,7 @@
         <v>14.7200002670288</v>
       </c>
       <c r="G1964" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55185,7 +55188,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1965" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55211,7 +55214,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1966" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55237,7 +55240,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1967" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55263,7 +55266,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1968" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55289,7 +55292,7 @@
         <v>13.9200000762939</v>
       </c>
       <c r="G1969" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55315,7 +55318,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1970" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55341,7 +55344,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1971" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55367,7 +55370,7 @@
         <v>14.1599998474121</v>
       </c>
       <c r="G1972" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55393,7 +55396,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1973" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55419,7 +55422,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1974" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55445,7 +55448,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55471,7 +55474,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1976" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55497,7 +55500,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55523,7 +55526,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1978" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55549,7 +55552,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1979" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55575,7 +55578,7 @@
         <v>13.6599998474121</v>
       </c>
       <c r="G1980" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55601,7 +55604,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1981" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55627,7 +55630,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1982" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55653,7 +55656,7 @@
         <v>13</v>
       </c>
       <c r="G1983" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55679,7 +55682,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1984" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55705,7 +55708,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1985" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55731,7 +55734,7 @@
         <v>12.5</v>
       </c>
       <c r="G1986" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55757,7 +55760,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G1987" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55783,7 +55786,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1988" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55809,7 +55812,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1989" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55835,7 +55838,7 @@
         <v>12.3400001525879</v>
       </c>
       <c r="G1990" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55861,7 +55864,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G1991" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55887,7 +55890,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G1992" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55913,7 +55916,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1993" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55939,7 +55942,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G1994" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55965,7 +55968,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G1995" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55991,7 +55994,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G1996" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56017,7 +56020,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1997" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56043,7 +56046,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G1998" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56069,7 +56072,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1999" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56095,7 +56098,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G2000" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56121,7 +56124,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G2001" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56147,7 +56150,7 @@
         <v>13</v>
       </c>
       <c r="G2002" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56173,7 +56176,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2003" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56199,7 +56202,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2004" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56225,7 +56228,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2005" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56251,7 +56254,7 @@
         <v>12.5</v>
       </c>
       <c r="G2006" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56277,7 +56280,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G2007" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56303,7 +56306,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G2008" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56329,7 +56332,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G2009" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56355,7 +56358,7 @@
         <v>12.5</v>
       </c>
       <c r="G2010" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56381,7 +56384,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G2011" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56407,7 +56410,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G2012" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56433,7 +56436,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2013" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56459,7 +56462,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2014" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56485,7 +56488,7 @@
         <v>13</v>
       </c>
       <c r="G2015" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56511,7 +56514,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G2016" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56537,7 +56540,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G2017" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56563,7 +56566,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G2018" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56589,7 +56592,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G2019" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56615,7 +56618,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G2020" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56641,7 +56644,7 @@
         <v>13.5</v>
       </c>
       <c r="G2021" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56667,7 +56670,7 @@
         <v>13.5</v>
       </c>
       <c r="G2022" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56693,7 +56696,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G2023" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56719,7 +56722,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G2024" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56745,7 +56748,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G2025" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56771,7 +56774,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2026" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56797,7 +56800,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G2027" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56823,7 +56826,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G2028" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56849,7 +56852,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2029" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56875,7 +56878,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G2030" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56901,7 +56904,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2031" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56927,7 +56930,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G2032" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56953,7 +56956,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G2033" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56979,7 +56982,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57005,7 +57008,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G2035" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57031,7 +57034,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G2036" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57057,7 +57060,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G2037" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57083,7 +57086,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G2038" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57109,7 +57112,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G2039" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57135,7 +57138,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G2040" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57161,7 +57164,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G2041" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57187,7 +57190,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2042" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57213,7 +57216,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G2043" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57239,7 +57242,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2044" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57265,7 +57268,7 @@
         <v>13.7399997711182</v>
       </c>
       <c r="G2045" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57291,7 +57294,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G2046" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57317,7 +57320,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G2047" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57343,7 +57346,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G2048" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57369,7 +57372,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G2049" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57395,7 +57398,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G2050" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57421,7 +57424,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G2051" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57447,7 +57450,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G2052" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57473,7 +57476,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G2053" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57499,7 +57502,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G2054" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57525,7 +57528,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G2055" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57551,7 +57554,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G2056" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57577,7 +57580,7 @@
         <v>13.7399997711182</v>
       </c>
       <c r="G2057" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57603,7 +57606,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G2058" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57629,7 +57632,7 @@
         <v>13.5</v>
       </c>
       <c r="G2059" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57655,7 +57658,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G2060" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57681,7 +57684,7 @@
         <v>13.6599998474121</v>
       </c>
       <c r="G2061" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57707,7 +57710,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57733,7 +57736,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G2063" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57759,7 +57762,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G2064" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57785,7 +57788,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G2065" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57811,7 +57814,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57837,7 +57840,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G2067" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57863,7 +57866,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G2068" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57889,7 +57892,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G2069" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57915,7 +57918,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G2070" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57941,7 +57944,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G2071" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57967,7 +57970,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G2072" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57993,7 +57996,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G2073" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58019,7 +58022,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G2074" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58045,7 +58048,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G2075" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58071,7 +58074,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G2076" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58097,7 +58100,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G2077" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58123,7 +58126,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G2078" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58149,7 +58152,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G2079" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58175,7 +58178,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G2080" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58201,7 +58204,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G2081" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58227,7 +58230,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G2082" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58253,7 +58256,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G2083" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58279,7 +58282,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G2084" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58305,7 +58308,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G2085" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58331,7 +58334,7 @@
         <v>13</v>
       </c>
       <c r="G2086" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58357,7 +58360,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58383,7 +58386,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G2088" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58409,7 +58412,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G2089" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58435,7 +58438,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G2090" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58461,7 +58464,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G2091" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58487,7 +58490,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G2092" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58513,7 +58516,7 @@
         <v>13</v>
       </c>
       <c r="G2093" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58539,7 +58542,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G2094" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58565,7 +58568,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G2095" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58591,7 +58594,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G2096" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58617,7 +58620,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G2097" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58643,7 +58646,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G2098" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58669,7 +58672,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G2099" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58695,7 +58698,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2100" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58721,7 +58724,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G2101" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58747,7 +58750,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G2102" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58773,7 +58776,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G2103" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58799,7 +58802,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G2104" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58825,7 +58828,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G2105" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58851,7 +58854,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G2106" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58877,7 +58880,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G2107" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58903,7 +58906,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G2108" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58929,7 +58932,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G2109" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58955,7 +58958,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G2110" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58981,7 +58984,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G2111" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59007,7 +59010,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2112" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59033,7 +59036,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2113" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59059,7 +59062,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2114" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59085,7 +59088,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2115" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59111,7 +59114,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G2116" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59137,7 +59140,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2117" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59163,7 +59166,7 @@
         <v>12.539999961853</v>
       </c>
       <c r="G2118" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59189,7 +59192,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G2119" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59215,7 +59218,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2120" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59241,7 +59244,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2121" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59267,7 +59270,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G2122" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59293,7 +59296,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G2123" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59319,7 +59322,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2124" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59345,7 +59348,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2125" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59371,7 +59374,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G2126" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59397,7 +59400,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2127" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59423,7 +59426,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2128" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59449,7 +59452,7 @@
         <v>12</v>
       </c>
       <c r="G2129" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59475,7 +59478,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2130" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59501,7 +59504,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2131" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59527,7 +59530,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2132" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59553,7 +59556,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2133" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59579,7 +59582,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2134" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59605,7 +59608,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G2135" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59631,7 +59634,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G2136" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59657,7 +59660,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2137" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59683,7 +59686,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2138" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59709,7 +59712,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G2139" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59735,7 +59738,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2140" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59761,7 +59764,7 @@
         <v>12</v>
       </c>
       <c r="G2141" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59787,7 +59790,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G2142" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59813,7 +59816,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2143" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59839,7 +59842,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2144" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59865,7 +59868,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2145" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59891,7 +59894,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2146" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59917,7 +59920,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2147" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59943,7 +59946,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2148" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59969,7 +59972,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G2149" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59995,7 +59998,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2150" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60021,7 +60024,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G2151" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60047,7 +60050,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2152" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60073,7 +60076,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G2153" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60099,7 +60102,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2154" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60125,7 +60128,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2155" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60151,7 +60154,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2156" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60177,7 +60180,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2157" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -60203,7 +60206,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2158" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -60229,7 +60232,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2159" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -60255,7 +60258,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2160" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -60281,7 +60284,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G2161" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -60307,7 +60310,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2162" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -60333,7 +60336,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2163" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -60359,7 +60362,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2164" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -60385,7 +60388,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G2165" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -60411,7 +60414,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2166" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -60437,7 +60440,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2167" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -60463,7 +60466,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2168" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -60471,7 +60474,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6495138889</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>246949</v>
@@ -60489,9 +60492,35 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G2169" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6493865741</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>113471</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>11.6999998092651</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>11.5200004577637</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>11.6599998474121</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>11.5600004196167</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27017688751221</t>
+    <t xml:space="preserve">4.27017641067505</t>
   </si>
   <si>
     <t xml:space="preserve">ZV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25227975845337</t>
+    <t xml:space="preserve">4.25228071212769</t>
   </si>
   <si>
     <t xml:space="preserve">4.16279554367065</t>
@@ -56,82 +56,82 @@
     <t xml:space="preserve">3.9945662021637</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91939878463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96951031684875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95519304275513</t>
+    <t xml:space="preserve">3.91939949989319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96951055526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95519280433655</t>
   </si>
   <si>
     <t xml:space="preserve">4.01604223251343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98382759094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89434480667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87286829948425</t>
+    <t xml:space="preserve">3.98382830619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89434385299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87286806106567</t>
   </si>
   <si>
     <t xml:space="preserve">3.7654869556427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85855007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729615211487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91224122047424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86570882797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90150237083435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9587721824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80128073692322</t>
+    <t xml:space="preserve">3.85855031013489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729686737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91224074363708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86570930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90150260925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95877242088318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80128026008606</t>
   </si>
   <si>
     <t xml:space="preserve">3.79412150382996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78696274757385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69389939308167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65810656547546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7153754234314</t>
+    <t xml:space="preserve">3.78696346282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6939001083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65810632705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71537613868713</t>
   </si>
   <si>
     <t xml:space="preserve">3.57936024665833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60083627700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70821714401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75832843780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76906609535217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81559801101685</t>
+    <t xml:space="preserve">3.60083675384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70821738243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75832796096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76906633377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81559753417969</t>
   </si>
   <si>
     <t xml:space="preserve">3.77980422973633</t>
@@ -140,46 +140,46 @@
     <t xml:space="preserve">3.74759006500244</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72611427307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70105838775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76190781593323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78338408470154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80486011505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74401068687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77264547348022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85139155387878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00172519683838</t>
+    <t xml:space="preserve">3.72611451148987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70105886459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76190733909607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7833833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80485963821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74401021003723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77264595031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85139203071594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00172472000122</t>
   </si>
   <si>
     <t xml:space="preserve">4.05899429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08404970169067</t>
+    <t xml:space="preserve">4.08405017852783</t>
   </si>
   <si>
     <t xml:space="preserve">4.06973218917847</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15205764770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15921688079834</t>
+    <t xml:space="preserve">4.15205812454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15921640396118</t>
   </si>
   <si>
     <t xml:space="preserve">4.13774061203003</t>
@@ -188,43 +188,43 @@
     <t xml:space="preserve">4.12342309951782</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11626386642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14489936828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13058185577393</t>
+    <t xml:space="preserve">4.11626434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14489889144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13058137893677</t>
   </si>
   <si>
     <t xml:space="preserve">4.1950101852417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09836721420288</t>
+    <t xml:space="preserve">4.09836769104004</t>
   </si>
   <si>
     <t xml:space="preserve">4.07689189910889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16637516021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11984300613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16995525360107</t>
+    <t xml:space="preserve">4.16637468338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11984395980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16995429992676</t>
   </si>
   <si>
     <t xml:space="preserve">4.18069267272949</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18785095214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1341609954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19858932495117</t>
+    <t xml:space="preserve">4.18785190582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13416051864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19858884811401</t>
   </si>
   <si>
     <t xml:space="preserve">4.1413197517395</t>
@@ -233,37 +233,37 @@
     <t xml:space="preserve">4.09120893478394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10706949234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09213447570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07719993591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05479669570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08093357086182</t>
+    <t xml:space="preserve">4.10706901550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09213399887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07720041275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05479717254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08093309402466</t>
   </si>
   <si>
     <t xml:space="preserve">4.09586811065674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11453723907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12200403213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11080312728882</t>
+    <t xml:space="preserve">4.11453676223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12200450897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11080265045166</t>
   </si>
   <si>
     <t xml:space="preserve">4.16680908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17800998687744</t>
+    <t xml:space="preserve">4.17800951004028</t>
   </si>
   <si>
     <t xml:space="preserve">4.1854772567749</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">4.25268411636353</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31989049911499</t>
+    <t xml:space="preserve">4.31989002227783</t>
   </si>
   <si>
     <t xml:space="preserve">4.2862868309021</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">4.26761817932129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21908044815063</t>
+    <t xml:space="preserve">4.21908092498779</t>
   </si>
   <si>
     <t xml:space="preserve">4.23401546478271</t>
@@ -296,22 +296,22 @@
     <t xml:space="preserve">4.19667816162109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01746082305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99505829811096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96892261505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96145439147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1257381439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14440679550171</t>
+    <t xml:space="preserve">4.01746034622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9950578212738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96892237663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96145534515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12573766708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14440631866455</t>
   </si>
   <si>
     <t xml:space="preserve">4.17427635192871</t>
@@ -323,22 +323,22 @@
     <t xml:space="preserve">3.97265625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02492761611938</t>
+    <t xml:space="preserve">4.02492809295654</t>
   </si>
   <si>
     <t xml:space="preserve">4.04732990264893</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08840036392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03986310958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02119398117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05853128433228</t>
+    <t xml:space="preserve">4.08840084075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03986263275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02119445800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05853080749512</t>
   </si>
   <si>
     <t xml:space="preserve">4.032395362854</t>
@@ -350,13 +350,13 @@
     <t xml:space="preserve">4.11826992034912</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15934085845947</t>
+    <t xml:space="preserve">4.15934133529663</t>
   </si>
   <si>
     <t xml:space="preserve">4.12947177886963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13693952560425</t>
+    <t xml:space="preserve">4.13693857192993</t>
   </si>
   <si>
     <t xml:space="preserve">4.20414590835571</t>
@@ -365,34 +365,34 @@
     <t xml:space="preserve">4.2265477180481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24895048141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18174266815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06226587295532</t>
+    <t xml:space="preserve">4.24895000457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18174362182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06226491928101</t>
   </si>
   <si>
     <t xml:space="preserve">4.02866172790527</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98385691642761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98012328147888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97638988494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95772123336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9353187084198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98759055137634</t>
+    <t xml:space="preserve">3.98385715484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98012351989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97638964653015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95772099494934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93531894683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9875910282135</t>
   </si>
   <si>
     <t xml:space="preserve">4.002525806427</t>
@@ -401,43 +401,43 @@
     <t xml:space="preserve">4.03612899780273</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93905234336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95025372505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94278693199158</t>
+    <t xml:space="preserve">3.93905282020569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95025420188904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.942786693573</t>
   </si>
   <si>
     <t xml:space="preserve">3.94652056694031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86064529418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84571027755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86811208724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82330822944641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81584119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077573776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81957459449768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85317778587341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95398807525635</t>
+    <t xml:space="preserve">3.86064553260803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84571123123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86811256408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82330799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81584095954895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077549934387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8195743560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85317730903625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95398712158203</t>
   </si>
   <si>
     <t xml:space="preserve">4.14067268371582</t>
@@ -446,40 +446,40 @@
     <t xml:space="preserve">4.21161317825317</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22281360626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09960174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10333585739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00999307632446</t>
+    <t xml:space="preserve">4.22281408309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09960126876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10333633422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00999355316162</t>
   </si>
   <si>
     <t xml:space="preserve">4.0435962677002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00625896453857</t>
+    <t xml:space="preserve">4.00625944137573</t>
   </si>
   <si>
     <t xml:space="preserve">4.06599903106689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92038488388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07346630096436</t>
+    <t xml:space="preserve">3.92038416862488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07346534729004</t>
   </si>
   <si>
     <t xml:space="preserve">4.26015138626099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27135276794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3161563873291</t>
+    <t xml:space="preserve">4.27135229110718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31615686416626</t>
   </si>
   <si>
     <t xml:space="preserve">4.33109188079834</t>
@@ -491,28 +491,28 @@
     <t xml:space="preserve">4.27881956100464</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32362413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34229278564453</t>
+    <t xml:space="preserve">4.32362365722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34229183197021</t>
   </si>
   <si>
     <t xml:space="preserve">4.3086895942688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30495548248291</t>
+    <t xml:space="preserve">4.30495500564575</t>
   </si>
   <si>
     <t xml:space="preserve">4.27508592605591</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29375457763672</t>
+    <t xml:space="preserve">4.29375410079956</t>
   </si>
   <si>
     <t xml:space="preserve">4.33855867385864</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33482503890991</t>
+    <t xml:space="preserve">4.33482551574707</t>
   </si>
   <si>
     <t xml:space="preserve">4.36842823028564</t>
@@ -521,13 +521,13 @@
     <t xml:space="preserve">4.36096096038818</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40576505661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42070055007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39456510543823</t>
+    <t xml:space="preserve">4.40576553344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42069959640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39456462860107</t>
   </si>
   <si>
     <t xml:space="preserve">4.48043918609619</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">4.45430374145508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51777696609497</t>
+    <t xml:space="preserve">4.51777601242065</t>
   </si>
   <si>
     <t xml:space="preserve">4.59245014190674</t>
@@ -545,73 +545,73 @@
     <t xml:space="preserve">4.61485242843628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59991788864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55511331558228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54764556884766</t>
+    <t xml:space="preserve">4.59991693496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55511283874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54764604568481</t>
   </si>
   <si>
     <t xml:space="preserve">4.62978744506836</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76420116424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99569034576416</t>
+    <t xml:space="preserve">4.76420068740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.995689868927</t>
   </si>
   <si>
     <t xml:space="preserve">5.18984174728394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22717952728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48853778839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51840829849243</t>
+    <t xml:space="preserve">5.22717905044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48853826522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51840782165527</t>
   </si>
   <si>
     <t xml:space="preserve">5.52587556838989</t>
   </si>
   <si>
-    <t xml:space="preserve">5.522141456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3802604675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3615927696228</t>
+    <t xml:space="preserve">5.52214193344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38026094436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36159229278564</t>
   </si>
   <si>
     <t xml:space="preserve">5.37279367446899</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40639734268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39519596099854</t>
+    <t xml:space="preserve">5.40639638900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39519548416138</t>
   </si>
   <si>
     <t xml:space="preserve">5.44373416900635</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45120143890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46613597869873</t>
+    <t xml:space="preserve">5.45120096206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46613645553589</t>
   </si>
   <si>
     <t xml:space="preserve">5.48480463027954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43626689910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42133140563965</t>
+    <t xml:space="preserve">5.43626642227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42133235931396</t>
   </si>
   <si>
     <t xml:space="preserve">5.5445442199707</t>
@@ -620,34 +620,34 @@
     <t xml:space="preserve">5.56694602966309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91417932510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82457208633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66028785705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78723382949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6752233505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74989700317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84323883056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92965745925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97209501266479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01067447662354</t>
+    <t xml:space="preserve">5.91418027877808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82457160949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66028833389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78723430633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67522239685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74989748001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84323978424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92965698242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97209453582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01067399978638</t>
   </si>
   <si>
     <t xml:space="preserve">5.94123125076294</t>
@@ -656,34 +656,34 @@
     <t xml:space="preserve">5.93737316131592</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91422557830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72904396057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72518634796143</t>
+    <t xml:space="preserve">5.91422510147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72904491424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72518682479858</t>
   </si>
   <si>
     <t xml:space="preserve">5.86793041229248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87564611434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81006097793579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77148103713989</t>
+    <t xml:space="preserve">5.87564563751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81006145477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77148199081421</t>
   </si>
   <si>
     <t xml:space="preserve">5.8717885017395</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76376533508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67117547988892</t>
+    <t xml:space="preserve">5.76376581192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67117500305176</t>
   </si>
   <si>
     <t xml:space="preserve">5.67889165878296</t>
@@ -692,58 +692,58 @@
     <t xml:space="preserve">5.74061822891235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70975542068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78691291809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75605010986328</t>
+    <t xml:space="preserve">5.7097544670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78691387176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75604915618896</t>
   </si>
   <si>
     <t xml:space="preserve">5.790771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80620336532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8602147102356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91808319091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7174711227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82549285888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86407279968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75990772247314</t>
+    <t xml:space="preserve">5.80620288848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86021375656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91808414459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71747016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82549333572388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8640718460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7599081993103</t>
   </si>
   <si>
     <t xml:space="preserve">5.93351554870605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81777715682983</t>
+    <t xml:space="preserve">5.81777667999268</t>
   </si>
   <si>
     <t xml:space="preserve">5.6480278968811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67503356933594</t>
+    <t xml:space="preserve">5.67503309249878</t>
   </si>
   <si>
     <t xml:space="preserve">5.61330652236938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58630084991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44741487503052</t>
+    <t xml:space="preserve">5.58630037307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44741439819336</t>
   </si>
   <si>
     <t xml:space="preserve">5.41655111312866</t>
@@ -752,46 +752,46 @@
     <t xml:space="preserve">5.57086849212646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62102127075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43198251724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71361303329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69432306289673</t>
+    <t xml:space="preserve">5.62102174758911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43198299407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71361255645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69432258605957</t>
   </si>
   <si>
     <t xml:space="preserve">5.68274879455566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54000520706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77919816970825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7213282585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73290252685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74833393096924</t>
+    <t xml:space="preserve">5.54000568389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77919721603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72132873535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73290205001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7483344078064</t>
   </si>
   <si>
     <t xml:space="preserve">5.79462957382202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65574312210083</t>
+    <t xml:space="preserve">5.65574359893799</t>
   </si>
   <si>
     <t xml:space="preserve">5.79848718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81391954421997</t>
+    <t xml:space="preserve">5.81391906738281</t>
   </si>
   <si>
     <t xml:space="preserve">5.88721990585327</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">5.87950372695923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8332085609436</t>
+    <t xml:space="preserve">5.83320903778076</t>
   </si>
   <si>
     <t xml:space="preserve">5.85249853134155</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">5.97595262527466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90265226364136</t>
+    <t xml:space="preserve">5.90265130996704</t>
   </si>
   <si>
     <t xml:space="preserve">5.89107799530029</t>
@@ -824,28 +824,28 @@
     <t xml:space="preserve">5.84478282928467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92194128036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90651035308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08397531509399</t>
+    <t xml:space="preserve">5.92194175720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90650987625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08397579193115</t>
   </si>
   <si>
     <t xml:space="preserve">6.12255477905273</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26529788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28073072433472</t>
+    <t xml:space="preserve">6.26529836654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28073024749756</t>
   </si>
   <si>
     <t xml:space="preserve">6.33859920501709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27301406860352</t>
+    <t xml:space="preserve">6.27301454544067</t>
   </si>
   <si>
     <t xml:space="preserve">6.32702541351318</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">6.16499185562134</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29616165161133</t>
+    <t xml:space="preserve">6.29616212844849</t>
   </si>
   <si>
     <t xml:space="preserve">6.0955491065979</t>
@@ -869,10 +869,10 @@
     <t xml:space="preserve">6.24600887298584</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16885042190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17270803451538</t>
+    <t xml:space="preserve">6.16884994506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17270755767822</t>
   </si>
   <si>
     <t xml:space="preserve">6.20357179641724</t>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">6.11098051071167</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18428230285645</t>
+    <t xml:space="preserve">6.18428182601929</t>
   </si>
   <si>
     <t xml:space="preserve">6.0261058807373</t>
@@ -890,13 +890,13 @@
     <t xml:space="preserve">6.15727567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19585514068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08011722564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0531120300293</t>
+    <t xml:space="preserve">6.19585466384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08011770248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05311155319214</t>
   </si>
   <si>
     <t xml:space="preserve">6.00681638717651</t>
@@ -905,16 +905,16 @@
     <t xml:space="preserve">5.98752641677856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22286033630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11483812332153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10712289810181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06082773208618</t>
+    <t xml:space="preserve">6.22286081314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11483860015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10712337493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06082725524902</t>
   </si>
   <si>
     <t xml:space="preserve">5.92579889297485</t>
@@ -923,10 +923,10 @@
     <t xml:space="preserve">5.94894695281982</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84863996505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08783292770386</t>
+    <t xml:space="preserve">5.84864044189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08783340454102</t>
   </si>
   <si>
     <t xml:space="preserve">5.94508934020996</t>
@@ -935,82 +935,82 @@
     <t xml:space="preserve">6.00295877456665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0646858215332</t>
+    <t xml:space="preserve">6.06468629837036</t>
   </si>
   <si>
     <t xml:space="preserve">6.09169101715088</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1379861831665</t>
+    <t xml:space="preserve">6.13798666000366</t>
   </si>
   <si>
     <t xml:space="preserve">6.13412809371948</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15341711044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21128702163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14955949783325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23829317092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26144075393677</t>
+    <t xml:space="preserve">6.15341806411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21128749847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14956045150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2382926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26143980026245</t>
   </si>
   <si>
     <t xml:space="preserve">6.25758218765259</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28844594955444</t>
+    <t xml:space="preserve">6.28844547271729</t>
   </si>
   <si>
     <t xml:space="preserve">6.36560487747192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40418529510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35017251968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43504810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58164930343628</t>
+    <t xml:space="preserve">6.40418338775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.350172996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43504762649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58164978027344</t>
   </si>
   <si>
     <t xml:space="preserve">6.53535461425781</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37332057952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38103723526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38875198364258</t>
+    <t xml:space="preserve">6.37332153320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38103675842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38875246047974</t>
   </si>
   <si>
     <t xml:space="preserve">6.60479784011841</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55850267410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48905944824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4736270904541</t>
+    <t xml:space="preserve">6.55850219726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48905801773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47362756729126</t>
   </si>
   <si>
     <t xml:space="preserve">6.12641286849976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04925394058228</t>
+    <t xml:space="preserve">6.04925346374512</t>
   </si>
   <si>
     <t xml:space="preserve">6.30387783050537</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">6.34245681762695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22671890258789</t>
+    <t xml:space="preserve">6.22671937942505</t>
   </si>
   <si>
     <t xml:space="preserve">6.18042373657227</t>
@@ -1028,55 +1028,55 @@
     <t xml:space="preserve">6.31159400939941</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33474206924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46591186523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50449085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45047998428345</t>
+    <t xml:space="preserve">6.33474159240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46591138839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50449132919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45047855377197</t>
   </si>
   <si>
     <t xml:space="preserve">6.31930923461914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23443460464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49677467346191</t>
+    <t xml:space="preserve">6.23443508148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49677562713623</t>
   </si>
   <si>
     <t xml:space="preserve">6.44276428222656</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39646863937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41961574554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42733240127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52763891220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51992225646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59708166122437</t>
+    <t xml:space="preserve">6.39646816253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41961622238159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42733144760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52763843536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51992273330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59708118438721</t>
   </si>
   <si>
     <t xml:space="preserve">6.63566112518311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74785804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67573165893555</t>
+    <t xml:space="preserve">6.74785852432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67573070526123</t>
   </si>
   <si>
     <t xml:space="preserve">6.58757591247559</t>
@@ -1085,19 +1085,19 @@
     <t xml:space="preserve">6.63566064834595</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50743579864502</t>
+    <t xml:space="preserve">6.50743532180786</t>
   </si>
   <si>
     <t xml:space="preserve">6.62764644622803</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61963272094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56353378295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53147745132446</t>
+    <t xml:space="preserve">6.61963319778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56353330612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5314769744873</t>
   </si>
   <si>
     <t xml:space="preserve">6.49942111968994</t>
@@ -1109,16 +1109,16 @@
     <t xml:space="preserve">6.39523792266846</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61161804199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57956171035767</t>
+    <t xml:space="preserve">6.61161851882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57956218719482</t>
   </si>
   <si>
     <t xml:space="preserve">6.60360383987427</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65168905258179</t>
+    <t xml:space="preserve">6.65168809890747</t>
   </si>
   <si>
     <t xml:space="preserve">6.73182916641235</t>
@@ -1136,13 +1136,13 @@
     <t xml:space="preserve">6.35516738891602</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38722372055054</t>
+    <t xml:space="preserve">6.3872241973877</t>
   </si>
   <si>
     <t xml:space="preserve">6.34715366363525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32311105728149</t>
+    <t xml:space="preserve">6.32311201095581</t>
   </si>
   <si>
     <t xml:space="preserve">6.46736526489258</t>
@@ -1151,16 +1151,16 @@
     <t xml:space="preserve">6.48339319229126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45935153961182</t>
+    <t xml:space="preserve">6.45935106277466</t>
   </si>
   <si>
     <t xml:space="preserve">6.43530797958374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29906940460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42729473114014</t>
+    <t xml:space="preserve">6.29906988143921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42729520797729</t>
   </si>
   <si>
     <t xml:space="preserve">6.49140739440918</t>
@@ -1169,13 +1169,13 @@
     <t xml:space="preserve">6.45133686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40325164794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33913946151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29105567932129</t>
+    <t xml:space="preserve">6.40325212478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33913993835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29105520248413</t>
   </si>
   <si>
     <t xml:space="preserve">6.27502727508545</t>
@@ -1184,43 +1184,43 @@
     <t xml:space="preserve">6.4112663269043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25098466873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28304147720337</t>
+    <t xml:space="preserve">6.25098514556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28304100036621</t>
   </si>
   <si>
     <t xml:space="preserve">6.21091413497925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37921047210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36318159103394</t>
+    <t xml:space="preserve">6.37920951843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36318206787109</t>
   </si>
   <si>
     <t xml:space="preserve">6.33112573623657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19488573074341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41928100585938</t>
+    <t xml:space="preserve">6.19488620758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41928052902222</t>
   </si>
   <si>
     <t xml:space="preserve">6.59559011459351</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84402656555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01232290267944</t>
+    <t xml:space="preserve">6.84402751922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01232242584229</t>
   </si>
   <si>
     <t xml:space="preserve">6.82799863815308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9482102394104</t>
+    <t xml:space="preserve">6.94820976257324</t>
   </si>
   <si>
     <t xml:space="preserve">6.9321813583374</t>
@@ -1229,16 +1229,16 @@
     <t xml:space="preserve">6.98026609420776</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92416858673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02835178375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90813827514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85204029083252</t>
+    <t xml:space="preserve">6.9241681098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02835083007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9081392288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85204076766968</t>
   </si>
   <si>
     <t xml:space="preserve">6.98828029632568</t>
@@ -1247,31 +1247,31 @@
     <t xml:space="preserve">7.04437971115112</t>
   </si>
   <si>
-    <t xml:space="preserve">6.972252368927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69977378845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75587272644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77991437911987</t>
+    <t xml:space="preserve">6.97225189208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69977235794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75587224960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77991390228271</t>
   </si>
   <si>
     <t xml:space="preserve">6.78792858123779</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90012454986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96423864364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91615343093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94019603729248</t>
+    <t xml:space="preserve">6.90012550354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96423768997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91615438461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94019556045532</t>
   </si>
   <si>
     <t xml:space="preserve">6.81197071075439</t>
@@ -1283,31 +1283,31 @@
     <t xml:space="preserve">6.5715479850769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77189970016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68374538421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64367389678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06842136383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05239391326904</t>
+    <t xml:space="preserve">6.77190017700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68374490737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64367437362671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06842088699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05239295959473</t>
   </si>
   <si>
     <t xml:space="preserve">7.12452030181885</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13253355026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9962944984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984336853027</t>
+    <t xml:space="preserve">7.13253402709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99629497528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984289169312</t>
   </si>
   <si>
     <t xml:space="preserve">6.72381591796875</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">6.836012840271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8840970993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66771650314331</t>
+    <t xml:space="preserve">6.88409805297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66771697998047</t>
   </si>
   <si>
     <t xml:space="preserve">6.71580171585083</t>
@@ -1328,82 +1328,82 @@
     <t xml:space="preserve">6.5475058555603</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76388597488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10047721862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14054775238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18863201141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17260408401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11650562286377</t>
+    <t xml:space="preserve">6.76388549804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10047674179077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14054727554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18863248825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17260456085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11650514602661</t>
   </si>
   <si>
     <t xml:space="preserve">7.23671627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25274515151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19664478302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22870349884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20465993881226</t>
+    <t xml:space="preserve">7.25274562835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19664573669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22870254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20466136932373</t>
   </si>
   <si>
     <t xml:space="preserve">7.29281616210938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38898468017578</t>
+    <t xml:space="preserve">7.38898515701294</t>
   </si>
   <si>
     <t xml:space="preserve">7.28480100631714</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33288669586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45309686660767</t>
+    <t xml:space="preserve">7.33288621902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45309734344482</t>
   </si>
   <si>
     <t xml:space="preserve">7.50919628143311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55728006362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51721000671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41302728652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48515272140503</t>
+    <t xml:space="preserve">7.55728101730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51720952987671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41302537918091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48515319824219</t>
   </si>
   <si>
     <t xml:space="preserve">7.4450831413269</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49316787719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81373167037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77366065979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75763320922852</t>
+    <t xml:space="preserve">7.49316740036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81373071670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77366018295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75763368606567</t>
   </si>
   <si>
     <t xml:space="preserve">7.52522373199463</t>
@@ -1412,22 +1412,22 @@
     <t xml:space="preserve">7.54125165939331</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53323745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66146326065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63742017745972</t>
+    <t xml:space="preserve">7.53323698043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66146278381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63742113113403</t>
   </si>
   <si>
     <t xml:space="preserve">7.61337852478027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6053638458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57330751419067</t>
+    <t xml:space="preserve">7.60536432266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57330656051636</t>
   </si>
   <si>
     <t xml:space="preserve">7.79770278930664</t>
@@ -1436,34 +1436,34 @@
     <t xml:space="preserve">7.85380172729492</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91791391372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96599721908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97401189804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19039344787598</t>
+    <t xml:space="preserve">7.91791439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96599769592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97401237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19039249420166</t>
   </si>
   <si>
     <t xml:space="preserve">8.23847675323486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07819557189941</t>
+    <t xml:space="preserve">8.0781946182251</t>
   </si>
   <si>
     <t xml:space="preserve">8.12628078460693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00606822967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87784290313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94195604324341</t>
+    <t xml:space="preserve">8.00606918334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87784337997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94195652008057</t>
   </si>
   <si>
     <t xml:space="preserve">8.03011131286621</t>
@@ -1472,28 +1472,28 @@
     <t xml:space="preserve">7.93394184112549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99004220962524</t>
+    <t xml:space="preserve">7.99004077911377</t>
   </si>
   <si>
     <t xml:space="preserve">8.01408290863037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98202610015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90188503265381</t>
+    <t xml:space="preserve">7.98202657699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90188598632812</t>
   </si>
   <si>
     <t xml:space="preserve">7.89387273788452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86982870101929</t>
+    <t xml:space="preserve">7.86982917785645</t>
   </si>
   <si>
     <t xml:space="preserve">8.14230823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35067367553711</t>
+    <t xml:space="preserve">8.35067462921143</t>
   </si>
   <si>
     <t xml:space="preserve">8.33464622497559</t>
@@ -1502,43 +1502,43 @@
     <t xml:space="preserve">8.71932220458984</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10399723052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9757719039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63918018341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89563179016113</t>
+    <t xml:space="preserve">9.1039981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97577285766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63918113708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89563274383545</t>
   </si>
   <si>
     <t xml:space="preserve">8.5783224105835</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54520130157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37959671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49552059173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41271781921387</t>
+    <t xml:space="preserve">8.54520034790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37959575653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49551868438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41271686553955</t>
   </si>
   <si>
     <t xml:space="preserve">8.72736549377441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47895908355713</t>
+    <t xml:space="preserve">8.47895812988281</t>
   </si>
   <si>
     <t xml:space="preserve">8.3133544921875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17259120941162</t>
+    <t xml:space="preserve">8.1725902557373</t>
   </si>
   <si>
     <t xml:space="preserve">8.28023338317871</t>
@@ -1547,25 +1547,25 @@
     <t xml:space="preserve">8.26367282867432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.363037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42927837371826</t>
+    <t xml:space="preserve">8.36303520202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42927742004395</t>
   </si>
   <si>
     <t xml:space="preserve">8.52864074707031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51208019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29679393768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87641143798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94265174865723</t>
+    <t xml:space="preserve">8.5120792388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29679298400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87641048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94265270233154</t>
   </si>
   <si>
     <t xml:space="preserve">9.10825729370117</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">8.77704811096191</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62800216674805</t>
+    <t xml:space="preserve">8.62800407409668</t>
   </si>
   <si>
     <t xml:space="preserve">8.81016826629639</t>
@@ -1583,46 +1583,46 @@
     <t xml:space="preserve">8.67768383026123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74392700195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84328842163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61144256591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456272125244</t>
+    <t xml:space="preserve">8.74392795562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84329032897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61144351959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64456367492676</t>
   </si>
   <si>
     <t xml:space="preserve">8.59488201141357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69424533843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90953159332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44583797454834</t>
+    <t xml:space="preserve">8.69424438476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90953063964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44583892822266</t>
   </si>
   <si>
     <t xml:space="preserve">8.66112422943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19743061065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34647560119629</t>
+    <t xml:space="preserve">8.19743156433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34647464752197</t>
   </si>
   <si>
     <t xml:space="preserve">8.27195262908936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32991504669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25539398193359</t>
+    <t xml:space="preserve">8.32991409301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25539302825928</t>
   </si>
   <si>
     <t xml:space="preserve">8.11462879180908</t>
@@ -1643,40 +1643,40 @@
     <t xml:space="preserve">8.18087100982666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46239948272705</t>
+    <t xml:space="preserve">8.46239852905273</t>
   </si>
   <si>
     <t xml:space="preserve">8.39615726470947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1891508102417</t>
+    <t xml:space="preserve">8.18915176391602</t>
   </si>
   <si>
     <t xml:space="preserve">8.15603065490723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5617618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32354259490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90316009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1515674591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0190830230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3502922058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4993362426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4330940246582</t>
+    <t xml:space="preserve">8.56176090240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32354354858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90315914154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1515655517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.019082069397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3502912521362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4993371963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4330949783325</t>
   </si>
   <si>
     <t xml:space="preserve">10.5655784606934</t>
@@ -1685,25 +1685,25 @@
     <t xml:space="preserve">10.731183052063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.095513343811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9630289077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1451950073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7974243164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7477436065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5158958435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.466215133667</t>
+    <t xml:space="preserve">11.0955123901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9630279541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1451940536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7974233627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7477416992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5158967971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4662160873413</t>
   </si>
   <si>
     <t xml:space="preserve">10.4496545791626</t>
@@ -1718,16 +1718,16 @@
     <t xml:space="preserve">10.3171710968018</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1184453964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5324563980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5986986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0789527893066</t>
+    <t xml:space="preserve">10.118444442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5324573516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5986995697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.078953742981</t>
   </si>
   <si>
     <t xml:space="preserve">10.8305444717407</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">10.6980619430542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9464683532715</t>
+    <t xml:space="preserve">10.9464693069458</t>
   </si>
   <si>
     <t xml:space="preserve">10.8802270889282</t>
@@ -1748,16 +1748,16 @@
     <t xml:space="preserve">10.8967866897583</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0292701721191</t>
+    <t xml:space="preserve">11.0292711257935</t>
   </si>
   <si>
     <t xml:space="preserve">11.2279968261719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.261118888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2114362716675</t>
+    <t xml:space="preserve">11.2611179351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2114372253418</t>
   </si>
   <si>
     <t xml:space="preserve">11.1948757171631</t>
@@ -1772,19 +1772,19 @@
     <t xml:space="preserve">11.3604803085327</t>
   </si>
   <si>
-    <t xml:space="preserve">11.60888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5757656097412</t>
+    <t xml:space="preserve">11.6088876724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5757665634155</t>
   </si>
   <si>
     <t xml:space="preserve">11.7579317092896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6420087814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8738555908203</t>
+    <t xml:space="preserve">11.6420078277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.873854637146</t>
   </si>
   <si>
     <t xml:space="preserve">11.7910528182983</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">11.8076143264771</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7413702011108</t>
+    <t xml:space="preserve">11.7413711547852</t>
   </si>
   <si>
     <t xml:space="preserve">11.7082500457764</t>
@@ -1811,31 +1811,31 @@
     <t xml:space="preserve">10.6318197250366</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6649417877197</t>
+    <t xml:space="preserve">10.6649408340454</t>
   </si>
   <si>
     <t xml:space="preserve">10.2343683242798</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82035541534424</t>
+    <t xml:space="preserve">9.82035732269287</t>
   </si>
   <si>
     <t xml:space="preserve">10.0853242874146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48914813995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02545356750488</t>
+    <t xml:space="preserve">9.4891471862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0254545211792</t>
   </si>
   <si>
     <t xml:space="preserve">7.73373746871948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93246412277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96558523178101</t>
+    <t xml:space="preserve">7.93246364593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96558475494385</t>
   </si>
   <si>
     <t xml:space="preserve">7.91590309143066</t>
@@ -1844,70 +1844,70 @@
     <t xml:space="preserve">9.15793895721436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92609024047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85984992980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0088939666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52226829528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98596286773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62163162231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4394645690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91971874237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38978481292725</t>
+    <t xml:space="preserve">8.92609119415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85984897613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00889492034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5222692489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98596096038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62163066864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43946552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91972064971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38978576660156</t>
   </si>
   <si>
     <t xml:space="preserve">9.37322425842285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63819217681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42290496826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67131328582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40634441375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57195091247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55539035797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73755359649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47258758544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82956504821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64053440093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52024269104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17655086517334</t>
+    <t xml:space="preserve">9.63819122314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42290592193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67131233215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40634536743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57194995880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55538940429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73755550384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4725866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82956409454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64053535461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52024173736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17655181884766</t>
   </si>
   <si>
     <t xml:space="preserve">8.98752117156982</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">9.19373607635498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70927238464355</t>
+    <t xml:space="preserve">9.70927333831787</t>
   </si>
   <si>
     <t xml:space="preserve">9.4343204498291</t>
@@ -1925,19 +1925,19 @@
     <t xml:space="preserve">9.26247310638428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21092128753662</t>
+    <t xml:space="preserve">9.2109203338623</t>
   </si>
   <si>
     <t xml:space="preserve">9.48587322235107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86393356323242</t>
+    <t xml:space="preserve">9.86393260955811</t>
   </si>
   <si>
     <t xml:space="preserve">10.0185947418213</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1560697555542</t>
+    <t xml:space="preserve">10.1560707092285</t>
   </si>
   <si>
     <t xml:space="preserve">10.8434534072876</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">10.8950071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7575311660767</t>
+    <t xml:space="preserve">10.7575302124023</t>
   </si>
   <si>
     <t xml:space="preserve">10.7918996810913</t>
@@ -1958,49 +1958,49 @@
     <t xml:space="preserve">10.8606376647949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8090829849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5169458389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4482088088989</t>
+    <t xml:space="preserve">10.8090839385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5169467926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4482078552246</t>
   </si>
   <si>
     <t xml:space="preserve">10.2419939041138</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7059764862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7747144699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9121904373169</t>
+    <t xml:space="preserve">10.7059755325317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7747135162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9121913909912</t>
   </si>
   <si>
     <t xml:space="preserve">10.826268196106</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1527757644653</t>
+    <t xml:space="preserve">11.152774810791</t>
   </si>
   <si>
     <t xml:space="preserve">11.4620971679688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4964666366577</t>
+    <t xml:space="preserve">11.4964656829834</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4105424880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5480194091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2902517318726</t>
+    <t xml:space="preserve">11.4105434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5480184555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2902507781982</t>
   </si>
   <si>
     <t xml:space="preserve">11.238697052002</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">11.3761739730835</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5995740890503</t>
+    <t xml:space="preserve">11.599573135376</t>
   </si>
   <si>
     <t xml:space="preserve">11.7542343139648</t>
@@ -2027,13 +2027,13 @@
     <t xml:space="preserve">12.2010326385498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0807409286499</t>
+    <t xml:space="preserve">12.0807418823242</t>
   </si>
   <si>
     <t xml:space="preserve">12.0979251861572</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1151103973389</t>
+    <t xml:space="preserve">12.1151094436646</t>
   </si>
   <si>
     <t xml:space="preserve">12.1322946548462</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">11.8401565551758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8573417663574</t>
+    <t xml:space="preserve">11.8573408126831</t>
   </si>
   <si>
     <t xml:space="preserve">11.4792814254761</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">11.1355905532837</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1184053421021</t>
+    <t xml:space="preserve">11.1184062957764</t>
   </si>
   <si>
     <t xml:space="preserve">11.3074350357056</t>
@@ -2078,10 +2078,10 @@
     <t xml:space="preserve">11.101222038269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1871452331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0496683120728</t>
+    <t xml:space="preserve">11.18714427948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0496673583984</t>
   </si>
   <si>
     <t xml:space="preserve">10.9637451171875</t>
@@ -2090,10 +2090,10 @@
     <t xml:space="preserve">11.1699600219727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9981136322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.513650894165</t>
+    <t xml:space="preserve">10.9981145858765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5136499404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.6854972839355</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">11.3933582305908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5823888778687</t>
+    <t xml:space="preserve">11.5823879241943</t>
   </si>
   <si>
     <t xml:space="preserve">11.5652046203613</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9088954925537</t>
+    <t xml:space="preserve">11.9088935852051</t>
   </si>
   <si>
     <t xml:space="preserve">11.8229722976685</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">11.9432640075684</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5513153076172</t>
+    <t xml:space="preserve">10.5513162612915</t>
   </si>
   <si>
     <t xml:space="preserve">10.6544227600098</t>
@@ -2144,34 +2144,34 @@
     <t xml:space="preserve">11.7886037826538</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7370491027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6511268615723</t>
+    <t xml:space="preserve">11.7370500564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6511278152466</t>
   </si>
   <si>
     <t xml:space="preserve">11.5308351516724</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8917112350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.994818687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0463714599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9604482650757</t>
+    <t xml:space="preserve">11.8917102813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9948177337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0463724136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.96044921875</t>
   </si>
   <si>
     <t xml:space="preserve">11.8057870864868</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6339426040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1838474273682</t>
+    <t xml:space="preserve">11.6339416503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1838483810425</t>
   </si>
   <si>
     <t xml:space="preserve">12.4416160583496</t>
@@ -2186,22 +2186,22 @@
     <t xml:space="preserve">12.6993846893311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0087060928345</t>
+    <t xml:space="preserve">13.0087070465088</t>
   </si>
   <si>
     <t xml:space="preserve">13.3008432388306</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8884143829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5447235107422</t>
+    <t xml:space="preserve">12.8884153366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5447244644165</t>
   </si>
   <si>
     <t xml:space="preserve">12.6822004318237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4759855270386</t>
+    <t xml:space="preserve">12.4759845733643</t>
   </si>
   <si>
     <t xml:space="preserve">12.5275392532349</t>
@@ -2210,31 +2210,31 @@
     <t xml:space="preserve">12.2525873184204</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6306467056274</t>
+    <t xml:space="preserve">12.6306457519531</t>
   </si>
   <si>
     <t xml:space="preserve">12.6650152206421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7853078842163</t>
+    <t xml:space="preserve">12.785306930542</t>
   </si>
   <si>
     <t xml:space="preserve">12.8712301254272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8024911880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9743366241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1118135452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2149209976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1633672714233</t>
+    <t xml:space="preserve">12.8024930953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9743375778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1118144989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2149219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1633682250977</t>
   </si>
   <si>
     <t xml:space="preserve">13.197735786438</t>
@@ -2249,19 +2249,19 @@
     <t xml:space="preserve">13.7132730484009</t>
   </si>
   <si>
-    <t xml:space="preserve">13.592981338501</t>
+    <t xml:space="preserve">13.5929803848267</t>
   </si>
   <si>
     <t xml:space="preserve">13.5242433547974</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3523979187012</t>
+    <t xml:space="preserve">13.3523969650269</t>
   </si>
   <si>
     <t xml:space="preserve">13.6101655960083</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9194889068604</t>
+    <t xml:space="preserve">13.919487953186</t>
   </si>
   <si>
     <t xml:space="preserve">14.0225954055786</t>
@@ -2270,10 +2270,10 @@
     <t xml:space="preserve">14.1085176467896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5037622451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6068706512451</t>
+    <t xml:space="preserve">14.5037612915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6068687438965</t>
   </si>
   <si>
     <t xml:space="preserve">14.8474550247192</t>
@@ -2285,19 +2285,19 @@
     <t xml:space="preserve">15.070855140686</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0192995071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6927919387817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3834714889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5896844863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6756076812744</t>
+    <t xml:space="preserve">15.0192985534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6927928924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3834705352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5896854400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6756086349487</t>
   </si>
   <si>
     <t xml:space="preserve">14.4178400039673</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">14.7958984375</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7443447113037</t>
+    <t xml:space="preserve">14.7443475723267</t>
   </si>
   <si>
     <t xml:space="preserve">15.1567764282227</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">15.2942514419556</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3819484710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960832595825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9610061645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9434661865234</t>
+    <t xml:space="preserve">15.381950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960842132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9610052108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9434671401978</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837812423706</t>
@@ -2348,25 +2348,25 @@
     <t xml:space="preserve">15.1890153884888</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9083881378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0487012863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8733081817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0136251449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7856140136719</t>
+    <t xml:space="preserve">14.9083871841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0487022399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.873309135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0136241912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7856130599976</t>
   </si>
   <si>
     <t xml:space="preserve">14.592679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">15.118857383728</t>
+    <t xml:space="preserve">15.1188592910767</t>
   </si>
   <si>
     <t xml:space="preserve">14.8557710647583</t>
@@ -2381,10 +2381,10 @@
     <t xml:space="preserve">14.838231086731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1363983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0311622619629</t>
+    <t xml:space="preserve">15.1363973617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0311613082886</t>
   </si>
   <si>
     <t xml:space="preserve">15.153938293457</t>
@@ -2393,7 +2393,7 @@
     <t xml:space="preserve">14.9785442352295</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7329940795898</t>
+    <t xml:space="preserve">14.7329950332642</t>
   </si>
   <si>
     <t xml:space="preserve">14.8908472061157</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">15.3468685150146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8206911087036</t>
+    <t xml:space="preserve">14.8206901550293</t>
   </si>
   <si>
     <t xml:space="preserve">15.5398015975952</t>
@@ -2423,13 +2423,13 @@
     <t xml:space="preserve">15.6099576950073</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5222616195679</t>
+    <t xml:space="preserve">15.5222635269165</t>
   </si>
   <si>
     <t xml:space="preserve">15.5748805999756</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7853507995605</t>
+    <t xml:space="preserve">15.7853527069092</t>
   </si>
   <si>
     <t xml:space="preserve">15.9607458114624</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">15.7327337265015</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2413730621338</t>
+    <t xml:space="preserve">16.2413749694824</t>
   </si>
   <si>
     <t xml:space="preserve">16.5921573638916</t>
@@ -2471,10 +2471,10 @@
     <t xml:space="preserve">15.9782810211182</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8379697799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6976566314697</t>
+    <t xml:space="preserve">15.8379678726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6976547241211</t>
   </si>
   <si>
     <t xml:space="preserve">15.662576675415</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">15.645037651062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6452989578247</t>
+    <t xml:space="preserve">14.645299911499</t>
   </si>
   <si>
     <t xml:space="preserve">14.4699048995972</t>
@@ -2504,16 +2504,16 @@
     <t xml:space="preserve">14.4874458312988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2591724395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.399486541748</t>
+    <t xml:space="preserve">15.2591743469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3994874954224</t>
   </si>
   <si>
     <t xml:space="preserve">15.3644104003906</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2416343688965</t>
+    <t xml:space="preserve">15.2416334152222</t>
   </si>
   <si>
     <t xml:space="preserve">15.2240953445435</t>
@@ -2528,13 +2528,13 @@
     <t xml:space="preserve">16.0659790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8730487823486</t>
+    <t xml:space="preserve">15.873046875</t>
   </si>
   <si>
     <t xml:space="preserve">15.3117895126343</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6102199554443</t>
+    <t xml:space="preserve">14.61021900177</t>
   </si>
   <si>
     <t xml:space="preserve">14.5576028823853</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">14.3295917510986</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1717376708984</t>
+    <t xml:space="preserve">14.1717386245728</t>
   </si>
   <si>
     <t xml:space="preserve">13.8560314178467</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">14.3646688461304</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3822088241577</t>
+    <t xml:space="preserve">14.382209777832</t>
   </si>
   <si>
     <t xml:space="preserve">13.8735704421997</t>
@@ -2579,13 +2579,13 @@
     <t xml:space="preserve">14.084041595459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2594347000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8209533691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.066502571106</t>
+    <t xml:space="preserve">14.2594337463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8209524154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0665035247803</t>
   </si>
   <si>
     <t xml:space="preserve">13.9437265396118</t>
@@ -2597,10 +2597,10 @@
     <t xml:space="preserve">13.1544589996338</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9966058731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4350872039795</t>
+    <t xml:space="preserve">12.9966049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4350881576538</t>
   </si>
   <si>
     <t xml:space="preserve">13.1369199752808</t>
@@ -2612,10 +2612,10 @@
     <t xml:space="preserve">13.0316848754883</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0492238998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7510557174683</t>
+    <t xml:space="preserve">13.049222946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7510566711426</t>
   </si>
   <si>
     <t xml:space="preserve">12.5230445861816</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">12.330114364624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7685966491699</t>
+    <t xml:space="preserve">12.7685956954956</t>
   </si>
   <si>
     <t xml:space="preserve">12.4879665374756</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">12.2599563598633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3651924133301</t>
+    <t xml:space="preserve">12.3651914596558</t>
   </si>
   <si>
     <t xml:space="preserve">12.4528884887695</t>
@@ -2657,13 +2657,13 @@
     <t xml:space="preserve">10.786657333374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2777557373047</t>
+    <t xml:space="preserve">11.277756690979</t>
   </si>
   <si>
     <t xml:space="preserve">11.2251386642456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8392753601074</t>
+    <t xml:space="preserve">10.8392744064331</t>
   </si>
   <si>
     <t xml:space="preserve">10.7691173553467</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">10.5411071777344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0850849151611</t>
+    <t xml:space="preserve">10.0850858688354</t>
   </si>
   <si>
     <t xml:space="preserve">10.1026258468628</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">9.8921537399292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1727828979492</t>
+    <t xml:space="preserve">10.1727819442749</t>
   </si>
   <si>
     <t xml:space="preserve">9.85707473754883</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">10.0675458908081</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5761871337891</t>
+    <t xml:space="preserve">10.5761861801147</t>
   </si>
   <si>
     <t xml:space="preserve">9.92723178863525</t>
@@ -2699,10 +2699,10 @@
     <t xml:space="preserve">10.9795894622803</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2076005935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8918933868408</t>
+    <t xml:space="preserve">11.2075996398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8918924331665</t>
   </si>
   <si>
     <t xml:space="preserve">11.0848245620728</t>
@@ -2714,22 +2714,22 @@
     <t xml:space="preserve">10.6814212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7164993286133</t>
+    <t xml:space="preserve">10.7165002822876</t>
   </si>
   <si>
     <t xml:space="preserve">10.6288032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4183320999146</t>
+    <t xml:space="preserve">10.4183330535889</t>
   </si>
   <si>
     <t xml:space="preserve">10.4534101486206</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2429399490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1552429199219</t>
+    <t xml:space="preserve">10.2429389953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1552438735962</t>
   </si>
   <si>
     <t xml:space="preserve">9.69922161102295</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">11.0497465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6463422775269</t>
+    <t xml:space="preserve">10.6463432312012</t>
   </si>
   <si>
     <t xml:space="preserve">10.488489151001</t>
@@ -60607,7 +60607,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6496180556</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>67430</v>
@@ -60628,6 +60628,32 @@
         <v>1251</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.6494444444</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>67801</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>11.7399997711182</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>11.5600004196167</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>11.6800003051758</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>11.6999998092651</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="1253">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27017641067505</t>
+    <t xml:space="preserve">4.27017688751221</t>
   </si>
   <si>
     <t xml:space="preserve">ZV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25228071212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16279554367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04467725753784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9945662021637</t>
+    <t xml:space="preserve">4.25227975845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16279602050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04467678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99456572532654</t>
   </si>
   <si>
     <t xml:space="preserve">3.91939949989319</t>
@@ -62,52 +62,52 @@
     <t xml:space="preserve">3.96951055526733</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95519280433655</t>
+    <t xml:space="preserve">3.95519232749939</t>
   </si>
   <si>
     <t xml:space="preserve">4.01604223251343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98382830619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89434385299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87286806106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7654869556427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85855031013489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729686737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91224074363708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86570930480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90150260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95877242088318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80128026008606</t>
+    <t xml:space="preserve">3.98382782936096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89434337615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87286758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76548790931702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85855054855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729591369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91224026679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86570882797241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90150308609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95877194404602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80128002166748</t>
   </si>
   <si>
     <t xml:space="preserve">3.79412150382996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78696346282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6939001083374</t>
+    <t xml:space="preserve">3.78696298599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69389891624451</t>
   </si>
   <si>
     <t xml:space="preserve">3.65810632705688</t>
@@ -116,55 +116,55 @@
     <t xml:space="preserve">3.71537613868713</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57936024665833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60083675384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70821738243103</t>
+    <t xml:space="preserve">3.5793604850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60083603858948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70821619033813</t>
   </si>
   <si>
     <t xml:space="preserve">3.75832796096802</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76906633377075</t>
+    <t xml:space="preserve">3.76906609535217</t>
   </si>
   <si>
     <t xml:space="preserve">3.81559753417969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77980422973633</t>
+    <t xml:space="preserve">3.77980494499207</t>
   </si>
   <si>
     <t xml:space="preserve">3.74759006500244</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72611451148987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70105886459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76190733909607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7833833694458</t>
+    <t xml:space="preserve">3.72611403465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70105838775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76190757751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78338313102722</t>
   </si>
   <si>
     <t xml:space="preserve">3.80485963821411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74401021003723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77264595031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85139203071594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00172472000122</t>
+    <t xml:space="preserve">3.74401044845581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7726457118988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85139155387878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00172424316406</t>
   </si>
   <si>
     <t xml:space="preserve">4.05899429321289</t>
@@ -173,217 +173,220 @@
     <t xml:space="preserve">4.08405017852783</t>
   </si>
   <si>
+    <t xml:space="preserve">4.06973266601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15205812454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15921640396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13774013519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12342262268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11626434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14489936828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13058137893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19500970840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09836721420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07689189910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16637563705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11984395980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1699538230896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18069314956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18785190582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1341609954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19858884811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1413197517395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09120798110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10706949234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09213399887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07719993591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05479764938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08093357086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09586811065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11453676223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12200450897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11080360412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16680812835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17800951004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1854772567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24148225784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25268363952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31989049911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2862868309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26761865615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21908044815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23401498794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20041227340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19667816162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01746082305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9950578212738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96892237663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96145534515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12573719024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14440679550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17427587509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26388502120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97265672683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02492761611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04733037948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08840084075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03986310958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02119445800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05853128433228</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.06973218917847</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15205812454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15921640396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13774061203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12342309951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11626434326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14489889144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13058137893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1950101852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09836769104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07689189910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16637468338013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11984395980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16995429992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18069267272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18785190582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13416051864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19858884811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1413197517395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09120893478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10706901550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09213399887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07720041275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05479717254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08093309402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09586811065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11453676223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12200450897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11080265045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16680908203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17800951004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1854772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24148225784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25268411636353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31989002227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2862868309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26761817932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21908092498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23401546478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20041227340698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19667816162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01746034622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9950578212738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96892237663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96145534515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12573766708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14440631866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17427635192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26388502120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02492809295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04732990264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08840084075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03986263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02119445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05853080749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.032395362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08466672897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11826992034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15934133529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12947177886963</t>
+    <t xml:space="preserve">4.03239583969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08466768264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11827087402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15934085845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12947130203247</t>
   </si>
   <si>
     <t xml:space="preserve">4.13693857192993</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20414590835571</t>
+    <t xml:space="preserve">4.20414543151855</t>
   </si>
   <si>
     <t xml:space="preserve">4.2265477180481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24895000457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18174362182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06226491928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02866172790527</t>
+    <t xml:space="preserve">4.24895048141479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18174314498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06226444244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02866125106812</t>
   </si>
   <si>
     <t xml:space="preserve">3.98385715484619</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98012351989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97638964653015</t>
+    <t xml:space="preserve">3.9801230430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97639012336731</t>
   </si>
   <si>
     <t xml:space="preserve">3.95772099494934</t>
@@ -398,94 +401,94 @@
     <t xml:space="preserve">4.002525806427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03612899780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93905282020569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95025420188904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.942786693573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94652056694031</t>
+    <t xml:space="preserve">4.03612947463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93905329704285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95025396347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94278717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94652009010315</t>
   </si>
   <si>
     <t xml:space="preserve">3.86064553260803</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84571123123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86811256408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82330799102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81584095954895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077549934387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8195743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85317730903625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95398712158203</t>
+    <t xml:space="preserve">3.84571099281311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86811232566833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82330846786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81584072113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077621459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81957411766052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85317778587341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95398807525635</t>
   </si>
   <si>
     <t xml:space="preserve">4.14067268371582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21161317825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22281408309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09960126876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10333633422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00999355316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0435962677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00625944137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06599903106689</t>
+    <t xml:space="preserve">4.21161365509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22281455993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09960174560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10333585739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00999402999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04359674453735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00625991821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06599855422974</t>
   </si>
   <si>
     <t xml:space="preserve">3.92038416862488</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07346534729004</t>
+    <t xml:space="preserve">4.0734658241272</t>
   </si>
   <si>
     <t xml:space="preserve">4.26015138626099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27135229110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31615686416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33109188079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28255367279053</t>
+    <t xml:space="preserve">4.27135181427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3161563873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33109140396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28255319595337</t>
   </si>
   <si>
     <t xml:space="preserve">4.27881956100464</t>
@@ -494,28 +497,28 @@
     <t xml:space="preserve">4.32362365722656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34229183197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3086895942688</t>
+    <t xml:space="preserve">4.34229278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30868911743164</t>
   </si>
   <si>
     <t xml:space="preserve">4.30495500564575</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27508592605591</t>
+    <t xml:space="preserve">4.27508497238159</t>
   </si>
   <si>
     <t xml:space="preserve">4.29375410079956</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33855867385864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33482551574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36842823028564</t>
+    <t xml:space="preserve">4.33855819702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33482503890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3684287071228</t>
   </si>
   <si>
     <t xml:space="preserve">4.36096096038818</t>
@@ -524,10 +527,10 @@
     <t xml:space="preserve">4.40576553344727</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42069959640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39456462860107</t>
+    <t xml:space="preserve">4.42070007324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39456415176392</t>
   </si>
   <si>
     <t xml:space="preserve">4.48043918609619</t>
@@ -539,13 +542,13 @@
     <t xml:space="preserve">4.51777601242065</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59245014190674</t>
+    <t xml:space="preserve">4.5924506187439</t>
   </si>
   <si>
     <t xml:space="preserve">4.61485242843628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59991693496704</t>
+    <t xml:space="preserve">4.59991788864136</t>
   </si>
   <si>
     <t xml:space="preserve">4.55511283874512</t>
@@ -557,16 +560,16 @@
     <t xml:space="preserve">4.62978744506836</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76420068740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.995689868927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18984174728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22717905044556</t>
+    <t xml:space="preserve">4.76420021057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99569034576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18984222412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22717952728271</t>
   </si>
   <si>
     <t xml:space="preserve">5.48853826522827</t>
@@ -575,31 +578,31 @@
     <t xml:space="preserve">5.51840782165527</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52587556838989</t>
+    <t xml:space="preserve">5.52587604522705</t>
   </si>
   <si>
     <t xml:space="preserve">5.52214193344116</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38026094436646</t>
+    <t xml:space="preserve">5.38026142120361</t>
   </si>
   <si>
     <t xml:space="preserve">5.36159229278564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37279367446899</t>
+    <t xml:space="preserve">5.37279319763184</t>
   </si>
   <si>
     <t xml:space="preserve">5.40639638900757</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39519548416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44373416900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45120096206665</t>
+    <t xml:space="preserve">5.39519500732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44373369216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45120143890381</t>
   </si>
   <si>
     <t xml:space="preserve">5.46613645553589</t>
@@ -611,19 +614,19 @@
     <t xml:space="preserve">5.43626642227173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42133235931396</t>
+    <t xml:space="preserve">5.42133140563965</t>
   </si>
   <si>
     <t xml:space="preserve">5.5445442199707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56694602966309</t>
+    <t xml:space="preserve">5.56694555282593</t>
   </si>
   <si>
     <t xml:space="preserve">5.91418027877808</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82457160949707</t>
+    <t xml:space="preserve">5.82457113265991</t>
   </si>
   <si>
     <t xml:space="preserve">5.66028833389282</t>
@@ -632,7 +635,7 @@
     <t xml:space="preserve">5.78723430633545</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67522239685059</t>
+    <t xml:space="preserve">5.67522287368774</t>
   </si>
   <si>
     <t xml:space="preserve">5.74989748001099</t>
@@ -641,7 +644,7 @@
     <t xml:space="preserve">5.84323978424072</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92965698242188</t>
+    <t xml:space="preserve">5.92965745925903</t>
   </si>
   <si>
     <t xml:space="preserve">5.97209453582764</t>
@@ -659,19 +662,19 @@
     <t xml:space="preserve">5.91422510147095</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72904491424561</t>
+    <t xml:space="preserve">5.72904443740845</t>
   </si>
   <si>
     <t xml:space="preserve">5.72518682479858</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86793041229248</t>
+    <t xml:space="preserve">5.86792993545532</t>
   </si>
   <si>
     <t xml:space="preserve">5.87564563751221</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81006145477295</t>
+    <t xml:space="preserve">5.81006193161011</t>
   </si>
   <si>
     <t xml:space="preserve">5.77148199081421</t>
@@ -680,58 +683,58 @@
     <t xml:space="preserve">5.8717885017395</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76376581192017</t>
+    <t xml:space="preserve">5.76376628875732</t>
   </si>
   <si>
     <t xml:space="preserve">5.67117500305176</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67889165878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74061822891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7097544670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78691387176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75604915618896</t>
+    <t xml:space="preserve">5.67889070510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74061870574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70975494384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78691339492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75604963302612</t>
   </si>
   <si>
     <t xml:space="preserve">5.790771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80620288848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86021375656128</t>
+    <t xml:space="preserve">5.80620336532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8602147102356</t>
   </si>
   <si>
     <t xml:space="preserve">5.91808414459229</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71747016906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82549333572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8640718460083</t>
+    <t xml:space="preserve">5.71746969223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82549285888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86407232284546</t>
   </si>
   <si>
     <t xml:space="preserve">5.7599081993103</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93351554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81777667999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6480278968811</t>
+    <t xml:space="preserve">5.9335150718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81777715682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64802742004395</t>
   </si>
   <si>
     <t xml:space="preserve">5.67503309249878</t>
@@ -749,7 +752,7 @@
     <t xml:space="preserve">5.41655111312866</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57086849212646</t>
+    <t xml:space="preserve">5.57086801528931</t>
   </si>
   <si>
     <t xml:space="preserve">5.62102174758911</t>
@@ -761,19 +764,19 @@
     <t xml:space="preserve">5.71361255645752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69432258605957</t>
+    <t xml:space="preserve">5.69432353973389</t>
   </si>
   <si>
     <t xml:space="preserve">5.68274879455566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54000568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77919721603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72132873535156</t>
+    <t xml:space="preserve">5.54000520706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77919769287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72132778167725</t>
   </si>
   <si>
     <t xml:space="preserve">5.73290205001831</t>
@@ -782,7 +785,7 @@
     <t xml:space="preserve">5.7483344078064</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79462957382202</t>
+    <t xml:space="preserve">5.79462909698486</t>
   </si>
   <si>
     <t xml:space="preserve">5.65574359893799</t>
@@ -791,31 +794,31 @@
     <t xml:space="preserve">5.79848718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81391906738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88721990585327</t>
+    <t xml:space="preserve">5.81391954421997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88722038269043</t>
   </si>
   <si>
     <t xml:space="preserve">5.89493608474731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87950372695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83320903778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85249853134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97595262527466</t>
+    <t xml:space="preserve">5.87950420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8332085609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85249900817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97595310211182</t>
   </si>
   <si>
     <t xml:space="preserve">5.90265130996704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89107799530029</t>
+    <t xml:space="preserve">5.89107847213745</t>
   </si>
   <si>
     <t xml:space="preserve">5.82163524627686</t>
@@ -830,43 +833,43 @@
     <t xml:space="preserve">5.90650987625122</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08397579193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12255477905273</t>
+    <t xml:space="preserve">6.08397531509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12255430221558</t>
   </si>
   <si>
     <t xml:space="preserve">6.26529836654663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28073024749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33859920501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27301454544067</t>
+    <t xml:space="preserve">6.28073072433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33859872817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27301502227783</t>
   </si>
   <si>
     <t xml:space="preserve">6.32702541351318</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16113424301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21900320053101</t>
+    <t xml:space="preserve">6.16113376617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21900272369385</t>
   </si>
   <si>
     <t xml:space="preserve">6.16499185562134</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29616212844849</t>
+    <t xml:space="preserve">6.29616165161133</t>
   </si>
   <si>
     <t xml:space="preserve">6.0955491065979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24600887298584</t>
+    <t xml:space="preserve">6.24600839614868</t>
   </si>
   <si>
     <t xml:space="preserve">6.16884994506836</t>
@@ -875,7 +878,7 @@
     <t xml:space="preserve">6.17270755767822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20357179641724</t>
+    <t xml:space="preserve">6.20357131958008</t>
   </si>
   <si>
     <t xml:space="preserve">6.11098051071167</t>
@@ -890,10 +893,10 @@
     <t xml:space="preserve">6.15727567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19585466384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08011770248413</t>
+    <t xml:space="preserve">6.19585514068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08011722564697</t>
   </si>
   <si>
     <t xml:space="preserve">6.05311155319214</t>
@@ -911,13 +914,13 @@
     <t xml:space="preserve">6.11483860015869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10712337493896</t>
+    <t xml:space="preserve">6.10712289810181</t>
   </si>
   <si>
     <t xml:space="preserve">6.06082725524902</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92579889297485</t>
+    <t xml:space="preserve">5.92579984664917</t>
   </si>
   <si>
     <t xml:space="preserve">5.94894695281982</t>
@@ -929,67 +932,67 @@
     <t xml:space="preserve">6.08783340454102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94508934020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00295877456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06468629837036</t>
+    <t xml:space="preserve">5.9450888633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00295829772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06468534469604</t>
   </si>
   <si>
     <t xml:space="preserve">6.09169101715088</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13798666000366</t>
+    <t xml:space="preserve">6.1379861831665</t>
   </si>
   <si>
     <t xml:space="preserve">6.13412809371948</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15341806411743</t>
+    <t xml:space="preserve">6.15341758728027</t>
   </si>
   <si>
     <t xml:space="preserve">6.21128749847412</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14956045150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2382926940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26143980026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25758218765259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28844547271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36560487747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40418338775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.350172996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43504762649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58164978027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53535461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37332153320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38103675842285</t>
+    <t xml:space="preserve">6.14955949783325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23829317092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26144027709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25758171081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28844594955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36560392379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40418386459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35017251968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43504810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58164882659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53535509109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37332057952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38103723526001</t>
   </si>
   <si>
     <t xml:space="preserve">6.38875246047974</t>
@@ -1001,31 +1004,31 @@
     <t xml:space="preserve">6.55850219726562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48905801773071</t>
+    <t xml:space="preserve">6.48905897140503</t>
   </si>
   <si>
     <t xml:space="preserve">6.47362756729126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12641286849976</t>
+    <t xml:space="preserve">6.12641334533691</t>
   </si>
   <si>
     <t xml:space="preserve">6.04925346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30387783050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34245681762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22671937942505</t>
+    <t xml:space="preserve">6.30387830734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34245729446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22671842575073</t>
   </si>
   <si>
     <t xml:space="preserve">6.18042373657227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31159400939941</t>
+    <t xml:space="preserve">6.31159448623657</t>
   </si>
   <si>
     <t xml:space="preserve">6.33474159240723</t>
@@ -1034,34 +1037,34 @@
     <t xml:space="preserve">6.46591138839722</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50449132919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45047855377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31930923461914</t>
+    <t xml:space="preserve">6.50449180603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45047903060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3193097114563</t>
   </si>
   <si>
     <t xml:space="preserve">6.23443508148193</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49677562713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44276428222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39646816253662</t>
+    <t xml:space="preserve">6.49677515029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44276332855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39646863937378</t>
   </si>
   <si>
     <t xml:space="preserve">6.41961622238159</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42733144760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52763843536377</t>
+    <t xml:space="preserve">6.42733192443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52763891220093</t>
   </si>
   <si>
     <t xml:space="preserve">6.51992273330688</t>
@@ -1070,37 +1073,34 @@
     <t xml:space="preserve">6.59708118438721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63566112518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74785852432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67573070526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58757591247559</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.63566064834595</t>
   </si>
   <si>
+    <t xml:space="preserve">6.74785804748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67573118209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58757638931274</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.50743532180786</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62764644622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61963319778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56353330612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5314769744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49942111968994</t>
+    <t xml:space="preserve">6.62764692306519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61963224411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56353425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53147745132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49942064285278</t>
   </si>
   <si>
     <t xml:space="preserve">6.37119579315186</t>
@@ -1109,34 +1109,34 @@
     <t xml:space="preserve">6.39523792266846</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61161851882935</t>
+    <t xml:space="preserve">6.61161756515503</t>
   </si>
   <si>
     <t xml:space="preserve">6.57956218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60360383987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65168809890747</t>
+    <t xml:space="preserve">6.60360431671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65168857574463</t>
   </si>
   <si>
     <t xml:space="preserve">6.73182916641235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53949165344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51544952392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55552005767822</t>
+    <t xml:space="preserve">6.53949117660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51545000076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55552053451538</t>
   </si>
   <si>
     <t xml:space="preserve">6.35516738891602</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3872241973877</t>
+    <t xml:space="preserve">6.38722324371338</t>
   </si>
   <si>
     <t xml:space="preserve">6.34715366363525</t>
@@ -1145,22 +1145,22 @@
     <t xml:space="preserve">6.32311201095581</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46736526489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48339319229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45935106277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43530797958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29906988143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42729520797729</t>
+    <t xml:space="preserve">6.46736431121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48339366912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4593505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4353084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29906892776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42729473114014</t>
   </si>
   <si>
     <t xml:space="preserve">6.49140739440918</t>
@@ -1172,31 +1172,31 @@
     <t xml:space="preserve">6.40325212478638</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33913993835449</t>
+    <t xml:space="preserve">6.33913946151733</t>
   </si>
   <si>
     <t xml:space="preserve">6.29105520248413</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27502727508545</t>
+    <t xml:space="preserve">6.27502632141113</t>
   </si>
   <si>
     <t xml:space="preserve">6.4112663269043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25098514556885</t>
+    <t xml:space="preserve">6.25098466873169</t>
   </si>
   <si>
     <t xml:space="preserve">6.28304100036621</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21091413497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37920951843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36318206787109</t>
+    <t xml:space="preserve">6.21091461181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37921047210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36318254470825</t>
   </si>
   <si>
     <t xml:space="preserve">6.33112573623657</t>
@@ -1208,19 +1208,19 @@
     <t xml:space="preserve">6.41928052902222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59559011459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84402751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01232242584229</t>
+    <t xml:space="preserve">6.59558963775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84402656555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01232290267944</t>
   </si>
   <si>
     <t xml:space="preserve">6.82799863815308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94820976257324</t>
+    <t xml:space="preserve">6.9482102394104</t>
   </si>
   <si>
     <t xml:space="preserve">6.9321813583374</t>
@@ -1232,10 +1232,10 @@
     <t xml:space="preserve">6.9241681098938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02835083007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9081392288208</t>
+    <t xml:space="preserve">7.02835130691528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90813970565796</t>
   </si>
   <si>
     <t xml:space="preserve">6.85204076766968</t>
@@ -1244,31 +1244,31 @@
     <t xml:space="preserve">6.98828029632568</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04437971115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97225189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69977235794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75587224960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77991390228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78792858123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90012550354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96423768997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91615438461304</t>
+    <t xml:space="preserve">7.04437828063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97225141525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69977283477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75587272644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77991437911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78792905807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90012502670288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96423816680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91615390777588</t>
   </si>
   <si>
     <t xml:space="preserve">6.94019556045532</t>
@@ -1286,37 +1286,37 @@
     <t xml:space="preserve">6.77190017700195</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68374490737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64367437362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06842088699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05239295959473</t>
+    <t xml:space="preserve">6.68374538421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64367485046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06842041015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05239248275757</t>
   </si>
   <si>
     <t xml:space="preserve">7.12452030181885</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13253402709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99629497528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984289169312</t>
+    <t xml:space="preserve">7.13253307342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9962944984436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984384536743</t>
   </si>
   <si>
     <t xml:space="preserve">6.72381591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.836012840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88409805297852</t>
+    <t xml:space="preserve">6.83601188659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88409757614136</t>
   </si>
   <si>
     <t xml:space="preserve">6.66771697998047</t>
@@ -1325,46 +1325,46 @@
     <t xml:space="preserve">6.71580171585083</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5475058555603</t>
+    <t xml:space="preserve">6.54750633239746</t>
   </si>
   <si>
     <t xml:space="preserve">6.76388549804688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10047674179077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14054727554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18863248825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17260456085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11650514602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23671627044678</t>
+    <t xml:space="preserve">7.10047721862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14054775238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18863344192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17260360717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11650705337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23671674728394</t>
   </si>
   <si>
     <t xml:space="preserve">7.25274562835693</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19664573669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22870254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20466136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29281616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38898515701294</t>
+    <t xml:space="preserve">7.19664621353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22870397567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20465993881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29281520843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38898420333862</t>
   </si>
   <si>
     <t xml:space="preserve">7.28480100631714</t>
@@ -1373,70 +1373,70 @@
     <t xml:space="preserve">7.33288621902466</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45309734344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50919628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55728101730347</t>
+    <t xml:space="preserve">7.45309782028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50919532775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55728054046631</t>
   </si>
   <si>
     <t xml:space="preserve">7.51720952987671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41302537918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48515319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4450831413269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49316740036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81373071670532</t>
+    <t xml:space="preserve">7.41302680969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48515367507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44508266448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49316787719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81373167037964</t>
   </si>
   <si>
     <t xml:space="preserve">7.77366018295288</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75763368606567</t>
+    <t xml:space="preserve">7.75763177871704</t>
   </si>
   <si>
     <t xml:space="preserve">7.52522373199463</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54125165939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53323698043823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66146278381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63742113113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61337852478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60536432266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57330656051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79770278930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85380172729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91791439056396</t>
+    <t xml:space="preserve">7.54125213623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53323793411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66146326065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63742160797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61337804794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60536479949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57330799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79770231246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85380125045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91791486740112</t>
   </si>
   <si>
     <t xml:space="preserve">7.96599769592285</t>
@@ -1448,10 +1448,10 @@
     <t xml:space="preserve">8.19039249420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23847675323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0781946182251</t>
+    <t xml:space="preserve">8.23847770690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07819557189941</t>
   </si>
   <si>
     <t xml:space="preserve">8.12628078460693</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">7.87784337997437</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94195652008057</t>
+    <t xml:space="preserve">7.94195604324341</t>
   </si>
   <si>
     <t xml:space="preserve">8.03011131286621</t>
@@ -1472,22 +1472,22 @@
     <t xml:space="preserve">7.93394184112549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99004077911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01408290863037</t>
+    <t xml:space="preserve">7.99003982543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01408386230469</t>
   </si>
   <si>
     <t xml:space="preserve">7.98202657699585</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90188598632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89387273788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86982917785645</t>
+    <t xml:space="preserve">7.90188550949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89387178421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86983013153076</t>
   </si>
   <si>
     <t xml:space="preserve">8.14230823516846</t>
@@ -1496,13 +1496,13 @@
     <t xml:space="preserve">8.35067462921143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33464622497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71932220458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1039981842041</t>
+    <t xml:space="preserve">8.33464527130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71932125091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10399723052979</t>
   </si>
   <si>
     <t xml:space="preserve">8.97577285766602</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">8.89563274383545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5783224105835</t>
+    <t xml:space="preserve">8.57832145690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.54520034790039</t>
@@ -1523,103 +1523,103 @@
     <t xml:space="preserve">8.37959575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49551868438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41271686553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72736549377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47895812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3133544921875</t>
+    <t xml:space="preserve">8.49552059173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41271781921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72736644744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47895908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31335353851318</t>
   </si>
   <si>
     <t xml:space="preserve">8.1725902557373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28023338317871</t>
+    <t xml:space="preserve">8.28023433685303</t>
   </si>
   <si>
     <t xml:space="preserve">8.26367282867432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36303520202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42927742004395</t>
+    <t xml:space="preserve">8.36303615570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42927837371826</t>
   </si>
   <si>
     <t xml:space="preserve">8.52864074707031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5120792388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29679298400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87641048431396</t>
+    <t xml:space="preserve">8.51208019256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29679489135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87641143798828</t>
   </si>
   <si>
     <t xml:space="preserve">8.94265270233154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10825729370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77704811096191</t>
+    <t xml:space="preserve">9.10825634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7770471572876</t>
   </si>
   <si>
     <t xml:space="preserve">8.62800407409668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81016826629639</t>
+    <t xml:space="preserve">8.8101692199707</t>
   </si>
   <si>
     <t xml:space="preserve">8.67768383026123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74392795562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84329032897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61144351959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456367492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59488201141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69424438476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90953063964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44583892822266</t>
+    <t xml:space="preserve">8.74392700195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84328937530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61144161224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64456272125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59488296508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69424533843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90953159332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44583702087402</t>
   </si>
   <si>
     <t xml:space="preserve">8.66112422943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19743156433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34647464752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27195262908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32991409301758</t>
+    <t xml:space="preserve">8.19743061065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34647560119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27195358276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32991504669189</t>
   </si>
   <si>
     <t xml:space="preserve">8.25539302825928</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">8.46239852905273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39615726470947</t>
+    <t xml:space="preserve">8.39615631103516</t>
   </si>
   <si>
     <t xml:space="preserve">8.18915176391602</t>
@@ -1655,31 +1655,31 @@
     <t xml:space="preserve">8.15603065490723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56176090240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32354354858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90315914154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1515655517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.019082069397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3502912521362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4993371963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4330949783325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5655784606934</t>
+    <t xml:space="preserve">8.5617618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32354259490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90316009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1515674591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0190830230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3502922058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4993362426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4330940246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.565577507019</t>
   </si>
   <si>
     <t xml:space="preserve">10.731183052063</t>
@@ -1688,25 +1688,25 @@
     <t xml:space="preserve">11.0955123901367</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9630279541016</t>
+    <t xml:space="preserve">10.9630289077759</t>
   </si>
   <si>
     <t xml:space="preserve">11.1451940536499</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7974233627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7477416992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5158967971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4662160873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4496545791626</t>
+    <t xml:space="preserve">10.7974243164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7477426528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5158977508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4662141799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4496555328369</t>
   </si>
   <si>
     <t xml:space="preserve">10.4827756881714</t>
@@ -1715,55 +1715,55 @@
     <t xml:space="preserve">10.284049987793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3171710968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.118444442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5324573516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5986995697021</t>
+    <t xml:space="preserve">10.3171701431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1184453964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5324563980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5986986160278</t>
   </si>
   <si>
     <t xml:space="preserve">11.078953742981</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8305444717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5821380615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6980619430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9464693069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8802270889282</t>
+    <t xml:space="preserve">10.8305463790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5821390151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6980628967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9464683532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8802261352539</t>
   </si>
   <si>
     <t xml:space="preserve">10.8967866897583</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0292711257935</t>
+    <t xml:space="preserve">11.0292701721191</t>
   </si>
   <si>
     <t xml:space="preserve">11.2279968261719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2611179351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2114372253418</t>
+    <t xml:space="preserve">11.2611169815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2114362716675</t>
   </si>
   <si>
     <t xml:space="preserve">11.1948757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">11.178316116333</t>
+    <t xml:space="preserve">11.1783151626587</t>
   </si>
   <si>
     <t xml:space="preserve">11.2445573806763</t>
@@ -1772,10 +1772,10 @@
     <t xml:space="preserve">11.3604803085327</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6088876724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5757665634155</t>
+    <t xml:space="preserve">11.60888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5757656097412</t>
   </si>
   <si>
     <t xml:space="preserve">11.7579317092896</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">11.7248106002808</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8076143264771</t>
+    <t xml:space="preserve">11.8076124191284</t>
   </si>
   <si>
     <t xml:space="preserve">11.7413711547852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7082500457764</t>
+    <t xml:space="preserve">11.7082509994507</t>
   </si>
   <si>
     <t xml:space="preserve">11.5923271179199</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">10.6649408340454</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2343683242798</t>
+    <t xml:space="preserve">10.2343692779541</t>
   </si>
   <si>
     <t xml:space="preserve">9.82035732269287</t>
@@ -1826,16 +1826,16 @@
     <t xml:space="preserve">9.4891471862793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0254545211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73373746871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93246364593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96558475494385</t>
+    <t xml:space="preserve">9.02545356750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73373794555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93246412277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96558427810669</t>
   </si>
   <si>
     <t xml:space="preserve">7.91590309143066</t>
@@ -1844,82 +1844,82 @@
     <t xml:space="preserve">9.15793895721436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92609119415283</t>
+    <t xml:space="preserve">8.92609024047852</t>
   </si>
   <si>
     <t xml:space="preserve">8.85984897613525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00889492034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5222692489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98596096038818</t>
+    <t xml:space="preserve">9.0088939666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52226829528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9859619140625</t>
   </si>
   <si>
     <t xml:space="preserve">9.62163066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43946552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91972064971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38978576660156</t>
+    <t xml:space="preserve">9.43946743011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91971969604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38978385925293</t>
   </si>
   <si>
     <t xml:space="preserve">9.37322425842285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63819122314453</t>
+    <t xml:space="preserve">9.63819217681885</t>
   </si>
   <si>
     <t xml:space="preserve">9.42290592193604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67131233215332</t>
+    <t xml:space="preserve">9.67131328582764</t>
   </si>
   <si>
     <t xml:space="preserve">9.40634536743164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57194995880127</t>
+    <t xml:space="preserve">9.57195091247559</t>
   </si>
   <si>
     <t xml:space="preserve">9.55538940429688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73755550384521</t>
+    <t xml:space="preserve">9.7375545501709</t>
   </si>
   <si>
     <t xml:space="preserve">9.4725866317749</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82956409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64053535461426</t>
+    <t xml:space="preserve">9.82956314086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64053440093994</t>
   </si>
   <si>
     <t xml:space="preserve">9.52024173736572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17655181884766</t>
+    <t xml:space="preserve">9.17655086517334</t>
   </si>
   <si>
     <t xml:space="preserve">8.98752117156982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19373607635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70927333831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4343204498291</t>
+    <t xml:space="preserve">9.19373512268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70927143096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43431854248047</t>
   </si>
   <si>
     <t xml:space="preserve">9.26247310638428</t>
@@ -1934,13 +1934,13 @@
     <t xml:space="preserve">9.86393260955811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0185947418213</t>
+    <t xml:space="preserve">10.018593788147</t>
   </si>
   <si>
     <t xml:space="preserve">10.1560707092285</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8434534072876</t>
+    <t xml:space="preserve">10.8434524536133</t>
   </si>
   <si>
     <t xml:space="preserve">10.6372385025024</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">10.8950071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7575302124023</t>
+    <t xml:space="preserve">10.7575311660767</t>
   </si>
   <si>
     <t xml:space="preserve">10.7918996810913</t>
@@ -1958,13 +1958,13 @@
     <t xml:space="preserve">10.8606376647949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8090839385986</t>
+    <t xml:space="preserve">10.8090829849243</t>
   </si>
   <si>
     <t xml:space="preserve">10.5169467926025</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4482078552246</t>
+    <t xml:space="preserve">10.4482069015503</t>
   </si>
   <si>
     <t xml:space="preserve">10.2419939041138</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">10.7059755325317</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7747135162354</t>
+    <t xml:space="preserve">10.7747144699097</t>
   </si>
   <si>
     <t xml:space="preserve">10.9121913909912</t>
@@ -1985,16 +1985,16 @@
     <t xml:space="preserve">11.152774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4620971679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4964656829834</t>
+    <t xml:space="preserve">11.4620962142944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4964666366577</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4105434417725</t>
+    <t xml:space="preserve">11.4105424880981</t>
   </si>
   <si>
     <t xml:space="preserve">11.5480184555054</t>
@@ -2003,19 +2003,19 @@
     <t xml:space="preserve">11.2902507781982</t>
   </si>
   <si>
-    <t xml:space="preserve">11.238697052002</t>
+    <t xml:space="preserve">11.2386980056763</t>
   </si>
   <si>
     <t xml:space="preserve">11.3761739730835</t>
   </si>
   <si>
-    <t xml:space="preserve">11.599573135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7542343139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7714195251465</t>
+    <t xml:space="preserve">11.5995740890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7542352676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7714185714722</t>
   </si>
   <si>
     <t xml:space="preserve">11.926079750061</t>
@@ -2027,16 +2027,16 @@
     <t xml:space="preserve">12.2010326385498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0807418823242</t>
+    <t xml:space="preserve">12.0807409286499</t>
   </si>
   <si>
     <t xml:space="preserve">12.0979251861572</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1151094436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1322946548462</t>
+    <t xml:space="preserve">12.1151113510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1322937011719</t>
   </si>
   <si>
     <t xml:space="preserve">11.9776334762573</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">11.8401565551758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8573408126831</t>
+    <t xml:space="preserve">11.8573427200317</t>
   </si>
   <si>
     <t xml:space="preserve">11.4792814254761</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">11.1355905532837</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1184062957764</t>
+    <t xml:space="preserve">11.1184053421021</t>
   </si>
   <si>
     <t xml:space="preserve">11.3074350357056</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">11.4277276992798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2043285369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3418035507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2215127944946</t>
+    <t xml:space="preserve">11.204327583313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3418045043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2215137481689</t>
   </si>
   <si>
     <t xml:space="preserve">11.3246202468872</t>
@@ -2081,40 +2081,40 @@
     <t xml:space="preserve">11.18714427948</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0496673583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9637451171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1699600219727</t>
+    <t xml:space="preserve">11.0496664047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9637441635132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1699590682983</t>
   </si>
   <si>
     <t xml:space="preserve">10.9981145858765</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5136499404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6854972839355</t>
+    <t xml:space="preserve">11.513650894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6854963302612</t>
   </si>
   <si>
     <t xml:space="preserve">11.6167583465576</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2730665206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3933582305908</t>
+    <t xml:space="preserve">11.2730674743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3933591842651</t>
   </si>
   <si>
     <t xml:space="preserve">11.5823879241943</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5652046203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9088935852051</t>
+    <t xml:space="preserve">11.565203666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9088945388794</t>
   </si>
   <si>
     <t xml:space="preserve">11.8229722976685</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">11.9432640075684</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5513162612915</t>
+    <t xml:space="preserve">10.5513153076172</t>
   </si>
   <si>
     <t xml:space="preserve">10.6544227600098</t>
@@ -2138,16 +2138,16 @@
     <t xml:space="preserve">11.0324831008911</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3589897155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7886037826538</t>
+    <t xml:space="preserve">11.3589906692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7886028289795</t>
   </si>
   <si>
     <t xml:space="preserve">11.7370500564575</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6511278152466</t>
+    <t xml:space="preserve">11.6511268615723</t>
   </si>
   <si>
     <t xml:space="preserve">11.5308351516724</t>
@@ -2156,19 +2156,19 @@
     <t xml:space="preserve">11.8917102813721</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9948177337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0463724136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.96044921875</t>
+    <t xml:space="preserve">11.994818687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0463714599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9604482650757</t>
   </si>
   <si>
     <t xml:space="preserve">11.8057870864868</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6339416503906</t>
+    <t xml:space="preserve">11.6339426040649</t>
   </si>
   <si>
     <t xml:space="preserve">12.1838483810425</t>
@@ -2189,10 +2189,10 @@
     <t xml:space="preserve">13.0087070465088</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3008432388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8884153366089</t>
+    <t xml:space="preserve">13.3008441925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8884143829346</t>
   </si>
   <si>
     <t xml:space="preserve">12.5447244644165</t>
@@ -2201,28 +2201,28 @@
     <t xml:space="preserve">12.6822004318237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4759845733643</t>
+    <t xml:space="preserve">12.4759855270386</t>
   </si>
   <si>
     <t xml:space="preserve">12.5275392532349</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2525873184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6306457519531</t>
+    <t xml:space="preserve">12.2525863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6306467056274</t>
   </si>
   <si>
     <t xml:space="preserve">12.6650152206421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.785306930542</t>
+    <t xml:space="preserve">12.7853078842163</t>
   </si>
   <si>
     <t xml:space="preserve">12.8712301254272</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8024930953979</t>
+    <t xml:space="preserve">12.8024911880493</t>
   </si>
   <si>
     <t xml:space="preserve">12.9743375778198</t>
@@ -2231,16 +2231,16 @@
     <t xml:space="preserve">13.1118144989014</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2149219512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1633682250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.197735786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6273498535156</t>
+    <t xml:space="preserve">13.2149209976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1633672714233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1977367401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6273508071899</t>
   </si>
   <si>
     <t xml:space="preserve">13.7476425170898</t>
@@ -2255,40 +2255,40 @@
     <t xml:space="preserve">13.5242433547974</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3523969650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6101655960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.919487953186</t>
+    <t xml:space="preserve">13.3523979187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6101665496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9194889068604</t>
   </si>
   <si>
     <t xml:space="preserve">14.0225954055786</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1085176467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5037612915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6068687438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8474550247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0364837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.070855140686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0192985534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6927928924561</t>
+    <t xml:space="preserve">14.1085186004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5037622451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6068706512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8474531173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0364856719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0708541870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0192995071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6927938461304</t>
   </si>
   <si>
     <t xml:space="preserve">14.3834705352783</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">14.5896854400635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6756086349487</t>
+    <t xml:space="preserve">14.6756076812744</t>
   </si>
   <si>
     <t xml:space="preserve">14.4178400039673</t>
@@ -2306,16 +2306,16 @@
     <t xml:space="preserve">14.6240549087524</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5725002288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7958984375</t>
+    <t xml:space="preserve">14.5725011825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7959003448486</t>
   </si>
   <si>
     <t xml:space="preserve">14.7443475723267</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1567764282227</t>
+    <t xml:space="preserve">15.156774520874</t>
   </si>
   <si>
     <t xml:space="preserve">14.9505615234375</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">15.2942514419556</t>
   </si>
   <si>
-    <t xml:space="preserve">15.381950378418</t>
+    <t xml:space="preserve">15.3819494247437</t>
   </si>
   <si>
     <t xml:space="preserve">14.9960842132568</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">14.9610052108765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9434671401978</t>
+    <t xml:space="preserve">14.9434661865234</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837812423706</t>
@@ -2345,31 +2345,31 @@
     <t xml:space="preserve">15.1013193130493</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1890153884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9083871841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0487022399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.873309135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0136241912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7856130599976</t>
+    <t xml:space="preserve">15.1890163421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9083881378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0487012863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8733081817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0136251449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7856140136719</t>
   </si>
   <si>
     <t xml:space="preserve">14.592679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1188592910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8557710647583</t>
+    <t xml:space="preserve">15.1188583374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.855770111084</t>
   </si>
   <si>
     <t xml:space="preserve">14.8031511306763</t>
@@ -2381,10 +2381,10 @@
     <t xml:space="preserve">14.838231086731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1363973617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0311613082886</t>
+    <t xml:space="preserve">15.1363983154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0311622619629</t>
   </si>
   <si>
     <t xml:space="preserve">15.153938293457</t>
@@ -2393,58 +2393,58 @@
     <t xml:space="preserve">14.9785442352295</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7329950332642</t>
+    <t xml:space="preserve">14.7329940795898</t>
   </si>
   <si>
     <t xml:space="preserve">14.8908472061157</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7505340576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1714763641357</t>
+    <t xml:space="preserve">14.7505331039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1714754104614</t>
   </si>
   <si>
     <t xml:space="preserve">15.0662422180176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3293294906616</t>
+    <t xml:space="preserve">15.3293304443359</t>
   </si>
   <si>
     <t xml:space="preserve">15.3468685150146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8206901550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5398015975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6099576950073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5222635269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5748805999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7853527069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9607458114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1887531280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0309028625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327337265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2413749694824</t>
+    <t xml:space="preserve">14.8206911087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5398006439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6099586486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5222625732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5748796463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7853517532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9607448577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1887550354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0309009552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327346801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2413730621338</t>
   </si>
   <si>
     <t xml:space="preserve">16.5921573638916</t>
@@ -2453,13 +2453,13 @@
     <t xml:space="preserve">16.4167652130127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2589111328125</t>
+    <t xml:space="preserve">16.2589130401611</t>
   </si>
   <si>
     <t xml:space="preserve">16.1536769866943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.136137008667</t>
+    <t xml:space="preserve">16.1361351013184</t>
   </si>
   <si>
     <t xml:space="preserve">15.9256658554077</t>
@@ -2468,19 +2468,19 @@
     <t xml:space="preserve">16.0835189819336</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9782810211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8379678726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6976547241211</t>
+    <t xml:space="preserve">15.9782829284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8379688262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6976556777954</t>
   </si>
   <si>
     <t xml:space="preserve">15.662576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6274976730347</t>
+    <t xml:space="preserve">15.6274967193604</t>
   </si>
   <si>
     <t xml:space="preserve">15.9958229064941</t>
@@ -2492,10 +2492,10 @@
     <t xml:space="preserve">15.7151937484741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.645037651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.645299911499</t>
+    <t xml:space="preserve">15.6450386047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6452989578247</t>
   </si>
   <si>
     <t xml:space="preserve">14.4699048995972</t>
@@ -2504,13 +2504,13 @@
     <t xml:space="preserve">14.4874458312988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2591743469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3994874954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3644104003906</t>
+    <t xml:space="preserve">15.2591724395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.399486541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3644094467163</t>
   </si>
   <si>
     <t xml:space="preserve">15.2416334152222</t>
@@ -2522,43 +2522,43 @@
     <t xml:space="preserve">15.2065553665161</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3466091156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0659790039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.873046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3117895126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.61021900177</t>
+    <t xml:space="preserve">16.346607208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0659809112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8730487823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3117904663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6102209091187</t>
   </si>
   <si>
     <t xml:space="preserve">14.5576028823853</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4172878265381</t>
+    <t xml:space="preserve">14.4172887802124</t>
   </si>
   <si>
     <t xml:space="preserve">14.5225229263306</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2945127487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3295917510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1717386245728</t>
+    <t xml:space="preserve">14.2945117950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3295907974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1717376708984</t>
   </si>
   <si>
     <t xml:space="preserve">13.8560314178467</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0314245223999</t>
+    <t xml:space="preserve">14.0314235687256</t>
   </si>
   <si>
     <t xml:space="preserve">14.1191205978394</t>
@@ -2567,10 +2567,10 @@
     <t xml:space="preserve">14.2769746780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3646688461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.382209777832</t>
+    <t xml:space="preserve">14.3646697998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3822088241577</t>
   </si>
   <si>
     <t xml:space="preserve">13.8735704421997</t>
@@ -2579,13 +2579,13 @@
     <t xml:space="preserve">14.084041595459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2594337463379</t>
+    <t xml:space="preserve">14.2594347000122</t>
   </si>
   <si>
     <t xml:space="preserve">13.8209524154663</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0665035247803</t>
+    <t xml:space="preserve">14.066502571106</t>
   </si>
   <si>
     <t xml:space="preserve">13.9437265396118</t>
@@ -2597,10 +2597,10 @@
     <t xml:space="preserve">13.1544589996338</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9966049194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4350881576538</t>
+    <t xml:space="preserve">12.9966058731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4350872039795</t>
   </si>
   <si>
     <t xml:space="preserve">13.1369199752808</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">13.312313079834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0316848754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.049222946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7510566711426</t>
+    <t xml:space="preserve">13.031683921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0492238998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7510557174683</t>
   </si>
   <si>
     <t xml:space="preserve">12.5230445861816</t>
@@ -2630,10 +2630,10 @@
     <t xml:space="preserve">12.4879665374756</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2599563598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3651914596558</t>
+    <t xml:space="preserve">12.259955406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3651924133301</t>
   </si>
   <si>
     <t xml:space="preserve">12.4528884887695</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">11.9617891311646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8039350509644</t>
+    <t xml:space="preserve">11.80393409729</t>
   </si>
   <si>
     <t xml:space="preserve">11.8565530776978</t>
@@ -2654,7 +2654,7 @@
     <t xml:space="preserve">11.4531497955322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.786657333374</t>
+    <t xml:space="preserve">10.7866563796997</t>
   </si>
   <si>
     <t xml:space="preserve">11.277756690979</t>
@@ -2672,22 +2672,22 @@
     <t xml:space="preserve">10.5411071777344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0850858688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1026258468628</t>
+    <t xml:space="preserve">10.0850849151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1026248931885</t>
   </si>
   <si>
     <t xml:space="preserve">9.8921537399292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1727819442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85707473754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0675458908081</t>
+    <t xml:space="preserve">10.1727828979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85707569122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0675468444824</t>
   </si>
   <si>
     <t xml:space="preserve">10.5761861801147</t>
@@ -2708,28 +2708,28 @@
     <t xml:space="preserve">11.0848245620728</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7515783309937</t>
+    <t xml:space="preserve">10.751579284668</t>
   </si>
   <si>
     <t xml:space="preserve">10.6814212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7165002822876</t>
+    <t xml:space="preserve">10.7164993286133</t>
   </si>
   <si>
     <t xml:space="preserve">10.6288032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4183330535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4534101486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2429389953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1552438735962</t>
+    <t xml:space="preserve">10.4183320999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4534111022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2429399490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1552429199219</t>
   </si>
   <si>
     <t xml:space="preserve">9.69922161102295</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">9.90969276428223</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71676063537598</t>
+    <t xml:space="preserve">9.71676158905029</t>
   </si>
   <si>
     <t xml:space="preserve">9.82199573516846</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">9.64660358428955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96230983734131</t>
+    <t xml:space="preserve">9.96231079101562</t>
   </si>
   <si>
     <t xml:space="preserve">10.3306350708008</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">10.2707347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.633659362793</t>
+    <t xml:space="preserve">10.6336584091187</t>
   </si>
   <si>
     <t xml:space="preserve">10.6699514389038</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">10.8332662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.415904045105</t>
+    <t xml:space="preserve">10.4159049987793</t>
   </si>
   <si>
     <t xml:space="preserve">10.6518049240112</t>
@@ -2816,10 +2816,10 @@
     <t xml:space="preserve">11.7950134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6861371994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.813159942627</t>
+    <t xml:space="preserve">11.6861362457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8131608963013</t>
   </si>
   <si>
     <t xml:space="preserve">11.7224292755127</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">11.5954055786133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6135520935059</t>
+    <t xml:space="preserve">11.6135530471802</t>
   </si>
   <si>
     <t xml:space="preserve">10.5973663330078</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">11.0147285461426</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0328741073608</t>
+    <t xml:space="preserve">11.0328750610352</t>
   </si>
   <si>
     <t xml:space="preserve">11.3232126235962</t>
@@ -2900,25 +2900,25 @@
     <t xml:space="preserve">11.2869205474854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0873126983643</t>
+    <t xml:space="preserve">11.0873136520386</t>
   </si>
   <si>
     <t xml:space="preserve">10.6880970001221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3070268630981</t>
+    <t xml:space="preserve">10.3070278167725</t>
   </si>
   <si>
     <t xml:space="preserve">10.1618576049805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90781211853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0529804229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1800050735474</t>
+    <t xml:space="preserve">9.90781116485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0529813766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.180004119873</t>
   </si>
   <si>
     <t xml:space="preserve">10.3614664077759</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">10.4703435897827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4521980285645</t>
+    <t xml:space="preserve">10.4521970748901</t>
   </si>
   <si>
     <t xml:space="preserve">10.0348358154297</t>
@@ -2936,28 +2936,28 @@
     <t xml:space="preserve">9.92595767974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74449634552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85337352752686</t>
+    <t xml:space="preserve">9.7444953918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85337257385254</t>
   </si>
   <si>
     <t xml:space="preserve">9.78078842163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99854278564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59932708740234</t>
+    <t xml:space="preserve">9.99854373931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59932613372803</t>
   </si>
   <si>
     <t xml:space="preserve">10.0892734527588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1074199676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1255664825439</t>
+    <t xml:space="preserve">10.1074190139771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1255655288696</t>
   </si>
   <si>
     <t xml:space="preserve">10.1981506347656</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">10.3796119689941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.923996925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1961898803711</t>
+    <t xml:space="preserve">10.9239978790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1961908340454</t>
   </si>
   <si>
     <t xml:space="preserve">11.4683828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1034994125366</t>
+    <t xml:space="preserve">12.1034984588623</t>
   </si>
   <si>
     <t xml:space="preserve">11.9038906097412</t>
@@ -2993,25 +2993,25 @@
     <t xml:space="preserve">11.4320907592773</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4139442443848</t>
+    <t xml:space="preserve">11.4139432907104</t>
   </si>
   <si>
     <t xml:space="preserve">12.012767791748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0853519439697</t>
+    <t xml:space="preserve">12.085352897644</t>
   </si>
   <si>
     <t xml:space="preserve">12.7567615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1741228103638</t>
+    <t xml:space="preserve">13.1741237640381</t>
   </si>
   <si>
     <t xml:space="preserve">13.2104158401489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9926614761353</t>
+    <t xml:space="preserve">12.9926605224609</t>
   </si>
   <si>
     <t xml:space="preserve">12.7386150360107</t>
@@ -3020,13 +3020,13 @@
     <t xml:space="preserve">12.4119834899902</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3756923675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478843688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6115913391113</t>
+    <t xml:space="preserve">12.3756914138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478834152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6115922927856</t>
   </si>
   <si>
     <t xml:space="preserve">12.684175491333</t>
@@ -3038,22 +3038,22 @@
     <t xml:space="preserve">12.4845685958862</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9200763702393</t>
+    <t xml:space="preserve">12.9200773239136</t>
   </si>
   <si>
     <t xml:space="preserve">13.0652456283569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1378307342529</t>
+    <t xml:space="preserve">13.1378297805786</t>
   </si>
   <si>
     <t xml:space="preserve">13.1015377044678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0108070373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2285614013672</t>
+    <t xml:space="preserve">13.0108079910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2285623550415</t>
   </si>
   <si>
     <t xml:space="preserve">13.1922693252563</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">12.8656387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8474912643433</t>
+    <t xml:space="preserve">12.8474922180176</t>
   </si>
   <si>
     <t xml:space="preserve">12.7930536270142</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">13.645923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8092393875122</t>
+    <t xml:space="preserve">13.8092403411865</t>
   </si>
   <si>
     <t xml:space="preserve">13.8455324172974</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">13.9362621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4443559646606</t>
+    <t xml:space="preserve">14.4443550109863</t>
   </si>
   <si>
     <t xml:space="preserve">14.0995779037476</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">14.3717708587646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3173313140869</t>
+    <t xml:space="preserve">14.3173322677612</t>
   </si>
   <si>
     <t xml:space="preserve">14.3354787826538</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">14.226601600647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.154016494751</t>
+    <t xml:space="preserve">14.1540174484253</t>
   </si>
   <si>
     <t xml:space="preserve">14.2810401916504</t>
@@ -3134,13 +3134,13 @@
     <t xml:space="preserve">14.3899164199829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8798637390137</t>
+    <t xml:space="preserve">14.8798627853394</t>
   </si>
   <si>
     <t xml:space="preserve">14.4625015258789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4806470870972</t>
+    <t xml:space="preserve">14.4806480407715</t>
   </si>
   <si>
     <t xml:space="preserve">14.4987936019897</t>
@@ -3149,16 +3149,16 @@
     <t xml:space="preserve">14.662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4423942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5694189071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.478687286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6420021057129</t>
+    <t xml:space="preserve">15.4423952102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5694179534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4786882400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6420030593872</t>
   </si>
   <si>
     <t xml:space="preserve">15.5149803161621</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">15.8597564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9141969680786</t>
+    <t xml:space="preserve">15.9141960144043</t>
   </si>
   <si>
     <t xml:space="preserve">16.2589721679688</t>
@@ -3185,22 +3185,22 @@
     <t xml:space="preserve">16.1138038635254</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0412197113037</t>
+    <t xml:space="preserve">16.0412178039551</t>
   </si>
   <si>
     <t xml:space="preserve">16.0775108337402</t>
   </si>
   <si>
-    <t xml:space="preserve">15.82346534729</t>
+    <t xml:space="preserve">15.8234643936157</t>
   </si>
   <si>
     <t xml:space="preserve">15.769024848938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.242787361145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2064943313599</t>
+    <t xml:space="preserve">15.2427864074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2064952850342</t>
   </si>
   <si>
     <t xml:space="preserve">15.8053188323975</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">15.9686336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.986780166626</t>
+    <t xml:space="preserve">15.9867811203003</t>
   </si>
   <si>
     <t xml:space="preserve">15.841609954834</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">16.131950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2952632904053</t>
+    <t xml:space="preserve">16.2952651977539</t>
   </si>
   <si>
     <t xml:space="preserve">16.8033580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8396492004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0574035644531</t>
+    <t xml:space="preserve">16.8396511077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0574054718018</t>
   </si>
   <si>
     <t xml:space="preserve">16.7489185333252</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">15.2790794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1157627105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0976161956787</t>
+    <t xml:space="preserve">15.1157646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.097617149353</t>
   </si>
   <si>
     <t xml:space="preserve">15.333517074585</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">15.460542678833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5331258773804</t>
+    <t xml:space="preserve">15.533127784729</t>
   </si>
   <si>
     <t xml:space="preserve">15.406102180481</t>
@@ -3768,6 +3768,9 @@
   </si>
   <si>
     <t xml:space="preserve">11.6800003051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7600002288818</t>
   </si>
 </sst>
 </file>
@@ -7585,7 +7588,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G134" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -7611,7 +7614,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -7637,7 +7640,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G136" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7715,7 +7718,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G139" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -7741,7 +7744,7 @@
         <v>5.57000017166138</v>
       </c>
       <c r="G140" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -7767,7 +7770,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G141" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -7845,7 +7848,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G144" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -7871,7 +7874,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G145" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -7923,7 +7926,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G147" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -7949,7 +7952,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G148" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -7975,7 +7978,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G149" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8001,7 +8004,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G150" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8027,7 +8030,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G151" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8053,7 +8056,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G152" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8105,7 +8108,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G154" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8183,7 +8186,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G157" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8209,7 +8212,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G158" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8313,7 +8316,7 @@
         <v>5.33500003814697</v>
       </c>
       <c r="G162" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8339,7 +8342,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G163" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8365,7 +8368,7 @@
         <v>5.32499980926514</v>
       </c>
       <c r="G164" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8391,7 +8394,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G165" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8417,7 +8420,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G166" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8443,7 +8446,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G167" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8469,7 +8472,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G168" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8495,7 +8498,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G169" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8521,7 +8524,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G170" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -8547,7 +8550,7 @@
         <v>5.26999998092651</v>
       </c>
       <c r="G171" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8573,7 +8576,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G172" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8625,7 +8628,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G174" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8677,7 +8680,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G176" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -8703,7 +8706,7 @@
         <v>5.40500020980835</v>
       </c>
       <c r="G177" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -8729,7 +8732,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G178" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -8755,7 +8758,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G179" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -8781,7 +8784,7 @@
         <v>5.27500009536743</v>
       </c>
       <c r="G180" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -8807,7 +8810,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G181" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -8833,7 +8836,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G182" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -8885,7 +8888,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G184" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -8911,7 +8914,7 @@
         <v>5.28499984741211</v>
       </c>
       <c r="G185" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -8937,7 +8940,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G186" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9015,7 +9018,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G189" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9041,7 +9044,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G190" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9067,7 +9070,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G191" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9093,7 +9096,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G192" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9119,7 +9122,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G193" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9145,7 +9148,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G194" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9171,7 +9174,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G195" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9197,7 +9200,7 @@
         <v>5.13000011444092</v>
       </c>
       <c r="G196" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9223,7 +9226,7 @@
         <v>5.11499977111816</v>
       </c>
       <c r="G197" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9249,7 +9252,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G198" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9275,7 +9278,7 @@
         <v>5.29500007629395</v>
       </c>
       <c r="G199" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9327,7 +9330,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G201" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9457,7 +9460,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G206" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9509,7 +9512,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G208" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9535,7 +9538,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G209" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9561,7 +9564,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G210" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9665,7 +9668,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G214" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9691,7 +9694,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G215" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9717,7 +9720,7 @@
         <v>5.49499988555908</v>
       </c>
       <c r="G216" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -9743,7 +9746,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G217" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -9769,7 +9772,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G218" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -9795,7 +9798,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G219" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -9821,7 +9824,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G220" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -9847,7 +9850,7 @@
         <v>5.41499996185303</v>
       </c>
       <c r="G221" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -9873,7 +9876,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G222" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -9925,7 +9928,7 @@
         <v>5.36499977111816</v>
       </c>
       <c r="G224" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -9977,7 +9980,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G226" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10003,7 +10006,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G227" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10029,7 +10032,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G228" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10055,7 +10058,7 @@
         <v>5.25</v>
       </c>
       <c r="G229" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10107,7 +10110,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G231" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10159,7 +10162,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G233" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10237,7 +10240,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G236" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10263,7 +10266,7 @@
         <v>5.32499980926514</v>
       </c>
       <c r="G237" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10289,7 +10292,7 @@
         <v>5.25</v>
       </c>
       <c r="G238" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10315,7 +10318,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G239" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10367,7 +10370,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G241" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10393,7 +10396,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G242" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10419,7 +10422,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G243" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10549,7 +10552,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G248" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10575,7 +10578,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G249" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -10601,7 +10604,7 @@
         <v>5.45499992370605</v>
       </c>
       <c r="G250" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -10627,7 +10630,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G251" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10705,7 +10708,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G254" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10731,7 +10734,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G255" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -10809,7 +10812,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G258" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -10835,7 +10838,7 @@
         <v>5.70499992370605</v>
       </c>
       <c r="G259" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -10861,7 +10864,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G260" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -10887,7 +10890,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G261" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -10939,7 +10942,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G263" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -10965,7 +10968,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G264" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -10991,7 +10994,7 @@
         <v>5.7350001335144</v>
       </c>
       <c r="G265" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11017,7 +11020,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G266" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11043,7 +11046,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G267" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11069,7 +11072,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G268" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11095,7 +11098,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G269" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11121,7 +11124,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G270" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11147,7 +11150,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G271" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11173,7 +11176,7 @@
         <v>5.7649998664856</v>
       </c>
       <c r="G272" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11199,7 +11202,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G273" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11225,7 +11228,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G274" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11277,7 +11280,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G276" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11407,7 +11410,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G281" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11459,7 +11462,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G283" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11511,7 +11514,7 @@
         <v>5.72499990463257</v>
       </c>
       <c r="G285" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11537,7 +11540,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G286" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11563,7 +11566,7 @@
         <v>5.75</v>
       </c>
       <c r="G287" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11589,7 +11592,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G288" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11615,7 +11618,7 @@
         <v>5.80499982833862</v>
       </c>
       <c r="G289" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11641,7 +11644,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G290" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11667,7 +11670,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G291" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -11693,7 +11696,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G292" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11719,7 +11722,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G293" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -11745,7 +11748,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G294" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -11771,7 +11774,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G295" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -11797,7 +11800,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G296" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -11823,7 +11826,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G297" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -11849,7 +11852,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G298" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -11875,7 +11878,7 @@
         <v>5.88500022888184</v>
       </c>
       <c r="G299" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -11901,7 +11904,7 @@
         <v>6</v>
       </c>
       <c r="G300" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -11927,7 +11930,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G301" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -11953,7 +11956,7 @@
         <v>6</v>
       </c>
       <c r="G302" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -11979,7 +11982,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G303" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12005,7 +12008,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G304" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12031,7 +12034,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G305" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12057,7 +12060,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G306" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12083,7 +12086,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G307" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12109,7 +12112,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G308" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12135,7 +12138,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G309" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12161,7 +12164,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G310" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12187,7 +12190,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G311" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12213,7 +12216,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G312" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12239,7 +12242,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G313" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12265,7 +12268,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G314" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12291,7 +12294,7 @@
         <v>7</v>
       </c>
       <c r="G315" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12317,7 +12320,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G316" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12343,7 +12346,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G317" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12369,7 +12372,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G318" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12395,7 +12398,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G319" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12421,7 +12424,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G320" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12447,7 +12450,7 @@
         <v>7.20499992370605</v>
       </c>
       <c r="G321" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12473,7 +12476,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G322" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12499,7 +12502,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G323" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12525,7 +12528,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G324" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12551,7 +12554,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G325" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12577,7 +12580,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G326" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12603,7 +12606,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G327" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12629,7 +12632,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G328" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12655,7 +12658,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G329" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12681,7 +12684,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G330" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12707,7 +12710,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G331" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -12733,7 +12736,7 @@
         <v>7.34499979019165</v>
       </c>
       <c r="G332" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -12759,7 +12762,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G333" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -12785,7 +12788,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G334" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -12811,7 +12814,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G335" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -12837,7 +12840,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G336" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -12863,7 +12866,7 @@
         <v>7.45499992370605</v>
       </c>
       <c r="G337" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -12889,7 +12892,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G338" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -12915,7 +12918,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G339" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -12941,7 +12944,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G340" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -12967,7 +12970,7 @@
         <v>7.75</v>
       </c>
       <c r="G341" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -12993,7 +12996,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G342" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13019,7 +13022,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G343" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13045,7 +13048,7 @@
         <v>7.82499980926514</v>
       </c>
       <c r="G344" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13071,7 +13074,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G345" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13097,7 +13100,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G346" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13123,7 +13126,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G347" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13149,7 +13152,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G348" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13175,7 +13178,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G349" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13201,7 +13204,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G350" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13227,7 +13230,7 @@
         <v>7.66499996185303</v>
       </c>
       <c r="G351" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13253,7 +13256,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G352" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13279,7 +13282,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G353" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13305,7 +13308,7 @@
         <v>7.60500001907349</v>
       </c>
       <c r="G354" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13331,7 +13334,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G355" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13357,7 +13360,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G356" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13383,7 +13386,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G357" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13409,7 +13412,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G358" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13435,7 +13438,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G359" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13461,7 +13464,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G360" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13487,7 +13490,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G361" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13513,7 +13516,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G362" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13539,7 +13542,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G363" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13565,7 +13568,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G364" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13591,7 +13594,7 @@
         <v>7.5</v>
       </c>
       <c r="G365" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13617,7 +13620,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G366" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13643,7 +13646,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G367" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13669,7 +13672,7 @@
         <v>7.50500011444092</v>
       </c>
       <c r="G368" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13695,7 +13698,7 @@
         <v>7.52500009536743</v>
       </c>
       <c r="G369" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13721,7 +13724,7 @@
         <v>7.59499979019165</v>
       </c>
       <c r="G370" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -13747,7 +13750,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G371" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13773,7 +13776,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G372" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -13799,7 +13802,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G373" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -13825,7 +13828,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G374" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13851,7 +13854,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G375" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -13877,7 +13880,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G376" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -13903,7 +13906,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G377" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13929,7 +13932,7 @@
         <v>7.46500015258789</v>
       </c>
       <c r="G378" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13955,7 +13958,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G379" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13981,7 +13984,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14007,7 +14010,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G381" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14033,7 +14036,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G382" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14059,7 +14062,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G383" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14085,7 +14088,7 @@
         <v>7.35500001907349</v>
       </c>
       <c r="G384" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14111,7 +14114,7 @@
         <v>7.27500009536743</v>
       </c>
       <c r="G385" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14137,7 +14140,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G386" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14163,7 +14166,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G387" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14189,7 +14192,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G388" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14215,7 +14218,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G389" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14241,7 +14244,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G390" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14267,7 +14270,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G391" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14293,7 +14296,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G392" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14319,7 +14322,7 @@
         <v>7.40500020980835</v>
       </c>
       <c r="G393" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14345,7 +14348,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G394" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14371,7 +14374,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G395" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14397,7 +14400,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G396" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14423,7 +14426,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G397" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14449,7 +14452,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G398" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14475,7 +14478,7 @@
         <v>7.41499996185303</v>
       </c>
       <c r="G399" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14501,7 +14504,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G400" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14527,7 +14530,7 @@
         <v>7.41499996185303</v>
       </c>
       <c r="G401" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14553,7 +14556,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G402" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14579,7 +14582,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G403" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14605,7 +14608,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G404" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14631,7 +14634,7 @@
         <v>7.5149998664856</v>
       </c>
       <c r="G405" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14657,7 +14660,7 @@
         <v>7.46500015258789</v>
       </c>
       <c r="G406" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14683,7 +14686,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G407" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14709,7 +14712,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G408" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14735,7 +14738,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G409" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14761,7 +14764,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G410" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14787,7 +14790,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G411" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14813,7 +14816,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G412" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -14839,7 +14842,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G413" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14865,7 +14868,7 @@
         <v>7.41499996185303</v>
       </c>
       <c r="G414" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14891,7 +14894,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G415" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14917,7 +14920,7 @@
         <v>7.58500003814697</v>
       </c>
       <c r="G416" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14943,7 +14946,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G417" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14969,7 +14972,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G418" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14995,7 +14998,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G419" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15021,7 +15024,7 @@
         <v>7.74499988555908</v>
       </c>
       <c r="G420" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15047,7 +15050,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G421" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15073,7 +15076,7 @@
         <v>7.63500022888184</v>
       </c>
       <c r="G422" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15099,7 +15102,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G423" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15125,7 +15128,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G424" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15151,7 +15154,7 @@
         <v>7.54500007629395</v>
       </c>
       <c r="G425" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15177,7 +15180,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G426" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15203,7 +15206,7 @@
         <v>7.63500022888184</v>
       </c>
       <c r="G427" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15229,7 +15232,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G428" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15255,7 +15258,7 @@
         <v>7.57499980926514</v>
       </c>
       <c r="G429" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15281,7 +15284,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G430" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15307,7 +15310,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G431" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15333,7 +15336,7 @@
         <v>7.67500019073486</v>
       </c>
       <c r="G432" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15359,7 +15362,7 @@
         <v>7.52500009536743</v>
       </c>
       <c r="G433" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15385,7 +15388,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G434" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15411,7 +15414,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G435" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15437,7 +15440,7 @@
         <v>7.65500020980835</v>
       </c>
       <c r="G436" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15463,7 +15466,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G437" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15489,7 +15492,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G438" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15515,7 +15518,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G439" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15541,7 +15544,7 @@
         <v>7.88500022888184</v>
       </c>
       <c r="G440" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15567,7 +15570,7 @@
         <v>7.93499994277954</v>
       </c>
       <c r="G441" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15593,7 +15596,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G442" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15619,7 +15622,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G443" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15645,7 +15648,7 @@
         <v>8.21500015258789</v>
       </c>
       <c r="G444" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15671,7 +15674,7 @@
         <v>8.21500015258789</v>
       </c>
       <c r="G445" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15697,7 +15700,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G446" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15723,7 +15726,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G447" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15749,7 +15752,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G448" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15775,7 +15778,7 @@
         <v>7.9850001335144</v>
       </c>
       <c r="G449" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15801,7 +15804,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G450" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15827,7 +15830,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G451" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15853,7 +15856,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G452" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15879,7 +15882,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G453" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15905,7 +15908,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G454" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15931,7 +15934,7 @@
         <v>8.09500026702881</v>
       </c>
       <c r="G455" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15957,7 +15960,7 @@
         <v>7.99499988555908</v>
       </c>
       <c r="G456" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15983,7 +15986,7 @@
         <v>8</v>
       </c>
       <c r="G457" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16009,7 +16012,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G458" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16035,7 +16038,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G459" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16061,7 +16064,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G460" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16087,7 +16090,7 @@
         <v>8.01500034332275</v>
       </c>
       <c r="G461" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16113,7 +16116,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G462" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16139,7 +16142,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G463" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16165,7 +16168,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G464" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16191,7 +16194,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G465" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16217,7 +16220,7 @@
         <v>7.84499979019165</v>
       </c>
       <c r="G466" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16243,7 +16246,7 @@
         <v>7.78499984741211</v>
       </c>
       <c r="G467" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16269,7 +16272,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G468" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16295,7 +16298,7 @@
         <v>7.88500022888184</v>
       </c>
       <c r="G469" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16321,7 +16324,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G470" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16347,7 +16350,7 @@
         <v>8.0649995803833</v>
       </c>
       <c r="G471" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16373,7 +16376,7 @@
         <v>7.92500019073486</v>
       </c>
       <c r="G472" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16399,7 +16402,7 @@
         <v>8</v>
       </c>
       <c r="G473" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16425,7 +16428,7 @@
         <v>7.91499996185303</v>
       </c>
       <c r="G474" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16451,7 +16454,7 @@
         <v>7.85500001907349</v>
       </c>
       <c r="G475" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16477,7 +16480,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G476" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16503,7 +16506,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G477" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16529,7 +16532,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G478" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16555,7 +16558,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G479" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16581,7 +16584,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G480" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16607,7 +16610,7 @@
         <v>7.70499992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16633,7 +16636,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G482" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16659,7 +16662,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G483" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16685,7 +16688,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G484" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16711,7 +16714,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G485" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16737,7 +16740,7 @@
         <v>7.89499998092651</v>
       </c>
       <c r="G486" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16763,7 +16766,7 @@
         <v>7.95499992370605</v>
       </c>
       <c r="G487" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16789,7 +16792,7 @@
         <v>8</v>
       </c>
       <c r="G488" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16815,7 +16818,7 @@
         <v>7.9850001335144</v>
       </c>
       <c r="G489" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16841,7 +16844,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G490" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16867,7 +16870,7 @@
         <v>7.95499992370605</v>
       </c>
       <c r="G491" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16893,7 +16896,7 @@
         <v>7.97499990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16919,7 +16922,7 @@
         <v>7.92500019073486</v>
       </c>
       <c r="G493" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16945,7 +16948,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G494" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16971,7 +16974,7 @@
         <v>8</v>
       </c>
       <c r="G495" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16997,7 +17000,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G496" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17023,7 +17026,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G497" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17049,7 +17052,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G498" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17075,7 +17078,7 @@
         <v>8.08500003814697</v>
       </c>
       <c r="G499" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17101,7 +17104,7 @@
         <v>8.11499977111816</v>
       </c>
       <c r="G500" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17127,7 +17130,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G501" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17153,7 +17156,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G502" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17179,7 +17182,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G503" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17205,7 +17208,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G504" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17231,7 +17234,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G505" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17257,7 +17260,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G506" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17283,7 +17286,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G507" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17309,7 +17312,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G508" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17335,7 +17338,7 @@
         <v>8.25</v>
       </c>
       <c r="G509" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17361,7 +17364,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G510" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17387,7 +17390,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G511" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17413,7 +17416,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G512" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17439,7 +17442,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G513" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17465,7 +17468,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G514" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17491,7 +17494,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G515" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17517,7 +17520,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G516" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17543,7 +17546,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G517" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17569,7 +17572,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G518" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17595,7 +17598,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G519" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17621,7 +17624,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G520" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17647,7 +17650,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G521" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17673,7 +17676,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G522" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17699,7 +17702,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G523" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17725,7 +17728,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G524" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17751,7 +17754,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G525" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17777,7 +17780,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G526" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17803,7 +17806,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G527" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17829,7 +17832,7 @@
         <v>8.5</v>
       </c>
       <c r="G528" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -17855,7 +17858,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G529" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17881,7 +17884,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G530" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17907,7 +17910,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G531" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17933,7 +17936,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G532" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17959,7 +17962,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G533" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17985,7 +17988,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G534" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18011,7 +18014,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G535" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18037,7 +18040,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G536" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18063,7 +18066,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G537" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18089,7 +18092,7 @@
         <v>8</v>
       </c>
       <c r="G538" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18115,7 +18118,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G539" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18141,7 +18144,7 @@
         <v>8</v>
       </c>
       <c r="G540" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18167,7 +18170,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G541" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18193,7 +18196,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G542" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18219,7 +18222,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G543" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18245,7 +18248,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G544" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18271,7 +18274,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G545" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18297,7 +18300,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G546" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18323,7 +18326,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G547" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18349,7 +18352,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G548" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18375,7 +18378,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G549" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18401,7 +18404,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G550" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18427,7 +18430,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G551" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18453,7 +18456,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G552" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18479,7 +18482,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G553" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18505,7 +18508,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G554" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18531,7 +18534,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G555" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18557,7 +18560,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G556" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18583,7 +18586,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G557" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18609,7 +18612,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G558" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18635,7 +18638,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G559" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18661,7 +18664,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G560" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18687,7 +18690,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G561" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18713,7 +18716,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G562" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18739,7 +18742,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G563" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18765,7 +18768,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G564" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18791,7 +18794,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G565" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18817,7 +18820,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G566" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18843,7 +18846,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G567" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18869,7 +18872,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G568" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18895,7 +18898,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G569" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18921,7 +18924,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G570" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18947,7 +18950,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G571" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18973,7 +18976,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18999,7 +19002,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G573" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19025,7 +19028,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G574" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19051,7 +19054,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G575" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19077,7 +19080,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G576" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19103,7 +19106,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G577" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19129,7 +19132,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G578" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19155,7 +19158,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G579" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19181,7 +19184,7 @@
         <v>8.25</v>
       </c>
       <c r="G580" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19207,7 +19210,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G581" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19233,7 +19236,7 @@
         <v>8.25</v>
       </c>
       <c r="G582" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19259,7 +19262,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G583" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19285,7 +19288,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G584" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19311,7 +19314,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G585" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19337,7 +19340,7 @@
         <v>8.25</v>
       </c>
       <c r="G586" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19363,7 +19366,7 @@
         <v>8.25</v>
       </c>
       <c r="G587" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19389,7 +19392,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G588" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19415,7 +19418,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G589" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19441,7 +19444,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G590" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19467,7 +19470,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G591" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19493,7 +19496,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G592" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19519,7 +19522,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G593" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19545,7 +19548,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19571,7 +19574,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G595" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19597,7 +19600,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19623,7 +19626,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G597" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19649,7 +19652,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G598" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19675,7 +19678,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G599" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19701,7 +19704,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G600" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19727,7 +19730,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G601" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19753,7 +19756,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G602" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19779,7 +19782,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G603" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19805,7 +19808,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G604" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19831,7 +19834,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G605" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19857,7 +19860,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G606" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20299,7 +20302,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20351,7 +20354,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G625" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20403,7 +20406,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G627" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -22899,7 +22902,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G723" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23419,7 +23422,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G743" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23887,7 +23890,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G761" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -60633,7 +60636,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.6494444444</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>67801</v>
@@ -60654,6 +60657,32 @@
         <v>1235</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.649525463</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>42316</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>11.8000001907349</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>11.6400003433228</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>11.6999998092651</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>11.7600002288818</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -44,31 +44,31 @@
     <t xml:space="preserve">ZV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25227975845337</t>
+    <t xml:space="preserve">4.25228023529053</t>
   </si>
   <si>
     <t xml:space="preserve">4.16279602050781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04467678070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99456572532654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91939949989319</t>
+    <t xml:space="preserve">4.04467725753784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99456596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91939926147461</t>
   </si>
   <si>
     <t xml:space="preserve">3.96951055526733</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95519232749939</t>
+    <t xml:space="preserve">3.95519256591797</t>
   </si>
   <si>
     <t xml:space="preserve">4.01604223251343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98382782936096</t>
+    <t xml:space="preserve">3.9838273525238</t>
   </si>
   <si>
     <t xml:space="preserve">3.89434337615967</t>
@@ -77,70 +77,70 @@
     <t xml:space="preserve">3.87286758422852</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76548790931702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85855054855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729591369629</t>
+    <t xml:space="preserve">3.76548719406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85855078697205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729615211487</t>
   </si>
   <si>
     <t xml:space="preserve">3.91224026679993</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86570882797241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90150308609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95877194404602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80128002166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79412150382996</t>
+    <t xml:space="preserve">3.86570858955383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90150237083435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95877242088318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8012797832489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79412245750427</t>
   </si>
   <si>
     <t xml:space="preserve">3.78696298599243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69389891624451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65810632705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71537613868713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5793604850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60083603858948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70821619033813</t>
+    <t xml:space="preserve">3.69389986991882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65810656547546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71537566184998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57936000823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60083699226379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70821762084961</t>
   </si>
   <si>
     <t xml:space="preserve">3.75832796096802</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76906609535217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81559753417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77980494499207</t>
+    <t xml:space="preserve">3.76906633377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81559729576111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77980422973633</t>
   </si>
   <si>
     <t xml:space="preserve">3.74759006500244</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72611403465271</t>
+    <t xml:space="preserve">3.72611379623413</t>
   </si>
   <si>
     <t xml:space="preserve">3.70105838775635</t>
@@ -149,28 +149,28 @@
     <t xml:space="preserve">3.76190757751465</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78338313102722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80485963821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74401044845581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7726457118988</t>
+    <t xml:space="preserve">3.78338384628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80486059188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74401068687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77264595031738</t>
   </si>
   <si>
     <t xml:space="preserve">3.85139155387878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00172424316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05899429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08405017852783</t>
+    <t xml:space="preserve">4.00172472000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05899524688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08404970169067</t>
   </si>
   <si>
     <t xml:space="preserve">4.06973266601562</t>
@@ -179,16 +179,16 @@
     <t xml:space="preserve">4.15205812454224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15921640396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13774013519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12342262268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11626434326172</t>
+    <t xml:space="preserve">4.15921592712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13774108886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12342357635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11626386642456</t>
   </si>
   <si>
     <t xml:space="preserve">4.14489936828613</t>
@@ -197,31 +197,31 @@
     <t xml:space="preserve">4.13058137893677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19500970840454</t>
+    <t xml:space="preserve">4.1950101852417</t>
   </si>
   <si>
     <t xml:space="preserve">4.09836721420288</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07689189910889</t>
+    <t xml:space="preserve">4.07689142227173</t>
   </si>
   <si>
     <t xml:space="preserve">4.16637563705444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11984395980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1699538230896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18069314956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18785190582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1341609954834</t>
+    <t xml:space="preserve">4.11984348297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16995477676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18069267272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18785095214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13416004180908</t>
   </si>
   <si>
     <t xml:space="preserve">4.19858884811401</t>
@@ -230,13 +230,13 @@
     <t xml:space="preserve">4.1413197517395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09120798110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10706949234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09213399887085</t>
+    <t xml:space="preserve">4.09120845794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10706901550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09213495254517</t>
   </si>
   <si>
     <t xml:space="preserve">4.07719993591309</t>
@@ -245,88 +245,88 @@
     <t xml:space="preserve">4.05479764938354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08093357086182</t>
+    <t xml:space="preserve">4.08093404769897</t>
   </si>
   <si>
     <t xml:space="preserve">4.09586811065674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11453676223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12200450897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11080360412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16680812835693</t>
+    <t xml:space="preserve">4.11453771591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12200403213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11080265045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16680860519409</t>
   </si>
   <si>
     <t xml:space="preserve">4.17800951004028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1854772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24148225784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25268363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31989049911499</t>
+    <t xml:space="preserve">4.18547677993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24148273468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25268411636353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31989002227783</t>
   </si>
   <si>
     <t xml:space="preserve">4.2862868309021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26761865615845</t>
+    <t xml:space="preserve">4.26761817932129</t>
   </si>
   <si>
     <t xml:space="preserve">4.21908044815063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23401498794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20041227340698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19667816162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01746082305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9950578212738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96892237663269</t>
+    <t xml:space="preserve">4.23401546478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20041131973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19667768478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01746034622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99505829811096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96892309188843</t>
   </si>
   <si>
     <t xml:space="preserve">3.96145534515381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12573719024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14440679550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17427587509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26388502120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97265672683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02492761611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04733037948608</t>
+    <t xml:space="preserve">4.1257381439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14440631866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17427635192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26388454437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02492809295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04733085632324</t>
   </si>
   <si>
     <t xml:space="preserve">4.08840084075928</t>
@@ -338,139 +338,136 @@
     <t xml:space="preserve">4.02119445800781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05853128433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06973218917847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03239583969116</t>
+    <t xml:space="preserve">4.05853080749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.032395362854</t>
   </si>
   <si>
     <t xml:space="preserve">4.08466768264771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11827087402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15934085845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12947130203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13693857192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20414543151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2265477180481</t>
+    <t xml:space="preserve">4.11827039718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15934181213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12947225570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13693904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20414590835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22654819488525</t>
   </si>
   <si>
     <t xml:space="preserve">4.24895048141479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18174314498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06226444244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02866125106812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98385715484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9801230430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97639012336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95772099494934</t>
+    <t xml:space="preserve">4.18174266815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06226491928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02866172790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98385739326477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98012328147888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97638964653015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95772218704224</t>
   </si>
   <si>
     <t xml:space="preserve">3.93531894683838</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9875910282135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.002525806427</t>
+    <t xml:space="preserve">3.98759055137634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00252532958984</t>
   </si>
   <si>
     <t xml:space="preserve">4.03612947463989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93905329704285</t>
+    <t xml:space="preserve">3.93905258178711</t>
   </si>
   <si>
     <t xml:space="preserve">3.95025396347046</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94278717041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94652009010315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86064553260803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84571099281311</t>
+    <t xml:space="preserve">3.94278621673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94652080535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86064481735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84571051597595</t>
   </si>
   <si>
     <t xml:space="preserve">3.86811232566833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82330846786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81584072113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077621459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81957411766052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85317778587341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95398807525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14067268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21161365509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22281455993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09960174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10333585739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00999402999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04359674453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00625991821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06599855422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92038416862488</t>
+    <t xml:space="preserve">3.82330799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81584095954895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077549934387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81957459449768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85317754745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95398759841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14067220687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21161270141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22281408309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09960126876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1033353805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0099925994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0435962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00625944137573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06599903106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92038369178772</t>
   </si>
   <si>
     <t xml:space="preserve">4.0734658241272</t>
@@ -482,19 +479,19 @@
     <t xml:space="preserve">4.27135181427002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3161563873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33109140396118</t>
+    <t xml:space="preserve">4.31615734100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33109188079834</t>
   </si>
   <si>
     <t xml:space="preserve">4.28255319595337</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27881956100464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32362365722656</t>
+    <t xml:space="preserve">4.27881908416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32362413406372</t>
   </si>
   <si>
     <t xml:space="preserve">4.34229278564453</t>
@@ -509,16 +506,16 @@
     <t xml:space="preserve">4.27508497238159</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29375410079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33855819702148</t>
+    <t xml:space="preserve">4.29375457763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33855867385864</t>
   </si>
   <si>
     <t xml:space="preserve">4.33482503890991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3684287071228</t>
+    <t xml:space="preserve">4.36842823028564</t>
   </si>
   <si>
     <t xml:space="preserve">4.36096096038818</t>
@@ -530,7 +527,7 @@
     <t xml:space="preserve">4.42070007324219</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39456415176392</t>
+    <t xml:space="preserve">4.39456462860107</t>
   </si>
   <si>
     <t xml:space="preserve">4.48043918609619</t>
@@ -539,7 +536,7 @@
     <t xml:space="preserve">4.45430374145508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51777601242065</t>
+    <t xml:space="preserve">4.51777648925781</t>
   </si>
   <si>
     <t xml:space="preserve">4.5924506187439</t>
@@ -548,22 +545,22 @@
     <t xml:space="preserve">4.61485242843628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59991788864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55511283874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54764604568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62978744506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76420021057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99569034576416</t>
+    <t xml:space="preserve">4.5999174118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55511236190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54764556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6297869682312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76420068740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.995689868927</t>
   </si>
   <si>
     <t xml:space="preserve">5.18984222412109</t>
@@ -578,13 +575,13 @@
     <t xml:space="preserve">5.51840782165527</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52587604522705</t>
+    <t xml:space="preserve">5.52587556838989</t>
   </si>
   <si>
     <t xml:space="preserve">5.52214193344116</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38026142120361</t>
+    <t xml:space="preserve">5.3802604675293</t>
   </si>
   <si>
     <t xml:space="preserve">5.36159229278564</t>
@@ -593,37 +590,37 @@
     <t xml:space="preserve">5.37279319763184</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40639638900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39519500732422</t>
+    <t xml:space="preserve">5.40639734268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39519596099854</t>
   </si>
   <si>
     <t xml:space="preserve">5.44373369216919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45120143890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46613645553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48480463027954</t>
+    <t xml:space="preserve">5.45120096206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46613597869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48480415344238</t>
   </si>
   <si>
     <t xml:space="preserve">5.43626642227173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42133140563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5445442199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56694555282593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91418027877808</t>
+    <t xml:space="preserve">5.42133188247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54454374313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56694602966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91417980194092</t>
   </si>
   <si>
     <t xml:space="preserve">5.82457113265991</t>
@@ -632,19 +629,19 @@
     <t xml:space="preserve">5.66028833389282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78723430633545</t>
+    <t xml:space="preserve">5.78723382949829</t>
   </si>
   <si>
     <t xml:space="preserve">5.67522287368774</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74989748001099</t>
+    <t xml:space="preserve">5.74989652633667</t>
   </si>
   <si>
     <t xml:space="preserve">5.84323978424072</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92965745925903</t>
+    <t xml:space="preserve">5.92965698242188</t>
   </si>
   <si>
     <t xml:space="preserve">5.97209453582764</t>
@@ -653,31 +650,31 @@
     <t xml:space="preserve">6.01067399978638</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94123125076294</t>
+    <t xml:space="preserve">5.94123077392578</t>
   </si>
   <si>
     <t xml:space="preserve">5.93737316131592</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91422510147095</t>
+    <t xml:space="preserve">5.91422557830811</t>
   </si>
   <si>
     <t xml:space="preserve">5.72904443740845</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72518682479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86792993545532</t>
+    <t xml:space="preserve">5.72518634796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86793041229248</t>
   </si>
   <si>
     <t xml:space="preserve">5.87564563751221</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81006193161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77148199081421</t>
+    <t xml:space="preserve">5.81006145477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77148246765137</t>
   </si>
   <si>
     <t xml:space="preserve">5.8717885017395</t>
@@ -686,22 +683,22 @@
     <t xml:space="preserve">5.76376628875732</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67117500305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67889070510864</t>
+    <t xml:space="preserve">5.67117547988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6788911819458</t>
   </si>
   <si>
     <t xml:space="preserve">5.74061870574951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70975494384766</t>
+    <t xml:space="preserve">5.70975589752197</t>
   </si>
   <si>
     <t xml:space="preserve">5.78691339492798</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75604963302612</t>
+    <t xml:space="preserve">5.75605010986328</t>
   </si>
   <si>
     <t xml:space="preserve">5.790771484375</t>
@@ -710,13 +707,13 @@
     <t xml:space="preserve">5.80620336532593</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8602147102356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91808414459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71746969223022</t>
+    <t xml:space="preserve">5.86021423339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91808366775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71747016906738</t>
   </si>
   <si>
     <t xml:space="preserve">5.82549285888672</t>
@@ -725,22 +722,22 @@
     <t xml:space="preserve">5.86407232284546</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7599081993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9335150718689</t>
+    <t xml:space="preserve">5.75990867614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93351554870605</t>
   </si>
   <si>
     <t xml:space="preserve">5.81777715682983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64802742004395</t>
+    <t xml:space="preserve">5.64802837371826</t>
   </si>
   <si>
     <t xml:space="preserve">5.67503309249878</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61330652236938</t>
+    <t xml:space="preserve">5.61330556869507</t>
   </si>
   <si>
     <t xml:space="preserve">5.58630037307739</t>
@@ -749,7 +746,7 @@
     <t xml:space="preserve">5.44741439819336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41655111312866</t>
+    <t xml:space="preserve">5.41655158996582</t>
   </si>
   <si>
     <t xml:space="preserve">5.57086801528931</t>
@@ -758,85 +755,85 @@
     <t xml:space="preserve">5.62102174758911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43198299407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71361255645752</t>
+    <t xml:space="preserve">5.43198347091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71361303329468</t>
   </si>
   <si>
     <t xml:space="preserve">5.69432353973389</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68274879455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54000520706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77919769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72132778167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73290205001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7483344078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79462909698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65574359893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79848718643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81391954421997</t>
+    <t xml:space="preserve">5.68274927139282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54000473022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77919721603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7213282585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73290252685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74833393096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79462957382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65574407577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79848766326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81391906738281</t>
   </si>
   <si>
     <t xml:space="preserve">5.88722038269043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89493608474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87950420379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8332085609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85249900817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97595310211182</t>
+    <t xml:space="preserve">5.894935131073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87950372695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83320903778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85249853134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97595262527466</t>
   </si>
   <si>
     <t xml:space="preserve">5.90265130996704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89107847213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82163524627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84478282928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92194175720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90650987625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08397531509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12255430221558</t>
+    <t xml:space="preserve">5.89107799530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8216347694397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84478235244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92194223403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90650939941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08397483825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12255382537842</t>
   </si>
   <si>
     <t xml:space="preserve">6.26529836654663</t>
@@ -845,19 +842,19 @@
     <t xml:space="preserve">6.28073072433472</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33859872817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27301502227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32702541351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16113376617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21900272369385</t>
+    <t xml:space="preserve">6.33859968185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27301454544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32702589035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16113424301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21900320053101</t>
   </si>
   <si>
     <t xml:space="preserve">6.16499185562134</t>
@@ -866,28 +863,28 @@
     <t xml:space="preserve">6.29616165161133</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0955491065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24600839614868</t>
+    <t xml:space="preserve">6.09554862976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24600887298584</t>
   </si>
   <si>
     <t xml:space="preserve">6.16884994506836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17270755767822</t>
+    <t xml:space="preserve">6.17270803451538</t>
   </si>
   <si>
     <t xml:space="preserve">6.20357131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11098051071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18428182601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0261058807373</t>
+    <t xml:space="preserve">6.11098098754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18428134918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02610635757446</t>
   </si>
   <si>
     <t xml:space="preserve">6.15727567672729</t>
@@ -902,22 +899,22 @@
     <t xml:space="preserve">6.05311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00681638717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98752641677856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22286081314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11483860015869</t>
+    <t xml:space="preserve">6.0068154335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98752689361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22286033630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11483907699585</t>
   </si>
   <si>
     <t xml:space="preserve">6.10712289810181</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06082725524902</t>
+    <t xml:space="preserve">6.06082773208618</t>
   </si>
   <si>
     <t xml:space="preserve">5.92579984664917</t>
@@ -944,25 +941,25 @@
     <t xml:space="preserve">6.09169101715088</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1379861831665</t>
+    <t xml:space="preserve">6.13798666000366</t>
   </si>
   <si>
     <t xml:space="preserve">6.13412809371948</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15341758728027</t>
+    <t xml:space="preserve">6.15341806411743</t>
   </si>
   <si>
     <t xml:space="preserve">6.21128749847412</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14955949783325</t>
+    <t xml:space="preserve">6.14955997467041</t>
   </si>
   <si>
     <t xml:space="preserve">6.23829317092896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26144027709961</t>
+    <t xml:space="preserve">6.26143980026245</t>
   </si>
   <si>
     <t xml:space="preserve">6.25758171081543</t>
@@ -971,7 +968,7 @@
     <t xml:space="preserve">6.28844594955444</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36560392379761</t>
+    <t xml:space="preserve">6.36560487747192</t>
   </si>
   <si>
     <t xml:space="preserve">6.40418386459351</t>
@@ -980,40 +977,40 @@
     <t xml:space="preserve">6.35017251968384</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43504810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58164882659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53535509109497</t>
+    <t xml:space="preserve">6.43504762649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58164930343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53535461425781</t>
   </si>
   <si>
     <t xml:space="preserve">6.37332057952881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38103723526001</t>
+    <t xml:space="preserve">6.38103675842285</t>
   </si>
   <si>
     <t xml:space="preserve">6.38875246047974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60479784011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55850219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48905897140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47362756729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12641334533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04925346374512</t>
+    <t xml:space="preserve">6.60479831695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55850267410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48905849456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47362661361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1264123916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04925394058228</t>
   </si>
   <si>
     <t xml:space="preserve">6.30387830734253</t>
@@ -1022,34 +1019,34 @@
     <t xml:space="preserve">6.34245729446411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22671842575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18042373657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31159448623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33474159240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46591138839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50449180603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45047903060913</t>
+    <t xml:space="preserve">6.22671890258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18042421340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31159400939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33474206924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46591091156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50449132919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45047855377197</t>
   </si>
   <si>
     <t xml:space="preserve">6.3193097114563</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23443508148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49677515029907</t>
+    <t xml:space="preserve">6.23443460464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49677467346191</t>
   </si>
   <si>
     <t xml:space="preserve">6.44276332855225</t>
@@ -1058,43 +1055,46 @@
     <t xml:space="preserve">6.39646863937378</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41961622238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42733192443848</t>
+    <t xml:space="preserve">6.41961574554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42733240127563</t>
   </si>
   <si>
     <t xml:space="preserve">6.52763891220093</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51992273330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59708118438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63566064834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74785804748535</t>
+    <t xml:space="preserve">6.51992225646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59708166122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566112518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74785757064819</t>
   </si>
   <si>
     <t xml:space="preserve">6.67573118209839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58757638931274</t>
+    <t xml:space="preserve">6.58757591247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566017150879</t>
   </si>
   <si>
     <t xml:space="preserve">6.50743532180786</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62764692306519</t>
+    <t xml:space="preserve">6.62764644622803</t>
   </si>
   <si>
     <t xml:space="preserve">6.61963224411011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56353425979614</t>
+    <t xml:space="preserve">6.56353378295898</t>
   </si>
   <si>
     <t xml:space="preserve">6.53147745132446</t>
@@ -1109,10 +1109,10 @@
     <t xml:space="preserve">6.39523792266846</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61161756515503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57956218719482</t>
+    <t xml:space="preserve">6.61161851882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57956266403198</t>
   </si>
   <si>
     <t xml:space="preserve">6.60360431671143</t>
@@ -1121,28 +1121,28 @@
     <t xml:space="preserve">6.65168857574463</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73182916641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53949117660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51545000076294</t>
+    <t xml:space="preserve">6.7318286895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53949165344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51544952392578</t>
   </si>
   <si>
     <t xml:space="preserve">6.55552053451538</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35516738891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38722324371338</t>
+    <t xml:space="preserve">6.35516786575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38722372055054</t>
   </si>
   <si>
     <t xml:space="preserve">6.34715366363525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32311201095581</t>
+    <t xml:space="preserve">6.32311153411865</t>
   </si>
   <si>
     <t xml:space="preserve">6.46736431121826</t>
@@ -1151,22 +1151,22 @@
     <t xml:space="preserve">6.48339366912842</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4593505859375</t>
+    <t xml:space="preserve">6.45935106277466</t>
   </si>
   <si>
     <t xml:space="preserve">6.4353084564209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29906892776489</t>
+    <t xml:space="preserve">6.29906940460205</t>
   </si>
   <si>
     <t xml:space="preserve">6.42729473114014</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49140739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45133686065674</t>
+    <t xml:space="preserve">6.49140787124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4513373374939</t>
   </si>
   <si>
     <t xml:space="preserve">6.40325212478638</t>
@@ -1184,34 +1184,34 @@
     <t xml:space="preserve">6.4112663269043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25098466873169</t>
+    <t xml:space="preserve">6.25098514556885</t>
   </si>
   <si>
     <t xml:space="preserve">6.28304100036621</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21091461181641</t>
+    <t xml:space="preserve">6.21091413497925</t>
   </si>
   <si>
     <t xml:space="preserve">6.37921047210693</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36318254470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33112573623657</t>
+    <t xml:space="preserve">6.36318159103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33112525939941</t>
   </si>
   <si>
     <t xml:space="preserve">6.19488620758057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41928052902222</t>
+    <t xml:space="preserve">6.41928100585938</t>
   </si>
   <si>
     <t xml:space="preserve">6.59558963775635</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84402656555176</t>
+    <t xml:space="preserve">6.84402704238892</t>
   </si>
   <si>
     <t xml:space="preserve">7.01232290267944</t>
@@ -1220,25 +1220,25 @@
     <t xml:space="preserve">6.82799863815308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9482102394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9321813583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98026609420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9241681098938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02835130691528</t>
+    <t xml:space="preserve">6.94820976257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93218088150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98026561737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92416715621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02835178375244</t>
   </si>
   <si>
     <t xml:space="preserve">6.90813970565796</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85204076766968</t>
+    <t xml:space="preserve">6.85204124450684</t>
   </si>
   <si>
     <t xml:space="preserve">6.98828029632568</t>
@@ -1250,19 +1250,19 @@
     <t xml:space="preserve">6.97225141525269</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69977283477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75587272644043</t>
+    <t xml:space="preserve">6.69977235794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75587224960327</t>
   </si>
   <si>
     <t xml:space="preserve">6.77991437911987</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78792905807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90012502670288</t>
+    <t xml:space="preserve">6.78792858123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90012550354004</t>
   </si>
   <si>
     <t xml:space="preserve">6.96423816680908</t>
@@ -1274,19 +1274,19 @@
     <t xml:space="preserve">6.94019556045532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81197071075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70778751373291</t>
+    <t xml:space="preserve">6.81197118759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70778703689575</t>
   </si>
   <si>
     <t xml:space="preserve">6.5715479850769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77190017700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68374538421631</t>
+    <t xml:space="preserve">6.77189970016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68374490737915</t>
   </si>
   <si>
     <t xml:space="preserve">6.64367485046387</t>
@@ -1295,52 +1295,52 @@
     <t xml:space="preserve">7.06842041015625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05239248275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12452030181885</t>
+    <t xml:space="preserve">7.05239295959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12451934814453</t>
   </si>
   <si>
     <t xml:space="preserve">7.13253307342529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9962944984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984384536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72381591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83601188659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88409757614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66771697998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71580171585083</t>
+    <t xml:space="preserve">6.99629402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984336853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72381496429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83601236343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88409805297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66771650314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71580123901367</t>
   </si>
   <si>
     <t xml:space="preserve">6.54750633239746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76388549804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10047721862793</t>
+    <t xml:space="preserve">6.76388597488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10047769546509</t>
   </si>
   <si>
     <t xml:space="preserve">7.14054775238037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18863344192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17260360717773</t>
+    <t xml:space="preserve">7.18863248825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17260408401489</t>
   </si>
   <si>
     <t xml:space="preserve">7.11650705337524</t>
@@ -1349,19 +1349,19 @@
     <t xml:space="preserve">7.23671674728394</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25274562835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19664621353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22870397567749</t>
+    <t xml:space="preserve">7.25274515151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19664573669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22870302200317</t>
   </si>
   <si>
     <t xml:space="preserve">7.20465993881226</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29281520843506</t>
+    <t xml:space="preserve">7.29281568527222</t>
   </si>
   <si>
     <t xml:space="preserve">7.38898420333862</t>
@@ -1370,79 +1370,79 @@
     <t xml:space="preserve">7.28480100631714</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33288621902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45309782028198</t>
+    <t xml:space="preserve">7.3328857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45309734344482</t>
   </si>
   <si>
     <t xml:space="preserve">7.50919532775879</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55728054046631</t>
+    <t xml:space="preserve">7.55728101730347</t>
   </si>
   <si>
     <t xml:space="preserve">7.51720952987671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41302680969238</t>
+    <t xml:space="preserve">7.41302728652954</t>
   </si>
   <si>
     <t xml:space="preserve">7.48515367507935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44508266448975</t>
+    <t xml:space="preserve">7.44508361816406</t>
   </si>
   <si>
     <t xml:space="preserve">7.49316787719727</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81373167037964</t>
+    <t xml:space="preserve">7.81373119354248</t>
   </si>
   <si>
     <t xml:space="preserve">7.77366018295288</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75763177871704</t>
+    <t xml:space="preserve">7.75763273239136</t>
   </si>
   <si>
     <t xml:space="preserve">7.52522373199463</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54125213623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53323793411255</t>
+    <t xml:space="preserve">7.54125165939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53323698043823</t>
   </si>
   <si>
     <t xml:space="preserve">7.66146326065063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63742160797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61337804794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60536479949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57330799102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79770231246948</t>
+    <t xml:space="preserve">7.63742113113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61337852478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6053638458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57330846786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79770183563232</t>
   </si>
   <si>
     <t xml:space="preserve">7.85380125045776</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91791486740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96599769592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97401237487793</t>
+    <t xml:space="preserve">7.91791439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96599817276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97401189804077</t>
   </si>
   <si>
     <t xml:space="preserve">8.19039249420166</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">7.94195604324341</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03011131286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93394184112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99003982543945</t>
+    <t xml:space="preserve">8.03011226654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93394231796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99004077911377</t>
   </si>
   <si>
     <t xml:space="preserve">8.01408386230469</t>
@@ -1481,34 +1481,34 @@
     <t xml:space="preserve">7.98202657699585</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90188550949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89387178421021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86983013153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14230823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35067462921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33464527130127</t>
+    <t xml:space="preserve">7.90188598632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89387226104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8698296546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14230918884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35067558288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33464622497559</t>
   </si>
   <si>
     <t xml:space="preserve">8.71932125091553</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10399723052979</t>
+    <t xml:space="preserve">9.1039981842041</t>
   </si>
   <si>
     <t xml:space="preserve">8.97577285766602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63918113708496</t>
+    <t xml:space="preserve">8.63918018341064</t>
   </si>
   <si>
     <t xml:space="preserve">8.89563274383545</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">8.26367282867432</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36303615570068</t>
+    <t xml:space="preserve">8.363037109375</t>
   </si>
   <si>
     <t xml:space="preserve">8.42927837371826</t>
@@ -1562,10 +1562,10 @@
     <t xml:space="preserve">8.29679489135742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87641143798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94265270233154</t>
+    <t xml:space="preserve">8.87641048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94265174865723</t>
   </si>
   <si>
     <t xml:space="preserve">9.10825634002686</t>
@@ -1577,22 +1577,22 @@
     <t xml:space="preserve">8.62800407409668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8101692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67768383026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74392700195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84328937530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61144161224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456272125244</t>
+    <t xml:space="preserve">8.81016826629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67768478393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74392795562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84328842163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61144256591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64456367492676</t>
   </si>
   <si>
     <t xml:space="preserve">8.59488296508789</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">8.69424533843994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90953159332275</t>
+    <t xml:space="preserve">8.90953063964844</t>
   </si>
   <si>
     <t xml:space="preserve">8.44583702087402</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">8.66112422943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19743061065674</t>
+    <t xml:space="preserve">8.19743156433105</t>
   </si>
   <si>
     <t xml:space="preserve">8.34647560119629</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">8.46239852905273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39615631103516</t>
+    <t xml:space="preserve">8.39615726470947</t>
   </si>
   <si>
     <t xml:space="preserve">8.18915176391602</t>
@@ -1658,13 +1658,13 @@
     <t xml:space="preserve">8.5617618560791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32354259490967</t>
+    <t xml:space="preserve">9.32354354858398</t>
   </si>
   <si>
     <t xml:space="preserve">9.90316009521484</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1515674591064</t>
+    <t xml:space="preserve">10.1515665054321</t>
   </si>
   <si>
     <t xml:space="preserve">10.0190830230713</t>
@@ -1673,28 +1673,28 @@
     <t xml:space="preserve">10.3502922058105</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4993362426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4330940246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.565577507019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.731183052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0955123901367</t>
+    <t xml:space="preserve">10.4993371963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4330949783325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5655784606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7311820983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.095513343811</t>
   </si>
   <si>
     <t xml:space="preserve">10.9630289077759</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1451940536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7974243164062</t>
+    <t xml:space="preserve">11.1451950073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7974233627319</t>
   </si>
   <si>
     <t xml:space="preserve">10.7477426528931</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">10.5158977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4662141799927</t>
+    <t xml:space="preserve">10.466215133667</t>
   </si>
   <si>
     <t xml:space="preserve">10.4496555328369</t>
@@ -1712,31 +1712,31 @@
     <t xml:space="preserve">10.4827756881714</t>
   </si>
   <si>
-    <t xml:space="preserve">10.284049987793</t>
+    <t xml:space="preserve">10.2840509414673</t>
   </si>
   <si>
     <t xml:space="preserve">10.3171701431274</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1184453964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5324563980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5986986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.078953742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8305463790894</t>
+    <t xml:space="preserve">10.118444442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5324573516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5986995697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0789527893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.830545425415</t>
   </si>
   <si>
     <t xml:space="preserve">10.5821390151978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6980628967285</t>
+    <t xml:space="preserve">10.6980619430542</t>
   </si>
   <si>
     <t xml:space="preserve">10.9464683532715</t>
@@ -1757,13 +1757,13 @@
     <t xml:space="preserve">11.2611169815063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2114362716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1948757171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1783151626587</t>
+    <t xml:space="preserve">11.2114372253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1948766708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.178316116333</t>
   </si>
   <si>
     <t xml:space="preserve">11.2445573806763</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">11.3604803085327</t>
   </si>
   <si>
-    <t xml:space="preserve">11.60888671875</t>
+    <t xml:space="preserve">11.6088876724243</t>
   </si>
   <si>
     <t xml:space="preserve">11.5757656097412</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">11.7579317092896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6420078277588</t>
+    <t xml:space="preserve">11.6420087814331</t>
   </si>
   <si>
     <t xml:space="preserve">11.873854637146</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">10.6318197250366</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6649408340454</t>
+    <t xml:space="preserve">10.6649398803711</t>
   </si>
   <si>
     <t xml:space="preserve">10.2343692779541</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">9.82035732269287</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0853242874146</t>
+    <t xml:space="preserve">10.0853233337402</t>
   </si>
   <si>
     <t xml:space="preserve">9.4891471862793</t>
@@ -1829,19 +1829,19 @@
     <t xml:space="preserve">9.02545356750488</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73373794555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93246412277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96558427810669</t>
+    <t xml:space="preserve">7.7337384223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93246364593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96558380126953</t>
   </si>
   <si>
     <t xml:space="preserve">7.91590309143066</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15793895721436</t>
+    <t xml:space="preserve">9.15793800354004</t>
   </si>
   <si>
     <t xml:space="preserve">8.92609024047852</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">8.85984897613525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0088939666748</t>
+    <t xml:space="preserve">9.00889301300049</t>
   </si>
   <si>
     <t xml:space="preserve">9.52226829528809</t>
@@ -1862,16 +1862,16 @@
     <t xml:space="preserve">9.62163066864014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43946743011475</t>
+    <t xml:space="preserve">9.43946647644043</t>
   </si>
   <si>
     <t xml:space="preserve">9.91971969604492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38978385925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37322425842285</t>
+    <t xml:space="preserve">9.38978481292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37322521209717</t>
   </si>
   <si>
     <t xml:space="preserve">9.63819217681885</t>
@@ -1895,10 +1895,10 @@
     <t xml:space="preserve">9.7375545501709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4725866317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82956314086914</t>
+    <t xml:space="preserve">9.47258567810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82956409454346</t>
   </si>
   <si>
     <t xml:space="preserve">9.64053440093994</t>
@@ -1913,19 +1913,19 @@
     <t xml:space="preserve">8.98752117156982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19373512268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70927143096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43431854248047</t>
+    <t xml:space="preserve">9.19373607635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70927238464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43431949615479</t>
   </si>
   <si>
     <t xml:space="preserve">9.26247310638428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2109203338623</t>
+    <t xml:space="preserve">9.21092128753662</t>
   </si>
   <si>
     <t xml:space="preserve">9.48587322235107</t>
@@ -1934,13 +1934,13 @@
     <t xml:space="preserve">9.86393260955811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.018593788147</t>
+    <t xml:space="preserve">10.0185947418213</t>
   </si>
   <si>
     <t xml:space="preserve">10.1560707092285</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8434524536133</t>
+    <t xml:space="preserve">10.8434534072876</t>
   </si>
   <si>
     <t xml:space="preserve">10.6372385025024</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">10.5169467926025</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4482069015503</t>
+    <t xml:space="preserve">10.4482078552246</t>
   </si>
   <si>
     <t xml:space="preserve">10.2419939041138</t>
@@ -1982,10 +1982,10 @@
     <t xml:space="preserve">10.826268196106</t>
   </si>
   <si>
-    <t xml:space="preserve">11.152774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4620962142944</t>
+    <t xml:space="preserve">11.1527757644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4620971679688</t>
   </si>
   <si>
     <t xml:space="preserve">11.4964666366577</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">11.2902507781982</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2386980056763</t>
+    <t xml:space="preserve">11.238697052002</t>
   </si>
   <si>
     <t xml:space="preserve">11.3761739730835</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">11.7542352676392</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7714185714722</t>
+    <t xml:space="preserve">11.7714195251465</t>
   </si>
   <si>
     <t xml:space="preserve">11.926079750061</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">12.0291872024536</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2010326385498</t>
+    <t xml:space="preserve">12.2010335922241</t>
   </si>
   <si>
     <t xml:space="preserve">12.0807409286499</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0979251861572</t>
+    <t xml:space="preserve">12.0979261398315</t>
   </si>
   <si>
     <t xml:space="preserve">12.1151113510132</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">11.8401565551758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8573427200317</t>
+    <t xml:space="preserve">11.8573417663574</t>
   </si>
   <si>
     <t xml:space="preserve">11.4792814254761</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">11.4277276992798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.204327583313</t>
+    <t xml:space="preserve">11.2043285369873</t>
   </si>
   <si>
     <t xml:space="preserve">11.3418045043945</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2215137481689</t>
+    <t xml:space="preserve">11.2215127944946</t>
   </si>
   <si>
     <t xml:space="preserve">11.3246202468872</t>
@@ -2078,16 +2078,16 @@
     <t xml:space="preserve">11.101222038269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.18714427948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0496664047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9637441635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1699590682983</t>
+    <t xml:space="preserve">11.1871452331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0496673583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9637451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1699600219727</t>
   </si>
   <si>
     <t xml:space="preserve">10.9981145858765</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">11.513650894165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6854963302612</t>
+    <t xml:space="preserve">11.6854972839355</t>
   </si>
   <si>
     <t xml:space="preserve">11.6167583465576</t>
@@ -2108,10 +2108,10 @@
     <t xml:space="preserve">11.3933591842651</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5823879241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.565203666687</t>
+    <t xml:space="preserve">11.5823888778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5652046203613</t>
   </si>
   <si>
     <t xml:space="preserve">11.9088945388794</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">11.9432640075684</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5513153076172</t>
+    <t xml:space="preserve">10.5513162612915</t>
   </si>
   <si>
     <t xml:space="preserve">10.6544227600098</t>
@@ -2138,10 +2138,10 @@
     <t xml:space="preserve">11.0324831008911</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3589906692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7886028289795</t>
+    <t xml:space="preserve">11.3589897155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7886037826538</t>
   </si>
   <si>
     <t xml:space="preserve">11.7370500564575</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">12.6993846893311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0087070465088</t>
+    <t xml:space="preserve">13.0087060928345</t>
   </si>
   <si>
     <t xml:space="preserve">13.3008441925049</t>
@@ -2225,10 +2225,10 @@
     <t xml:space="preserve">12.8024911880493</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9743375778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1118144989014</t>
+    <t xml:space="preserve">12.9743366241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1118135452271</t>
   </si>
   <si>
     <t xml:space="preserve">13.2149209976196</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">13.1977367401123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6273508071899</t>
+    <t xml:space="preserve">13.6273498535156</t>
   </si>
   <si>
     <t xml:space="preserve">13.7476425170898</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">13.3523979187012</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6101665496826</t>
+    <t xml:space="preserve">13.6101655960083</t>
   </si>
   <si>
     <t xml:space="preserve">13.9194889068604</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">15.0364856719971</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0708541870117</t>
+    <t xml:space="preserve">15.070855140686</t>
   </si>
   <si>
     <t xml:space="preserve">15.0192995071411</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">14.3834705352783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5896854400635</t>
+    <t xml:space="preserve">14.5896863937378</t>
   </si>
   <si>
     <t xml:space="preserve">14.6756076812744</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">14.7959003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7443475723267</t>
+    <t xml:space="preserve">14.7443466186523</t>
   </si>
   <si>
     <t xml:space="preserve">15.156774520874</t>
@@ -2327,13 +2327,13 @@
     <t xml:space="preserve">15.2942514419556</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3819494247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960842132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9610052108765</t>
+    <t xml:space="preserve">15.3819484710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960832595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9610061645508</t>
   </si>
   <si>
     <t xml:space="preserve">14.9434661865234</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">15.1013193130493</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1890163421631</t>
+    <t xml:space="preserve">15.1890153884888</t>
   </si>
   <si>
     <t xml:space="preserve">14.9083881378174</t>
@@ -2366,10 +2366,10 @@
     <t xml:space="preserve">14.592679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1188583374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.855770111084</t>
+    <t xml:space="preserve">15.118857383728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8557710647583</t>
   </si>
   <si>
     <t xml:space="preserve">14.8031511306763</t>
@@ -2399,16 +2399,16 @@
     <t xml:space="preserve">14.8908472061157</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7505331039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1714754104614</t>
+    <t xml:space="preserve">14.7505340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1714763641357</t>
   </si>
   <si>
     <t xml:space="preserve">15.0662422180176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3293304443359</t>
+    <t xml:space="preserve">15.3293294906616</t>
   </si>
   <si>
     <t xml:space="preserve">15.3468685150146</t>
@@ -2417,31 +2417,31 @@
     <t xml:space="preserve">14.8206911087036</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5398006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6099586486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5222625732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5748796463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7853517532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9607448577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1887550354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0309009552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327346801758</t>
+    <t xml:space="preserve">15.5398015975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6099576950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5222616195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5748805999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7853507995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9607458114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1887531280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0309028625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327337265015</t>
   </si>
   <si>
     <t xml:space="preserve">16.2413730621338</t>
@@ -2453,13 +2453,13 @@
     <t xml:space="preserve">16.4167652130127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2589130401611</t>
+    <t xml:space="preserve">16.2589111328125</t>
   </si>
   <si>
     <t xml:space="preserve">16.1536769866943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1361351013184</t>
+    <t xml:space="preserve">16.136137008667</t>
   </si>
   <si>
     <t xml:space="preserve">15.9256658554077</t>
@@ -2468,19 +2468,19 @@
     <t xml:space="preserve">16.0835189819336</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9782829284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8379688262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6976556777954</t>
+    <t xml:space="preserve">15.9782810211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8379697799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6976566314697</t>
   </si>
   <si>
     <t xml:space="preserve">15.662576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6274967193604</t>
+    <t xml:space="preserve">15.6274976730347</t>
   </si>
   <si>
     <t xml:space="preserve">15.9958229064941</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">15.7151937484741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6450386047363</t>
+    <t xml:space="preserve">15.645037651062</t>
   </si>
   <si>
     <t xml:space="preserve">14.6452989578247</t>
@@ -2510,10 +2510,10 @@
     <t xml:space="preserve">15.399486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3644094467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2416334152222</t>
+    <t xml:space="preserve">15.3644104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2416343688965</t>
   </si>
   <si>
     <t xml:space="preserve">15.2240953445435</t>
@@ -2522,34 +2522,34 @@
     <t xml:space="preserve">15.2065553665161</t>
   </si>
   <si>
-    <t xml:space="preserve">16.346607208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0659809112549</t>
+    <t xml:space="preserve">16.3466091156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0659790039062</t>
   </si>
   <si>
     <t xml:space="preserve">15.8730487823486</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3117904663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6102209091187</t>
+    <t xml:space="preserve">15.3117895126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6102199554443</t>
   </si>
   <si>
     <t xml:space="preserve">14.5576028823853</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4172887802124</t>
+    <t xml:space="preserve">14.4172878265381</t>
   </si>
   <si>
     <t xml:space="preserve">14.5225229263306</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2945117950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3295907974243</t>
+    <t xml:space="preserve">14.2945127487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3295917510986</t>
   </si>
   <si>
     <t xml:space="preserve">14.1717376708984</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">13.8560314178467</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0314235687256</t>
+    <t xml:space="preserve">14.0314245223999</t>
   </si>
   <si>
     <t xml:space="preserve">14.1191205978394</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">14.2769746780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3646697998047</t>
+    <t xml:space="preserve">14.3646688461304</t>
   </si>
   <si>
     <t xml:space="preserve">14.3822088241577</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">14.2594347000122</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8209524154663</t>
+    <t xml:space="preserve">13.8209533691406</t>
   </si>
   <si>
     <t xml:space="preserve">14.066502571106</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">13.312313079834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.031683921814</t>
+    <t xml:space="preserve">13.0316848754883</t>
   </si>
   <si>
     <t xml:space="preserve">13.0492238998413</t>
@@ -2624,13 +2624,13 @@
     <t xml:space="preserve">12.330114364624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7685956954956</t>
+    <t xml:space="preserve">12.7685966491699</t>
   </si>
   <si>
     <t xml:space="preserve">12.4879665374756</t>
   </si>
   <si>
-    <t xml:space="preserve">12.259955406189</t>
+    <t xml:space="preserve">12.2599563598633</t>
   </si>
   <si>
     <t xml:space="preserve">12.3651924133301</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">11.9617891311646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.80393409729</t>
+    <t xml:space="preserve">11.8039350509644</t>
   </si>
   <si>
     <t xml:space="preserve">11.8565530776978</t>
@@ -2654,16 +2654,16 @@
     <t xml:space="preserve">11.4531497955322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7866563796997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.277756690979</t>
+    <t xml:space="preserve">10.786657333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2777557373047</t>
   </si>
   <si>
     <t xml:space="preserve">11.2251386642456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8392744064331</t>
+    <t xml:space="preserve">10.8392753601074</t>
   </si>
   <si>
     <t xml:space="preserve">10.7691173553467</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">10.0850849151611</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1026248931885</t>
+    <t xml:space="preserve">10.1026258468628</t>
   </si>
   <si>
     <t xml:space="preserve">9.8921537399292</t>
@@ -2684,13 +2684,13 @@
     <t xml:space="preserve">10.1727828979492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85707569122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0675468444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5761861801147</t>
+    <t xml:space="preserve">9.85707473754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0675458908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5761871337891</t>
   </si>
   <si>
     <t xml:space="preserve">9.92723178863525</t>
@@ -2699,16 +2699,16 @@
     <t xml:space="preserve">10.9795894622803</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2075996398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8918924331665</t>
+    <t xml:space="preserve">11.2076005935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8918933868408</t>
   </si>
   <si>
     <t xml:space="preserve">11.0848245620728</t>
   </si>
   <si>
-    <t xml:space="preserve">10.751579284668</t>
+    <t xml:space="preserve">10.7515783309937</t>
   </si>
   <si>
     <t xml:space="preserve">10.6814212799072</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">10.4183320999146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4534111022949</t>
+    <t xml:space="preserve">10.4534101486206</t>
   </si>
   <si>
     <t xml:space="preserve">10.2429399490356</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">9.90969276428223</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71676158905029</t>
+    <t xml:space="preserve">9.71676063537598</t>
   </si>
   <si>
     <t xml:space="preserve">9.82199573516846</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">9.64660358428955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96231079101562</t>
+    <t xml:space="preserve">9.96230983734131</t>
   </si>
   <si>
     <t xml:space="preserve">10.3306350708008</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">11.0497465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6463432312012</t>
+    <t xml:space="preserve">10.6463422775269</t>
   </si>
   <si>
     <t xml:space="preserve">10.488489151001</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">10.2707347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6336584091187</t>
+    <t xml:space="preserve">10.633659362793</t>
   </si>
   <si>
     <t xml:space="preserve">10.6699514389038</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">10.8332662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4159049987793</t>
+    <t xml:space="preserve">10.415904045105</t>
   </si>
   <si>
     <t xml:space="preserve">10.6518049240112</t>
@@ -2816,10 +2816,10 @@
     <t xml:space="preserve">11.7950134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6861362457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8131608963013</t>
+    <t xml:space="preserve">11.6861371994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.813159942627</t>
   </si>
   <si>
     <t xml:space="preserve">11.7224292755127</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">11.5954055786133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6135530471802</t>
+    <t xml:space="preserve">11.6135520935059</t>
   </si>
   <si>
     <t xml:space="preserve">10.5973663330078</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">11.0147285461426</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0328750610352</t>
+    <t xml:space="preserve">11.0328741073608</t>
   </si>
   <si>
     <t xml:space="preserve">11.3232126235962</t>
@@ -2900,25 +2900,25 @@
     <t xml:space="preserve">11.2869205474854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0873136520386</t>
+    <t xml:space="preserve">11.0873126983643</t>
   </si>
   <si>
     <t xml:space="preserve">10.6880970001221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3070278167725</t>
+    <t xml:space="preserve">10.3070268630981</t>
   </si>
   <si>
     <t xml:space="preserve">10.1618576049805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90781116485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0529813766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.180004119873</t>
+    <t xml:space="preserve">9.90781211853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0529804229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1800050735474</t>
   </si>
   <si>
     <t xml:space="preserve">10.3614664077759</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">10.4703435897827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4521970748901</t>
+    <t xml:space="preserve">10.4521980285645</t>
   </si>
   <si>
     <t xml:space="preserve">10.0348358154297</t>
@@ -2936,28 +2936,28 @@
     <t xml:space="preserve">9.92595767974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7444953918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85337257385254</t>
+    <t xml:space="preserve">9.74449634552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85337352752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.78078842163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99854373931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59932613372803</t>
+    <t xml:space="preserve">9.99854278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59932708740234</t>
   </si>
   <si>
     <t xml:space="preserve">10.0892734527588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1074190139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1255655288696</t>
+    <t xml:space="preserve">10.1074199676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1255664825439</t>
   </si>
   <si>
     <t xml:space="preserve">10.1981506347656</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">10.3796119689941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9239978790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1961908340454</t>
+    <t xml:space="preserve">10.923996925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1961898803711</t>
   </si>
   <si>
     <t xml:space="preserve">11.4683828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1034984588623</t>
+    <t xml:space="preserve">12.1034994125366</t>
   </si>
   <si>
     <t xml:space="preserve">11.9038906097412</t>
@@ -2993,25 +2993,25 @@
     <t xml:space="preserve">11.4320907592773</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4139432907104</t>
+    <t xml:space="preserve">11.4139442443848</t>
   </si>
   <si>
     <t xml:space="preserve">12.012767791748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.085352897644</t>
+    <t xml:space="preserve">12.0853519439697</t>
   </si>
   <si>
     <t xml:space="preserve">12.7567615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1741237640381</t>
+    <t xml:space="preserve">13.1741228103638</t>
   </si>
   <si>
     <t xml:space="preserve">13.2104158401489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9926605224609</t>
+    <t xml:space="preserve">12.9926614761353</t>
   </si>
   <si>
     <t xml:space="preserve">12.7386150360107</t>
@@ -3020,13 +3020,13 @@
     <t xml:space="preserve">12.4119834899902</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3756914138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478834152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6115922927856</t>
+    <t xml:space="preserve">12.3756923675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478843688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6115913391113</t>
   </si>
   <si>
     <t xml:space="preserve">12.684175491333</t>
@@ -3038,22 +3038,22 @@
     <t xml:space="preserve">12.4845685958862</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9200773239136</t>
+    <t xml:space="preserve">12.9200763702393</t>
   </si>
   <si>
     <t xml:space="preserve">13.0652456283569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1378297805786</t>
+    <t xml:space="preserve">13.1378307342529</t>
   </si>
   <si>
     <t xml:space="preserve">13.1015377044678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0108079910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2285623550415</t>
+    <t xml:space="preserve">13.0108070373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2285614013672</t>
   </si>
   <si>
     <t xml:space="preserve">13.1922693252563</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">12.8656387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8474922180176</t>
+    <t xml:space="preserve">12.8474912643433</t>
   </si>
   <si>
     <t xml:space="preserve">12.7930536270142</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">13.645923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8092403411865</t>
+    <t xml:space="preserve">13.8092393875122</t>
   </si>
   <si>
     <t xml:space="preserve">13.8455324172974</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">13.9362621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4443550109863</t>
+    <t xml:space="preserve">14.4443559646606</t>
   </si>
   <si>
     <t xml:space="preserve">14.0995779037476</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">14.3717708587646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3173322677612</t>
+    <t xml:space="preserve">14.3173313140869</t>
   </si>
   <si>
     <t xml:space="preserve">14.3354787826538</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">14.226601600647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1540174484253</t>
+    <t xml:space="preserve">14.154016494751</t>
   </si>
   <si>
     <t xml:space="preserve">14.2810401916504</t>
@@ -3134,13 +3134,13 @@
     <t xml:space="preserve">14.3899164199829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8798627853394</t>
+    <t xml:space="preserve">14.8798637390137</t>
   </si>
   <si>
     <t xml:space="preserve">14.4625015258789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4806480407715</t>
+    <t xml:space="preserve">14.4806470870972</t>
   </si>
   <si>
     <t xml:space="preserve">14.4987936019897</t>
@@ -3149,16 +3149,16 @@
     <t xml:space="preserve">14.662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4423952102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5694179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4786882400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6420030593872</t>
+    <t xml:space="preserve">15.4423942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5694189071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.478687286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6420021057129</t>
   </si>
   <si>
     <t xml:space="preserve">15.5149803161621</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">15.8597564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9141960144043</t>
+    <t xml:space="preserve">15.9141969680786</t>
   </si>
   <si>
     <t xml:space="preserve">16.2589721679688</t>
@@ -3185,22 +3185,22 @@
     <t xml:space="preserve">16.1138038635254</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0412178039551</t>
+    <t xml:space="preserve">16.0412197113037</t>
   </si>
   <si>
     <t xml:space="preserve">16.0775108337402</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8234643936157</t>
+    <t xml:space="preserve">15.82346534729</t>
   </si>
   <si>
     <t xml:space="preserve">15.769024848938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2427864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2064952850342</t>
+    <t xml:space="preserve">15.242787361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2064943313599</t>
   </si>
   <si>
     <t xml:space="preserve">15.8053188323975</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">15.9686336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9867811203003</t>
+    <t xml:space="preserve">15.986780166626</t>
   </si>
   <si>
     <t xml:space="preserve">15.841609954834</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">16.131950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2952651977539</t>
+    <t xml:space="preserve">16.2952632904053</t>
   </si>
   <si>
     <t xml:space="preserve">16.8033580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8396511077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0574054718018</t>
+    <t xml:space="preserve">16.8396492004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0574035644531</t>
   </si>
   <si>
     <t xml:space="preserve">16.7489185333252</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">15.2790794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1157646179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.097617149353</t>
+    <t xml:space="preserve">15.1157627105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0976161956787</t>
   </si>
   <si>
     <t xml:space="preserve">15.333517074585</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">15.460542678833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.533127784729</t>
+    <t xml:space="preserve">15.5331258773804</t>
   </si>
   <si>
     <t xml:space="preserve">15.406102180481</t>
@@ -7588,7 +7588,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G134" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -7614,7 +7614,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -7640,7 +7640,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7718,7 +7718,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -7744,7 +7744,7 @@
         <v>5.57000017166138</v>
       </c>
       <c r="G140" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -7770,7 +7770,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G141" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -7848,7 +7848,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G144" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -7874,7 +7874,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -7926,7 +7926,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -7952,7 +7952,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G148" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -7978,7 +7978,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G149" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8004,7 +8004,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G150" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8030,7 +8030,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G151" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8056,7 +8056,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8108,7 +8108,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G154" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8186,7 +8186,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G157" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8212,7 +8212,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G158" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8316,7 +8316,7 @@
         <v>5.33500003814697</v>
       </c>
       <c r="G162" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8342,7 +8342,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G163" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8368,7 +8368,7 @@
         <v>5.32499980926514</v>
       </c>
       <c r="G164" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8394,7 +8394,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G165" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8420,7 +8420,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G166" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8446,7 +8446,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G167" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8472,7 +8472,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G168" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8498,7 +8498,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G169" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8524,7 +8524,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G170" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -8550,7 +8550,7 @@
         <v>5.26999998092651</v>
       </c>
       <c r="G171" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8576,7 +8576,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G172" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8628,7 +8628,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G174" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8680,7 +8680,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G176" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -8706,7 +8706,7 @@
         <v>5.40500020980835</v>
       </c>
       <c r="G177" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -8732,7 +8732,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G178" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -8758,7 +8758,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G179" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -8784,7 +8784,7 @@
         <v>5.27500009536743</v>
       </c>
       <c r="G180" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -8810,7 +8810,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G181" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -8836,7 +8836,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -8888,7 +8888,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G184" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -8914,7 +8914,7 @@
         <v>5.28499984741211</v>
       </c>
       <c r="G185" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -8940,7 +8940,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G186" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9018,7 +9018,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G189" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9044,7 +9044,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G190" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9070,7 +9070,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G191" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9096,7 +9096,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G192" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9122,7 +9122,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G193" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9148,7 +9148,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G194" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9174,7 +9174,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G195" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9200,7 +9200,7 @@
         <v>5.13000011444092</v>
       </c>
       <c r="G196" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9226,7 +9226,7 @@
         <v>5.11499977111816</v>
       </c>
       <c r="G197" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9252,7 +9252,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G198" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9278,7 +9278,7 @@
         <v>5.29500007629395</v>
       </c>
       <c r="G199" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9330,7 +9330,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G201" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9460,7 +9460,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G206" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9512,7 +9512,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G208" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9538,7 +9538,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G209" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9564,7 +9564,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G210" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9668,7 +9668,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G214" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9694,7 +9694,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G215" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9720,7 +9720,7 @@
         <v>5.49499988555908</v>
       </c>
       <c r="G216" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -9746,7 +9746,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G217" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -9772,7 +9772,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G218" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -9798,7 +9798,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G219" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -9824,7 +9824,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G220" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -9850,7 +9850,7 @@
         <v>5.41499996185303</v>
       </c>
       <c r="G221" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -9876,7 +9876,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G222" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -9928,7 +9928,7 @@
         <v>5.36499977111816</v>
       </c>
       <c r="G224" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -9980,7 +9980,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G226" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10006,7 +10006,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G227" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10032,7 +10032,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G228" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10058,7 +10058,7 @@
         <v>5.25</v>
       </c>
       <c r="G229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10110,7 +10110,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G231" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10162,7 +10162,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G233" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10240,7 +10240,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G236" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10266,7 +10266,7 @@
         <v>5.32499980926514</v>
       </c>
       <c r="G237" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10292,7 +10292,7 @@
         <v>5.25</v>
       </c>
       <c r="G238" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10318,7 +10318,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G239" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10370,7 +10370,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G241" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10396,7 +10396,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G242" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10422,7 +10422,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G243" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10552,7 +10552,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G248" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10578,7 +10578,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G249" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -10604,7 +10604,7 @@
         <v>5.45499992370605</v>
       </c>
       <c r="G250" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -10630,7 +10630,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G251" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10708,7 +10708,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G254" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10734,7 +10734,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G255" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -10812,7 +10812,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G258" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -10838,7 +10838,7 @@
         <v>5.70499992370605</v>
       </c>
       <c r="G259" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -10864,7 +10864,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G260" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -10890,7 +10890,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G261" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -10942,7 +10942,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G263" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -10968,7 +10968,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G264" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -10994,7 +10994,7 @@
         <v>5.7350001335144</v>
       </c>
       <c r="G265" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11020,7 +11020,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G266" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11046,7 +11046,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G267" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11072,7 +11072,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G268" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11098,7 +11098,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G269" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11124,7 +11124,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G270" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11150,7 +11150,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G271" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11176,7 +11176,7 @@
         <v>5.7649998664856</v>
       </c>
       <c r="G272" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11202,7 +11202,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G273" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11228,7 +11228,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G274" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11280,7 +11280,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G276" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11410,7 +11410,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G281" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11462,7 +11462,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G283" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11514,7 +11514,7 @@
         <v>5.72499990463257</v>
       </c>
       <c r="G285" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11540,7 +11540,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G286" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11566,7 +11566,7 @@
         <v>5.75</v>
       </c>
       <c r="G287" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11592,7 +11592,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G288" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11618,7 +11618,7 @@
         <v>5.80499982833862</v>
       </c>
       <c r="G289" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11644,7 +11644,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G290" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11670,7 +11670,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G291" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -11696,7 +11696,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G292" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11722,7 +11722,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G293" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -11748,7 +11748,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G294" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -11774,7 +11774,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G295" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -11800,7 +11800,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G296" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -11826,7 +11826,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G297" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -11852,7 +11852,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G298" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -11878,7 +11878,7 @@
         <v>5.88500022888184</v>
       </c>
       <c r="G299" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -11904,7 +11904,7 @@
         <v>6</v>
       </c>
       <c r="G300" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -11930,7 +11930,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G301" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -11956,7 +11956,7 @@
         <v>6</v>
       </c>
       <c r="G302" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -11982,7 +11982,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G303" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12008,7 +12008,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G304" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12034,7 +12034,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G305" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12060,7 +12060,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G306" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12086,7 +12086,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G307" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12112,7 +12112,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G308" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12138,7 +12138,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G309" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12164,7 +12164,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G310" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12190,7 +12190,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G311" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12216,7 +12216,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G312" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12242,7 +12242,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G313" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12268,7 +12268,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G314" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12294,7 +12294,7 @@
         <v>7</v>
       </c>
       <c r="G315" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12320,7 +12320,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G316" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12346,7 +12346,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G317" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12372,7 +12372,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G318" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12398,7 +12398,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G319" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12424,7 +12424,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G320" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12450,7 +12450,7 @@
         <v>7.20499992370605</v>
       </c>
       <c r="G321" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12476,7 +12476,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G322" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12502,7 +12502,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G323" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12528,7 +12528,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G324" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12554,7 +12554,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G325" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12580,7 +12580,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G326" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12606,7 +12606,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G327" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12632,7 +12632,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G328" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12658,7 +12658,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G329" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12684,7 +12684,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G330" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12710,7 +12710,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G331" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -12736,7 +12736,7 @@
         <v>7.34499979019165</v>
       </c>
       <c r="G332" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -12762,7 +12762,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G333" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -12788,7 +12788,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G334" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -12814,7 +12814,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G335" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -12840,7 +12840,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G336" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -12866,7 +12866,7 @@
         <v>7.45499992370605</v>
       </c>
       <c r="G337" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -12892,7 +12892,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G338" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -12918,7 +12918,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G339" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -12944,7 +12944,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G340" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -12970,7 +12970,7 @@
         <v>7.75</v>
       </c>
       <c r="G341" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -12996,7 +12996,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G342" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13022,7 +13022,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G343" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13048,7 +13048,7 @@
         <v>7.82499980926514</v>
       </c>
       <c r="G344" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13074,7 +13074,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G345" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13100,7 +13100,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G346" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13126,7 +13126,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G347" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13152,7 +13152,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G348" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13178,7 +13178,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G349" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13204,7 +13204,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G350" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13230,7 +13230,7 @@
         <v>7.66499996185303</v>
       </c>
       <c r="G351" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13256,7 +13256,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G352" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13282,7 +13282,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G353" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13308,7 +13308,7 @@
         <v>7.60500001907349</v>
       </c>
       <c r="G354" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13334,7 +13334,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G355" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13360,7 +13360,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G356" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13386,7 +13386,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G357" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13412,7 +13412,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G358" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13438,7 +13438,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G359" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13464,7 +13464,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G360" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13490,7 +13490,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G361" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13516,7 +13516,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G362" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13542,7 +13542,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G363" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13568,7 +13568,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G364" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13594,7 +13594,7 @@
         <v>7.5</v>
       </c>
       <c r="G365" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13620,7 +13620,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G366" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13646,7 +13646,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G367" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13672,7 +13672,7 @@
         <v>7.50500011444092</v>
       </c>
       <c r="G368" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13698,7 +13698,7 @@
         <v>7.52500009536743</v>
       </c>
       <c r="G369" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13724,7 +13724,7 @@
         <v>7.59499979019165</v>
       </c>
       <c r="G370" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -13750,7 +13750,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G371" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13776,7 +13776,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G372" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -13802,7 +13802,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G373" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -13828,7 +13828,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G374" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13854,7 +13854,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G375" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -13880,7 +13880,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G376" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -13906,7 +13906,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G377" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13932,7 +13932,7 @@
         <v>7.46500015258789</v>
       </c>
       <c r="G378" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13958,7 +13958,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G379" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13984,7 +13984,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14010,7 +14010,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G381" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14036,7 +14036,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G382" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14062,7 +14062,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G383" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14088,7 +14088,7 @@
         <v>7.35500001907349</v>
       </c>
       <c r="G384" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14114,7 +14114,7 @@
         <v>7.27500009536743</v>
       </c>
       <c r="G385" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14140,7 +14140,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G386" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14166,7 +14166,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G387" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14192,7 +14192,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G388" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14218,7 +14218,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G389" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14244,7 +14244,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G390" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14270,7 +14270,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G391" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14296,7 +14296,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G392" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14322,7 +14322,7 @@
         <v>7.40500020980835</v>
       </c>
       <c r="G393" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14348,7 +14348,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G394" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14374,7 +14374,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G395" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14400,7 +14400,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G396" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14426,7 +14426,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G397" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14452,7 +14452,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G398" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14478,7 +14478,7 @@
         <v>7.41499996185303</v>
       </c>
       <c r="G399" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14504,7 +14504,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G400" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14530,7 +14530,7 @@
         <v>7.41499996185303</v>
       </c>
       <c r="G401" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14556,7 +14556,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G402" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14582,7 +14582,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G403" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14608,7 +14608,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G404" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14634,7 +14634,7 @@
         <v>7.5149998664856</v>
       </c>
       <c r="G405" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14660,7 +14660,7 @@
         <v>7.46500015258789</v>
       </c>
       <c r="G406" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14686,7 +14686,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G407" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14712,7 +14712,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G408" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14738,7 +14738,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G409" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14764,7 +14764,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G410" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14790,7 +14790,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G411" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14816,7 +14816,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G412" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -14842,7 +14842,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G413" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14868,7 +14868,7 @@
         <v>7.41499996185303</v>
       </c>
       <c r="G414" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14894,7 +14894,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G415" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14920,7 +14920,7 @@
         <v>7.58500003814697</v>
       </c>
       <c r="G416" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14946,7 +14946,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G417" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14972,7 +14972,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G418" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14998,7 +14998,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G419" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15024,7 +15024,7 @@
         <v>7.74499988555908</v>
       </c>
       <c r="G420" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15050,7 +15050,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G421" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15076,7 +15076,7 @@
         <v>7.63500022888184</v>
       </c>
       <c r="G422" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15102,7 +15102,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G423" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15128,7 +15128,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G424" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15154,7 +15154,7 @@
         <v>7.54500007629395</v>
       </c>
       <c r="G425" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15180,7 +15180,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G426" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15206,7 +15206,7 @@
         <v>7.63500022888184</v>
       </c>
       <c r="G427" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15232,7 +15232,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G428" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15258,7 +15258,7 @@
         <v>7.57499980926514</v>
       </c>
       <c r="G429" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15284,7 +15284,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G430" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15310,7 +15310,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G431" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15336,7 +15336,7 @@
         <v>7.67500019073486</v>
       </c>
       <c r="G432" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15362,7 +15362,7 @@
         <v>7.52500009536743</v>
       </c>
       <c r="G433" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15388,7 +15388,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G434" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15414,7 +15414,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G435" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15440,7 +15440,7 @@
         <v>7.65500020980835</v>
       </c>
       <c r="G436" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15466,7 +15466,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G437" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15492,7 +15492,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G438" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15518,7 +15518,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G439" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15544,7 +15544,7 @@
         <v>7.88500022888184</v>
       </c>
       <c r="G440" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15570,7 +15570,7 @@
         <v>7.93499994277954</v>
       </c>
       <c r="G441" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15596,7 +15596,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G442" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15622,7 +15622,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G443" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15648,7 +15648,7 @@
         <v>8.21500015258789</v>
       </c>
       <c r="G444" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15674,7 +15674,7 @@
         <v>8.21500015258789</v>
       </c>
       <c r="G445" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15700,7 +15700,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G446" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15726,7 +15726,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G447" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15752,7 +15752,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G448" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15778,7 +15778,7 @@
         <v>7.9850001335144</v>
       </c>
       <c r="G449" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15804,7 +15804,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G450" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15830,7 +15830,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G451" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15856,7 +15856,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G452" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15882,7 +15882,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G453" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15908,7 +15908,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G454" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15934,7 +15934,7 @@
         <v>8.09500026702881</v>
       </c>
       <c r="G455" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15960,7 +15960,7 @@
         <v>7.99499988555908</v>
       </c>
       <c r="G456" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15986,7 +15986,7 @@
         <v>8</v>
       </c>
       <c r="G457" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16012,7 +16012,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G458" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16038,7 +16038,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G459" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16064,7 +16064,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G460" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16090,7 +16090,7 @@
         <v>8.01500034332275</v>
       </c>
       <c r="G461" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16116,7 +16116,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G462" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16142,7 +16142,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G463" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16168,7 +16168,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G464" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16194,7 +16194,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G465" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16220,7 +16220,7 @@
         <v>7.84499979019165</v>
       </c>
       <c r="G466" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16246,7 +16246,7 @@
         <v>7.78499984741211</v>
       </c>
       <c r="G467" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16272,7 +16272,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G468" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16298,7 +16298,7 @@
         <v>7.88500022888184</v>
       </c>
       <c r="G469" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16324,7 +16324,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G470" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16350,7 +16350,7 @@
         <v>8.0649995803833</v>
       </c>
       <c r="G471" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16376,7 +16376,7 @@
         <v>7.92500019073486</v>
       </c>
       <c r="G472" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16402,7 +16402,7 @@
         <v>8</v>
       </c>
       <c r="G473" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16428,7 +16428,7 @@
         <v>7.91499996185303</v>
       </c>
       <c r="G474" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16454,7 +16454,7 @@
         <v>7.85500001907349</v>
       </c>
       <c r="G475" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16480,7 +16480,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G476" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16506,7 +16506,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G477" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16532,7 +16532,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G478" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16558,7 +16558,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G479" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16584,7 +16584,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G480" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16610,7 +16610,7 @@
         <v>7.70499992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16636,7 +16636,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G482" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16662,7 +16662,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G483" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16688,7 +16688,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G484" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16714,7 +16714,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G485" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16740,7 +16740,7 @@
         <v>7.89499998092651</v>
       </c>
       <c r="G486" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16766,7 +16766,7 @@
         <v>7.95499992370605</v>
       </c>
       <c r="G487" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16792,7 +16792,7 @@
         <v>8</v>
       </c>
       <c r="G488" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16818,7 +16818,7 @@
         <v>7.9850001335144</v>
       </c>
       <c r="G489" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16844,7 +16844,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G490" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16870,7 +16870,7 @@
         <v>7.95499992370605</v>
       </c>
       <c r="G491" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16896,7 +16896,7 @@
         <v>7.97499990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16922,7 +16922,7 @@
         <v>7.92500019073486</v>
       </c>
       <c r="G493" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16948,7 +16948,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G494" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16974,7 +16974,7 @@
         <v>8</v>
       </c>
       <c r="G495" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17000,7 +17000,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G496" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17026,7 +17026,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G497" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17052,7 +17052,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G498" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17078,7 +17078,7 @@
         <v>8.08500003814697</v>
       </c>
       <c r="G499" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17104,7 +17104,7 @@
         <v>8.11499977111816</v>
       </c>
       <c r="G500" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17130,7 +17130,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G501" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17156,7 +17156,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G502" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17182,7 +17182,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G503" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17208,7 +17208,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G504" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17234,7 +17234,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G505" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17260,7 +17260,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G506" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17286,7 +17286,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G507" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17312,7 +17312,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G508" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17338,7 +17338,7 @@
         <v>8.25</v>
       </c>
       <c r="G509" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17364,7 +17364,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G510" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17390,7 +17390,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G511" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17416,7 +17416,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G512" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17442,7 +17442,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G513" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17468,7 +17468,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G514" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17494,7 +17494,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G515" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17520,7 +17520,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G516" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17546,7 +17546,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G517" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17572,7 +17572,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G518" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17598,7 +17598,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G519" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17624,7 +17624,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G520" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17650,7 +17650,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G521" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17676,7 +17676,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G522" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17702,7 +17702,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G523" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17728,7 +17728,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G524" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17754,7 +17754,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G525" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17780,7 +17780,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G526" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17806,7 +17806,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G527" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17832,7 +17832,7 @@
         <v>8.5</v>
       </c>
       <c r="G528" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -17858,7 +17858,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G529" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17884,7 +17884,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G530" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17910,7 +17910,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G531" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17936,7 +17936,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G532" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17962,7 +17962,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G533" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17988,7 +17988,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G534" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18014,7 +18014,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G535" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18040,7 +18040,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G536" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18066,7 +18066,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G537" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18092,7 +18092,7 @@
         <v>8</v>
       </c>
       <c r="G538" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18118,7 +18118,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G539" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18144,7 +18144,7 @@
         <v>8</v>
       </c>
       <c r="G540" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18170,7 +18170,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G541" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18196,7 +18196,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G542" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18222,7 +18222,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G543" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18248,7 +18248,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G544" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18274,7 +18274,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G545" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18300,7 +18300,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G546" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18326,7 +18326,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G547" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18352,7 +18352,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G548" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18378,7 +18378,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G549" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18404,7 +18404,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G550" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18430,7 +18430,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G551" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18456,7 +18456,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G552" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18482,7 +18482,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G553" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18508,7 +18508,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G554" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18534,7 +18534,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G555" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18560,7 +18560,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G556" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18586,7 +18586,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G557" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18612,7 +18612,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G558" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18638,7 +18638,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G559" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18664,7 +18664,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G560" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18690,7 +18690,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G561" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18716,7 +18716,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G562" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18742,7 +18742,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G563" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18768,7 +18768,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G564" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18794,7 +18794,7 @@
         <v>8.1899995803833</v>
       </c>
       <c r="G565" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18820,7 +18820,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G566" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18846,7 +18846,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G567" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18872,7 +18872,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G568" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18898,7 +18898,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G569" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18924,7 +18924,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G570" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18950,7 +18950,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G571" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18976,7 +18976,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19002,7 +19002,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G573" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19028,7 +19028,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G574" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19054,7 +19054,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G575" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19080,7 +19080,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G576" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19106,7 +19106,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G577" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19132,7 +19132,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G578" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19158,7 +19158,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G579" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19184,7 +19184,7 @@
         <v>8.25</v>
       </c>
       <c r="G580" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19210,7 +19210,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G581" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19236,7 +19236,7 @@
         <v>8.25</v>
       </c>
       <c r="G582" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19262,7 +19262,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G583" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19288,7 +19288,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G584" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19314,7 +19314,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G585" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19340,7 +19340,7 @@
         <v>8.25</v>
       </c>
       <c r="G586" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19366,7 +19366,7 @@
         <v>8.25</v>
       </c>
       <c r="G587" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19392,7 +19392,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G588" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19418,7 +19418,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G589" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19444,7 +19444,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G590" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19470,7 +19470,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G591" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19496,7 +19496,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G592" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19522,7 +19522,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G593" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19548,7 +19548,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19574,7 +19574,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G595" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19600,7 +19600,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19626,7 +19626,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G597" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19652,7 +19652,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G598" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19678,7 +19678,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G599" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19704,7 +19704,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G600" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19730,7 +19730,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G601" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19756,7 +19756,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G602" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19782,7 +19782,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G603" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19808,7 +19808,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G604" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19834,7 +19834,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G605" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19860,7 +19860,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G606" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20302,7 +20302,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20354,7 +20354,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G625" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20406,7 +20406,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G627" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -22902,7 +22902,7 @@
         <v>8.42000007629395</v>
       </c>
       <c r="G723" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23422,7 +23422,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G743" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23890,7 +23890,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G761" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -60662,7 +60662,7 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.649525463</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>42316</v>
@@ -60683,6 +60683,32 @@
         <v>1252</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.6508449074</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>65617</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>11.6999998092651</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>11.539999961853</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>11.6800003051758</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>11.539999961853</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -47,28 +47,28 @@
     <t xml:space="preserve">4.25228023529053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16279602050781</t>
+    <t xml:space="preserve">4.1627950668335</t>
   </si>
   <si>
     <t xml:space="preserve">4.04467725753784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99456596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91939926147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96951055526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95519256591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01604223251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9838273525238</t>
+    <t xml:space="preserve">3.9945650100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91939902305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96951031684875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95519351959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01604175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98382782936096</t>
   </si>
   <si>
     <t xml:space="preserve">3.89434337615967</t>
@@ -77,16 +77,16 @@
     <t xml:space="preserve">3.87286758422852</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76548719406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85855078697205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729615211487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91224026679993</t>
+    <t xml:space="preserve">3.76548743247986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85855054855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729591369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91224050521851</t>
   </si>
   <si>
     <t xml:space="preserve">3.86570858955383</t>
@@ -95,91 +95,91 @@
     <t xml:space="preserve">3.90150237083435</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95877242088318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8012797832489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79412245750427</t>
+    <t xml:space="preserve">3.9587721824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80128026008606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79412150382996</t>
   </si>
   <si>
     <t xml:space="preserve">3.78696298599243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69389986991882</t>
+    <t xml:space="preserve">3.6939001083374</t>
   </si>
   <si>
     <t xml:space="preserve">3.65810656547546</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71537566184998</t>
+    <t xml:space="preserve">3.71537590026855</t>
   </si>
   <si>
     <t xml:space="preserve">3.57936000823975</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60083699226379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70821762084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75832796096802</t>
+    <t xml:space="preserve">3.60083675384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70821690559387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7583281993866</t>
   </si>
   <si>
     <t xml:space="preserve">3.76906633377075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81559729576111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77980422973633</t>
+    <t xml:space="preserve">3.81559753417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77980446815491</t>
   </si>
   <si>
     <t xml:space="preserve">3.74759006500244</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72611379623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70105838775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76190757751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78338384628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80486059188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74401068687439</t>
+    <t xml:space="preserve">3.72611355781555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70105886459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76190805435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78338408470154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80486035346985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74400997161865</t>
   </si>
   <si>
     <t xml:space="preserve">3.77264595031738</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85139155387878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00172472000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05899524688721</t>
+    <t xml:space="preserve">3.85139179229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00172567367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05899477005005</t>
   </si>
   <si>
     <t xml:space="preserve">4.08404970169067</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06973266601562</t>
+    <t xml:space="preserve">4.06973218917847</t>
   </si>
   <si>
     <t xml:space="preserve">4.15205812454224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15921592712402</t>
+    <t xml:space="preserve">4.15921640396118</t>
   </si>
   <si>
     <t xml:space="preserve">4.13774108886719</t>
@@ -188,25 +188,25 @@
     <t xml:space="preserve">4.12342357635498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11626386642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14489936828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13058137893677</t>
+    <t xml:space="preserve">4.11626434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14489841461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13058185577393</t>
   </si>
   <si>
     <t xml:space="preserve">4.1950101852417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09836721420288</t>
+    <t xml:space="preserve">4.09836673736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.07689142227173</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16637563705444</t>
+    <t xml:space="preserve">4.16637516021729</t>
   </si>
   <si>
     <t xml:space="preserve">4.11984348297119</t>
@@ -215,13 +215,13 @@
     <t xml:space="preserve">4.16995477676392</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18069267272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18785095214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13416004180908</t>
+    <t xml:space="preserve">4.18069219589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1878514289856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1341609954834</t>
   </si>
   <si>
     <t xml:space="preserve">4.19858884811401</t>
@@ -233,55 +233,55 @@
     <t xml:space="preserve">4.09120845794678</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10706901550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09213495254517</t>
+    <t xml:space="preserve">4.10706949234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09213447570801</t>
   </si>
   <si>
     <t xml:space="preserve">4.07719993591309</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05479764938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08093404769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09586811065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11453771591187</t>
+    <t xml:space="preserve">4.05479717254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08093357086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0958685874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11453676223755</t>
   </si>
   <si>
     <t xml:space="preserve">4.12200403213501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11080265045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16680860519409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17800951004028</t>
+    <t xml:space="preserve">4.11080408096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16680812835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17800998687744</t>
   </si>
   <si>
     <t xml:space="preserve">4.18547677993774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24148273468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25268411636353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31989002227783</t>
+    <t xml:space="preserve">4.24148225784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25268363952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31988954544067</t>
   </si>
   <si>
     <t xml:space="preserve">4.2862868309021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26761817932129</t>
+    <t xml:space="preserve">4.26761865615845</t>
   </si>
   <si>
     <t xml:space="preserve">4.21908044815063</t>
@@ -290,25 +290,25 @@
     <t xml:space="preserve">4.23401546478271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20041131973267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19667768478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01746034622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99505829811096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96892309188843</t>
+    <t xml:space="preserve">4.20041179656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19667816162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01746082305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99505853652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96892189979553</t>
   </si>
   <si>
     <t xml:space="preserve">3.96145534515381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1257381439209</t>
+    <t xml:space="preserve">4.12573766708374</t>
   </si>
   <si>
     <t xml:space="preserve">4.14440631866455</t>
@@ -317,10 +317,10 @@
     <t xml:space="preserve">4.17427635192871</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26388454437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97265625</t>
+    <t xml:space="preserve">4.26388502120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97265672683716</t>
   </si>
   <si>
     <t xml:space="preserve">4.02492809295654</t>
@@ -329,166 +329,166 @@
     <t xml:space="preserve">4.04733085632324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08840084075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03986310958862</t>
+    <t xml:space="preserve">4.08840131759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03986263275146</t>
   </si>
   <si>
     <t xml:space="preserve">4.02119445800781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05853080749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.032395362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08466768264771</t>
+    <t xml:space="preserve">4.05853128433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03239488601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08466672897339</t>
   </si>
   <si>
     <t xml:space="preserve">4.11827039718628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15934181213379</t>
+    <t xml:space="preserve">4.15934085845947</t>
   </si>
   <si>
     <t xml:space="preserve">4.12947225570679</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13693904876709</t>
+    <t xml:space="preserve">4.13693857192993</t>
   </si>
   <si>
     <t xml:space="preserve">4.20414590835571</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22654819488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24895048141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18174266815186</t>
+    <t xml:space="preserve">4.22654676437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24894952774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18174362182617</t>
   </si>
   <si>
     <t xml:space="preserve">4.06226491928101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02866172790527</t>
+    <t xml:space="preserve">4.02866220474243</t>
   </si>
   <si>
     <t xml:space="preserve">3.98385739326477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98012328147888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97638964653015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95772218704224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93531894683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98759055137634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00252532958984</t>
+    <t xml:space="preserve">3.9801230430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97639012336731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9577214717865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93531918525696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98759078979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.002525806427</t>
   </si>
   <si>
     <t xml:space="preserve">4.03612947463989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93905258178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95025396347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94278621673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94652080535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86064481735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84571051597595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86811232566833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82330799102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81584095954895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077549934387</t>
+    <t xml:space="preserve">3.93905305862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95025372505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94278693199158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94651985168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86064529418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84571003913879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86811280250549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82330751419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81584143638611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077597618103</t>
   </si>
   <si>
     <t xml:space="preserve">3.81957459449768</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85317754745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95398759841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14067220687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21161270141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22281408309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09960126876831</t>
+    <t xml:space="preserve">3.85317778587341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95398807525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14067268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21161317825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22281455993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09960222244263</t>
   </si>
   <si>
     <t xml:space="preserve">4.1033353805542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0099925994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0435962677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00625944137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06599903106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92038369178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0734658241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26015138626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27135181427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31615734100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33109188079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28255319595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27881908416748</t>
+    <t xml:space="preserve">4.00999307632446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04359674453735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00625991821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06599855422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92038488388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07346534729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26015090942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27135229110718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31615686416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33109092712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28255367279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27881956100464</t>
   </si>
   <si>
     <t xml:space="preserve">4.32362413406372</t>
@@ -500,16 +500,16 @@
     <t xml:space="preserve">4.30868911743164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30495500564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27508497238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29375457763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33855867385864</t>
+    <t xml:space="preserve">4.30495548248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27508640289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29375410079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3385591506958</t>
   </si>
   <si>
     <t xml:space="preserve">4.33482503890991</t>
@@ -524,31 +524,31 @@
     <t xml:space="preserve">4.40576553344727</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42070007324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39456462860107</t>
+    <t xml:space="preserve">4.42070055007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39456415176392</t>
   </si>
   <si>
     <t xml:space="preserve">4.48043918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45430374145508</t>
+    <t xml:space="preserve">4.45430278778076</t>
   </si>
   <si>
     <t xml:space="preserve">4.51777648925781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5924506187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61485242843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5999174118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55511236190796</t>
+    <t xml:space="preserve">4.59245109558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61485195159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59991788864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55511379241943</t>
   </si>
   <si>
     <t xml:space="preserve">4.54764556884766</t>
@@ -560,7 +560,7 @@
     <t xml:space="preserve">4.76420068740845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.995689868927</t>
+    <t xml:space="preserve">4.99569034576416</t>
   </si>
   <si>
     <t xml:space="preserve">5.18984222412109</t>
@@ -569,40 +569,40 @@
     <t xml:space="preserve">5.22717952728271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48853826522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51840782165527</t>
+    <t xml:space="preserve">5.48853778839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51840734481812</t>
   </si>
   <si>
     <t xml:space="preserve">5.52587556838989</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52214193344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3802604675293</t>
+    <t xml:space="preserve">5.522141456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38026094436646</t>
   </si>
   <si>
     <t xml:space="preserve">5.36159229278564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37279319763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639734268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39519596099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44373369216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45120096206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46613597869873</t>
+    <t xml:space="preserve">5.37279367446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639638900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39519500732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44373416900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45120143890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46613645553589</t>
   </si>
   <si>
     <t xml:space="preserve">5.48480415344238</t>
@@ -611,19 +611,19 @@
     <t xml:space="preserve">5.43626642227173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42133188247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54454374313354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56694602966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91417980194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82457113265991</t>
+    <t xml:space="preserve">5.42133235931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5445442199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56694555282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91418027877808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82457160949707</t>
   </si>
   <si>
     <t xml:space="preserve">5.66028833389282</t>
@@ -635,46 +635,46 @@
     <t xml:space="preserve">5.67522287368774</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74989652633667</t>
+    <t xml:space="preserve">5.74989700317383</t>
   </si>
   <si>
     <t xml:space="preserve">5.84323978424072</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92965698242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97209453582764</t>
+    <t xml:space="preserve">5.92965793609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97209501266479</t>
   </si>
   <si>
     <t xml:space="preserve">6.01067399978638</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94123077392578</t>
+    <t xml:space="preserve">5.94123125076294</t>
   </si>
   <si>
     <t xml:space="preserve">5.93737316131592</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91422557830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72904443740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72518634796143</t>
+    <t xml:space="preserve">5.91422510147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72904491424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72518587112427</t>
   </si>
   <si>
     <t xml:space="preserve">5.86793041229248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87564563751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81006145477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77148246765137</t>
+    <t xml:space="preserve">5.87564611434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81006097793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77148199081421</t>
   </si>
   <si>
     <t xml:space="preserve">5.8717885017395</t>
@@ -683,34 +683,34 @@
     <t xml:space="preserve">5.76376628875732</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67117547988892</t>
+    <t xml:space="preserve">5.67117500305176</t>
   </si>
   <si>
     <t xml:space="preserve">5.6788911819458</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74061870574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70975589752197</t>
+    <t xml:space="preserve">5.74061822891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70975494384766</t>
   </si>
   <si>
     <t xml:space="preserve">5.78691339492798</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75605010986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.790771484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80620336532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86021423339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91808366775513</t>
+    <t xml:space="preserve">5.75604963302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79077196121216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80620288848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8602147102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91808271408081</t>
   </si>
   <si>
     <t xml:space="preserve">5.71747016906738</t>
@@ -719,10 +719,10 @@
     <t xml:space="preserve">5.82549285888672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86407232284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75990867614746</t>
+    <t xml:space="preserve">5.8640718460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7599081993103</t>
   </si>
   <si>
     <t xml:space="preserve">5.93351554870605</t>
@@ -731,31 +731,31 @@
     <t xml:space="preserve">5.81777715682983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64802837371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67503309249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61330556869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58630037307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44741439819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41655158996582</t>
+    <t xml:space="preserve">5.6480278968811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67503356933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61330604553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58629989624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4474139213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41655111312866</t>
   </si>
   <si>
     <t xml:space="preserve">5.57086801528931</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62102174758911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43198347091675</t>
+    <t xml:space="preserve">5.62102270126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43198299407959</t>
   </si>
   <si>
     <t xml:space="preserve">5.71361303329468</t>
@@ -764,19 +764,19 @@
     <t xml:space="preserve">5.69432353973389</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68274927139282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54000473022461</t>
+    <t xml:space="preserve">5.68274831771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54000520706177</t>
   </si>
   <si>
     <t xml:space="preserve">5.77919721603394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7213282585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73290252685547</t>
+    <t xml:space="preserve">5.72132873535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73290205001831</t>
   </si>
   <si>
     <t xml:space="preserve">5.74833393096924</t>
@@ -785,10 +785,10 @@
     <t xml:space="preserve">5.79462957382202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65574407577515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79848766326904</t>
+    <t xml:space="preserve">5.65574312210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79848718643188</t>
   </si>
   <si>
     <t xml:space="preserve">5.81391906738281</t>
@@ -797,10 +797,10 @@
     <t xml:space="preserve">5.88722038269043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.894935131073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87950372695923</t>
+    <t xml:space="preserve">5.89493560791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87950420379639</t>
   </si>
   <si>
     <t xml:space="preserve">5.83320903778076</t>
@@ -809,10 +809,10 @@
     <t xml:space="preserve">5.85249853134155</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97595262527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90265130996704</t>
+    <t xml:space="preserve">5.97595310211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9026517868042</t>
   </si>
   <si>
     <t xml:space="preserve">5.89107799530029</t>
@@ -821,61 +821,61 @@
     <t xml:space="preserve">5.8216347694397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84478235244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92194223403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90650939941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08397483825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12255382537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26529836654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28073072433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33859968185425</t>
+    <t xml:space="preserve">5.84478282928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92194128036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90650987625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08397531509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12255477905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26529788970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28073024749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33859920501709</t>
   </si>
   <si>
     <t xml:space="preserve">6.27301454544067</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32702589035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16113424301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21900320053101</t>
+    <t xml:space="preserve">6.32702541351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16113376617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21900367736816</t>
   </si>
   <si>
     <t xml:space="preserve">6.16499185562134</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29616165161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09554862976074</t>
+    <t xml:space="preserve">6.29616212844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0955491065979</t>
   </si>
   <si>
     <t xml:space="preserve">6.24600887298584</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16884994506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17270803451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20357131958008</t>
+    <t xml:space="preserve">6.1688494682312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17270755767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20357179641724</t>
   </si>
   <si>
     <t xml:space="preserve">6.11098098754883</t>
@@ -884,13 +884,13 @@
     <t xml:space="preserve">6.18428134918213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02610635757446</t>
+    <t xml:space="preserve">6.0261058807373</t>
   </si>
   <si>
     <t xml:space="preserve">6.15727567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19585514068604</t>
+    <t xml:space="preserve">6.19585561752319</t>
   </si>
   <si>
     <t xml:space="preserve">6.08011722564697</t>
@@ -902,40 +902,40 @@
     <t xml:space="preserve">6.0068154335022</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98752689361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22286033630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11483907699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10712289810181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06082773208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92579984664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94894695281982</t>
+    <t xml:space="preserve">5.98752641677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22286081314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11483860015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10712337493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06082725524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92579936981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94894742965698</t>
   </si>
   <si>
     <t xml:space="preserve">5.84864044189453</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08783340454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9450888633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00295829772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06468534469604</t>
+    <t xml:space="preserve">6.08783292770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94508934020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00295782089233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0646858215332</t>
   </si>
   <si>
     <t xml:space="preserve">6.09169101715088</t>
@@ -950,28 +950,28 @@
     <t xml:space="preserve">6.15341806411743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21128749847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14955997467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23829317092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26143980026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25758171081543</t>
+    <t xml:space="preserve">6.21128702163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14956045150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2382926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26144027709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25758218765259</t>
   </si>
   <si>
     <t xml:space="preserve">6.28844594955444</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36560487747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40418386459351</t>
+    <t xml:space="preserve">6.36560535430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40418434143066</t>
   </si>
   <si>
     <t xml:space="preserve">6.35017251968384</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">6.43504762649536</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58164930343628</t>
+    <t xml:space="preserve">6.58164978027344</t>
   </si>
   <si>
     <t xml:space="preserve">6.53535461425781</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">6.37332057952881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38103675842285</t>
+    <t xml:space="preserve">6.38103723526001</t>
   </si>
   <si>
     <t xml:space="preserve">6.38875246047974</t>
@@ -998,94 +998,94 @@
     <t xml:space="preserve">6.60479831695557</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55850267410278</t>
+    <t xml:space="preserve">6.55850219726562</t>
   </si>
   <si>
     <t xml:space="preserve">6.48905849456787</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47362661361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1264123916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04925394058228</t>
+    <t xml:space="preserve">6.47362756729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12641286849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04925346374512</t>
   </si>
   <si>
     <t xml:space="preserve">6.30387830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34245729446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22671890258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18042421340942</t>
+    <t xml:space="preserve">6.34245777130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22671842575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18042325973511</t>
   </si>
   <si>
     <t xml:space="preserve">6.31159400939941</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33474206924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46591091156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50449132919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45047855377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3193097114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23443460464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49677467346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44276332855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39646863937378</t>
+    <t xml:space="preserve">6.33474111557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46591186523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50449085235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45047950744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31930923461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23443508148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49677562713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44276428222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39646816253662</t>
   </si>
   <si>
     <t xml:space="preserve">6.41961574554443</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42733240127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52763891220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51992225646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59708166122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63566112518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74785757064819</t>
+    <t xml:space="preserve">6.42733144760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52763843536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51992177963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59708118438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566160202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74785804748535</t>
   </si>
   <si>
     <t xml:space="preserve">6.67573118209839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58757591247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63566017150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50743532180786</t>
+    <t xml:space="preserve">6.58757638931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566064834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50743579864502</t>
   </si>
   <si>
     <t xml:space="preserve">6.62764644622803</t>
@@ -1094,43 +1094,43 @@
     <t xml:space="preserve">6.61963224411011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56353378295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53147745132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49942064285278</t>
+    <t xml:space="preserve">6.56353330612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53147792816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49942111968994</t>
   </si>
   <si>
     <t xml:space="preserve">6.37119579315186</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39523792266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61161851882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57956266403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60360431671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65168857574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7318286895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53949165344238</t>
+    <t xml:space="preserve">6.39523839950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6116189956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57956218719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60360383987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65168905258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73182916641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53949069976807</t>
   </si>
   <si>
     <t xml:space="preserve">6.51544952392578</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55552053451538</t>
+    <t xml:space="preserve">6.55552005767822</t>
   </si>
   <si>
     <t xml:space="preserve">6.35516786575317</t>
@@ -1139,16 +1139,16 @@
     <t xml:space="preserve">6.38722372055054</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34715366363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32311153411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46736431121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48339366912842</t>
+    <t xml:space="preserve">6.34715414047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32311105728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46736478805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4833927154541</t>
   </si>
   <si>
     <t xml:space="preserve">6.45935106277466</t>
@@ -1157,16 +1157,16 @@
     <t xml:space="preserve">6.4353084564209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29906940460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42729473114014</t>
+    <t xml:space="preserve">6.29906892776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42729520797729</t>
   </si>
   <si>
     <t xml:space="preserve">6.49140787124634</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4513373374939</t>
+    <t xml:space="preserve">6.45133686065674</t>
   </si>
   <si>
     <t xml:space="preserve">6.40325212478638</t>
@@ -1178,43 +1178,43 @@
     <t xml:space="preserve">6.29105520248413</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27502632141113</t>
+    <t xml:space="preserve">6.27502679824829</t>
   </si>
   <si>
     <t xml:space="preserve">6.4112663269043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25098514556885</t>
+    <t xml:space="preserve">6.25098466873169</t>
   </si>
   <si>
     <t xml:space="preserve">6.28304100036621</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21091413497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37921047210693</t>
+    <t xml:space="preserve">6.21091461181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37920951843262</t>
   </si>
   <si>
     <t xml:space="preserve">6.36318159103394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33112525939941</t>
+    <t xml:space="preserve">6.33112573623657</t>
   </si>
   <si>
     <t xml:space="preserve">6.19488620758057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41928100585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59558963775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84402704238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01232290267944</t>
+    <t xml:space="preserve">6.41928052902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59559011459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84402751922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01232242584229</t>
   </si>
   <si>
     <t xml:space="preserve">6.82799863815308</t>
@@ -1223,31 +1223,31 @@
     <t xml:space="preserve">6.94820976257324</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93218088150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98026561737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92416715621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02835178375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90813970565796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85204124450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98828029632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04437828063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97225141525269</t>
+    <t xml:space="preserve">6.93218183517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98026609420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9241681098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02835083007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9081392288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85204076766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98828077316284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04437923431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97225189208984</t>
   </si>
   <si>
     <t xml:space="preserve">6.69977235794067</t>
@@ -1256,28 +1256,28 @@
     <t xml:space="preserve">6.75587224960327</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77991437911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78792858123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90012550354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96423816680908</t>
+    <t xml:space="preserve">6.77991390228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78792905807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90012502670288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96423768997192</t>
   </si>
   <si>
     <t xml:space="preserve">6.91615390777588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94019556045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81197118759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70778703689575</t>
+    <t xml:space="preserve">6.94019508361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81197071075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70778751373291</t>
   </si>
   <si>
     <t xml:space="preserve">6.5715479850769</t>
@@ -1286,10 +1286,10 @@
     <t xml:space="preserve">6.77189970016479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68374490737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64367485046387</t>
+    <t xml:space="preserve">6.68374538421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64367437362671</t>
   </si>
   <si>
     <t xml:space="preserve">7.06842041015625</t>
@@ -1298,31 +1298,31 @@
     <t xml:space="preserve">7.05239295959473</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12451934814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253307342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99629402160645</t>
+    <t xml:space="preserve">7.12452030181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253355026245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9962944984436</t>
   </si>
   <si>
     <t xml:space="preserve">6.73984336853027</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72381496429443</t>
+    <t xml:space="preserve">6.72381591796875</t>
   </si>
   <si>
     <t xml:space="preserve">6.83601236343384</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88409805297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66771650314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71580123901367</t>
+    <t xml:space="preserve">6.88409757614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66771697998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71580171585083</t>
   </si>
   <si>
     <t xml:space="preserve">6.54750633239746</t>
@@ -1331,94 +1331,94 @@
     <t xml:space="preserve">6.76388597488403</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10047769546509</t>
+    <t xml:space="preserve">7.10047674179077</t>
   </si>
   <si>
     <t xml:space="preserve">7.14054775238037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18863248825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17260408401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11650705337524</t>
+    <t xml:space="preserve">7.18863201141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17260360717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11650562286377</t>
   </si>
   <si>
     <t xml:space="preserve">7.23671674728394</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25274515151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19664573669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22870302200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20465993881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29281568527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38898420333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28480100631714</t>
+    <t xml:space="preserve">7.25274562835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19664621353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22870254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20466089248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29281616210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38898468017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2848014831543</t>
   </si>
   <si>
     <t xml:space="preserve">7.3328857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45309734344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50919532775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55728101730347</t>
+    <t xml:space="preserve">7.45309686660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50919580459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55728054046631</t>
   </si>
   <si>
     <t xml:space="preserve">7.51720952987671</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41302728652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48515367507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44508361816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49316787719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81373119354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77366018295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75763273239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52522373199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54125165939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53323698043823</t>
+    <t xml:space="preserve">7.41302680969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48515319824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4450831413269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49316740036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81373023986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77365875244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75763368606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52522420883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54125213623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53323793411255</t>
   </si>
   <si>
     <t xml:space="preserve">7.66146326065063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63742113113403</t>
+    <t xml:space="preserve">7.63742065429688</t>
   </si>
   <si>
     <t xml:space="preserve">7.61337852478027</t>
@@ -1427,28 +1427,28 @@
     <t xml:space="preserve">7.6053638458252</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57330846786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79770183563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85380125045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91791439056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96599817276001</t>
+    <t xml:space="preserve">7.57330894470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79770231246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85380077362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91791534423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96599912643433</t>
   </si>
   <si>
     <t xml:space="preserve">7.97401189804077</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19039249420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23847770690918</t>
+    <t xml:space="preserve">8.19039344787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23847675323486</t>
   </si>
   <si>
     <t xml:space="preserve">8.07819557189941</t>
@@ -1460,55 +1460,55 @@
     <t xml:space="preserve">8.00606918334961</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87784337997437</t>
+    <t xml:space="preserve">7.87784481048584</t>
   </si>
   <si>
     <t xml:space="preserve">7.94195604324341</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03011226654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93394231796265</t>
+    <t xml:space="preserve">8.03011131286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93394136428833</t>
   </si>
   <si>
     <t xml:space="preserve">7.99004077911377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01408386230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98202657699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90188598632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89387226104736</t>
+    <t xml:space="preserve">8.01408290863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98202610015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90188455581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89387178421021</t>
   </si>
   <si>
     <t xml:space="preserve">7.8698296546936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14230918884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35067558288574</t>
+    <t xml:space="preserve">8.14230728149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35067367553711</t>
   </si>
   <si>
     <t xml:space="preserve">8.33464622497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71932125091553</t>
+    <t xml:space="preserve">8.71932411193848</t>
   </si>
   <si>
     <t xml:space="preserve">9.1039981842041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97577285766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63918018341064</t>
+    <t xml:space="preserve">8.97577381134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63918209075928</t>
   </si>
   <si>
     <t xml:space="preserve">8.89563274383545</t>
@@ -1523,70 +1523,70 @@
     <t xml:space="preserve">8.37959575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49552059173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41271781921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72736644744873</t>
+    <t xml:space="preserve">8.49551963806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41271686553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72736549377441</t>
   </si>
   <si>
     <t xml:space="preserve">8.47895908355713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31335353851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1725902557373</t>
+    <t xml:space="preserve">8.3133544921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17259120941162</t>
   </si>
   <si>
     <t xml:space="preserve">8.28023433685303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26367282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.363037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42927837371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52864074707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51208019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29679489135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87641048431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94265174865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10825634002686</t>
+    <t xml:space="preserve">8.26367378234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36303615570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42927742004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52864170074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5120792388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29679393768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87641143798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94265270233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10825729370117</t>
   </si>
   <si>
     <t xml:space="preserve">8.7770471572876</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62800407409668</t>
+    <t xml:space="preserve">8.62800312042236</t>
   </si>
   <si>
     <t xml:space="preserve">8.81016826629639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67768478393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74392795562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84328842163086</t>
+    <t xml:space="preserve">8.67768383026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74392700195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84329032897949</t>
   </si>
   <si>
     <t xml:space="preserve">8.61144256591797</t>
@@ -1595,25 +1595,25 @@
     <t xml:space="preserve">8.64456367492676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59488296508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69424533843994</t>
+    <t xml:space="preserve">8.59488201141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69424438476562</t>
   </si>
   <si>
     <t xml:space="preserve">8.90953063964844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44583702087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66112422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19743156433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34647560119629</t>
+    <t xml:space="preserve">8.44583797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66112518310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19743061065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34647464752197</t>
   </si>
   <si>
     <t xml:space="preserve">8.27195358276367</t>
@@ -1637,61 +1637,61 @@
     <t xml:space="preserve">8.24711227416992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12290954589844</t>
+    <t xml:space="preserve">8.12290859222412</t>
   </si>
   <si>
     <t xml:space="preserve">8.18087100982666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46239852905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39615726470947</t>
+    <t xml:space="preserve">8.46239948272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39615821838379</t>
   </si>
   <si>
     <t xml:space="preserve">8.18915176391602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15603065490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5617618560791</t>
+    <t xml:space="preserve">8.15602970123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56176090240479</t>
   </si>
   <si>
     <t xml:space="preserve">9.32354354858398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90316009521484</t>
+    <t xml:space="preserve">9.90315914154053</t>
   </si>
   <si>
     <t xml:space="preserve">10.1515665054321</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0190830230713</t>
+    <t xml:space="preserve">10.019082069397</t>
   </si>
   <si>
     <t xml:space="preserve">10.3502922058105</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4993371963501</t>
+    <t xml:space="preserve">10.4993362426758</t>
   </si>
   <si>
     <t xml:space="preserve">10.4330949783325</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5655784606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7311820983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.095513343811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9630289077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1451950073242</t>
+    <t xml:space="preserve">10.565577507019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.731183052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0955123901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9630279541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1451940536499</t>
   </si>
   <si>
     <t xml:space="preserve">10.7974233627319</t>
@@ -1700,25 +1700,25 @@
     <t xml:space="preserve">10.7477426528931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5158977508545</t>
+    <t xml:space="preserve">10.5158967971802</t>
   </si>
   <si>
     <t xml:space="preserve">10.466215133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4496555328369</t>
+    <t xml:space="preserve">10.4496536254883</t>
   </si>
   <si>
     <t xml:space="preserve">10.4827756881714</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2840509414673</t>
+    <t xml:space="preserve">10.284049987793</t>
   </si>
   <si>
     <t xml:space="preserve">10.3171701431274</t>
   </si>
   <si>
-    <t xml:space="preserve">10.118444442749</t>
+    <t xml:space="preserve">10.1184453964233</t>
   </si>
   <si>
     <t xml:space="preserve">10.5324573516846</t>
@@ -1730,40 +1730,40 @@
     <t xml:space="preserve">11.0789527893066</t>
   </si>
   <si>
-    <t xml:space="preserve">10.830545425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5821390151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6980619430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9464683532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8802261352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8967866897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0292701721191</t>
+    <t xml:space="preserve">10.8305444717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5821371078491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6980609893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9464693069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8802270889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8967885971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0292720794678</t>
   </si>
   <si>
     <t xml:space="preserve">11.2279968261719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2611169815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2114372253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1948766708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.178316116333</t>
+    <t xml:space="preserve">11.261118888855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2114353179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1948747634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1783151626587</t>
   </si>
   <si>
     <t xml:space="preserve">11.2445573806763</t>
@@ -1778,19 +1778,19 @@
     <t xml:space="preserve">11.5757656097412</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7579317092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6420087814331</t>
+    <t xml:space="preserve">11.7579298019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6420097351074</t>
   </si>
   <si>
     <t xml:space="preserve">11.873854637146</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7910528182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7248106002808</t>
+    <t xml:space="preserve">11.791051864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7248115539551</t>
   </si>
   <si>
     <t xml:space="preserve">11.8076124191284</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">11.7413711547852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7082509994507</t>
+    <t xml:space="preserve">11.7082500457764</t>
   </si>
   <si>
     <t xml:space="preserve">11.5923271179199</t>
@@ -1808,22 +1808,22 @@
     <t xml:space="preserve">11.4101610183716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6318197250366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6649398803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2343692779541</t>
+    <t xml:space="preserve">10.6318206787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6649408340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2343683242798</t>
   </si>
   <si>
     <t xml:space="preserve">9.82035732269287</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0853233337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4891471862793</t>
+    <t xml:space="preserve">10.0853252410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48914813995361</t>
   </si>
   <si>
     <t xml:space="preserve">9.02545356750488</t>
@@ -1835,22 +1835,22 @@
     <t xml:space="preserve">7.93246364593506</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96558380126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91590309143066</t>
+    <t xml:space="preserve">7.96558523178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91590404510498</t>
   </si>
   <si>
     <t xml:space="preserve">9.15793800354004</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92609024047852</t>
+    <t xml:space="preserve">8.92609214782715</t>
   </si>
   <si>
     <t xml:space="preserve">8.85984897613525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00889301300049</t>
+    <t xml:space="preserve">9.0088939666748</t>
   </si>
   <si>
     <t xml:space="preserve">9.52226829528809</t>
@@ -1859,22 +1859,22 @@
     <t xml:space="preserve">9.9859619140625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62163066864014</t>
+    <t xml:space="preserve">9.62163162231445</t>
   </si>
   <si>
     <t xml:space="preserve">9.43946647644043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91971969604492</t>
+    <t xml:space="preserve">9.91971874237061</t>
   </si>
   <si>
     <t xml:space="preserve">9.38978481292725</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37322521209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63819217681885</t>
+    <t xml:space="preserve">9.37322330474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63819122314453</t>
   </si>
   <si>
     <t xml:space="preserve">9.42290592193604</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">9.67131328582764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40634536743164</t>
+    <t xml:space="preserve">9.40634441375732</t>
   </si>
   <si>
     <t xml:space="preserve">9.57195091247559</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">9.7375545501709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47258567810059</t>
+    <t xml:space="preserve">9.47258758544922</t>
   </si>
   <si>
     <t xml:space="preserve">9.82956409454346</t>
@@ -1904,25 +1904,25 @@
     <t xml:space="preserve">9.64053440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52024173736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17655086517334</t>
+    <t xml:space="preserve">9.52024269104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17655181884766</t>
   </si>
   <si>
     <t xml:space="preserve">8.98752117156982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19373607635498</t>
+    <t xml:space="preserve">9.19373512268066</t>
   </si>
   <si>
     <t xml:space="preserve">9.70927238464355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43431949615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26247310638428</t>
+    <t xml:space="preserve">9.43431854248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26247406005859</t>
   </si>
   <si>
     <t xml:space="preserve">9.21092128753662</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">9.48587322235107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86393260955811</t>
+    <t xml:space="preserve">9.86393356323242</t>
   </si>
   <si>
     <t xml:space="preserve">10.0185947418213</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">10.1560707092285</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8434534072876</t>
+    <t xml:space="preserve">10.8434524536133</t>
   </si>
   <si>
     <t xml:space="preserve">10.6372385025024</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">10.8950071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7575311660767</t>
+    <t xml:space="preserve">10.7575302124023</t>
   </si>
   <si>
     <t xml:space="preserve">10.7918996810913</t>
@@ -1958,19 +1958,19 @@
     <t xml:space="preserve">10.8606376647949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8090829849243</t>
+    <t xml:space="preserve">10.8090839385986</t>
   </si>
   <si>
     <t xml:space="preserve">10.5169467926025</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4482078552246</t>
+    <t xml:space="preserve">10.4482088088989</t>
   </si>
   <si>
     <t xml:space="preserve">10.2419939041138</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7059755325317</t>
+    <t xml:space="preserve">10.7059764862061</t>
   </si>
   <si>
     <t xml:space="preserve">10.7747144699097</t>
@@ -1979,16 +1979,16 @@
     <t xml:space="preserve">10.9121913909912</t>
   </si>
   <si>
-    <t xml:space="preserve">10.826268196106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1527757644653</t>
+    <t xml:space="preserve">10.8262691497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.152774810791</t>
   </si>
   <si>
     <t xml:space="preserve">11.4620971679688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4964666366577</t>
+    <t xml:space="preserve">11.4964656829834</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449119567871</t>
@@ -1997,22 +1997,22 @@
     <t xml:space="preserve">11.4105424880981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5480184555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2902507781982</t>
+    <t xml:space="preserve">11.5480194091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2902526855469</t>
   </si>
   <si>
     <t xml:space="preserve">11.238697052002</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3761739730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5995740890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7542352676392</t>
+    <t xml:space="preserve">11.3761730194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.599573135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7542343139648</t>
   </si>
   <si>
     <t xml:space="preserve">11.7714195251465</t>
@@ -2024,40 +2024,40 @@
     <t xml:space="preserve">12.0291872024536</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2010335922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0807409286499</t>
+    <t xml:space="preserve">12.2010326385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0807418823242</t>
   </si>
   <si>
     <t xml:space="preserve">12.0979261398315</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1151113510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1322937011719</t>
+    <t xml:space="preserve">12.1151103973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1322946548462</t>
   </si>
   <si>
     <t xml:space="preserve">11.9776334762573</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8401565551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8573417663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4792814254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1355905532837</t>
+    <t xml:space="preserve">11.8401575088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8573408126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4792804718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1355895996094</t>
   </si>
   <si>
     <t xml:space="preserve">11.1184053421021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3074350357056</t>
+    <t xml:space="preserve">11.3074359893799</t>
   </si>
   <si>
     <t xml:space="preserve">11.4277276992798</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">11.2043285369873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3418045043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2215127944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3246202468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.101222038269</t>
+    <t xml:space="preserve">11.3418054580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2215137481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3246221542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1012201309204</t>
   </si>
   <si>
     <t xml:space="preserve">11.1871452331543</t>
@@ -2084,28 +2084,28 @@
     <t xml:space="preserve">11.0496673583984</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9637451171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1699600219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9981145858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.513650894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6854972839355</t>
+    <t xml:space="preserve">10.9637441635132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1699590682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9981136322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5136499404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6854963302612</t>
   </si>
   <si>
     <t xml:space="preserve">11.6167583465576</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2730674743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3933591842651</t>
+    <t xml:space="preserve">11.2730665206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3933582305908</t>
   </si>
   <si>
     <t xml:space="preserve">11.5823888778687</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">11.5652046203613</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9088945388794</t>
+    <t xml:space="preserve">11.9088954925537</t>
   </si>
   <si>
     <t xml:space="preserve">11.8229722976685</t>
@@ -2123,13 +2123,13 @@
     <t xml:space="preserve">12.2354021072388</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0635557174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9432640075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5513162612915</t>
+    <t xml:space="preserve">12.0635566711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9432649612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5513153076172</t>
   </si>
   <si>
     <t xml:space="preserve">10.6544227600098</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">11.3589897155762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7886037826538</t>
+    <t xml:space="preserve">11.7886028289795</t>
   </si>
   <si>
     <t xml:space="preserve">11.7370500564575</t>
@@ -2156,16 +2156,16 @@
     <t xml:space="preserve">11.8917102813721</t>
   </si>
   <si>
-    <t xml:space="preserve">11.994818687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0463714599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9604482650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8057870864868</t>
+    <t xml:space="preserve">11.9948177337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0463724136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.96044921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8057880401611</t>
   </si>
   <si>
     <t xml:space="preserve">11.6339426040649</t>
@@ -2177,16 +2177,16 @@
     <t xml:space="preserve">12.4416160583496</t>
   </si>
   <si>
-    <t xml:space="preserve">12.372878074646</t>
+    <t xml:space="preserve">12.3728771209717</t>
   </si>
   <si>
     <t xml:space="preserve">12.4072465896606</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993846893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0087060928345</t>
+    <t xml:space="preserve">12.6993837356567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0087070465088</t>
   </si>
   <si>
     <t xml:space="preserve">13.3008441925049</t>
@@ -2201,19 +2201,19 @@
     <t xml:space="preserve">12.6822004318237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4759855270386</t>
+    <t xml:space="preserve">12.4759864807129</t>
   </si>
   <si>
     <t xml:space="preserve">12.5275392532349</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2525863647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6306467056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6650152206421</t>
+    <t xml:space="preserve">12.2525854110718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6306447982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6650142669678</t>
   </si>
   <si>
     <t xml:space="preserve">12.7853078842163</t>
@@ -2225,10 +2225,10 @@
     <t xml:space="preserve">12.8024911880493</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9743366241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1118135452271</t>
+    <t xml:space="preserve">12.9743385314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1118144989014</t>
   </si>
   <si>
     <t xml:space="preserve">13.2149209976196</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">13.1977367401123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6273498535156</t>
+    <t xml:space="preserve">13.6273508071899</t>
   </si>
   <si>
     <t xml:space="preserve">13.7476425170898</t>
@@ -2249,19 +2249,19 @@
     <t xml:space="preserve">13.7132730484009</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5929803848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5242433547974</t>
+    <t xml:space="preserve">13.592981338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.524242401123</t>
   </si>
   <si>
     <t xml:space="preserve">13.3523979187012</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6101655960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9194889068604</t>
+    <t xml:space="preserve">13.6101665496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.919487953186</t>
   </si>
   <si>
     <t xml:space="preserve">14.0225954055786</t>
@@ -2276,25 +2276,25 @@
     <t xml:space="preserve">14.6068706512451</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8474531173706</t>
+    <t xml:space="preserve">14.8474550247192</t>
   </si>
   <si>
     <t xml:space="preserve">15.0364856719971</t>
   </si>
   <si>
-    <t xml:space="preserve">15.070855140686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0192995071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6927938461304</t>
+    <t xml:space="preserve">15.0708541870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0192985534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6927928924561</t>
   </si>
   <si>
     <t xml:space="preserve">14.3834705352783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5896863937378</t>
+    <t xml:space="preserve">14.5896854400635</t>
   </si>
   <si>
     <t xml:space="preserve">14.6756076812744</t>
@@ -2303,25 +2303,25 @@
     <t xml:space="preserve">14.4178400039673</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6240549087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5725011825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7959003448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7443466186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.156774520874</t>
+    <t xml:space="preserve">14.6240558624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5725002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7958993911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.744345664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1567754745483</t>
   </si>
   <si>
     <t xml:space="preserve">14.9505615234375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0536699295044</t>
+    <t xml:space="preserve">15.0536680221558</t>
   </si>
   <si>
     <t xml:space="preserve">15.2942514419556</t>
@@ -2330,19 +2330,19 @@
     <t xml:space="preserve">15.3819484710693</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9960832595825</t>
+    <t xml:space="preserve">14.9960842132568</t>
   </si>
   <si>
     <t xml:space="preserve">14.9610061645508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9434661865234</t>
+    <t xml:space="preserve">14.9434671401978</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837812423706</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1013193130493</t>
+    <t xml:space="preserve">15.101318359375</t>
   </si>
   <si>
     <t xml:space="preserve">15.1890153884888</t>
@@ -2360,19 +2360,19 @@
     <t xml:space="preserve">15.0136251449585</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7856140136719</t>
+    <t xml:space="preserve">14.7856130599976</t>
   </si>
   <si>
     <t xml:space="preserve">14.592679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">15.118857383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8557710647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8031511306763</t>
+    <t xml:space="preserve">15.1188592910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.855770111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8031520843506</t>
   </si>
   <si>
     <t xml:space="preserve">14.7680730819702</t>
@@ -2384,10 +2384,10 @@
     <t xml:space="preserve">15.1363983154297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0311622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.153938293457</t>
+    <t xml:space="preserve">15.0311613082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1539392471313</t>
   </si>
   <si>
     <t xml:space="preserve">14.9785442352295</t>
@@ -2396,13 +2396,13 @@
     <t xml:space="preserve">14.7329940795898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8908472061157</t>
+    <t xml:space="preserve">14.89084815979</t>
   </si>
   <si>
     <t xml:space="preserve">14.7505340576172</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1714763641357</t>
+    <t xml:space="preserve">15.1714754104614</t>
   </si>
   <si>
     <t xml:space="preserve">15.0662422180176</t>
@@ -2411,10 +2411,10 @@
     <t xml:space="preserve">15.3293294906616</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3468685150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8206911087036</t>
+    <t xml:space="preserve">15.3468704223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8206901550293</t>
   </si>
   <si>
     <t xml:space="preserve">15.5398015975952</t>
@@ -2423,37 +2423,37 @@
     <t xml:space="preserve">15.6099576950073</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5222616195679</t>
+    <t xml:space="preserve">15.5222635269165</t>
   </si>
   <si>
     <t xml:space="preserve">15.5748805999756</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7853507995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9607458114624</t>
+    <t xml:space="preserve">15.7853517532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9607448577881</t>
   </si>
   <si>
     <t xml:space="preserve">16.1887531280518</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0309028625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327337265015</t>
+    <t xml:space="preserve">16.0309009552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327356338501</t>
   </si>
   <si>
     <t xml:space="preserve">16.2413730621338</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5921573638916</t>
+    <t xml:space="preserve">16.5921592712402</t>
   </si>
   <si>
     <t xml:space="preserve">16.4167652130127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2589111328125</t>
+    <t xml:space="preserve">16.2589130401611</t>
   </si>
   <si>
     <t xml:space="preserve">16.1536769866943</t>
@@ -2462,19 +2462,19 @@
     <t xml:space="preserve">16.136137008667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9256658554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0835189819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9782810211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8379697799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6976566314697</t>
+    <t xml:space="preserve">15.9256649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0835208892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9782819747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8379688262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6976537704468</t>
   </si>
   <si>
     <t xml:space="preserve">15.662576675415</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">15.6274976730347</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9958229064941</t>
+    <t xml:space="preserve">15.9958238601685</t>
   </si>
   <si>
     <t xml:space="preserve">15.8204317092896</t>
@@ -2492,49 +2492,49 @@
     <t xml:space="preserve">15.7151937484741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.645037651062</t>
+    <t xml:space="preserve">15.6450366973877</t>
   </si>
   <si>
     <t xml:space="preserve">14.6452989578247</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4699048995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4874458312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2591724395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.399486541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3644104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2416343688965</t>
+    <t xml:space="preserve">14.4699058532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4874448776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2591733932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3994874954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.364408493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2416324615479</t>
   </si>
   <si>
     <t xml:space="preserve">15.2240953445435</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2065553665161</t>
+    <t xml:space="preserve">15.2065563201904</t>
   </si>
   <si>
     <t xml:space="preserve">16.3466091156006</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0659790039062</t>
+    <t xml:space="preserve">16.0659809112549</t>
   </si>
   <si>
     <t xml:space="preserve">15.8730487823486</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3117895126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6102199554443</t>
+    <t xml:space="preserve">15.3117904663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6102209091187</t>
   </si>
   <si>
     <t xml:space="preserve">14.5576028823853</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">14.5225229263306</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2945127487183</t>
+    <t xml:space="preserve">14.2945117950439</t>
   </si>
   <si>
     <t xml:space="preserve">14.3295917510986</t>
@@ -2558,10 +2558,10 @@
     <t xml:space="preserve">13.8560314178467</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0314245223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1191205978394</t>
+    <t xml:space="preserve">14.0314235687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.119119644165</t>
   </si>
   <si>
     <t xml:space="preserve">14.2769746780396</t>
@@ -2573,22 +2573,22 @@
     <t xml:space="preserve">14.3822088241577</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8735704421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.084041595459</t>
+    <t xml:space="preserve">13.8735694885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0840406417847</t>
   </si>
   <si>
     <t xml:space="preserve">14.2594347000122</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8209533691406</t>
+    <t xml:space="preserve">13.8209524154663</t>
   </si>
   <si>
     <t xml:space="preserve">14.066502571106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9437265396118</t>
+    <t xml:space="preserve">13.9437274932861</t>
   </si>
   <si>
     <t xml:space="preserve">13.5227842330933</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">12.9966058731079</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4350872039795</t>
+    <t xml:space="preserve">13.4350881576538</t>
   </si>
   <si>
     <t xml:space="preserve">13.1369199752808</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">13.0492238998413</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510557174683</t>
+    <t xml:space="preserve">12.7510566711426</t>
   </si>
   <si>
     <t xml:space="preserve">12.5230445861816</t>
@@ -2624,13 +2624,13 @@
     <t xml:space="preserve">12.330114364624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7685966491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4879665374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2599563598633</t>
+    <t xml:space="preserve">12.7685956954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4879674911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.259955406189</t>
   </si>
   <si>
     <t xml:space="preserve">12.3651924133301</t>
@@ -2639,16 +2639,16 @@
     <t xml:space="preserve">12.4528884887695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1897993087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9617891311646</t>
+    <t xml:space="preserve">12.1898002624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9617881774902</t>
   </si>
   <si>
     <t xml:space="preserve">11.8039350509644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8565530776978</t>
+    <t xml:space="preserve">11.8565540313721</t>
   </si>
   <si>
     <t xml:space="preserve">11.4531497955322</t>
@@ -2657,13 +2657,13 @@
     <t xml:space="preserve">10.786657333374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2777557373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2251386642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8392753601074</t>
+    <t xml:space="preserve">11.277756690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2251396179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8392744064331</t>
   </si>
   <si>
     <t xml:space="preserve">10.7691173553467</t>
@@ -2672,25 +2672,25 @@
     <t xml:space="preserve">10.5411071777344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0850849151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1026258468628</t>
+    <t xml:space="preserve">10.0850858688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1026248931885</t>
   </si>
   <si>
     <t xml:space="preserve">9.8921537399292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1727828979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85707473754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0675458908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5761871337891</t>
+    <t xml:space="preserve">10.1727819442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85707569122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0675468444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5761852264404</t>
   </si>
   <si>
     <t xml:space="preserve">9.92723178863525</t>
@@ -2699,10 +2699,10 @@
     <t xml:space="preserve">10.9795894622803</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2076005935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8918933868408</t>
+    <t xml:space="preserve">11.2075996398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8918924331665</t>
   </si>
   <si>
     <t xml:space="preserve">11.0848245620728</t>
@@ -2714,25 +2714,25 @@
     <t xml:space="preserve">10.6814212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7164993286133</t>
+    <t xml:space="preserve">10.7165002822876</t>
   </si>
   <si>
     <t xml:space="preserve">10.6288032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4183320999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4534101486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2429399490356</t>
+    <t xml:space="preserve">10.4183330535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4534111022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2429389953613</t>
   </si>
   <si>
     <t xml:space="preserve">10.1552429199219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69922161102295</t>
+    <t xml:space="preserve">9.69922256469727</t>
   </si>
   <si>
     <t xml:space="preserve">9.80445766448975</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">9.90969276428223</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71676063537598</t>
+    <t xml:space="preserve">9.71676158905029</t>
   </si>
   <si>
     <t xml:space="preserve">9.82199573516846</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">9.64660358428955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96230983734131</t>
+    <t xml:space="preserve">9.96231079101562</t>
   </si>
   <si>
     <t xml:space="preserve">10.3306350708008</t>
@@ -2759,16 +2759,16 @@
     <t xml:space="preserve">10.1903209686279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5937242507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1374425888062</t>
+    <t xml:space="preserve">10.5937252044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1374416351318</t>
   </si>
   <si>
     <t xml:space="preserve">11.0497465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6463422775269</t>
+    <t xml:space="preserve">10.6463432312012</t>
   </si>
   <si>
     <t xml:space="preserve">10.488489151001</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">10.2707347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.633659362793</t>
+    <t xml:space="preserve">10.6336584091187</t>
   </si>
   <si>
     <t xml:space="preserve">10.6699514389038</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">10.8332662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.415904045105</t>
+    <t xml:space="preserve">10.4159049987793</t>
   </si>
   <si>
     <t xml:space="preserve">10.6518049240112</t>
@@ -2816,10 +2816,10 @@
     <t xml:space="preserve">11.7950134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6861371994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.813159942627</t>
+    <t xml:space="preserve">11.6861362457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8131608963013</t>
   </si>
   <si>
     <t xml:space="preserve">11.7224292755127</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">11.5954055786133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6135520935059</t>
+    <t xml:space="preserve">11.6135530471802</t>
   </si>
   <si>
     <t xml:space="preserve">10.5973663330078</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">11.0147285461426</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0328741073608</t>
+    <t xml:space="preserve">11.0328750610352</t>
   </si>
   <si>
     <t xml:space="preserve">11.3232126235962</t>
@@ -2900,25 +2900,25 @@
     <t xml:space="preserve">11.2869205474854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0873126983643</t>
+    <t xml:space="preserve">11.0873136520386</t>
   </si>
   <si>
     <t xml:space="preserve">10.6880970001221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3070268630981</t>
+    <t xml:space="preserve">10.3070278167725</t>
   </si>
   <si>
     <t xml:space="preserve">10.1618576049805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90781211853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0529804229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1800050735474</t>
+    <t xml:space="preserve">9.90781116485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0529813766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.180004119873</t>
   </si>
   <si>
     <t xml:space="preserve">10.3614664077759</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">10.4703435897827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4521980285645</t>
+    <t xml:space="preserve">10.4521970748901</t>
   </si>
   <si>
     <t xml:space="preserve">10.0348358154297</t>
@@ -2936,28 +2936,28 @@
     <t xml:space="preserve">9.92595767974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74449634552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85337352752686</t>
+    <t xml:space="preserve">9.7444953918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85337257385254</t>
   </si>
   <si>
     <t xml:space="preserve">9.78078842163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99854278564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59932708740234</t>
+    <t xml:space="preserve">9.99854373931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59932613372803</t>
   </si>
   <si>
     <t xml:space="preserve">10.0892734527588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1074199676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1255664825439</t>
+    <t xml:space="preserve">10.1074190139771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1255655288696</t>
   </si>
   <si>
     <t xml:space="preserve">10.1981506347656</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">10.3796119689941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.923996925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1961898803711</t>
+    <t xml:space="preserve">10.9239978790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1961908340454</t>
   </si>
   <si>
     <t xml:space="preserve">11.4683828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1034994125366</t>
+    <t xml:space="preserve">12.1034984588623</t>
   </si>
   <si>
     <t xml:space="preserve">11.9038906097412</t>
@@ -2993,25 +2993,25 @@
     <t xml:space="preserve">11.4320907592773</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4139442443848</t>
+    <t xml:space="preserve">11.4139432907104</t>
   </si>
   <si>
     <t xml:space="preserve">12.012767791748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0853519439697</t>
+    <t xml:space="preserve">12.085352897644</t>
   </si>
   <si>
     <t xml:space="preserve">12.7567615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1741228103638</t>
+    <t xml:space="preserve">13.1741237640381</t>
   </si>
   <si>
     <t xml:space="preserve">13.2104158401489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9926614761353</t>
+    <t xml:space="preserve">12.9926605224609</t>
   </si>
   <si>
     <t xml:space="preserve">12.7386150360107</t>
@@ -3020,13 +3020,13 @@
     <t xml:space="preserve">12.4119834899902</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3756923675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478843688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6115913391113</t>
+    <t xml:space="preserve">12.3756914138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478834152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6115922927856</t>
   </si>
   <si>
     <t xml:space="preserve">12.684175491333</t>
@@ -3038,22 +3038,22 @@
     <t xml:space="preserve">12.4845685958862</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9200763702393</t>
+    <t xml:space="preserve">12.9200773239136</t>
   </si>
   <si>
     <t xml:space="preserve">13.0652456283569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1378307342529</t>
+    <t xml:space="preserve">13.1378297805786</t>
   </si>
   <si>
     <t xml:space="preserve">13.1015377044678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0108070373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2285614013672</t>
+    <t xml:space="preserve">13.0108079910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2285623550415</t>
   </si>
   <si>
     <t xml:space="preserve">13.1922693252563</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">12.8656387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8474912643433</t>
+    <t xml:space="preserve">12.8474922180176</t>
   </si>
   <si>
     <t xml:space="preserve">12.7930536270142</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">13.645923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8092393875122</t>
+    <t xml:space="preserve">13.8092403411865</t>
   </si>
   <si>
     <t xml:space="preserve">13.8455324172974</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">13.9362621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4443559646606</t>
+    <t xml:space="preserve">14.4443550109863</t>
   </si>
   <si>
     <t xml:space="preserve">14.0995779037476</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">14.3717708587646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3173313140869</t>
+    <t xml:space="preserve">14.3173322677612</t>
   </si>
   <si>
     <t xml:space="preserve">14.3354787826538</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">14.226601600647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.154016494751</t>
+    <t xml:space="preserve">14.1540174484253</t>
   </si>
   <si>
     <t xml:space="preserve">14.2810401916504</t>
@@ -3134,13 +3134,13 @@
     <t xml:space="preserve">14.3899164199829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8798637390137</t>
+    <t xml:space="preserve">14.8798627853394</t>
   </si>
   <si>
     <t xml:space="preserve">14.4625015258789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4806470870972</t>
+    <t xml:space="preserve">14.4806480407715</t>
   </si>
   <si>
     <t xml:space="preserve">14.4987936019897</t>
@@ -3149,16 +3149,16 @@
     <t xml:space="preserve">14.662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4423942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5694189071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.478687286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6420021057129</t>
+    <t xml:space="preserve">15.4423952102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5694179534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4786882400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6420030593872</t>
   </si>
   <si>
     <t xml:space="preserve">15.5149803161621</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">15.8597564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9141969680786</t>
+    <t xml:space="preserve">15.9141960144043</t>
   </si>
   <si>
     <t xml:space="preserve">16.2589721679688</t>
@@ -3185,22 +3185,22 @@
     <t xml:space="preserve">16.1138038635254</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0412197113037</t>
+    <t xml:space="preserve">16.0412178039551</t>
   </si>
   <si>
     <t xml:space="preserve">16.0775108337402</t>
   </si>
   <si>
-    <t xml:space="preserve">15.82346534729</t>
+    <t xml:space="preserve">15.8234643936157</t>
   </si>
   <si>
     <t xml:space="preserve">15.769024848938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.242787361145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2064943313599</t>
+    <t xml:space="preserve">15.2427864074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2064952850342</t>
   </si>
   <si>
     <t xml:space="preserve">15.8053188323975</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">15.9686336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.986780166626</t>
+    <t xml:space="preserve">15.9867811203003</t>
   </si>
   <si>
     <t xml:space="preserve">15.841609954834</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">16.131950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2952632904053</t>
+    <t xml:space="preserve">16.2952651977539</t>
   </si>
   <si>
     <t xml:space="preserve">16.8033580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8396492004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0574035644531</t>
+    <t xml:space="preserve">16.8396511077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0574054718018</t>
   </si>
   <si>
     <t xml:space="preserve">16.7489185333252</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">15.2790794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1157627105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0976161956787</t>
+    <t xml:space="preserve">15.1157646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.097617149353</t>
   </si>
   <si>
     <t xml:space="preserve">15.333517074585</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">15.460542678833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5331258773804</t>
+    <t xml:space="preserve">15.533127784729</t>
   </si>
   <si>
     <t xml:space="preserve">15.406102180481</t>
@@ -60688,7 +60688,7 @@
     </row>
     <row r="2177">
       <c r="A2177" s="1" t="n">
-        <v>45492.6508449074</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B2177" t="n">
         <v>65617</v>
@@ -60709,6 +60709,32 @@
         <v>1229</v>
       </c>
       <c r="H2177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>45495.6495601852</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>29136</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>11.7399997711182</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>11.5799999237061</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>11.6599998474121</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>11.7399997711182</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H2178" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ZV.MI.xlsx
+++ b/data/ZV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1254">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,49 +44,49 @@
     <t xml:space="preserve">ZV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25228023529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1627950668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04467725753784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9945650100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91939902305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96951031684875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95519351959229</t>
+    <t xml:space="preserve">4.25227975845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16279554367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04467630386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99456548690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91939949989319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96951055526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95519280433655</t>
   </si>
   <si>
     <t xml:space="preserve">4.01604175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98382782936096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89434337615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87286758422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76548743247986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85855054855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93729591369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91224050521851</t>
+    <t xml:space="preserve">3.98382806777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89434289932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87286806106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76548767089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85854983329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93729543685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91224074363708</t>
   </si>
   <si>
     <t xml:space="preserve">3.86570858955383</t>
@@ -101,250 +101,253 @@
     <t xml:space="preserve">3.80128026008606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79412150382996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78696298599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6939001083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65810656547546</t>
+    <t xml:space="preserve">3.79412198066711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78696250915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69389915466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65810608863831</t>
   </si>
   <si>
     <t xml:space="preserve">3.71537590026855</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57936000823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60083675384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70821690559387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7583281993866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76906633377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81559753417969</t>
+    <t xml:space="preserve">3.5793604850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60083603858948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70821666717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75832772254944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76906609535217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81559824943542</t>
   </si>
   <si>
     <t xml:space="preserve">3.77980446815491</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74759006500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72611355781555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70105886459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76190805435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78338408470154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80486035346985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74400997161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77264595031738</t>
+    <t xml:space="preserve">3.74759030342102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72611331939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70105910301208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76190733909607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78338313102722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80485987663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74401044845581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7726457118988</t>
   </si>
   <si>
     <t xml:space="preserve">3.85139179229736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00172567367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05899477005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08404970169067</t>
+    <t xml:space="preserve">4.00172472000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05899429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08405017852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06973266601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15205764770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15921640396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13774013519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12342309951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11626482009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14489889144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13058137893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19500970840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09836721420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07689142227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16637516021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11984395980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16995477676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18069362640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18785190582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13416147232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19858884811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14131927490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09120845794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10706901550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09213447570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07719993591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05479764938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08093357086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0958685874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11453723907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12200403213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11080312728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16680812835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17800903320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18547773361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24148273468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25268411636353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31989002227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2862868309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26761865615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21907997131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23401498794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20041179656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19667816162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01746082305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99505758285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96892237663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96145462989807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12573766708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14440679550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17427635192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26388454437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97265648841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02492761611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04733085632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08840131759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03986310958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02119445800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05853176116943</t>
   </si>
   <si>
     <t xml:space="preserve">4.06973218917847</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15205812454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15921640396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13774108886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12342357635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11626434326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14489841461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13058185577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1950101852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09836673736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07689142227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16637516021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11984348297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16995477676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18069219589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1878514289856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1341609954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19858884811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1413197517395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09120845794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10706949234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09213447570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07719993591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05479717254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08093357086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0958685874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11453676223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12200403213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11080408096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16680812835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17800998687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18547677993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24148225784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25268363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31988954544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2862868309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26761865615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21908044815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23401546478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20041179656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19667816162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01746082305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99505853652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96892189979553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96145534515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12573766708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14440631866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17427635192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26388502120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97265672683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02492809295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04733085632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08840131759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03986263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02119445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05853128433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03239488601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08466672897339</t>
+    <t xml:space="preserve">4.032395362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08466720581055</t>
   </si>
   <si>
     <t xml:space="preserve">4.11827039718628</t>
@@ -353,46 +356,46 @@
     <t xml:space="preserve">4.15934085845947</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12947225570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13693857192993</t>
+    <t xml:space="preserve">4.12947130203247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13693952560425</t>
   </si>
   <si>
     <t xml:space="preserve">4.20414590835571</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22654676437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24894952774048</t>
+    <t xml:space="preserve">4.22654724121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24895048141479</t>
   </si>
   <si>
     <t xml:space="preserve">4.18174362182617</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06226491928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02866220474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98385739326477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9801230430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97639012336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9577214717865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93531918525696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98759078979492</t>
+    <t xml:space="preserve">4.06226396560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02866172790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98385715484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98012375831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97639036178589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95772123336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93531942367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98759150505066</t>
   </si>
   <si>
     <t xml:space="preserve">4.002525806427</t>
@@ -413,28 +416,28 @@
     <t xml:space="preserve">3.94651985168457</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86064529418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84571003913879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86811280250549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82330751419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81584143638611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83077597618103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81957459449768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85317778587341</t>
+    <t xml:space="preserve">3.86064577102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84571051597595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86811208724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82330799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81584095954895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83077573776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8195743560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85317730903625</t>
   </si>
   <si>
     <t xml:space="preserve">3.95398807525635</t>
@@ -446,55 +449,55 @@
     <t xml:space="preserve">4.21161317825317</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22281455993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09960222244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1033353805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00999307632446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04359674453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00625991821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06599855422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92038488388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07346534729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26015090942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27135229110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31615686416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33109092712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28255367279053</t>
+    <t xml:space="preserve">4.22281408309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09960174560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10333585739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00999355316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0435962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00625944137573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06599903106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92038416862488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0734658241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26015138626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27135133743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3161563873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33109140396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28255319595337</t>
   </si>
   <si>
     <t xml:space="preserve">4.27881956100464</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32362413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34229278564453</t>
+    <t xml:space="preserve">4.32362365722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34229230880737</t>
   </si>
   <si>
     <t xml:space="preserve">4.30868911743164</t>
@@ -503,22 +506,22 @@
     <t xml:space="preserve">4.30495548248291</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27508640289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29375410079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3385591506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33482503890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36842823028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36096096038818</t>
+    <t xml:space="preserve">4.27508544921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29375457763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33855867385864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33482456207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3684287071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36096143722534</t>
   </si>
   <si>
     <t xml:space="preserve">4.40576553344727</t>
@@ -527,91 +530,91 @@
     <t xml:space="preserve">4.42070055007935</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39456415176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48043918609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45430278778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51777648925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59245109558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61485195159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59991788864136</t>
+    <t xml:space="preserve">4.39456462860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48043870925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45430374145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51777696609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59245014190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61485290527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5999174118042</t>
   </si>
   <si>
     <t xml:space="preserve">4.55511379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54764556884766</t>
+    <t xml:space="preserve">4.54764604568481</t>
   </si>
   <si>
     <t xml:space="preserve">4.6297869682312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76420068740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99569034576416</t>
+    <t xml:space="preserve">4.76420021057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99569082260132</t>
   </si>
   <si>
     <t xml:space="preserve">5.18984222412109</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22717952728271</t>
+    <t xml:space="preserve">5.22717905044556</t>
   </si>
   <si>
     <t xml:space="preserve">5.48853778839111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51840734481812</t>
+    <t xml:space="preserve">5.51840782165527</t>
   </si>
   <si>
     <t xml:space="preserve">5.52587556838989</t>
   </si>
   <si>
-    <t xml:space="preserve">5.522141456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38026094436646</t>
+    <t xml:space="preserve">5.52214193344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38026142120361</t>
   </si>
   <si>
     <t xml:space="preserve">5.36159229278564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37279367446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40639638900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39519500732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44373416900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45120143890381</t>
+    <t xml:space="preserve">5.37279319763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40639686584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39519548416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44373369216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45120096206665</t>
   </si>
   <si>
     <t xml:space="preserve">5.46613645553589</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48480415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43626642227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42133235931396</t>
+    <t xml:space="preserve">5.48480463027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43626689910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42133140563965</t>
   </si>
   <si>
     <t xml:space="preserve">5.5445442199707</t>
@@ -623,31 +626,31 @@
     <t xml:space="preserve">5.91418027877808</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82457160949707</t>
+    <t xml:space="preserve">5.82457113265991</t>
   </si>
   <si>
     <t xml:space="preserve">5.66028833389282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78723382949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67522287368774</t>
+    <t xml:space="preserve">5.78723478317261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6752233505249</t>
   </si>
   <si>
     <t xml:space="preserve">5.74989700317383</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84323978424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92965793609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97209501266479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01067399978638</t>
+    <t xml:space="preserve">5.84323930740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92965745925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97209453582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01067447662354</t>
   </si>
   <si>
     <t xml:space="preserve">5.94123125076294</t>
@@ -656,7 +659,7 @@
     <t xml:space="preserve">5.93737316131592</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91422510147095</t>
+    <t xml:space="preserve">5.91422557830811</t>
   </si>
   <si>
     <t xml:space="preserve">5.72904491424561</t>
@@ -671,7 +674,7 @@
     <t xml:space="preserve">5.87564611434937</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81006097793579</t>
+    <t xml:space="preserve">5.81006193161011</t>
   </si>
   <si>
     <t xml:space="preserve">5.77148199081421</t>
@@ -686,55 +689,55 @@
     <t xml:space="preserve">5.67117500305176</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6788911819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74061822891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70975494384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78691339492798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75604963302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79077196121216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80620288848877</t>
+    <t xml:space="preserve">5.67889165878296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74061870574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70975542068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78691291809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75605010986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.790771484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80620384216309</t>
   </si>
   <si>
     <t xml:space="preserve">5.8602147102356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91808271408081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71747016906738</t>
+    <t xml:space="preserve">5.91808366775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71746969223022</t>
   </si>
   <si>
     <t xml:space="preserve">5.82549285888672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8640718460083</t>
+    <t xml:space="preserve">5.86407279968262</t>
   </si>
   <si>
     <t xml:space="preserve">5.7599081993103</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93351554870605</t>
+    <t xml:space="preserve">5.9335150718689</t>
   </si>
   <si>
     <t xml:space="preserve">5.81777715682983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6480278968811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67503356933594</t>
+    <t xml:space="preserve">5.64802742004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67503309249878</t>
   </si>
   <si>
     <t xml:space="preserve">5.61330604553223</t>
@@ -743,37 +746,37 @@
     <t xml:space="preserve">5.58629989624023</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4474139213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41655111312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57086801528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62102270126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43198299407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71361303329468</t>
+    <t xml:space="preserve">5.44741439819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41655158996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57086849212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62102174758911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43198251724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71361255645752</t>
   </si>
   <si>
     <t xml:space="preserve">5.69432353973389</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68274831771851</t>
+    <t xml:space="preserve">5.68274927139282</t>
   </si>
   <si>
     <t xml:space="preserve">5.54000520706177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77919721603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72132873535156</t>
+    <t xml:space="preserve">5.77919769287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7213282585144</t>
   </si>
   <si>
     <t xml:space="preserve">5.73290205001831</t>
@@ -791,10 +794,10 @@
     <t xml:space="preserve">5.79848718643188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81391906738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88722038269043</t>
+    <t xml:space="preserve">5.81391954421997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88721990585327</t>
   </si>
   <si>
     <t xml:space="preserve">5.89493560791016</t>
@@ -803,28 +806,28 @@
     <t xml:space="preserve">5.87950420379639</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83320903778076</t>
+    <t xml:space="preserve">5.8332085609436</t>
   </si>
   <si>
     <t xml:space="preserve">5.85249853134155</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97595310211182</t>
+    <t xml:space="preserve">5.97595262527466</t>
   </si>
   <si>
     <t xml:space="preserve">5.9026517868042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89107799530029</t>
+    <t xml:space="preserve">5.89107847213745</t>
   </si>
   <si>
     <t xml:space="preserve">5.8216347694397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84478282928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92194128036499</t>
+    <t xml:space="preserve">5.84478235244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92194223403931</t>
   </si>
   <si>
     <t xml:space="preserve">5.90650987625122</t>
@@ -839,28 +842,28 @@
     <t xml:space="preserve">6.26529788970947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28073024749756</t>
+    <t xml:space="preserve">6.28073072433472</t>
   </si>
   <si>
     <t xml:space="preserve">6.33859920501709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27301454544067</t>
+    <t xml:space="preserve">6.27301406860352</t>
   </si>
   <si>
     <t xml:space="preserve">6.32702541351318</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16113376617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21900367736816</t>
+    <t xml:space="preserve">6.16113424301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21900320053101</t>
   </si>
   <si>
     <t xml:space="preserve">6.16499185562134</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29616212844849</t>
+    <t xml:space="preserve">6.29616165161133</t>
   </si>
   <si>
     <t xml:space="preserve">6.0955491065979</t>
@@ -869,28 +872,28 @@
     <t xml:space="preserve">6.24600887298584</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1688494682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17270755767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20357179641724</t>
+    <t xml:space="preserve">6.16884994506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17270803451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20357084274292</t>
   </si>
   <si>
     <t xml:space="preserve">6.11098098754883</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18428134918213</t>
+    <t xml:space="preserve">6.18428182601929</t>
   </si>
   <si>
     <t xml:space="preserve">6.0261058807373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15727567672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19585561752319</t>
+    <t xml:space="preserve">6.15727615356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19585466384888</t>
   </si>
   <si>
     <t xml:space="preserve">6.08011722564697</t>
@@ -899,7 +902,7 @@
     <t xml:space="preserve">6.05311155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0068154335022</t>
+    <t xml:space="preserve">6.00681591033936</t>
   </si>
   <si>
     <t xml:space="preserve">5.98752641677856</t>
@@ -911,16 +914,16 @@
     <t xml:space="preserve">6.11483860015869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10712337493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06082725524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92579936981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94894742965698</t>
+    <t xml:space="preserve">6.10712289810181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06082773208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92579984664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94894695281982</t>
   </si>
   <si>
     <t xml:space="preserve">5.84864044189453</t>
@@ -932,16 +935,16 @@
     <t xml:space="preserve">5.94508934020996</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00295782089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0646858215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09169101715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13798666000366</t>
+    <t xml:space="preserve">6.00295829772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06468534469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09169054031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1379861831665</t>
   </si>
   <si>
     <t xml:space="preserve">6.13412809371948</t>
@@ -950,10 +953,10 @@
     <t xml:space="preserve">6.15341806411743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21128702163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14956045150757</t>
+    <t xml:space="preserve">6.21128749847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14955949783325</t>
   </si>
   <si>
     <t xml:space="preserve">6.2382926940918</t>
@@ -962,13 +965,13 @@
     <t xml:space="preserve">6.26144027709961</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25758218765259</t>
+    <t xml:space="preserve">6.25758171081543</t>
   </si>
   <si>
     <t xml:space="preserve">6.28844594955444</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36560535430908</t>
+    <t xml:space="preserve">6.36560440063477</t>
   </si>
   <si>
     <t xml:space="preserve">6.40418434143066</t>
@@ -977,127 +980,124 @@
     <t xml:space="preserve">6.35017251968384</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43504762649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58164978027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53535461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37332057952881</t>
+    <t xml:space="preserve">6.43504810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58164930343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53535509109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37332105636597</t>
   </si>
   <si>
     <t xml:space="preserve">6.38103723526001</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38875246047974</t>
+    <t xml:space="preserve">6.38875198364258</t>
   </si>
   <si>
     <t xml:space="preserve">6.60479831695557</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55850219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48905849456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47362756729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12641286849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04925346374512</t>
+    <t xml:space="preserve">6.55850172042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48905897140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4736270904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1264123916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04925394058228</t>
   </si>
   <si>
     <t xml:space="preserve">6.30387830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34245777130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22671842575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18042325973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31159400939941</t>
+    <t xml:space="preserve">6.34245729446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22671890258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18042421340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31159448623657</t>
   </si>
   <si>
     <t xml:space="preserve">6.33474111557007</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46591186523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50449085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45047950744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31930923461914</t>
+    <t xml:space="preserve">6.46591138839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50449132919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45047903060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3193097114563</t>
   </si>
   <si>
     <t xml:space="preserve">6.23443508148193</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49677562713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44276428222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39646816253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41961574554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42733144760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52763843536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51992177963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59708118438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63566160202026</t>
+    <t xml:space="preserve">6.49677467346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4427638053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39646863937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41961622238159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42733192443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52763891220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51992321014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59708166122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63566064834595</t>
   </si>
   <si>
     <t xml:space="preserve">6.74785804748535</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67573118209839</t>
+    <t xml:space="preserve">6.67573070526123</t>
   </si>
   <si>
     <t xml:space="preserve">6.58757638931274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63566064834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50743579864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62764644622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61963224411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56353330612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53147792816162</t>
+    <t xml:space="preserve">6.5074348449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62764692306519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61963272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56353425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53147745132446</t>
   </si>
   <si>
     <t xml:space="preserve">6.49942111968994</t>
@@ -1106,25 +1106,25 @@
     <t xml:space="preserve">6.37119579315186</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39523839950562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6116189956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57956218719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60360383987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65168905258179</t>
+    <t xml:space="preserve">6.39523792266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61161804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57956266403198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60360431671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65168857574463</t>
   </si>
   <si>
     <t xml:space="preserve">6.73182916641235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53949069976807</t>
+    <t xml:space="preserve">6.53949117660522</t>
   </si>
   <si>
     <t xml:space="preserve">6.51544952392578</t>
@@ -1133,22 +1133,22 @@
     <t xml:space="preserve">6.55552005767822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35516786575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38722372055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34715414047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32311105728149</t>
+    <t xml:space="preserve">6.35516738891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38722324371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34715366363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32311201095581</t>
   </si>
   <si>
     <t xml:space="preserve">6.46736478805542</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4833927154541</t>
+    <t xml:space="preserve">6.48339366912842</t>
   </si>
   <si>
     <t xml:space="preserve">6.45935106277466</t>
@@ -1160,25 +1160,25 @@
     <t xml:space="preserve">6.29906892776489</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42729520797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49140787124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45133686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40325212478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33913946151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29105520248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27502679824829</t>
+    <t xml:space="preserve">6.42729473114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49140739440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4513373374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40325164794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33913993835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29105472564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27502632141113</t>
   </si>
   <si>
     <t xml:space="preserve">6.4112663269043</t>
@@ -1187,19 +1187,19 @@
     <t xml:space="preserve">6.25098466873169</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28304100036621</t>
+    <t xml:space="preserve">6.28304052352905</t>
   </si>
   <si>
     <t xml:space="preserve">6.21091461181641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37920951843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36318159103394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33112573623657</t>
+    <t xml:space="preserve">6.37921047210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36318206787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33112621307373</t>
   </si>
   <si>
     <t xml:space="preserve">6.19488620758057</t>
@@ -1208,19 +1208,19 @@
     <t xml:space="preserve">6.41928052902222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59559011459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84402751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01232242584229</t>
+    <t xml:space="preserve">6.59558963775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84402656555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01232290267944</t>
   </si>
   <si>
     <t xml:space="preserve">6.82799863815308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94820976257324</t>
+    <t xml:space="preserve">6.9482102394104</t>
   </si>
   <si>
     <t xml:space="preserve">6.93218183517456</t>
@@ -1232,46 +1232,46 @@
     <t xml:space="preserve">6.9241681098938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02835083007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9081392288208</t>
+    <t xml:space="preserve">7.02835130691528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90813970565796</t>
   </si>
   <si>
     <t xml:space="preserve">6.85204076766968</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98828077316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04437923431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97225189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69977235794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75587224960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77991390228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78792905807495</t>
+    <t xml:space="preserve">6.98828029632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04437828063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97225141525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69977283477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75587272644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77991437911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78792858123779</t>
   </si>
   <si>
     <t xml:space="preserve">6.90012502670288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96423768997192</t>
+    <t xml:space="preserve">6.96423816680908</t>
   </si>
   <si>
     <t xml:space="preserve">6.91615390777588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94019508361816</t>
+    <t xml:space="preserve">6.94019556045532</t>
   </si>
   <si>
     <t xml:space="preserve">6.81197071075439</t>
@@ -1280,10 +1280,10 @@
     <t xml:space="preserve">6.70778751373291</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5715479850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77189970016479</t>
+    <t xml:space="preserve">6.57154846191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77190017700195</t>
   </si>
   <si>
     <t xml:space="preserve">6.68374538421631</t>
@@ -1301,52 +1301,52 @@
     <t xml:space="preserve">7.12452030181885</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13253355026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9962944984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984336853027</t>
+    <t xml:space="preserve">7.13253307342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99629402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984384536743</t>
   </si>
   <si>
     <t xml:space="preserve">6.72381591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83601236343384</t>
+    <t xml:space="preserve">6.83601188659668</t>
   </si>
   <si>
     <t xml:space="preserve">6.88409757614136</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66771697998047</t>
+    <t xml:space="preserve">6.66771650314331</t>
   </si>
   <si>
     <t xml:space="preserve">6.71580171585083</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54750633239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76388597488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10047674179077</t>
+    <t xml:space="preserve">6.5475058555603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76388549804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10047721862793</t>
   </si>
   <si>
     <t xml:space="preserve">7.14054775238037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18863201141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17260360717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11650562286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23671674728394</t>
+    <t xml:space="preserve">7.18863344192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17260408401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11650657653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23671627044678</t>
   </si>
   <si>
     <t xml:space="preserve">7.25274562835693</t>
@@ -1355,31 +1355,31 @@
     <t xml:space="preserve">7.19664621353149</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22870254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20466089248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29281616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38898468017578</t>
+    <t xml:space="preserve">7.22870349884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20465993881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29281568527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38898372650146</t>
   </si>
   <si>
     <t xml:space="preserve">7.2848014831543</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3328857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45309686660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50919580459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55728054046631</t>
+    <t xml:space="preserve">7.33288669586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45309782028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50919532775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55728006362915</t>
   </si>
   <si>
     <t xml:space="preserve">7.51720952987671</t>
@@ -1388,67 +1388,67 @@
     <t xml:space="preserve">7.41302680969238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48515319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4450831413269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49316740036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81373023986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77365875244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75763368606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52522420883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54125213623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53323793411255</t>
+    <t xml:space="preserve">7.48515367507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44508266448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49316787719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81373071670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77366018295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75763177871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52522373199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54125165939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53323745727539</t>
   </si>
   <si>
     <t xml:space="preserve">7.66146326065063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63742065429688</t>
+    <t xml:space="preserve">7.63742208480835</t>
   </si>
   <si>
     <t xml:space="preserve">7.61337852478027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6053638458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57330894470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79770231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85380077362061</t>
+    <t xml:space="preserve">7.60536527633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57330751419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79770183563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85380172729492</t>
   </si>
   <si>
     <t xml:space="preserve">7.91791534423828</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96599912643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97401189804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19039344787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23847675323486</t>
+    <t xml:space="preserve">7.96599769592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97401142120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19039249420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23847770690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.07819557189941</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">8.00606918334961</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87784481048584</t>
+    <t xml:space="preserve">7.87784337997437</t>
   </si>
   <si>
     <t xml:space="preserve">7.94195604324341</t>
@@ -1469,46 +1469,46 @@
     <t xml:space="preserve">8.03011131286621</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93394136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99004077911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01408290863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98202610015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90188455581665</t>
+    <t xml:space="preserve">7.93394184112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99003982543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01408386230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98202657699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90188598632812</t>
   </si>
   <si>
     <t xml:space="preserve">7.89387178421021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8698296546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14230728149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35067367553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33464622497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71932411193848</t>
+    <t xml:space="preserve">7.86983013153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14230823516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35067462921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33464527130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71932125091553</t>
   </si>
   <si>
     <t xml:space="preserve">9.1039981842041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97577381134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63918209075928</t>
+    <t xml:space="preserve">8.9757719039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63918113708496</t>
   </si>
   <si>
     <t xml:space="preserve">8.89563274383545</t>
@@ -1523,70 +1523,70 @@
     <t xml:space="preserve">8.37959575653076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49551963806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41271686553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72736549377441</t>
+    <t xml:space="preserve">8.49552059173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41271781921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72736644744873</t>
   </si>
   <si>
     <t xml:space="preserve">8.47895908355713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3133544921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17259120941162</t>
+    <t xml:space="preserve">8.31335353851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1725902557373</t>
   </si>
   <si>
     <t xml:space="preserve">8.28023433685303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26367378234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36303615570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42927742004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52864170074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5120792388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29679393768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87641143798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94265270233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10825729370117</t>
+    <t xml:space="preserve">8.26367282867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.363037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42927837371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52864074707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51208019256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29679489135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87641048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94265174865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10825634002686</t>
   </si>
   <si>
     <t xml:space="preserve">8.7770471572876</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62800312042236</t>
+    <t xml:space="preserve">8.62800407409668</t>
   </si>
   <si>
     <t xml:space="preserve">8.81016826629639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67768383026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74392700195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84329032897949</t>
+    <t xml:space="preserve">8.67768478393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74392795562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84328842163086</t>
   </si>
   <si>
     <t xml:space="preserve">8.61144256591797</t>
@@ -1595,25 +1595,25 @@
     <t xml:space="preserve">8.64456367492676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59488201141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69424438476562</t>
+    <t xml:space="preserve">8.59488296508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69424533843994</t>
   </si>
   <si>
     <t xml:space="preserve">8.90953063964844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44583797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66112518310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19743061065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34647464752197</t>
+    <t xml:space="preserve">8.44583702087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66112422943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19743156433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34647560119629</t>
   </si>
   <si>
     <t xml:space="preserve">8.27195358276367</t>
@@ -1637,61 +1637,61 @@
     <t xml:space="preserve">8.24711227416992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12290859222412</t>
+    <t xml:space="preserve">8.12290954589844</t>
   </si>
   <si>
     <t xml:space="preserve">8.18087100982666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46239948272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39615821838379</t>
+    <t xml:space="preserve">8.46239852905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39615726470947</t>
   </si>
   <si>
     <t xml:space="preserve">8.18915176391602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15602970123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56176090240479</t>
+    <t xml:space="preserve">8.15603065490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5617618560791</t>
   </si>
   <si>
     <t xml:space="preserve">9.32354354858398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90315914154053</t>
+    <t xml:space="preserve">9.90316009521484</t>
   </si>
   <si>
     <t xml:space="preserve">10.1515665054321</t>
   </si>
   <si>
-    <t xml:space="preserve">10.019082069397</t>
+    <t xml:space="preserve">10.0190830230713</t>
   </si>
   <si>
     <t xml:space="preserve">10.3502922058105</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4993362426758</t>
+    <t xml:space="preserve">10.4993371963501</t>
   </si>
   <si>
     <t xml:space="preserve">10.4330949783325</t>
   </si>
   <si>
-    <t xml:space="preserve">10.565577507019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.731183052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0955123901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9630279541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1451940536499</t>
+    <t xml:space="preserve">10.5655784606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7311820983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.095513343811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9630289077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1451950073242</t>
   </si>
   <si>
     <t xml:space="preserve">10.7974233627319</t>
@@ -1700,25 +1700,25 @@
     <t xml:space="preserve">10.7477426528931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5158967971802</t>
+    <t xml:space="preserve">10.5158977508545</t>
   </si>
   <si>
     <t xml:space="preserve">10.466215133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4496536254883</t>
+    <t xml:space="preserve">10.4496555328369</t>
   </si>
   <si>
     <t xml:space="preserve">10.4827756881714</t>
   </si>
   <si>
-    <t xml:space="preserve">10.284049987793</t>
+    <t xml:space="preserve">10.2840509414673</t>
   </si>
   <si>
     <t xml:space="preserve">10.3171701431274</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1184453964233</t>
+    <t xml:space="preserve">10.118444442749</t>
   </si>
   <si>
     <t xml:space="preserve">10.5324573516846</t>
@@ -1730,40 +1730,40 @@
     <t xml:space="preserve">11.0789527893066</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8305444717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5821371078491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6980609893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9464693069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8802270889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8967885971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0292720794678</t>
+    <t xml:space="preserve">10.830545425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5821390151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6980619430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9464683532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8802261352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8967866897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0292701721191</t>
   </si>
   <si>
     <t xml:space="preserve">11.2279968261719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.261118888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2114353179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1948747634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1783151626587</t>
+    <t xml:space="preserve">11.2611169815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2114372253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1948766708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.178316116333</t>
   </si>
   <si>
     <t xml:space="preserve">11.2445573806763</t>
@@ -1778,19 +1778,19 @@
     <t xml:space="preserve">11.5757656097412</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7579298019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6420097351074</t>
+    <t xml:space="preserve">11.7579317092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6420087814331</t>
   </si>
   <si>
     <t xml:space="preserve">11.873854637146</t>
   </si>
   <si>
-    <t xml:space="preserve">11.791051864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7248115539551</t>
+    <t xml:space="preserve">11.7910528182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7248106002808</t>
   </si>
   <si>
     <t xml:space="preserve">11.8076124191284</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">11.7413711547852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7082500457764</t>
+    <t xml:space="preserve">11.7082509994507</t>
   </si>
   <si>
     <t xml:space="preserve">11.5923271179199</t>
@@ -1808,22 +1808,22 @@
     <t xml:space="preserve">11.4101610183716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6318206787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6649408340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2343683242798</t>
+    <t xml:space="preserve">10.6318197250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6649398803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2343692779541</t>
   </si>
   <si>
     <t xml:space="preserve">9.82035732269287</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0853252410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48914813995361</t>
+    <t xml:space="preserve">10.0853233337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4891471862793</t>
   </si>
   <si>
     <t xml:space="preserve">9.02545356750488</t>
@@ -1835,22 +1835,22 @@
     <t xml:space="preserve">7.93246364593506</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96558523178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91590404510498</t>
+    <t xml:space="preserve">7.96558380126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91590309143066</t>
   </si>
   <si>
     <t xml:space="preserve">9.15793800354004</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92609214782715</t>
+    <t xml:space="preserve">8.92609024047852</t>
   </si>
   <si>
     <t xml:space="preserve">8.85984897613525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0088939666748</t>
+    <t xml:space="preserve">9.00889301300049</t>
   </si>
   <si>
     <t xml:space="preserve">9.52226829528809</t>
@@ -1859,22 +1859,22 @@
     <t xml:space="preserve">9.9859619140625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62163162231445</t>
+    <t xml:space="preserve">9.62163066864014</t>
   </si>
   <si>
     <t xml:space="preserve">9.43946647644043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91971874237061</t>
+    <t xml:space="preserve">9.91971969604492</t>
   </si>
   <si>
     <t xml:space="preserve">9.38978481292725</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37322330474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63819122314453</t>
+    <t xml:space="preserve">9.37322521209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63819217681885</t>
   </si>
   <si>
     <t xml:space="preserve">9.42290592193604</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">9.67131328582764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40634441375732</t>
+    <t xml:space="preserve">9.40634536743164</t>
   </si>
   <si>
     <t xml:space="preserve">9.57195091247559</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">9.7375545501709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47258758544922</t>
+    <t xml:space="preserve">9.47258567810059</t>
   </si>
   <si>
     <t xml:space="preserve">9.82956409454346</t>
@@ -1904,25 +1904,25 @@
     <t xml:space="preserve">9.64053440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52024269104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17655181884766</t>
+    <t xml:space="preserve">9.52024173736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17655086517334</t>
   </si>
   <si>
     <t xml:space="preserve">8.98752117156982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19373512268066</t>
+    <t xml:space="preserve">9.19373607635498</t>
   </si>
   <si>
     <t xml:space="preserve">9.70927238464355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43431854248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26247406005859</t>
+    <t xml:space="preserve">9.43431949615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26247310638428</t>
   </si>
   <si>
     <t xml:space="preserve">9.21092128753662</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">9.48587322235107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86393356323242</t>
+    <t xml:space="preserve">9.86393260955811</t>
   </si>
   <si>
     <t xml:space="preserve">10.0185947418213</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">10.1560707092285</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8434524536133</t>
+    <t xml:space="preserve">10.8434534072876</t>
   </si>
   <si>
     <t xml:space="preserve">10.6372385025024</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">10.8950071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7575302124023</t>
+    <t xml:space="preserve">10.7575311660767</t>
   </si>
   <si>
     <t xml:space="preserve">10.7918996810913</t>
@@ -1958,19 +1958,19 @@
     <t xml:space="preserve">10.8606376647949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8090839385986</t>
+    <t xml:space="preserve">10.8090829849243</t>
   </si>
   <si>
     <t xml:space="preserve">10.5169467926025</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4482088088989</t>
+    <t xml:space="preserve">10.4482078552246</t>
   </si>
   <si>
     <t xml:space="preserve">10.2419939041138</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7059764862061</t>
+    <t xml:space="preserve">10.7059755325317</t>
   </si>
   <si>
     <t xml:space="preserve">10.7747144699097</t>
@@ -1979,16 +1979,16 @@
     <t xml:space="preserve">10.9121913909912</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8262691497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.152774810791</t>
+    <t xml:space="preserve">10.826268196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1527757644653</t>
   </si>
   <si>
     <t xml:space="preserve">11.4620971679688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4964656829834</t>
+    <t xml:space="preserve">11.4964666366577</t>
   </si>
   <si>
     <t xml:space="preserve">11.4449119567871</t>
@@ -1997,22 +1997,22 @@
     <t xml:space="preserve">11.4105424880981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5480194091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2902526855469</t>
+    <t xml:space="preserve">11.5480184555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2902507781982</t>
   </si>
   <si>
     <t xml:space="preserve">11.238697052002</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3761730194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.599573135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7542343139648</t>
+    <t xml:space="preserve">11.3761739730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5995740890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7542352676392</t>
   </si>
   <si>
     <t xml:space="preserve">11.7714195251465</t>
@@ -2024,40 +2024,40 @@
     <t xml:space="preserve">12.0291872024536</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2010326385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0807418823242</t>
+    <t xml:space="preserve">12.2010335922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0807409286499</t>
   </si>
   <si>
     <t xml:space="preserve">12.0979261398315</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1151103973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1322946548462</t>
+    <t xml:space="preserve">12.1151113510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1322937011719</t>
   </si>
   <si>
     <t xml:space="preserve">11.9776334762573</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8401575088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8573408126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4792804718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1355895996094</t>
+    <t xml:space="preserve">11.8401565551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8573417663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4792814254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1355905532837</t>
   </si>
   <si>
     <t xml:space="preserve">11.1184053421021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3074359893799</t>
+    <t xml:space="preserve">11.3074350357056</t>
   </si>
   <si>
     <t xml:space="preserve">11.4277276992798</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">11.2043285369873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3418054580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2215137481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3246221542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1012201309204</t>
+    <t xml:space="preserve">11.3418045043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2215127944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3246202468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.101222038269</t>
   </si>
   <si>
     <t xml:space="preserve">11.1871452331543</t>
@@ -2084,28 +2084,28 @@
     <t xml:space="preserve">11.0496673583984</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9637441635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1699590682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9981136322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5136499404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6854963302612</t>
+    <t xml:space="preserve">10.9637451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1699600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9981145858765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.513650894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6854972839355</t>
   </si>
   <si>
     <t xml:space="preserve">11.6167583465576</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2730665206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3933582305908</t>
+    <t xml:space="preserve">11.2730674743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3933591842651</t>
   </si>
   <si>
     <t xml:space="preserve">11.5823888778687</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">11.5652046203613</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9088954925537</t>
+    <t xml:space="preserve">11.9088945388794</t>
   </si>
   <si>
     <t xml:space="preserve">11.8229722976685</t>
@@ -2123,13 +2123,13 @@
     <t xml:space="preserve">12.2354021072388</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0635566711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9432649612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5513153076172</t>
+    <t xml:space="preserve">12.0635557174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9432640075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5513162612915</t>
   </si>
   <si>
     <t xml:space="preserve">10.6544227600098</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">11.3589897155762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7886028289795</t>
+    <t xml:space="preserve">11.7886037826538</t>
   </si>
   <si>
     <t xml:space="preserve">11.7370500564575</t>
@@ -2156,16 +2156,16 @@
     <t xml:space="preserve">11.8917102813721</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9948177337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0463724136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.96044921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8057880401611</t>
+    <t xml:space="preserve">11.994818687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0463714599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9604482650757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8057870864868</t>
   </si>
   <si>
     <t xml:space="preserve">11.6339426040649</t>
@@ -2177,16 +2177,16 @@
     <t xml:space="preserve">12.4416160583496</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3728771209717</t>
+    <t xml:space="preserve">12.372878074646</t>
   </si>
   <si>
     <t xml:space="preserve">12.4072465896606</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993837356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0087070465088</t>
+    <t xml:space="preserve">12.6993846893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0087060928345</t>
   </si>
   <si>
     <t xml:space="preserve">13.3008441925049</t>
@@ -2201,19 +2201,19 @@
     <t xml:space="preserve">12.6822004318237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4759864807129</t>
+    <t xml:space="preserve">12.4759855270386</t>
   </si>
   <si>
     <t xml:space="preserve">12.5275392532349</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2525854110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6306447982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6650142669678</t>
+    <t xml:space="preserve">12.2525863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6306467056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6650152206421</t>
   </si>
   <si>
     <t xml:space="preserve">12.7853078842163</t>
@@ -2225,10 +2225,10 @@
     <t xml:space="preserve">12.8024911880493</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9743385314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1118144989014</t>
+    <t xml:space="preserve">12.9743366241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1118135452271</t>
   </si>
   <si>
     <t xml:space="preserve">13.2149209976196</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">13.1977367401123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6273508071899</t>
+    <t xml:space="preserve">13.6273498535156</t>
   </si>
   <si>
     <t xml:space="preserve">13.7476425170898</t>
@@ -2249,19 +2249,19 @@
     <t xml:space="preserve">13.7132730484009</t>
   </si>
   <si>
-    <t xml:space="preserve">13.592981338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.524242401123</t>
+    <t xml:space="preserve">13.5929803848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5242433547974</t>
   </si>
   <si>
     <t xml:space="preserve">13.3523979187012</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6101665496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.919487953186</t>
+    <t xml:space="preserve">13.6101655960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9194889068604</t>
   </si>
   <si>
     <t xml:space="preserve">14.0225954055786</t>
@@ -2276,25 +2276,25 @@
     <t xml:space="preserve">14.6068706512451</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8474550247192</t>
+    <t xml:space="preserve">14.8474531173706</t>
   </si>
   <si>
     <t xml:space="preserve">15.0364856719971</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0708541870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0192985534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6927928924561</t>
+    <t xml:space="preserve">15.070855140686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0192995071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6927938461304</t>
   </si>
   <si>
     <t xml:space="preserve">14.3834705352783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5896854400635</t>
+    <t xml:space="preserve">14.5896863937378</t>
   </si>
   <si>
     <t xml:space="preserve">14.6756076812744</t>
@@ -2303,25 +2303,25 @@
     <t xml:space="preserve">14.4178400039673</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6240558624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5725002288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7958993911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.744345664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1567754745483</t>
+    <t xml:space="preserve">14.6240549087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5725011825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7959003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7443466186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.156774520874</t>
   </si>
   <si>
     <t xml:space="preserve">14.9505615234375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0536680221558</t>
+    <t xml:space="preserve">15.0536699295044</t>
   </si>
   <si>
     <t xml:space="preserve">15.2942514419556</t>
@@ -2330,19 +2330,19 @@
     <t xml:space="preserve">15.3819484710693</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9960842132568</t>
+    <t xml:space="preserve">14.9960832595825</t>
   </si>
   <si>
     <t xml:space="preserve">14.9610061645508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9434671401978</t>
+    <t xml:space="preserve">14.9434661865234</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837812423706</t>
   </si>
   <si>
-    <t xml:space="preserve">15.101318359375</t>
+    <t xml:space="preserve">15.1013193130493</t>
   </si>
   <si>
     <t xml:space="preserve">15.1890153884888</t>
@@ -2360,19 +2360,19 @@
     <t xml:space="preserve">15.0136251449585</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7856130599976</t>
+    <t xml:space="preserve">14.7856140136719</t>
   </si>
   <si>
     <t xml:space="preserve">14.592679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1188592910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.855770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8031520843506</t>
+    <t xml:space="preserve">15.118857383728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8557710647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8031511306763</t>
   </si>
   <si>
     <t xml:space="preserve">14.7680730819702</t>
@@ -2384,10 +2384,10 @@
     <t xml:space="preserve">15.1363983154297</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0311613082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1539392471313</t>
+    <t xml:space="preserve">15.0311622619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.153938293457</t>
   </si>
   <si>
     <t xml:space="preserve">14.9785442352295</t>
@@ -2396,13 +2396,13 @@
     <t xml:space="preserve">14.7329940795898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.89084815979</t>
+    <t xml:space="preserve">14.8908472061157</t>
   </si>
   <si>
     <t xml:space="preserve">14.7505340576172</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1714754104614</t>
+    <t xml:space="preserve">15.1714763641357</t>
   </si>
   <si>
     <t xml:space="preserve">15.0662422180176</t>
@@ -2411,10 +2411,10 @@
     <t xml:space="preserve">15.3293294906616</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3468704223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8206901550293</t>
+    <t xml:space="preserve">15.3468685150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8206911087036</t>
   </si>
   <si>
     <t xml:space="preserve">15.5398015975952</t>
@@ -2423,37 +2423,37 @@
     <t xml:space="preserve">15.6099576950073</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5222635269165</t>
+    <t xml:space="preserve">15.5222616195679</t>
   </si>
   <si>
     <t xml:space="preserve">15.5748805999756</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7853517532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9607448577881</t>
+    <t xml:space="preserve">15.7853507995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9607458114624</t>
   </si>
   <si>
     <t xml:space="preserve">16.1887531280518</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0309009552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7327356338501</t>
+    <t xml:space="preserve">16.0309028625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7327337265015</t>
   </si>
   <si>
     <t xml:space="preserve">16.2413730621338</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5921592712402</t>
+    <t xml:space="preserve">16.5921573638916</t>
   </si>
   <si>
     <t xml:space="preserve">16.4167652130127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2589130401611</t>
+    <t xml:space="preserve">16.2589111328125</t>
   </si>
   <si>
     <t xml:space="preserve">16.1536769866943</t>
@@ -2462,19 +2462,19 @@
     <t xml:space="preserve">16.136137008667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9256649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0835208892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9782819747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8379688262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6976537704468</t>
+    <t xml:space="preserve">15.9256658554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0835189819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9782810211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8379697799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6976566314697</t>
   </si>
   <si>
     <t xml:space="preserve">15.662576675415</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">15.6274976730347</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9958238601685</t>
+    <t xml:space="preserve">15.9958229064941</t>
   </si>
   <si>
     <t xml:space="preserve">15.8204317092896</t>
@@ -2492,49 +2492,49 @@
     <t xml:space="preserve">15.7151937484741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6450366973877</t>
+    <t xml:space="preserve">15.645037651062</t>
   </si>
   <si>
     <t xml:space="preserve">14.6452989578247</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4699058532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4874448776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2591733932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3994874954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.364408493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2416324615479</t>
+    <t xml:space="preserve">14.4699048995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4874458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2591724395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.399486541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3644104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2416343688965</t>
   </si>
   <si>
     <t xml:space="preserve">15.2240953445435</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2065563201904</t>
+    <t xml:space="preserve">15.2065553665161</t>
   </si>
   <si>
     <t xml:space="preserve">16.3466091156006</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0659809112549</t>
+    <t xml:space="preserve">16.0659790039062</t>
   </si>
   <si>
     <t xml:space="preserve">15.8730487823486</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3117904663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6102209091187</t>
+    <t xml:space="preserve">15.3117895126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6102199554443</t>
   </si>
   <si>
     <t xml:space="preserve">14.5576028823853</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">14.5225229263306</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2945117950439</t>
+    <t xml:space="preserve">14.2945127487183</t>
   </si>
   <si>
     <t xml:space="preserve">14.3295917510986</t>
@@ -2558,10 +2558,10 @@
     <t xml:space="preserve">13.8560314178467</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0314235687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.119119644165</t>
+    <t xml:space="preserve">14.0314245223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1191205978394</t>
   </si>
   <si>
     <t xml:space="preserve">14.2769746780396</t>
@@ -2573,22 +2573,22 @@
     <t xml:space="preserve">14.3822088241577</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8735694885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0840406417847</t>
+    <t xml:space="preserve">13.8735704421997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.084041595459</t>
   </si>
   <si>
     <t xml:space="preserve">14.2594347000122</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8209524154663</t>
+    <t xml:space="preserve">13.8209533691406</t>
   </si>
   <si>
     <t xml:space="preserve">14.066502571106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9437274932861</t>
+    <t xml:space="preserve">13.9437265396118</t>
   </si>
   <si>
     <t xml:space="preserve">13.5227842330933</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">12.9966058731079</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4350881576538</t>
+    <t xml:space="preserve">13.4350872039795</t>
   </si>
   <si>
     <t xml:space="preserve">13.1369199752808</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">13.0492238998413</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510566711426</t>
+    <t xml:space="preserve">12.7510557174683</t>
   </si>
   <si>
     <t xml:space="preserve">12.5230445861816</t>
@@ -2624,13 +2624,13 @@
     <t xml:space="preserve">12.330114364624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7685956954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4879674911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.259955406189</t>
+    <t xml:space="preserve">12.7685966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4879665374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2599563598633</t>
   </si>
   <si>
     <t xml:space="preserve">12.3651924133301</t>
@@ -2639,16 +2639,16 @@
     <t xml:space="preserve">12.4528884887695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1898002624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9617881774902</t>
+    <t xml:space="preserve">12.1897993087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9617891311646</t>
   </si>
   <si>
     <t xml:space="preserve">11.8039350509644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8565540313721</t>
+    <t xml:space="preserve">11.8565530776978</t>
   </si>
   <si>
     <t xml:space="preserve">11.4531497955322</t>
@@ -2657,13 +2657,13 @@
     <t xml:space="preserve">10.786657333374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.277756690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2251396179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8392744064331</t>
+    <t xml:space="preserve">11.2777557373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2251386642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8392753601074</t>
   </si>
   <si>
     <t xml:space="preserve">10.7691173553467</t>
@@ -2672,25 +2672,25 @@
     <t xml:space="preserve">10.5411071777344</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0850858688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1026248931885</t>
+    <t xml:space="preserve">10.0850849151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1026258468628</t>
   </si>
   <si>
     <t xml:space="preserve">9.8921537399292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1727819442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85707569122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0675468444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5761852264404</t>
+    <t xml:space="preserve">10.1727828979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85707473754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0675458908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5761871337891</t>
   </si>
   <si>
     <t xml:space="preserve">9.92723178863525</t>
@@ -2699,10 +2699,10 @@
     <t xml:space="preserve">10.9795894622803</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2075996398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8918924331665</t>
+    <t xml:space="preserve">11.2076005935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8918933868408</t>
   </si>
   <si>
     <t xml:space="preserve">11.0848245620728</t>
@@ -2714,25 +2714,25 @@
     <t xml:space="preserve">10.6814212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7165002822876</t>
+    <t xml:space="preserve">10.7164993286133</t>
   </si>
   <si>
     <t xml:space="preserve">10.6288032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4183330535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4534111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2429389953613</t>
+    <t xml:space="preserve">10.4183320999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4534101486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2429399490356</t>
   </si>
   <si>
     <t xml:space="preserve">10.1552429199219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69922256469727</t>
+    <t xml:space="preserve">9.69922161102295</t>
   </si>
   <si>
     <t xml:space="preserve">9.80445766448975</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">9.90969276428223</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71676158905029</t>
+    <t xml:space="preserve">9.71676063537598</t>
   </si>
   <si>
     <t xml:space="preserve">9.82199573516846</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">9.64660358428955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96231079101562</t>
+    <t xml:space="preserve">9.96230983734131</t>
   </si>
   <si>
     <t xml:space="preserve">10.3306350708008</t>
@@ -2759,16 +2759,16 @@
     <t xml:space="preserve">10.1903209686279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5937252044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1374416351318</t>
+    <t xml:space="preserve">10.5937242507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1374425888062</t>
   </si>
   <si>
     <t xml:space="preserve">11.0497465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6463432312012</t>
+    <t xml:space="preserve">10.6463422775269</t>
   </si>
   <si>
     <t xml:space="preserve">10.488489151001</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">10.2707347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6336584091187</t>
+    <t xml:space="preserve">10.633659362793</t>
   </si>
   <si>
     <t xml:space="preserve">10.6699514389038</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">10.8332662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4159049987793</t>
+    <t xml:space="preserve">10.415904045105</t>
   </si>
   <si>
     <t xml:space="preserve">10.6518049240112</t>
@@ -2816,10 +2816,10 @@
     <t xml:space="preserve">11.7950134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6861362457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8131608963013</t>
+    <t xml:space="preserve">11.6861371994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.813159942627</t>
   </si>
   <si>
     <t xml:space="preserve">11.7224292755127</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">11.5954055786133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6135530471802</t>
+    <t xml:space="preserve">11.6135520935059</t>
   </si>
   <si>
     <t xml:space="preserve">10.5973663330078</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">11.0147285461426</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0328750610352</t>
+    <t xml:space="preserve">11.0328741073608</t>
   </si>
   <si>
     <t xml:space="preserve">11.3232126235962</t>
@@ -2900,25 +2900,25 @@
     <t xml:space="preserve">11.2869205474854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0873136520386</t>
+    <t xml:space="preserve">11.0873126983643</t>
   </si>
   <si>
     <t xml:space="preserve">10.6880970001221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3070278167725</t>
+    <t xml:space="preserve">10.3070268630981</t>
   </si>
   <si>
     <t xml:space="preserve">10.1618576049805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90781116485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0529813766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.180004119873</t>
+    <t xml:space="preserve">9.90781211853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0529804229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1800050735474</t>
   </si>
   <si>
     <t xml:space="preserve">10.3614664077759</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">10.4703435897827</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4521970748901</t>
+    <t xml:space="preserve">10.4521980285645</t>
   </si>
   <si>
     <t xml:space="preserve">10.0348358154297</t>
@@ -2936,28 +2936,28 @@
     <t xml:space="preserve">9.92595767974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7444953918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85337257385254</t>
+    <t xml:space="preserve">9.74449634552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85337352752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.78078842163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99854373931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59932613372803</t>
+    <t xml:space="preserve">9.99854278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59932708740234</t>
   </si>
   <si>
     <t xml:space="preserve">10.0892734527588</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1074190139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1255655288696</t>
+    <t xml:space="preserve">10.1074199676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1255664825439</t>
   </si>
   <si>
     <t xml:space="preserve">10.1981506347656</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">10.3796119689941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9239978790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1961908340454</t>
+    <t xml:space="preserve">10.923996925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1961898803711</t>
   </si>
   <si>
     <t xml:space="preserve">11.4683828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1034984588623</t>
+    <t xml:space="preserve">12.1034994125366</t>
   </si>
   <si>
     <t xml:space="preserve">11.9038906097412</t>
@@ -2993,25 +2993,25 @@
     <t xml:space="preserve">11.4320907592773</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4139432907104</t>
+    <t xml:space="preserve">11.4139442443848</t>
   </si>
   <si>
     <t xml:space="preserve">12.012767791748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.085352897644</t>
+    <t xml:space="preserve">12.0853519439697</t>
   </si>
   <si>
     <t xml:space="preserve">12.7567615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1741237640381</t>
+    <t xml:space="preserve">13.1741228103638</t>
   </si>
   <si>
     <t xml:space="preserve">13.2104158401489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9926605224609</t>
+    <t xml:space="preserve">12.9926614761353</t>
   </si>
   <si>
     <t xml:space="preserve">12.7386150360107</t>
@@ -3020,13 +3020,13 @@
     <t xml:space="preserve">12.4119834899902</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3756914138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6478834152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6115922927856</t>
+    <t xml:space="preserve">12.3756923675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6478843688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6115913391113</t>
   </si>
   <si>
     <t xml:space="preserve">12.684175491333</t>
@@ -3038,22 +3038,22 @@
     <t xml:space="preserve">12.4845685958862</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9200773239136</t>
+    <t xml:space="preserve">12.9200763702393</t>
   </si>
   <si>
     <t xml:space="preserve">13.0652456283569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1378297805786</t>
+    <t xml:space="preserve">13.1378307342529</t>
   </si>
   <si>
     <t xml:space="preserve">13.1015377044678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0108079910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2285623550415</t>
+    <t xml:space="preserve">13.0108070373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2285614013672</t>
   </si>
   <si>
     <t xml:space="preserve">13.1922693252563</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">12.8656387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8474922180176</t>
+    <t xml:space="preserve">12.8474912643433</t>
   </si>
   <si>
     <t xml:space="preserve">12.7930536270142</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">13.645923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8092403411865</t>
+    <t xml:space="preserve">13.8092393875122</t>
   </si>
   <si>
     <t xml:space="preserve">13.8455324172974</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">13.9362621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4443550109863</t>
+    <t xml:space="preserve">14.4443559646606</t>
   </si>
   <si>
     <t xml:space="preserve">14.0995779037476</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">14.3717708587646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3173322677612</t>
+    <t xml:space="preserve">14.3173313140869</t>
   </si>
   <si>
     <t xml:space="preserve">14.3354787826538</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">14.226601600647</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1540174484253</t>
+    <t xml:space="preserve">14.154016494751</t>
   </si>
   <si>
     <t xml:space="preserve">14.2810401916504</t>
@@ -3134,13 +3134,13 @@
     <t xml:space="preserve">14.3899164199829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8798627853394</t>
+    <t xml:space="preserve">14.8798637390137</t>
   </si>
   <si>
     <t xml:space="preserve">14.4625015258789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4806480407715</t>
+    <t xml:space="preserve">14.4806470870972</t>
   </si>
   <si>
     <t xml:space="preserve">14.4987936019897</t>
@@ -3149,16 +3149,16 @@
     <t xml:space="preserve">14.662109375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4423952102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5694179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4786882400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6420030593872</t>
+    <t xml:space="preserve">15.4423942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5694189071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.478687286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6420021057129</t>
   </si>
   <si>
     <t xml:space="preserve">15.5149803161621</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">15.8597564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9141960144043</t>
+    <t xml:space="preserve">15.9141969680786</t>
   </si>
   <si>
     <t xml:space="preserve">16.2589721679688</t>
@@ -3185,22 +3185,22 @@
     <t xml:space="preserve">16.1138038635254</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0412178039551</t>
+    <t xml:space="preserve">16.0412197113037</t>
   </si>
   <si>
     <t xml:space="preserve">16.0775108337402</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8234643936157</t>
+    <t xml:space="preserve">15.82346534729</t>
   </si>
   <si>
     <t xml:space="preserve">15.769024848938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2427864074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2064952850342</t>
+    <t xml:space="preserve">15.242787361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2064943313599</t>
   </si>
   <si>
     <t xml:space="preserve">15.8053188323975</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">15.9686336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9867811203003</t>
+    <t xml:space="preserve">15.986780166626</t>
   </si>
   <si>
     <t xml:space="preserve">15.841609954834</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">16.131950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2952651977539</t>
+    <t xml:space="preserve">16.2952632904053</t>
   </si>
   <si>
     <t xml:space="preserve">16.8033580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8396511077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0574054718018</t>
+    <t xml:space="preserve">16.8396492004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0574035644531</t>
   </si>
   <si>
     <t xml:space="preserve">16.7489185333252</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">15.2790794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1157646179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.097617149353</t>
+    <t xml:space="preserve">15.1157627105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0976161956787</t>
   </si>
   <si>
     <t xml:space="preserve">15.333517074585</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">15.460542678833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.533127784729</t>
+    <t xml:space="preserve">15.5331258773804</t>
   </si>
   <si>
     <t xml:space="preserve">15.406102180481</t>
@@ -3771,6 +3771,9 @@
   </si>
   <si>
     <t xml:space="preserve">11.7600002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6599998474121</t>
   </si>
 </sst>
 </file>
@@ -7588,7 +7591,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G134" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -7614,7 +7617,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G135" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -7640,7 +7643,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G136" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7718,7 +7721,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G139" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -7744,7 +7747,7 @@
         <v>5.57000017166138</v>
       </c>
       <c r="G140" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -7770,7 +7773,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G141" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -7848,7 +7851,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G144" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -7874,7 +7877,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G145" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -7926,7 +7929,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G147" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -7952,7 +7955,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G148" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -7978,7 +7981,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G149" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8004,7 +8007,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G150" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8030,7 +8033,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G151" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8056,7 +8059,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G152" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8108,7 +8111,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G154" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8186,7 +8189,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G157" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8212,7 +8215,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G158" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8316,7 +8319,7 @@
         <v>5.33500003814697</v>
       </c>
       <c r="G162" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8342,7 +8345,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G163" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8368,7 +8371,7 @@
         <v>5.32499980926514</v>
       </c>
       <c r="G164" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8394,7 +8397,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G165" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8420,7 +8423,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G166" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8446,7 +8449,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G167" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8472,7 +8475,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G168" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8498,7 +8501,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G169" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8524,7 +8527,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G170" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -8550,7 +8553,7 @@
         <v>5.26999998092651</v>
       </c>
       <c r="G171" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8576,7 +8579,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G172" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8628,7 +8631,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G174" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8680,7 +8683,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G176" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -8706,7 +8709,7 @@
         <v>5.40500020980835</v>
       </c>
       <c r="G177" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -8732,7 +8735,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G178" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -8758,7 +8761,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G179" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -8784,7 +8787,7 @@
         <v>5.27500009536743</v>
       </c>
       <c r="G180" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -8810,7 +8813,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G181" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -8836,7 +8839,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G182" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -8888,7 +8891,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G184" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -8914,7 +8917,7 @@
         <v>5.28499984741211</v>
       </c>
       <c r="G185" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -8940,7 +8943,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G186" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9018,7 +9021,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G189" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9044,7 +9047,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G190" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9070,7 +9073,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G191" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9096,7 +9099,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G192" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9122,7 +9125,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G193" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9148,7 +9151,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G194" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9174,7 +9177,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G195" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9200,7 +9203,7 @@
         <v>5.13000011444092</v>
       </c>
       <c r="G196" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9226,7 +9229,7 @@
         <v>5.11499977111816</v>
       </c>
       <c r="G197" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9252,7 +9255,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G198" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9278,7 +9281,7 @@
         <v>5.29500007629395</v>
       </c>
       <c r="G199" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9330,7 +9333,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G201" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9460,7 +9463,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G206" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9512,7 +9515,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G208" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9538,7 +9541,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G209" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9564,7 +9567,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G210" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9668,7 +9671,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G214" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9694,7 +9697,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G215" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9720,7 +9723,7 @@
         <v>5.49499988555908</v>
       </c>
       <c r="G216" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -9746,7 +9749,7 @@
         <v>5.5149998664856</v>
       </c>
       <c r="G217" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -9772,7 +9775,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G218" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -9798,7 +9801,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G219" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -9824,7 +9827,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G220" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -9850,7 +9853,7 @@
         <v>5.41499996185303</v>
       </c>
       <c r="G221" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -9876,7 +9879,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G222" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -9928,7 +9931,7 @@
         <v>5.36499977111816</v>
       </c>
       <c r="G224" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -9980,7 +9983,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G226" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10006,7 +10009,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G227" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10032,7 +10035,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G228" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10058,7 +10061,7 @@
         <v>5.25</v>
       </c>
       <c r="G229" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10110,7 +10113,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G231" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10162,7 +10165,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G233" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10240,7 +10243,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G236" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10266,7 +10269,7 @@
         <v>5.32499980926514</v>
       </c>
       <c r="G237" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10292,7 +10295,7 @@
         <v>5.25</v>
       </c>
       <c r="G238" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10318,7 +10321,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G239" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10370,7 +10373,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G241" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10396,7 +10399,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G242" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10422,7 +10425,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G243" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10552,7 +10555,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G248" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10578,7 +10581,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G249" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -10604,7 +10607,7 @@
         <v>5.45499992370605</v>
       </c>
       <c r="G250" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -10630,7 +10633,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G251" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10708,7 +10711,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G254" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10734,7 +10737,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G255" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -10812,7 +10815,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G258" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -10838,7 +10841,7 @@
         <v>5.70499992370605</v>
       </c>
       <c r="G259" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -10864,7 +10867,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G260" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -10890,7 +10893,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G261" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -10942,7 +10945,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G263" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -10968,7 +10971,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G264" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -10994,7 +10997,7 @@
         <v>5.7350001335144</v>
       </c>
       <c r="G265" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11020,7 +11023,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G266" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11046,7 +11049,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G267" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11072,7 +11075,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G268" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11098,7 +11101,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G269" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11124,7 +11127,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G270" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11150,7 +11153,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G271" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11176,7 +11179,7 @@
         <v>5.7649998664856</v>
       </c>
       <c r="G272" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11202,7 +11205,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G273" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11228,7 +11231,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G274" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11280,7 +11283,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G276" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11410,7 +11413,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G281" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11462,7 +11465,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G283" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11514,7 +11517,7 @@
         <v>5.72499990463257</v>
       </c>
       <c r="G285" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11540,7 +11543,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G286" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11566,7 +11569,7 @@
         <v>5.75</v>
       </c>
       <c r="G287" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11592,7 +11595,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G288" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11618,7 +11621,7 @@
         <v>5.80499982833862</v>
       </c>
       <c r="G289" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11644,7 +11647,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G290" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11670,7 +11673,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G291" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -11696,7 +11699,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G292" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11722,7 +11725,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G293" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -11748,7 +11751,7 @@
         <v>5.81500005722046</v>
       </c>
       <c r="G294" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -11774,7 +11777,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G295" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -11800,7 +11803,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G296" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -11826,7 +11829,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G297" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -11852,7 +11855,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G298" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -11878,7 +11881,7 @@
         <v>5.88500022888184</v>
       </c>
       <c r="G299" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -11904,7 +11907,7 @@
         <v>6</v>
       </c>
       <c r="G300" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -11930,7 +11933,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G301" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -11956,7 +11959,7 @@
         <v>6</v>
       </c>
       <c r="G302" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -11982,7 +11985,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G303" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12008,7 +12011,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G304" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12034,7 +12037,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G305" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12060,7 +12063,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G306" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12086,7 +12089,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G307" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12112,7 +12115,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G308" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12138,7 +12141,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G309" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12164,7 +12167,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G310" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12190,7 +12193,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G311" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12216,7 +12219,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G312" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12242,7 +12245,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G313" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12268,7 +12271,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G314" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12294,7 +12297,7 @@
         <v>7</v>
       </c>
       <c r="G315" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12320,7 +12323,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G316" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12346,7 +12349,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G317" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12372,7 +12375,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G318" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12398,7 +12401,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G319" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12424,7 +12427,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G320" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12450,7 +12453,7 @@
         <v>7.20499992370605</v>
       </c>
       <c r="G321" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12476,7 +12479,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G322" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12502,7 +12505,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G323" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12528,7 +12531,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G324" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12554,7 +12557,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G325" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12580,7 +12583,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G326" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12606,7 +12609,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G327" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12632,7 +12635,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G328" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12658,7 +12661,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G329" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12684,7 +12687,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G330" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12710,7 +12713,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G331" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -12736,7 +12739,7 @@
         <v>7.34499979019165</v>
       </c>
       <c r="G332" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -12762,7 +12765,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G333" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -12788,7 +12791,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G334" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -12814,7 +12817,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G335" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -12840,7 +12843,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G336" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -12866,7 +12869,7 @@
         <v>7.45499992370605</v>
       </c>
       <c r="G337" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -12892,7 +12895,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G338" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -12918,7 +12921,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G339" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -12944,7 +12947,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G340" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -12970,7 +12973,7 @@
         <v>7.75</v>
       </c>
       <c r="G341" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -12996,7 +12999,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G342" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13022,7 +13025,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G343" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13048,7 +13051,7 @@
         <v>7.82499980926514</v>
       </c>
       <c r="G344" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13074,7 +13077,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G345" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13100,7 +13103,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G346" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13126,7 +13129,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G347" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13152,7 +13155,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G348" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13178,7 +13181,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G349" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13204,7 +13207,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G350" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13230,7 +13233,7 @@
         <v>7.66499996185303</v>
       </c>
       <c r="G351" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13256,7 +13259,7 @@
         <v>7.42500019073486</v>
       </c>
       <c r="G352" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13282,7 +13285,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G353" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13308,7 +13311,7 @@
         <v>7.60500001907349</v>
       </c>
       <c r="G354" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13334,7 +13337,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G355" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13360,7 +13363,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G356" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13386,7 +13389,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G357" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13412,7 +13415,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G358" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13438,7 +13441,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G359" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13464,7 +13467,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G360" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13490,7 +13493,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G361" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13516,7 +13519,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G362" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13542,7 +13545,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G363" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13568,7 +13571,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G364" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13594,7 +13597,7 @@
         <v>7.5</v>
       </c>
       <c r="G365" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13620,7 +13623,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G366" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13646,7 +13649,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G367" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13672,7 +13675,7 @@
         <v>7.50500011444092</v>
       </c>
       <c r="G368" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13698,7 +13701,7 @@
         <v>7.52500009536743</v>
       </c>
       <c r="G369" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13724,7 +13727,7 @@
         <v>7.59499979019165</v>
       </c>
       <c r="G370" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -13750,7 +13753,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G371" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13776,7 +13779,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G372" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -13802,7 +13805,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G373" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -13828,7 +13831,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G374" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13854,7 +13857,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G375" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -13880,7 +13883,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G376" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -13906,7 +13909,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G377" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13932,7 +13935,7 @@
         <v>7.46500015258789</v>
       </c>
       <c r="G378" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13958,7 +13961,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G379" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13984,7 +13987,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14010,7 +14013,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G381" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14036,7 +14039,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G382" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14062,7 +14065,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G383" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14088,7 +14091,7 @@
         <v>7.35500001907349</v>
       </c>
       <c r="G384" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14114,7 +14117,7 @@
         <v>7.27500009536743</v>
       </c>
       <c r="G385" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14140,7 +14143,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G386" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14166,7 +14169,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G387" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14192,7 +14195,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G388" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14218,7 +14221,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G389" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14244,7 +14247,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G390" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14270,7 +14273,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G391" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14296,7 +14299,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G392" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14322,7 +14325,7 @@
         <v>7.40500020980835</v>
       </c>
       <c r="G393" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14348,7 +14351,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G394" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14374,7 +14377,7 @@
         <v>7.36499977111816</v>
       </c>
       <c r="G395" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14400,7 +14403,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G396" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14426,7 +14429,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G397" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14452,7 +14455,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G398" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14478,7 +14481,7 @@
         <v>7.41499996185303</v>
       </c>
       <c r="G399" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H399" t="s">
         <v>9<